--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\05-SQL\06-Projeto 1 - Dashboard de vendas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4314101-43EB-4601-9411-D8DF73AC0300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC163007-52EB-CD4A-9DDE-69B9E566FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resultados!$M$3:$N$3</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">Resultados!$I$3:$J$3</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.10" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.11" hidden="1">Resultados!$K$4:$K$8</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Resultados!$K$3</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.6" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.7" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v5.8" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.9" hidden="1">Resultados!$I$4:$J$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +44,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,24 +53,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>mês</t>
-  </si>
-  <si>
-    <t>leads (#)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>vendas (#)</t>
-  </si>
-  <si>
-    <t>receita (k, R$)</t>
-  </si>
-  <si>
-    <t>conversão (%)</t>
-  </si>
-  <si>
-    <t>ticket médio (k, R$)</t>
   </si>
   <si>
     <t>estado</t>
@@ -97,6 +92,24 @@
   </si>
   <si>
     <t>5 - Dias da semana com maior número de visitas ao site</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Leads (#)</t>
+  </si>
+  <si>
+    <t>Vendas (#)</t>
+  </si>
+  <si>
+    <t>Receita (k, R$)</t>
+  </si>
+  <si>
+    <t>Conversão (%)</t>
+  </si>
+  <si>
+    <t>Ticket médio (k, R$)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,24 +183,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -213,7 +255,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -305,7 +347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>leads (#)</c:v>
+                  <c:v>Leads (#)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -383,6 +425,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -392,6 +470,42 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2376</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3819</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4440</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6353</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -425,7 +539,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>conversão (%)</c:v>
+                  <c:v>Conversão (%)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -511,6 +625,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -520,6 +670,42 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.19230769230769201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7593984962405999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6454018227009097E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2738095238095198E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0245746691871401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2307692307692298E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.15942028985507E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.97643097643097E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.103168368682901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.132657657657657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17504078303425699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19738706123091401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -543,7 +729,7 @@
         <c:axId val="1886420143"/>
         <c:axId val="1886418895"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1305806031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -590,10 +776,9 @@
         <c:crossAx val="1305802703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1305802703"/>
         <c:scaling>
@@ -692,7 +877,7 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1886420143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -706,10 +891,9 @@
         <c:crossAx val="1886418895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -798,7 +982,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -890,7 +1074,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>receita (k, R$)</c:v>
+                  <c:v>Receita (k, R$)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -968,6 +1152,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -977,6 +1197,42 @@
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1676.45685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2278.5075000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2602.7686899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2297.2240499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3631.0958999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7911.1924799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7477.5559199999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21508.476480000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33179.246639999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58987.786489999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68274.090230000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1010,7 +1266,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ticket médio (k, R$)</c:v>
+                  <c:v>Ticket médio (k, R$)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1096,6 +1352,42 @@
               <c:numCache>
                 <c:formatCode>[$-416]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1105,6 +1397,42 @@
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>51.857999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.898767142857103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.784261363636297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.871778484848406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.788251562499994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.398469117646997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.480609075630198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.658844507042197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.590041827411099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.331488353140898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.974637921714802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.445048030302999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1128,7 +1456,7 @@
         <c:axId val="1886420143"/>
         <c:axId val="1886418895"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1305806031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1175,10 +1503,9 @@
         <c:crossAx val="1305802703"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1305802703"/>
         <c:scaling>
@@ -1277,7 +1604,7 @@
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1886420143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1291,10 +1618,9 @@
         <c:crossAx val="1886418895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1383,7 +1709,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1696,7 +2022,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2008,7 +2334,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2327,12 +2653,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.1</cx:f>
-        <cx:nf>_xlchart.v5.0</cx:nf>
+        <cx:f>_xlchart.v5.5</cx:f>
+        <cx:nf>_xlchart.v5.4</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.3</cx:f>
-        <cx:nf>_xlchart.v5.2</cx:nf>
+        <cx:f>_xlchart.v5.7</cx:f>
+        <cx:nf>_xlchart.v5.6</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2370,7 +2696,7 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.2</cx:f>
+              <cx:f>_xlchart.v5.6</cx:f>
               <cx:v>vendas (#)</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5760,8 +6086,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7868210" y="190500"/>
-              <a:ext cx="4579844" cy="4997824"/>
+              <a:off x="8931835" y="190500"/>
+              <a:ext cx="5132294" cy="4997824"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5780,9 +6106,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6663,26 +6989,24 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" style="5" customWidth="1"/>
     <col min="3" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="11" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="11" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
@@ -6699,97 +7023,111 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD18"/>
+    <sheetView showGridLines="0" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="14" width="10.6640625" customWidth="1"/>
     <col min="16" max="16" width="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="19" max="21" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="19" max="21" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>44075</v>
+      </c>
+      <c r="C4" s="10">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="10">
+        <v>259.29000000000002</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.19230769230769201</v>
+      </c>
+      <c r="G4" s="12">
+        <v>51.857999999999997</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -6801,13 +7139,25 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>44105</v>
+      </c>
+      <c r="C5" s="10">
+        <v>931</v>
+      </c>
+      <c r="D5" s="10">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1676.45685</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3.7593984962405999E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>47.898767142857103</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -6819,13 +7169,25 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>44136</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1207</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2278.5075000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3.6454018227009097E-2</v>
+      </c>
+      <c r="G6" s="12">
+        <v>51.784261363636297</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -6837,13 +7199,25 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>44166</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="10">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2602.7686899999999</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3.2738095238095198E-2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>78.871778484848406</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -6855,13 +7229,25 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1058</v>
+      </c>
+      <c r="D8" s="10">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2297.2240499999998</v>
+      </c>
+      <c r="F8" s="11">
+        <v>3.0245746691871401E-2</v>
+      </c>
+      <c r="G8" s="12">
+        <v>71.788251562499994</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -6873,130 +7259,214 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>44228</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1300</v>
+      </c>
+      <c r="D9" s="10">
+        <v>68</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3631.0958999999998</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5.2307692307692298E-2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>53.398469117646997</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>44256</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1932</v>
+      </c>
+      <c r="D10" s="10">
+        <v>119</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7911.1924799999997</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6.15942028985507E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>66.480609075630198</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>44287</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2376</v>
+      </c>
+      <c r="D11" s="10">
+        <v>142</v>
+      </c>
+      <c r="E11" s="10">
+        <v>7477.5559199999998</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5.97643097643097E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>52.658844507042197</v>
+      </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <v>44317</v>
+      </c>
+      <c r="C12" s="10">
+        <v>3819</v>
+      </c>
+      <c r="D12" s="10">
+        <v>394</v>
+      </c>
+      <c r="E12" s="10">
+        <v>21508.476480000001</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.103168368682901</v>
+      </c>
+      <c r="G12" s="12">
+        <v>54.590041827411099</v>
+      </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>44348</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4440</v>
+      </c>
+      <c r="D13" s="10">
+        <v>589</v>
+      </c>
+      <c r="E13" s="10">
+        <v>33179.246639999998</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.132657657657657</v>
+      </c>
+      <c r="G13" s="12">
+        <v>56.331488353140898</v>
+      </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>44378</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6130</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1073</v>
+      </c>
+      <c r="E14" s="10">
+        <v>58987.786489999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.17504078303425699</v>
+      </c>
+      <c r="G14" s="12">
+        <v>54.974637921714802</v>
+      </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>44409</v>
+      </c>
+      <c r="C15" s="10">
+        <v>6353</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1254</v>
+      </c>
+      <c r="E15" s="10">
+        <v>68274.090230000002</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.19738706123091401</v>
+      </c>
+      <c r="G15" s="12">
+        <v>54.445048030302999</v>
+      </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="10">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" s="6">
         <v>44075</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <f>EDATE(C29,1)</f>
         <v>44105</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <f t="shared" ref="E29:L29" si="0">EDATE(D29,1)</f>
         <v>44136</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="6">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="6">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="6">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="6">
         <f t="shared" ref="M29:N29" si="1">EDATE(L29,1)</f>
         <v>44378</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="6">
         <f t="shared" si="1"/>
         <v>44409</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7011,11 +7481,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC163007-52EB-CD4A-9DDE-69B9E566FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70B5C9-62B8-A542-BA83-25D2B8294CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -53,15 +53,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>vendas (#)</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>país</t>
   </si>
   <si>
     <t>marca</t>
@@ -110,6 +104,30 @@
   </si>
   <si>
     <t>Ticket médio (k, R$)</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -183,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +216,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -986,10 +1007,10 @@
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1081,7 +1102,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="176C83"/>
+              <a:schemeClr val="accent2">
+                <a:tint val="77000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1274,7 +1297,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFBE00"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2653,12 +2678,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.5</cx:f>
-        <cx:nf>_xlchart.v5.4</cx:nf>
+        <cx:f>_xlchart.v5.9</cx:f>
+        <cx:nf>_xlchart.v5.8</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.7</cx:f>
-        <cx:nf>_xlchart.v5.6</cx:nf>
+        <cx:f>_xlchart.v5.11</cx:f>
+        <cx:nf>_xlchart.v5.10</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2696,25 +2721,2219 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.6</cx:f>
-              <cx:v>vendas (#)</cx:v>
+              <cx:f>_xlchart.v5.10</cx:f>
+              <cx:v>Vendas (#)</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>BMFRCoAgDADQq4gHcBV9SXUXWTMFdeEG7fi9d6BFbJSms96GRLTTF9U3AggW6klCrzhZOGtA7sA5
-VyS4Z/rqeGBb1h2wpKlk3sH1AwAA//8=</cx:binary>
+                <cx:binary>3HpZktw4tuVWZPpuKjESYNnL+gDpU8yTxh9aKCKSBCeQAEiQ3E1bb6F38DbW16XMLEWkSuoqa+uP
+cpNZyB0EAdz5noP/epj/9tA83dtXc9t07m8P86+vS+/7v/3yi3son9p796bVD9Y485t/82DaX8xv
+v+mHp18e7X3QXfELQZj98lDeW/80v/77f8HbiidzZh7uvTbd9fhkl5snNzbe/WDsu0OvHszY+eP0
+At7062tl71fdvH711Hntl7ulf/r19bNHXr/65eWL/rLoqwb25cdHmBth9IZ++SDy+lVjuuKPAU7f
+EHT8iPjLn+P411Uv7luY+fOdfNnH/eOjfXLu1e9//zHv2a7/8bN2Jv165NQcN6huvpzol+ci/ft/
+vfgBzvjil2+k/lIgPxv6Z0K/f2x1l2nnrX7w+NfXt+kfIvmqiGfj39v2zxb+aiTf3e7/7Z5ubn+2
+p+eS/KFxUPQG0YSTRL6wDfyG4DihMPhd27jR5tXO3nePT68ezavb8YXBPpfT983kO694Nu3X18eT
+/gcY0c3J/0OFEfImQVIihEny9fNccYy+wUksaPLVtRGifyz+1amPUgelndx3T9qaP8a+Z93/XGvf
+zn+pMjjrf4DKznc/ksy/GoCTNwmWMYMM8tWX8F9UllAewzP06/gLlZ3r7t692j3Ze+1+tK3vK+z5
+7BfqOp7zP0Bdt1c/ksu/qC5C33BKkzg5etnx81Jd8ZuYSBlL9LsDQuj8Nm3e/vf/Mq+u7sfm3/Cu
+b+e+UNXxjP9fVfXPs+2fGSW79/ebL3XKN3nvx6N/pL4XU5+VO89O/odwD4+/vk4oQ1ygbyqg42ue
+Sf/qHrLSf//P7856unceCiIm3yDCZYIoR5RhkYjXr8LTlyHO3sRY8FiC+gWJeQwlUWesL2EaRF6O
+eQJmwRClBFGwC2fGr2PxG4Ex2INMKIYHhPizRrwyzVKY7k+p/P79VTe2V0Z33v36mlNYpv/63PGY
+MYsRRjJJRAyWFotEwg77h/sbKEThcfw/iPElRkM0ZpERpFI8DNOyqXDXXkfEEqOaKI4OLJ7NrAbT
+tUbNfpxrJbys79ksBpJGYS4G1Qw6h0ER+lwJom2+mRhyhZKti+ZNV0fFIc7JiNJKmgGreHGepV1T
+LQ/SCp+nqG3sR0tGg9NIu3FIAx/ZohbaokseFfi0CG6s0zln+agcwtRvitCjStWDW5tUJ8JdU02I
+Vbl3tlctWdGctnNEtLIWsfdJ3NZthjRWZd7GH1bkEVLO4HxfxTZ+9GTury3O2/uFe1akSzEF2ITV
+IIOqaPo1rXU8X7Pg11phg6ZWaRmNQU1cwNEs4pOqre1duoSSTZltG4PVbCduU0Mn59I4WvX9Uvas
+UHWeFz4ty9mVuzFUflFluyb30lPXK9KWXa2aZpZYjXyyn/J6KdoUmWjZF2KpGyWLJtQZ7NV96LrW
+BzW6RBxk0dW3OQ3uDplY26xpNTlnhpmz3vhIZ4PVbFW2cOKzKb38QGSeL/ukEOMlz3vQuo3rBG+W
+SvhTFEJ3XgQt3q0Cr3k2tqS5dI2tUDr0XfgkWL++Y+3qZjWisboKgzGfusQMN3pa0KJWPTmW4qRs
+/aoqXnOvktqEuyiW5SOsyNEhopq/bboq6O2Ur5PMwtjgZTuUvqk2A6L6s1jn4cnMg8adKvToyWZt
+klZkM63KXM3JQMuU6Hpx6RyZ8S4mmAtlbMJD1gZSvcOkZe6gq8Sf1LkoPoqFVafDvOT3Ni+NTkku
+3LBtjPA3cdet913UzB9Ls4yRwhJNF7pf2ouKNXZQpRxyoiax5pXya2yoGnOaF2rtTGhVjqX4XHLu
+m9T4Ks+zehmaCIxPyjOE2rpIK7yul3nNx4sBx+RDK038CaOEFyoOoz1DHa1PJUv6dNEN9+nquuZm
+6UPwamh7LFIyJ901VNFDocaoJeAX2vPbmEmtFauTaVutARcZYsZt2VokN5pHdi9jN19j2ye7Mi/a
++zyXzZhCtOpciiZbMuVCaeSusPV0E+nOdWkjkfvkULDxxqzzvKrIBgtripUyVXfVkm+ZwfY80CI8
+yEG6XE0VSNXbeGCbBs9h2a4Fz7myrGHdpjHrSlTPTC13I29Rmc3VtJJsLTS/QXkxflrlQHiK+kBx
+KnKHIzUXNWNK0sYkm1Aj/9hJ6botK+x63o+gxD2Ki7racjT1VOXjWk+7cuDlmi7LQs9mAV10VZdJ
+nbo8zx/Hcu1alXDJ7imoaFXDYBqsEK7atMM9blMbRslT24eoV4ySds6sOZqSreplVEUZKp7VUYKK
+tOuGIk6TPC4/RiZxn5iMmrMwVd3n0VseqzHGhG7ZMnYmTYao45uiErG/brUTty3r1jaFBexphX25
+KiFbO26wH8mk5AAbieSy5qmrKf9YaTPpbA2gxs0S5347iYgRZUtEhn0sAn6rK946hVa/eFVWIX7X
+8gZdDQzVfDMm0p7n8VzpzPZr854JEkEoH6X7zRZNO6q2mYLe9DSeMlP5QW8GO/k2m/qofJCutGjL
+SNSuahnm+imCo7iUNHM3pL2oF5HRYpl/Q3MBcT9BdhBqhZh3kw+yWDZcG/M4j3lyO5GGShWc9Td5
+264MohlJqhRCHdgEInTGabEGdoCzFlxFTkPA69e5WlWtURWrlYz0/Yyr0UMIGdCYzmPZGCXwXH3o
+Qyu8YmPXnQSmyboxpQlPqMPsraniaFB1jTubojEMt9Ig1GTFwqd4U3QRWLWZESoVSooFq7psepu5
+bpjXfWHZShVCnMepq+K6yIoxh+frFuk5K1g5fy5oRD7K2Ay3zNEyzkyOG5ZOXNpogwTEaNXyCXsV
+jb5/73yJWuVyv87K1WuSbEwEng3heGInHW5QuysWCrbdVO1FMs+TzYqEko/VTDjd6lFEq2J9rodd
+M/oO9OOH6lE3Q/yJ9rkkm2Ecl0QVJGHR1iQzqU+qbsFvEx4hdrquZk32YB8xzXCie5LJBMPBzLKU
+foNmq5uDk5Zw5XSdrNcOEu7bAlXWgKf3ejzUiId1X3ucJ8qD2WbdbOI6Mz24durGzlUb4wWq0wJJ
+b7K1C8O+6MU8HFCoB3aTNK6udyWjOtqbcrZBdRAI5tti9vlNDsEpKIoYD5dkTGqclsK0n/IJL1W2
+eBMx1bRDUW2Rdo4pnft4T2JGTYqWZLYZ9/lq1YRdLk5chyOi2DrGdrcYWt2MPXVYTWGJK7WgtWpU
+15B6yVYia7mpgojijWZm4mp2Q2wz4m0zbAqvZ7exSbDdoWMzGbcoxmuicCRaDuqqJq8WPzd4M5fc
+jYpTD8+XsW4fer32USokNeWGVn0pwTTpcivENI8n0tTjuNMIcpRtqc33bd3NjZqHCt3NXcBPTAzy
+3vQYhR2AarZUOStDrZag2wArouZzsHN+lw8hf4zKIilUWObAUjYHEVKaLMOp0QP9aJsS16pFCfs4
+6HnqlPU42Q1QLGjwh6pr93Mx5ze+Nv2ULRVxRdbwutoEvA44dU09gKkT0jRpPXeSZXneQACURIgr
+FyLfKNPT/MREiHaZhyMTpYeuLlPqFvQWoXz53NioMWnTiC5OG4alTXM7m6uuYjJXJtS8U5i4st4a
+2sa3kMmgmPOOiKsy53xNB5lDRQUdUR8ueoHM3Vw1fQz1ToyNIq6pRNrXPmGppmiYMyLGctd1xeA3
+cetovGnsKi6bMp8+sG4sblluyvZsiGbxmNN6rJUjFgzFMB5FCspB7zelnSHdszWMaFOiSb6tpgJB
+OIhWMB1WLubjVFWgka7qIN0vK2TvXTGiAW9EraneCS3InNF6Lt/LPIKAYWAmBBjdg+pADkVIvVy8
+Sy0ZDE2jBHeQSO3ayrSfcppVcahvY1f5cdePTZUr3mEbsgoBeqgK3hkoBqZ5XSFVEwj3zegKrApI
+FPEW12X7Fg9JR8HSu0afzL5dcPpNS/O9BuFlewBFBZeUMmhHjv9lz9sDu0oeF0NUZZUuhy3JWQ9C
+7ISaIxz+jaViihlLYsKZSOLnS/GmnKCKT6osrNRf9qVpUzNJ/JHVdNr++FTHXT9rerDAFFofiOQx
+dFLsRdOD1kEv/SjrrA+r2SWu+c3SuNv8eJHjS14uEh+BmBjSGmHxi/M4imvPRl1lPRPL2xEqoWyN
+WHkmo86do7Jvzrs1srH68arfO9q3q744Wh4vBrEy1xnF07qfeu13xk1k/y+ugpKYcywIQQni0OM+
+11U+lV2bsEVnKDieYdm4HTZT9RM1Yehzn4vwyzKSJ9AHS+BFAK76tjkFPAASL6U6q/p+75NmzKZi
+jTYGVVE6xA5dDGxst+Ug+k0+5/N2QDi5zkfPAOH4k9r4jhckP9nHCy9gPQqeMKIzbW2rZi7sTtBj
+tBYtzSB3bkxMveJtMNBAo+InhvQXlYIUYoETibFgkkhAJb6VQrxSsfAWysExSfTG00ZmZHbmJ8I+
+quyZub5Y5aiLb4AAa7TRlRh1JotiPOFDvGxQMU5boyea/Vic5LjjF2sJKuM4poISmfAXJzK5yEu9
+MJ21M4KYN86QCSCR2pqcaEOHT2PJV3wwpkOfcjLNWfB9o0RjWryrA2bnfZUzoUheR0pPVb3HK4me
+xhbTT72poSWKoETnGaSL5KoYIUX9JFL9RSEQCcGtMdSoUhxRmOeiqqYpL0IFkYoQAxqX2mwirfHh
+x1L67ioS4isXIKcYgJ5nCnGGhrKXEHp7RsC9JG23Gjn+k3jxF7XDWY7BiUBRywWOj7v4Ru3FAiAA
+HWSVRdNiVFkittUBV/s5R/Ppjw/014AICQT8gkokEDTjRyjqm6WgqYKArHWdDc4XD2s9tnecF8N2
+qPicOWmikyIpf3a+oy6emRqEeiEALKNEHCG4F4vyedH1AFhDFslRX7X1CE2NmLu0ZT05xWWVA44T
+crpnpc/vf3zevyoQlpZcIk4INPMvzWReXR9F8wzRK47nLB5JfVZ7aIH/jVUSyMwJBu1Bg/lcqrwa
+oc7Kuc4EmaYtBQfY4mMz+eNV/hqKQY4JmDyFcwjCkxeh2AjUdtC1VlluoJLNhmAKATWU8F6NDWFe
+UaPp2VLWEU2dRR144oByxZaqJqqQfT/8ZEfH9PlSsXBsCtglREUqX2xoKjo2DCuDDa0D2xVQu153
+XDdZZfsYqWSckp/kvL+arwCmK8GMcoJYkrwIWqVnLJpEqDIpPFHeYzJlIjJyjxIB/XnVy7NJONf+
+JPr/1UFhWYCPBawac4xeOKiPOEV4mKqsAJRpy7tqPeR67LgCvJbEPzGmLxn1hVQJhANCjrEAaIcX
+WSDp0CKSYqgyI8b4ArqIRLnGRbcDRyKb6iYvAHLDE7SzhsznGK3JBVi+iTIKPezO2zHfAlaV775Y
+3++4/9XXDXzFrR9Mv1hdlL9fb/jz69/P/7gz8YWc/8fvxwsS//h2OT1ZP9qnV+f3vXu1HbvHL9cm
+Xs45rvznJFj4950cMf5nX/5COfwTUuE52f5vMg6UJAK0/2dh8hfG4cZ0j//9vzsNcegrDfSVqfh9
+3u+cA0/eCEEhXUjwUmjNKBjM75xDHL+BYCTFseyF8EsZDP3BOYg3QERALhZQeMcUQc31D84B0zcw
+RgW4GwbCAXH8r3AOEHNf5H8qOVQxcQzMFoF/EFKexyzpJ9utlNSZH8Jj00tzWAtvN0HTCnp6MWOt
+1qhY9/Han7KG0E07Yak4Bwyowwn+WEM5dGamUUdZI+YpXVk5HYqu5CfIumYHEMTjzADuUn10SJq5
+3dXJctmEuTwt+6rdLfl4z9fi4ohfefGud52q2ukqjt3BtNUuibSayuVsCMvGzeE3R5P3aMVCAQb8
+3i3VGe/Lh1nsRxltypVeMdPvR8+vaTNubClTOTrAsS5wIB+01Bs+1Luhlier7B/8Qk/yfDwvh16F
+aNmY3l2ReYbWchSVTztUq5WtGfjSSQmxzLLPCBW7CuOMd1LZrgzK925Xrd3G4zXVVX7QxPapJ3Fy
+T4WfNqKLkBJlvhuHB1Ks7ypnRVaW5ENEOD4Mfn2/AtWy1XZYdv20m4zJiqmYMjkxexBLV+8mAPGQ
+E2dzaU/4WN7OA71qdayWtiG3IuqQisVy53CV0qJScQFbCOd1C1B2OW0iesHZCGGKHyxps7Hvsz5+
+u7SrBsh6is4Sm2QDMzs/7o3AaVd313TKP5IEADevs7ifStWP09s2CJdWuV0yYHqUxEWShmWdrqPh
+0AA2MPTA6sTDoMSYFIeuAxOo3wG8+7EDkiYdVnydFG7+VKPYpv24fJgDP1sEATQtwdVnvpbhQQd+
+X5J2UkPB7zGKl2zmM1EtZNndAPgbRHgoS6RvwrYvh+5mMfomLrY8PlRdiFNRmJMiL9sWqJvYnvW0
+DTfJROkd8GDkith5eV84CvzKYgDDiZZtEhfzthG6S/UEJBSYZf6xx/lpHjfsMMVUn3LH3kKn8QHK
+sXBhmdMHWYr6BHW+ylwz3DlZpXKCp4PWLotXVG+BituUEb20fN5bCS2IW85ImK0yOXBvicmbi9qX
+jcJVdaiBk9mwHn9affdbHwFy6gGCVGSp3/JouDC5Bpxc2klsl2g1d5LMKdSA74LoB8WxawFhlFNa
+h/bQsGbdkqhn58UiVNW3CnDJcy91OoLxoQCUFw7FTk5BpENTKCH6HTRlGR7l3oWzqCuzkYaQ4tb5
+q7iun0xo3htpi4yN0ZJx6S+WSqd9P+9QNG0FfZhGorjIFRTA55QYt7OhADsMbF833S1f5L1rvb2B
+22+q8E9rmD7ahUSKlvrQu2HnJJ2U47hOAbqJzL2Z83dI++JxjYv4omQaODrO5HnBDAL8N1DeqLWp
+xn0LZmrukikowudHvmiVEweI2AfUt7fAQMGm0mYkpdJJ/h4mKGDPjGrXwSssFkCQAO9LK8u2NRjA
+xPM7AAQb1ctKrf0+75PzuFmBzIlGoB+6DZkOK4BbAcxFdTxulGefV1nfBq7rdC1GldvkQ9zuEOwD
+8esBybBbDQEmCxHAZfywQN0jzpdoBsbJA1vKy7bfxqMLe9bH7U27xp8gkKYxQGF5/qkuxm1Zx2nR
+4EOeP/hxShPsXTbg6l2dNxvu+y2biy2wfBs0rCe9wHsKIBSg83XW+eIQ8kscPlR266cJb1HTn7kK
+LGqokke3RFkeTvImnHk9oVRGTpV1Bdv+3EbdBS39brTNTleFal2+Q9W4jcpxFwZ04vCwS8yczYDq
+6+KymVi2NMW1FglPgUM8Acr80I5kvTXTcN7N94Ooz9plusCJ+TA35Br4hROhdeaq+rQLABjnFTAe
+el6gheQ6LYm+yWcGUUJEbt/GWmSI1kiVodnWbXxXmn7IgBh6V4vhUvbdbVslJ0gCf8pRigejAIS/
+Mq4rUkrGTd2IfSXKdzlgzem0VE/aI+VtGR8wi9+SQt7OukrrJO7Pk6Gt044EwMs7E6d89FqJFSy2
+haJyX4rm2rfxlW3RDvqjt4Wuq0vasDM9tjvL3ktghnDk7os57Aa+XowruSsMPslB0orx+U5EEMvi
+yd0gbqlK8PR5dMAgFclvs8tP23q9aFh1A9TckOZL12WJF3hXRSf4uIMmqjfV2NSqtGRXNbQCSlk/
+IV9eBMyh5BMOpTMA6HEZA/kugegvdYa7/m7iwQOdtAztDjjkU15QMLjp87oM/nyCewml8UsmwCG2
+pGPvO10DeWfeAtJhNpLJk3JCJwWur7nXOzq+1xBF0zF38kCtvVqW8WBDtcljEPr8lIRKq1Z2Cunq
+zLcSYkDvUz+ik76cTuISvDFuwqlE+FJXAdjdsgKcONDTEVDnXpbXo1sKgHr7VBP01Ln1kPCBn3dR
+z/d44XelLy/Hml8mUTQqYaoMH3leAOVPtIhOfJLkKcDJaU/6Uz/k79aq3OJFHEzcbIZVbPOOpwDg
+7JeEJRuZT+60RBCdo17PZxJzgKg9+0Dznl9L65dTkgwpS1rw03XbFvOm0QDw2/IGiNzhgiwloL9k
+TA0U1QjNn0nh3k1dfrXk9acarJlOT4AFpQCOQV8wLufEubBxur9AofAKOGiTLrYq00UwvIeDtVlk
+ATtyunxyJHxsxGovSDuIHVwXOJEMK8kCPRRNk7wbJTksQ3RHJdNbYfrqvCWRSCfgzCCeCdRsgrfv
++iTAZQ8aq46S87jk2+DhtgYZK7pj3SCgsy4OvbGLsv34foDWFSwmZxaSpUhuKpOfDwXi26EHIc61
+lFswd7SZBKQQwx7AW9YsapoL3vqLWs/xIRegxrZpMgpc8MEtUJFpIe5dDsg80LZpHcUKNfS2Hetz
+FCfmnta5POdRCZR22+5mijKL6JTmuK0hFBTbeI1zVdIRqWaV7VkQEugbg38bC5a1Deo20lqnooWe
+Rmt9i3ST0iWfL0k33HmADvZzIxbl5TiRPm2AsoPrB7g9tyEXttsWfhovkC+q06mSNEUMJ2dFbeUG
+mabLAo6AfISblSK1C6Ynen4L1zryy8Dyex2NVaZxHjLEfdi6oqxOC27khsWUZoXOKRgMDERVmQDx
+PxxfaeXO8KU7MQTWqoc5bIsCZgCwdpSL6zc1hYsFtfWzCmsU7uqRD7fITmFbk7m8dsOUnMkpsR/Y
+AtO+PGzk2J0U8dyd1MskdzIZk7O6x6ZSRdXTj7WsO6hIfL8xSVy+r+vkkcbFZs41FL8MSi6QYrND
+hYW1j8vKEfYoc5BCXR1n2tYfFgfsxzjbpwC334CZOb4tNOV8N3gOpBDGWpxPWg8pRJHrpEapHtqT
+Yh1TXoj+AmjPvZ+vbA6EVcnYZjUFIFgVPaVwMUEBNxafUFIsGW0tRDfdA4mH7ZWN2relSN5FwQ9g
+KpXNWovsLiHNkiWr+YQIAHlhVsC6gB0uxS5Ic4MGeojiCWXI6rCVQNqm7Whvo7i+lFF/Ape7dj2g
+HFBZDjij/XDRJ9V2ZXajOd/OawGZO6k/utDfRIxPKfDF4bRuc72t12HZdwQyYGXI7crodUNttRHR
+fFuh6kKU/aVsi2sgUc+AiZ6zZOzyUz67FaqgBLiEvIsfUCvGPfRsn0Q+iyzpquSUeLguM3QlEOVx
+/qRlSNKpms8B3QFuvmjHW0TItG2g0Ny1U2kOcBFiPc/Xpr3NUf0ZLKmFhFSbLATNszGPA1RUhT83
+BI9Zj5fmpOotQB582yXzkAHGc4y7BVQGou7gNkAF1gLEyjqVegdM324t8pPFdzoDbERs5oH7jOuJ
+nM0o4pkZSZNy38GlsE+iYp+rDnL8LIo17UbzKNeyfbSF4ApRl18kBQJwf9HrhRzGkLZJDprgdF+X
+Q5E6XPZZ2S4pOCCFSj4vUxRYctFwPkPVQH0K0TFc9nFXpaHVOu2KhE1ARrZJZtpCnLmZnDcFZntd
+LtUVnrDYRkDtb7+67LA0N3ULOUfmjT8EL5tdYTz8FoOTF6hDezuO4B60P/q7BVvum2F+H/EE6u4m
+h3sgJHY0cyv4LqtYflkUfFmVXI/TmxgqT8flOVkX0mzyZmgWqFYTecEmC7cF2iU8fYkQNR6O/hq5
+Q70GWM01ZZexhMJmxlZuDCvrEZKKnu9Y3kCxy2ZTvg94htgS4FaBjAI4+Rqte2fdcFuHhb2th2Rt
+ge9n+lTMjL0VFelP5k7M+25qEMiW9+lE4Y2Ut8OJN2V5E5qFZnLth1snBFwNQFBq25SFKb9k01q+
+Zy6AQxfDUL4HO7UfAmqhhPkayuoAtwuYg2hV1HRMUrRCJQIED/o/7Jzbkp44tq2fiA4kTuIW+A95
+Ptrp9A3htNMSEiAQSAK9036K/WJ7/NVVHbVW7I4Vfb/uXGVn5p8cpuYc4xvz/Ee5AhmGq/LPjwgl
+YzqAijTflO7WK1ka/osHjs+0b11yALSETqAPaoYhmSxdvcD3+mKLNZqaobPw0yVq2CIAhMQd6mzF
+Fe0C7v3QJ8d/FsNp2T78XCS15mV/UlR0wBX1Lp7iOJ1qzvn2CtYaf2o7157+KIypQYVivbtwI37C
+v//nV8UzKqye27lDtZYz/ly46IarFb9nhm+j8hVfMQ2LwK+LUcrgkce9GV/GodNox3X87lipT34i
+0QxzJ0sOArxHjIlAtuORDfj3fh4SWuMUo33l4L7powk4J4qC+um8LMrd4Jw2oQZ4QG/RC6enYtRl
+VHk9FZjpUbtoX7LHXBAcxmIQ0WEz2yxqiet0k/gSkEViIyBWbQgvWbd2UCjKScKzbJfzlApBqoLP
+uh6Cir+HGR7R7pLoEIGRuo5Dsh1kUgCKnFpVPOk0Mq5yquy/ZVMA5eYxWQ1VFmv/LY999LUQWVmZ
+vYtQ17W/DPWhKK5MEnUPVgJfPExzsr4vYz4BAxnX7RrifijwSsvx7F0o7HPp4c6fBh/lr3Osl4bj
+nzVkdWyqIp2Un0Wy+w+y7uW1pVrUivl3CBrhsXPON8uCmaDucWve5uBMlUlZPHtBY1mHIMTJaMmv
+Wk7TrCq7OLlZB8LupkEWYKYknI0DSywwV8baK6qKKTqXBZO3NqVmwX2i0dW4pomt5tRkp8Ha/qvb
+S1LTTNg7skzsmgvenhYqprVJYfvP6PMiTPTkcv7ECnxpb7PzKPn2hcip/AiSo//2gymvWdFNrFqV
+LV2F+UfQ49CS5Zp44x/w0m8vraXTVxdbzauRbpC/NuhKkks+NtQOop5gw2DmH6Nruxid4Z54fh+y
+EK41lKfrsMXsEc/cfrdvLQPoCg656vahCJh8YyBIcokhfHRd/NXqOfMVfj1/PW5EpAcnTfuU2lBc
+ceegWmkUVpiivXOwAcr5V55u013hFDsWNgEoO1Ei7wgAEoIReRh74ItLB6ZoT6Iv+E/+s2R98i2H
+Xrw0iQ/FLyBDqaiglLM31Zf5Kx7P/G4udPlK2kyeJhEVT4OS87WPyf5iWbnTyoISvLo4aW8tHdnX
+SLjy10WchDY4J7lCCSGiO2qJOpeFVnyM0mDciMg4p01q+ul1SrrBXCfZHN1Z1g151ZFl+Wi3Ud3u
+PdBMB0HhENlFf7gEdzKA2rnrt8yz48zDnHy4tMX0gGpWJ8HQK3AJxTFseXlkS67v9sQXnwXRab2V
+GJ3LfcQ9GD3YHWnVVqcxK5/bLM3Oy8bLB682gMAwPa6TlGGEZHBY8gvrWtFpGEzlfQEEMOdgT9xY
+mjNGg6VKfd7fQxasaI4vTrruNuv5D4fvdYuHKz+Xql0h6q/lqZB60lVQub4FPL3WPIc5m3QJGqG9
+6GrCSHejo83UWUyix7bHRBQm5m8WghY8Jqt/IpQO5z327GqY3zJZ2m+49KYeje7vhrwASBN4pBpU
++ehgWV9cd9Cgzkz3H8AN+dO06rXaiBuu/AAochVb8QS8L52rOU7XBofYdNsKxivjtT+IYtmrPhuX
+Yza020tod7Svfbvd5CArvywkpQ0BNvjsvZgrO6BeY1CVSaXLFgoBz+KndmXuFsDTXmvNP7zs1WPc
+UbZVWYtGxIWkv+9EikFgoRGr29aQRoHtTGtjeNwAadtAA0NFWOne4oSiUZMpH537EI2HOJbbeaZ+
+ecjAcTWhGMOv2Rh6JiX311mW0iPLbdQstIzuuoUsvyn3UlQDKDu8IJN/m30w9UWUzicpAbRfRM8p
+2fkPlnJczg01y7RxCXqbEYCwajBXvSTuJhbdekZBWJNqaG1y4wLovxPNUapvNKbT7/1S9ENd0KJ7
+BDk0TKd1icSHVKy7SakEZTEKh3M4mSDwpFFWgHvoe/cZ1iAeYMgVY61aqf54EtPtGrUkOW/bBuCP
+SlDghIFJLJKpbEjPy9eIxdJVptz07cgGtjbFWrIrZVOA7GM/Zl+XtUg/MSbS7koBlztNNNGHDa7S
+dU9hgteldOl2NIxcsGc6xZ+2FBiNUZ13fVxRbZMK/Nz2fVKx+qEL71DkBlwgs+M8q2YXuRei9Xbn
+5oxeh05HX5yGpWD3tn9OFU6iGrIP9B21yfbere1874FLH6hx7hSr2YlDR9ulP9AyJGkNBm/7vgvn
+37neh5fRFZDq8R6+lCTg+HMY0b6KbNcK3y/Omt30DoJbWVJ0IG0hjkM521uEEthh8yUxddLjE0C3
+6ZLHBZAnQ8O5ayD/mWLo83N+xxWXTzpfJ1CwhFnM9BEFdMwCe3Uw778nAy5kr+KloaSYHgBdivM4
+9y9Ln5GbUXCBbIRv37KMWWA0yUyPE+3n27ZQJauGcuO0ttk6v3robeBbhFvAnU3bUdhITFULqu9s
++pgDCjXj9LAlfnuSUQxUN1Ibf9GiVa/tvrpfG+oyUPh2k3E17SXvcHhEUN/CpMZvKCT4IAGnCQfW
+WaLg8qxnlSJ6cDXb1faxe95DSbMjq7dQxld56K/xtk7iEJW65LXIKajP2U7xLzTi5pzO03yc+i5l
+B7hNHQxJYKVPfGlj9C2kpV8XVJs7B2y6AfQorkk5xeducVexzXKAdNM2nkQ2p0c8ZOQ6VTRMEEG4
+edzgnJ0ms/JHgkmpg2QwpngDM/vR9TS7Qsud0EaC9u+BFECrSQu9HSHfmw8brfw2yJZ9Ci0UWP59
+yR4gmODsdKYj9xh+DWRNxxxGOJvDCRglVOJapWN3s/mkPKX93oPMFU2ORAYOzam86dAVUGRp1vGZ
+m3hej1OaQac3JmsGKf1BCR096xSAc7xucR1aBSNhLPfKA01aB/6K+vW0RtRXUQ4NvcvCdQ6Pvtnl
+Doyoy/mvYem/7HRvwI7GdzAb5kYVkbmzqUnePcyM09CncBrWNq+A2T/7RVxF03wo2dpeI0VQlTh4
+IiqeQrwfhyg0IxLPfiN3XIsHiCDQfFR7gKd3GIyCda1U0+bpm9DzKcTx67JA0SuZPcrSv09tcWOm
+eax2vLGn0UtWj2K/yFsmRYoAip1E4qTPIStRFU4qi7uDHPUeGrO3jeFlfkSMabnPVr0fyrFMYVWs
+3Zthw/ydTJQePVuXuyVv26uI8SCrNjHpOUS55HVOXPy7pPt0j6cWVSot2q9O8PCF6o1e22hcdUVE
+YZ9M4sYXxldymEdEiFTIFJDS8BocuSngaCAl4DCGAXZBXsWnN8q130LHgP7zaDupzRYc9qCkGASl
+usM8j751LOQVH2KDg8X0jUgKMBNg+p/WeAtQQGJ33TnfNuUQ7+tJmHF+jjSxv2D/amjp8Ek24c1J
+p5TBadjxRg8suSn6dr+bEr7c5xFxtkqZK16My+2NEkVAp7kVPwtQl8dlpqTe0HPWuY6j63GZ+9Oe
+Tt2xTEP+ERHLa1Xo/tuS0Kwp+1heIzyCPnuJS/S/Kn9LUkEPu3Phqh9FjgAEbcdqmNcBULkk9+kU
+IedAp+kw+JKd9z1fv0TtlhxtlLCfwzasd8O8lw8bXRUkGSVeC0x3n/GWQAZdlF/uesDRhzX18jpj
+OrsFoORHFJJhO/VCJu8xGbvDrjKMzftuilpIjXkExEaDxJJ6T+BKHDnYhUfQ/5AFEYk4kI6rR6d9
++3NL1ugRflly0J6WT9KsyaOCPwrjJJnOfQtWPOQXWSRf1XXbpe8aKPhpjGx2GDYvPiU37GGnbH9O
+sgUPUj+BMZ5Azf2YGa7cBlT/Sns4OIDdzAvfc0BrSuED6dU0RO7THZsKW4lQ8Maint1G4g8RKrV7
+AxT6gmHD+NNxaR56mG5494OnMC3SPdSCy6CbIZCpluMUBACukVyJeA/HmHB1W6iZo6BczACAdE0f
+uumQ6CF8yLJHx0JT2BLQts5ym6ObLtnFgeZjfChy62/2wP0V7M8FBDO61yFJw3nN5/AdaSuNMmbG
+57B3WWWnfUNgS5pXJIvmo2b8hBFd3gjvGfyoMjnBvrF4dk3bo/905BAiiyuiLyANok3gga+LaULg
+ELrbkZut+LKDO4arIPhx7FN+uw05hZspVHx0OAmvENEpx2rlCX/bdsle8iiCbZzZTh91UcgHPonu
+Xvap95UoPb0aW6/NP/GjP0GQ/0VSLmgJqMML5/XvgZTH7of9v//n7zTKn1/yV/4VC0GKGBwRpOcU
+IaMLA/0ni5LmiMYyRGJJDiAFxgi4tb9YFPqPIk0vuAnE0wzQHvCQv+KvWDGCbxZnAAmLEn9TZv8J
+ipKnFzru77xTSeILxAxQLwESDtH9v5Ioy2SiMh+RN+O9AMEZ0pbdh2UQupnoGp95RqCjqS1Lv6Br
+Qe4VAPwO1xflEEPi3uZf1iRF1ERi9JQ1ZXPUHyNl24cC+HRex5Hnv9oCe2LQifOR1D3E7fS49Dn9
+jEZAmeduI8leJysD0byjfjyB5ct540bQkWjASUdOXWjjovJGht/gQ9inJTa8mmw2XTWHAXUJ6TXx
+PNE4UhWCAbDjzJIGfS427+OKSrbOZ7tnLDugSKmncS/iD5LJrqijSaf3AwRjiURqhy8H+gOfVu8y
+/RlFofy1wrlHYpDpMUEmMSpfp3FZwytIYkNq1XPKzjbYMVQjwqffEFmABwQ5N+9h7BV4ZYN2Paok
+rFAYXrSHW8PXqX0PsVChWqOdz82aifwzQn7su8vRURw2wiZaecshnBM1dGtjumDedjbZ9pBEZgYh
+44YpreEsZl+Soh0fk13b/uyzPKRNguAFwkmebs/wSTCvjcguDlW8SUbrbQzqU66JfMk8ofnFlJ5h
+qsfI90ChUq6s//AzDBQm9JNMxqRGEgfOwojnFA1W1EPxmzaXPUAOcDCSfLv+6gdEI5AFEgrGS9Db
+q+jSOKotQWS1ynaOxt9kEUSbYc6SB4noIuIrU0vxuOQqWSqIcPyXVimE0XXo0MZ0o0t7NOmQTpdk
+dtNt3s2xONtMz+aURinE1T6GQFHBd8qec7ZPSZXMuYQ1siTDvXFDx+8XreUCtZpZGEZTwc+cC/aE
+et//jEuf/PLgipIask37vXQRQy87dvaHjFge12bRyIlGpO1eMr3xvWbSZQl835k+Eb0oA0ok/9zy
+foQ0KfaINQOf3WnO8+mUzyR5mlxQD3Nihy+7DuJLPg1F0jhK1c+wjSMAHwO3seoXYDlyQoLYgiw4
+DoqSL/s+gyBED+tfMB1pcFhh6m8pMmx4LBVlDwti4cvzEqPYnPEcjAgHeYR+rgpaxrQSFLeosl3J
+I8SgdkSH4iEz20EMTPSN3pF2Pw1pCT84Gjd00aOH5zuyZLZ345Chb9JIZBsMJNTDQAWBFd304M/P
+rtvH4o7F5a3OEnW9Wph9FdJC0QsSSGKBhqm2rULGePmRO7E+dIlR9pLbHJ40GS+2GYuThzRdN3/G
+0iSPOFYHEODsEjyosGZD3tdpPyHyE2NWGSuEYrU/9pD2dlg5o4fzB2ASveMA+zJKNihm6cre/a5Y
+0y/ev8cGmaK7lhSxq20w6mkzJNVnhIdT1Ichmx5mxLbiZkWYCYblkMZfx2zhfZ0P2rkbwzHsNsiK
+Jz/QKqYSEazSX5VjHkH8wwz+yjyZkBxsBX/cN4IWvrA9bklMALHVKZoC1hRQ5W8zatGYbRubyyqf
+y/mNRiRo+OLKyuOIiRsh3znLESeaJlAKEB/n3wxWrIcax1fgBxuHm5cVCwZWJlyGtQIF6pwcIPFW
+1hSLPbSeBrjJM4F+A1U3V1dTyZk+p9me3cVIdIdD4Dv+uc6Z/QrNI1oO+6o4ovBdnh20GYe7FHqG
+PCDzPXy55NiQzlpUvJ3yyKMNnxAlrnZXjF+iaHX0AME9fJO9S773ph/2pu3a/qdQhvgDgDtIS2YC
+LCiM5Yj+LjN51yQnc0VLtXxNU1vg1XXTGgM8SYoJXt9G39EQtTfLRMxrzCP5IvuuY3AtKZ6qTLd2
+qdFdDjdrOQhbh5glEWJhxfbERUTj2srI3iUQuqdvXdSLO808F5VE7yVPSyoREXeyK7/nEgfCIQC4
+w7TLnN0RZ0sgVclpLppM++0lc3hpYAxj6q1EV2DdASV7/IxtEbOq5ZAt5sX6OD1lFLe5wtOAVwMJ
+9Hk/rL6df2kEcBWoKY8mFunbR86iVB26pEzWhmYKEyl8er9UYbDdnUxVa6+oDcQ0+OTrt9V1WYf3
+oqDf99WkRbXIkbzG8Ncei3yXrolbx2lFgikeYrJdR2OAlglaChPnDimcN5kbIhxchVhotYCR/mbz
+gcHuAuNf8bGfoZ+MRSlgekPn4rbozCElxl67waLd1uJStlOezmkd7B5d8MV1Y4csGaVC2UHCo3IZ
+ygcEOZ294/kvYX36dnmyku9gfMgqcU53MCQBp+zLWcgVsYJspqM5kXkBfOHSJcG7DCFirldBvDqV
+LtdN7uFKHyCY4QWaRJJ9ln220MOUA1mt47GAaN6n7f4jsta9q3JcVCVlhIulEVzvjxTrYPoTE17c
+Ldzqi8tQpG9o6mNMeHmGO4V8bzKhGWln1WwTWnS8uJH/SRn0JHCLWQIryvpCgY71kpwL48GX8nZw
+4WBIBKuUzeDtDn2JPkP7HQdnma8Rq8IcgYpqbe4qiEfkTUZmZY0xqiurDaglcqwLKNEC4xuHEIjS
+P+NoSDv705TQyVBU+uWVGQBN9UzhlCP9Xfq4LvaQ7NBV6XyDQQb6LHVZyo99uQDLA1cHdd8X2VYR
+xCFtJYGgxDDnlnBfYq/AWi02mr/jDOdLnWaEPSF+7ueDCpdGyPKhjBqWJUjhjcAu3xA3R63Zp3G3
+IGUdVi2Mk8HZtosNGJVeSYw4iAb0UCVbH73rPcYqEO1HrOWIAubiRnu+YJvAMnkgA32ry8Zlg1wa
+trUKZscyAStBXhSAnc9xLWtkqOUjgubmyHNU+MZts9mOeF8uvI6N5Ixou0ORQVDPZQ2Ce+Tn0lIB
+IxKXdWtSO6MvANi7vgkRLd+caPVjP+YIIGyZhXpCDNnqHCLR1Mz5bO83iNmQT4SCv2btut4suGgj
+0GkeQ/KwWEVAADNgC8MSP2Ozgda1iLieGkNmtVRbuqBEUlr4J6ipSXzZg2HYTW6mEgY6ZPrpiPYM
+/RSjSgOjLdCY7qwfKUw6MDs4f3VYawMR+mmcvY9qkI4Rb4o25NdsM1PfgCyyBv2Lt1gqAg0FkdIt
+LWtCvYCokwd6FwiWL8B1cFMG5rGbt0Ocj/m9t2q8VRsKPo6XSV6D+8yHipeLKiGNk/47spWpRWe1
+z9eRi4hoMo8NKDBdUZEqpnj8sUcFcjF2N/xFOF4O1bya6RnZZcIPKkKovYJQoODTAG89IQghyVFs
+3WXHgWO8uGHL7m/jvu/hNc+anmKLeFgF/w/xckezXdWrZuCcQ3J5XLo8qJ/AHLcfg3MuPSUktlFd
+ssmzQ1SkIx6TdlC/xgHOE+4XgP4Gp9t8txJ0S2cTpETf6ET2uwUOB6EK4mtxoBjMsSsmbG6v3TSl
+p812fVtDjCxgYhIQ1Ng7EKM5hj45XynkOOY6gvh8BTvWmwNMHZQoQWf26TqAc8cEnPZQrxuN3+NC
+gabTikOhRZxffBcM2McRSrDrjyRqh7XuwOjQU+fg/VZ5Z3eIZEtIt6oww/Ihlp78XnJQd1WOJT0G
+s0TM2wMsOkR0VtGuWOnRjiuOucJhaZCHt/wZX2zpQ4JHB++/mwd6EQLtjLlntB+FYhiELPzQpdYZ
+GT6ANSZTFaeSftHwRgO+ky/Sao0Nnj8B0hafxKZ8viZ49EwtsM6FV3qYx2uGnq88yD5i9yAE0aCg
+iMBIw/2D1ZdEAuuCYpQcc6J8LfJKa5ZGjUTkCCdiN+fJk831jpvp1ugIOGk8pQuNT2g11z8Tr/+r
+KvwtsIIAYIZY0b9XFV4+De+mz/8iK/zza/6UFZL8H0mZ5mjU/wqy/EtWSNg/aIq7+dd2rIvi8Jes
+UGKrFv6qTLBzK2UQGBC2+ZeuQP6BXVxQAgjCKWkJheE/0RUumaz/oiokyNekWNNFsbSHpX/kX/6W
+dEQWrGTz5hBPAOlVlUa9x4q8/+2a/Kk//X111//0M/5bUitdyyCzHG9L201TxfdFHOAgt/9Dyg4L
+QP4/v0tOYJmmtEhBPPy3fGG+iLYIu1yqEiWXwPkAWlLxfIx+jZoN362ZYlJ1AzfvadHll91c2Phy
+6qHlIrvBBRlrpCRsdF7dMOg7uVMRXS+5Ddg/ZYDNZaZXv9Fxkv25CxK95YYQ4rMfXQLKWM3YJPEu
+fWD8ipczDCpk0/R86xW03xqwGFyjCquOZnKKOoY5eGJzPILEydRbMXPUTUnMkJ12DI3l2YsY3To+
+C5aNwLSfLRzdCMwzdv0AUjQiS/ozSZAjqBDHlvaQJrOGtEFCiv0eBueFLcYJU79as9cWiiVQBJy+
+MfzkQtMbh2uHHRcYgH/F2PrDqhiN1cFgg9iTjIOBXhnDsqqHglhT7zyN3oADtVha5IObz0wwOP8Y
+uFaH4wZAcC3UThW2PS0I22F5wIzfvfRhv3KAm7/p0ncg2EdMoPHI5RXNNqzn6MpQ3unB5lhcRkTm
+0Imw4cphZUZcDcmSfCWYulwVMuyvOYxucUOzC97/yJf8kGONyJtgSEZUU9l1gCj1DzLx9ZXsSN9g
+aou3lwVrMfqTVJHQBzPmBqs69jSPDznNKPR+h7ehWopI3Gf44X3tne6/pPsKFYqhrz1BrMpMJffd
+3ws7c3+bsGXI6kh0Vhx9bNVXuCQrOhLoFV/XvSO8IjvGKuyQS5O3DRChQs3v1AtAjvZrm+CIbBKs
+MfENelx96zjCY2pek3CdrG30Ng1lj+d1W1LkmtO4/JkYB1sCQRFA1aPvA5a5BaXBEqQGE3o2ZKIG
+ZvDH6oSd9PWC1acvyxDZH9ySYq4JpLqxyq1Lf4e8RBASG1tCXyXMg62QEKtxtvElOpLFou9Y12EV
+txmCAxCYNCZKgmb5yWdsmStHuvx+L6iAcRYHnt60c8DKNxcgA2LJUWR/AtsUXfVHwfjfs+VvZwuF
+2Iyw4b8/W+5+rJd1wnpZ/rUz86J0//l1f0UoY6yrxm7GEtZqgoUkGUTwvyKUBCs5oUyzSwg4iwuG
+svvX+VL8A9QNIpQIUGJlCp75vx0vWASZEuxQAaeWM+S0/6MEJWT4/1aUYyyzw08AI05AO2WXvZJ/
+j9InGzdrKTWrA+iK9uQi1SIQjMzb00RQ4s80bvEu7sCP3xGnQFRqGpLRV+WWxtiCBBtcA+oaRWjY
+qKHfOROLW0i7M7BfJJTAerVJ98NPdMgbmbGgTpMGj19hk8CWXTs69+JUdmG9Yv2QDIdVRsvPOZk5
+QC9nSnqVw7h7HRgZH5ck44dlsdiIVOqh/VhEJ84YGMh3tfLyC6h20lYs93SuF9NfEmzbll3tvi/6
+irs9OW5YnoQhKUVmuZ5GF70vPZLdZbkvJZhTgWYO/a15b8m0vXJv9W8KVfdxn+AaVsO095jUsXj6
+adgFXijsQlB3E+QhfxlprWlMa+bLIVEClwuziqCzg1y5SrDt7XfbbZCBfRKPz8BcJwiC877ArYcF
+MNYbHzJ/BDKYPxHfI6AnEbramkzuPTY9Jg7agOik+N2TfNwx9U0IQqqiI6+SGjGcVu2QRoBq2P+A
+TJy+gdAYAb2YGMHPbNkc0pZy2w4d5LXsKpqL/cFjkjXHAnsav5q9VN/aAZsvqnbn/GXGRrQ35L02
+qEeucx9lqS30a1sUD1k5jHvFddZj8sdKSSBia46/jCPogGjI13ypoxDzr30KmLBZZpWGGkRE+ZJN
+vIC5jTOxAHuDw63G1swwY9eTKz0OpyXCvSo28Qozdfg9E2E3YIYqOLAoUYLvGpXLbwFebq+XZHL3
+86yS+dCvHcz7spDtB+HzZZxPMO+A4pnWBzwE5YylZ6CgKi93Gw4Aibq1GkGpBpzsEaRMt2pJ6rgV
+OI23WEIx7K0M03GLkRQrM6wmO5pOQnA1uUDYR410eEMcfSjqFj9oP+xwnV5GIuhbWUbqe1/SaamK
+oRzAzeIeYZmH6ZLLS4DZtErT1r21bBYbLHiqyrvFSx1qbEGdfrltsFnTrobIQwYvJq+whxNeaw/+
+8pwP27phyR/ICqR4MDYc/QQsvcYKBVgKiBODu4S1kYtTCzXwMx9mmR9WiuSLHQ17UbtCFihw9042
+pZES4YbcJZjAw5qKz5RMWbOm9kFi+aPEZspBgGbRDTXIOB08QiFvyzD4HUcl9tOiJ+h28AmwxV+x
+r0eoCrw3Jti51e07ZIjubUZ06Hbj5IvE8HZd7Gz8Br2vfBIdNm/WCkPv84QNeQieSYPCgKAvXhIS
+y6coMdrXYbSWNW2f6r4Z6Y5cM+4/csEaJfJjUSPeuoThLoN4YQqRT5L7/pBj/dEvcAQlzt0IsRCs
+4cAMNxm4Epjhct6f+gKud9XKrHigoIJNNU4jdgfGXdvK01aI2B1SjYaiwoAJNinmDN8rQNPDAd+L
+Bd93yLDu1XNmsIUSoMiVNuX+FVx2K88xRR5FqJE8p5bNGAxtbqp5j02Gy0m6AeQOna8M/g/6h2Ga
+saF0hvkVizQUmGXt9BniGekDg8RQWRctDT8LAu6w7LzHZj3kZt6wyKRvsQwMy9seIyiQeFZSkX1g
+pQ0RJzavCGPMYNnUJeITp9XcMbiN/dDL8apjYU3aiq6Stb+xPM9Lh5x4nq56rOO1GHdkekPRL/YG
+WgralkZgjS6F7zHFC65Dw2fsHasgrLb4RaJVfNNjC8KxFVg621Bkh0F1lZk0N3EB9bIKSHBcDSkk
+thpN0SoBqw3tL+qRQ6sN23t6VGXag+wKFgoPRUQnvcn7ebX1HqPaYWcksFqGBgvJjYQapA7aSH8P
+Q646OIcx1EwxB4RN0Cki+oq0fiEamYrxayiLCdmXlFkE6CxozQrNuHrl3b68MxhhReWibi0qEi/m
+DdFHbPllMmyfll482WQqhv/H3nks142s2fpdeo4TABIJE9Hdg+3oPSWaCYKUKPiESfh3uk9xX+x+
+YNU5l9xik6HuaU8qqqJCyg2X5v/X+hZlBKG9Dl0hrYt1mY40JoLWxfeEjrWs0aFkMjrNc4sWnllG
+fbWxMgv5BY3K0bkMa+GlmyKULly2NhWQNxGA4Nc3ZH87In7LN7RGzR6rkmh5oSyl7mfUsMFxHQ9d
+exxbQj+DyG3alTcUSIacyZn1gVfUKFCKhHLKpqgtDke2VVK0xkOm4cPCoqRQabshO2FuD/UZLxfe
+JlNTjFTXG7vrIm+Xq0brCsF0bGp353lcwiq3FJ5ueJFLidFkFOAVRWEhBJEl6nAxinvl1Wwvuzqc
+zoeG7hH1aWWgudVxRI8wRAW2NiDyvihO6NNRV/lUZSKfG7TFQRrSpKE/GyqP+zei+e42GadbIz6Z
+g9go1uxzsWGUkFBRoHCAo00HU3GREFr5NupzFKM68cpmQ5Eq+pkafaZ3ZSlQj+pXb4y59CRX9Lfy
+a96T8blB/v00lDq+awdZ3BQDRrddSNXoWk4Bin7oge5LQv8e8AHgucdRWKzbRqW9Gi1bMXLo7RYD
+YGs6aFGjOkzvQuQ99ImYQJiAnNGe1obyYU5D4OxvBsee0TijaLvy+x7zSValudqhJC6YnWZbHoMD
+GoArDCMirlw21lUqu/waxhNmKokjnVJypaqtGiUeEiO1hpem8mZrzS+HqGloTevZ7CXV26ZLaRVr
+t2/uWWl51g7rYbOaQzpogFta/4yjGfzMDNzpk5mKuj5IxxkbTVQBrt5icfbP6xGYp7OjZnlWQP02
+u13bhktryuz1NzpB2Xd3clB5IRNODjtXhU+qywsFR8Gyz8vJsS9MFKjNgd8IJvxJTe35PCCMo0wp
+TWjeqmSP1YQVXRZhqZFHUxbFvfKt+sVRuXhxGC5YhaU/jUiQhu4iT9l3iKEP7uZRTw72kKi9yzrL
+/1X7QfXLMxLrFHCCb+zyOaWl3FeReZ6ozj+Z8FPf1gZ0qU0xubk+FkGqNv0cISPVbHPVuslE+ULX
+s/nVT/EEKXTUlnOQxHn+TD2e78GcE4rqFupivPpxCHm1KeAmbjlVY+gf3NY7LoCBDtvWMGvJF6m8
++wghGxbtttHP7mC28jCas+LB135/jiAIEZN2HPqehdU4P6zAgMyo0bQjdUAqKbZ+D80BpRHyXFmZ
+CoV7YXnfxtiGkyXdVlbf+Z/mSQS4Bx5iZCMFrby+Wrt2aRZbdzLUr4iZydmgeRiDc5ydVvxUePZ0
+XFtKzpulqtKwO+0pNmr6yjmWu6BsVpWl0QykPSIv7OKO8TMbBZu1uDTz40rmFtzPsA4utV2JS0ij
+gdqMuXBeZsdsixVwn+EZl+piIMhS96TXEhE0ZO7k+zBVTDFTMMizaqSmsh79Mdl6vW3G2860l7J8
+XzmUqzKVhCs5B+EJIr2GrlI2GreObkDe4q7AP8fXVx30dZ+com1UD42kmsNMXJ4rMLniEGanuUNp
+1/IA55xeYpKiDaRVh77WxF/QyZzumBHOZd4fI/eERgRGNx2hCthSBoZ3REk3qPw7EDC+omCvx1+y
+Rsc3BpIaccPOiY6tYcNk72hBwRJmZRpXvUDAvnHwGTcrkxoNYAPV+2fZkCytSGEYwxkMNJoXasxc
+b5VFDa6xvlscZwIPySZnYo15aZmPdz5qXHeXdqK5LykwvAxqeeO8zIHwmbZTfYOuCfSzBzTjJKXH
+gZp+yLCipfxt+F31IhTxIqdhRsYI5lUmM583D+mTEzvDSypshm4yehfAV6zcv2icwndAt8ZmFvPL
+sug+VjFq88idrOGwaYSJBWJwxzt2ZsVTAeGj2mnhG9dGUYUXpmpsb+uYyLzjwmGpsLsoQINfCvxb
+9Ij1sFsgPQszsUjitUVdxlt3Y13c1M4cO+sgKajfuJFo9baucvEw0sSrOBDNKAQwXOvpQFTOcDZ0
+M9IFV3cDlH2na+JNTo/xYarMxlxX6JvytRGN7F3iucfyarluCyF26U4LmXFh+I+ifDVUqPnWA13l
+yxAXl79r5zDwN3Ucy0eJJH44QM2SZWdNot0rEQZsJtPUCS5oVbjnrLPmxZS50+2MTaOp2YZTuctp
+XYT4BBTq+Y5bX2QhhyHt6TLeLGvnzwKJIGgQulm3QRvFLzEtj1sFWqhbqSQHZWP2Tv+TpdkXK1XP
+3pWu4K6vx7hzfuQVZ0f0l3b3Y6jYx6NpTFC/IvyfzLPIGxIKlwJD6oz+sDgqOBkeGJGY47WvTL86
+iqG37qLKq4tN4tjIoBXW25oKquxg5Ebz7J+ME8KNnS9RHjBnGx5NfyBrFy4QAUWlau63bh8gbpJR
+MrLZcAa+qbpRStGrbI27tuUovbJG6OcI5IvuxZ0hIeoOI/4aoAlIlg4/1kNCTAXINm3WGoxmPTbH
+ba66G6stPSYj6l6PgRNKenauJyXicx97L4rfsDkBYcE52sAUE7OlqfHzZRwO2/UwiolNgh/M+MCy
+1Aj6TTK4y/7GtKGX6E6zOOpykQLADymnA0d6CzpaOCwsc8zHFdLTFScAkBrjOJhZwrG2zYgBoPjY
+xdrCUAgfOO/TE0ehhWD6n+3TgpaXdYAWH29+5yEEhfhsPuWUDi0Az7rPD5okmdVRxk1T/1tDew0g
+e9trsaW1sO3+6xoawSfvY0/+/hP/FH2i7HSF7UAZQ0QHoY8S2T9DT/x/oNi0Fxwj+C+HKta/qmdE
+nviC4p3pOLY0HX/h+f2zORP8w6dGY8Emw13EH/qf9GYARLBpxQqDutL1aFAvvL23vZl5xkgOvJwe
+tgEFu636NQy1dvvmjnzQndnrmvw1iqCKuGhUbTrm70dBTg6gXQDLCfHkb8POIBEB6PdjNM71Bty6
+cf75eHvdIMbDc8fdg25Ca4vD3fvxcosjZjD6DSKpAIKnP2DgyXvrr9f/rxS3D67qo1GE9DzKnj6P
+wdy7KvhNSdqYrK8c4Ow7EyTDEXubefP5tfx+78AdBvSsadT5jtznZjZ1bsatx3Z5zJwYMT/WsQ73
+kZSodsBp6RUN3vj28zGXp/6mY7fcP4vVH2mx7/Hamrx9b9+KQIm6KvoJcFat7GPTqOWm11l6Znb+
+V4zFD4Za2o90ByU+DtdeartvXkCcmiY9GlSUbH9YRgI176DtVwQOFDmZZ//6Lj94Xh/cSbqkfFEe
+t5HHtvdWSHAH0Kbx5/SJTo9gUbuHrkzbUweH9MXQlN4XiMwP3o934+3dRbD9c+n2jNfQNasOCyus
+jG3au8kX43x0C9kfEFeAO8AhQOn9LQwLH+dBKVFm5HXcY2Gf02nTJt38KCKaaX9+E0HwkoviL1xE
+f2+wgOIeRzVU3xENuU3XN/Z57LrhGukbQKTRd9afj/fhxfkI6XHvQP/dJ/L2Thf6bWLXiwvcWUGQ
+sLdJyxEjSuboz79n1zXphPM10+W0l+f55lXsncQYB6gSGJtM/ElNKHckVkZffM/LDdr7tt6Nslzw
+21Fmr2q0xQXJubyIYw8yHAE539HjO6dLvfJ743f3f34P317Y8mG8GdIypMyMkU3zREl909q5e67T
+GX0JfeovZo6P3nmA68AspSMwJux9zjqowAqgIcHyE3SXRCuk5LgocfH5BX04Ci87H7PLLsnbGyXE
+NlDHAZWPUtNcFARx7BK8MAefj/LRfOFi1aCLxmr7G/21CRBJInihvtIEAn18kGfHuVuEv4pKx7cB
+81X7xcf10cvOrWM6RJfh8ia+f1CpEedN4go4nI7nHuR99yAd59muOc98fmkf3UDPZOO5rFxEVuy9
+Ea4042igUk/6FzSrodA+lE2r/eKD2scks464TOzwiBdku7TEPiTY8JMOSzrlZIG+WSsxgBWI0y39
+n4itPECxypUHYUgwioDwtPiT6YLMIPu/mEV+v173NeLAZnPmLsvb+xvLkc5Ed8YqY6k2d68U5AR9
+BPCq0F88wX1k8OslCzZ8po10Rlre8kvefGujjvzYGilc0NqDVolgflfXlbgt++Ysco3xuNEVeoEM
+7oRg/PU4ERnCM0BBGxyhvK2/2Ar9Pt1gDLL4IlH8U3Ve+Ldvfw+CVWKZ0FlSD+cYj7EjANpgt0Mk
+NrD5baR5eCCvddcW4xdP/8ORidFj9wryiw3F+5GnvgrmqGbWGWKrR96YU6CuQwPLAdEhwUOZDvXm
+T99qrvXNiHsioMkWHIAt1qZR0AwGWwJtSnTqj98lRuEBc+NcD5L53ig+xTRUDtxRMVF9M+gio21u
+/z5b/Zeby98nH0ZxBXtYV8CelntTgSrh+WuvJboJH+81Zcd6KzIN/45clOc2aebd5/fuo6fFK7uc
+OaRrsti+f1phVpKOLVmW3HRwUObWvnFih6R8+WQWntn9FLRYx9kF/jfekrfj+u/HpTg+EkEG04Ji
+LVFgaHCPqribz1KKWSd4uaghZ6n1xfT30c1ddpuIdtnAO2Jv+hsrLNA5vmGMJ5a8b41u7AAa9OnB
+oAIc84gl27vPb+/vMzu0aMsSgiMQy+KrhOHNtNABYlssJqhdQq02sHobaGyQIHDe/Pm2k600OxhX
+SNPEWLd3R+lZz9kAqQljAL0kM5u73djKrzbTv8+ogSRAAJeg6aP9cPbnlQiE1+gyf9DJCa21SDzY
+qaHdzNOfP6t3A+1N3WqiUeJgRF8ZXkUxLKPvnaXelVln+GGIZvv8OS035/3ubDlXe9R+iM9aTtnv
+X0e+4ySPY+gHeW9qUBZGQQhVYR6XhfS3lefSCxsMvIFQyKBPfz72B59gwInfxs3pciAXew/OQ889
+Zy2r/2y0wU1eS/sC6EK3rmzkyyVy8BSHBPS0z0f94M1cMqtZIdgG8N7Y76+YM4nbCosanLTCDqJK
+AJHXgrySmL3xxcz50QW+npUR3RDzux+f5Fd60k5UsaGKy/4EtWZ3VIhWHidOYB+2odfSu6+JEvv8
+Aj94pJQ4qDuwEQF+sZ/O08QoJduWUUW3GKcXd9FmSEp9LEuBRcChGK38QK9rLBFfDP3bR7Isuuzj
+bPq1i0Jp74nKcFBVXTOjRKlPlCnBljtqMf3Z5xf42xNkFKRzqHxNn+3W/tzSwA5ohpl3dk5aksE0
+GhBanTo/pCusTj8f66MrYnZh++l71HLMve8jAz+UyKqtVlhx6DnWMNIeexAs3hevyofX5AgkZD6V
+ARRk799KxK+glOhk8FYC2tXV5JyYeVcc1WOnv/jkPxoKzzWhSgh7WWj3hsK9pWBzFQxVR6ikeljN
+1TwRfWpOh39+89gL8Qlgxwus/TW2xneZjIAfiAMF1dEY7HVjaEzbPx5lWWb4vLh5pueJ97dORx7w
+30XXkEu6LyaSZbKKSVj7fJQP7hqZYUs9jzF8Ir3ejzJZUWWnmpDjQaLsBkhhb8vRT69COF8P/42h
+lumCFec1mef9UJ5d1NhyMhAwix22zciPy9CUrSmJfJHJ88HbLaiH/mukvX0B7JQ6pA9ZwaPtv/ue
+Eltlh9UX79vyl7xbYl4DsAmwosBmmuLVhP9mK2C1tJpKiwRSiMrmaQ1s4qYQQ3kURNIhK28Yx4PP
+75+1PIvfRkS9SYw3sksSUt7fwLnO03ygMYzBL+AGIk/b4DzOaBIRSrqKwYMeqrGPtgiHA6w+tf3L
+mJClS1XtYjFk15//nI9uMg/SpRROfdbe/zWYEYuOsGWIrEEP2Lgy0i0lgpc/HwTNqu0gCKV6un+T
+3UUGoCsJmjtpwBZNQ+q2Gwgt+HY/H+ijpwl7gbIRqQwoJvdemdDJlCkmXk4yEdH8YV2CmI/sWfaH
+Ck//F6N9dO981+Xl8RzXQ/fw/kl2o3bHoi8rEsdlCEtnqo8qZtHN59f04SgUPBDesG65+4VtL0ee
+R8g29lzgnKdlFxfbEdfgF+XYD0bhtnGIYkbkQe3fuQytbRYkdFanwYvP8wHWv5XQ8/vja2EUapWs
+Whym9ksq/twbrbG8+wRUIh2ZRntThcr/Ys79vdIRUE3xbE4T9FKW8+H7B4MYFBlJQdpB2oXJqTH5
+YmfV+XE54Dx0Sc/2B3ldGWa4rWMvPKHefewGpPh9fq2/7a/4ERZlFtoEVFu4se9/xAzej35uzkbA
+7W1r246xVpdolM3+VHbDAOFgCPLkqOlRLn/xYn7wGXAaWMKwBIu1v2jE35YZjDImjgYMK47XVGTr
+eEkQATF4KvAUrxEm8c/Pr/Wjt8ciLYdHCmOPod8P2Nl41hDrMactUuZBC+TAxfzVl/D7KmfxSKmQ
+8QYtCvi9O0rNORobsFLYoRNYRr5XHsGk9I5o2cZfvEK/30GG8gXbRM4fNjK19xfEXOkiueQOlplE
+WzWVi2fbnGPrW4Bs/Gc8FCCvPr+Hy69/vy5YbPg5/joAZvgC9+5hnNVyjGpRripVGBuQ3fI7LOn5
+ue68fGNZyn6mDDKeYMsuD4vG1o+fD//762qBmaH5TcUd8M3S/nz7zhSqNqMekTrUUQzsuev9zBvv
+EZ6buyLHFYOR89Wu8veXZhmRQyvdNKqs++d+PSRpYi+pFQrxH8KKrjvkU/kq6vSDl0aa9HOXTRjl
+G3vvtjYzseAoXUDiIAjZySibWlLSrfi21I1Iv/gOyLHae4oU16A9UrJlrg4cae7dRqu3Ak22Trx2
+Cic3Djum6xcjtoxFK5TqmxFFK4QIWG7Bdhrho5zaE2KpA7b3dbKiU1bWUI2DhZXM90OAj5Hap/T+
+jB7FgYe6QSld9keBmPPsYICA2BwPvpbJzhd6Kg8XN3hySKktFMe81FN0HA6Dzo9mQLYldEtMb4BX
+IWcfLs2k7kDXkNsvYyfXGAsy8Mgk96YxekorbvzNWIfWQ8Xik60bcJk+7JrSx+uPLmveZq4S7bUs
+s3xYeb7G3qERoeUbv4wiy6cjlI7hiT+EpTj0i2ycDhCtAhJiBch+FlCvSO4YiNo8NOEIzccO2n+P
+LWWPfLbmaYYYFVxJiJ3OYJqPelFPpYBgt5E/omR0ddTDuwxzjgdAXpJka/ll02xdBej3MNdWNh6g
+so6ibaqRKq4bG30l5B4ifNYmCZDq2CDdxuEnGPFwAJN0dDegZwAvl5GbvYQz4LYROISCIMZODvN7
+YZlgdxDSr4ZwHooD2mM2jxDlSAUdA3wHmn+o7TjGKGTsegqDpGT0QRIdd94IJj4ArdABiYaLveMJ
+kIcSmbNBHnXURP7Ob6oCatEwu7jdEDDj9HeF4pDKt19uu76EwWGDlpxIuJp9gdh9VtzO1WzFdbFy
+imipnskJhGQEtg7NsAxhDuTNmHircNHqnMdFo1Ks8Bqhr4+krz+sc7e+BVbWpdick7SAiWlBJcPg
+3/YbDtDJUTeMxnSqakpLhNB3JtpRBTgGJ7RK7gD/9GfF4LTWOkphX+yScmKxS3LEntBBPETPJTiF
+TWqLkHwdYB3HKVL6X149Nd+mLO9/xTNydBIvZ8ChqDxBtxZZ4G3x1Fj1tkUZiSsuGUkLNs38Ecod
+J/dS2cH5DJrzPMv9GHpbI+ZiHTttka+R+qE9yln2OchJXx3PwFgiqJNe/ICdWkLEgCzxPPlpfj+0
+gUSaHcrLghRibOsuz3CF0H3kCIBHAMW9NVw6VFghwVkhQQ3YB0gewk45kUtewamtVU8UQFKg0/Za
+170QnkhIIXfb9Ari9tQdyCkWxCRB+U93eG612pbwvF34vS56s75oE+A8jhc/jVUU/5Jzb1poN53x
+NOy7OUM5NhIp3qSE2GP0GYpsJ616JGSsLfC+tC5ATeTS6gArjYpvevyQeMxTTRAwmmdgF/Rqxa8k
+KChZIdRH2ru4SqGKeDUnKjwa+jr3J5OvmXz6K5esUxJukCmuOvI1Ud5bVlFtAarYFUCWpMo25BpH
+9oYvJb/AjWI2p8KI1CWuebfaJuCnvJWRGtbZKJT5ks0IsiGAQYy8d+lej0/sxGVxEodpG+3Gwk6G
+Y6Mo6urUkIDYr+0sAfsKqkWGl7VDHNJpZLbV/exYU/w9UkEd/uhbrMw3dq2KfscT8r2rGrmqfeiE
+FdBuZZJ7dtwmC9rd4zshYNd0w/lEQXYaNzUOtO64KQNJdglPsEX5As9msYOQDnHEojM2Bw1uR3eX
+1Us+XW0UIUrIcDA3GRimkBSmhpAxD+yIXmsEknSK0LsFzx2iX4NWPyt2dAjiqE6uSPS2nWMjZbe+
+C0IH98w4giE7CkJg+JdEfBTu/fIiiJfE6fEJ8VyaJWjDrAZzvMrYIKo7vBZZeqMmVI7HrAAOdX5n
+DPPsexjhxVCHXYCDinS4lMWtXSGkjkbrcCyHKhzX8+Cnza+w86P8epZOLk6SMZ948oOZMHNiP06z
+y8n3J39d+n0Gmt2KRLgbbBLikRq6iOQj4Pn1qrSdXBFKBPXQPtMhIWAnQ12gTS+BcrhXQ0w4HJEq
+HhMxmxU7WNV2WRHo0UGhXUN2L++cLBjt3SSyaf6eQU2rj/+WkFPbo9gYR1l35lpeZ9+MnD5s9P6k
+LPunTWb2AvYt+J5148BmvJh9TeO3zwpj3FZ+EkKv487VUBJc5zYS3nhhekN1I0IL7kYlHBxGZaHd
+H66l2bkMoaSMauBgwSeHkOBhFrMmOsTN+VRbr5kAN/D5wG4zbQV8uOqtjRG7frEuJCzxlNK+gZKw
+88HmJjbeshKTxV1s0CPctsvRb0siWXSeG3V6HlNiJPwNN8F9AeO0YFhyZIgR6mYi5UpKdaYbxNwf
+J4wyziI14itnEd8iAMqbM4A82HZ7fNfJGiITPWDWatinvTEGFxOm4uBIGZZ/XeZ2ZC7ZUiA3OpMA
+Sdl7Dnl5Y8wk7VVZ7x9jDgNrPIEu+umoLCRsQan6Z4q7+yIKQXpvevxg7qbsZwl7dyiL77Gy3Wqj
+w7q8z5u0q3dNnpY3JXgfsaA7SrpCQZRfggUeCbjuyrxAhzRrZ+nbYBYnnqMo1x7Zbi8IT+JpnYJ2
+GtjSla27TrTI7UeZVwCRTNh650G4xMDYRtKNWG4gY65NNoTfOOyijoVebd+QhDxkuyxGFkxxIsry
+rdPZ+tkXWYf9xkPnvxJlHT2izZY47vAmnLjzVD04HHwUHraJXEYx5c3D7FvGd0IPPfTBs4A2HMq5
+/dlbrcDsUY8/hyqLf1ACwVgolHjAK5oQdBdHxi/RDt0lRY38ue2ZxldIQiu8YCQV/ZhEH/wIFure
+AY8seXB0NT+Dfs+OCci00E45vv4ZzGP5g+ZPPKzhzpKLy7ZHkCgjE90A9/DrE4DuwXBgTtL7nkRT
+bG3z7hW4r0vD2GZJCSYAEFvOS9KiL93Gvo9k3g6FZxyotEtvk6GUDgr/Uj7rVnZASVMR4ULoAuWs
+DTGwa/G7GouTzc7X29DfSs5lSHLOIVksdgxhx0PbjTcrc0+LeaI9SwU+wI2LThxKTySnYktDMO8f
+B3MiQsBIJhnCGZjcwbqMaWLwEGHbm+U61Wl1EaZhbKPPzcp+3YahbWPYRMq1wZyGRNYNMO6snNRb
+0uBUZz+h9y9OIlHO48bzdIL938ZFd4AnTsQre07Sxxof5wA5EWL4StEO2pEUThohiIUMz23kF7vU
+yflXUSfYT0jY7B8B5UTfG8wA4aETQWTjAwmHk7wbhzs3JcmEIMG8ushItol3HlR4RNO6c9udKEmP
+WxELA7WnnDVmlLh34ScbkgAJupCFKbdzV1TXxFqbq3R2gRYWANDx2LhG2q6K0cOwaRfSvewMbsyR
+9KKK6nUkQIQ7Vuo9jBEuvRWqZ1md4zuzD0mGKuRRKcjb5I8bDhRcr7PQ/HPiImLAA+O10nMCcpFl
+z7jAmRV2Gy8mF81KOMRjB3LZEZAlAR7IJrQFa4kVPcRR7UEfyLwg2/KRInTvAtbdjeslbIJCpbyT
+gPx5HBAUFhcoRjzm6xRR41Pr9OmwI2+LNNJYxzB780BlLxNEyX7FRjG6EqPpPTmGlddbBKZkvLg0
+xu/nNiKLxlTSbHdpnCRk8GCMORdhGt0Pdhyw4SAd56bImI9ZMiamKrPtekkaqiKCNJBNHa7wc8jv
+8Rh7pMyIVJ42voIIGiIgXMeij65hELP7rYx6PBn7kB/U5xE4NLtt47t+rgJ745YOcAo0RGDlfPBI
+l1Nt249jMiIPGEdsVq0pIqZv/JiELIW9ieB/tpxvjW1Oj0aZofzOvB4+mRsY+H4C382tVdgtc+oo
+Bgopdh+Yp6Pv1nHyI7XwHax7NqfkvE0++T2Oo1kd5y4kHAjjYPRTYW7ErxH7drUreUDBznFVk62y
+Ph/yDXeyuOZwXP/IcEdQui+tpN5Nlas1mS25Il/BJ/FjXRFcx44F+Pa0m0hH5DvSk309m33E8WEa
+OzJL0pJ4YD9ofxFIXN9Zs1VcTGWKNWluvfKFDKj52dceHmJke864EbHn6k2VVtG2pADN12ijbmAZ
+H52IIL4muLKwb93a7czkwE4jcTZIJ+VtM/nsQVrAJZssnsMrc9IJs3BYFodB2xT5mYXZn4i1qjfO
+q4xTLFB3KzmaCPeJyEZyOXfClGYziREG3pvwM+s4FCgWiSV1llfDb93LgWSNb36FA3Jtt5V66c10
+uOnKNrirOhXHtGt0f5Liq8hXk3K8Gzupxl9ulnYsloDgr3r27mfTMAYUomw+1842RhK3OAt9w02B
+Qo1wAXk1pjEWhARe9Msc6/m6Vz3q3Qi43R1625ZoBzvrb/KxGx7tIhhI2zWT/oiky8Y/ZgWc/BUL
+kU2kDofG8kAbJcvWXBEojxM6I/vDV6Rfrm3cTbfpTO7LYZQa1KXbChkqTtWA9BI7SXp/U1ldeB9O
+Y30dOdHsoMfuceVPiHMnVho7DNe+SyI19ALbJOmPWj4QUD6ViPczJbW3iYNHO1AJ1tF4Eu0h6Zdk
+5rErj59zvNEueW/VUiQAhXaNUBmlUaYT7EBU65R/2ICoGrZ+Tf15Cb0MZEdDn85HAFmVTn9PqB1Q
+A2USDzpnbMeP6tALf7IdToczY+665nDEZ9UcCMMluY/9dGDS6GxTd4dS1AHUF5rI2ee8jQ9xnxjT
+XQcsjepAgI4Gk25M6XN8tbBar3ZWjuNYW8n16G8xcGN45WXD/EpKGUbYgFci3eSvBlmYRZhlidbD
+OJu9mmgp+2OoVa/mWtJrlHuCbQnrLcpY2Z3ar5bcriRHjo0KTl3z1bQrS6O+616tvFlBADm9cBy+
+7LSzW/A92H5hniPbUF7D/lAJs/juvpqE61RP+OdfzcNmmLFNnl5NxQ7qx8fh1WrsvdqOu8WBTETe
+nG/kqzHZejUpB6+G5fTVvFy/Gpm71OvrNUyE8GfxanUGEb7YnlMVHgGJxAxNAjrGaOsvk7TVp5LY
+QQQ163HxUWu7w+hVJnQLWGBYz/Fa/229jrU1C7+GJui++rSNch4y/S17NXS/1hD/F+PyBuNiLS6Q
+N6XVzVP79Pf/Pn8qXv7j37a6+r//p0lgudw8Ebzw1r7y95/924xi4zihdU/PZUG88OFSEf7bjOJY
+//ARnTj0skhfQfb/Ly+KYXn4VBYZJ+yQRcW0COd12bXxf/ybYVv/EHQWUR0gkaWpTU/7P//9nchN
+7/33W4oXVpD3xUxkDItAhNqsg+4WVcNeOy1vRNHjgyMJFu4claRwcpcYUHC/5pwOzY7yAv3zOiGi
+ZE0Q2HyaWQKDK+iiolqCDqg4OW7UpQdTG4iIkCaXzoMTTMktIpj4omw9EH3m1DsXTmzleiXNSgbb
+qgbkcCTJSDhpZ0JgVvwCzuw0TskgK5xSYdbKjaa498kVeGrZb5AxFQgxbBOH0MgpNJN4O0GYuMKn
+20ckfuroWYmC/beqNJ0DYEuEINnmrO9aL/fHE2+uh298NNjzfMNFd0BipZh2nU5AnbLfquFo+CWr
+FFAOWLV4TjlPltY8H8pc9inZgpFrHU58gjBVoaHb4JYKEg/PuiFtooM6Q6B6Y8+zw5nPYrpKEaDq
+CDhi23jnatlxHng42NrHsXDlS1mUabEznJIJdkPBjlLM2jZK1WwGjoHTQWqaE6TaIYsfbBJGcafz
+N7IlNyhnD5PIgd5YY3MyF5m8mRWrBGSLkjQu9hEKvKpB0uYqaYV3H+bLvjWUtjjInLq8Mf05vwcS
+bZJFyJr94NpJ/jxPYB2o/Jn0HeXUgB/tFDfVIWXR2SxPMFnJOBlI5kx7YlgM2TmXDiF211i055ep
+z9ynwM3spyYOc0hTox1Xu7aEbAlQGbr3qq2ZBYnQ8fpH0/JZntzE0RgUTe23t0klifKuSXe9iLzc
+/knIROhtBkd0ZJi2NjlOdesOch0IjJYbI4IacJ730m5Jw17sm/Tc+oeYAjv7xA4XLDhOlVxRcF7C
+O5D3wuulIfm9xbJBFnpFOWQ1wOU495pywobeWCSugtdWJ3bee8XarUNsU6puh2t6+B60jkJYj2Ga
+DBTWqpabEDUcnXk3eDmoO7DYr6vWpuwSh5zUVpWe0ivYYA2PwWe/xt47TZONr1sqjEEVlKi9KIil
+O60S09zlcQsCLsjAKe1EraKDxdi6pD8qI9xEnkUFZPIi3kX4Xem8qt2yowxdUxBYkoNRA0a4lNpN
+ZzV+SSBQIh9cR5GCimuYDUBN2R/kZtnHVURSNElcnDta6hTjTL7qdiqH/hcV85KNxdxYJKZ5/C00
+AOWvSiOn2aZS5YR6dH3+VGFeClfQNni/rMluL0tPsDWvutg+I4+JcgHH6RnGQN5D3PaGOXBX3En/
+nIBWIj0iCC3wltH4/oymrkw20lTWjVeL7MbXZrVpmyl+bnUwW7iDAu878Z02Wd+ZpM5jlK1+7mog
+MGno1lTVe9+9C3A+dNsFqca7xr6AIykOTLHBzZ881xqSESKciNMaTh0v2AR8Buwr5zD9ZtVVezzT
+hZGrN2vA5V99vLeT6V57bWkAozsTAhfcoiB+nWrf6ExS8g7TqWHIpgcShK2l4BDsTC9QdTbpfPX5
+YHtNKGb+RWxBjx0YmGQR2Zu3RV5liY+Dhm5EBFjEIVnAsxbkR95/0fDaV7P8NtRy3W+uKwhpn84y
+TNZAOXy9pboabOMc8Bbi8oocAPb8P4OakKaWNtxR08UJSAqvwoetPf97Co9s+/m173UV//pBruTC
+A1ZU7vr7HxTPE36hXiZs/FA0EnGFecir1RfN2g8eJwstckJ8G+ji9lvRhCvCNCEYGgQ9QQ7jRPrU
+OsDwfGnF2rkgf6o+KvT0lXPz9a990yN+fYtMZCC0nxlV7uu8Wp/oOtZVqvsb+isrCPjbu3n149t5
+vLrUm6dhRetj9VVT84NrZYPy/wfdUxP4dBV8lTOoL++78HBhXRDTtpYq2xj2HyrZfrvC5fG+eZ8c
+gxN6PDKYpUy8gSF0n3IBo2dw0T9/Uayvrmv5it4MVWilvWy5mfXWWnVraKXr/8feeSxHjmVb9otu
+GrSYQrimk04Z5ATGiCChtcbX9wJf1esIZnbQct6TsjKrCsIBXFxxzt57UflxLc/wXrfPrfdAjfiL
+YfNhs/jTC/z0Zaaawbk1/3iBkUuB2dWcwCE7yam+utL6Vv50pU8fpiWr2SwjrOXudI8MnkPrPMbO
+fE2h9oFA5v0XD/Ory31qs6tqkZHzxOVm9zuApy3h/X67ic7xPnCy7Zfv7vPOdJ1Ofx2Tn6QgNiSK
+jHp664zud74G50fhHN7du8c/39X6o//fzxDF0u8jRIO9m4n1KsuG3YXb+BzI3C/f1J/vBXvb71cB
+zwfWYv2+rmr/e+rev+nb18c79Yvh/tW9rL/il9E+ZQX1h4KraBcaXLVTPKK0PgRfzL5fDHA8Hb9f
+hjzhTGvWRyZ2FNHd1g2dH+aVefjK2qWsz/5P7+bTRDGt4b/a+tSULYAGpkLhy2e0r57sla7uF07j
+HBvnQIyfMz/9eVjIn9fX30cfZ7ffb5JSfpq162CHg7SJd7J3n7uL80Y8rUPk7obI768e65/nKuPz
+SSzsptjgXECxjamfbgBf17Bj0XVBPbvEPvmhZ7nAPL+67jr2/vSUP80i+Gd6o16fcuW9PBYeZVPn
+5+Hm9Yvnuc56f7rKp8ljDHOLZsh6d3fKoX0sz/VB/R7cwCylOVe9zvfFIb5Wb/T7L677SXL1abGB
+Bfb7e0wsoehdy3UHL3Kz6/Iq8MwN2ZHuA1hZ7x0aA6NIct6/mr6+uO5nM142jf0gpVy324AEcke/
+3KpXivflqPmn6+AJQgco4cvFQvP7/bWpRarjupjW/uzL3KPq2VyRVJ1j7qaufmlvCnfYgm462fsv
+nu0/zWq/XFv/NHfGNQF8tBW5R2/0jcdsQ47yhiz9TbtXdv+JAv//hadfCk8Kwotf3sHf6k7OaxTz
+4b0VHYqVj+Dgj3/w31x68y8V16eEkxkHKEUn5sv/FpuMv/A4oVKlXoQth0iQ/1ttsv4iCAI1m7wq
+O02KQPyE/1abZOsvzjPsRfHtEYmB8eDfVJs+z6mMUCyWxA+rKjt3EhR+H6s9CbD2KsNx1Aw90IIr
+8GHqxtENtSS6++W53PzPxPLrWWxdGn6dbj4uZa8RxTI6y7+JO9WAoG5IuaNj5A38bJX2Rp8J+d8p
+qsn/N+lNyR83g1bhsy1+IeWxUQp8aUkEErNRy+qkSsvwhaL67wew9TJIfNEZk7ds6J+em0IEZ5MA
+knZoUTcrLHM+dbHZn2kG69uI4rCfhJPudGs9YEw7wteGvl/La7D9iDr4KpT/n16jgUwJQRU1PKxe
+v7/G2CqUjiC/kR4+kZotJO0jja5iE2dV8oXT6m/L8PqEVw8ZAwdvJWLL36+laZSwTXhoTgTgs09p
+x5WlugUzvDNifaeXzUsfjy+9HOxjLbgr9P7bVAboBRE2dem+1hBC/Xlg/W33wy9iN4C+HaykvIYu
+/P6LjIB0MM1CiSXJpBS85UU7pYckqvvWt5Kobb2xrgtEDfGSK7fUwuIfTdiLNfAeK/UXa/c/jHID
+36KkKsiY+X4/vYmaQkw0rwMj6gxB4pSmnFAe9198S//wvn+7yqc7DppF6Wm1U8uwFFJxUL54IZpb
+ItOSzPvz0/3nG7L5YBEpr/Xt3x9uQyZeQMmJQ+4SRhvFnsSmUkr7i3f4j1exyGIgX53yt/FpL2LT
+USIiEsJWVCbJy4gS4Ayzx7j987183o2vA2WdbWlGmxicPpvPhIo2YMiRzqKdSbZDXkXQilbYD03A
+7iRVcXpS+qo64KwaHv79pQmZIkxIRqiM5eP3x1gIqsAkdoORgrt4Ncn6+ErEstjrWYwcUtidn9Oa
+uMGI8i8F38yIFvBDvg1k9aQffPbqAxw1dNEkM+myWn2V4DnZRaild//2/iCkrK+OUhsC889+mUiq
+B0OqcoRRSnWLJfsVKQ6R1cZhSFqwgGG3M7XmC6va540Wd8bDxHeHFkxB3vnpmVIyH8O6I87cDqZY
+diyZHsmVXS1dsatQ0hpuC2Ar8mQSONAuEd6kOrCp7eSL8+rnffT6M1jQ8JvgK6P69+ln6I0W2URk
+0n02+BXqFCSkM2NpzELk1lrX1Ns/P+rPp5L/uZ4GIldXQNXq6+Twy5lylpdAC5UMtPVIDKEy5clT
+FobBBpYG6d+xWaFUVO0v3u/fZxwMm6sBgwoYo+hjVfjlotGiJe0S1DMxj6kAYlYiztNae1ORy/7F
+jPNPz1NfjXEYadYAiE8zjkqoJBphuvnTgurMI0karjQtZMkP7LjIN3KyyMYXt/e3+Yf9mYb/m/It
+18Wc+vszRatAG0QnOVSfbHR3DSHgVWqk7r97cyyYvDHeGU+QjA7r07RtKVRPJGL0nT4IpNvJHlo3
+CPs9GfSDgw53uh3K+Yv9EIRXfvqv+671opjzFJ2lmtw689PjlIc5R1aCrkwBkp4dKFE3MmmpAxPG
+W94r5Xju2NtOKE+tCjlF3WV1sO/oY9v3STDn+VWLyEy+Re6USl5oDXa5S4CRdHc0SshOnWZEUt5M
+bGPxbAF5pANhgzkVuykkiPhYKkQ5uuBjzfGlQOmkgF/otXS5mc3ZSDq3BOZbv4kWfIOKlrWt7Csq
+uqnhNI0ayYc07Og6ORDJVXCpodQWmxa616oKnJIaxo5mF/WVYvajcRVhYa78PtfIPNGXmJuM1SWt
+dmWvGu86yvViTZih1Zl0ilBcg1h0G8viMLKLa5Sxu0EsUs/PVUTL44AtjwhAm8z2+aQVMGfuVJqH
+MfliMxmSSl8LlWj4KJ59PUQ+4bZpOL7qNlhFl9r1QpqsqizPRklIOpHKVgq7wOzrwq+zZZL8iodj
+eLkVBgQDiaVaHnuFycwx+2EN5I9NsknnKq7V3QLG9REk0oKYcASu5vRICL+jlEIaMZM7e033iQfU
+jLV56pYYP3qTtEjfFiGIWbaXJXpZYsIefIsIQM3N7UJPbxXYxt13NkEt+ctJP0XjrVymqV379Zz1
+q9+l1ub5udByI4o2dpwG1TvGumhP+X3qz+M4kLxHfnT9PDQVAnr61PnLWGvBz/QDBhWBpSUon1EC
+YaMZiUldVpCN+IDahPIKuFk+YDcg2fXz9IHAQXxoXcQHGIcmERh60umRDcH1EB/ySou9zsrVqT4Y
+OwQbmqGbF8KgL1ZoBR0xdOBut8J5pKmx71DNED7bfNB7og+STzuuVB/A0Bn+shX2Q6ZHnmzR8YuC
+FSQJfsQfZCAFsU3v5VUTvCRIkpZDRlj4Aw9SHb2+iVPZC4ZKPI4rdyjrNBBEdq6pTxWDMHT6D0hR
+vPKK6iAAXTStFKMwXoFGy1IUutspIO5O6co8kvIVfwTV1sS2sEKRQqw8D/RuQCV1JtSkQG9szTE/
+YEoEfvAW2w/IUvoBXOo+4EvqGM53Opo5rD0rnckyRTVjqli5TXHeLE81EexvdL5hO7GywHmaNAvB
+fk6CyiMiXEhQmAfyPeRn+FClnPMYkxUbVdUIEVwDbQC1ZHkqmLWk2DwsQwU+QpMGTGtD1jJBo6RA
+9SV0CV6eLU+MxoWEgmZXyriGeF+lXriqFkMuRjRq/7QExgivj1SZCpomVTQvjXRUwKjM2lUCdND2
+RazCCkinlbal5XqPI0kw2NDH298sQbPXF3kT0zVuVbnxwa/gYukLvAfQQ+b8oY0XmtthizDS0Zkf
+1gB6fCGebUAJ5QMCVcnJLB41JymscdzExjhFjhStRtVYLDPoZbjZJbq6fnqMRFRc53Jqsh6Jbu0h
+m2qP5WTJO9VBUQelsrIKG4IXWcg/w1ru3V4HReWM/KzogNyvfcwZPADJiP6onVgeltHvlSTf0ezt
+C99EePuepyQ78KMssqfZpnUTX6qMY5dkpKIG9lwxxOHGkDIjAxAH2WgvUX6Zy1jvHLlFl+SNgVJN
+W4wUBnyFwhg6n+wbhPkR/jPVMYjHkP1J7fXXUp/iaC8V6NgIvNemx3ooJV6uMiidR0zVcJXZowg2
+EFv12iXOPn/s8AA8KV1Boz4A2Rx6E9HGA2PbRm03Jznt8XaIFgNLWlXdKMGgAePtJWCWsZG9iC4v
+TnMgAvJFxBAi1I8isqlKUOL3IzSRt3ForauxzfvSm3kmXg5JR2M9CtVnqY0BsA7skie/AO59xhBA
+hDAB+eRl00hCftUOXfONpxGS8R4bjIRsJGXZK5OqSz2M6QH66TTswfbagWS7hcZaQR41KBZwMvMA
+8FWhSA8j9yPSWAR6uLNXSvrKLWu3a2JReEbJm5+12gCpbpj2mtkmGv02Mjqg65pe2CmC1bBqtvUi
+Zsx1AT6aE5ErzTf0eWq2Af8Fxh1VMOjWdqW791g0qA+GBdB3oiTJqGg7ste3stnIMlEsEwtcKwM8
+9khNGe/lnNG60W1ip7F6Dd3PRNXpB5YreD6FbLoSBFYefS9lAmEDOeikLH8w60sJne4oo0x3lbA3
+4bSqeoWWdeSQ4hK0k9zJSpK+yVMC1LfsedlO3400V6Umnm+1uEJFMarmrHnazNS5I4GnuInLTn9g
+yKPz00RTpw5JqV2AhHVpnhQwNqRk4TtJ3Rk0rAL21uJ/DKURgmgy62+TKQvCtbpVPNFrTSR7+YKL
+7ogSNNX9rmoIqOkCbDCH3p4xRbFKAqBpjHxxkixUrB06hkYGutN2y/3crhiWoc8xdxhxBcBPLPbP
+EMnxD0oGgu4p+3FkKJyRVgSQrZ7ZO8Q4vJRW+j4pVnph2Ju6H+hjW+8ohDELi6LD1NmgVewh7yEg
+RV7eR7cNcBkixEH7xDBe4+W+sSXzjTLQ8h4Tqo3qN2wjedsoM0ZCUE+wSvlB7UVj6ROuQcd+dsPS
+MIj5yQzlrQpmcnkVg5XSBe2TZw7ZtuFPQiXXnPqsD66VPg+yzaAW2DRaVWtlB6yT8dDlqC2dvlbR
+V+f84tSRpFZ7CJtVZVkqUGOAS4WIRrTAOo/xjNcq5J0kG72FUWp80EqjFVzK0WL6oca1oV7SD7Rp
+9YE5pRVsGiAQV/yp9oFCHT6wqKm2IlJJxJ/weazk1FaDguWX+kyf4AOtqtQrZtXqV+Rq/IFf7T9Q
+rLO5YlmrD0QrMEjlwWhUtUJ0A8NVAQgM3bwOeVxaleaPaNPbwqmGIg79WpLQ3GBZK0I/SoO8us4p
+aykbfGoh/gSpTetX/lY++XajGauCZSK/SJNCOd80jWzzJ4us+D6BxmhdEwu5OEhlP8p8KKJGLpYP
+rdw9Lc3MI0Kh325HI+pf69Gc7+e+wg0BCTBrXLZ/dnhVI18atwP4q/CIaTzQ/FkvQuMgUVD62VUK
+gY2NtkjPdmSOIH9DrAyDCDQJ44mM/2bhVesO6UWj3055SDZfalbHHsnsu11yqNrJ7VjEnpEnK7Ej
+Rai2AVi0fCsrVT1Nhl7dlBUES9bTqUl3UoIGzosGYcOmGtPKl3IpmD30dlHlt/zsl6hsbeXYRV18
+TKW0wY+WM30jvDOrLWuyzJ4x6KxrDu2jq9itgos5stGIq4XyEDdr1EzSmPG3RKvGSwklYF4xI9KP
+BWUcgisxWK8LPkH2FG2qPlozSDyv7aYBb4KkVCxKUaRc1D6AMdfy+o/GEEb3bcGO2ZmxKB5rKYqQ
+bFVL6y/DiDg5jnXiF7VCNIqLedTYD0ka3sWDYb4FnehuoyEzL8sSyHfAx0AUjwTFwrmeBt5P0SGr
+y0P1UOAveqOrmytONyagKzJbLIA2KlDOSqOjPyu1IronOHV4xBZZvMS4VbtNAOkdO2qIlI5pJDSu
+uIf4pZ8n7cmcxKA7eHkWZYteX8zb2bbKu7keidBKqqq+CcCLYypjRDL2iYTy2qWyhM+a3R/xJ+kv
+Izj0N6pO5ati1JZ+LfP7mS2BImVeExntPq6B0x0mGGGXgYlu5aNW0YseTC0ZU9g2b4Fe2HgV85gl
+XxfzvWZJIf8T6FSkMFWZj9wt8V7optl4nkdFGugEJ9FMOaCW9MXtiGmlSQolCQvImIMRF7kY722t
+mc7jDBDVyTWFo4xW2JxH2I2ZF0SYAKSo3EpI39KeXOo+IHXDSQyzm4lhDDCOBwFUO7IampwJD7so
+CHKU3d/jbGyFgxrdfE3mRT22dhO/JQPxiR7n7KSmbrHYkqcXkWW6NeatBI+S0tyVLIGo6nS1/Znj
+akYh3nK2IGrD5E90tbbl+CP6NUtXue10i+DQvB+V1C3SYjRdkdgrkDWUpFsU/kDrkK1X12E7SJpn
+hWWU+ZThk9IPc7OqXCso2TnFbau1u2hppjtIfOmtpkbTW90q1pWa54npkz05POJV7gNXwop0S2YJ
+z6rHkMfBNcVt5MbCsg5mYjOyJEHRx+HAOaPPA7G+Fb02w5Qe8JO5MjvNH0IoUX3KJTN76mq4L6ys
+bf5dzpYIYnnTmK8kGEjRVlND3ig4GvV5kWTyLiO2OegvkbCyOez13PSFpNcKy+6kt16HaYOynp48
+tqHKJIhqvTJ3MFTHbsPoLs6DPvb1nmaGqXl5jJR1InoIzWMimjtM+/mBnZqt+kIx+LkNe4DQG/U5
+u4PLw3Ot2n64DfGIxBtoWq3uVnFsXHFujX40RtM+Da2C4mzFvoDy0eqKZLtAGVhmSX7wWzkeGhC9
+InsBUYizKY7NxCKkLU9+YnAwcLEDgEjYqzeYDKIms2O0xllIRGyCltGPw7L8UTc62ZgJ6q9wlxsq
+t1+HwXBJ67mAlySvO1GJZsxLyucY+3FhzN/5y8urmmQNzJNoUfCkkK8xojUVbbY1SWrAj9YJK7yO
+hQxnlVWz7jCH9w1KrtyI79GJIuED3NH8KLFGc0bvZvZuic4BmL0CBPmNPsBE34xpOJjuIgEbQu82
+DieD+AZOo/j+2ZkiPJJ3iTBhnISanbyKbjJ/ihSgsDtkUnoxaiTq6EXxP1qtIqxdrdXm4LZLNKS4
+Q43gMNe5gUIU20DoFlbJf4oMV/ohjIRuelVFGL0/AZp8CNtqOs7jUDO2oxTxKRlXIKdggC6Ik+kR
+xDOffZes8GBBsly4m9rEesbjYD1hzWm+we7LbuW+XlKXwjjnpLSPuxhnf46PEndL/XNURnaDcZN1
+KIeXwrDcYmbr76hSgNJ3Tgr10AzWRPFlajjslYAb2IZPzXykcjG2oK3s4RY6r7i1uxgJetO2HLsi
+VKPf4FbNb7pgE8oha1SecCexH500M7vp+1hv/JAMzBA+UTjofqbJ5VuBQe89ADZj0IIDR4bmcR6u
+U1keUZVxKls8fVnEuasQhIM61vqtwhlrcoh3JUMypKRTbPh8ElatuhWFl7BhSaCcCS3cGvYioWRs
+g1jBO6pEcJSFEj4h+Qwlb6EFhxOa2tW8aXLJjtyWNVsGhvaxg4R1p7uhmLJqwzpH0sIwNkq+lY3W
+/jljRuFc2JnK89y0ChnQ8ZB8XyEvCccSNSq9QouwdkVG8CrUNH3AoJbdNhNHI2eWy1B2hwFPqw49
+ph7wssHgQiRPgozd7I2wqUFHU8vpKXhFw1HG4wdMm6LHD7MUwauqI3jlgybtjMOg8bIIq1EdEzrr
+M1ZQFB84wtvYqcUcvEt0757UcN3pdrEanIUowShmeSRYvaG4ejbuejb/3cjqFlD19hCFNldzw2cG
+Fm/h2G+hJn6Etzw+Y/aqwJ21HYY+wiAHTI5Ft5BwW+avOJS6G9z3VDkisvw0JwsU9WwFq1VqkAEH
+bZA3d8iJOXnNTLlJmHkza/FJ64Y+LFwlop+UbMZVwP9Rqv3/2oZfpApoDGwK4f/Lj/ibuOG2bF7j
+/Dd5w3/+zX+5yJhpkPzSSaOoDRJ+5S78R99gaH8Rqk4zWiNGFmE0Zen/YJH1vxQgMKZNUtYKcVEN
+/tH/qhv+Qj6x/kVCpVHOrKGXn7wzf/LSyOrq2fml+k2Ms2kRNknAE8ubtYb1/F7Yh1Fa8X02pZvS
+nc448iraQ5fWHCaBODQeblpKpq0tJa+J2ZrvGPjYY0/Dm1FPG6NkqHckpDrUf8E7DPQlXKrjtVfE
+SjC7Wi3Jx7TBv0zTkOIf6NbmCkJkprrJJGtOjjbz0hI6cOFrGYRjLZhrZkI/Ln0EgWuhPOrn6ay9
+kTo1TdQnRLyXi948d7V4ss0oPo7hmN9pbU5RoG/b8jULoyRx+saorgLsjc9gb9NzrOvFnSFTYI0o
+dAROB2VvowR6IVxZsWbTJWGGPZaARXdQpWhed5oU03IpvVIiNbluQjO8ljtJlxxSQFQ6kVPOnNfX
+bXyVB0p6zPt8TLxe6e19RXX5icOkcRJdQAIIiDxa3eEY/AhHtbyvF9xLuH572PNKQ4qjHUbdfm6M
+NU9SXoyN1NnvMBUnJy0NbZ+F8HCphxaAXYN4ueYE3G5UMWMyxVgoCSgl+vwolg7jQjDEW1Dp8Saz
+O8kNezZ0sW7lHFugKrMJzTiuSQskvpaegBuaa6pS0mfbQlTpC3VsQMXYYnd2LZ7NQm6vzLyo9rla
+KadFXWlZWmWo+z5IxTPWxdqjJmZv8R3BEkkHthnWNP8YLT16NKQxW//eE9DEtzwxgmszjQTuZZGK
+O0tI7Y8hYrMdxBWhKHY47m2hkI2TlDa1w5Li+rGijna79BlsS5oM/OhgQzZG5uiZ6LdEEqmH1W3o
+V0Wj+ZLVTsAFpUDzhqawnpJepTZd6ubBDJPoXo0741CE7bLBXkFfCTSh9bwgO3IlgstPDe2Obce5
+7hDyIfpU7exbsHoGqw2bLEfYYUHhVl1482mWjlv2YugqoyXekg50XYo8vugBSbpaNscPKQ2R7VDY
+7FgBs22mwDYumYgI8E6mMnOpVeQ/2kotLoPBNiWzm2xTl1Z4CsE8OkO4hmhUFCfIJflmmxr2qN62
+RkfkIEhHtc7YFGIgL7QxvVrD0N0qrQxKyJH+jNxg4FCRZC5VaO0a7T9RCEPd2TwxPt6iGdKbPtCI
+nuyA2xwxBTdesHTRNu+m5lGNqvZWhxjbuN2UCg3Yn5ivcKCXtP1F270nYqxKnN1GqyoXWLTUUW/R
+Sw03oxgBG1k5cD/iy+zTusW6H6MAGnraq3yc1UJtrRzGN6nrtIesmcPrIjVK6hhr5XItypCPFh/p
++HV7SdjWmZI0zOeiZHXDVZ9tpVRhU1bS5/T0QCeChOOfLzXd6mRXmm9S2lc+9vDoqUWMdAZELo5h
+I41vUyWKSzFwkh9bFmaa3dNRIo7Wq0OJBCzBfLIrsZz7dKus1x7o3RnhVb8pqaJfonE07wc2PTW5
+5XN0acuq8hFN/JS0iRzoUoum+7aqogshKHBfabAf2rQEc8i/Ht/KoIyetKEv2Ot101lMRfZaCn5E
+W0MRJ5yzpUkySo9aS3V3KRZMbEEXzw9VUG7TOEh+zKUmY8bXZvmi5sZ4U7dqcKXJ1Izp95oxRKdQ
+Cj2ZjsYd9VYDP9ekIwtZluQuQq+zHWpbei6qxbiRasl8ymh/3jKuxANxO5OnNUr3PWuscNOnQ3Qf
+wR574khTXDKLaAa/aOVibzY4mAIOBK62WF3PmXHSNxZhGSeY9lToFZNBpc2EmMVPc6WTkd2WuwK/
+Hp5729i3aUZq07SkfmZQtBpiVR0cCv7NzhymEKYgESHniBTK646spxe8SR1drGLfSqq27ftkoDbR
+kJ/YMoeR+1dMRbMfquUGGvaMOR91NaXnJtjbk9w8KKKpvF4T87E28mhif9R13prlqeJcg3G7JPm9
+VXbyYxfje3MSZV5OdGpXn8giriptkX3JaIYNu2CVHC/sy402QSBh2+eDxOidnHTjDaea4ahVFp0e
+LR2/ZfUo70pjkTYE1yynuLO78wA0nfNyHm9KaYCCCqXbtaEsXvKmV7a8P7pGPLhzombFeaSS6dPZ
+DQ6ZFi+7MqZS5Ig5THyCMbsz+Yr1KUuaO/6/TK9VeTSsjINjXnWDX6+vJDVDaatGifJTZUU+LGYv
+Xmii2e9tvWYJKGapHykGZG6cd9aJRjE9j4wqPF6+62E0sndyCWKXDlZ5X+JMfVoC5leqFddz2O4p
+O+YJFQ9Tualoe74SmCF7ZDPSXZNLc5+NSr+zh9Leyd0wuQbxhkdwPp0LR5IqEt3Ln7Jc6TdZHVZX
+cmdkWGeVaNu3qtgupnZKJYyUqjZEbqW1r4E5w4+gx0N9oCBAzV7ohgvR7ejxKm5I++vYoGp3TUpH
+V4GIk/1A9cYDZpwzKubwO2TU9GzNI7L3USchudObDUEA9YYAIu1byvP5WQ1acmUNcniP1bE8sxUI
+9kRkkFqGPZEdghOIofdzoIjbhnSpPWkbxjaONcVTzWWNWisavkVWuaiQwUInOdb1Dckk1U9OukxL
+rCraAqvBEqznRrnB3E+cXSTUzSzLCzDlOgs36AV7nwL1uGe3BePbIuDCwkrpKjWqp4GzFhDLjMoE
+DfD4og5DfRQIMnx9kClnD116tIrWeqlpzu9ipQ3uKDPYbidR4JQH0XqBDEZG6VXSlSLidJR5TI9h
+VD1nVlg/R1Ij71qrH/1irPRLJs+zp9RlcjNW/XyasaNRz5cjn/tbDrZeS25cZBQZglTjW1el4bLQ
+PyQlRi1HHyXdgEmU0uW3kcrbmapauIEtPx9CWU/3VDp6qh5CuqEVZ1yPqTp+F9DN4bmr2m04GIM/
+1jSnB2NBFlHkYH16AFdlFl2p6fhI3Z/EgXTSTkTGY9VOba3CoZdpGxmxBcJtpGEkTtjRcL/IsXrf
+gzRNaE7G1bGMNFrcJMvMQSwOcx+qhPAJ9SYzlc44EXaj7gylAU+eKN1xMl50CucHNi6kyExQeFxl
+UeiTDOQ8oJ4IiiOxG9BgKyXCCLUU9ZYzJOdAXZPzC2o8FiUxdhmtzsBqTkS3iT3BfKEv2C39mCiM
+S3TNq4RCZ9dTPEFKuVdBVtfUmIniR5xQR6fKpqpFFEzskemxbCwjt77rra1t5ch6men97RYIcRfg
+sJXPDjA+y0b3XTJ6dafaAOBRNvYPBm2yjdQo07vUCWYAbW1g8fuAjtfLcMBbnD+GnCGfxipvoTEb
+nINrkipfuQ+FYk1Ggpgua9M9aVjtZpLz+rVftPIYE4JaupGZk5yVSuqFkE1Or2QIZU9UHOgWq1Lx
+1ClyQCPVYskiJCvFSEowTptVxEkm+rClpG5cDVatrdv+eUs0WKE4IcmCz0taKH7DFoIwSwqyFV2A
+IOu9KKrlR82CvCQvxK1VQVcc0fNmJ5gowdEoqvFsLFrwanezuHQ4HH9mQlH2uP9GzwxAKDt6XQVe
+hHDnZOfWMJItEySEKLLpOuQIyQ9sQIiPkWXRbfS+6M/WIkluvyjFjwLju2dW0loy0NqbPGi0jRgp
+ufEgZftE+nkpObU6ECigVL23IBh5IKc92i1jTDstF7SQxNwRCpgr3SallUvRZ5C2idzD2os6IkPT
+eNppPd8UaU3xOz1f5V5Vm292kB3xpapne7wf6FPcjcRgrQoen7rvkZGzHPkv0p7DQ4z7ZDEUPyTy
+2EuRo8UkkMj2D9jx6ndq/ij5prAqX+aiYTZriKaTiRk8N+Gi3qTEs27KIRU7PQryOyVRpHeaaOM5
+ni3jUrHv3hs1bbSw0FJWgvKpzqwrNjibJEsoZFP7sq97RQlOCzGCO8JV1C1fR+GTX0XRoumsA8FV
+/feMqODt1EntUzDm4SYl7XETz6wiTgir2gvEnO8zAo5nj0b7iPl+5jywIuJ9O+jnCyFt6rZbGyMm
+9eRNRcDjvl3m+W42s2lGiL8sN6Ib2/eSXMWjGvfJbgBj/hTpqi/FySM1ZCcil83oUYlE0mFda/uq
+fZjt4CawipuS86KvBtNt0OdUwZT8di5UYC02obfmXbYava3gNovFm2GKO4W6SmIG5ywVNIQpqTpD
+SewiS+xobMigE8yUtfE2jXPP1VX9Oq+pt9EGFdW+mrL+mCd4qStCrlzb7o1zXRqk+qdqcE/+bntU
+hxHC30DFstLzcNsDHL+JaTZvhzGwb3GRExOfWurW4jjxQLjtjAYCU+g0TocwkLCqE4q17835lOTV
+RO0/V9uzZjb6gVb+eAz1xCeEqtqTj1ayFZTDd8QROl+korOjVomxnDiJSnSKqmVApzGzTLPYGywX
+Z/a9ySXKf5J0N56kptfPXZx2uF9pAEieZrb6PdsWS/K6or4dKZEf0J/ZvraE4W3eZxYpfz3HwyZQ
+taOJLP8i50a9jSz0XST0zQOT1BxLD3EyqpXHFzA9mkGMV17F/vrMIwifSmOWblQpTVUvgrwS+fUQ
+khBYxMtWzA2kR3UJ7+i6mvRxGg3u1brFw8GvNU4rDRsJldUli5T3JKmBqRsUDy92rBuvRdbAEs2n
+9igtg7yJI7O6LFPSmhClF613wixjp6nP9uNS08Eb7WKEet0U9blZkoVes1Q+2l1OgGCC2PO9qEe6
+0wor7qYeJXU7Ej5wgz5zecxHlW2Woce6z65HO4ZDLU40KRWvb8dwFxOusLofyOrqYxF5mM9ncvti
+3Jwc+XeFZDaUWc2kILZIyKd4pkI5gWk8SYQi+30xy1t5xuHuWXZFmaEIZ7IkWGPSk9kaZDatQhrA
+PYPkavRhDmYqm6cksGSOtE1xikZRkDscyOEesdV8n5vD7AxRmBjuYqjdpbVzvoVgCcLtBJ2UBrUl
+TJ9ywngtqaPhV00UQ65P09yhBMA1RlL+mFmGyjfkIPTHMSCFkWN9WfsGahMPgSzjH7kD1c9smrw0
+1GgxN9m062uKStn/Ye9MkqRFzrx/lb4AZcwOy44g5sgxct5gObwv4MzggMN1+ijfxb5flEoydbdp
+0XuZaSGpLLMyM8D9ef6jUYHKh+AEq7gd/YQA34HQtRLHPHS3t/wi9lDuu9Yu7tPeV/zkHre/7uqz
+dHwiXTrTeLLbjP7vLOu//CR2TgXoNl9bzy9MVsFxbIb41MNPH0ZdL5cupPN6Htx+l1KkBNxeDzf+
+sKRfU6P5SFC7QpMaSQscUPfXnA360leqdIq1WdvXinXuBSqJVHCJwYJWTt9Ml8wqyl0qQucylCQx
+l26gpnWAPujEhl8d2tkIdzBrnIUsylXkpKPcsiD0BwhkJIRLzlHXs1khCWOv9a5KZecJgQPZx7Et
+X2EbzXvXEObvSXQ2JJAoN37iUFiek7S7l2mHWN70xo2DCuKmYPA5hGlZ/o5TFT408cSB4wbWmxGn
+MfZhkvHWGXIvAtGMOvw9q6wi1rmsUaYYC1A2ommD98Qe7ulKNu9ILMtJXuUmOi+1U95Xbq/vfJ/c
+jkNJQdS7UbjmAeial6thpzqUbS4eJemnj3Sn60vVtcPeg+y/4YXoTh05dudwkF7E64k/lXFtnU7W
++JrY14szNpdzn5bqxyQK5KNy2/lUB7rayqkx2cyccU+isnUwTZbsYBrrH9Mqi/tuaMovuuHKY60z
+c0tij+JMHOODyCZAqsWcj2gRnQPS2nJfzEXyqMnaRzgzpGI/2Xq4KQIGyhVlYu0vu5la1LSjwJ08
+uum+dtRirahzB2lZeCBDtE51vLWDqjlTUFR9EM9XXsyi755y2+sf46ION3bmWHsoYXnjade5oat+
+vHjCnd7m3rQfzNRNKQrwU/ISO+c02HkDUgTLAjHhhG+OYUStZc5rf7DIlQuS4DCUsrgJrHLYO/5o
+Hossd/mLEWzJCBs/xlnMWu0Y6Zo4NUFcsxY0BFzJb9bNfGCz8rAgGzY/iK7HnYhtFITEBxrf3mIn
+Z6NaWjiPpXrO0rbdLTbKT3KmrZ9+SMbHaqmLvZc11s7LSTT0Y1+ebd5p+gDnntg6Gz0YA9NS7Nhi
+3XuwThGRIlbvzKrptkSJ7bwW9EM9Z7ERXvyp9R99b4qfWEzN7axr4kpn3B1FNZTo/7L2siTEvDCp
+TpvUiMttNVjjLcFNvyVo06VFyx2j7TPSmyKlJGYZU+utgzvi/is9pK+52miy9zeJLf0I+UEMju3C
+3sVjsqzQeomtdI2EiKK4K0/E35j40nL5FiN7IHJmKg9hk6PFK229oidcgFBNl1kl5lo5KuW7aHQ+
+BfWcJyLhhnsyVNObIeMCLK/44ECy4l3vJ9ZL4PTjXTo5xVuY6Gd3DgobahFlCUhhRgq978/eiiW6
+OyRJR0o+QMq0tsyccJIwJpqX6L3rfIQxh+B9jLOEATM0673hMp56htWJvVPk5L4xxw9vPeKefKXo
+GRs5V7A+bJvWcu7jJiVj3tc0n+6YVpmS4R6AAs3SfheorP1th6jLWrXkn04rt8ayFwJXmTzam6lU
+tf825LFFJHs5IcAcY0nyPWIuvuJvsX1VSjS9tMDkoECyEzetfgoUmu8or4eZwGSzSx+EBWiG8pLv
+gM6U+OZAuejpjGSsx32/VJnDQtClTtQ1eRXh1NNfC6ohte4Mp71lZDBOroscfs1YC9pHdFO3QgoI
+71wNg/4i2Di47WKff10wqfbipKzdYJrpEuwxo2V8/F1WJmhihgyVKA3YXPSZue+WRS97B81FzoCq
+HRCrsTomQR5seKemX4kHencdLTjvg8wgjGOYqiNSGBZ48v4QF064JtbGYAU3f0KZI0NANPXxlce3
+wn2YUxsZuUxEKHn4xdygTV95lfgVCZI8KkPrjSgHVCxagp/YCuXWiCcoy4fwPqEK5si5Ozz2KCc2
+hqfXcxs0t0LUFtIyo3iqBkfeJINzR2TYA9E77drKzSpl9wTdMGvclzjlmc2qND9L5STn3nSrkx8b
+H+U1j2hlWKyfcOyclBih0lVM4thXJ5opslrfePBQgEWZ778F6bly/ecAJ8+KIbn6lak42xm2HDZI
+7sW+msmdiYPRe+2xGpL3EotyS7ZPvBVNlbDRNxb8dHzBbKBWicOF6eVIpPkzLfuAlE6MEqL8GPux
+OJftKCK7W9p1OIXJHRq3fkvXUM4+Yw+roAvDKCNDF+0wwsYVJd9u5DH0HUUxy0/RAUV3DGqfltfp
+txKj0wuEqyKiekxfa+CueEPpBWfAIGssD9pfwhBGK6Xtw5rB1pTT1LcJz9xNzcP9EPthecPxk9+G
+pE2jU4u9LN22qokvVDHr+y7p+x2FNgiAKpPGXt4WXhw9Jz8dWlKfLNameJwXcH4GPf9uIfUr2ICe
+UdBU9Z2n/1a+929e9p94Wdv0rkTqv+Zlbz7JOdx1NZTff/yQeDgU/82B/rcv/ztFa/4RUhFkYpDx
+0LeiTvgHResFf1zbugg2FIFLO/X1X/oXR3sNPATydFwMWBY+dHFNX/w7SWu7f5h+QEsg9C6W22u9
+3v+FpOUL/htJS7EIuTL8x7dJziK94H9WcceOzfPu0JBM9jlgP6UXznMvpBig8DSBRIS0D7/GqZ3f
+5ACawbGN8C2kseLQ2JNe1xB6F9eZdWQn3byvJnkyZrd5tUQxfCddkN+jrle3arDjdUeB76HXWFMI
+I0vHhxRrlI1ZvCJDkCauaBYQaessHq2P2fXHx7AZp4tGk/lKaUe6JWRVH4M8R5bcxyQb4vW9p3/A
+Ba3O6uIZawEZ95ac++2EBQK+UyQ5QPnQi1e7Uh06D7GoM5qW/B1iPLQQHcllzzRS/+Bv5uduG/Ge
+GYrzIbAfa2y5ZNwtFbcNNdvP/ZiFt+6iq2PtG84aSRcitmmyuDjIkoUV69OsjuI+8deTnvUXsvdg
+h3XROPnQzHdtmcsbVOiQU6gmhkOyWFwuLmyz//YnfVOPIfyUjJs1N/C1/KWtnHeXyi6yFnP9VPaj
+/TwYCJJyQrdKNhTNbTbJib9YMIGLDwUSNFSIukagkTrLhr7K9GGSNICDczrI3HOjbzYJu+kT40by
+U+fXXxA321DugsBuL5MKit3kcjWiXMYzI2mfzxAXustpmgIAtER5LHT8dldqTuB6g4sruWpAo9e9
+yX/LLDu/UKkaSixPVvITOwZ0yDzOct70MHH4Sua4Yb0y3Ok4QZ1FDODOe4JC/y7AS1OvXT8Q931c
+BlE4YglbdaLoI9ccwlPGB5msSARGBjNXzevsWTw7LMbUjel4ulcIhMZNIcfsOANTcivYoo/yyqof
+8Af439M407TCsH9VCFlr1ZffmVHcTXUCXh0EtbVP1LUoJHEx5FBoHt4F0Novgy3UjmbJ5HnGdIR0
+PsmR+hAPKNaeEXPHJWqID3ETO7ed5dVnhPDiAXd+eqhs/ctw2cbiYpKvOqB1xs/AQ02nDN+blvsu
+nix3Wnml0z73pEtfA+TAP8l6TA8BHUQ/dcxGi2XIqs6+3RofoZ5DY2+iYO/WvaoqGtSrpdzU7Lo3
+dcWDSi8AY1OfuvJzShkK7mpv4tMcl5GIYWcY3pxqYGDMCurCE1L7l/UgXDdFyMfkgxTfRyWPk+yO
+VgokpoXfNMVGlk6QHE2vyduV6l0ptyIPJPFG7hjscN1KHSFZ6iFBmxK7CPJw5tnJ9xZI9KXb+oFB
+EYMO9c4KU6VvYl9V+jJJFZPDDli7Dukjum/LUfEjSs/Wa11Ww3HJansjK+KoQLdlslkK3Brh0Pju
+Z7fooo46iVS9W7eAyw9N6ZCjWAPNVApsOiIVxHpu+DF3kqTQ3bJ4K2K6gzWLJCy3ukImVD6l9C2g
+a1xNQmQl3y8J7CdzGGeIdahfz49/e5NAa1BnOBBOwMuGWPP0xck96prSAjBynY9aVdeX4UrIU2nE
+X4Rrg/eyzxsveZyqgHc8EFk/bSYbSWk9MeKsKOeCeU5sXtPtZMsM9kIHwNt0hPQ5hSQ5TgQ6UYK9
+h3Yj2C7krdpRju8s32Z8UX0AQaBd1zA7/1AGZnlWdbBB3fZumDUplnNPd4xA1bkazf7gZ/WDqZZg
+Ldr0jW7pKmKA2kjLY0eX7ndNGvYqBqz4SUvAkcGJsxuPHIDbaSz3vtEWm1HNLyoNnmdDHGFzb+es
+Pw6ldUO89rlMgx8ooIthyTPI5UM4ZiTypwwpjvb3Juqzh0I53gpz/ANMyrZrltc4cb5zkEBSPruN
+TvQDf2mxtZNZrjPLL5+QkHivrcESyOc0Us7U1LsKLjuSILirwBwugVNuJ1ROa2b5b6HDU6BNwjGT
+ckO1w7s/h48Kbpir5dHvrWewDMh2u9/XpnnXePMptsy7wih21Lu8pSK9ydLxJpzkV2LaZz+krJzR
+CuoutjZCm1sVz4+4L0EZB8k/UijI7Whs1bmodXrf2eE2XoJPalr5mrDucKc4X2Ox7BqyNo5ZA8lD
+nAx/a9zPvAEIcpuqOBshf0fD/UY4/Fa1edQnwcVS06oL7aepJvScEYCOCidrwO3UIban96C+6rEn
+WuPZFPgDZx5JvVkpsi33zqbTKpyplrZpNcVe8I2cCvwCo+q6DxCdBnaQnfowbNYYTX/IYzf3dWu8
+BJoVkHcdHxU6SbJEiD3c9ACtZyxuL3S2L4+5O0K3mNcLDz39xg2uTzG0+TEoSrKDCXwJNi43I4hV
+G+wGiPzHOFDzqzNJc2/iPEUI0ud4qdwqq/fosYzVEKT3Ke8wzXRJ+JZWbgcF1yZYVq3fCU4udGHO
+8poodASjyH6gZJpt15f2vlHBNdm3iTt0MjPRY94Q/2pdEojnDBM3heHitiCIf2Ny3lfRmFZ6kzlM
+K6qtxy1L+rkIvOGAnIICMzP/wm1+MAL9YmRdBuWapJ/8Jt2D7oqHivN477bytzEYY8RP4Oyaqv8K
+2E3WSgbFtkSNvRmT/Or5JVZ2JRHDb/o5/ND1gDuggbyG56oOKPwpUCeK9QvEEfxhcc/OWJ6MzqIH
+1PIuMQkGh9JUH32TYn2sKkKjg6mw7ulnU5ts9HbhqB6TtN3aXmaux9Ttb1WcXqvnKTep5+6QNS2B
+O539WHj5Xtoc4flInQmDkRkVxC/va6a4qO70voEm2fKGE6YmLP/Y+815NMxbsuBf8iIj4n7k+Pe0
+2DdBcjHz5ok0lU05ViyOraSg3Odznqix6F+MvLePHB3+ziYD8aoX+06E+9WMXY53snlDMrAL+PWu
+JWgcKq3Fse/qx3I24nttTWpXtp4PmhzXa18pFrWp+iklVEwW80WQj8O5npaRLg/1O7GKXTnkw4Ws
+kHBlWhOlecvwgfzDPfhFTeByaXlRFwzppryqkwZqhZDFwSmvswnlhzt+jVp+MRIVMyiduqGDodyQ
+SxFSxGe3d0mawkcEqd7rZiCRbCj1ta8CaGDhM9iRt/qiW6rHUCUMH8tkioth/qgQcJQ6mxkvZ3OO
+U/dDV1hSKQcK13IyypuRWQloF4kZZgmxyjCAChMfCTUFWGnzWxfS7CGnVyrqw+yIoYW8OT27m5bU
+qYhfYcGG1t/WAX0F9rXWIXQvdqzvkFLQveu1sDeJcwCsrTeh62wSHxXzrCDRddxf6jg9sDl4zwW0
+r+kMeyAsQjep4GZkAxkvj9VMRshk/fKX5MQBTRYcxmXSUTgppeXARM5NnW5nhW1coWkieONKTlrk
+DArkO0Gs3wzdx2v8HS2fYjMciFuIgePVqZyBMQUNdIdc93dOT1QzT3iUOM3VArKbg3pnWMt7jyEM
+aUOufqnWszZwQsCehXoP7Kl4oATmF3+r25AHVNruGS9+vg2UoNIknhA4AiS4IaDauqibX6GtbsNu
+2IJxn6RpvzTVTOnR3Izr3KCHYYq5UYP0zU67H9Ru4F7aTtY9AlJKGPh5HC/eVoXIjo0dfiSszDuV
+x+cZyHrVWeMvYK86WuwASRwuHZwIDmyelz9lRW+ibB/oryNDmaUjfjXMpeXel79jw/2Jy+UNOn4T
+G8nybCNTSUW7STtRrQTek+1S6mJnFDghfIsbPvGGnaxw+C+eT9UcLZKo0q7ZVQAJ0qRqYaT2YCUb
+x9u09nDDEJSc/CTDMT6QFb8Y8RKZWb/PfRSYtP69YMfFK1CnqJcqD/+xa7wW5Dvvsgq1AZkf+Zo/
+vQ1iiiW3QKXBVL2EtxhAOla066lOJxp+JKGi2O+xpczX7HEt6EtiHdoPKNLPM9gsP1Zjo0Uphr3d
+GPEawSMQfg5zi8oEhbzfWkcz5XrTLC+HEthwPcfTwRK9dZLF9XHM5+RtVlNNVhbtNl7ubjAI7+wZ
+73syUaVEQj5ehiy+LTOBYkyLgA5cypUgqYeHuU35n+Ui1m5SI+LxnHxrMA/t0dW88OyW23kx/Fun
+6rlvRkueOPCKXebKt4UqQ5QBHbJfxQBHyLzgjq8oumM2XZvmXG9GmTb3Wdb5UYur14R9QEpR0jyX
+ZDGw+bBLbE5q9tuBpP95bfAnu6b4/6qK5ZYynm5bzQ3uf9PaCts1thKjwTYUZnws87rYLh2fZ6Aw
+4dd5CqFoURDT/tn6FWvQ+vbKgZgciwtmlUZ5D5ypPsy53wGixkhQ8ix9wIqcn036eZjsibyKk1Fv
+vAV3ShOylGhoV1hb8T1QI4/rr771CCNZN9ot19gQsu3Ag5koMPigwLBGFQyWJpWVe9du7kYY0JaM
+CVNEPj4A3oQiQPpvwEt1HvQB69rt0vAr+KW5MW2zfwaCLfZJwL90BO93uHyOA8FgGxr6xDo0kWM0
++UyZZWzI3dRqEtIG33ujnP2x46LfyTi2tqNbWPilxhNQIcrYrvtwIDERidSY0OPmDeet3A1jYj+j
+QbI3NKZhaTLQqi1jMp2ccH5f7G7rioQnNk3nRyac5ZdEHU+t91hsNQb8G16kWyfp82jKTLHNMH8f
+zEkXXKS9cVRpkgD6998TfZJHtfgv1eySlCmpn5xoQ37xMBajQc/qXUbfou166bvCg7RBvptFi3Kn
+dRaIT9IOPtAPI29pw3VLLDcwyvQrJcZ65UvM04ljv2PfbLh4l4DtA3+3bZNqUNnzcK+8pdstxdLs
+BbbTjYvMhEE5oE0p9IeokL3C0jmOEWAB70i1PCDD/cgHLmGl2yGSDqHRouO+r+J5gz063lfa7e5g
+7dvIsGquftM6Y52xN1pQlmQ3uCEHXsVMCmRnBE1sVDoMkKTYHSlcaXd17qeRTNrmN+IOC8Z9DAEo
+AfID6p60blIwAO8dp4774VvWV0uLMkiqv3Wq1P22Ud6/5tCwxEUQ6ErtVXmcMojkpm1o0cCgSy2D
+b0UiQ3PNp01TXhXz/1kskjXKgbsqbamyjf/Uy+LDYlMJz8Kdh0821nllBWWCFW1KdyrB7E7eL11Y
+BHBGTdcyVYG+ASaF6Vkkg/UgTOMzC8XJa3Pvkfreg+bXxeEdlDtqEd8DA0H4GmfBJXS5tf1uQgho
+d1xyZLSs4Ne+YkWyDGWv4yaUufXeGhNpE7l+XDroO9YsUKneRmWjmNMx6a9moUdeovpsCMlQx3li
+JWguy9B8Atmjt6cL38qkvbMRksSEYzVE+JaN9RS3zQK5K6lM1VdWcVWQ8A8qVKTmFpw+eew9GSwP
+k9Eq+p88iGe+eRvvk1KGX11F5E+96vAKmHAdbdLtObHa/tw0Hje8YWA0xTK2FiEfxzK1YDgB+TbL
+Pqcsp8c5W4ZO/2061AqfAolZA+u4AAPvAwN399BQwWqDSnPMzyglay3cuH8BExF9v6l9S9/SbZwh
+crIADKLEIExi1UxCk0SwtFnDi3nNcxkcPM+RL8cd3UNtGTmd53Mgp1Kl0UQD7nSP+S+DauIeP42d
+Ij0lHOdAbFy/bWLidSwUCXosw21dDxhJZuqFgXp043PSZqoLz0jqyBwZyjTsosou9JZGV1wVFE0g
+8lF1Dp4SE/NQ5yNhEbX0M1ZXfrGN7r0MhXntjMbabPPkHXEHdd0tis400nxXzINlOOfwF/gKpaHa
+9jaGWVU7MpTMGh1XastnYi+M9hiqKdsbhCPe0PdrxZzfzVBEivtSHsIiBu1jMpdPpj963y39JcM6
+d0HCSEZkraZpKQvdDSckiocKCwo1JPFhspL5tbRcjxcRZRPPq++gdZmctBK7ycEdtrLAAGpAO8nR
+LgblCl6pqrkzoVCeRt9O5I4Ca2LoQqAWoqqRRvo0KCMSlHKCPsqtHX1UsX/Mx5F0GoQ4ub8Zq/gq
+6088hLxdU0CS49WdyAca503djjjkArVQ7EiFtd/vzQE5SD1Afumx+rb8ek7OVtPMH6RyhtWuSyHK
++8wF9uCJpjQ4aL8DTx4a6FMNmxqjzOHB97YxQllTISUz6K4eU0he7yFR9kuaZj/dlF5DIiKGqbM5
+B0eZNSjpeq46q8JkiiGVPKpDW5IapItPv+5fg8p/5TS/4FWKMWHWFiKcJTIKZIe9LOc1Dri1QSed
+PTrX2/ADuPDRGzNsHMY2GL5Vl32ks/jurfkICeQdPJzw5t7QTn0uGqtrD3ONinqELJY0uaX3BHmE
+5mlq4cGeSOc51l5D6H3dP2q8fl6kxuKNtA6eimQwIm/i6cxbBPiLCEc/4nrIPJrWVOr5D9TOZcTD
+DqhWaLe0g21TD0bzZFqzf98aPGBRxd84PUBq8TXlpCYIQwY1+Wx44VcpiSiSIlW/xyEOxdFrJAMw
+JnHvek22r8Al03fj9sTNpJqKoxUwHtZDYkiMdD+NOYUnmItyc4+FqKIlZ+myKlLK0a8uLT5ik45I
+HiMyipaz4nfOtnmQa/s4Ex0l9y3aoYl25i6Fvptw1u4ENUTMvMd+4RxeMU866bnMy0FFxQj0i28T
+kC6aKBn9tOs0DviUHOgBNDxlcoOqDTFn68/spd0YDmLrxqb5I3PH4QWJLSt9VoiGDgNnq3G2Sgvz
+ccudlu/+7U/ssm/1z0SW5V6rOP41Dfaf5edSV5/9//6av3Nf/h/UccF9kRJpCtOxILH+sicK5w8c
+iC7Zxw4uSOIG+Ud/cV/2HzZpkqSEhsS3sle6xPT9nfoK/wgs4jRZaOnFAaH4P9kTPft/RB06gce/
+ntRMTxAQjVPxSoz9U6qiO+GrngPmIuWXJFIMfW4sG8wtrv2ek3lZ7gdtZiFVJ1nX6WYdQw7Q+cv2
+Y9QfJjYy9G9tC5zVd8h985QZKco7dyp/G7Ovsk9uCO/ICzA6N9RD04tsFqpt7ny6TK1TyIis79Gz
+dMkBw7aXRWgkO4xguIvY18wpIrPBf1S8A+uaFJB8Bx/JO9JNpEIAcVydhRbgG+qlwDSMxyD1cNHp
+xEC8CwBlb/O+FuJEiI9JzedQ802AOeDjS7VPEEYBJ1dW8yPMetrmCLKyp4yQhenUN3aWPXlyNi0f
+4RLtxlVREql4xpqtuT+WHtHbmHdjvHOoa39a+rACt8yJPZp3RqMs9xYHTnWU89ylX6MPr7gyh1Yd
+xs5T5c7wBwQaddxBPMmY35jtNSSpCQFx+ur0E+A4Euj0FbE36TbUVRrEigzBkEQqkfPeqbIBX/XC
+BbhQaomaho9C1IA35ZObToMaHpVjlrc958cKAdlbJbg5pUQKwoFGDZqXoRRf49iS71lLKhVzi/3l
+aO1CcBb+o+EpdkKSF5YjD+2w77y+YUgYWy6Lpmluk7aSZ7RZBapaqzvbZdXtJrJGNrhvqPKukw41
+AyaJRI7BKxkoTHDm7HAnjcHwXNZO3m4Esf+REyD+coiLWcWUvOxjx8QxsfTZpbOv8hHXyW+6kZSA
+hVjM7RLIMiIDhzpg2Vj9UQj1e6ipf1oFfdduFT/0NrVU/Uy/L7uZ0MNjmrjZqetH7JR9MxjrghSk
+6yNw3R1RIwI0sk6z5xdCjOdrnkPk9rK77+KwiYSrrzr21t4O7O7IM3qneiSYrvqhj236SjF6XPir
+2a9GljcqQgCujmCf+jGznP4Lpsl4nzxaisnc7iluDagZAx3QlPuarjWum7gf+lXdWNUboWdO8QKz
+ZoXFvvAzUR76svHUlzUlSJxW3V8tnAQgGZPvr2nldpdv2zcaufzMY3sFn2qGpHE7UbWMwT3LtW+/
+0OYmAIgqAzkOs3uffrk2ILU1JO16chPrFDd0sBV56f9uLUo60zQRJ5EIFI5+U176hXAPPZXWd8hb
+P/C0FZ4zPpbB4qgzoVZuuZtRbFkHTXtue5MilYr3RLENumVRQyn/gIHU8B861ccjQk9MYQg3rFgg
+LdKUoZ1q2fbphtisqkMTBQjx2mumRZlL03hvMdl2d6GPBPCdpFTA3E6miX32at/R0ZAbZLox50yI
+OgfBZvYt0o7lkV5RVjK8WQPyQc4m37lT9TXZFOzLyEcsASDJVQP/BHd7IHEirW7QiCp3fS3RhHKT
+jU4bMjWLYeOKJn0yGnyjOWJX9O7Ehhb9RYJMSjxWy9C+smJbqOquvtlO5c01OMmaa7Iqsd12VS2T
+epXYaW0fTcKrCyxKYbjWWcWbuqZBkPCJJLPStcrHGStqUC1eHjW1a7T3turlnfRh3EiGm0TsfI64
+Sik71KaTTrdOqJEFFXSBx+v26grHLQQTatXXQnW/mQjc6K+qF9i3povcsCCQY7J9bd5PV6FMXYe6
+3MTMJ6uZqmWSnq7ymgDMzr0lYJijgpVQ3crJ7Hnh8wBP8NoajNmT0QxQfiYLS6zIGTO3FKabtDMy
++JR5o5sbPOwfo6L2L2nhV+3ON6nt1mEwRhN5CtsqaRTJjOSbwdgXunS2blFY+Xoagqo7SwZaOETL
+aZW+R7s2dTfYVEHa68G2whfzT5ka9DoasWkqAuucMHMharNG4bzQYnc9Uf9MJyFox0/ONSyTj/GQ
+OMsoaBP4YJYZQ3+Efdrq9/7a75cVCSHcQGyxHD/7P5V8nULYcT/DOMn7BMR26xDI6dyVRHglW9+U
+mE1WFj80B/ecjDNSyZ6aec7X5NgWveO/Av407QkKZnb2zRikYNLlnH4yOhqEU4zEV54BGSse3xx/
+6VCyUSJGjJK0N4Incp159ogK9HEbrgkhkeOpdA1fEOFRdcVwJEvame6lJZzhkCZdXT06s1GVBCjF
+i/1h2XNar8dswlZ0lSSM80FmNKLd2W0d83SOVokW0OUeWvcNvXcEZgS/yGsp3iHGRVQsxiclzvkp
+TJZ+L1JdwbpV4t6XxZJ9Y4cc0td08TAShxN+3VXRX+vdrrawRCWIVKTKIo2AF/9WliEtNVDHpW89
+tb/FjtgjmhdW7JXEkbRBi3OzYI1KILi78Dt3hC015BHBblET4grYTMWVFcGClGV7q5vB9SXQZB1l
+Trp8lfPc9CtdhPXz5HEl3PT5MgekhUGWTAc70Hb7Dj6Oc37l1U3VUFetZ5yNc//eWTWGABNvbPeL
+secSUCiIdLUV9aOofb1zbeOEi/nJIqB0Ogwz11z3y0OdYa/HhU+dSCsWaG2achNb83AoeZt4Hl3i
+WMjPgv37ok+ajQyxS7ZcfIp6s01DIGhm78leC+bn2sjZtYBbnJCAKhd0PUJsONMgaVdOB9w80JiO
+BF42aP7bplaIgMNGXDjU+/itC4DEV2bXMPSn+O5ofl/qyeIKmLVJ40NYUir1gn+x4voNFu/6bX00
+NigqTc8JyG0Im1q/LBNJEyAVg3FNW6wsU/aHvqVice2KQU63eezGXhgtZaq2DdluwyZribvdDWSg
+vMk0AIchj6O0bqugch4D4Q8STdAQi05sOxPotKmIyfp2kjCX+6yfM6B2V/fpqRD+nJy6uRPlZWzR
+bEcVMY3qGYHIKF7ShIN238x9D5aD6P/UmHOWHBIoHe8g7aLe5wsZkAfhYlXbOqJQnb2yJpnVW6+c
+sRinIR9iZCPTvQ2JOPqRmpJJ126r18nX+snJR+JdW6fae4MhjyEB4Eg5zeorCz2109CbDuyX9Mef
+dlZ5BeuDDxCw1LGYFKuAR6NOk5kysLBsp99KOG0Nxk/sdLZLwGe2+DZQEnkxJlL297bzd01vDvM2
+I98AabSLi0yA+Vmjib6zjf0cUejSxgDVIeHUNy7SMYPCHg9R5ZGM4NEBL3LGgCfMmMbRi0Kx9Ceu
+2+zRZ9czjA0/Dqs2tJjnJXc0u6Ppm1e2O/m2Mjdcf06SYQaz6S4X74Wnwt7d4GlU8sOWHhlQf8vC
+/7cu8p91kRSbEMz+rxfCy//7r/o/7j+JzvjnlZBN7vplf+2Erouw8aqto6FDOCbn7D92Qs/5A6Uj
+aTZBSJ6CIILmHzuhYYV/iOs2GJJLY/5/9s5kS3Jjy66/Uqvm4DL0gJZqIIfDm/Do+4gJVkaT6BtD
+ZwD+Rt+iH9NG8rHEDLJIUWPNHl9GhMPR2bV7z9ln1VGylfttU2jYBECbvJUs8i9N2PjOP9FDIrz8
+Iod0SBL1bMF+kCgb8s85jN/vCtH05M6Q+sm2wt8PKNKxIFyqyXA+83nwHmiu5K9WFHUqsEl7vtaR
+ToNdMhFAYSPP1Dtk38E6IV6DehmBhLmo3C55zZuMgedo+NEFRgtQoDkz41YyuWJlRmwJyVl1g/No
+JYsabzJTL/yzwcK6fk0pb4hz2fjZsM3LHHZc5gvz1Xbs/IrYELQROiG+zSPWpSRn1tIofXhTRSFO
+QvXDSSsHtjC2kQxMa4Z0bXBhI6XPNPBuRrdUD69payQYDxCSv4hMIHAoWoYdm5g5zfVoUHkT8dtn
+Hw7yvfh8bHwsU8LIfC1UINCnrSl09ZrhUwNEN8etdV76EhjgEk9jj9bDnZ+dcVJsPPwkcjd1H1GO
+ikXZ4PqUzruGCsADAYb36TNu2vncq7NpCnQ3Q6dA1got/bGmvA1xiPgUgl1G9W5MCcILiBF5E2hx
+1KG3JpTlPM1jcYFfrvR52Uy6tolQvdIMpfmJGU1f5HuV+8MdRWb6vR8GddanTvaU02/AFdE4vQZt
+UViXk+m2F57pdDedvarNB9sA5jnItNvSiltH6Ziu/GCJJsXUni3mC/Yp5zJmGSs2rm74n4h9eqo1
+XPTexnNRcW3nJovKYPJL/14h7fP3iA396xk3c8zcAD7+JjV8ZvBpKSpA2NOiNez8Zv1dNBmSmlnV
+A01XAJNtV3EamaahrfPo+AFMaka9gJrpmyoo87FFng/cBcW9iUwSHWZTvubJbMMmKqpl1xIlIrdL
+7NOaHdo62vt5Ur/zXJVvI75DGKea0Y8bGPTFYyojtAB+bQx3ho5cNRj7rvmW90tx0czAcQJwfdEj
+aNisDb1qwu8yEVJ+vci8crZ24RIBVMqE0ZunkG7WmLzrQKYZX1CUkyUYO1v+d9dTE4MZx1yxmUI8
+twuD7WIYEyIErN4udxldT4Rpkqs/dw4jM03pTXmwtcVDZ+b7Bk1UZjo9HYWuXx8p0d53xiBOngQX
+gMcxrdAKoeXC9dzb5oDIdkWSDpoHjD5eLFq2NWKSKvC0ybuZ/RjAQqxF2rlyVrpzm+TM+1k2oaO0
+mlaGcWx3HvoakA6IKZbpVnEk95qZDN/pJJDzOw25jY3bZChYtSlqkrrHUbcOYZ33UZ/oCshYua9e
+W3WwiSpzIglb+M1dDBzxUdeqHCfgJBgj+a1g2pwNS/VUMeBPdtT0fYbcclDJln4UTQeew84Po2me
+z+MeLyn+mkU9jJqVYV6YCgRkGP/0cZ8CFl1QoflsOyLwmjFCzaznCYG9ApGULZ4fNLOznHFqxba2
+VHwh0JldocXJbyN979mXFgAlgDldZN72jkv4OFN4bkUoQThjLQ8UXKVS9TjCLmTfD2x04V0TWVYI
+VaF7dfG8AE6aB5r4PEofSNm6eJtkKbHoOHgrfjuOC51iMNa/N/VYk+Jt9RqUes3pgMXM0PpL2cvr
+MXVsEPI62yJ0bfAbtLZm5yfyKe928VhM99hfszLwvMh9FimCHbpa/uoToip7qRYs+pueorAIO7GG
+giMaH+/xuLCNyv0EC04MZh1mHmZiCk7ayfCCclncqryjDOZGxv2keWZyI9Honinyr8owLbupCiG+
+KGNblE55HtX+0h2jghyvDVpX2Ie4d/xLhjISaDtIsftE12n4dUWVJ2Gt9+YdWe3o0vx2dj8SWkzZ
+xqiz+Tb2nfJzcghK50S32n6NmA8RK/VnudJwgNRss9GBdF7hh5NddiHYcNSBVczAa6NAj6hwrhzr
+Tf2Qr5aGlrfoTOldrIuRzXYW30kcWnlXnZkaY/UrAexJbKtkWG2UZoXgxmzbGir2WMbu1p3Yw23x
+JXB8DhTImg19Hx/ZsTeMssne/mQAHTunuMsA7EYQTpnidXGytiXLiAaKJyRyY7q7lGX5MoUjzhxm
+/E1rmHtI0zl7WToBrwhIKBUVPvOFytzOWGLljAO2pLuzr1Ql7tFWAAGmyJj9Q+EWog4U/uI+dNOm
+kKHSE+AZ8wLxh5QRGono9emJMTml/VBrPkxrVACA2S0zMl6EBzr3YFtt4oQg/634KNxyNgMgoOoe
+Ajo3j8V+l/TpanKsDQZRMOk5diQncFMLgEyMaOxtydEfsPmgb8b7bbAeLOaS5Z5+7PQWkx1RHrrU
+xg0mhp6XleVl3GU12OPmHhZI0jP/zmiYmSODRc+MBzZnk/RflZtP9W6wfCAUMP8iscce2xM9T9LI
+uVm1sRXYLIZ5WGEjA7EB0ALpYbRkAOXslAYI68KM9U/lxI3kbCtQHpuM40Dfc4geFO2PeGBfu1PW
+zP1QazOH7y3s4va5MbNm0a+jh1DXLY9DrmjjQmxt+N8RYAZns4plq30JMSVGrWNP83nuss/bjgCE
+70gRIyW2Hzj9WT+qeVcbZk5XLh/B7Vtaoz5z260u/bSUS2h21XSLQc21AtlnkbH3E9PrDkv2Q7Jf
+V6Y8KKky7ypeKhocavbWP9U3aNzyOeHMY8nztAOJMi2DNj3u/LMUWWRy1BUEzWOkIoGYR3osIEOB
+rWLtvQmbcW5a0UxrNU6kSZxz4KzcP4yRuv49atQkAwcdDXPlZaziQ5amiA1JnZnHsJtjUYeS4dtT
+l0x6zf1fYZ/vTKFh418oANwfloZqwm0X5DBHnuq2jaJj3OfcSzPTk3idLJvejheAa6I3Tac3rxC4
+Y+MMp9xRRUCIKGiwPF4Kk1bhKdbZyZ2hxOE2JhIKGUDnd2lxrMkfa5/pEjKfRhgAKW1VedX0IKI9
+o4n+SKbHehA1j9KxLkTKg+JTS3N3QNnYjt3kmls6lYt/aCQdJ9AXmk7MwGTkZ9yBzNWbYZh99CKR
+Z6AFs5xXV7ezj3zoKyAGqszlHn2rtmCaJDZjB3TYfPEmAOHosLMSVJlZrauXKPdVr/EVgBcWt7Aj
+afODQl97gqggSpIc+uYp8lJEuwvkVBLNbK9lu8cngDwFDO5su0jQYiFE6CVeMDcgzllvaSJzoEpm
+Dq7QRdh8MU0yW6QbKXniaF3QD8yZmJLvQAsjQR+18PPaZHMnuQjDWcwGBWpu8UqQ5hnCdxzsuvXA
+eVWfwJ+x0zBgwPqjSrffoHPInotuoX5IbSmIs4V22G+q0jOfslRkYHGdgldZ1KVM5NO0jm0IXMo6
+eu4003crlwUOGbFqGVZfl4Jy7Nr+1l2nVRuumE+FatYfvvTiGeJPb916oqX1mFfMfUE2ztP32s1n
+dxvZVimDyJdaF8yAjj9NQwOuyYajBR+GLua9aQHGbKusl2lYYHHesrlWaYh4oYS2vHTddzpQRJ0Q
+IVA8+c6UpSiLvPZCWlNmh8PiLAQzKedxWfq5h3m9QpJsV+kPMhGGPHDFUUXOldXvZkXQXahp7ZBu
+W+ZnLxFxKlHgSh2vEu6vcQOboaWfQs+dlzwhSyfe9mDUoqSL77XUdfqbSXqlHZoz/S5QS2gfdn2P
+NISpela9mZ5WoOQZO5Isehg/jDfsINN8gQzPV6m9lRk7NE6lhubBrVI6alhg6V9L2qx4tvWGI1l0
+KgMZeWuhYds9SG/bs76h+EVjxqMZfaCU9WnMunV1g1bVBKBoJ1hjClRy5OvkONgXJ86zXZ+gTzoo
+5J2MapIBIVEu+g/XXG35BDxB0zU7A4imyGC3BmOmdJu3cjy8aqlh0TNUs4F4gT4htVaNUSWv13tC
+M0q7Col50myqSHOad/jYpBUOmZWdXOl1MOKcUb1DONUvOgCQ2q53F5MdCeZmvMIN6+WmFap1gGaK
+7rUt15ehpazhFsVE7f06B3+f/lv8Wf9Jqqz+JbnNYlOBh9ESpufbRJb5XwCvqDJym7SNZLssUvAM
+V/UMNHD08gts49lrMizyKSEI8AOZrWmSiqEjP0T0YVYBLDl4kH2PgoMzzztiy5jVevtdB+JPDvBP
+js81SCV1bGEJdj3rCPh3I15ztuCX10RR0GCNL+zelFs6D/rfJMut4+rfcW6d9TS4Jp5A2wBy67rW
+l48ZsrKING9MQDPPXnlCupS5WxNlFuGLMs9FQDIuVHn23OMbonL7AVgt3dQOGeo9wA71LXWbodr8
+9Xf/Mt7+9aA808DxaTNM/5qMqBXsg+sopv3dvpfRAEm0aZv5QGhWnAZL+U/PNFN+g3YDY33o4ACG
+fz7TvGZcS4sqihHZxwfRIrB21N9G7a5pjhgQY4wSH//x75xoqnpB5qSwWEQs+MY/f8pQpM5Y1jxQ
+6KRi1MQ8bleZnMApOpPGgkwPArJstSP+Lb7+69O5qh/+8Nke4miLz7dWEcLPn+1ntQD7W5pBOk/V
+cykjc+EZh9PAY4ntoInT3MAJwV4+MHH5o7Vt4koPVedA31ERWv19VbCe3zVq0c+lPS/vDVl7H5oJ
+ST2g7cwGR1dL9NTRVDa2f330P5OYfz1xPKLCoreFtZjc6p8eBBIkCyPSUGvPGHo2DLg9FgX2ufaw
+tP/8o2zckSYtPhMNifPlYWgKkbS54ROsk0BVimS1bOEa4zvwZfs3D96fXBLku2s30SEcF5/1z98q
+Y0yNbI74slV7d4J50+zRwpeBAfX/FtUgJGCwPkFWTua5Mm31N7fEH54wnUBtnNg255db0v2SW2lo
+vt8D+DWoV2NvDynZ4O2MzTjCLkUDpRY3f30R//A209ExuZxWngKLZ+GLYAUIT05SnhWxHOXWIV+V
+qDLFp/LXn/LHb/Xzp3y5VbAK+5qEIRY0mnDZzjh1UKzVrZ74N+OINe6vP874w8uTb2WaLCGOMOny
+fA03tcm/a1IPw17P9PESObN908zIVS7dilQMDy+VbkxvuhPl0SHJdX3P69YvtzmwShRsKFKeWC/Z
+KLApAaBcThXWg6EjW/MwWzX0Lr1vjB5RBRCdjWx7/X6alu5epE70mhJWnP3N9/mzi0QbGtkTnmlP
+t77ck0mj0dBhnw1NtnZekjx9lmRr3f71Sfvjh1hr+LlY0QIOiPUvd0JBQkviIJUK5sIsXnxR00Cd
+qub/Yaxx1XxWd337+dlffGv++zoRea+bGXFI0v/ADvyf/7oaP1um2J//xg92/7Ybqo9vfVpXX3/n
+pz8BT/5fQ5YVf//Tf4QVwafzzfDZzref3VD8+nHUJetP/t/+47/mF/dz8/kf//4NmhwW9A6p5nv/
++xkFF4ub/L+ebPyP4ltcf1G6/fiVf001TPsXHTO56wHat35c9f+capjeL0w6CIckmdl2qJR42n6j
+PIDv1x3C07mCuqtz/3MVf5tq6OIXy+dp8FEd6MIzWb3/CeXhR4Tu7xdOn5kLZRB/UZCUTEzXz2/K
+NibSIorRZWS6svZRrbnqrieZbsEB4xnPk7XQD+tHBsiXFpt/1JQsGOjFZ7ANTPoWJ92MM9M9TI0t
+iBvqa48Gg1cb/eecd8WdA6SngBHtoZJtKqHttHRw7iCGT8TXxOhE+jqryb1smvyk+YlVglqkdbWR
+RH+4IXS0AsKe9KLzBDhbfU+Hw7od5sHNQiVw7x0EKuP0yaeId3eYmITa6eC07QBvDZoKGLFLGjpo
+qQKSX/mw3PUf5zFb3a1O0+b3ftqXt0wUqFGVlsWnfiRcFjVcMd7QF4KTCxAInFmRD211CU0mtjbg
+cd3vEskE6lzdL88d5gEQiSC5vDQWPu2DaNbuSJrXcCONFl0F42TduxiXSX1CTkpiQGczobMGTvWW
+Jnbu3yUW20XC6U0QyGadgtKP1Joc0gyORa+YOc7T1NDKOyyDpYydilS+1RqiUzauSODYE/DaXYzD
+SJid5avipZ/nHsQgvhEt1GMdq4A5VCbqhUYWKAjxmoOO9uLXdFjw+OVqdd/WeZ2cD1qKqXDtwzgB
+boPlzu6tMg0rG6IR3epxrILRaOT3gUQZFbhcxilQJUPXnZ30cfeAAq+gBYMu5IKiffXoi2gYtpXv
+AN70pCzeOtJTXkiRpKtNbf6NUBvl0bNq2itpm7jLwP9xBAmiBPPAmN+/lLORaNuJv2CF2Icm/2Jo
+0ahuZsqa7yZ50N8Tn0n/xpNtBn69G+ydBE3cBkYFEuRC6aKzd7BK+KuQMNZ5mkAms5nhONOCXMNT
+SxfTfwgDi0i/BlnRXcW2cQpaW6lnj43TfASHK5ctmYdoZOJ8NvKNR9dzHXNojETcBKnS2YTUQh6K
+LkELOsWrs85ljgL+gvSlIBUL/mwaS+nN4rYqXOLM9TYVZcoHmnQiUivm9MbJaPWJuQpZWFiC2Ife
+927VMCZAElJu3DG33k0m7JDzHBcCErwIyJgysc3iIGx3tdHAiaDi1Go5BMWgYctRwMGxR9pD5x9S
+MsXsPeReVA+VtPOnnpAYcs1SryE22dak/jfbwK/FJWJV216npY4B4Ua4Xyq+qdDI1V14yOtudD70
+Cexcge0c+lbrOn+zvOrr+vnzm2z9MIfdBiMnZstfyhNVeyghsIptlAQ44vJq1QLbdrvzVivl5Ryh
+Q+udYTh4fkaIUYqpOG604vDj/f//B/6/G/izofO40v/1sriv0//1P7ufFtJff+W3Yb/9CzeDToHM
+FB1y47qj+pcAnGG/YblULkBiTJ/tIlfxt2VRN35haEdBzYLJsmpaFD//uSz6LIueuS7YPgsje+5/
+tCyyCH65m3R91aZTSlFOs9p667//rkGgM+VZ+8jO6jJEP8kMKWqOql/5Bq6josupGiZ/z3iqILd1
+TekO4VySOerQ0dnAWEg+2BS2zR5t5BCfJp8u31YQW5ohoW2LPvCkjg6ApOylvEmLtDdv4skbF9gd
+4H7OokmG+uSAJE9FBJ83kwhhSWAJjQF3nyhYQ7yIiETbbzoCf6ePbACeUxRD8zB33nxmwUr+xHco
+3jPNSAOaDFXoTWZzIHmQBqbOYIBRudPjsel7tHmixtxmjdvJZlRb94SIb/wFQe1Zb2rqjR08XAHl
+EaoTjhh86p02wVqgCCh5OeUOZyWAMKGFYDkTA1+Y7z47Q+/57xFzEiCpqlFt6LRa2u1GmkVoxkiQ
+626ZjCJphMTC6EA5CwNI16ogh+I37dqPJRsVQ9rIxNgk7BRaUMqQZuvLzDnJAYzPaMI2pH0ukxtr
+1mkDu4U9lE+VBvSkKtfcYpHaNJBxaUc5uvcVS6EtHHRoaQb/ipaJRvCPwOPMUdk3YEw0g7O2wfpm
+LSNfUK30v1+nfgQU05rvVjzBdZ5LfkQja7C6G21T7dHkaYgJxvqGUM0d046j06S4ispBBHnvRMGI
+xO0isdeewAR86BtblIe2Q2o1zKvBXZjIKohH0wJcsQhM2FYFjAg4xInsu15r4HxjXmfs0p0zhfue
+LMmxtPqb2eUeJZmaxa8lbVL0l43kqD4IwjGZOkzNg5+1H26JXe9EYsdE/GJJuRfQQyFGx6md/tyI
+CjlvzayOGFOWEQUe0Y/FbVKrzuQ85SsaPOHbNkhiz2Tuv2uc2XiHfcCIQt2v/DsgXvHbZCJ3h1Ep
+M7xo6NzqHBPbXO3a0T4wWf1IEFqgBMje8CIxsnMWgj1TuRvs5AQ987zAoRl4xGkfYTjfd4VoiDhL
+8NY739suuy1Qdp+U7n0nvWIbpba1QdSylzDCO0mQQzSLrRrEPXrqUyeib5MH9Uaz97S0N5oma/ju
+cRGKyJMQj33k8aRJBWOXnAOavNGsHHqOXsXVfqFnZu+qFRyDkVVceGjJS/qC3uU0wPx2zMcB52mh
+qQvueDaQYM48QjysIj0jqdAjj7Dys2unWJ79zPxWdg0iFBB+2a0WO0+TM1X53opNeU+NbH4vdFQX
+Jzq1MTeN6ezwtr+UlD3co1EznqHBrD+YVo/5caJHz4QfN3UFE9TKL/UJZ+ih5UDac3NJh2t6izTx
+SqlB85wAnHQKGv9xKvU0JNEa6MctEsqIXFsdznDtmrbYkZJg2YiUXfA4+R4NRbsc49qFNC4yaumg
+9Ail3FR5JJIzpXU2fDQtscifBWU0Z5cziUDWPkUP7J8iCSjmWNp6y9SowYYPQ74EGIFiqempVXWj
+AfSdkIvgt2WOOy82d6nyF/+sRwFzCZTRwz1DamGVB7mAQE4pBrIqFl7efFMTY1iSK6Z7CJQY2Qfs
+IzkXTqL7Vw36w67g4cdCqan7zm34f63cLswdORy8VWK664yye6bNAbQAXCSxrVBZg89gvlPHE9Qy
+DK8APjdZOnZkbcx+Kvc2/bxma1mNODCGXSMzCnYAxzojUwnEvlnLK3OYV8eLqcbo6ldTCtMdyv4M
+TUz5pHAdwxQfzMbYm6SU9Puu9dHk+oHbeOVOaPjJydC7oO2HwEqrCP5o2xjb0DC8jElxhc35KUqK
+60ZhIoxbMNG5ukqMHkHlggVeCXx/pTO9O9Hi3Mhh0VBbWnLLSIAMb6F/elRC+0WrKXzraNlNDj13
+IU0HHk4d70pcm2BijGvYzPdTQlppWvjOhp5Veswpda9r26dtxawtnOENIcGfLtOkHfYYToxgqGH+
+tJgBtqwB9hWuHCsAw485IbI9bBwQjOwc4/g4FNUFt260L9IEbXBuZbuSmJFzPbVhTUX+jZ4QHDtZ
+w7hNOYgjcLfnqsnMsCNf4CwtPRUashn25Eiq80XN0x6+k7Ef7PlbpuSjJDYkIOfwstMpJuUs5BkD
+WnGXi2aLMyTZsk99qBhpnvlJDWoVEsnJ5heDgd73zrEnZ+MIZrG1yyqScIvv9M77rg/eSZiYgSWH
+QkCsab4usIcACMOYgU8Npr5JygcEURrQEb565LQOEq222hd4TW6ahkAGb1nmcEmz7ZJo8G+Uiz8d
+3zSPk7pMLOO1GypqeCCkpxYDmtgkpn1JBKg6IfIaNkUDAFshQAvcFRgNOTrDAAZe/I4paXY9jJbx
+PqRV9hi7Y01rGP9XG6L2tm5ZPu1DAjsYyRnPg97EjgpH7usXiPGoixhxtDsozs4SLN5oHto6K589
+JmyMI+CKVTzKS78bVA/6F4Wc8ZJh9DkVPxKNVVwlDZusYr7Tnbh6NKe8fG7Hlq1q05Yv4L9xYzDY
+9bCCaOYNK4ecNknSy0/uoUKdYdHqj0MthkezytTH2MsZVHS1BjAD0/e5ZfX4JtEX/dpY7GrAOVJH
+ob8mNzN9Fowxl+WTXG1x7S2EatiG1PY4nbULh4oLBkXcNHervDdnHEtfkfg1/Yf2x1qFHxHNSSQW
+bdkiUIwa5zKn9/5ottOHw17uOnGmaHjQyCUiTYqRcKyFY8JAOV1a5YZzb6xZ9XhXjFWWvwYXZ0l6
+F/HiZRsxwCxkXT8i+pJdYEeluJ2g3r3N9lDsWOyA7gPObANbDeVDX1m6u+3Mub/DgF5+60enMTH4
+tbE8yAGAT9oyqWQ06ukvWFWgiqB8co8zfN3Qjcr2EnkSDPgFVcfNZLbyDawfgVlZDdSE4xznHlZG
+Jm5Gmg8nqiFRQs6cbCw/KfojZSFD2bgIsN9yd0QbgK0ggpw2gsCh8vihfalHanL2/4SOBnDM4w/l
+CQomZfs9keZFjaeKEA39rNUKDXXLyGuZQJJ0k87YmNioG1uXAf+ysUqXmLrCWN7tLnlebAjbozWc
+FWNxIAWWc7bEYkJ70Mstnczom1U1zRZX8skRy7WZUE4JT3Lw6q0TFeheaBmC5wpoGgVOyAJ2OdgL
+ek/LLHm1xwVF2z6nzNxpQDlw0bD14Jn5Qcarxarg8gjv2Hl1RylTtz8wlc66D7ewMBdndUnJmLds
+oC1Wedw/1fUP8qY34/pTHXTmmsQmrGMxQRxebzKih7QQ6tKWPNpN08Ngh2NQYb4Z/GFcoOin8GI0
+w6rBYdglYpdcb4CnyUxmj20eu/KmWkjPvss8dG5EWkIjmEzwaFB6FL8zK3BHpGENfuRW+6haw2N6
+a37IbSaHvdmW9UeWdDievSysJDqBsh7cpyEuXTpnLviH61WIxibBpEFy8I26BD2xlPJpHNXQ7GTZ
+aR95NHEy5mrl5HhRIuqdTLB8bSXdj495GB9tssIB+SvrSiLouS4cZXjvFjr75ISacXiyUJTtO/R4
+3zxbOhJ/t4mD3iK88yphrXkxYLFe4rto3cCso8uBuVjEw4w496yxBtRtQAWiOFgw9UZr7Iw3XKQ6
+klcYBXNZXMVNGvvgyUrtPMpj/YO+WB20BKQg9QEF1ngIKjt9ld6ZzLLfFN/yozEL65Xol+gWqbG3
+RRDhIEid2lNVRcOylf64nkIJ39NXl3SNwKV0ZX2ETNHtSgBnu8bjZcIY4W2wpmGPzc8+Q3DD02nq
+ztacGgSNtNpmaj+igM5g/mhXRCpaBxZzdeZjy9wZOTO8eqD8zTk9GF3IKNJTK4SkMHHUfuxuyDoe
+7ysmcu8lmPNbtro2MmAMM+ak4DQ5iQOLZAW2a6RAaHA3XoFeeqcsK8tzKE4xDDfL6u88C7MUaNpK
+R6zG09jx4r6fqd4YgSh8lhn+qLDQO8BpaQP00WKvsvV7gv0WXyMbShPlYc5rcUK5R1E6u93BR9y7
+IQR9wV44aqSLTZkE+bKUV/nklYHPmz/Ioe2yUyPx+swyO7CSvo7mFG8qkLoCL11TTncmX+eezjdq
+uKEE3Ifs1D2f85LAsCqbsK/K8h4hGtLARNE041qKA9rZR1tAERomA/hZkhKE6s3NtoigqxhYq3ad
+vhx1jvCy8pmZsuqYcCocPb/R0rI5ynjUtxXlB8lQ5D+7iFjP3ap2gco7OM/oHIYV2RN7CQSdllrJ
+bQkHoCQIoCZYBejpUYw+kBy7aeu3IcuXW9NOc9BYNtUkRccW44p5pQ3xcIbdQLv0Rq2/iOKqQKfU
+cPfbXUWwfeO/p66B/jBbzCMMFvmCSo7yJK5U2K1h0gOK3xERaUYoUo9oJnH1eu82aB0Vg9hNyeQE
+NBwOSBLexvyTzbTXbYp+6Pa21fMWUFC0ak7YoZQk0oyA9/bssQn88hDtxklxBpDPPxXAmsmc7+RZ
+iybtmOuxPGENT3e+G2GnU0UV0hXDDWcwGXcS0T7YvOJDURevrZtHYYnmFnaVyPYxBUtIVqQdTmUk
+ze2CpflArvTwRtNjDrxx1W9MKPPDrrVAAS6Rs61gSdxqKGGSracnJVDG4Rb0bHM1F9G0Q6ZlY5Ir
+/frNq1LcSN0yEa1DXmzmLBAcAYUdUCyXd8Tbm494Xb0j/sIRVbpR7bGMxmHqC4Mv0QPgaAxxn9nx
+Q19a6bmi73IhkJ8dDNzGmQX2oesBj7AV0Lju2T38oa2mAOp2ZucS9+D1AV3rhkY2rx1W2TuyWgxU
+2JYDWy0WXXxNnox9QLmnjjxTcUAEOwOPRjmnyfAIRultylPEmUmfFHt+Kzrqac5KoTfDDrn4rrZ6
+89ATi/tUw2LCYGjTNULHV0P28JsL15fyqBCZb0HJXvLrj0mEBKZEmoLCLN2XAOH3+mQ/Yw2tQ4Ir
+q1sLt/VtJ5ZHzUeryYFFByfHUsdggaY0L5Eunr4tWQJ2TnOPqwkwsIyxORYyebZ1MgY6f+qPmPje
+VTucilg3N53dGKE9EGlbKsRpywAGIO7cNwrlTxtjXTDN+Q2C6mTPUrOvMiFvZGkXW5FZ87aNG1h0
+iaddsfkwr7uZaXpjVMUFLFqf/b/lhcKl1SWK8YH99C1PGtHgTkQjYX5DGtXukYzH20KxGgsnGoJs
+zM49l6h4rCA3sVCfBvie89lT5kGK4gWU5m6Bchsko4r3RdtNhKratJRlnGxzq712jGwOXD3a2Rns
+0DTx5JVD5yrwgUyelPDO62ZS297Uu7DzHO18ZA4T5j7oIgHg5gppGEFt1XBTT/V81ZmMMxq3a3bc
+kYdSYxHR9OnFk9Vrzhxha7h69lQ1hhmyoLkPOJOLQ6fNzwljjc00O+Qikh1CVjPzH1HuHG80eMgU
+P45Ea9/0C56MpbqrjdbceXQQtylk4etuzaQrseEs2XS9NPpuNQNCuITwEFv5Kc1N0KVx+drgxn4s
+4vkqNVGMtqQDBIkxv2M5GmEElvSo4lEG7Ky7o1F7z5lNapObjpAPFvKTEENciAGa7aDPJEfSDr3U
+KzsPEtiPnSpRbdU6JUYW49uoXxhQ3Rezae6rxj3zBA5xN8vINnYh5lEyrBmax8Y2jzC/s21mcL7R
+WqANmNSuAKflUuptlI5xT4j0ybGgyhlpd1sh2kcWUWSrcMcOBtk5uHcwSZPhdpPjyWOvG+OS9wxQ
+W8OwRybD6pc2jyWukhDE8vlozzvTMxn3NHKfasuVX4OsdqfuJbbwkzazfE4T3+fF2t04k6UHjR5N
+j5NPRxV2Wc5yPlo7bDT5iyn8j9hoLnPpWwe7BPDhQLNuy/R2aKpv6cIln8XJQseIlVij6qyyFBQ2
+uMkWltBLrLO9aGV9LUWyc9xGbr1Kn9l39Dv6QmglMlXvTb++pyt+RQlH7BV+xyBXDM962z82bvWp
+SVDLzYhbfpitdtd22EQbbYLvQ06lxAFC9nZyVrXemUAkd8R91YdZS9GAkG8II7z8uyHN5JVmUxa5
+mQ1HoFzSVd3Y94GNpnaHhIifiduHKLZYxwgYrNsuHJJpAOM03+KjwI28RIDIqjPCoy8FVcMRsgkq
+am1ZOMHGM2/p1wLFYkBwxb2MeO/UvHcJk+Z0RBqR3rASiXUWlb6VcX2UotvOKnpKvPoh60jNbNN6
+Ch2VPFhpZQZ5S42NAPcGFgARSVF95gy1safaza76bAyNfDnSsDuRbnoeT/VdUiMiTszTSIM5qD2W
+d/z6RYFMvByOmUcWK0xQXLbnMCx2DVbUTZ7hycedBQKJVkOR0bYXWh7iUE5JrHQ3SbO86yjSkNoe
+rRn5HVPi0KKJW/1v9s5kOW4s27K/klZzyC5wAVxgUINyh7ekO529qAmMoij0fY9/qq+oH6sFRsRL
+heKl0mL8MgdplkqRLu+Ac/fZe+3CutCL6OzwbSInWM7NYGqEj7OdnnNuM6yZWIlTr/3a/+5zuVv7
+qXOgTU5jRsp0CH8zYETLJyLSgXs+akF0NRfq+8ABfz2HMX2E+E+qvM5OJPD3pal5BtkePC4HAy6U
+hZYTlrGXJ/Wh7K0raRIVso3s+1zUR2JAFzAGZzZ6X5JGWqfA9cMtiiuXiaWJTmeqIgeAchWoXa/k
+Ge2q2eh59qXNp32XvU/sgZ1s3Ff9/ALU5UsGl05a49U8yi0/5xzqsr+XbIrJ9aSPuXKvCRet3Wk+
+DX73EuLD7aFB1Ga5Z59HEIaI1FIvSSTQic6lY59IXIfnIA3vQYn0RGfi6y5u7xeGLDiJQM8fAlUb
++7wBM6gZ0xNVe1/tyrW90CBrMdADfd8N0kXorZriEH+c5KYP3rn5wT7nWAsHPaGL79ukLOjoETS3
+25ggqb2FAgdAPf6AqRdVjeo3CNt4cdxwWTRMwfh14I/hrxOxCu7wGCxcdj93duqD1l7ZTYK12NHT
+fe32qF4fUHfBaRh4V8r2dJ1/gN/NDwh81FJzHGnRngSfTyddmDxxyXSMh/6DHm+PC0k+WqDyJFtZ
+2zdNpj9XsMsxSTCYLxj6KKbItw3ZaZPDhCJA59Fj9sGrJ37BgY5rMV/8xjGPVfzBts97ADye8wG9
+p+CFgALAyPB+1DlUBQjJ47rMFmw+f9l8M/tAI079QdcX7kLa19ghHIbBrg8JsYXFnwaYP4szJQ//
+2Yb+7BFyWTb+ahm6ff/2Xr+m//jv/EW//ewfW1H1iZMum09lYWEF4sm2/PetqIlZyPlw5whjCTTL
+H7ei1ifsm+xQpYnTGrMR9tP/2opC2uLIZLmkpy0Mnq75d7ai5l8ceXx7HPBaJqtX3MO2+dOK3Zzq
+2WkygHBjreMqp4dqMN7G3ojDqwFlofpGByvyr56pHUrHte8wHRfGFv7PVRZQopRYRDXVcqZLX2o1
+bAXVfSJwrrJq3OZFcTfH7XWdR5shap/npHqrR8YEzYFTlJTvjRNzRwo5S2a3+NmJ3wT5mqWDhxlw
+iyYCh7AZtqCQ0f6HF/Ynu8kPn6K52g29Q9cMGLqgT9adJNXZuZeORuoQ6kvNlNoPpE+ALRGy067t
+sYbhG6FV0+9oR+LdSvx7bFL73JmMpQVnRyL6ZcAswVn7aOAwk515D8fg3FJ8CvJ916hoDwZzz27t
+1KXjQTcarkb+UVUpDdY2dl9ZvoRmThDTgvsbGDAAi+30PpSn1n4wuPvoNEqU3VPaKrBi+D0k7Ne8
+inHFVxSloNe42T6L+TPXpGSXG6gN4tiausdchFdY/jlm4goy2QRpIOC7fm2GXyiyASB2LOIEmmPF
+YqzZJpy+mDjWIuq2OZJAMHyfpseZQLlL5BlJ/EDph1c3BgTv6ahoSCGjcTAdCuosGPPzq7OQqjhB
+dH1xMCvG9fhzk7NOLOcDpEK8Lyx/9eOyIxfBXUmYuh6eg2jcRlaxq3k7FUI1I1KgYJmwl5v89dhz
+KErXtkSPE17Gc+1UwIyzgJFA7Rv1HmjNOq9e6uFYjwNk95tu+hZYxlqw5QqfwvZ+Sr5rTbstVL1V
+8kvYjEwARy29M0L8uO5+1ppdYvtHu3W2o0b1Cl4FiiBdYmLjvQG93RHxC/2kOz9J95mtrke/gtpu
+UkLiE+W3wi3C/Q0B5z3osoNS9nMSlpdgtu6maNhHA4lxlP/I5R1syUAHlkepyrnxQ8SCdqdLa8fC
+nkJZuM8sHA58ow5p1NMHax+ctN41U322zX7Xuem2TPwdJi7IGYR2m6zljaMQswtPETF35E0+pMK5
+Qu3Y8AI84mY9JgVy6Gxj8Am4C0xsO7gt0vwhv0VOvA2twFj1c83idlyQ3fvKFTuwIERhmFIgochd
+Ovo3Kfq54TecZ/111iME0Mv0uYqMExP13tep/oGvvg/TLNwZoBtAdYQeS70nIGyfg6F7ljgHvTYl
+PcQV4K4OM5gBpYtCwRQnsETEPt++6HmqDHUY3e6gd3BOQ4o/2sbeTHb2ahDn27Q1FHTEN7lipch5
+ObXuEUjfCotNcRrdc9GhdUUbnpA1Uc5NFRNdZUvfWesqMH317KIszSjXicMpxqmMloSN6dAOPg97
+ByzXDljPGx0KzYZdRUlk3k0PnOT6dRbZbyWgVlLofXzOKudbPicP44ArnnJRGtfQHGnWiw9kQ6Fa
+pmbOUSrOWG330dYf2v4uLueHrOAJdUl1NU41xc31zH08fOLKs60Dg0JbuQ/sxLPcz9K6LZ6SOvVS
+lrHtQjxgPaMMsu6gs1gTLevKFstFAkM/4MzKE8SDeTGGftuQesVbp39P+jbGpCgPfUS7jvIbD6Tc
+mpdhD2yBhKN2GgxrE2no1xJzYZFrNCa797Wm08kFq4AY0ZUFHbTWB1ZV0Wh4eti8KKM4JfZwilqL
+YVLbTeC0inz+7sK8W2txTz6nQhW11LbN5295U1C84R5cGKhdn1/sKGAxlub3bCv39iAPpLweNMff
+IXM8p627HQLOmOQWAfHsdU6ArZ2cG9Wdgr6u15kGGtiZin3YmQyw5Z5YnrNydeeNHs5rPcgWAeZr
+Gum3xCtOAX7NMXYPJkr+Kp9fLJbrGzeVNj214Y1WSCxopXQ3WYLGb0FC0FktCfeU19ZM82OqMaVm
+J2suTe8/E9DPExDppl/bpC+v9ev/+79fX390hP3+Q38YpU24n5AABA4Lg8nHwF/2++yDUZpJAyK3
+Q6+d+o0W+ocjjPGGhgU81BIbs7KVxUDyx+zjME0RVMe2ZHxYqDGZ/Q2jtHT+Yi80TKr4MHETfnWV
+aS3O+x8MYQkqdJSnXCUR0uqnkg/slxp04IPZDbAO3KTV2gMXQ/+pKIX9LUCVeciMWEUrWfrtVVCO
+xfelkvI4ly2FtSJW3B9NUycgJFSD6YeMIXucqZwVLTHSTdN1zyccNEeXXDhcdaYXQqkb2d/V0dcx
+L4KFEkd/Pee9ugg3rQ/KzBOTX70AnwxeGtDl7rpXqZEBMhhj3GGSwmivIa89eL5M0vNQgCBkoImw
+TmHhaFKvjPGYcS5plhq5mGXssR9V/giAvIMbZjtg6weqKB5JiMfNiji3JVi+dOJOojPqq9Qs8wW1
+MofnSbfdxFNjZHwRuLyrPSNlzqLb1NLLlEZDzU3Uz+3NbIzGvgIRgygNYAB7SV53Od3K7MYoCXeQ
+28zReHOdzH3W2NyAUCvhHdKikXQrPM503oAlM++ZrM15V2WC8twGtB4FDmzASBsniX2w9W6+GMhu
+L9hSypoAb2WfgH1Hr25lDNVKcsiHdNnzzhzLpiDcO5By9yoFh3ll120zQBlPCExLlSXaumsc9LVA
+5rxusVtmZ9HmyvbcwE+9MZ/FpvCXYHyT2iaqWYd52ZccDlHk3HReo8wQ+7J1gsZrf8ZFDgA/0suV
+Zub6Q2FGFMQqGdR0TzDT3mL3Y9rCNWFwOYd+6TyVRRBAPQ+M4jtdAlW4j7mKU5aWC/uzqVttdzCI
+qb8krAy4c9aReyBZjILUz5P/bGslY3iv6dQUo5dgWYLUHSrgy1MTe05gQInsUz8Z1n5uUV5UYHLT
+11Ez+s8TdBNOoTFdgmsrLbVH1Tb0lNas8tbEQjTi982Ie6nGK8QuitUGt+dWB7kwJZrJOIP/KJ/G
+SNvUYpk7ixm65TpWKrnDuoDXHYK5DWmucDRQMxQzWCw646g+0CSME4A6qTRbDsnDFS6HENRtOaqv
+SazN4c6UMyF1G92MoqQgrWjqSJdOCnhB2bOeFsMzMpC8UJyKt9BuMTpwmm7aU2xF/mfl5NN3iopp
+DYvrLFMb18cugEoYC3sdG9RWrtmMNI+8SUtdbMnZBMDjhH0IVFpabhf40Re24TV/jC3/MZ2xo5NR
+T1Lkk6yvvEV2e9ekYxjbHvTqxae8nf8dkEZyow7biZ36zMlC040LTsWFL6e76iKzCEwtX1x2na6g
+s9aVNR3iQDBAJvV+51gbHPfkmq3OpeiKBVvQerj7p6PWJAlxcdCM0FDquDNWoZY77Qqjh37B2A6r
+PA/HN5mRr/cCu9Xe2AeHzxjvn8Ro4yhJgghRT0MxuzOaerjVazEXq9GgG26XpBnoCEvXKA8jWDsz
+M7jEq7y5NqxiY6RD2K6i3J1aryalfDu6vfrO+iQO8ILk6mveJ1VB6nVhg3Zm4DNKyozcLbYbZ16x
+pwkinlCWsWLvRXsFBBAWls/ZjEbHgV3ExrCz9ISPLK2IRQzRF3LWybTO4rxAHMGK7kWMHMSfYtLT
+ns5y6thz8Ry90cyTS015t4V7gFVEYI7u0lE+NDhYkX0ALthUq+1dxlzhR+kLdYH6OZwGwRRbSigi
+acFbSE1aV1GLA3zgkida3/C2wNVZiYJvRI62BOZlrEjATOz606sGr/qtrZnyO4xJXCTo0xNqUZ/Z
+jC0+0P9CjDQvD0Im74Y5Jd805pWI6k3Z8oHWDbaCFuj7JzUFkWK2NEq6UN1+RKTvY2nuuJsS2DRl
+wGJulIZ5aDhbEPom4dhSDNCo6qipyr+SadPHazNOagyv1DvSzgr7H1tZyPZjPSayIulTXfngG6xT
+FyhXbIJeA1cwyGpB8jmFyWkOhXpaAciYHnDeqeoAM7c7U4idQmNA6njGLckihiCflR9D0gAcehPf
+2sIUJdgsK52ycfYNGi+ZT5N4FbTdOnRL472iz/PMfcXmTdBAo+BSLoe9JXycifCelzqGyKaKXqZW
+dm81QhEN02gxiZvBf4Q4w5aF6BFVKLz0FBK1ABQbEh9oqnx8nHrbl4JFAionyYw69rk7URxubPo0
+rjIgVo5xO8xteWeN45h5qaqGh5ZL6JMxS4i/Yay3LzWlSseqG2ndsUeQ2l469cWj27OHXdW6z9CZ
+JDU+wba09VOQ5GG4YVscvSpz9h/LdILOMLM3eJNVSn+OG4fmPX44Xreo6ftXwA3at0oN0Iv+/vT5
+PyGnx3z4Kwnu/7zV7z/Onh9//ffJ07Y/2bpLn7LSdXPJG5DV/X3yVPITkQJhmDAiyeMBNPhnFoEe
+Zl2KfwpriyL3x+Sp6590E3S8K5lNfxtm/8bkqT7Swj8EW6TFzElSH+VtidEbzk+qWzAqoHJDILwm
+7qv0VUzwe0mH5ZbH3pEkU2J1E02+ZOK8sjSxHCPqnoD6JkeiBO0lcZPqs4+p46acnXFFJap2z+qA
+NFSRctobXfY23jxyql3PJMG2AS0f+wr5f5VLrb213JENKOwLc6erHvc1Rc1hS5ipwFr9XM5T+dnF
+Qpl7qay4Y+rUd61UCtnBmWzrfQxNKp6hYWCmH/UQCaxNdjOYxEuqpjnGwtvYJ1Pn5FtyxVDrwuJi
+Slwy2S5R9HU9UxhspN20rEqZkRAHjgWG0fZaJL1xPcRdDVV7CoHRx8mxBTD53YI2G63pqnVv4sRK
+dk26bMYNDOPXMc2ah5QLz8HSh0fimYK6Gpn5z0ZJwLCmR+MIcZECnqB+iNo4QnKqQJ6jK+gmeHz2
+X9FlZhd+LCc9vKsSGIxhk2xKWQfnsufGYeIhfsYuk+9HbrYHyuIkFD4hg6fGyv1oTamA9BR33F07
+JuKBlD/wvcR1noa4L9l3E/AwgX7sDYOxaSw0aps57vsblfeBs7JGdoZ5V7Cp1sbW4JoXTqfSzueN
+Ao24ZiaZKbgIOOVaSXyoQv0OE8nRivPn1tUhR8UXLFZczNVAUDwpO7bcrU5uk1oNdq8ONgE93k0E
+TtZRkBb0AFM4t+WtpH1eyPQYkGi/mjMBMYumj5Vr4N83qll4+DWw6rE1Acqi1R6RErm1R/CMtSqM
+A0Hn/OvsGB1NvZUl1nLBv9mQEjDBjBKlr5L+TV6ad3oeUX1mMmhkKBxBY67noKzuJvzitBuJ8U6j
+PHA/KErV5MjzTTjhnFXk9Bt0K/uWRyjutM4YvaTRg60EPLXJWnCAMbE5UAx94fV8uNrbbLQGbFp4
+1oCfL5seOlBSFqeazJLp6HcLDDb7jQzbD4MbWeegMXx7BnaZW8iulQobjm6hm0hzm1QB/sdVbOhh
+r3nmXIWFfip1TQPsNi74YryLYU4NWIs6CJA7ovO7GxP9QrMQHaBk8TzZJIVXsjjGSDhRLNi4/CJA
+Mds6a6KrgBvNNzucq0cfw7cnkmk61O4Ufaa+BVFwYCdw6bGdsr3kxQqrPiA+E4asdGmuvkubuNwS
+GZCwKidfwo0e7Gs4ugkxU73SXman7K6CZQ1pjzK7pKPBxtfSk5fUVy6SuF9+zY3SpRHXV6e5amax
+bJGTHUvY8A7Ob8WxsEyYWKoKVk8/mNkVFh6XSRdqN/Snsa9oAOpoWuPRC/BunX3Gt8eqauiqfWPX
+Lk+/nLfkM+j6St1c81IAyhsKiDHe9ZO9BxTYXjhhSwqk3Qfp1NW1gU0Dd1tIkA+8TVe9WCJN7siF
+tWu1OIvo4jW+WSqanqYEKvpKC5vq2pT67ZzLcJPhvd4QnzTuseiS/W1mda1g3W2iKJYXSjHlsyrm
+nB5Vkcn9YOTWcNSJ4bDukCWvI6WB5vfQ0I2HulTBDaogM3AT59HziKR+CQeXVjCz1dW9MGmuhyJW
+c+EKSuspD4tdUVfl6CkjzHbwvWNP1yQGLCwT7q5UywQ8Y/TBJWRR3sRpzIZwJbTmTHFByBUzxfbb
+Zqx45wI7Kv3kdBtM2mLEBQSWeIAQ5puqh3DgmRXerMiAdobBjDE5ACVyHFnMs6AtIrEPl+Nnk6cL
+w5UWjAfkXvc1y6Pe3xqWbBmBJ+s+5ri212chLgDz03sONvJIFbX5SoORfpvBvziNTUqLHv1HFIw2
+zKzIBYSjBf8c8lFlf4HqaGxsSOenRG+0z9gHaI6LRk2dB4lxw5TIk1yL0OcaUt1bNcFWHXU8CMIZ
+rStmOv+tqOx6R7+5qDz+qfZqIRBmsWc2pcSxV3aemWJXx/rdrxpDfRXo+jso/CM4dBgY/JU+6jya
+TyTOHUDnho0rzVQsrmPNGjyCqe2bPXQ0UXG3XI2VdM45JsWB6k4XQwz1Dsc+tYZb5XKkBmMKZjv0
+kVMKX+orMyA+rrlYicASBh3Whqg7tEaiXVrdift1bcjyXYBh2IP6nl58wa6/Qj0l2TQEzinJLSIS
+Uz5sl7IEaswzBxh86rftI03RNGZbjukcBtxOz37H3dFq9UV/1pS1m7DO3S3O+EuP12TX6WGycTS7
+PnPpKa+I4cDuRNLhjJYj3ZIMiWf1xrFMtw/ADJ3XUCHpcI4W58FWvKpkyekacWlk9FqtMV+7Qna7
+LCUGgwU5OI9xqJ2g0NckfJBJcNLmFPOy3Hoy+VLvwpCb2joOlP8CDdPfZdl8Yjud7alsX8tBX2Md
+5FhjZA34zZ49tjBuXLaBHhy9FxLTzTHRTflExVVSoK87+rMuEDU4a8efxViKr3QVGhsSgt0jV73q
+nES+c6CMGFmnQi+j1LFc6yp71O34XBF78JrRta5KSySnrCaE1ERyT8TsPkJJ81ob2/6WwvNjRv2g
+z9Hi1E1G641G127NwIQ+0PF6osP7zZUIbUiNqqp2yspTAlOjOBGvIiNfsYKv4JMc+A6LFSdUpBhR
+28eIQBh276h6hrhDHZuwzE1u69M1GZ7i2AunWUu99XdjQw9WJDR/S++4dU+DpLvhNuXiGJPzZUj0
+6aaMXc7lQ1meXbKQ93o85zvLTZsdi37CNNiLPJx0ybaL6WXjyNvfIF2CSnHYHeg2heWaqjHUhdRz
+6vIhklTTMx6QGQzR2cITDadHNnibKJm32FS8fnD2eesuScZVX38p5Ts6kX1T9gAdV5gvRwrlUFMI
+eNjdAiSW/q0ukuC5ycWOKGLjDbrxjjBBYMvMh7Nvj4w7+twvhAKYfWLQrk3fTPRTxgdv9OrKwKmV
+pe94yNz3RZ0ExtKSs88FHGoV1OLcYuai/MGg2DdRhBXLhu9lV9UPaYNUjyEzZHswhzZ2N98PX/ue
+xSPmSfp7Kr6JXjdRGaD74hnR0/dMjGEranKX2vIY0HU8hhqjKo2V5azrGI1G7asosCpWkvit36TD
+Rs8iseUSkCIYjcYFYjCkSkQL3Oo4DuMp+dyIrN1otGasStOPjgyowxeyiP22pqQDsc+2NkEEEqVF
+Gt7TXjKf86C3iUlNgadTNbPRCFp6YW51nkaHA2Nc1LinOpkxhYmsuHXoKKZ6Lk5oN3Gjo6kFDcU0
+hnuHcDftaj6uB3tcVFyz81i4jEfSxZLVeGIjCHT2zp4kPnUzrfkrsO36mNq1bqRjPFrisFZB3rci
+k3tVFfpnrbcfUhU8a8FEnHBxRGplYlB9qV3JbrBXuj3d+pKdYsVVZTXWM1jGsMZWr+nTXVORaXNb
+kG9RxHpp6Itkm2nl0zzkvpdy1l/lueI9i5Eg2He+S2qiNk1VRV5kDieNqp1yCeCR7B7wAmK1dVnt
+Lsx17H4UKVuzfea7ckYsP8iIaI8DHXBNKWpOMIK7Wm1FX2NI/oSNG2Mbk/HhGlhhHCwFVazZexll
+j8Bybya9KvZQDil7yth7xoWiX4MW35Wfg8HUs55FIxQ0Ug5H/HCcVeKiexFAK947vcO85jaajsMT
+ny2eZHymMbUXbs5NIavNLy00XgKJQbaVWq6oY6hosKV47g43NdvYRtQbK24fEL6is8zGalsVJtor
+iUnMnh3/39CtG5zy0exbq77VP1MlPKxcyu25KOePc90fauKP+KQND4YIvnC0Wg/PXkhxNShXt4Ph
+TGnS2lG8bjA0r1pca3cpNrhtZbV4vrW4PlChmB+nNnQPkctpq+SusmulMa3wMJvHOUxBRLYgpIZ8
+XMDems7HnbZlAwvnPanU+qClkFLDeMCC7zCHh93FydRTEbN6BhuWgFbxVw7rBHjNU4OvMeG+qdL+
+oZt3zuIKLFnXXZUK76KUWrYq7UvclD0byXrcB+28brvoYJvXQ53N/C4HnwjVaU6wEt0ZMnB15K7b
+7/N6TO9djM4HiFjiQJ40ACMz6g23eQY7uGmO8R8701+QR8A6FnLGv4Y73EXFP769/+P4mr9H9Z8b
+HX770T/sTOITnQzYhAC9sX1ZvEd/CCuUPTgObDYBt5SoBAu1fworhmDdB92ID7WJ0ciy2AT+IawY
+8pNET8EiJQ2XAYCf+xvCyrKw+0FW4WCEV8qxXX3ZHxofu8MfF3pTV/Yx54Vq7SYN9ekhtHeHY97f
+Q6AAGDFsYpXsIIGzWebPVBL6/gyCvOa81iTHYrg14SrTSbHTmjL/tmv+l9DNn58QD6UYznleunIU
+WvefN5SpQ6GV0QeslboqvCqY0Lbpsvn+4d2+/PYC/SPvsksR5W3zv//X8lt+fNmWR0EJQBRzQO7w
+nz8/iqkT41ENl742CKebGpzBse5T/P2Tkd3EZZY9IpPr/waox5v+84O6bIHZEQsLn5uNx+3H96qY
+allzx0e21kA39Xpdr3qzzW71Vkt/+5L/y1dxKSH5y2O5jm4AdBRwO5ed8o+PVc42qhMLMUIhfe7C
+cUobwjGLYR6DleNc+4qVBnN48zl3Mg6EjtUMpylT5WJMTxpCOHPMUTqe/CcuuW2BdwryNfove1Wv
+ymzjdmpCPd90jUKBp9SYFFTJcefu1++TvsB1/vxGUbBh2vqiG9Lbs0ikPz4Ps9DivFUKPtOA6r7q
+9XmyP8OFkKAngiS4052e7oWwsaq7hMnUpBaVfdvOtsBqbU0qf17rBGc0uOzA8aqJRMfc+ksdcCnt
++t98qJbX9Od/K/9EC4aLzWfX+un91To2rUIvR44QFNVz88X2N+TZSyMji8YfJtDjVFLnwAF13Pz6
+dfrrR4u6GSEAdy7fUbCof36ZtKrShkkfUKta50s196R09U7cJAV257/9SIYwLNRLXJ7Cdn56kkFj
+ZW3kGvOarZ5N8EBIn3r5mMPrbE7vv36sv14LsJDSl6psbAs2WJw/P6tAiTErEGcJQkzw20g6C2pH
+j79+kJ+RS1zcADOa0oBoCKxH2Mu/4gdPBCQsYs8z9kJs/7RbEI1dxRmiJeaH7AhbrNio1E83BkGh
+E2p5+m5lk/5vrnofSMOfPju/Eey4+nHf+BlnO83kgIqq7detU+J2zGbhX8Gy6rYzS9ht5tOxkvmB
+TcplkAT16Yw2E8EieEB+/CJDB2gFFvB95eTZVVgEAL5buAbXrZ6z3Pn1C/bfvCvLNZMtA3UGGHmX
+S88Pr1dmhag7KRmnglse8SBkbjbOcv/3H0UJqEWgM11gdMsn/odHCYbeyENq+dY0bbSkaWJ9bVGU
+829e979eXkzu3xxh4Y5aqGc/PZdkkpzIlmaZaFhAFmaje5HGcmsAXuxl3ehvf/2swMTy7/7zG71M
+cstKhcMrk8VP3x8xuioxR5JcSVUG2Vq6cHjgqlbNE302RbSJ9cawKcdIl8Ax0JSHsEsRKE1LcvlL
+Otd5liE5lw0phfCr3cShCzWmEi+zRkMCyts4Dpzb4+6JK4F2145u/WyAXuIHqqbb0w9kvhOLThet
+JHezLR6UlPXvpCOKKPCu7C1M1RSe74r0gsgbWeSimvJFKyaHGFjfNw/cHscQBaUQz1WfDiSDnT66
+10Tq3OUF9po1bdzdIfMH5LOu8Kc7JFGn5KDc2Q8jMeR2HaUhK3+K4jWDdHhr4mYMTLYEfd+Wuz6j
+mG5NmtrtSEbn/YuRC7hx8QRohmob7jZRogiyVpXBRzukDtBds30qP2NxaXBvojezI4bE4jV2a8a7
+Ycjnk8QfSCZJ8teqgfILkvTZYK4MfwyuOkoDNJTYueme3WkSFcKqFr/YBOHJWVXW+OSmOFO9PAJO
+kU5K/06hnB94LmCkxqtbd34iuj9kmFNSK/AmO5/qI1qmuNc1PDGbmTQRuFnmCYMG04HgWj6gcK8E
+cJDbhEKHmVcw6L7V5EB6NlkZdIVu7inhC2P86W5Yti/oQ+zCE0frqC2xAQNua9mFxXVAbZ3JpbgV
+GDnpeCo67FhZGj0WfgVNMERQjNddm1cUwXD1IyWB3MpKzMKgE+N5LtZC5voR56NAtqVF6NACs7CJ
+MtXTyTUHQaqsVeTbo8qaBGc7sPCbvpbTW6gU1BdkOtpDFsBP7DXJgFejH6l+WQ9FmN/y9Vb1WZ8o
+ZGahnlCS4PU2TMdXYEV2fonxIpgsj2FSWZhxzGo4EOEe7aukrXzj2q6r8drvem1AZuSOurJ7MOwr
+P1swSBFVtb03RRAS4ItA68SFFOVwCmc/frTE3NCfGBXK9UBbFA1fixgQgRtb4VduXzoKr4A/wgcO
+pvIW0bjsNgSC8ED7Nt+1HnvVKx3Q9VdWW8OEPzTkKzmEg3rqGuLx1x3FlV+b0SIS3sAFtTkO3sNW
+xA0S4uD6xqRMO41fw7nYsFJxMILNkGnIjs4Fl7NgrjGMOqPCEN+Ja/a6Bn/sBgILFqWWK9UADdpq
+ApjESvnYOle0z9suJRB8MVi0VSlKyWS5lzKPZbuZ51DauzxonM3c1szNDtmlxoyLz85cTt8MIjF8
+cuppes0qM2aFRgpJW9M76qarmfXKU4r/9LkyKrol8CdG2aaPwBSvAyNDoB5Hqz6OYojEOZ8ayTJW
+9NNy0ScwGU5Qir0O+erWjN0p2TKWxbdNYVRWvg7Hqrpe3jEyAVEgtPNkpUkEd27IEMNcyTk+GCbS
+oRb8DHwNvpvdlAX9V2uudLSG5blQfIBTMQarGBfFq0Zs8zGjKLdbsWSw27VR6SGQVqs1XdzOeXEz
+8p2gLEi23aYoaeM6B8x76dqNVAk4yTY1+CmUd+1McLxvaMEVqgRrpaVdrekudZ4RQVQIxTdVsmh6
+QEsysXdyUw1r2njd8UJ5cfRkxw7uplFZc3jEV17uOYZgQcvGQe+8OKzHm1g6XN7stpVAi6C/jxCm
+R3Xv1NSIXrVBjarRGibGtrg2Kt/jXTKbjTt39pVZdRwP9Fz0D1mnWNANH9Vi6qNmzFwax6aP8rFB
+o4eMHih0L/ejniyLBjybH6VlzVgS2GhpMjNk2xRrKLbd/WROpUDco/UM5ZFXqfsoQ8Nql30Ned5v
+4qMsTYZN8VY5S4VayRlsG38UqwnHTr+Y05iVmzBkCUiQBfMx0I2EG6dLFGXxMi1VbXrUTngiPyrc
+YjUE507BjdnoZazA5MX6W6R3frm1Qx8j4VTXGEo6cgtE1asFGRYkmnPBEqiRVVya5KoeYCiQlZ6G
+YpPBk+WxuRTPYSnCi5YtdXT8evtMcFN/mfxx4Eb2UV3363v2X+cderYw5xKR4nauL8DGHycRYxJN
+OhvtQgWIgmNcaPPBH9vx38zVfz08OLiJcXAYMD0tzvJ/fhRUL6iDvIEwKcA8C9G4BCsN0MCOpdEz
+Zw34CccGG7zWzL899H9wnz/gPlGEDEbIXytCu/o1RxX6Vvzjvkt/9Nr8/tN/iELuJwQXEx+1MJQ0
+5TKb/kH+VJ84GLnLCI9WhGryoyikPvFN4ec4jtPATJ3EP0UhKT8pBkKOOIqkjsmZ5++IQh+y1I9T
+JqITv0Ti8EafAiT78/Gf/zMhD59Um1baF/bzJai3gX3rgo5MjfTCYg5iHt1PZkOjjh0xBfKNdMAU
+smxzMkGku9Wjqb43XPQBbr0SdXourKB+7Zpaqy+z34ikYUR2LTvcsO+lDJtEv3DNAyXeBPqdRgxM
+YlZvDdFJqMi0UrawWDthT6d1j5VNYTzUvuVZrPlc9I0q5LLUs5/yvwx5Di0lWJxqV6AhdOrESkn3
+bpWLRRPl4M9/5yjxJ8vRnLM5FNQ8qDzQrkafTch2jCu/95ra5TdGbltfO3EXgWuS4XRJMzl8nzP8
+CWsSPtFzUhQwjGdHBy6k0WvnrDGEimMtZOtjwmA5ztKWJFICgOVNaGNYbbOYXpgVBnD3ntuO/eTT
+e/UU+W1xP2VBQSKevjZGGaaSFW7g+D629epGodKdeNU5/8fi/7N3HsuNM1uXfSJ0JHxiSoJOJEVR
+XpogVFIJ3iORAJ6+F+v2H20GHdHznn1Vt65EAySO2Xvt0TwoRPPR1m666hNBY/0SEf5orEs37f7Y
+C03+qq665HcgIQhMzVKMrIzHnt1tkooO4EwVDUSNo/U7LlGRfhGfTfCF4YvopyU17YrWpfFuqA1D
+bYYpJiqindLmQcadla9bXECkZBC1cMolxCE2GfX8mrm36MYiYMy+NsiD9pH0W3lyNNKGmMg8s+x7
+5Ejjazf6CLAq2hQrjHhrT9lQY0JzJ2G9NWYO8mOqE7yVhUeCCcuYE6FsLqDMaVLH2ZsHB8wZ0W1r
+vxu6J4zFkEKIxMsu6eDExIvRgVROpDZKtN0bpWMKNwn9UZx4xZsLiOScYqP2VvY8RiXlATiZlTGo
+GIAVS4IS1l1RnHJ4WGpVWjkqg8Er42KdJjYMu66Uj3UdsVnrVCIeqnRerhXAlHjT6olpPKwH8ZPL
+zqTOUDXB5awwbhxcrj0aNdlF1MWle57jwoPdVpsRDVGrKaCwGREqAaggnlzzPSMLlYUUP0GvCnQy
+PvmXboOdyC6I7Kpn58nT/nzxnXI+9UEGzgwpe/mUDgGkIaQRqU/MpQ+zSJQm+h5gOn27IuFy+Vsn
+kw39MRfGp/KH8S3O8VBTMKr8uSKY7KmG90QNgzHw7DR5Tc2pDYu4uASVP00GKjJWpmW/NTu/pQhN
+2RatMN8Xjx56sz8W2oc5zHrTvyxmvLDox/m+GtVUPRfCs6+6Gy0Tznph3buZjwN+iSriP8l6As+S
+Wlb8R0Ls/XZiy0EZJADHo65LnHBoRY00otVY+q3Gi5DDWPNLiSziuTdREa+6SZXvbWYATDO6Ln8j
+BWQq1vAd5y+c9QN5h0y/vkes4tUN5skPllHr3jGeoGJTJsApantPfJStFb8HEEiWDblR5r1a3BoG
+GvFEa6T9HU2IhLuKnw/eahjzbu7wZcAxGnxRMCIkVXXVJ4o+t5s8OICJaSyaNWGq/wB6YPUPiYiq
+HXwcxgZY//DGha+bE5+jRMKdBu+laQ8cXLjcps2AW+bVi7X1jBQJL5sxZc19WVRVSXgbGMGVobJ2
+2nQ5H84aJxn3b8M/ebQ9Ab+sQcz+gDkWhkpQdB7ah7IroxVoqyzndRj+71R09bSjoAjSsDAbPa5R
+KaY38NW43HJ7ZbPDTNBa7OkXILxLahIGks30UitlZ6AjiD3G7Zu5aNzw0sPXcpose++aPH0Oojx4
+INuevR0r6QWx86gB6wCasQSCFAch/Zx41Rcs0OZDWAmqlaFmsLwCRBj98ZK4meEvIGVHUcead5Wo
+4YZz9krCa0RPkEwm2iLdOGMisCKRsmazpJb+hSxDBaXXUcuhr/sYKIVCahDKJbFOPdllL3HeQTSW
+nZcegSuQjSg7RkMrEz7br2ZPckrbciDwr0OGGabSstFGWuk0IjphXYprdDbe3cDS9w0TRTOU6WI+
+2xPi8nWLQpL+3I2R9Omc1FHCkqvgOqBGYr6d5km0iSKTGIRZWMaLTu3lBRWpMtcWG9WGFa2lvpys
+t9s1wNi5Wy9wCwlhTG/ZzD2t3APAyGaVNQOSxXJaiNCxkVzsK9E/l3ndcUfZ7WqsDGSfPgt7YBSO
+PyzE1SEu2Zi6WcAtM1RYVyNbzq2oLSfeg0ULrgY67WEdwEOyjjbpd6/mMioQZaQnEJfqaZC4VnaD
+yHB3B5ehAnoYxoMhegKXkdUc8OrU9RX/gduskVpCUGUX8OW2MHMZt3PAbJqqpUPnce6Ba4AOh78Z
+jMbXaGtDb7TqzGzLwx5GiTvxOFuz2CYo0c3pTsImJYth1QKk+1yg8RQXnkVmRvKeYWJRrQeHAaKc
+OYU0Jqb0rqCfL896TOUD1DJGcDYzlZh/OGVEty63pFK1oGdFGWGXP8Rrm/12TkiqDmd0uRZIFQIc
+QtplFJwO8Jkk9FXv6OesWGgmSww/5sqHUPaYIlSH+ENshUGCJ87M1Zx35d+impoR4WgVPNYkAhK6
+t8zl2fLs4R3DC4qYuUbpyxK6AXOHaJhQZdnQU6dOhE5VoRVDT1Fb92ZkNuQVxDNJC6YOkDoXJPL+
+1ARevnQuD7vGvQWM9LiZEBTR6n1xDTS/MhrTdIW2xHlcFF0rL9Bl6TJQT3z2w0DnNbZjhRt97OTF
+bDAj7CLyTD5jQ4szlecojtIq7B/tmjbSEOMm02+LLD5Ejk0qoQCHc5m59Ey8ToyPVjOYcL7MpOSm
+86dMXJO5dGiVHcEXOArhPlPswT9icsfhmd96EoMgipfWyocUv4dSTxYO7XRdMV+7N5WNQAOT+3gd
+iAgr1qYs1KlvUoBvdWQWyFw1bWMheqJSiFaPspDkzeRNpm2HtrVXfnzV49D+YJzUT1bVjw2JnqNF
+fVrl8gpKFVuN47fxpS1KFOMjn/8bUPXxguQ46dZMLMHCG0bdP7TFHH3nDdEf8NUnI147k+TZ1w8x
+cUIJz2+s3Mj9NpFVxDxgM78vkB/zjIGaKisUeFBhEqcigSkWAdJMMrIIpm8qnhJm2yEliHIpV5On
+ORsymlK+5docn9upLEtGtSmjy3iyOxWSRt//BgRPj2GC8jJd6xEx4cqNTXwWjXSKR8JWmMLB0ff+
+YMfxr03VVw/pXMmHSPRZxCcXmw8WF3m3EcwOyD/sGhugFaf8vLUy22WyOw3Fl1+0YtkssCtIpyEm
+IghJlAdKAWG9AUQFL+YtAF1ZbifLRm4Bp0W2O7Nub6ZqPFKbGOY4ybxDzOksixgZk11PjXnp8RX8
+5KSV5mum4/xrcvfUvrO8HkmfSQZ4CwjsfclzxMwBomy8cwbxklRNmbObF5f8sJLIEaws3MTd2mlz
+/TDPjqO3GdMhteYpbECBcyny46IR+Wb0MsNYDboxPwh0J0adKaqRfSPwH6EqGkxigTUwKdg1rSOS
+N0RtvFcPw6aWfAtDlT1p22H6geXfROGNCCZ+UT6/Mewg7ZuU3LHpsEIhvIRq1z39axr/fy/9v/TS
+9k3v8H/rpZ/r7y/yrar+f+2h/8f/6796aJceOrA8wWzGu/0XzfB/9dCIJxw219J0/cCVgWTg8l9e
+aaKovIAtJ5vH26KTx8H/7KFN+7+xJ+IQuzXRFjlu7v9LD22xA/rfVzV2IITJUJw4XXZyrIf+zxUU
+YnK/aGiTKW3IxrXlLWJ60nqL4n7YWnG8HEiWonwviQRlY85B84Luw73oUQ2PESTJjc8Ob9fkWR/i
+mq52SZr8leTjXmit5B1Zuzj2COP1kLpSoKxyY0DuHxC3Ss05vovEjS6gY9sQgneN0XM0vtPA1F+u
+A5OxcR9mfxQHCYbu2MZm8DKV8bsZ+dOnmzvtMyLm6NExh/q+apT5QVWuPvK56R6IkQ7LOPpRgVGd
+rLbsXtC7yS24+/pnjKyRhQ7C8u0UV+0l6P0+HBrXPmajsLB3zlSEIxbaLh2IS898FOUugrVL4QNz
+0crLH0BqP+FvNIGnUSduCU4CD4q08z5qIuwHgMFCWQzdNanIWMY2yLPis3UtYC4WrXiIVo8EeLVA
+g8omfKEifesE0ckF2QwvWE9GlhoCEJ1flnetXx68Yr6QLEQu8lTMOy3cgWRtZtHThAIOLHmAWs/P
+0JlP2UI8Uu6TcJmN4yGLFCzKaYQqUygPzIkXpfjKzXZdq8gHVJ2KEmUXuRcbFgyq+M5b/CngNCsg
+r1gieBROwN0WZWD4REARGRLILkDuIdf6iG+pvIworNm15MGek4icLR6jeTgTNAagV1ZbEKn5VqDB
+8HcLiI2Ovy3VV60GHgq+gPZWOR5UVuLBpC/Be9ArCK1OefZtdn+SimJVLsCHQPRA0/1AMfi2mIxN
+yujVWUg3j6pdG3loZf+SNvgbpPkdxSG9oflXxOWLyjy8CHZ6KDwbBV11iDHUe7ZxLnNiFYbpfq7j
+RySHRxlFx7ZM9mwW+3u4LxDj6n6P6HSdtXepLJD/mRBxXaeDc/Ok0tRyYTUaV4VL/OYhbgpspH1a
+PWfJILFym+yPMnm2DL/a9OYE/Lna+1G+SQFfDESzoK1DpWvvEAF9+Ha60y02lxGKp3M13A1K3kcn
+eYvmT3OiNadgivAID7dNKXaddIjvF9OnJvV2osrDpST3vZg57e0uD6fx2nse3odg2rrK3Sm7C2NV
+V0SyvNGm79282Qyyvfc879XvoMk3t5/h1iABhngtyLWSv7cxWUJoQOLPh6gZdzT55k7YIJjbIHtp
+Gzvbshp8jnMfgwpdgHDa5pc4S4ZqxoMDg7xwg5chlS+JQGugIzZEqdHszUHQsP8lQIAWpSXRghZq
+1eZ+QCj2Lf5KC7HJceWv/JEdBgRGbRcY54X4rOqgOHtZHuAGwJTr929mkG6wY6yL0gD1SYJBEOB/
+QuxSL9bv7KtklzjJ2nGvg4h/uGvfEsJNBHLYOLiUznnJ7b+O2z/GIn6ZajPAk99rpm3Gpc/hfKIC
+/jILaEsqrgA2TtljkifUk1FxiYR1jiTaZoGuHrMIFYyZsmdhF9Z7mv5HXSfX/VBT++aOGGGDwjix
+l3uiZTvKBtQJJd9VDMWHmThcn/m5nvuPyKoOhhIbFTPHiGsiDVCU/ol1D/h1eFUR7rt+yD0E2MYf
+nidfDOiOprL2Fss64u1eZAp9BqjjZ1SZ0M1hwgwuW0ryha6kv5F5bWx1qi6jIiNpiNuHGjcX1iPg
+rh1Ip/pb1lyeN+fR0oujNzwkgLeq+hPj19bv0hPW+nVuvNuTXKuOHJ5YLl9RxJHjZbubhcZ2kp4L
+VDVhb+Lna+6TwNwvYDB6T30C7Jq/mF1tLdKTrfyliY7w4inT1e/sDb9gAYj7pXsm+xwBQDT/Tm13
+xTV09W5cgaUbjlHx03Mu9HHyiTWB/JpgbVTGA88jrllGd2SRuBHcHseFHXQL/jZiA/pVW67dxr62
+Uf/dpqLfBl5FzI9+CCqMk3b9gn+D5Pb+z1IXm5pY8NBO20MboXJtZ721e2YNBVKVxR1/lSUv2SJe
+ZzO+Bxn6EPnJYWIutGJHFPrkYKwgybPE0Ul+yHpI4IuiiZsCQP5GVaws1JfrJUO/iCZA3/zgL3Fc
+PZRTvC9LK16TL/MDaed5Ev2PXzvxscyIC9RBH9ZsaTc2qOLBIxV3OKYABToXFyCjNIuVo6dZ7A6g
+c5cD9pSsg/egofJkzQ8+Ws1fZ6epdfiQS7EuG4agQVohmiFoh6HZcJ/O9euNxz04BAQJvonGZJ8+
+cuterJIrQdSPvSIDSrTW21T2w5tAJPk7NfNMUhNjkyLo96B1y9Vcd2Inmji41fjU7fl0zyHzbabF
+JY9M4zrSDqOka7l1naNvFcHas0Y+Y/fCo5xxIfdqQ0+GC+ajXX5If9jcLDujeqL4PWJgO0Vd+yRT
+G6u7+Z0lotpWylR75lKwKL6zpu24ENNV4C5rx4ASFMESt9vuri0nBxKoGe81kfPdawu4NuK7RsQ9
+rjrAuJ5m5dSRjOhqnOJB+9A78aEDJ0nlvE2SCOviR+JXB+ElW9de1rLyVsXIZkEyZarutBUDsSUb
+Ps/DjOu3MN579NdJcnHdQyGndc8G2cOE03g9nC50Dhy2ZsH3F1hUDiKMk18pHtIKK49X7JIgInc6
+uRfVd+XQkfkQdlt7raf4pDxMeonzVgctR3EV1hPDxlx/ekuxnqgsViZZ2nFW30dzs016f29aKLwC
+m6EWqAE/2bBYPrpAbisjDmnetsPNy2ejb2IqmRf2AfY5XHP73NxwLnL87LPgyKSKqVtEpA2+B+iA
+FcNgCAYn1/2T1faDAKTRanM/1f6urs1rwqVi27/wQzhY4ruGlg9QCqNVBirxpvTjzxLvbCbeeqwA
+RY8jaCguXcn/C23KpurbdUPTXDn6rrdZ52cVnBOTLquTEwNbTCLAqZ8RGNzl6MUnZkgx/BESYyBu
+KWa4epn3kDfDQjlqkyZLfaa2xLWawL9VDVr8cn7miRS6VDNJgZEiqHy8PU36g31zvjjEknpgd+e2
+d+8skBPbyfa/vbQ4V/Rd4Fxv4yrlHTB4AushXGom6UlYr44wN54EGdc3nIhy1YKgPuNS36Z8RYqt
+1QrTp76XtMsOrlxmeJ1BsYP+nuCbaMYi1fZc/z5imLDr0ufW9IqNNmXKGqsPwlGW3BjsTQCmQPgb
+MYAmFf8c51RLPbXSiNLAj0MC21Wu+acnc2O00oP2/U3G3GNkt+OlxleaRptK8YgPxvroBvBSnOwe
+D2q5E52/LRwCGjr7uR67KeybedPO9rmub3ZKsem7ZQsW50Bpt2HOGAZexxzhnBZGaFOVFBPAP6K5
+KJkdxrDRB3CkNZmgT31Rs+WPqCXyGUjw3+hmkqBKAp2K4408IWtI+3Xu43kyCmctPcy5sbNJncdG
+3VPNrke3OHrKoV/fm964t33FTVfGK1t1N4a/S2Ubb2b6FZS6e6OTWL5ehwhPZlcTtiWtjSwAHGaS
+dFXSkmY5hiYPyr2nn8vhvcGoLq5yfh3naG+zimqXFi9s8WqgMRkUzmWjmZgN2m8shVaLfjBVgPlD
+kH4j9zVASMAujEUx2Hr0Q/ojmTz48vK152CO5a9FtsNUtAdWKUYYSz9MUms18JcpJb2jYSiNjFJk
+sgEGugoUwxtM83Ex3fXZFOJR2pqLxyHcPrkN5gsKYZQHBmP9WJzN4rkM3jNo9JVB1rZ3Jz1YH7jF
+Am8TcBIUybiizkdBBlsJ+UKztmxGGGQjshIxNhE8KMsxtxInNwQ4slv4QnceJvGd4g9EYIFlO46F
+Gy4Qqe6aXPZhD8ug9D96bngiB0jlG7uninNfdzdEkRUiAHooCTp6xrIzw32OVp5/cYPk3JvmzVy9
+9YaZqC59SHB5926nD17Muswo4upv17T+Hhf7xoMfWLbZYSYthD57lc/RYz+8ItBBAGK/DqkAY8pc
+3HS4BIbsObKx/Wu+fTJe89QOW540O7B4XIRKr4CN9accN/1sD5AFkpbLX/JYHeIXDpZrK8ApQiMh
+ehX/voOpKLJQv3KeEKy47s2mBxwCyRyFHnmRLgq3dJ6fJfSnRS/HKC93o00gq6rBlDMETu5M6DOL
+YJiHW2gn4Iy5UVVuESuFNtkoqUafvuCD3g/dG5qvTV9ZuKYL0ouYkPbJuk7u7a5iw+RriomY7AC/
+vndj6hqv4AScOLast5vPVDnGfd3P3MNoIqsh1GmzCpjvsa3dMHSNV8NCYFmCStqqqeEJv8E1AbGP
+80RlR+ny+YpNtuiwaBl6lsF9G+cnP/k7gth2nT/K+NBTWuxEVm2nZDkEjfsI3erIhHDVz/UGCdRT
+m1I+LI8ymVZR/tWKZ5gS+4hvK6UfXtrqXoPbeaoDq1wrV4MDdLeQJWkrOeHQ629Y6RzMTCPwihf1
+F0ACx0utNiOpunqGg1MzwAaXmF8iyW59jj5yXx4Aa4RiouBMYUuZtg9/pimO/mQffZ9qtakNEuGM
++k4mHRRM1Q+guNr17PYS5OM0h3ml+mrt5TLLtp07RQ77Nhx0Ry/OvHldm1P7p0C55oxORyS9m1Ze
+qMcsam/lWvk6Rz3pjktGC5kOfyMtTzFZhAFAQygDstizzOMKTAwxnOap9Q9DkrJ8Kgk7rvaJqVR8
+mUrV9FcZ9JMJF7fxSdbRAn1zGdo+QRts7lXNl00RTSX+ABiHplbiMp0pJnPj2wOtOiUdb5ukaxcW
+xWTNZ9YUqNmKbcGjO5r3NhfSpumg7SBRwBGsuJwTpqSrLAvGbuVKi7Evuif8cl3JPx+194bOvftD
+lkMdWq3Qoc3G/X1BWn/u7Khsv1BeJjivK/D3gCKAai9e3VzKqq1v62QRGyGz+jTeiAqANfWg9coA
+ZLyrsm6+5EPACTk19XPJ4XggdbG+qKRkuFFT/dmrXBu/KMfEWVXwliLGM3+RWJgk30HZWnsuJ5Ao
+hgg6vu09TkMWv7l8hhvUjLfLceRbXjwAfD0Pgjkegk2fltZJGPWf3NAek1j/sWmqZO+NvGHsHc7L
+nMMrGMeEYbLg9ROuFq2ztBnvlhhr4WLQwWJDL/7UsiKmM2GvTl9POpe+TZb80v8UWXHTMQMCeJ6g
+J3+mFgYaoHD8GXMpgxOZju3Trbva9T4hUkJp/sh6+ignj47AtSaKCD/o0mtv9MEpVzFDH1nPybXO
+AoblPer4g7SRe+Q8AMk+i+T9gC/ptOQ8HnoZpLdwUHnGxsiHPLcHq/Oebc+u75JGeVAaTOeFHd0N
+OBv85FXFS+JuFntHZ4j8IhhVy6K/GXV1jyImZcthqcJLr7IvIrFI/yBvJ9RlUOwksedPehFw8/L0
+9pqGbjj0vcc/7Fp+HnMiTIcZFuh+5qfWAdmKWhuv+AySN3LUoQKMNiX77Vf2Dd5KPfbynBR9uvUR
+IpIDMgNyd/MBuDnW5n+/M67L6VkupbqABu3POd8u1UGaXInwSK6NM/b7dmBCPxXjgSXCj7Aafq4m
+PUfngEkca5FnbZes0uLg9p+NYp7Z8GvRF0aXPgh4KcWot7VHKiK+jwaYMi+090mlFdEod/95p5ZM
+4TJ3EWMNZ9oRYvPTu0kGFjKxP+KCiMuY6L+9ZoV+/vfZ1mPBB9Jl3FoY2Dfg6uWmRzpHQdWQSQP9
+AaLEHSGBpM6kIHuRxMtd7fU00hAabQoUkgoLtbxhhcSn2RhPcOd5YzZXUTuX371ZYK9v+YBFavwA
+73VCPtV+Ja3gRwTcEGSBFrvakrc0tIDrhd7yI6vE47+L6d8LWMT8hSj6s84ICq1xYz7GgVPs4sB4
+1REv/N+LAyBIshpRqJt/H5CT8FMdGH80biJkY8nh4Lt05AwPc0Fb6jgm/OEIuPKQIztHkcmjnUSs
+jSAj8NRHuL9kwMcAHQEqjDx7DR92LW4wC3CGO2fk6wF8+WkTMrT59zKZkv+AwH+rJwIcQTyQOCFz
+wNiZDk66id/+vbghyvQaU6/7yC1HH+Tw+nthd+/OHMkVSnO4m4W84/yttnFN4BErEz6ZgRbr9vlp
+0PzSbh6qtqJ+jn6AxMEAIZuJ9iHhKxyB5cVoHVbC5sXkvJB45jewQnrtzOQbzZC/dqTBmYhidtPd
+Ln7ZMi3PuOG5nowfO4hee5/7yBed3lKi0b8xGWRDb7zWgCpWaHZJVqmcB4nXPEITv4qpAUOy6Akx
+6NtbkODtn6fuXT5wPf17l8hp+auxQlUSjF/OwA81MEXcwJXc4tNYD+tlxHOgcf+skZzwUkBtHKqB
+m1rGvHX0FlWYBMtdbt3e4L8fx5Hz71UhTAlOqirujWRuYZdzQ/37QOq+EXvUWHyPt3dY49a5yIk/
+ap9sIqcfi0edwuqohsk4Go6WZ2TKhJFOXXWHS43zAozy9d/Vqdtl+iMZn77Xpk0QLAvHUzzy+zXo
+qHOM+fQ/XzVolGDVKLTNlZhnA5IAZ8+/OyruOHH+s6K4hQP1SY8nPgbMRuNvPNEyMYnIeiCpXdDK
+Z1MijerTTnIO3460tuN/QVFkhxLG83thGP5VpZ9eZzFNR4y3TVVsP6sgdvcE2DXPg8A6H6SmSUQX
+WR8ISZrTZCnxHjgZR5va38bsQ0shGne14MsySN8aAu+K0d5YD7q9SOsxcEkcLmqCj+NHWIp09ca8
+iohMWxGWUrDS7xlTJe5v1lYk6zVAqBb7r1fa+K2nRz30f9FsmRss5xvZI/I3iR7dqqYAPjSqA3qV
+tTmLc+fobs+NcBwUesRkCTBXTPPdkGft3jNvOCUfn0ZdFA9KDc2l4T+CTv8N5PihqqTa4cn5Qpl2
+UlS9+CD3jmo+PRU/SK59uBE5PfRPEV0DBm2ZNrb9OL0p2/nLhgH4ZP/FCfaAT8r7KFz3uzKzY06E
+WUWqpGXpy4RsTZK/fKDntPedGFVYe8MH0m3mtK1bcxy3FxablIrVVcXDFXPBtw86cWM0Il67FYlT
+s+MdAHas/dllNmu+If166hy4QDQvSyC2RNVcK4nLQNsviecdXCXfHK8+dY4dXCfAC5y+VTeuDTTw
+JJQrclls/dPqZp9LH2MODyymNo0DFnh+7RJgE3EMRMltOz5e67ULfPZZ7pmS6Mspgw1RjtZrUNl/
+VersdRDdjb31mGoHJFWxibxgFTRQELrpvhAoS3ILkaCHSmJLIkC8rrL2Za4RY9jgKsnZddF+yAHN
+WuccKM5Ak4pNwuoAW5I81q756OoBfmxlTlD1fcwGkB3R9L2Ozfw+xTW6I82jQSoK5C5vyc9iq+Bx
+WKVueld5rDNELl2W+3wjumho1Kthgw7BDFWbi73wInsN8OO165t33RKiih8n2zQGNHu/JHNFd66z
+UpxSYQBtxDbrjHEF6smGOfZ6GO04dPNpfurVpxnJ0IXhEALcwNYDiiKcDFncBcWUH0ywjPuGm2lF
+eNT0UlBwf44qyg6odFXoEvBz6Iqs3PHui1UpB4vCUjLZH+V4EUYB5Lwblw2KMBMHFZ3DNC/5Lqjt
+hkPUuHZGT5/tkPQ2QqRnJQmo02idZzjFP2x8ijszQu7nJQOgK06KLY7l9GhhhFxR5PVvo9lC84hB
+hNZu1IVjBnaOX2DvNMkyv+SGmZyayF9CtzPIEmrc/N63x/w9HVL/LmONRCgYqRSeR3vXN6hdaozI
+dzEXNjoscD+H3jWTrS98+zWWHtiVjro11WSBantSyVoJZW06r0IY4M4uE6uosO/6yiAXSZd8GWgo
+PicnranUcnhrXdG2IYEC7TfHagefRxSHok/QvBVGJj5rsijnldeU8dGNYfqQdZeW2xiy2aGO+IJW
+BnmRq971mjPgBtaH8+y/ZoFxk8dI966wRyAwzoglRzbcu0WLDA8fHWhlywRh0ZBZ2K86nZCSY5mf
+XhL4q4qHD/qDqWNgEtUIKZSNwWMJiLIICBYb+ipUThOfJkUGwcpvyq9GJrlJXxKIozBak7bcem9k
+O/1YLOQPBFjnazmUOK1vS+uV60447LTyuSCxR9qhqKhExQBXbUduBcMG4gRCPA3jwaurhJhYr6UC
+rGtqNETE+hTFQfSOvi37yk0Kvbg2UBvmhRWcHBRHez158gzMscA11gRPTEWJqq6XoPmRpq52cZra
+H/9KXg0xDWEaaSa3OXOTf/SDR4FbZ0awcn0tcqQ60xKH/ylbTSs9SoxH907e31yseYqHafCYld6C
+6Ta3rwCDPI9MBtuse1iADgTwFdE5U7zt1ZSp6Sc2Lc7mvLfu85gvOqwj30+Z3WobSdGwmGuZDt37
+v9T1WBYUaf8ptEHa7vF7kp8kcrXwsK+o8QFCF49dm8b38HzLL0BokEfGyvu03ba/zJYBxspyMpSF
+UXSevcJ9FCVpkKUyyFZuR/Y7BRla+6ATCbtFKzN3izXeptVpytrPQpXSJXa1y3OenQnyrqUc/Zce
+VfVZEWv+0C0pwd0LQ/FbVOxlVj41dsN1J0qv24obODkO/EcL28e5UuzSGXEPQYizD6sY6rSAoVfq
+7lhcWyiBFeA9/OVJzoDEVb+QNfGkIdDbR+mijxO1NT13uWx7N55DZ2JehQym2pW1Fz0si0VviyDx
+ZKcJNDx/SF3Ge2Zv/jDCtk9OaRYPLIB7ZvpWQHtRMlEGlsstZo8YvAzW4hf8hVJsaxZ9jzjui7dZ
+Q71dTe0Melja/QdC0/Jvjwpw53o1SXC8r+E1V47mNIZS/VgWbrSPPJCXqbm4b65rsLFFRZj+FL4Y
+QF6D77hABVg2FckTf2lghx90idZBTyUUehjT/afpD+TT8ju7eyCP1lHpJu9uq+f0EAWuSrdV4eZ7
+19QsjzqHD2iMmUBiHYhPSVxLdPWg5qu10wTq5PqjH/EsxFXQ5dwVqzp3/Xfi0ZsTnN523ASpk/1B
+1c8UYR6zlniJ0b8v5Wh9BVXgES5hpfkD4DsrzLI4dm7KxdtEV5CfHMqmomQcNNeuMG6X/a26bzyR
+H81WUgypbgAA3rcON4u0BU9pMwfDU1feueAOdtairvFYCNaiJhY/oG8KwtpDbjTN1s6m6IVVHZN5
+yvxzBDRnCxQ1M9bMgl5B5iHXDui06aQGZVqn+taqrBOeq/JeZmRUhtVcIAPkGmBlCc8TylhjT5Qm
+Tuwbx2LCckByXauNjdnOOeMzm5gAGvS8uwtqbX6QpsfcuRk7XM6GR6L3kfEbZCB/GvpwMbO8PLVB
+mvykU6C/8HRmz5MysxsywY/h0HfaRRzA98nVxcOE6JSoM14QbGIFDkREx6WampEidoU7w1jAeTNO
+YWsuE8s9QfySUO/08pC3Nwx3oQJrRoyzeHc8qxkpj5HbvU0OcC8ye3zeeG4W8Y8B8PCD8ABMlFba
+bVLzFgsJszWqaJX64kA0WXXgqH0mjuc6N3WLZ7mGVevL5sed9R3V3RNU2Pqa/5u1o9AdcbAznEgR
+TGcjA/YU+OsjqHAUiJWe/+D3e5gXS5zQHTIt9Pm3ERloHOoeHgda8nzDBeqEqT3GV5Al7h3p7uNO
+tLG/GQfpnmh8vKuXJwvIU+J4GpX8d/bOJEluJMu2e6lxIQSqUECBQU2sdfO+I92dE4jTSaLve+zm
+y19KbewfGCN/kRaeZEWOc5KSkpHhMIMBqk/fu/fc6q5OQ3XRV9r5pJ3AWMBYqJsRkXO8ymtikhPr
+8xgZWBipL84zbjTxAEAyU8hp9ms02v1FNnTI7T0yoVf+1OYPtSsJv2wNOlxneIXG8eCN6Ec3Mw7r
+Ev5e7I37ocSfjTs78Tdun+RPZdf17dYhpvKCNTPYhxZ6HtrtkJA2dl+YfD2AEXqTBHT1gUA2N5VS
+0DWraJjmNVOj4kHUrn6zG/plaNDFp150/dkEoKuACyeob30tP1o2kVuM85MCJu0ovc9lQfKpLZmY
+1Cr54DdR86koY5Qr0+fO1u49i9wS+ZLr9mzqvenNRtdFpldUw+GkNcGSxMGUUsEVDtokevY8wgi3
+ta77AxiI4HGOfD/el2Rv3pQ8u/Sv7XiPsDcmhgC57g0NXo4H4xJ/Wbh8QUXGPGRHeiTn6QRTyuq9
+apsRBcw6EwzBqxE14X4cYLwNuJIuVa6uFjUE6WIGv3TGjoF0gGOSrQtELbWgg0UjE4Rxrqn6RPaJ
+ZbG7Day+upxMp38m9v5LwjK2JrEGnSt+mA3N/U0fCJcsHRc1jtdku260sdA7Vfgo59j55NjteVRQ
+/KGtHJMzw0I4z28Z3Y6e8t+8SvQU242F5Ki2D/RyqGtMBLWJ295IUKcPcOXYpHN7b+GvXmGYvhKi
+Y58VTPuwC9dB8FA5/VMb3Eg1w15ujANCp4zpI+PGu97M++smH7J7WqDumXbq6dxMu+KaBdQiEDQh
+oLeISJKyRuuA6zX5NoBtTZDOqSssCO1FKgk6QkIe3PoTSwgi4eY+M4It9qNkXdMNvMsBLNOE9bMz
+BKMp97vzryVatGDF82BvorJKL0HqBlfoK7Z13rAnGzLbVcEcXNKURwYj8LBUaQ55fzSTTZe71mOL
+rHZVIsJdd978gu3GWQ/8xM+AHNS+cu0LQgxuE5fGnFda2RnTX1qr4WggWGumTeCH9LtxiZ8Jn0Tn
+eUqpbpL2W5glrPdl8IpoMuJRB/ZY4B9aoZAagKyKl0oY9xaAyLu27JP7QAb+Ds8/J2ry6fFUs3CV
+RvuxFAiVFZZlmt9E2Kdtql9s+H03o1T6WzBb03UIQhcUYQjeZyhc+m2pt6d2u6Zai++kHrszgri8
+Wxpr7asNJmGfmi3WAKOrzv0pZ0CMFGwfdEFFN1qJK1cWAcPa0memMfMfQQ+DIScFjAYsUSaCHx1T
+PCSTupztS0MnwxnkPMwTqRcEe6AS8cZC3Z+unMIUV0YNErbOiuwidkfAhj7OdKscXEJXp41oqKi6
+8jFWyT5IXN64QaroumQCdZ42Vn3rjaG1zki5f2yTajqn3nI43dNb+t7hmdmsLqiw6Aa5AgIg2nZa
+vkvyew2WgXFhEBwmmuJbhSxh2+Bjq+ltxOqmTmF00KusdoRoMvcIjQlCMOQBZya5vDRt+8ZBP3gJ
+7KE5L1srvGGSnmzbIpyuQiNtDgzC5jOlC3z6VhjgkFPigxOL/GImjfbQjkiwaKcw9Q6KNrrWKb0q
+SUww2xKTjJzT+Vrg4LiJ69zeLQ6V6zpzvIs+8aLLqjSoYGDmHLq0dHdOsoAu/GkKDqFP1lU+yLMu
+z1oieJtub5GLPpqscEOdXjZMONRaCdxkD8xUgEBNltvCZuijZkPaDQNJq26J7gMcMTyWbdFdwgyN
+eYIca1Pg8eREwvoWcOhF68kIdQWMqEDqH0pmW4YUlwOdAIABVCdpiuM08PsyPTfpbaL4mr1LbWek
+9fhSFQO2NDa7rOvKQ+h4zaptjBG+JENdknP8z66OvOs5G+PXus7aQ28pusVVB/siokxDtecIjxYk
+xqJ7HXbBF8Wx83wKBalyE+aOS5p//o1FB+1CgaDfE0Yunjpg34zG6Q/kFa3DAY82rVW6gXVFC9T1
+i9tjXzGu6dnmGX1flJmMJKzEHL5aHPqekPCTu9rJ+jlwl4dG06BlsORd0tiLLo4DDzw09PmQKB60
+wXih4GxDRy7i3NWAOOJSZNJ8YW3E3qQKdO3KgHVA+7lJ700UpTuAGhxeyEml3usYgNCRWmyZS1PX
+Wtr7Uno0eZ3afJN6XqcOAX5YWF5N4Ih3js3Cg0uRU7IDMj8aqJfdaZmhwbndAMo1HhuOiTtvqD+a
++iFqUNUB0bglZH0Z5pUbP5/o0XiVXuGDK25HgLiryhrukngk39nzo51DRbWiJVmdo/nSNwEgjI3A
+Ssf6Rc3DBo3OstHufjb0+WRDAUYpiqiyzKhofNxp0EGalc8QI0C7Y8qNaaHMMFuXeMfcna8Nc8QH
+0nkE0UVKUsLyHQsk2+xUU0y9pO1byzsnfANdUUlK7WS741vg8bN2GQjlPoOWnNAotjwq7MaUbE0J
+C/crASLjY5LN1QM1FMx8DHf3yuSAfBQK5xU31mz7ADaLpNB2Y1k9NDD5LntQzgmhnjwtpkOvnRZs
+dKHcgXNw1KGwUmyU0CAIDvBf/m0wOM1ig3Rv4az/lcVg/fW1/u//86O/4P//S386DCz9B20Rgibk
+d0f9Enzxp8NAiT+A/zkQExd7pAOq7X8cBvIPcFAOEbGUJgTOmpgCGkqR8L/+w9B/uHADgQ+DdmSK
+YsFo+BvkRss+YfQpT2Clw21okoqBgsM5wZvh1e0hW8YFMjgoN1jVSCWCRVI1X8DlA2eOaTTsXRHw
+ynNAHT8X0zh+VtJJXntdc6JF0MHpwi5y+9nqou51irsGnAhuYdR4vSZQlL7ywDHf6VMgz5NzR9AU
+FUsg2JJWjleoby1UoruJFIAU67y/NOkoaeSGGab/AeXBPHDexabPuk8fMHEdzIvhLGk6d20vcNUe
+k4VCKkcsb8QN+cRH1McEIlN1aPq6YcEuDRwv6ILMU/+Bvh8qbkFI0O0cDz1RAEu4EQ5Eco7iY+ZR
+hBpPb/IlCqkWDYTbYglIGgeA2YxqiE0yTIdBnExnJTH30yRadz0hS22HlXw1H7OXWCI6+r1jg4uz
+Hv323gy18Sqriqk/esuh3nDryteuaZrbciwRvaGrXqrCeA4SGpFBcIVIyppWZeNBknaqvrsQlp8S
+yptk7SPQ8zbcD+RkIcbIc0VeZTR1qNlNQiEanZTOeeZM+KMjMlS/gRZAeFPSzW02eLjN8zlNXG8f
+NH78SIiWvg57Jsr0ONzsNfPHFD26Kehl+rT7X0hVwxAPiM1PziIni58ljW36fy2W1V1gK+2vQ+GH
+b1VfLuBfI0zyu1ybBZ5pq9Nhv1eNqpj4N0NovcZpmT53vgT1JTBYg26OFlMsUsg0pQ4G7QlzWZvJ
+S9fN8hpDpwZQSVmFgVxURvGaaGB0F4ATffvStzmj9rCXhmyEvjPXyVnVCJ92g4ls+5BFHr0Dk7ZB
+s0a1WMY7yBgtxvNSFOQHGJ1p79nJmycE/X6xBTlqbhegebBVogSwnAqPkyXhdBhPpUuoF+4ait2N
+VTkogei+phM5ICWKIBXhVlhXmPVc5r5SvlhJOXFeF16JgHsZMl7TLq8ZjOZB7LK5GMhag7Iq6UoS
+OYZUQvv9sG1kKM/KdhjVOQiBNr11fLjqj7xcxUfU6ibPAoSz4roPWsjUM3yhNVL6bl3R37wzGsPx
+N5708WP6/pSuwp40m73oKcEhkoFv2CGynGhkmT3RDnHdDXeVVNanDAMPqkGio7x14rtj+gy10yUv
+yu07Nk2vpv6xYxO9jGaP/1SruIKMFAdlvC9MpFUcB9LwSlPilM9+LNA3E4NhrlPIAncTMd2oOT2D
+T0lnNbtox7Rr8BJIgRGeAAhuhjHFD4ku6sfKkd5FVIyM8KWF8dRnZkDKieIZOhOgZT8GGR3GldVU
+4gWloIHg1aumSxaukAZTwutEI8xP33j+EBZGaW99itman2vJ9bZjT/6iUdh4UG0quYPR6gn9QBnN
+zTrL5+xDIZMk3jLXTq8s+oWEvJqOcVlPg48x0eq7j31m5A28i6oEpiwLSBpK0IyI3cFJUBSZlnnn
+4WMke362625r1CGKoYQBH45Rl1+DI2HjPwVjoBQyhABHKts2BhLFNPNbVJbgvJ3KXiCLOBkEz3vS
+xTthCGRPkdFXT8OIfn6FJLBf1pXIuhyKenJpYw0gVkFv2hQZdIcIpTakcYN7rcBP0BTWI6pouuCm
+KYbDFKUK765ZWq8V8AEY3VnR02yxGwAVSabMj02MIRf9d2Ai3Rs6ZpJZqRYpoVDFmZ8HyZ0ntInw
+ntV/vkqaYXjpOaRwkrRfamEFYk1WYEZdgiO82Zd5PmySzEfZPLm4NHdJfYzOTUuG6H49I5vtrIGo
+mTiSA2f+sKUTZKl2HABhmNaN6tQyQedFuIuCCoJghW7wJqun+jUsQI+wKZDiw3TdNR5GXfBU5bC8
+zrFcXZLqluqrZaB+NoVtbFzoSQ7Fup7G7sH32PguaVx634iUYZ226JQ/xrRwchSWBhLMHLF7fs4x
+vw52wVih+bV7RLyrGmGRt2c/yLFjpAODIXICuvskLBgK9SqF3J0rooU2LFPoaJHl64ZSEQUvPKWW
+8wVbNIcFo6OmTsAJiLXR+dTxftQEb3MeMqhIaSryxxNz2hJWacsDUaThW9kaU7YZpEnJPneU+WtX
+QTpYdSUo/LWbsG7gIp/bYfXvWu+01lvQShg8/7dgpuuibr/+WPb9+e//o+iz/nCF5UDfVYB4aWeA
+2fqz6COCl0kx8B7QTcd/Qjn2D1sp/5Ztwxl1LUvB3hKaT/SPqs/5A4yS43o4UTi3Iaiz/k7Vt/CK
+f8B/Kojhrsa2SnGJ61WfIm3JnEIp3DifOkL4EGZi5TnLTL0rYEPCqV3V5QQuoY+/P0j/FAd94mT9
+flXuswl72sJUu3yqt9f7CCrgf/2H+E+jsysjG51PY3fuhe5l1m9l4XNIjHlVnn/4cW6/f5UfydpY
+eE++IgWtcjDu2gsjC7LuCVtb9qadAKBiyy6KyVhXx6BUjQLC2NKKLi+qIbP3pkDBvTW7sNVrZIqE
+rdJT5/AHhTD0bry6JJDVWbJZ22TBbRwDW+eAWd0qXnJcy2Okq3GMd9VwdYY1urIER8MxAnasCS7b
+S7RU9UpPVtpubaME7tLBW3gCZzkE62TJlGWjh8InmCe/oKtDOuIu+bNWISWjjWMsLWGyxbfiGFY7
+1PXgfoT/BOJDltAC2FOi5s45xtzmx8hbf0m/5fSOFNqbl1Bc+xiQi1OHsFxaNFgiieHIvVUlOgyh
+IJLUC6kLDG9EZZuk78TZxlXE52yY+GfXoHs4T0q3x5HjJcEyrGcZBF6UiSVjzXApf8qgqoILuKxa
+MBmMFbRPQ02I6hLLBpc6ImR2G1RdmBsCeR1hc4kYFlvXWNLGFd3j+Z5O43MTwCjFgcTxd50xxiN5
+3UmIwCsNg/btROYLxQLCP1o4fksC8hL3kW78ERg39CVhQygRfoAD1J2maVeaY026iyIgd03Pnhza
+gm5wez+7mbE3e6MwblSY6i9jNCTBHjlT2+26HCzaro5BD1xQdjCasyoNgknNbvFcdG78tWoc9hxy
+NAFbya6vQyq6zCu2tJ0hCDZu1l95HinSCAYNrKQlJK2NR3jSsJPIx5Ob1iXTeZ3bRFqSM5FnnGTC
+nBOPqDh+7DM5l9UGRlcenxtpjKR4nlVEGT2OYZTfVT0pfWsh+vANufoijm1N+pzQpAmpJVwn5hbS
+ETgr6m6hSi6le9Ur/qKE25SviSzKXkErUOePbayvmXfEj3laDt4+Ygs+90p35p73AI2o5zk0ZIh/
+kRrIKXfOmy7gXIGrBepvp33roCo3prULiSPcQ3RvH8NCJfZOL8cUSlpOLNw1Ti8Bw+vL1pFGvOkV
+0qJ9GyxNSgw/EDKWAxBRwX29kamDLn5ejki9NbX3YxcEH4txCt88VMWXYLlwTBg8aAQstg2Fb7Bk
+4HZ2N3JocAJsX+ExKlccY3OneonQRYSb8X8/RuuKaaZJFR8jd722lfZ+bDIsAaIhlXduk/Y+PUb1
+kkxFrLUck49Vb4cEZZPpqzWs/A1TxvGtj0Yyf8tM3qaI3kFC56qTUEqWgGBdLb9DveQGx9URAZP2
+5CMHx2jhOpw88mvqekRJEoLMO2Tewg9B0MJ0nbSmEekdWcVYTuN2B5lGAvrkmIhkuSPY2D+GHEun
+a792ddPfzhTQkmFY533VXkEYuWGr5MGeWxdPTJEkH+pkMYMMhWm8ELCTMIpNsZduvdLDPxJGSwDz
+Qgz7EEkG3rwaS0TzmPK+ri2IJnpbHGOcmWxP35Ar+c9zG7VX9jHwmQMYyXiczKxbDiPDU75kQ8/H
+mOiAnjTnIJ1VuKHkRDcfVp4I92056s/OMWy6WXKnK19l2SYqdOlvm2M0dSEWOymA5ON5wlVQ9Fx0
+KvgtSLX+d0Hzl4LGlAvZ8Z8XNFevYCbD//6/P8eOfP+3/ixjaFDRInZpUNmK//BMMJL/6F25kCJt
+V3GkEWB8QFP8Txkj/jBtKTUGVg+YPW2YH8oYYdIOo91M2cGlHEqhv1PGnNBKKZUEFA7LWf4OqpvT
+WAYZt3zygrlRHRswh4lxi54r1ChAVkpf3VZJP0dMB0MUG4wwANn+cMPeKTKOXPYfyqjl+lg8QXAi
+27dsfUR3/FDQWBJHwtCyiBC1d0spmDwK30tY5mqoXqoJ7QfMRuGAqGNYUB2cyvXKaJrqQ4hC8ndA
+/HduBh1rgbvN9AT39qSPJ9MG7nLFvCOpmOjwsrefB2cySAAbvRUkouSqcT8SXBD+JrmAX/PHWvL7
+TXAXmijVkrYpTH+q6kzcCHZVAvyzJ8S06zbwrXnv9QLr4K9v9wI6Ob3bxwAOkCvSFmqh6P9wt+lx
+Qcvo8PsHTed/QNNg6S3EeIKZgHfr/d+/mOfZwqXLClXwNAmhVVRfRkuC3sydPqdf1F0PuTZAhxfD
+468vtXzuk+/lLJcwbQI7LJ6nn7+X8JU9aawgK0Am/pe4FdMHt9X9niYGvqV4Dp9+fb137iONbVdp
+XkTpkqfz8/VSZURZN6FXcGCOctiljqhrVO44FNTf/8lcxdmIpYKWnSdPng16hWXQtPSWvUkBkefI
+TXwAOWPWQYBZyDe//mIn54vlSXSV4ovRNDeFECdfLB5zB2QU2gniyECxF2GDcRXMKEFebiO/QIXu
+TQbipnPx969rm3RPBGe2JaHp5xvatYNI6Vdx3SHHhTYiPb6G14xLDQ3cB+Jgiku3D42bX1/1nZ+R
+kQHtM82Biv9y8jr0uidI2UCGwmOKECPnLS+TioagbpzVry/1zhPKbEDZHGpZ8I8opB/fvNlC3gkm
+ogD5CMsMK4zcTw4Sia6GnjZAvP2Or/qnB8X3vhruGJhBrolN0j15Iyq0V9Xoerg6GtTl0pjlJgvs
+gtIdntuvv9ryp05ePiwXlmVyDzl4L/vYj18NMaqkPIMUYQZRes30dd6Qlxvu/oWrcHK2pU2EF3lb
+P1/FzEriCW1WE1rG1RaooXvBYWy4+vVV3r1tsKxcBkRswcvo6sfv0oRjUTsIwhCI2KOGcemk05ki
+qZtIaSil1W+WyPeeChczLzYrwT7LVv7T5UxzdmosxcsD2D707XyXFZw6HNhvVMJx9Zsf6r2rIauH
+as3Bnq70ydUA0sWOVfJy14ivzvOotnZNEuiDOY7lBYKL7jff7p0HgxWZt9mjXSHZb37+domW2KGI
+P8A1XzJvmkNT9psA2m78my/2zq/GJSyi4jzWLhNe2E+3cSzJMWsj3mMoUDrbMLNYOAqYkFYgAeqH
+Xz8i79xFbuKRa0bjR3gnj4g/CjwGAS5TxwvtfMPHqd7yWmFX9dFH4HToQSD8+pLvrMpA63nmpVoq
+xdNGDPg/NDVYzJEeRuA6FrrFEvtJGLuxVX5Ntvcoht/sBO/dU4Bu9lJkSkrXpVb6oVQIafaWmaEo
++5r0XJKyvQW4jU6BidxvlsZ3qi7vxyud9LSc0qS943BD0VkM5MjGlgVwQsMRynWMGb5tnewe8EUu
+tkwa7d89PO/dXM3iRWPQFuwxyz//4YtmbY2wvIEp1I5zu8fIbdzOMDI2ld1UW2P0pnNdRf7T3/9F
+Nd1NJtSOhRzy5KI0wAcRuRa2voGbGnlp8iGbHNw9OVJxp7J2A2e831zzpGO57O3LRsAKuhw4qLl/
+/qKNy0A5poPCqLMScLhzuhUjwm4/jN+KzMo+2ZlZb2zDrA8SEfZv3tG//so8RYIllQqbo8vpYsAE
+ER97ysCi06O4I74XFR829lfDr7qr2TU4xPpVc2WUzW92wr+uQsvjy5tjsxfSsj3ZOHJSRSIMWkxK
+JLL2qBUB3vFY3v36B/3rqmDRq7bhFmr2Qn263zIXW4hpCHMosMNPwRz24aYlVyvfKX8sPrV4z15/
+fcW/3lAuA3hxSaCSqA9OFr2wzYyQAG94HRhghgVQbN965J3C+klUtLMtQuNB6ZuMRUo/rn6zPLx3
+9WNVL5hNs8qfPMD0/sxIkE2zMssyTDfaQGO/GuwC9pM3kEOzinIfAEM5mmVyNhDJ+/XX3/6vyxPt
+bx5kdk02Mg6PPz/MDoHKlM0sGrSZLDJkrdekVMNehq67+9tXchHRW3xHLshB/ucrcZaQ3pyya4J5
+0TkwVpckIS/JEV5ju5/C39zYv76lzBU4VlAnkgZhLWKXH5ejBh8mGFhAA45Mqy9sKHDaY4BKMKa2
+bZsX+yCbqpdyIGU9niz18ddf9q8vC1dHEeNSjAP0dE82t7ZznAQ1BZFAaR1foMUzGVvn8m+/kstV
+aGxQCMNtPJ1i8Ia4UeLBbQYb4J3Hk2KyPxqHf+GrkBXCW79QRE/36Yb0NiMMuAhw3/LWBMCADNI0
++/A3C9s7b77Lk4GTkqESxfZJVcVoyM6GnPFnYCobCcACjBMZhC1Pj+eu2xp/u0S1XJfRlssPRJDm
+MuH66QEJ5FRUy0+EEcTaYiFMsQghfMiCUd3++ha+9yy6jm1KJk4U9qflaRZHJueviRpAD83BjCsF
+0lxlm0W7ciib2jyvrNa+s+u4hCAWlr95Fd5ZYyjruKWuIx16XidrjA15Lq1NinF/RHq6qhTsMuWC
+Fl+Zo64fpTTgbKDLrB5VBMTjN19++es/H2uouEBXkSZoufTZTq6OM6mU8Flpb8+F+cKPgf0pl7yM
+SN0DPIKhn6DZNkb7X1hwuDDRM/zILDvi9B2MItzUPYcCwsGbtcEnPPSA85+F7pKHX//AiPRPviXN
+SQQW6GD10oPDAvTz0+TXYcD71xFgjotjXFWynttNJDyaGdEkK7kPNTa1dSrFkO6ihSq9w4RAynpj
+eVhk7SnBINQCV1w7Ob4YMFSV+zWfUO6sY3sYa0DWmX8Azs1pBvFmfcDmV8KkE01LdW4vyqSpi1J/
+rc1B7aMZOzMJ710POAlUkAai65G+0vR4yBGzMi1BIJzpM7fpqitnkIQD1L1AUw+xKflCfB1YJgL2
+RpeUxKE31qRE8GdxBo2vFZizNzx3DVmDXmOiykvGOVlnTQMxSUAqdYH3KFTgSeAOl2E2RvoCkQbY
+oVpCct8plc77GgWevU4NRUR7Qr0ebGsABvcinkg27Kc6IKALY8ra5Gt+blsM2iw/KebSudMy3Eye
+U50b0WR361wKsrhwdYAGpazIyNyaYswSE/k8ymvzy9nJnWuLSBmc0U5Z2WuDLYAQR2eWV6GV4ILI
+6tb26Ba2Yhd2Q+9vxopYwZVL/mi6aVTXnputzbCH7LnRWBtTMNy1HMLa9dh31QyvP4U963Wj0CsC
+YorPpluioDdFmxHtRc0LhU2WrXshBCB57BX5eJfiosM40aEkAuftFeDgokVCxVzXvO8mT3PA87r2
+Lkx9w1zLScJzLDlkUNuTikmkheiuq9SSYDTzVBIGbHfmY5Y7LU6euCxvg9BonutCt09qYelwxMFs
+RBB2BgnBCn3AiGCf7E3fT6iRXIJukDLlcTtsgZHW4y52Ct/bJmaS3PYOqQzrqA67ZKUaoMArPcI9
+wLWZIJUONVOczShyqElBODUZgkPSCjc57acSs0W9oALkbLwgkGFoC24EVUw157MBUjFwrEU9TnJd
+FZUzIqWyMdBXorF/cjHhMqQLMs/YuDrtulU1lmO1VWnl3mUVEFHi5I3qk1/SdF+FQTNfJwpxwVoy
+Ee9WEv0zEzbP98CfwXZYW72tgh2y5gSW0GhUFy7G7WmDxHkwwd0OFQiHOiJLCXNV89h4ea9XeOG6
+t3IOK8BJObXnnOnwkaeB22Ba0w4mtDmSnREjoA5wmcq1V41KHpLM8seDFfZEwwzBUAM+8C2TiKUp
+ZOpsO/ZgYL0sgCmDsxyQkjPlS/d9jlryOQNq+tqQGRGsCiAy5XXfkZ1yX0p3TED2zWAPB9Vw3CEq
+NAFIJkha2g96ELTTscgbG/AKfnoOynIaz3q7jKwLAH+MsTj24Y4kiKOZngPCC2+ZWMJSDDJdwRwU
+GYETXW26T8MSQw6yLcNmOTtmOp8ZdNtMEF61vrEAKzg3bcxMvypDG2xZmBbhGcpHiYAUWEV95brz
+nD4HPVbUrYyLsLhlOu6ZG+bX1Zd2bDOmcPEMpawz3M76WvEUkQaCxXX61MbQCehYhlO+564uhD/i
+UBHhKdG8opMKhxt4lXl245ep113lVm61Jcu6P+P/zm1Gzg+dw0h7zXRVpYeYFVCvUtYpva/yNLoa
+W6JgLzQprzD7iS9o9xEsN7I6CYt9MhAMECZD3ziFLsvk8DwgG6Ddl8GsYJfmQGk3RlIZN3ile2/b
+LQ8p1vNoDK+jIZqBN8YGTJUZ9mewQdjb+h8Tjx76CiuuuK3KsroNnaYf9jGc8HZtaSO87DNopTuL
+YFbco2FWRS+VX8XhtTc4SPvhJ7nlVtQDzEa2SA84cgvq/KZDEeu9Vh1qbNDQkUOCQqZy+Bj4wBlu
+x5PzzYfAhRMnasoOfW6XNzsmVqO+yzMramD2JilaPIfffocLdPimMj+pz/KszzAfTj65fk3q6/gQ
+mCJ+I2ywjBJIYGb3UbCwuevUyzNBa1cMJlm10MkuSLwmH7Ety8k4wwzp3UsrIHpX9vMS5FAzq1m1
+vblg6UrUnWtFgBExlansU6bzXqbPaUg5MCPnNHvRWW6zNsRVR3XSFjUa5En27ab1DP2UG3T5Ng2Y
+iWbtYzv4rFvoT6uom8pDDRMHPgtcv1XiePHXqdHTE2lDwZXjy/AG32y2k6mX3IiUwM+Dk6FLWOPg
+4zfS0PtwgBcRvMysi/v2WmdDUx9ysoVQITX5aNPAIAiXqIiBOBSnyzoMPfbCBSqlMw47gQMlxbDG
+6kx+Q6yKA4kgxHQT+uVFa2ln9rRNLSGy68zss+xMdGygRCtFrt46qp3PhwYs7BlOYCiq0Wwt/9A3
+lpiuOXKLVZuSJ72pDdBV2yIz6pjJPuC9p1Tj1dx3rlOm/P4uyg5yIARlDqly+GnV8jYUbEZkNpUh
+CEbVhmV1oLWhHoYQXv1WQQXmaVTz7LNamhUJsDYXW7eeDfCEUs26pdtvphcN7jZ746D5wBVlM7In
+1KJprrucCmNdEmEcbxMHjga7r5q/+mCqrhxdpsDXWz7dVqKzvBW8F/VliOr2pmkCRPWEwkL/QEfB
+NtaPZgpt3PaQaUyTj5aw6ubyqYhNeYeIhjIjxBd6P1gK7+js2W24yCQx/ERBAJkWjKv1jdmHRpkf
+0BLaUN4EiGNcKw0fshpzXNw6o4kHSWFZV6Ia72CEpagkwccgfA5lpMFscuznZe/HS3xHpqCTNQTf
+gEaEr/FosuVgj4ZpgrWQsUYKCARgOyybeKdY2tE4M97s9uzBMWlzGVZTp3WcG22XqMrKvu3QOtml
+9ynh9WRIMnnRRzds6poP3JMv7WA8uy1jmpKr0G2xGfFcFaucsBgKFNe3b1Hz2pdRKZPnoRv051Za
+ZCtbURe+8PQCoohsNz8f/RyaUWVDbVlTlRD2Gs1INdeumAJrbzhVcT2I2rt2xkVOwzE9/VSXGcRP
+5HfNW5PwU247V+otyAYnX496BjySmnwYnJhp/408pPoD8Qn5t1TU6hykk98A6kphzwzGCNQ1wHL3
+FhZTWq6GkpdmJ2u/QYZbmf0VbvNFxaJp8TaRj8SmDtrB2WQUEdMlWNXo0GURKcblFA7wv3PUX9Q7
+Oc9WmTrVY4OGpz8rhYkmy2tY7xHucMi+HmcdUnklGdrboUOwiHY4wZxsZwQ2UIaFFcVYjtMfSG5M
+XowMFe5tE/xOnKPJw3CRoLjjpuPuw8VNrQDpVhalh9O2DDuKMkb40DZJyW2YmYdVjPuupvSc1RwW
+G3q76f1czw3/s9mT1dB7mjWbcVH93GBTIHfmCOMwDJlaO5fkinljm7XpbdKegoE9o49f0Wf3/t76
+zv7AUgzZi5jz+xnaEfbfIzhEeik+cCVm9S0gcW7eDpnviGtpGXSSY6RlYh1MIcCSXKC9Wwd9iPzX
+mEZgH8ac89f73MKixQIxRnvN1vehbYQ3b6uaogPcUQh3SUx1rHYYCKhyiirqqF/9fvTOoA8hz/SK
+2v8YQjSr1pRgiNSnnlhkNqjZuMjy0LE3oTtV5HxodO3ogTCBqrwul4VkIDu3bWQO6BY3zOVU5aok
+wSEsMYI4tTbXLv4LrPliJsWxtN3KPQdg6H6lvuONI4SDerw1vfIRtXyCn1qY+nawQjA1JiiMB2uO
+nIo0Nt18I+LQUysj0iNt/raB71I3JLUDOAnnb/EUe+f5KKxm64JePIqer+YuHT5OpY09AmtedgZW
+kKC1vAVPvnYyLz4ksS/dXdb7jjz0IvDAhoR8CCdwJUTupgzXc56EcMErOKNrqAyMfNk1OSAEBmHQ
+hDvTe6Tutyd+VkrQL3YmUbv3YxLBP9f+FK5btWQBsZ2FMNJ0WhC9KCTAoNiF2ENVZw+Pyo/Kbj/3
+OL0JQahw39FG5RHz+eTbhaXobIqFrtaU9hSdFRARQSIOJihJYIugMnj4rZfv6XCKRY+/bYSZXEnC
+8GxAf13OGWyhuw3DYsTUgc0DPciYiIbYKJaP1XXjZ7OpuXDghTzKdRyh5Cc7m9NUkBEqNhAvUdxa
+bmBnZ4WHB4EfADRk7HTSJr4659nUxGe3rHihozkdNMPXeiEqDqnHB6QTyEmlp8ta0yAwuTD+f/+G
+YEX1wRwhh65QzyJXp3JFejiQO96zdY9I8q1g4onP8bHTSKiGr4tPbLHhjmFLFIDpObuBtEwFx7rm
+oENdFd7FmYXcvamJmQEP0w9fzWAR90OiEtOhyMCVHvIjZtOaWwT07HbeZZ0Nmb7UE4DlFXUuqn6W
+gZadeihrLB6Y6GAMH9/DdoDnZmWzu5v8ogy3bSnENyLDms+/7jucdHYUqgmMcpLeCs+2Rsj0c9cB
+SnLdlpbOeNsUZ6TUz+PuzAz8klvv45ZAqsSBjJQAOI5ICX998WNv+IfOzverL61chQgc8sBJZ8eB
+7FHV2JTRNStS49T/Y+/MluvG0iv9KhW+RzawgY0hou0LAGfiTHHmDYKSKMzzjKfvD8rMtnjEJp11
+3bajwlVZEg6AjT38/1rfIkOSw5BgX2zf1xXRrHVPwCV+fry2PBE8bPa8K4q23YgxDFyitJsHRWcM
+ffK71krhR79rfWq/dKLI7jAl1fSCYgZpi5tGgxrp5mQ5bFKh/ogL5FGMbwVGdGNRYde6oNiA/GVa
+WZnzQW12jx//oqMi+58Pitxf6uvmTzH+2x9UT5nGxml1U+cckl17Rm9N0traBmxLMgQ/vtpRKern
+1VY1Pf0hSo38z9urVaNRYMTD2zsn0v5qxBZbqmDMR0hck5y+BmQ5flK6fW8YWmhdKO7hC6CT8faK
+sFJAySM45pMuBEaxEtdmoNmbsFOnwzwAGAauS3yAbn4iPPn9whQUdY3Wn8X/aceqt9lUZGZVwDf6
+AiAx5dT5fEZTdLqK0rfNVHd+bdc1dMUs3H78kI9Kujzkt1c+GmN2OaQG8BE0AMNcRn4pksG5YCKY
+Lp06j0nMDODKsJ7JuLrLjUYMB8BYJFp9/CvWB/t2pPMrUDhKmioWCVlHVccWDBwbbr7AjDWUI2si
+iDOsysPHV/l9QHEVR0dWIUxEYerR6+XSse7UfE86FqMTqbGK27l2ggh5vLHwLX8ymn5/tDQ3GUYa
+tQZ65vpR3ZYJWDq1zk0t/NNnpacUSRpUvwOPMV0pSkarTglYs2TX+/iltN3Hd/v7x0rzkTkN54sw
+mViP7tY2qBrlCp9P03F87aagxRXGRKWCJvz4Su89V/bSGmI2lGIoPN5+NpWTIsGOaeUGtagPxFJq
+rceBdU3pUjg/g9eyLv6NK+ooaFWafWu//O0VNXVJak64MJwiZfwWzIoCdi8BUyWbKL1qgtn+RHHx
+3gBFSUJTZxXvmsfNoxGBjFHqIVNx07OsO0tF8kVltUPxyff47oVQ2zm0MA3e2lF3Me7NkQRInuVS
+WzWbNzT/YprqT67y3hujW6shIkQUph2blUZk9kuK/cHt+kji9JDOsk8i0WwmwEhXbaT0nzRP3huM
+VJ1wDqFwYIo9+sDNkgLqbK9DRBuc67FYiHiZQnhjG7zxWf7JdHLUqvk5qTk6Fv/VpGQwp74dHqXT
+k/zGTpD9dZi/xLAcKJGlHIuW6sxuV0I4e7Th/uMx+c4czmqlreQBVIs0iN9edAnsBd8kYEgbyN6W
+VxzsWioAQM6SbZ0BNa+Y+3eGPmfpJ7f7ztu0EAvrRBnSmaM19/bKVEbLyK750tugt5/I58DiADhl
+2DcLlbNQj4rNx7f6ziBdZzSUarQdeaXrD/plY9KOTicx+qAc0cnjleMK6VV0dfvxVd55ixYmNIYp
+mnfk10ebQmcOIBiu3xxVFOBYBUk4yU5vqS9vtW6NgdWwl5HlDTTlk/t798qsQzhtqA+hEXl7f4Gd
+zJR4kYiU6aA+tvOQLoT3BvEl/GLtKysLKKxRw7v6yUT6zlfC5VR2PLT6uOOjF9nQobC6nutiLplA
+oqrDxpwU5drBNPfJhPbOLSKy0pFzMZmZv+tBM1Uso4T2UtIi80EyEcwnGyMDRqWL64rgxcdUcz7T
+3rxzgz8746gp0YEL9egGZVX0DmBkcL28O1+Fx+AWVF13IYj0Tz6Kd8aoozMDoDFCBKgfKxdA+uTE
+iHODQSYM3+mAbY21/EzF9PtVVr2JStdUgsQ1zaORog4U5mIYBYiio/4yHdNiQ7bP8Mn28J2rsDnS
++F8mTwQER7NnT2wN5WQHHPrqe6+0QnpwXc1PRv07V+HsQ2edFVyo9Nffjnoqg8PEIQfW9kwn5bIh
+GLT0y0bpok+G+XsXYpdLLx+dKyPh6MPWB8MIqY6zxo3AqUiwaIiCmZ4/nj1+nxQlqmAAGugj2fId
+3w1uGm2caHdRHJTpCXNnPG/oJHB3E/TdTbpG2T99fMl37guhF4U55FdMGto6+n+ZFolPQYOUsZfW
+dc7KTWRX2wqyi//xVd65MctmWkQkjH3ZOL7KiCYflj38ytCBjVlmkXWGlK7d2mArPKCZn0kT378e
+xxLzpxHgeF0bhNpbFg0rV2YKvVCyx2GwFiCG6amrSXndT43+7eNbfPdBrqJuFhkUD7+VA3I1dvRV
+mThHRexjwAn9rOyWfz7eYZeqkNvQqNvoPd++LkqvlK0Jw3X7TA2uoPzTkknS+RMvz/rVvD3aIMhY
+MSf4iByOH0czRACGO8RlA5kDof82yqbW05NhvMHf5OyAjFtemsJC8EXb5buPH+M7b47dFlJyiXND
+s45lVUOsxnWNXMstTSN8XOUej0vvGO02KynnuWY6Crn9+JK/LyuIc3hhHAcwjOBxe/tMo1EUtP2m
+3A30YtnJHmR2pvRzewZzMSREsiRBiopsRIfl4wu/M2TwNkB84gzC93dsLsIFxP617BBdRJ1yQXR7
+7rZVNf7jbSy3hwkPb5a24qKObq+sJqt37J5yfmYDVzYKNBFIAS0+Beh38pMB+t7QWZdmpF08UYKz
+3z7MnkWtsGekIKQqxrvENNauTqwYRH9ayXnRhPO5pFEGmjOcb//547R4jGitbIaPPJrKrHio6X3L
+nFaDpOOVW86mnDXT+/gq7w3QNYGbO+QjZB19e4M04yoMf7yqHKShCwJeedYnZKpzatT7SYFp/fH1
+3hsk60Heop60GpvWB/7LBL0sLXSSHmVOYJRV7HdGR3JBHMVq+8lo/Ok+Of7qLYoM6+6Dfz1WysXT
+nBLupOdk8wIhcht0O4RzlM6Ugaees2LTpxahGoPe2NR8yupbM6HVdeccjdsnv+Wdh7wqxzgN8YxZ
+2Y9e5SJC3awW9IEzMnaPDmI1zNtElJNvhRiGP37Cx/oxFloGDQdXzIRrMeBYP5aPxDKUgvp3Ajcg
+Ag6aBwlNpEASPRRhDQK3NCV24GaVbIpTlbLWg1ZzjAN4CNbBpFggi28aRPppn02KJAXIYLI6tcSA
+viXgZPXJN3ZsOP35gw1C59nmq6jsjn1EE1Gcoam2+On4mPNNPJDYPEIcI3StI+GNUHe6KXW7i5Sy
+wGeh1Cv/Yra0W52f23/yQbz/a3CgOaZusmQcj5vE7LJBpffpBsuC8AsxSvzTKEPOb6473aXMI+Wg
+jgNNIlhZPkzbxVWGmZDiKFH/mSr3zyfzy285OtBGqLQT5L9rGHQTbnBOZt4Yis/Oku8NT8YL/lMK
+Vcw3R6agco4JDjS4StjVpFcDxnrVmzo9B1MVngwEiX/yObwzB7BDM/kkWY8Ryq///Jc5wDAXtcSn
+g4ZV6vWmUQjutOZ8/OTZrR/V0ffPVVazK4csXuXRRzchr8ymntMHCpL6KUhC6de1CF8wN3+2wXj3
+hjjJYT6yVSHUo9cEw7qBFs02pqms1EfA2UHOEP/QkvxzMMCYwRq+FlR+196GVlAJrGkIm8LY3hbT
+ZPQ+57foM8/1e08OcB4LNi2GtaLx9v00HBls7J1cSOnULbaCxAeDZl1XUajffDxZvX8pSX123a5j
+RHl7qbydWuQ4vKSKhKdLO+iQlqQ22BGa6WNy929cDAUxdT027trx2mPkGHhMwTYa71u0JZgIMxHi
+F39Ap7L9+FLvjQg2fiyrGBbZNxwNvjErDbNFH8Y5RObXqRrbF6Y92J/MVe99uMACrLXmxAJzvLEt
+ssGkW8m4KxDPqiB44L8xOY73EWWvbdUHqf/xbb33uqgg4j4De7RaeN6+Lr2LojA3aRKCCEJNvOTq
+XZMgZeC0EH3ysn6/N2ow+ASs1X3s8B2/vRTp2U7W5ugtprJtdlFQX5d2c4LyztyrTTx8cmPvXA0o
+KftWxrugfn50EBl7nawMkC0ukkrzZNWK3iJiSshF6pcrMGXBJ7vY38eHyeznyHVzwjFfHF0vxlBm
+aEqJmsSqw6dKW1Dm6GL88vHrevcqOEf4jDnCgUF9+wwVEO3TUnMVADfpizGEzUWUR+k/HoW8H57Z
+OgotVu+jN0UPYAkrGx1XAUzpClgRjMOa0KkTIx/NB1EH2Y9/fFsMQZwqGGZ/9s7e3hbRow1CVA4a
++O85AuTiO7z+f+gDZrbllGEwLTGh02s9rpAI8HVVsQwcGknzw3EZ5Aola6PwGmzchNzwzj55jr+/
+LeZ15PUOJ1X2rcfLIpjRSM4Drb4Z+vmZtSTBudqP+l/gu/+pDZ0bs+CwWbjDLWZ3Tt1vnx6cKG2A
+pJa6kd6VmzzNX5dqRAZoJsE/vSETpZXF58TBW6wH77dXClH6AiOtKzBQc/yUl0q1Sbvos6L/7xt9
+LsOJl/0E0DdsP0eXseBZ1LYFeQSUll4jaLET/bTV6n6+0AiKw1vYOlA+1VpW0y5BEOdcBYGBKLHQ
+6k8bcb+9RH7MOoVw5mc2oen39p4zzlIxcaYVYK8MDhKG7uiMUMX8k5LGO5dhf28yMJkgTUyUby+j
+znQxjbVQWFqj7Tv6+FroavjnWe1/vRkq7U/M8reymn9+NEf/9r/O428Nnsgf3f9e/9j//a+9/UP/
+dTm8Nl3fvP7r/KVq/wVQ7PtLF5fF8Z9581dwpb9+if/Svbz5N5sC7NJ83b8285fXts+6v1HQ63/z
+f/oP//X682+5navX//yPl+95XPgxsJj4W/cGcUiXj1Xs/00Uunkpupd/eVwYfiB+0D//1sP3//wP
+hvT6R//GCtl/rBtA0ELrIYZKE6/kL6yQBIEITEilrWBzIDPX7uzfdEQh/yBPDK0DJSrKoJw3/puO
+KJw/GEnrrpLdqwFv5B9hhY7XbpN1VJoUMnA4Ezd3bN0iN3Rs277P/YJyFSpKI7g1x07fo6wevv3y
+hK7+3GT/yik8Hp0/L+Ww82HmpCR/PHd2vYXFNxpyX+OGvUEb8Ocszvd/5yJ8AdT96VEdbxAAAYa2
+RbnJj9AuEVUP17VAyfVJk4ZjEJ/Sr+cIMg3o0FCQBwVE//m4DqM4qZqJSp19GyTI6Qxdl+g/Umwu
+SpY969yICNP2qgJRuKdXegu4dgzApypYFAiM7py1rNIE4/JdHZGykwmL8pwIg450DgUln24hko6C
+JI+uBJO9400GYSBWaNjxNp6DqfBXnT/cWVWR094wJoXYG3zZmaubA0Fjlcy0V4Fy+amIx+F7Furh
+4jug3FSvNjn4e8OUk4unhHkX+mJa8P5KsFLovISh/GjMsjwve80kp5sANctrRNK/ouFYdSfl0OKs
+QzB4M5lWF7rWKMVdYZOEovUpGtg84PTsTUvQxN5i5ZC4y6JPRj8XfV1j7CQ6G4zciG2tH+3Yp4VI
+lcfsCxH7TG0gcpfZEpmnqUb3o06NrodoA7yOLPehuJcCsxqNd1N86ziQnOjEOzrQJAgW4O/HWzFo
+fZl4FI6IJqsUCyIhO5RInJYY9S5UKzETtj2WfFETuOhuIrSC4s5g94NXWkm5ljkwUfCfF2S/hQNF
+YA7axZk9r/RddFuxQatnAWwbkzZgEy5lTunZ3NYO0ZpW0xIaue65rrVaNRYvKkz5jD9NaVepQHNd
+dIL461rqq3lrUFrdk8Myn6t13twjQB0Rb9pQCqd8LL8WURkSFk9o+8JKNZlEF6VZpXnw8abmVDOL
+JPU6nQ7aKS1Yg0dgGclroIVA5FOoTbq65p1OCBa6FWRYzYbXkpk1u6IPmy9TXZbPQk2SK5kv7YST
+w8zuo9SunwVdeDxO2Aoui0jMgR9Wmnmfkul6viRWd1rksY29WS/6eROEVn8ZyNmZ91XU2Y967Jhf
+mwZ9vluXnRL7cqUByYScGq00eROoqdtbJyzSm6F1rENJMgrxOtSbHp0wG1O8XvPq8CuVea+kMyFm
+gpD5Z9kCyqIWN5MyRbwEnY6QofsCHhLheieqJtplQRB23gxoMAR3vcQvZag3rQcDSTYEPGel5pqI
+UwdfVeey9WSj4kdN5BIeElvpiV5p1hOmhkYlc+2pn67ZR2I70ERWsmlFqV57YO6N0FOyMX9pxVRd
+D6VlfgdDHOwnzqUDfglTeQRc+VxqdsZHxnH5IbB6alJ9ai6TFxQmWx4RC7H6KMf2OqvbBW4gEm+w
+h8Eius0cGAFkqkTrkAUroXYKfVO9nGRvzAzIpau9VvSl5oEzbJ5aW2kDmkzJ/M0kyIMwyILNpxsr
+dqd6JAiEB3TkwbTpDbUNXQVGSLDBx1UFbophEIpcrijg3ierFlBf7fRlBOfPJrPWMNJi9i4mVw6z
+clgoQoNZ04qc7KNyfeulRcIMdM1ZQ/eL7+lE1GTQulGvZneRQll8m/dtqBHEmBAEog7Tsrij0+NN
+ZRitypZSr0e/7rMEY0ybdP0uNcf0hkxx3cevmpOZFWikBrWiLol5smf8QpOFQdyrYpwEfNWLubhp
+MhPnZ6RT9ADQTMN6mMZ6vAvtqdIAiWqm2JUJzTDXMpBoMo3N5ZMarZ9/OoTQM/gU7bsw6zt1E6NK
+VvCEsE/YlGmiKIyqBhuzoqdYEhtlsr5LAFv5Gca/8CaPguERBJx1aeWtbm6aJSg73K9FtCNXrpoI
+8u4cw9NbkKYoacY48ZasFI86abLFRgsWVSHF1XFmL51spFgpmlBYNIpeXGvoWr9EgcIvVVpp+gEY
+XEGSXx+hBOrFfZEGFpBXGrT+uDT6i0RMjv5B9PmBSlM2bMDC8h3gylVvCZ0WJ7YyULUOqjT63qZx
++AQdnNfd11MeeyZWMGZSPScrpk2HhBSYFafutokjHrIMR5NMFiiodaSJi8omXs3jTO7Azo9VdsxO
+q1g/bPxLKbF6UYGZF4Wg4mfwbHsfYH90BUsun3ytGqov6xMh45ZQnDML1+Jjgslj2gR1EZPrmhUF
+OURTUl3w/zqtL8NR3E6pmO7HuOinTaaRveAu1uDgS9Hs54VRfJZVFRLkde8CwrytJ6SnyUwYKgaL
+8WtX5qsjaTJj3naYMTcrDZ+OS4h89i0w+GDdMDPESS9yMlKFjffYNYceb6ndNHhku0WWV7KttAvb
+ZoneZBQIH+3EVJ9y3Jsg7G0V54wV1PLEKsDvuuQSr/UjXTW+tQNZXRtSJeaXmEtlqw8/fahnWMyk
+H4T5Y6MNOeYectFvMVbMd3kVK/umHhEyRwtxERwnlQiWhKmS7KTxVV1XmVF8LZwq+zqSulpRbS/4
+Ug1k67iplYHciKjXNT/l+Hi9IP65BbOfRZjSw+WpIJXwEgs3VtSYjKutgZHhgOMq/aJEBZ0PFXk8
+kROa0mxzuyVfjtz53KD/DwnZw/cEapZcxOA8NAhTxCZkmzdKGKe3SjLQbBusbngYpzh8wbOBo8rs
+1eU1i4lDAUunyRrjTocefuzy2HLNuWN6TowxvyH5j2nQJDMBo0a+ELs9GzesVcSJABmoDogqcHYB
+nxtH3muAEWesCvFoYUMnAQ8I0NM01OO9IUBUeXFGWnArR3Kxy6VF1Wix3fLAS2H1zdQeonFiN9pd
+YIXq92qcumGPVb0mFi6el2uyV9WrgjwkiVAkt7+YslC+Yf3BGZcJnB7Ea9YQsVS6iGeYJGxGKk5N
+Qv4yyfoq5iHIkbD1CVbw0ujOldDMHoh7DF26RvFZHxrNw6Knw2aBvEsAshGejW2dXkr6GMXqGW5u
+CEiQsTfxdAw/nKb+dJljSYAfVZozgsJI/EArARybWLi7LIr1h7grO8wiTS5uCHgTwq8HCxDuSGzJ
+fZII/aJJJLa1Bad4dEqBprfcFH4QaVJxzLBI43K+J8XBEW5F4tNZM41iYFKM9dSbBx2RIVGxlTsJ
+nPEbhcaQuan0orkOLDX4PpcaHzKBDfFLqpvTqTMOfeaSQ4HJdxkUFPkm85DpSpmS8FkUTfRDLELT
+IW4t9Vdnbk3Fi9OmvGPZLp57DePLNlUH7TDlQgswFIbyfEia+lKZzORGVsLCg0UG7AHHTDkTHx+V
+N5iEmnviOOU9WxH7Jte5X3dRUGRvCSY0v020bBOY5VZ4CVl+jedhJ3/CAmszKpjGGUEQnNhbdXb8
+UIyjTT5rXYw/1FlMVxg/Ytz0Ttec2VbVs91N6mDwR7RK4/bjk8pvJy+hcoZgutbW3gDszbeHdaKe
+BTSyhJjVVKmviX13fHat4y6infvw8aX040ImsiFDgo6A8EaZ2zxmhCEjb8ICHLSflFK/FTIs1+Q8
+JXiubSXFk2mRGQH/YMZnnBkkGG4dPD4gsWssaqkU1b1mdSrSOvx72qnehOCEQmSqimsUqnY6YSS8
+pQlhqz7vVbz2ZKSbvi2q6tDFmnUxtUPygz5oe01tbX6WcpwTzyDYtgDInzovU69Pz1o84rBKqsm+
+7nIR3ZqNsXwlKj6/GXXRLm6C8053fz6X/1/K+KUewUt3PixlnFPAaP+1e21e4vbXQsZff/CvQobu
+ENhAWWlV0rJ5ojXz34UMIMgwy1aZisrg+ilo/7uQoRl/AEVWofrQWKEDvbZy/o55EOIPYINoNVR0
++JyjaYf8XdH5q5rwZ9kpfC3fqS6AXVprlL+cyUmBM2iqoJSD7IXQ62cL/JcO4jAVTjMXhNXNsSOu
+bEkzFlg75Jl2Li9EJp4pqFxii402Gqdedprk7bSd8ESf7Qur117qZSSiwI7DbWU1+EuxOLq6svrC
+cs7xNt3PjT4mAeVR45b4AhwCeVlc8PHFZ/BBdFfvspS1HIIKVfxko4bWzDgXGQfbdk8I8lXdBjN6
+jeRySLA+Rt38pZ7HXWuTrDpEtgKFq3kgM2bazEMoAGY0gpMEp48Yxt1dRToRcPkigGMxxgcjSWzW
+huauxuV7CgzO+CZl0LIyFNbqdhS7VJl7d1aK6IXSi3Fjp5gxk0aa27iS32VUsK0zwp0qOzAZHGR7
+HgvOHY2i4D4CdOBhv3iqlKw6TApZZEkcsqElvZiQPWHvSjY+F0gTL0PFylc1rLbL1rODAej/eQgM
+bjqF+E/2LoZjjun3dTXetEEzbrvZSS5boxVe2FOrZBFXOJwq/SZdYkC9vXFNJrCE8kpeQh2l6a1U
+cFImbaltWrPYztTGCGBsx01okVJVN4XuK0W9SQyM/pHdgKhakk3X2kShLssdol6FtV0pXfRwjT/N
+bXGIMZ2y9alYE5NEfinHLtvONaHEjsN2Bd4uIe3p+GXpNLbXRpRubLZVJxwCDlD9wTUg23A2OPhO
+UvAWD9rSxD5wBiKHNY3dVF5Hi098l3Ho2Xf6og++Nkmvbqqur7/YinIvVWMzmua0xc/9Ja/mq9Du
+bc+OFXZ1bEbdPhIPoutV9tRp5dlz/2RPxYOSmbtCnx4MGHHu0nEOdsh89JahORmnejggKMPy1spm
+PzlZcKhNzstzOiqru5SWI6T/5ja0jGVr42ixne5B5xq3kWI0e5NEpBe2KFc9GEW3YTN1a0VVc6aN
+3TP8jLtkkveVg/V1IaZSaYiXLXF4439Pr+Wk9D9Csp6aw8R20HG1SusIniwpqx8QaE/5pqcmbJ0m
++Tw9Q0a2xaXqBOWFQXcSTS5lrPRyWIL8srcz4tI81Ujt+06pTC3xTPBEphdCEMfWmznKZSXbbHHp
+qiNBRGDq4ELOKJESIgq5YxMFNF1dgwxS865IdaQLSSNqi3ehReTszcxf20WOpGsOsZZO7hxKYZyn
+uHEuUfqE1QVbiTiW9AREZQufamlab4lKivIN4DBs76iNtfh7UxoYui1l6UJcfXl1j//RvJ56BIXw
+XuiBeqqlYHzBQA58iLyG8Qlv3BCeIFSOL8LOsKxdSzDESaAoheKvtT4URwugauwIZc3nhumRzz0N
+svrQDyP8JUufhX1IR0P2Piej4BYYixP45lynIGucTP1iDrSGqAhV5KtZVV0JP4LQrG9TvNfOPk6p
+KIPKGAUHjNqeFnRAYGuoxY51r5KOQoo9u7Y5Qk9vi97p9krBAu1buW42WxEFRr1dAoSFLifzjlwq
+CXxka5gDhgpbVRIkWxHFWK+zOhtqC56mB3WYW8WfgqpcvKUq5F0bEZPO8XKmPkdDZIbnk3V1fUqu
+HnUCzVqmxtep5hzKKMJZPJtk1YW5HWo/Eo1TCfgYO7oe6NaCQtLyqXFDVOTdIbNSB1gHvcbugvip
+rsKQSzDU+TwWsXLROEVMsQ2X9HzlqK3d3SoQDEhgzaXYo23mBZdCDukhDQqHUEJM1c4uaxRQrcKY
+xhdBOvwrZObgS+pEPJDSiWdng3FlXnj6DcQhtoq6/DaMg3HlRMH4MkGmejFGQCEbM9YH3U/JTey2
+BWurQ7KiHYsdx8tBPx0JjhDb2DEquQ9tFo1raoBWuqkolsyePkkO4zYpk5xfQjmBnpm6y4a1fjsI
+ZdhncjlVlSg5TbsGrEXRFdcyrC9ikEG7OiXxPRqtaUshprxERYWSwlHHSyqfgUsmDHXdmQO0B6Lp
+RSPqZBeZ8cXUmMpudiBjkuCunqEvrDZFPh1Uk4+tACLktR3+wmkKfZpmhV+3VXuOGnp2F63nAG31
+bBupGXMAg1RUOcGuamLT01Mt3qRTX22GMr/JwuE61I2AjV9OSbcAL+PS6mjO13IOQR5qlipnQWvs
+c8EUPVYdujSO2+ZzCqRp2qlayGnNrE5KxaGW7CzyUIbKhYS1dZoq2a5Zi5lDtAmD4jyaKvW8z+p9
+PwQvlFx1KCflj6ZCeR71U7El1/sqdiiOqQmt6ZYqo29lhCv3XcCcUJJrzgjNBWJ43QYBo1CXJ3E+
+dgdkdBcl6W7eHAXbQKVkmVY6R0v5WIejelKS/MjqaJ4HhTXty6Iyz9O5HvxAsF9OSrEHC7hRtHxv
+Lpq+b8aufTUXMhdlDKokzcY94Z5d6SWdArOjZ2lOKusB88lto6ndAQbbhNgNIa9oY8ft9OZrG7Zp
+58tp+DJSCov91UswbzqFoiIrFZgBr6qawDeGnhmDTtVpMkJA6nslvpHENkVUcMgI/q60WhOeRAkY
+AALW7Ew+1LlK7STKDbHsECrPJlmMWncqFPZmW8tZQO3QZBmw9ecpjvU2q0KS4Gb0etegJMwVq0BJ
+3AWYNbJawqOPnXIhbMW0hlODVO7UtTpizxPCM29AGaEqIvya3npuaOXryO6r2iLal/Kqi2gV+308
+w7pA/VEVpzlO3H05kahH6KBlF/o+jhZNO8HAgAtwTAVm/Dh26u95TiiFZ9ujUu9HzjA800HI7tC3
+dTTvqp6/6FAtJFY1blKkxvBUAC2QOyfC99lsSQc0mKFFDRoviiCL+AtVneRkJvFSo+mRsfgWcETi
+PawBiAd2YejRKRIi+GWJmWkhWxDagg+LpfFd6aERkhQhwtZsz9Hs541b63FB8uWsjv2V2kJ4o+6p
+KEuwscex/9JjHiPSSpXFtaM2C0QOgw729cye52ltpRmXpWnB7Ehsgwz3oujKhWNXEVoUaaSEkSxg
+F18mtcVmrol6Tpggx0p2h+yoqj2/om1cQLB2dDDVmJjMka1Bue2sMQ7VTdpq+UlCm4tdQ+dALiDc
+ObrL8zld/Gqc7WyjkJCjfBFL8yTzFNSfSkNkoG7EFFlvNSB8C7iPPaQ79rQti5DlpERhRZQNhri/
+jQ3iZGuhfXMi5WsaY3hE7BILoC2BYnupOYHbMgJ+JkW4TWKXd2NnnpSqumHf5jsEWm5L3Yj8UV2q
+Xd5We82iwC47J7xLKG/aWn2ukfLulTnFSdnmw468RpA5EAxNvpOtqRjOwVAzx0NodtLX5a3Z0gQY
+xhUOsTj7PlB8kjAu20aO1zzghygh9hoy8qVqpyddbULTIMubJa8+maci2Qe9PLAlugx1rXpiGpsu
+ZGffooy9IaZh2+vGRhItvwEV9KglGqLjtgy2pUlrr+7us7q6ap1+H4nia2aXuS+L+EZE+nXUKjBZ
+CBp6jsMCugbSy6qKT2a1q/cao0+mka9Plb7Vkipy4bpRKk6Xr9oYnGe1vOmMQHN1azgHQAeJzHJq
+YuQFDDx93RGZzoNRQz4yyvLHQs6qH0iNswroo8kaL/BLnQ6as+uG/NxslessT+4Xq73QZ6qjFNtP
+IMF9q/oOEjhpZm4c6NFOjzo4YnX5GC+4ZIFdqC7prINL8lb1deibm161vqBrirwwHM4jw9lzltq2
+YX/aT1QNaZijRm6ss6Vo2Yz2lO/n7oJe5rVVUVSDZneVOPKasJ6tonf3lHNI+hStwye6wODrK4pT
+dvfIUs0WeUzOekWL2ebZO7a6jyVIzHquWcQRm3u1rL15HDf6UJ2IogOcprTZLnGq74GQzS4c7Zcm
+kLAMYZe0BJ2H873N0YhimMjJgJPfJ4dNeQUuRCfqFhTH1yFzqL4XmbYz4uwx4TDE2lIN9qnRmQ/q
+Ui+vRKwOZ4ER3zlL0t2MrekNqgEQGppfXHBsnaZNWAcnTT7fpbl6WiwIwNoiuBpNaycL84ymAMLL
+dEPpd7if+/5sqaarlIPVRW1ZN0bWJbTxhcpUTyc0aSb7EPdJ61lIrJ8JMSYZIam+gFDQn6Qx3seF
+1vrtICa31WOOZWHWeDIPrsibJxLVWRTfaVNxGggz38ytxuuhO5RuiXqer8i3uyI+t/LCVh1PwWx9
+W8gro6VrjmcsNpVrTTN9mGlabhp0ngf+DhF6xB7TOjL4hvM4eXVqxfZLYyjR7wU1JXGn3y69bLod
+rK1K7MZBA8DCatvnD2kw0XRt0xZqpAFBk6jUuTWA7nTsoi45xU3lllpo3B/+DBg1gkjds01PKr9r
+ADTt0ngAN8Oxx6DQDkxhxa/Y9mBuwhHM5baEr0g3HQ9ryi01wGMWZwa9oqdyZSrZvTSZJ5Tx1u6T
+WaOf1a4cnIH/VOSkvZ1NtT1MbJfC6XaYAvFED3scAfCtcCTq8vFpoo78dDLD4yL1WCzsxeutxmTD
+1szOSYpa7rleUNJ6IwWYijlhTgjxlQu72abkrhQivf1EGcetKqNkjROuhuZMxnCl9iApIY3KiAOP
+M+ZsyQm9YUtLN738HgTVcAI7jpcjCpJ7q6oLr1Oty4pTaJj6Dz3U69sihAK3VcywZ1M7OYesrTh4
+VpP6IrPlMTT05KqtwXy6JdSdk1KM9rCdFkEzbajbk84OruA63AMrPEX5cUHGcZX7TSfU89yaHHrG
+oya3taEEUK9k2Gxp9l80OqFnlsPBJ5l6eK5wZIF8jJuEekzZxMLLmBcIdqL92sAr7zWoSsuVMWY8
+BJLS9Mg8E0DN+poVM9f7HQrOe51T4GlkLRdKSUW9WeNvM3oks7ImAf4f9s5zOW4sy/NPhAp483Hh
+0pCZFK1IfkGIMvDe423mWfbF9gd1dReZYjNDPTOxMbtd3VUiRXOBa88952/MedviZkxBMaGm2+bH
+EuN1W9Ww8Zgk+aHDMsvLF/0b59BxUpFHq5XbydSjYAf+gjqdpgTCF9EqrNtgFuWAjH7chX7W9jdk
+toJL8K6oFClCOt6FJV6N3igM2U2J8qGEzCReHpT+shq4CD7F3eWaqN0sqgG4rqQiwvuUY5NeKHp5
+EKPZL5Mo4v4xyCC56jKVv7Vid5RJBgVy6XbUu9aiW3norMGnGPeSyPC4RgQ/bSTcntCCDjfULyWA
+L0bEzij7HEZfc9IDhB4WZnUhRvCOYso3XB+5+EfkO+AsWsqhLOZHkknfhZCKNae1+EXVyn0sDuX1
+NIF0pPg1bjiel+I2SetVpGisFf1TqfbcJ8N8Db2GFrFJruRWgyIDusy2WOJ2TTlrTL5w+6F3qBEp
+eIjrhGKhqCDCJDYy9QqROlzqp1mG+lSZ50gilUJpesShLH81NFZ1Jbi115zd4eQ0dV/4I35V/hJT
+p3QDLu4ZgBll/owI5QAes2ubb0Wc6ZzpY2ui/pTmIws6VKOxOTR1lrc3TU9t0DYadP98EvFD4+Ez
+CehRb6Fnf60Ly3icozURF6mD4EEEGwtHnfG3gWeyakiNCi40/mSmjYhfcsJJ0SrC+ILxuCbsi27G
+OQGDhRgYRsJtVcRIXIK5e0tBsLuQsNH+pKIO+SOuEQ+KwtLY5qQUidU70npVJX4tFfJxNrIEwybH
+JfneQH8REvP8qZrbwc5Dsd0Zff89L5fcGZlAftBPhrSnUoZd6lh5TSl31j6azGHZ4nDdKNdod07g
+ziWTQ4HkYEpJHgRWsh8tYR5dCQpkeNHqZlVtOgLWbxTE4hEUtzn/qPUQMj+y+6vuZ5rioon+fR8c
+R70s9smUBqT6C3WIsUrPDWWXKiIYl6WX2umixZV0ctOaDLIn6BwaYLfFOCETg4WTHefIee2rjESv
+J9QpGy8mWsEVpEl9dkqxVB1RM6dHChHWfTTXIkaifeZ0CQqhMdmqYwbS5SEmuCgXpdmJcU5miRzP
+dzVYuU5iqCVfRkPPNuiPodTWjrp6P6SZRM1D1JCDg6C5X+Be3iqot21ZCZZFNoq2XWki9eKIRWRM
+l10pRKvamxKE+cFAAkC6bRNUD3z2mKKGXQ6hc6toMbTfYeLyskvloE2+LI1Y33IdpCjJxbVePmXt
+GE5fpqREnArA8KzdaYOoZV7TiP3iN7E2Ldu0KoTssimiJCNzZ6j3YyMWxQ1BcFVcK+YcN/fYCWjh
+rgtmaawpF1sIq6Grniygx/DH9LoFd3rK2oWlJTYauflyaeoBfYD4PfFCgNV3tC3KctV9RPIzueNV
+0IPF5LCXEBpNGWjIqGF0nbUlmr7smulTAP1PwNFTFKQfmlTnLzFj84PrtpQ/1sDKEFxEqRCL2o6Z
+GaFE9YKFal0jCInihxt2Is84ypQHQGLAvLkKULx9UTFTGj2BGUMyEpbtRYyxrenXNaKhDN3IedaF
+pYUjbJqi44fWPtXWQuqU24ATSPpEqNeAEIGrdxkK1mD4LJNacPsRigCIAhG8haGpFv9Vi8WRgFLp
+HoKd0TW3n1gn9bUqyC2NxPQUZiRxPcLj8FsbKIFlGwK0rj0bm5A6pOYWdoguYFNDublZnzmLO09V
+e7ayKtDb6YjsZ7Tr4U0je5cZ6/29j5nMnZkkugeAUBxcUoUY6aLJjNSywco6gurKwqtJAmK6T5Le
+QNiBGgCYvEF/lPvIeALMoN6wRxAFGpXAXl8bhP9d5NYdgZQ1Em5S24hfhiaMPKNr+uNS1sshHGbl
+JtNiyB6hiTRdTnbHHJRdjRXsw6wH+F/L7ZaCIRgM8p73lKr1LREHYdISV8ExUfA1XVqzJ52J9HG2
+1MWhlIZ0a1YY0Uur6K8IBaPUzAAwgjIfKVMjhVriOlDKgc4uGKrHJojVvakKklNpyk4wl++5Pu7q
+fEatkdv0MuXwBmWrcudOujMbwEwjLvFPulQUtx17+HaSMuq6VXfTmogH1+aNSorvK+40d5aR7TWR
+kz0jJnF7UdZvi868DK3q0AwCfpDlvEHCD3ZnbCBciDIk4MnwgQLwtwFvEB8kmLQ38tUrLEmSmdI5
+fWFTctYyCKFdRmJH0//GO/t3qfGk1EhN7p+jpv9X/qX63/9xWmTkR/6OlqbIuAosQSZCGATFQQqX
+f0dLq3xJl1FWAHXLlr/SBv4sMqp/qJCPIPBT8UNZC7HCv2qMEuVHvrKWH7HIkvnnd2qMK37+rwIj
+MGkS/NQ5JWgAkAvUta76mqKoIDKccJACOwwxQtxEiP0SifFopYcYK+VGuSik2V2GEpybKKzAilfd
+9V6R8y1oYH0CVaXIQOuoa6FEsz7hqxIniNagT9HytLUaM2UwF/UYbGdKhs+KmQePkdZiXhCrufSo
+JWWMKo/QwpNNlTr22lkZET2aZU3cND36Y7uEmAfNYRiELx8/5luk98+npIZFkGewX6+o8rdPKXLH
+aaCrUL7DVO6mg6twx56ebD5uBYzEm/EAxqDz23EDk6n3QmYy1t561RthTOaT+GwhZmiCzDakFj++
+sjX0r0mn4p8OThgjzkCCqW9yWb1VrXG66nBqujPNNq2Rro4DHdA75uCe0CJejJcFilhXVTpb+NuD
+TFH8cDIU81IozFH6FFhzpB5iM5zkW7WUZtCQsTAjUUpFs9+FUqksnliCRNnrySAuD6vFouxLvV5+
+prJeKM4cprXloDiLbCbSoATNBCCpMyLnzN4pVo1+PUrRYDkmt5ziYkIdZyAuSJfBVttMDXwTgL7u
+i0glW26qUS5xx0YmsFGVgq+WsAvHqznBjNwhYMswVyAi4gg3C6ONbPTpRWihUibl7b41IyN4QDN1
+MhzsyIkFZ+o8W10dwP9FrVp3u0JOusmljhjE26VEaQTco1AtuzBdOXEZN7rZiVs4iHaJHXHiEMVF
+5UbAeqBxYk6CeNeqyPBzpe3SAxMWEXH03bknozlvkADrxBHD+LCVH/MkRMVXgMBO3tRQUODOwHSK
+KFiZyaO15FBn8d9A3Cke51k+4I85pF7b5osM8WrRj7gAC59jQIP5em3pCg6u0DS9FOwoSzNBOw0b
+e7Bf9tRYnMR5M0gtwtGj2DwUgMGsHaq/cuIuYGMbp1YTsXoIoW50x34CBGknXaPe6V2TqR65RcHa
+Gssg6rtMWLB8GYN8Qsm716v5OV+KLr9j9lejS3rBvK8aRS53VP1HkIBpofQebrX1N41C3T5PJdJX
+EZDVZkMqArG11JKs+hAL2qgAsop61UZEOCMWKgbsElJJVeNPOZanhCH6yj+XEymVnBRLM6REwE13
++A42o8bsSZQ7GVpZ5ImBJNaumMaq+TCFkpo/BKOQfwuLKjHtWs0GshFDq95TbZsDR0HdnohqTGeZ
+4m+RUULvF/MmkMroMZE1/auY17jOTVGVgNkvxmkrKkskHMda13swqlH9aEohAPpWGdKnFv+6m4x6
+3zc91rp8W6GIfF2No34dlSKxS2wOzVNoSs3kyFKr78XQMqZbvHZmlkTLnWKDfYklbkbM02pPNMBT
+clG2Gm27kGxnSM02fyglo/kxzIuwa5pZlLgJkvoBVY48tANUJaxJtJIP8DVVFo7SnFLuACarfQEe
+KbDGEw4ku+rkWvWqqB23SdIhNtCsiS7dnCUQk4Sum64L8wn5JeTLSYvMyJmLEWZjzgDLzG0Qy+k3
+I2/zpGBGmjmkIRZQ5unAAMYIlSPWjK0rC6wZ+3RH2ZWATh1MfBPbKrBCu4qncXDjWWinfSj2GXDv
+pDC2KbYxqF/noym50DwwaJDWppy+lKnnF1IfqE4Dsl4gASwzBVu0Y26gwsqfW6UEki7PVnsPTDS8
+17Cq/xGh7nktob5FbBeD0PItpVPujVJ7zHQ5fkkR/fpccmFexay0mcu5APsfl5BWgv2PpPy4Naop
+PvZdlBiuuETLuAmUkZKw2beoRY1AH2qu3Vof+mNYai8EzSq5maRPcApXDGGTdUAEwcgUi+z1ykh0
+14YaUD1SL2HoU2/hsheFc0TecNaMB8mcrHFjxHlzEZPnQttxDFfQ5CwjRKKpFWUddKjLr03Sdt/C
+XpKQQKKgu4chsLwIuKE/mUIWh5sJCMpXaxjHr7AcqLGOdWu3A6r6CJDl8mUD0dxdJqP/NFtV/ZkC
+w4tch7HqoCGgPMlkuINwvBnAUH81mtrYjWhVb3ouIYi+Lt23uWngYtbTjMZlIZbCgwy2+Skdusgi
+KWytimpzWD+NJKgvrHBBUkUu6/C5p9xN5SrogTYrvdy+FCirZ16UhPOXKG8v9QmJXT9sdOk2Tero
+pbOwlE6VJL6PgQ8kgEX6gHLTIpePFTUTrLtp5dixOMlWcA2Tn2e97PQVHDuM29FUoxmYf59+1xOZ
+wquZUr5jQwoa1Q6MJs3dKrLQ700hYnxa4hh93UIgx28rsVLcpsBXar8JSOuHhaxXbjYa2UPBPVm2
++wzkgCtY5IeZwaF6NVpK9U3hzBDsqU2Kb5aJDbujV+lg7iXSoSFbe0ugjdj6fFVGQz9THJBDcQ8D
+1byZcI6ydisM5Sqtgo6yqAGexDYGhtrBcQOA4qJpWXNQSO9/ifOQeoelDCzqBZdXxalCGWDMmJqY
+ITRL1HzvqWHC3y7L5LFTxUoEMV0nxyKJk0+9mABvDAWps7zQWobPOhActlDAONi+wOKn8pdE4XUA
+GCp3LKMaJBetYbm4TI2MZA7G5YSCZTYl17OytNBIRMt6YlLhDP8z0vn35eHV5YHTYyUf/vPLw6fv
+TfElf+m/lq8vEH/+2J8XiJUbCcWWKPnvjMt/XCBU6Q/0PizJWAXg0P3V/6Jbin+gOYTGCTyRVZiQ
+D/+6QFh/ACjRZSjEXDtWnKL+OxeIn7TAVzcImpVFQ4FOiLg+PF1jjWhfRawLl4dCi6TrC//5KvTs
+3cbe+Vf+zvb9g3/DPzt7w0e253mh7ey3+x/byhntH+52u/0x2te3Z3iMJ6pAaGiePA8j8Pp5VBFX
+ooTncR/dO39je463dV8N0jtXFu0tU/LXJk4uA2kJek+KaeKwPdiPvusPtr2znza+fWP7tk2b7tZx
+3QvHvfCvHdu7cM88gXxyHfnlJU+o4GRfWxVx5euDf/W88+98+tf54mz3zu2ZlqQToPUvL3tKo29l
+EDaAy64PjPAFb7eO6/o//rx69g9b9+pg7w7PB//5cFXbrn84PD/zRPblZmff7G42u81m4202l/bR
+2zp752LLTHi6vHS2jm1f2s5xy1O7Wzps6zrXF47t2Ftvf+1cXLgO02X78dCdmx3miQQQKfRM7pgd
+vnv9+HIV2le293R0RPtct1nrCHywLMyTi3U6GMYA8e36wj24rnu4YkkcWBU/J6Tt1/YVY/bCqrDp
+sMP6Fb6RBePf2PzVji+u84j5xHKyjzZf4qN1Mu92myN/bm/pS3fvXB/oN9bbwV9H33Wdo+P7O49v
+5PP93nHWOegfmCNX/tqhkb1lxPgZxst3GZELvpHefzxcrYNw5fIzH3f52Qm0rqZXG4QZBqWAmTar
+xecdeTp7c3B3P7vC5hV4Kv7vnBkAxAjODMC6hF41uxjgacZ1pB/pzsPt1lk7gQ/cK9e52O0OTLpn
+Ju6Of12W8G7jebXNh/6WLj24W//Z9t1Hf+P7z+7u6orhYE+7uglt+zM7nE8vMk7engXxaN84e/vn
+bNptdle7m++70P5+s/7Sl7ur59i+W+yX0N4x3XY3N1c3fPr9Ozulb7MIjrcsWv683t56t9sfDOx2
+e2vf3ex2k22H9oZV8/nyePx83G+9+91+++322vE2zrXjHhzPu3XtL5frCDLPblkttrffX7IJ7Ld0
+t8u+83Mj4s1/sCEdXFbXduvwejtmzIWz9Y7MhJ/f+HDLX6/r89a9uH58dN1b59uZefAWy/7rRnKS
+2mhB12HUyoCwhTzSEUwE59JhojrbC57Vcc6dBCsS/8M1eHI04aOlQDenxasd09/5sd3FNgO6TnRW
+3BUvybriU5YL/7H3jPz6qXvl37l3u5uD+1gy6Bv78eJlXT888NXG3tx9GtYdnmV6w6Rxbj1WmVfZ
+3vFLYu+ZZ3vXlW33mp3w2bLvveO6rl1763ocBfZ+3Q3OrDBp3bQ+2mtOjjxY+HWy8J4H9/luty79
+24+HDtWoMy2cnHic+5Ig0cIFE+eKDWc9By7WvuMt1w2IqcVEYn6xcphoF3QV05tti0/pD762ZU4e
+XG/Ph3y3v6P7t3yV84OPWQkOa8rlvOZX8uvXb/FLfn53x+CxWbD2fm6Ia4s733nmW3gE22EU1m/n
+E89el9OWdvlefuOnzRW/niXAr2Ip73beutseDo8u59Xuzqaj+BkOo3UGsnPycPw8v2/9Zc4lH7BF
+HHgiliJRDeP64O3Xb/X2O8b/+HPX4q23m5KXZ2ht39syn9d9ft3DebYNP3njfOG3suic/XFd2ms3
+0VHrTzMxcnYchsvhrz8esrdTX0c7TaRIgL4TniYW4nPrYny1+2EAiZkGuT07xLbsGC5DQA4kHy6E
+SBs8QDtcPabpnMDh21nyZ6N4mZDIlVUwmSc7PYi2ThtJFoJ3k9PrtFoybzFn88yrvU0Y/70VoPCa
+Qu76bzoWr14NW40QDzZeLSKBSTHXAnPOZRFzMVCF54xh3nklCfElY+1MBUWRk3hB04PAWGpwkBKO
+p1De82BTolXqfzxa77zSm1ZOgoWmLGWBMQReCt7azsfKvPlJt4mAEf2moA4Tg7sCMqsiWr3cAU6a
+6nsp0sksA8A3LG3DNVoEKr8Y515I/HUCKmjac3MBJ4MVg3qy2y/YU63+BTBKa7inrhxhRWJX2Np+
+zsyweBDiErRaBHxU8FFqHA6dPMhYz9SBiIxIlwFNw1yAXFEqJNFuVnrSWzVgUq8LYlmxp7EnAx4W
++tB5lYExJzoTQj1tpmUaE3ctukLDrsQkv44mFfwmpOZAInmmI59uCmJZu5lFDwNmS/uJZDLWtjal
+TgjAZpZqP5Zy7Asvr5p8O5O0Hb1GTwGK9wFiZhsrk9uHEUGtaC/Lg5oAwGDuTYjSfSNpbDXOGAU4
+FhVA+QFoTzl00hGbLgnehEqarBPb4gr4/vSgtEpeHiJhmVEIwVqYzKk+snoUqP2j31JPVe1OxR0Z
+nnkYkp3UoTO4VH/rxhUaDfZiEy8qdoVATu7xawIJn6uRWThoMOOvgQQrWAdDaLIGM8naehyirH4q
+GxjO8J3qcrEDGLKxE1P+tzwxstTDlFLhAadd1aR/I1CfXpqaEXDMLLW+LWIvkhyoSq1wClJZuT1P
+fQvVRsxxuw2CJU8PdaRiemdgDav50LCTa7ShcBclf67/0PVK+pEnABRgWRuzdZBMBIm9GUUJSsTA
+649dKtXKNitjECaUWPXS61GcvALpNZqYIuTql0IOq9sWMZUnA+eyF6DUcKKMxhx6F0++BPSWLiYH
+kpyZ7qmoYbf3OMZGoa/D/ZicDktgIKOTVv8ougFITdJZI0tbVovYq6oFZF86TLqD0gdPUKRlhF0Z
+7AfQ9QtSG41cR6D2rfQoFWU+ukuZqoUrhhLdEjN/BQpSlH59xRqzp74f5NlJsPs+DKYI0yasc3D1
+SqUCWRZALuo12U3PyhQr2+bVkH62JgDzJPJRjHCachW9wLanSOwYWS1QJUpq3eZtWTX+bC7YaDZ1
+HIfUWSaQIYpuHig4gIKdCxOSfYrtbu5kY9el2zZKp6e6Gzp4RJKVX84CnrNIyNTGDzWtQtVmKnTF
+UdWwIdul7QgWJZCy4ZrMs/U1gy8VobcYjx1eI11+I2hVk95NA3PE4wQR7qcZEB0MhKF2m8UUrjGv
+KQpPUNR+j7xuXvimYFajbWkdmV+EJGA/6GKdPJRxbWES3c4ya3Elo2MlCisfKKpGISYPZ4ov+H1B
++AI8rtmRqgKdahqT3pK6pL3WKbfCxZv64lo0Y2OwKbMP0bZpjba57JVOWz348lJ0g0nCMhhjImQO
+hg7SCJqORkvGmEr9LTo81udEjOWvUiCZOMuLWn3bFs0K5xuhVdnIGBSZI8qTvO0CFE+8OrX6BsSo
+QFYRHxRsnskM1ltUs+XnugzM1J2xkgZwVyzFZYPDAut+6MUbCAlstVYLetVWYafdd2NE4QyszErJ
+nozivgVRA7emVud4Syl0ruzYLJrMLfu14DWyp6C/q6TZETm0ZoRYGfW1204q7G6Sl0B4wQLGFham
+TfiUimP9hJ9Yvrir4xb0kXAeNRvKV7gaXJrRC4L+6P9UatPnbhnFwV1fQu1q85yRWKoF/kiANDJ/
+Y4565IYKWss2ejnS7LCiwtaHhgG1goH/IZPVvAiAm4C6FpfpDqCX/m1q++BBkwKr28GysEgJ13F4
+Zw1K/EylpH5ojFFb6QOz8A0g1vBFSFWKBBGAmFu1zhqStY0Vf60zZquNMYtwj0x//CVKC1SZtSaV
+D1mK7ITdSgHWVsFQmQDl9bi8N7D0Rf/WVFtkcvQw3ndx0j8F7FMkdsMxf4hIbt91eT/n7rR01U1E
+ERMzRTyeUG9AQsOrqbYch6EHpD5ygmhg3RoThGcWoRMOoLX1o6ABWEcHWJguSAAqnaG2gntgglBh
+pSQ1v6uZlt8CyJEgn6NHDf5ODMJ0A5pq3DbCHPZb1g+HVgwd4BhblYw0YdH2jokN+rYMVXhbY88q
+38Eg0u4F0TI1v0Pjwk+iSi32Btx4cP0YBH0uQvqIfq/7IxR2vd4FYjDfmThHrr1ZqrB1cz1BRhrn
+Vp2OgnnkyZWgaocsqy5myuiPbTSsrhjQKMCFV22MKWeSNgAaM0juDjyu4AKZFK3eC0NedZxoCDHZ
+iH+oO00BUuoqsryYYOyR6d4s1jClTi7q+LsJphYaPqQH/QHZRFQ+Vqnr4JgiVXyBI+0s2nHdw+JB
+6rf/0g2a+thKY4KKUaUBLtRkHQWfJgfypkRS9LkVeTRUsPJoAxhBg7S01O03AR/x2tabKRjdISkQ
+PrJQMBqdocq7xbHUGQkPse95v7ENWT91h7OvWwtG+JWNR5N3YioCku2rEuB1EWFrHCSW8BIOAZNL
+hG6FQSyexzdIHoCLSnWmG1wQytbuDDOvdcTFAGpVqgXgThzUKXyjEQToMzDiHj0Sa1UYEIQ8wi+T
+bP4GMi3kt1CvQMhFYdqEPh6A8HDDWGBbEHRewV3AO9wZ7dzBcAOm/wMn1Km/5FdFd4iZT7JjQKPq
+Dwmk76sGHzvIRdQPqZ7NeBJsoBdGuGrnGmo0eWSVjDlCEwLdMhDzkRUWASuNzWLgMZgjhdLmrS5v
+W01u25uwaMwrqcMtAsBXmF1OlgQbGW7UcDtPSRf4clmhOsJEknwcT+EyQ4q0yoTSrlAovGQjF+lX
+owIu6U7lEt3PYYzj7bCkV7NaKdexAq+FCTvARZoBymdIVxR+uijfQdUy5B0s1WtTIOK3UcgRJiek
+4H5bYPPdO4MV6yLxN1OlCmIzc2cpCp6TqqXqpzdCsjfmeeicriyoQeZqP+p2DuHWckB+dRqITyXA
+4iyputTF4NWs3CKeiZTmKMcVj9pR89gYKWfmkiirSyyLD792rASOvZbF0wqNBotM9KE8Qcutj3qv
+BVfTXDLr2hXYO4L1RUZ8Hr//RARDJSpMpxLQZYKwXGCHFzLrL1FtyZ7VXky/9amohK6A7eMnUW9m
+JGnqoGGFiFY7c6b38XAmR/DLPYZeQz2QHD2gXlE+RdnkgItbTKMfrTid3VohGJr09JxA7i/XmLUR
+8EoE/GThUSp9e+mE66TqicnpwxFoeUqtaHulxysXqfWYw/rnnen/xwrS1xKtsFUCNIQ3/roUtOpO
+//Pykd18WeLs9Pv/Xjcy/1glOLnSUJYRNVUnP/on8MxQ/qAiJMorwAxdVQDb/wCeaX/IOpBVaNuG
+YnFB07nW/V3cQlH+4N6IxaS4uuaqFJB+q270NqP0C/Ds5GL9F/Cs1tDW4v7TdQ0MzkIt9+GiJd25
+C+kvzb1FmZ2kyP5CmUkpDqDfpiyVKLwWgJ3UW87bZvn6aiTeqRG9XW+/4sVO2vsX8WLnE3NrFvxV
+MuTfibn/24m5c6W7U8Op/0Tpbt1uP0gLWydL7F+tdf20zvmonZOU0n8+sX8m322d5Bl/O999tuhp
+rcv71bL6n130PFUQ/ldK4m+P/l+KO9bJ0f/fjgI4V/s5tYz4n1r7OYdFODUj+6/HIpyttP4shb9a
+LP+utP53V1o/3vgJ+d/uXv81FXd4Yx+eN7J4ct78vwt5eBv8AeKHSEF5AmSVrOOva5ycHsOyWIBe
+ixbhIWGADVQNDn7MnfdxiPl2lP9sBSU6QyVRDg3kpCZbBkBtTQWhoaCA3xb0goZYwpQ9h1ihuHFq
+CWeM0H99K8TwQIyZIsJ3GNacnLqZtBiaNZHt7RtL9WNznLCYHKS/XeveWDF8IKlP32ki9TYD6gtX
+F+3UtlfqTfjjIlTUREUzDFfJfNdV0+L+bt/RyupHQAURwsWpHydkWTHqDMhvU6pGBuqYExn6tNE0
+1KotBLVx8hiju4/bfHtEruOFLIAGs0M0uUehIPh2VaIoDa1wmKGc14W8FwVkG4Y2TfA+MfUzr/dO
+U9z8YNNQI12xYidTQ65Ql8/7lKayoSJRWCx+FfcV2PA8O1NP/HUWapRkKfNhtgIOcb1Lvo6UtEov
+TKFA9wWhm2TXx4m+1bm+XWJhb12NDRzgj3vxnVn4uj3jZG+bEYQp9YH2mkJaqm0uBZXgJYMen2nn
+vS7UcC6ims3rYY359r2C3ES1lhol9pt1NDgJpInZ7eJ+eVbCoT7T2HuduHpjoONKkVk7NTm36kY3
+kRGrYWHLqdsPjXyMdBwUNZXylj6Z6pls0LsvZyKHKbPONP1UqHVQ+8DsYhlhwAxAv4Z2sUcBC6Iy
+Jltn1vN7TemiquAjLEvEiSeHgiQgnCtM8MFnlLDcTs70YwuFyLbysDmzwE5KzusC0183dbLABooW
+TSvxVtpSXkWREW5MMlEknxX1clRTig5m//j7s/F1kyd74qAiojVStUTWWsxJcwWaj+Z6eGY5vzfn
+V5Fb5MRVBUzHyVxsrSpqFiGizhZb/ae0hH4hIBD1e87ff+s+JjuLWVc14xToGWhI4kWWUUM3y2Mq
+ayWqmkOpbz7usfemOrU5laQUOAR0it+uq8Yy4iauf/LSMIt3qOel+0zPgx951UZ3FvtVd2ZxvTsD
+V14dEQsWQupJi4kQYaOlKzW1dEPfZEOPVIwKI0I2vI9f7b1hMkRVlNeTC4uw9UFexcFoMSLpT2HV
+RvDegOWCRQolge7MgjpBe63nCGgrC9MlCw94DpKTHTcSYEpkWrEqbVGlaQsF1sgSJRSwq3CDiAb8
+bV3bBEGabhStG5EEGAqMPUU1OrOL/Pq++K2heS/LGs6TBD1v39eKc7DWA6eMRNJdvy5Qr2l3kdLn
+7ZkRlNZl9FeG4W+vjLI1Z6aC5K50Gnog4mBG0lQ2doS22x6bmgFKfaXcIXBxCDGL2De4rXu4waIM
+RfsOlrgo5BtOBxFi18OKPhMK/brT4F0msSIpl6giOKS3b45UGOrwOA+gOG1S/RhDCwF8uYPNQyUg
+lKncNoN+0/Ywk86M/q99TssyOBUT67Jfw6NZVgCUSJwUk1KawATwTFnQtD8zsu++36tWTqbYPFTW
+Eq4iHgBoBxd1eNkZ60DAhTq0Z+uJkk/t/u7a4b0YYDpOR3TzlIdsGmOhEFHWsHnNxhGsSXUGlRLY
+x638uvnQCiL7ItrkElnx9euvVmgBgzNtDZA8aWjpN6U5156StskGhlry0sXN4n/c3nv9yJRdeRYa
+6+R0R8C3hgS+xomkJyOCrwPa5BdyIIaOaebtQR5mq3OnkCjwzHuea/fkPfU+nOq6VFGgyosGccSy
+3FVgWA4J8r0XPbZZDpoY0pnt773OXaNNcHIE8IDm3nbuVJk5lfuCzo0l7RGyIvLLsjUkiHRYKBtE
+hdB9/rh719/4dluAsSatNGmcBClmnOzsvRKOhdbChxwCTDP0GlyUklNBForp98NOQmkiGMBsoqgj
++/325VJ1QT5ZV5FeAiDjienS+1On/X4wDZ5RIiAhEMQkTT0Zt2LGNBwtMmh/RjVulJQqP4Ip1yKi
+RnbWiGdm5zt7yZvW1ln0ajVgsIzMh85uJcYZ6DgFIJiOHlOzzGdmxhqfnIzTankrrrMD32XpJH5h
+HWPTgPCGjeF0i6C1kG9wSkJXNNdM4Hv6cDdRJU9tlCujcy6Q7ywFDFypVhFfcyFXTl7SwJIGJjin
+/yJ01i0CgvIV9dHeoeRc78oGEyW7igLtzBu/MzNRDuKiTISNvbZ8ckBwJ9E7ZdWyAQLT2xUYL7uS
+EFuMMcn6/b0altfP6FrnmvKTn/VqFM2qnVs1rCD6R+Vwofd1v8uBP+1jxB7ALBngtzBm+rP6+k+v
+6e8MKSkO8g4EIvj1/axyvGq1iWp56cAJQvVEiMnO4th0R2xS9lqp9KiNlYldmKgY1zEKSh+v+l+m
+7Xro6qoiSyo+G/LPzO+rptFnLaq6ZkcJE1A/sogkNLmY4fBxK7+MIK2QfQA7TcGcSPVkb2mCCRHE
+hTm7gCZFQLhHkosrbrZVKqM44+D93huxuxB+mmAKcJZ9uxBTdYX4Vaitp1YxIeUG9uh5EOTMODNV
+3n0n7M8ZMjIDv/iUxkuCXJnYA5WSQAG0WKhdiBlWSzU4zjN7y3tNGcx/UcG4UKSi/PaVuhFjeTTP
+aKoGuUraAyeAZX4C+zWfCQ7f6zxiIZYAmOaVDPm2JRS9onjCmMNuVDHGZJ1YNwJa5308Hd5pZT1m
+OBrpPBG+5dtW2tCILACXbGEaam4iwqo4wmHs9XEr7/QaAfWaz6MNzJJPWoHAX8lJi5fZuDo9AJKS
+vXIyk+ugDpenf6Eptgucf9mkiGHfvpAho+kvhCAcVZTS/S7FkixVwHuREjnDw3mv68iH/qOl9euv
+1mtRznWwzEgUWvrwgH+t4hVyUJ2Zb+vJ+OaIwRac9OS6/7HvAix/24jUTXUO0ri0Jb0UL2vwzbe5
+MpY7K9TUxS7Hadp83H+S/F6Lkixb0HMlWj2Z4UuNtv9Y06IaWnQggvzuVKCEGVirVClenSiSTShJ
+431kbQqgTT+EWcDVqcAlQxnTm48f571OZiB1DR0dUULL5+37r1Y4vRkwcwxrWFyhEhKPFMH3328E
+lToki1YnAnIRbxvR63GJ2wrc5hQ3MgySMdE7ILNWpZ9ZB++NJvbQpI1ktJNApLxtKFAB1ipIU6C9
+V0yAqBXdFkfBl7RhW4DgO9Pae31ngpSwTGMFL52GCMj0oiE44ItodFpwkQ5zvavYRd3f7zyUNzD0
+Bn3PnniyTxmZ0Sg4QFZ2gkr2ZdljwTBpSA7/dit0G5codkQG6rTn0qIUUpCBa5xq/B/qzmQ5TqVb
+21dEBD3kFKgqtbYky2o8IeQOSHpI2qv/H/yfgVVSqML7jM7AX3wRe3tnAdmsXOtd75N+Kia4fUbm
+pP+aKkL/o5OBYNvgboOF8evv4+N6obRt7kMoLK/BYJhRE1f+iT33baZjGwZjKsejlsLN7WjnKN21
+dvTSA3oxxNkVsmU8odviot5aJVx9/ORPzl2j6fGuxfjnknz3hSua5sT58iaA5EcYGGNQJiDb4h8H
+AjT/AI9ICgIBdzTpP5nTvrqBJKGPV84wTVY4T6LIzjtMhk6lad9ZBtwG0GKZlusQZh0tA2w5HH3A
+cSNYSgnLLNUxcZya7MqyEzsc+pj//ffZs/lw8UkttGHHp/ZgejB0dXYRO02zYOqtbu+V66mVsP3s
+13u1wSclQ8YMgoRwfB0g55zMncdndVM6GArgxudLhSLVjsWpjrS3b5ChfIswkfsHquijicpe6eod
+ZmZBnYOWjJa6AOuG04vxVeCI+jPFiiY+sc63ff/46Vh5W6aR7cs+Fh6keQuysrXqoKlKjW6d1nlo
+h2n93kJ9iwyjMr+TBpkvm9Sqz8rO7L99/AnfTlcD3j3tamTcBX7IRwcB/kRQ7qaB1qaiS6LC9X5C
+sfxGJ4YbADUtg8E+FVW+3T63Ebm0Uk0jy7pZTfx9vvfwQDPTwI+q0kwure0wnLFUqhObwbY9Hr1W
+m65GTjjmJ2fP0faJb5fl2FAkgk5CdQ5x58qe2nUp7ahrYvumzbHHCWhWImcEExMV7cev9Z05i76e
+cJYYkOyReXSN7NYGrys6+gOtiNu9k+DDFYrYSO/rvrPkicHe2fgolXBV9sj6b7vf0cNaJu0QoB1Y
++G5/w76Y4zck8mi0u8IAip06X3L01tg8x1Ov9mZMk+Lm9N1+hStUNSfuW++8eeqxmAP6hNebaPT1
+9zWLXnVrO7HZ40kWkj9X3yeXeB7UkwiKJc6ve//BwBLnn48yXgJldDJntAdQZXw9rl6KwmnB0gbO
+YuM/o5LYWg9iNOBN/Pu35eJl0y/BdfJNq2JZVTJGeYp1HU0rX8dFWt5uMUR8qTJ78E7Eje9NJPz9
+uLCT5OHP0dukn89MNTy2Apye9YsGHsOnqfK0aHRhXH/8XO9sfmiwGYaCokexz3r9Ao3Ydhav4rk8
+UCQ/pTKWrxj8jIe8Kgpcwdb08ePx3nk0cvSojvGyNFGZH11jCxuT9mGp2ddrz4+0lAJm1yVU1Pk7
+//7JfErOHIk8Gtnio7mRuWWT9Apmo4C/hSHiPAwgMdbKOjfMilzgxw/2zp7qE1PZ2y6nbwnH1y9S
+zpVbJCAvAqMsZQg4uYcd0lL4g+Pemz/V0kGCaTlrTtyc3huXdCND0mCDmORorgxqMgoQmIw70R0U
+zENmfzIXCo1dlaVfp41F7o+pdiK4e+czIlAgBMCYlLSdvv3zv+5rozfapdIw4GKaLjDrWOXYWteh
+5/Xuia3lnRmKBSrCAVyKgMj7Ry92tabBG6etgwuuXVgMq3lY3NE/oy1IRlOVaCcSLe89GtfqrXyy
+tcZvtqp/P1o7eUk7+wJrwd52z00s7CL6P+q71cdq/eM5s83Ao/PKJ4qi1kAjNe/y6By23dZUCVxj
+XJ+z4tNmmxlJ3Av3/2EUzl3HdKgGwrF8/UA6zu2l67CbtLJodzRP+5eplk7/nAszKDqSkfBJ4jqw
+ll6P0uMJ3wGuYxTMAL2QhoNiObPl5ja8OL7entgi35sVZKi2ewxBBQDM18PpmFp3QCW2Cai+jGq9
+xStxIxQSvXhAxU58qPdGI8e3SahIE3Ovez0afXfStaAZgAJok4sq66x9nyfeuT7PzeVKL86Jp3tn
+YrAjk4kWGHNROj3aJXPPbKYZE9lgAntDXTbVzTFKwD6fiiLemewMsSXGyNHakERfP9jc2EaqMtbx
+PIKOjkq0A5GXYxAbZFncffl4Ir7zFnmJlCYRKWBNfDwYTbZzBZGiCvCsg6TGz2l/wAJ2YjjJJHLJ
+/Nvpv++OnNhkS4lJUHC/cRioffpsZ2hmcsxizP+TyKZfjEyto+3sGNzdPBvTiZPgvXdKUO1sKegt
+z7S9hr/2xlRJrSk1TAS8vqD7P853RWlhY2jDYv/4hZ4aaTsb/hrJbZCFoQqiCXBQ2QjWyaOxrVry
+sQE33fApPx7unaNGeFthdItNOFOOHqxUnQ+E3ACqSVfsATcN7Qb/ABFBaW13eBcuF16bxY//YVB3
+21ZYDtyWjgbtSjFB87KqoJ94iRlSkK9wrL+mbtXtdbe19lOf2ifGfOd6xsZPVI0+FdmCffReodTU
+vbTg/3FTMoIkrS4giRePeNPKH3Vpld+cUu8iB/jsuTnN5YnN5m0svVWF2EKJqOm7Ol78Ol7v8Law
+0h682bgdTLp0i7RLXrS4Ha5pn493fdz213BsTpx8b3edbbqyUoijSSgcH0eVskWmyE8GsYlwiJJG
+spOWNG8//qBvdwFunQAIUL1y9hGevZ60I7a9WWbiY0tAnX5L1nRMI1X3dbW347n+pgYnefl4xLcv
+dLvnbs4ZeKFTlj3a5FJVaqmOmW5QqqzEtTSrnBsxrMDqOsoqe8fCWdWrEn0M4gbK7IlV897of6J4
+w8GekTj76Hk1sB8GnBV8RBrabj2I55B9HAB0IR4QmRFkVbxurfr4jJyRLDZ+ffz0bzcJizOEPj3K
+EhbdnUcLyKUiQZjMJmHOuXXOn5e8saeDmfr+/p9HIkVKZohSzp8E++sn5e6AOXDBKQltwKuiavUn
+UDA5Nf29i5NpeuLFvl2lFvMIwewmd9vsK14PB4kll7PqOU7Mov3JAULXrszhL8dk4FRV0+e8tM/N
+5DUH0CH2w8cP+3axMDqpdKTIumeQEHs9OsbXbj70jI5yTF4ajasHjqzMf16S2yg+hX6qPUhMjwIB
+VoiPSnsiQpw0cSEXG8zzrJ3/h0fxsRRFsM0F4lhX06P101Cl8SKntblBlB7jVaLr4ykt2Dsrn+Q2
+1DUTSwuC66MoivqpA1AY0+5Et51ItFjjg7RNztH7zRe+r7R/DkkRnOlbsQPrU25HR+P1CcjRdvtE
+miatXTH6xSeHvNcOXJl98/ErfG8uorykg3tLWKJLfz0bSuhT3LcWznxv6s91CROEZEIZmTignzd9
+p1+01NtvnU42zxjcNSeWwjt7DGEcr5SsE4L4Y22wU9C53+kE3/GcaOAlySje2H4BIlqfve7eNDUH
+HrydtfcQc5buxMO/jQuIsEAeUOwhA+4eK6ZqbW1Mh/RLYKy1/szHyFza4FmM4ZAmkEpTZIZ3iTYD
+ufn4rb+ztTEw+gI+MtvOce5fZVnfJiOXgMVo+1DjF55DQU+fDG/IT8SuR8udlSdQ9BgeFwD2cCK7
+1x84HtOqxCoCB/SpdyLDL/qDUY/yxAMdJ/X+ZxgwH2QRWfTHd7WKA0rPLCuLJDUKJYAIjcmq7Wpd
+amHr9von6onVRW5pN/Ecz/uWauctbtr/OJ3f/Iyjzc1u9EkR3GZR1oE8mB2vOxAYTocaMnaUC2i2
+rqUCVjOJN8SMu3/6rH9GR+CHYsUgk0oG5/W77uoMhgdc5chPkuECyvGy05Nh3NcZXOmPh3rvs/49
+1Lau/46gVyhDTjlC2RUi2ykLzyVz7usTn/Vo4/vzQGJLDG8me1x8tn/+1ygaRt1Omsk0ijM8bS50
+VLBx2C9N3p1bixT6F69R8T9Gc9ugKOlZjbi44cC9uUz/Pai12G3n1CKJcAVKrkEvtNGWuToRrL7z
+aB75PJM2CPpxvONQeaBZBG4tIZzA5Km8HIzCys+UVXrmGe36PT1AXsOO//FXO9pw/jwapctNqcXY
+XEZeP1ode3GaLTZGWLMuYwrAzZDh644ZuQF/b4a+iI1XOk6HZGiptn88+JspQz2fuY9aAbE9e+3R
+kdyNyoPpWNmh06rkTO9iLOYRvp4Y5WhHt3HhQCROGEWZFqfEY7nPUGQ0sNQm1jLYy4/hYhU1RON5
+Y8nNm4cYp3VZNdXeMtfkxHZ+tKv+GRqm0KaHA5aB0v/12xWy1iGIllZo6HVq3JhOM7YPmVIm5B00
+Lr06UY16bzzWBWc+sRxy9aM1mGJPZ8ZaAwgWEHVQTBgFwRsqQmdYuxPL/Z2hyN0LUvgInFiHR4/W
+0NGFL5Qwwphbxy5uqzWaOZfZ0truxAc8igi2t4gKghI7fzyHw+n1W5S52xrzgFPe0uv1ZRpXzQE0
+eRma+ArdwRbGO2saZCjL2bqaLGc68RHfrMtteEojBHUod5ipr4fHKlIQA6dmyCT1D9qqTBzFOhLT
+umYRH9T67b+uCosIi9fKvCVe/OO0/NcWBwE6B0HCtoYdm32WF9W4a7NUnXipb5/q1Sjm0drLwSFC
+S7RibHN0D9sptw6LGeUdRJnbcbScE/vMe8ORnd3E2TRS8HyvX6JTkTvN8FWM2MT0Su5xQlsy0PDA
+cYtho54D5dgtqsjs/b+/TdhOpAEI/Ul8Hy8JUo1o+E0NXGntPqc5Zcy6/0c5EB8JphaiaDI6VIBY
+8a+fDlxcAeIBhsnC4zwLvYa0O1fNiQzc2+2SBgjdJQPHTYZY/OgdSpz2k0kKGZkmVR/Hz+qdlmXG
++b++MEbZckSURElMHaem+tqa0sbXZNTYJpEZLa9gA/tT8+Ht9uGyJXLFpUWTiqu7/fO/Jjmp+nix
+Wl9G2rjUQZrqHG+TIc/mmGL9xw/05ojbFE3EVBaXF5qFjo+4rt66bLMsj1paxX6sGKLdO07S7lvp
+zFHv19pFQhL1xHx/7/lQQlgbXWwb/+j58GZ03KTlLcosbSkZI2XvzcoLZs2YTqzk94ZiRXG+cF8h
+L3I0LZwiHTNav6jgrJb6DECrDOvRN55tBIb/vJi27j00SGTUt7Te0TzX1zZbmgHTxWZa64Poi9+d
+5Z6SHrz9XswHyhHo/rdj83i/7S0jVzadrUxAb/k61OsaYeaYXtH32gM3boprzB27U7Wxt4vr9ahH
++0TsLjUtW3EWWQa027HJ1KEGbX728Vx8G4tQ1CSDxrFJCzr1zdfT3pmXDK9QLiWaP0Diyoc1WLy5
+Cku7MS+NVIInzabYOsNMNX75eOj3HpBDjJutSQyE0Pr10PPaN5o2z9yHXBcm22DmV7nST2WS3h2F
+pDbV/Y2leFy7deSA3DbGWNUzx3FvNXWOhsw4ldd9O+W507ARWptzFrW4o0tV7eklFNdURlBv4+FQ
+T01v7lcJhuisLU2lTmyJ27T+q7jIYzAcDSmQG7lFcZt8/erGpLLbdrVlFK+tfYDAt95WTgZIvNty
+VWIYxYlp8s4SIOuHjfOWNyc8PvpWqbJtbfSwVvY9og2lDGpWHjDrMy4qaj+iK78aPeh1u4+nyDuv
+lf0Y0Q2j4h+pW6+fU2lb8NWOMko4fPZOJdfzOBtI6dZc5k81zb/zUgn+XUpyLDxuVUcvVVT64omk
+lVEPG62m/YzQL0R94MOccgVQ+tyus/Kft2USjSDktwNuw0oexXK2N019P+DBWlEMhdtox/fupKyz
+1arHHx+/zHdWAoUrljmJYsq5xwoqNXhUAdKxjNDRe+FojE4IKvvnfxmETDR5DlrBjq/DugGf16tV
+GSGAnnZppesw28V64gR9My9In2wAVEpV5hbCHX2qmcsbxUVZR/SWt7cFafdI7zvwpYvhPn78QG82
+SOY7hvaEHqxvm/va6ymIeW63iavh6taOdR+jzIrPs3WhyTWq404XESf35MOTm5o2/yanQVgnpggl
+1DefjvsTUkkC5E0JQjP96x/BdS6n6TNvd4uj5/SBays8tOJmLNYeP1+3tOFGBi54ukIE9E/2sgh0
+HxfWHES0WOJ2JzLdKI0va2kt6UuWo8Wwz6fCb7QH/G/JUDzGSy4reeZpY6/9rEqpxX6oZXoMpDHL
+xyqXO31K9NgK06UaWz1SI+VeeVBCdtb9ODdCq0M3Taft30/X1npuvbRUvw2lN9Pjaq6u9akrva78
+2ea2GkJzWDIDg2ZcoGFRYuhcXgyNzC50T7qS4pgcl6c5rRQF8mpIOuntTTurhnAx8nESARU2v7sG
+AoBbgrTSwn8gvWPalzgJ9/pP0dP79DXnQmjJAM55bVQhb6b0orHQ5FDx4+s5vmg6WaqQym01fTEW
+zaVdslYyjqOSInkeygVC3dfZtjr5uasdDWNyIWIShDxL7TxjuztYa2S1eDc7Z127Jqu1U6OcNRUW
+egHO66xLe206qBKpFfTImWr1DoqATzNtCaAT+/SliXXMl+FN39XDalQ/i6YCXHhQkGUf257r7BgV
+Xd1on9DL1vEnlYkVsfNgYFGaOmPPT3VRljwZQ6LT1GqtVbV+adwGTatIsI7Yzb3eqnDwnELe4ijb
+sPg1SxvEoxMvXv+tGboiHUKSTNXwpa8lSddgrGTRpVxlY2GcpZap5js3m1XOLSJZB9y7C6lrmN4X
+Zjesj+7sFcnXzPHHVtvjIDCNxTmG1kN666VDM44BbTO+fTtNXg30UxXJhK/3VpUlxs4WLIcfO4+O
+fe5dVSPUw7oA9J2DbHRW7dYHul38sDmxzSQsNc1P+midOmn6VPx1Z/hSu6nu/DLX1U5gFps98HOI
+AqMn0z8cTqMPl6GtOxUlop4Shmchi3sZLyWa9aFx/fWwJE5VPftOrssce/Q0XThbisGbvrFXjqYe
+qMHO15t28JFBHrReLL0Fo7TqnCTME2UNXZCBLIx/9V2Fhy11T7enbUFbFkN/8m2gmfSs2/PajWEC
+/3Z5Bkq4GheT2djrVxuf8eSLJWJV3dPdOhcRREwInrRFrF7g6yquIrjLi35dYulEwz/J+PWh0FCP
+KFzBXQbvpta7Whbp2g8Kyt+69+OaHShEdtenekQrEUzQs3YpqLwGVWsvy3OFIXSa7kt9waYh8HJ9
+RSJSSa3q9EurM8tGhFsJXOhRqrS0hxaS+qQBg9XMqQVcDhqdnCI0xnJYfzopgFQ/itMeFVBg1Ite
+23skQpVPx5wB2MAIpL5W0zMKS00mAV3lcXVlmomGShWfH2TJwVL7Sf7itB0E+9BL9FW/c9MG8wS6
+dpZYyGBVSGSGgA3WGX6UcpFpGmhmIroh3PQQfX/hGZB71ae8xk29O+9UkTbDoZtpDe7DkUuB50aN
+5cbOVWVJtxzwLsrSKj1X7NYSjbQhVBNYeNjAZrQ1rcnDbJj8xjxfrZLt62tcOMsw3FWYZedi11fC
+m4yvXVxz9yG68x1LbjVJzbuGVDrPlz6iod7cNaAxp2ASy2DsemzufT0SMHm7GxAIS3vW4ueRSRSF
+qs4B3zvmJH76JZzOca/k4v5WTTZ5l4ae9/o3LzP7+r706MhH9YdYCeEhjaT1T9NiTw7MkWgBd+1s
+HC91F1zb/cIFeXjQVd0Vh6JIXPOy9/GjCtm+9O+eKjE4yoalOe/itThMDojcoJ3axAjcZEqu3dhM
+Pws6D/ZmIfLP1NUa6j2lJ3rn3s+cMt+RbupmM6DoXaef3WacaN5tLOjJT6ZF7vsHz5RZT8qVPWmB
+QdPEgZ9FycFI82EJ0SEU1gG5tV5c9ksVO5E7EaaHuRRm+2QNJoSOAGPrtrnSnFwUd2aeFe2VwQkc
+37R2Ni9X7HfN02obS/qQVKKNf3hr5pe3Mtd871a1+iqe0AK19b6vtcyLUqMZlwOx6qKCca4Qje4A
+JMS/aiCf3Q2y1azcz0k2i+9M2Zo5FxvIXW47F/r5TxHb0qWxsOM97Op17KxfmT2SnQYk0JnMauaI
+Pt86Vkl5SqsW5X6plrVdL1JN2rT223Nc5A9xAtGhOrOn3u29ve50yWyczVwUYlAEMKEh/vrLpP8a
+c7utpiBVBqDpsFeabX43u3keLDroq9ldIzo0sCQPcUJKkjkQIoUlG0x1uqlSu9Rq5z50l6qtfnlD
+CSgHknXb0y2bJqYSL/+fBO3BU8+IGGomehqgDFtdM8zrxcJHfDCGUlVspKchzkgP+uH5Y3yzM9cZ
+sqIPcc3O0BgPhkbG7H9wzV6bdOWPP6BmBF6c2KLU0/n2D545YX3FV/DG0yr83+KZq6lNhy9ECj4p
+6dQR5aFdMbc4YGgSq/+OZ3baopB76TrxFbebpQyaslhfILFm4rz5FzBzji4ojZqyqvXw/yiYGaMU
+Td+nWU0dSfc6HPbpDRf49Ps9wSrGMY171cAbz2/req36g2n3sjnf7OON/WApc/6a02neRnbraVkg
+nX6iDFTP3cHtRWnv4gW4Sij5O583TDaZ8CWvxxBWh2mGxCi1F9krsQi6xKXkEJFeCSqkGswXMTnl
+ZWLV6xyhbM6AS+uzsg6ZtrZ0la+Z/FZ3rQFyYCq0vUXnt8OvrZAUOU5TIfsrcxM2r1/upV3wf0nD
+EoMnuV8B8JFG8tDlUsZndhJPOO4TqSDBkL6oQ2EUzee8cP1075kSTxuYIK7aW3WvU9IXay6Ceu3r
+JUxHlL2B5hipzdIvdWe3DmVzN3l96Xwp80Qa4eRqUgXl7DWQl9N2nq8dL2lotU4skYRVMnlGVAPa
+bj61q25ClpClc15bxQwpaNZsoksPf3bYHAK4tvIUm1m/Znaxr8pR+2wiraq/G3W+BJrPnhm07jwk
+UZq0/GcteMv5bhQjEZ/rZU6CUrzyLkUhPftAjOtrQ1CIKv+Fvz+IGhfjlaeyaDhPZJplVlT1QnR7
+tSY6z2L0VUi0ZOPIPSH3uIjnznkwnaX3L6qYPoAwtcbkbvUSeCsNyvvLeYwJLsdpIsgb10aYkVvb
+yQxAwxbYLqZzdrO0pvmtt0V6lRV1CUkJx33FZihkFlbxyMY4rYb9tTP15ZtW57EINOy8jDtzUFgW
+OEgcyqe8ayGWRHmvAMLAS4cggR6ekw+0kq7dpMS19+ugYe2i12Z2WRvOIMI67/j3+rzOkyhJUt86
+41M5434d0qlnqlbibqTdRO7iOVNxkFCjTs+ySWvdfY5UJw9G2pi8faxi0sGrFgNWSOvZeLInbRNE
+0c0p9yQh+x2UaNSg8ZzGh9UcdXyInCQpD3Bm0uYxlRa8Ld8D8NQnA5I8KhteXgYTLZLlWUe/6w25
+N7OIqB+NxnnrKYMOMY07C+vLzbTxYDv6LM8q2++aS2IVbm05n0Vi7yf47+hycPoNP0M7PA0s6SNl
+/fKXidv/z7Spp5/Yv6QvU5IXV5WDNm9vcUu/WeWQ31fgj+YIVrb9NFiV3h/03Kruu1zT2TNLOBt7
+b3YLggI9FoCKCCisg2vMRn5uFWV/T53dSdaQ+z63t1VV1l1Hjx3glTZpojSW7hT02liUITJe/LHi
+wvYzgsGKC+pYWO4NVXnMKVaamcQejb7e7TWv8+avshJ+fq7snHBYjbq3W4uRcyjos8oCMoZfHfwM
+TUufZULnfIBoTS/v5bBMfTSWbWwd2niprxFRxLT4WqtL280g3MBeJV4BCCnEb0jm829daeJ3bzvc
+bEcZt0s46IND0dLvOc8Q2EHpsI3S3MUO13N0L5th5GyU7cs0TXS6JKlV5kEvVusHxRLuQEoYgHmU
+1n31Y6/+XlaLZl1YdKcfDB36d0g6u4Om45MF3tO5kjehdGK0J2naGg9jHY8sl3pNvrlVM31yVzt+
+EWrRbgfLHG6FJqb80BDxIJ9UDl3FXknRaZdJ2e4nu+yznTBmP4aPlS3XU1vM+r6wp/m7hyVpHjja
+on7A36hLnF4qywXFZHqHQu9GncRNsr70uj3SKt/41Xw25r31fZrswaOnZ6lfGjaPdQeIQ16b0tR/
+m0M5fRo18uB7q+3dlzEp5H3q4JJBS2PRXwxuQojkUEwZoZab9nhWIMKFdTFl5e+51bXvVT9Lk/1t
+Wb5ktcKWpa/XIv0ss9ambFqO1S+j6DvwG4vI892i2UWBcrMYLrVybjouCEv7O3Ht+NtiNcnt0KT9
+DVAg9Zwqx4fGw1v74bWqu5zL1iDWr/jmAR4ssxEWuUYcWBTg7sLB7pEt6PZSzJQ20+GT6LiGB3LO
+FbeqBQJSRN9KdmOY5VztGz1zyMgbOBrtwYuMQyDbzPEOVC6NZ1fljos/Sa99tjuH5W7SdumRqOIO
+H820tXeB7c0et1KUBD7VJm0Ruwn2h8dKnuuLlZqvvZ9MLvY7s1WUPZWt1MGTvOtAqFK5YT2YQxIM
+vcckAx5kf45bP31AeVHcT+ZAHoiL39BDNRMtCDgcGMCuuP58lxeJ82usRXE99VmfXMwpRLCd8Ali
+9t1c+irMh62iosdGcm60XqH28yzEPWd6nUWjk1WXkg5vdd7VhfutHi3tepZwwPYGOLrHhIB1uPCS
+TtylIl5meh9zegzIsTgxSJe23fnG7OVnrWFXEIzsxv7pwzxBBFTFxaW9duuDPQ2NCjundyssjxYN
+chpf5lBSipz245iuT3EyL/MVuwW0R2HmJlQZH7JQi2SCcBZw2hTEPDxvZxHLE5du697JreRL3tHo
+G2Sqdcwg0YgBIjNf9N9FJstL2v22LZzslbvvxqzxQrpo1I2n4OUFfEKDF7BObrjSlvUZXzdrDtNm
+datg9DW33SWE7U6oFbZ+7owTjynW2scLspw8L2A92z+o8MVf9cbuH23k9N8oEyyXSTFI2HdpIR79
+aax/kgksbrqhKb9LZ7XOax6zC6mSc/2dqRLhloHmHx3cJOJzq+oLn3GHhRmlxWraxbo1moFhxy1v
+lj2DPIjp9HcF5h5c9k1UEeyeXnszckudAox8pXEJcM75Ni69c+25snspstx+tDxKaEFvF+p73uM8
+FcwF+c+wL2u3ZNuThRl0Q++/UGFW5W5IRXK1Ou3cBQsv8ToGoJPRWgUZqRkSghTdGIxoib2ipq2r
+1VzYhHX2rCHNevYz1+Z3mw0tIQg36oPdgGgKlrGbuQLRVsrlf83q9hCX2nQd+xsYxKUUq4I2Nb0k
+7NPaH3ZETUsV2v0qn5Dpxzfm4E5jUPrkYMMy2aK21h7rs8rFkzAYG9erw8SiYf/C75buxRwX+95d
+hc3era3VLZgi/9FJLGM5FzC+7hsl6x8KifU19hH1ss/cTMxBjQvGkz6TSA1MTmCa/7PWuCvGiiMg
+TrHOZIt1vdu50r3HwWq4yqEith/SceTomOqFrh+3y+fiQunSuix6LsnEvlY9RFZlaE+ZX2NNV/A2
+uJD6NmZOPVHLVblWqg8au2jHgCXufte0qUh2aTthfiS5EYdFkuefKysmxjRI/MlD0cbyqlsxSjjE
+mjDO/T73fiUlqDL060QxxUiIYYBfvCez7LURMuR4CmfQgGnkOw0C+oKEGHaZ9M1fZxSbfkyFEu5e
+qdrcO+5IRF8puWah2XX9s95O4sZF3IfWvsKSJMidsuhCgf/jJaVMMGYU3rIvSZmrJmxUZRaYso7E
+Xj7GUSA5raT8MgjNm0JIq9YaKtuYr2w/WQRHocrufJx4PfBRKvP2lj8Ye75xsxK50epcmr32jLiI
+dnea3s0+cgqnvyrojpvOcqpE9542dekFzpEcjilhdRqwF2lnItXn8aAnjedFnePTpe4kbDI2ybIL
+cIvrZ5inrditc5pfLtXSOYHROYsVCG3pP2eTy6lWeQllzGLoqrPMo1C0W1EePjlxs760YtbbiG+Y
+Xw2zMo1ITD2Tu8jj8lFpefNdlIWdhC4Ryg+KDMu19OA6Rr01Vp/UvGjFjY4Vg0ruoMSpDHiXpbol
+iIesezaAixJ2QKobPtmxmbiRX/nt8j1fNb2HkalYBZqv+Ao6obrBFLJy67AJAGhxzjrxw3UyaJVt
+16/T8xQPxhefwuHZMuopC2cdhydQmuIHEK0i3ftGVT1gnm4/DrUmgbZZWvmsZ5y6gT4u69dVkwLj
+JVfUe6NzmaXCHaZip/WD8HfzEDfZWUeuuw/MyjbWq6QQxCzgVZsvrt2TXjRmE2cAiwR2EWVN7s8B
+dqX1vPN9Wee4b1nll3zGOAH79LXSgrlL52dlQ4SLTM+ovF1Z8GMiWJcMPfut10f6uszXBM8td9ml
+WNqwJKOX7ejOB8zWUhN6gYXq+smPYt1SCovetre+1Hx/Z2LXQ7AxtcsUrplTkZnyBqCf2jKvNYdK
+Aw+spqb921w8HetfvkNmnjliar618YDTaewNrRWSY+Zas3gWmNlac+vmordNrcCm07LIDmGuR5a4
+a9IyrNbVuRnklF+NujZV0awmrkLJimwvTOcOI/m0U820N01iDBQwCTLgsinhPkqa++5kN5g6//pY
+fzIsSdy2yFUv9ytZXzt0q8y9LQtUA8G8DA0Zt7z0PmFLZ3kBpMPhJw3x8xCQDNGbyOUzN4BOtZSE
+VSOSm3HBGCcgUZLrhxHV7hQ5Mw6d5KGF3zF1TPu6iOP+jqJKyd1+qStj276Ll2y2B7ZpPNz46xnR
+dKAB7rs3V1t8bspZzQfk+vKmrxLDjBw8Im6VwMART2+F63vlTiblKiMdiAT03jS0/SCaen4oU5mg
+8ZDJaIR1DbrvOrdzrmoOxyCEYDU4865ZNcw7tWKdiv/H2Xk0x41za/gXoYogwbQlu1s5WpYlb1iS
+LTMnMPPX34dzN6O2Sqr5aqZm4/KwQQIHJ7zhItWePNVN049Bw/z/IWFX9SBrCi+hV6FqbFrrlAOV
+gpWJgxm4F4WoY8cnQ2xhOoo4ccMoM8r6OPAQHo9CZ4jmF1UVvXGSUKWe0VO1bmp3cv4kGLANxK24
+X8KODeQGdlGsBi56cb7u8N0eHyZblCKQMl06tDFU4TKESd0ybEr8jIMFbazZA3RhrRNtXvCw+fWE
+hpodMqedWrL9ybtiSKS/R0DkDAb+tELQs53wAvVkzyAgndpVhEvUgR+VKXdTgd3uq0iwYgwX5ecP
+ERP6Zl+6wl9CQX1w6+MeOIWwi3QSGEa30mdeivwsskx4vf3MWCawUWaodi6Zqw4HZnwlX3KtKQBm
+ZWsMKRv1zdeSulpCurxn5CNpYbRyIBEahjzoc4+Z1OL2ze2QkvLu0OTOz8o8IccYY4E57Tgl46sZ
+LQb2tubUXGZ5Wcgzs4/Eg16VdQf2dy0Du498Oqx4pup9ybTvaq3tHB5QbPff/xkyBP7oN2/moOcb
+UUX9o4jqttj7us3ebCvnOm3GeX2dFqFvrKVK3toaCQ+KAyu6aZbKIQRFtfk4FgrN3pHu06lr1uav
+aCDksVT2GHPRddgNc6V/upWgMb+uI4pbA7aOUJKRckGvLbP33HPqhglad0+pujahFdvLEyBp8bNi
+MsFF5idzFxSDFNkViqXMk+K+Hb81WL8u4P1XrA8a09Vv2kCzhWzdeRMIORohxah3bZpTZiHYPnff
+xVySWSf9YFwV2RZp5iSJ7iquT1xnezleMByBfQuQ2RX4SXfSuZrtVTmMZsribpYL+S6PrG7MWThI
+G47cd547Eqy06xj3rVdl7UUXuebMgKkc7V3sFn5MJwMZmNOhVUhl2Sis2LteVssf3tAWrEg187Ch
+nfoopwSJ5Xyg2gpsRdsjRprEPuUSlPS1y4hBuLmW9V2+KQ0c/MpcLgl7VkX5QXofOJ6o/0SiVCqs
+5qSlFB6t+j6b/W4KmZen3cFXFaIv5pzKO00KYoQOKJ/bjvQfi1I+CsMn6CMDzPjZ0CTZ8YwCfISf
+c5AT66Anjam7nCkYgW+enWUqKOWgypBNsjyNQyYeYpnplFGw1i9VHrlLMNoO2fAwj82tgzzpL83N
+c6P1Im/R7K3N2xYsfETLrsyx39gmxHNWSf0jovNnnGTWMtyWhuzKi8jp183wdI6dA2RE5n+Z2ESP
+N73hfdl15PKWt/lc930n0hCIbfKK5XVGIks84/zpPGdM1OTJrQkbdtjrHtfbOOoY8c9A+Xi/i0lS
+oQvDucslltO86phcoQYN+mrkDKb3VUcoDpdsZsd6teH+6S1juVfLMHYXjedw5SxwbnDaHO35pZW5
+q8IOEPKJg/RtcpYq4PHbNYcmZtPUFulfHdO3Q4bGjELauutTNo/yeckLD09xMxcXkN7rN8edyjlE
+6BnB1YwR8I+hcEc3KIySGT6etO1Z2Qn+z6UeW1Ja5RY2ztSe/Ye5h43iLiiCbVhcwrmqVEeZhXC8
+8YveiQ8fgaA2hjnjQ/Ny0aXxvRCqNfcCz8I0nNLC2/rIEcN4N6H/u0NLrr7PJ2t5nUFyPbMgXFoo
+Nopq78IOcULVjl1/MqGffk7Dx5gC3Mrnb2RLVYHpciSMsPZWYZ0ssreeDbtKH0GpJj8HerPPyHnK
+5IQ5dfnYZqn9ptc6wV228PEjV8zmXpu6xdPd99pJ7+3Rl78AjjdrYEYZIgC4Uagc/9ti+lFh32Wf
+m0kV6V0PGoSNDLHzD+dxbuketsyJ07FYSPFA3rR7JxdJs+90qi461CYYN82Veouskk6ArL1ol+jJ
+mQ5uuoImTAfbEFQMtejiq9jOStYsdS/Cmf26HOphsIqw5NudV7I2mCVDyHzLm6m/a6qVpFZEGCiH
+C+1qa29X9owtuFFYxsUaFToKECayn4U5MxGqYs/sDxkF7D1OrrIJfVuI5SzVifkAHBZlAEMm5AZu
+jYZL3Uu6M/GWBwRxFDU3RWU1BcF9qr4JzXiMWxrHj2CVjXtndM4YHybRlz/dhuwoTCua1UEhYpv7
+zCyah76d7d9wLujPVPlQu4HuK8gXTwolQ3llLYu5XuYas4jAyiO6TWNsuzdgdZt853EPr4zavZag
+JOwBet2IOsQhxsClOImK1s0uTMIHneek7eUer8r0Icux8w5MexLpvgaXpGjnmbSVm95ZQ3MZQA/L
+fM0f4XU5+AOjZxHz1/W6cypz7QOuSGYcAzfNW4eIrtoJ25fnzlRGORqWvnPu5J6YaehP87eEV/nY
+rCsk4xnP4ToUObEvHBMzQXK4qtvmQEsovu2STZ+jmBz5KIxk+AHfg+NXDREAlKVs5m6XKK9TYSwa
+oBgq8syzLuP8vYATIEAqt2LQZVoE25w0i8NZmboJZEqLAXETwJHoJnYUsanT9ngDldI6KXp037gN
+3GivZoqIQOWLf6jGXmSX9jJFTuDNxoz39YgyEb7oNFRPvcWx3xq7TX5UhBSs7VN3OKslKdHOAwOl
+7te8GC4XZdTpJdmZczk1hlud2GM1pqFtl4BqyBzo1kg5Sr0rR1PQgFljNk9i2/XzuAwspLXS+K6k
+6PoxUxNA8RE1Ager10Tfcy9uFtiUq+uGNP4ZAzDq1RdNQ5pyKOmp52HRLHqAPmvpazlM9S9RCDu9
+mE3HPoV9PfxyxsLeG2YytNe07pl59ZAiF4JS6/zxxzL9vVRN9lbQfX1UjQN0ImpQ9AmtPCZ761tS
+8106NuqmB+4BQqzd6J3+uMyMHEaVh4uJDDmim5N+cbOaIDgkdMu5SXpXh1mednyKyWXr915TqaBK
+OvXoAz16SQo5Pxqti9VvaVbzS4VItNxlySjuyCdWECotP971yu9KDfoxn2vDx4y6lBkcKHAnIMeU
+JmlZ4iZF8sipVmq3teuDFAEYWg0oyNPmalztBXKY1Yste/XdMtzhTgkK1KDzxu6XacQV+QhFULOL
+8lKflSyQlC4arIuUlNQJi3TsajAr6FYj9mkhTDs2gCw4+mVzwl2YvLpqsnvkpRc8v0Xbps5OCdtN
+dxEvUIbAcl3OasQ+CFPTSoEtoxnG/LwBsIV7uWTYIvnAKtDYSl1WHu1OJnJ584jAVPE7n0ddg8Jf
+i5uqIPPcL2PcMNZCE6zc+dmo5sOcJe1TOztlGy5urlhZBEt0v0ZcMKHbevPPJjfyFwoCeNxpKdYH
+Uy4GrBXRTg8qXrJ7cxklTSM5MYXj+qibELwGQvmF19c3Yx+116Uyre+6otK/o+1kqbAFefVzgVn3
+HNdL+a1zclJsEOAZmLA0sh4Te6lh4C+pdS3Qm0lOa6y8X5Kx3hCI1CB5MCHj1p8MRpWLYBx87gux
+DBnjJIaJD44DqCVLkLkMprbq30YIFz8dStCYfMPifFokCWQTzLj8fe1MaR+23Rp/l70ETNQw0dlc
+NRLGFXY98Z7TEvnpAGt3eTdb03xXYk7W0LpU2QuIOoqQpR9/zyCLyyDptl3cdSqtT9cmr55qBsJs
+aL+Y01DQGDACZgeJH9B0ohW1OnlylfRN5YZamZp7eOIvHdpEDQn2HgnN8cIQS3GqygjgUBfP/V3c
+RUAssg1oHyg1JQt4tEE8UZsXN5ZNq5s3n4mbRvfxLXQaxHMjWakzU/b0gPUGUeLA2TYCkXk9eDuX
+ptojTcXm2Ygn0967RkFfdtSpvAYzWTkhvBIaV9RrDlPpTLpLSJwFvEHqVd0tAxYxO9FafPCkZ5S8
+4wjA8ohB7D2JxGrmnZUsxukkGL8Tw+P5xWvs6MEmi+E9OWJ4ldY6ywBCfIrNjLQXCnUxJY8ySu3o
+HEnW6aZqUYw5cBQIbEDzuCtr25U2E9ixjcncLU2/CQt2roql1pdCEVsCt48xYO8L1a643S/RDXyL
+8X40vf51VL3SpxLNkIuqYBRP5lZHjCWV/UIfbyL8uTo+rS0Y9vRi0/rEmFqQPbMSzQVL7eIAhFGS
+hAuUq7eU/cMT0HA/dEbp/GlUUjh7ocfqZQsPVGnMPNDyJpM4c6O5RNaQeelz600SvkNixRU3lPBo
+z9CjuC405ALgMU50vboFjn4rjTiwCMlajzs/quOGlEil56td0cFuInDqNDBAfxxaseTXuV9zeZZt
+OZlsH22d5zYzJzRvjLqghnLye6Ofs19Tvbo/E/DgADITy/jRrS1FEe7z0Q81J6AnY9OAYxgPRkRa
+7ozWD3ZhdgkU/9ccdUUbWlVDtuem5Ofu6pkoQlaFcZqZDXimeWXIScDO2mSf4UJvBKOgEg0yxnWA
+jfzJPJtEmXh7lO7wZnIqYb1UgOGIVhbXcFaNxmnStRwJGv/+bWc21m1DB7raRZM1PbcmtyabT02v
+ZoXdUJDlmXMxdmC/gsqv08dpYVxGT2qyr+BgT+xwwJXJfgDYp9GGahTVvJszxXC0NM75cBqsRj6L
+h9yfY4BsGwCxtnEcOhnbMSXgRtWzhkT6NFldfV0Z6WydZkVjHCox9+qE4NrmodvXfaJATdASxA6I
+fkIxnucV80+5TRLB1HmBC6N0PJ19u2TeUKZORwQyafZilALRAa18xtujlXOe+AiRBsfU2w6Dj9G7
+yqcUR7POoj1+BamM7kE1546Lt4wGn0tbgm4F90bS78fGLawDTkG0tLPB0k91Zk5vU8UdhCIXE+dd
+1i/tN9eXorgE6JteZESLMnSnrapixsyPAC6TxoFL7vWEDqm4gLXIGNtdp+xFJWp6Y8bHU3Xe5f6O
+vlXh3WhV0hDG4XClHkD/lqlr5dn6Bzy4xr5I7Dr9Duig70m4xmYAMpMKMCMzVJY81A0IrNOYllp3
+CZ22uxoBmg+hR7trPcUhsUmTG2ats/kAwmJ9JfEawcPProq6xz7OoYLsNRJc7plglP+Cyvf0NMfW
+PJwwk/fqnU9VDMZiEKhDUl/T3I7dVTz7SKIh2+U5/nUy5H4CGizxSK7r+lvHGB83DSM1XgXwiGq3
+prkd7QGH+ECjKE3LnerACDHp3g6AGhbECs3KG9vQ405xyLDdMSc3Fv5DX7fe3TpYk8GwcmWZMJTb
+E5C209U6divtt5XIsGMwMtzHgKYH5kMyb+lpevljijyCtRvqWqP6AwqQJDMvF3rFnU3I0TKn6PcA
+hshTMpe+B5cikpwRg2DbML9FxjFvVjc6bektp4gUkeCGtWEyMmQEVzkHZMcatJmQUvMOdO5z7ibL
+ZDSngJGjGadXyuVKjyZDK0vE30gep3GfoKB6jpiMpMNiVEJQHHds32k2UFVos3KJgnwhvDNHpOFz
+hio4xTSAExc9nzWTL3Zu5vCHK2Q0UVsd83lXWqP6nawVMVCkuNEEwirp0foZGOBgIFjf66ItvgNM
+tJo9Vf38OMZJmZwJEm9mG2lj3bmxicLWLBt2ZO9UvWRqKOXVRHLz0maj9w25YB/wEW5F0b7wVyid
+q2X219pLzZ9Jbbr2Lstm42y147q50X6t76alsg2wGx4I9npL7cvIynWojAFUGBm5gHldOd2PKimo
+czNkQQnygDijHZ1xdUc4YIYExwxIrlUVQgRZJoZbwtQ6hlaWt1dpk6FoNLX/3AOq98egNur+itDI
+nBgcUfQEE6M4XVBWnXcAHhgPAvNpnxf4cd2uxe+rPcc3xfgTz5VnnRiCHl9Im0BylRgODpIEF+Ht
+5WRRfiI83v8uY7ObSKjz+BGN3fFuSfTIDdM48UvbL8uf2AVVfMi1n7/6XNJ673CwmES0mdciQZO5
+4EIXUs6QHc+wWyWCcwOLgcSP0jv/RY++eqkbN50CiTT8I1NcejRT1y9XdT35L2i/gOZhYmy3TAHW
+DMiyJbzfRVaurym1FauSBZi2oXRHFWZpZvfbOM8eQyN1i58p2q4Y98gVur2iU8fUM904Hd3oT1ZQ
+1WsJ+MQw+PgxY7vzblrMPjBcc7I5B0okoIyyWO+9xgd2zd2CpZIXqzUOGci21ziPGcvONRzj0o4r
+zAZSORX1Cflj/qOticokcUCPBrMh9E9DXv4CbprdwmvtwRmmZin2IMKj2574lISk+ZIyLa2HbyZY
+8e8Ns5sH22GOoLgdL8u6sO6zwlLVXZtNA1I7fjoup6Y3zt+6pOuQQV21hQxQU/TRyVJb2f3QWB2d
+p2mBtLIYK91GchdEU1fTy709VZJw9qmqKRfnrnX0zuw5Nfu4T2fioz/p6qxSszlAx52U59NbtYkP
+ttXzxwl0nl9NujYiRGutRtEgk0v26tUAJ06QyBijq5EaB0CXG433M7i5N0VpwKeWm5hLFdNrj1QC
+nGwBAQO8oTeK10nP0UNEpv8bUaitzbrMkyIQkAPuoeJYz/BBQHqU0IOe23TmIte99E/aYsqZssIQ
+Kk/neI7uqVUajI0zswM+b0MOmuTayrArYCIGuWkWBQgTmiS7KIImQx7purf0psk2bVgBF5kGfrdL
+sZj0GB4MXE+Aa6xHc2nT19kD2RsWhUuWC/tPt2FreNFtlSlwRmT+JLmMXZP8UFul802UJkCeAdGQ
+207Ifg1bLxqmAPobaKbGNeqH3E2Xn97gyG8OAy1jL6PVELvE9xlO4A0Vp2GuS1LTQljVnfR67x73
+xvrZEJ0NYKmuYzMkHtI+xB2uuoSSJip4zdp6QU8ewCf0ofJMQ7wa9xLd9z7k9xgPEZzn83WdajAi
+NFB/d3kaP5t008xwaOcyZRLLFgtMqxQLSMFxw10CcAMcAAT+R1QtidqBSFoZw7tecwLCnr9pga2r
+ufeYvpEcA8kPBgudtH2se/e6z2wxE6oLadP7y7In3eTpgx/l/i1jQzouUxStYmtwzXXgOQJqy5wq
+0v2FyPZC0kCpYYKyDPoaskMAsSp6dRJaFYfObzO1W8BC+OC8+uVcrU6J1oWx3TCZ0RbpXo0JbdkC
+RIe1l6Xn3mx1p01QGdazru5iHUbDSG8P/SbzshtX9T3OiWIBApcpDkSUJQdPN6QziDfrPxOEv8u0
+LXtzN2qDeXnqwSrgTbMhQ7tv4yIY10U8QUDkG88LkuheusoHa3aRamnBXZq0xkjRgimvTYg3eeXf
+9Xm02gHFekLSEEnJgTBM8X1KrfV7lI6DxPhm6zMjBje8qKyz2nCd6MOEKw4U0aYruDBwo2d0Wy5N
+LIDPUlYHi+XKK+hi+trzYwDHrizJ7GPl9phF+c00E+kZz5vdwqh3nfMpOgAUVfFpITv/TlQJKhq+
+z8T+whonphmMw7tdRNjvoFhw15+ZmfJF0PV4KfeVFtSiPWP3PcVqlUFDzOr6zlwksAAwYx0kmshg
+3gVHbti3c7I0O23MUoXeCgU6nI1heBmtSUz7adAyO/iJn3OmEt8h0wKAugKfi+NsJ2kJpr/nmMbM
+fliFHMOyhgBPYrbkQC781kzP0R/zy6tpTL1bO82LdmeNawFNqwZjdwPlh6H2AE+Bl9Fa5W+ZV7I7
+LMkazbtlpmV1iBMS453kLerdShAnt8iYUvFii0ZIukJmdJ+2LrlEi/WFAOg5koQsnNW3opoxVE/h
+fdzX/YLCy2YDcIUhQv8EZlYxhKw756q1mTuH1ro0QIu9JkOLUUUS5C2RKxAMUq5lJIG8zHRSQeJN
+wLJ3Bfyh33XULN/rQmY3ClS6sQEG6R3TjXUpROvmjxeNFH/0dekV0j0k48psBja9Wxg/yfimPqRE
+qUhBR+3dSFgx8iRS3vozFpNxBcV0NC4gk1m/J1taW3OmAJ6Jl1B8RmM4WZmPGtXNwuaS4aKtIWHM
+jsFBCAiIE+XOmXGXYHqQh7Uy+GCjYdgPQ6cZK7eDw3g3Nzr/bBFxP51MfO9vKzf4fKroZpxldE/u
+emukh4TG2XAJIIJbsgZ9ck12wHVRGF09BmtHE+PES1tNA8scxfqNnmRBClKPJnipKvfunLIGDMt1
+E9+0BUjiYOQt/wChPt5shR5QHKOADyZE3d3Ck4x+5Q0d5HC0ZioMNXsFMBEsVZ79ZOEwx02yuOCz
+CtoVZYaw7h41PPWroNmGMqzZJA+JqnoqX8Nvn9EZcgqabFXxK5atBgUR5bSUYHMXDZj0qnmQNQgA
+giz4C2WjeRykHabkO07x8tNfnHUkj7fAgky0am1QOKSN4KRVca/SDhoVUyjn1fa0e8cd1FmHOoqZ
+c7N19d7oY02KrxurCbfovBzMjObOPpt72ti2twKMTLzyZsOgLrtkbucrMpeqc05jJtrLPkGJoEVa
+rhVX3citeZrXtXXm0RMxAw+BeUr4em7kTQcZ8LeOjPXGgS3aBxPAiuG0X+m/3cI9i9A2FW7Nu0mU
+Xe9x8erdy7V3iuaRukA8Cp/GKGOgxgCf72Rkuf3UyOeiWpVBDkh59MuPs1EElF9gFCMJaeqkaUGN
+/3BxDfUZufiVTZCwaI2Bs41pwgMASpfvoEtH/DZ8qEsHq4kZDNfDghft54zrTUvg3+IGmAcg/Ylc
+g4HIGV3II3J3IRfbbwH+MBBW5k8x1FEw5O1w4ubTfCtEgdiriGI+XT/sinyQJ58//pjwvT0er1bo
++B4ytkzB3nOt4bDqHthKGUC9ohwqgDIPpwYoQQt2Z3PDjMIPVlvFF3ougAV//vBjVzEM5ni6aRhM
+HS1n0095/3R8whyb0V0V5BFX7l7LiINUYgu4z6kqUmBNdNFimNnMz1MqKjii+7wCbUISQ8O7dfqn
+L37RMff8+BcdSawAeI5aXfI54loRhxlh7rLYN0NSpceWVJjAwyxcw0bbF/1ko+/lLSdVRQfAnGKg
+4QstB/Ak/hdv6lgC4J+fhYnhpnorrb+UxdqZCD0oSuKqjGm3wp2LAXYUdCPzrnbq3edv4VgbYnva
+pvDhbuqmYGKOZFKaSVXYvIMEAQ7svarUtYDHYR5EWjjb8ytGv+YXIjofbUMk96SD6hGHwT6SvgAg
+2dV5xxweOqB56wAzIc2VYHF7Yz4DPeefNBXc7dpy/pv9w2Zx6IA0drYdyPPl0Q70ahiI4F8Y9yGE
+B+WK9m/afC8Vd8EZnSBG25+/2r8X+v55R/trcQTElKaBeFgZExXttFwtPPcCPIYFVrztd63Xtve+
+XcSHz5/8987myYjP2Igau/hRbb/sX5JP3WLXMlXsbBySjPMYbCsXb1P/R62Wf94nJoFsGxgZNHHe
+P4VHp5bfcqKtSfbn9gZ980p5zlB++uaCt/5i3/x9LlDfJnwwPWYgyNd8/zhP+ZFfCnaq7rnNelrD
+IR3HH5Br5Onnr+/vM6HQ2XBxI9+sUQx7e73/en1QubSeU+6GqDXbMzIYuFjQh9MQgCesZE079wvb
+9Q+faCHEBAMeasKxeqGkwm7LgTPfJGL6FS00uvw+2zqJOslvUWv0vtAZ+WiHYJ3gQYTwkH86Vhef
+cIRQTG6JxnqgXvHXpmt2jduN1f+wFbEgQhNeKsVXO3qXKWByMgre5dq6LVjn3gdzNLdfPOWj94dc
+uQQ8hQsKmPj3X2xywenmCU/pQQg4UAv99TRLTL2f6bEywacX9vkW+Wgz+oYPeoC0jGh2dMKcWtvx
+4m1bRI7+3VQhDBLOceyK/VCQ1HwRSY5FiraT5luuwVtUqEYc25TU/lCQA6NIqmVcvqQM9MCH5kBX
+1ubS66rNklj04+PnS/wgfHExIEImiZU4PZvv3+kaeatlAxIN0BSA0Snd6KRb6LdaZXZoi8ijC2Gp
+E2UBePxiuR98TURgmTajyURwUUeJymimdeK1nPQuGrxnU+Yy4y6W4ylmZcMhhh+9/3ypH5yGLSHD
+msWSXEnHoaWb/B6MXcEsC3jozkbZ8jAI6ytX8g++omui6OZIVIqQfj5aFnI1cVZtZy4yczmDes+7
+7MTqOmkcZL/VErKDEpXIIfO/WN+HT+YigMKGWSB66e8/ZQTuf+5xA2NYMhpPsK1y+jt5lN4sOGO8
+EtrBuk4wOaMvAukHp4THGSQXaF0Db9t+178CqZbCciGY8l7zZj7vKmPcIwQr7nwaKF8EtA+WiPqf
+hX8JJ2VzC3//qLYwzHWyS5YI9W8nNMiy2dbwblPmR3cNKOWnXPpfyRV/sEB/k4bHPsimgWIcfVL4
+0kgwj5yRlG+3MzRoJJgt0UlsQFL4z3vUB/LhY7KB6w0amO8XmOm+pJ3EAiP0gHZ+D4xpau2v5N7+
+Pgmb4YKBx6qN4JtzrAhojB4mHi02MAL9gJt8yoHzJdn4RSb2wVM2aTz+IXiioH8UPQfoKmVl+8yi
+XSCijaxswDqJ88Wu/+Ap2BkiLY+Eomkgfvb+jc1GMs5k72AswIyUNxptnXpXa9EnX2zzjx5EQomY
+vcEdx054/yAGSiquaJ8G64QwaVqaOgSv+IXg8N9B8R9HUeSycIgn+zlajUm+Ms0VPU6Wm58TO9Nl
+n3bAP5oZ0v8egnWzPP/XLYcWL16NINTtzVnlKGykoLppH5AwW1ZDxZZ4zaFZ5nn3+VM+WJjrERaV
+wd3mUOa9f3sT8q2xzlsqcb9lYlgk7iVeMt3Bc4ckbOb4K2+ej59HBYCPKendsSj+aBqD69LWAYEg
+OsZ/uIkyXI1iiDaZkdV3w6ytX58v8YMNwhJxMeOSQfL/r8obeXxIK7zIJalSiLs1w4W6X//7fkeS
+h76YbW1R1z/SGfY7B4o7nINgKIzo1pvhO3VZvnxhXvl3WkAnyuYmcbkqYcQfnd3ISVCb2tQzLZzt
+AGojygJpZvoGYt8/8ScPCm4ez0zwur48+fw1fvDlyLaQC7SxKpS0Ut7vlDE10rbFrySoHRU/wQCy
+n2Dmqe5Q1EOcBE4Ooujw+SP/vlbwpeBVboMcLs/jOzuZzMqfMNEOIqtaT2xAWT8LwUDyUphU57cR
+BF4Z1G1CO/fzB3+wZTxUPT0OoMf5O5aaxfaS/BW5wWBErOo6s1UZdE0z/ec0luX5yF6a8K1Q/D66
+v+pmhsrvgfvyC686gdYYofEmKpejUBSl/cUG/WjrcDXTDNzeKJi5999vsHDEAqZKWerN6QnSXkDr
+ilQgSh+52RVyhMuVTc/uxCK3fvjvr9PlNWI24rF97G1r/SsTcVNa17FjA/4Hy3QrkXza10gqflGi
+frRBXZOSmBTSplI9SpmRfGosBOcBJju5G3TgFX5aM6KewG/bU2gi3en/sCoqaXRuqXoI1e9XtaKm
+UsMQZHequkl3kNwbB5QXGllf7MYPF0aRvyUf/PfYzhJhKlChCDQg4BJBIcAYmHlJV/tzcZqXttHd
+rxB/vmqEffDQzSOFsoeXyRV+dDGsJijlZoVms2DYxogKBtcCDL5G1iYuy93nr/LvTI7NQYFqU6Zy
+K1hHsaWccki2qOrAiOrhFoXpOrfFE9Qvt50hiC+T+VVR948tyvt28OaYQmHl8V7JHo6+3lz6Seww
+mQh8jl25T8feuJpmBMT8tK9OI4/JkUzb7iQBGIkFoGA6FcSLyzywRCLvi637Qbzx0T0hpFsOsf04
+vUwmgJmYQ9VAa3S8x0cXBF+MUPznb/njNf/rMdtn+Nc5zJy+GI0I85toXWcn0MMMvBmnSGWHpeX3
+N3aZiDNjYrzmFQjWNgWTaHTLPUx5MuMLm6qP9hdf/P99FYgMR6e1RksuchVLjoGOhwqw6pul2xxE
+mBGfjx0l2ueL/+gV0/vmLuHm3Dzd3q9dOSvWFKgyBq5ttciuQSByl3L6YlUfbWQXH3GJNr7Ft9xW
+/a83DDBYFfNAnYCCXvscZTFjxNaMX/Dd/ioV+HBB1FybQDnQXuPoBSKODD5AknBoPMR3kQYQyJwm
++SLh+PApcEoIPLQ+iN/vFwStKWpMXFNxCY5T74BKkRp2VFoQoD//Ph+9Odx7uFrpu9N7OErjNcm9
+B6eVB4neOAiA6Tu3Ht27BsLwt//lUeg++1tijQX4+zWV3dz1vuAjNXPf3HhRnzDg9EDxAiaasu//
+w8Mwu6IDR4otj6tw1GwSxKFJeEfmL4dh6PG9BCC+G/uiPHz+qI++FSkaFyBqzNzwR+sCwqScrqRz
+Y1l2eYeShXfteKP3Raza/i/HgRONZHfrDnFDHEsxV8XoLOnKvqs6YJPBAFT0jOA4PSY0qA7NANnn
+82V9tDPo9YFQBKzECMt6/7msHs546TA5Q06rCrMVdpzO8Agjr0+++Fh/r41uiWJTcPHRyThe26Sk
+X3RAqjcytT5Jovau9vQ5SDnn1NDp+MXCPniah+wy7glYvmxos/cLmwZLYDbOdN2ehHMel754wNkJ
+5o4c1lsU+qIv8s2/9weNdYlvDnmECdH16CynhgNeX9Rw2hmxPzdyXWi5mdP955/rw6dgcsgxppXB
+yPP9qoQYnXlFnAlAGwKsaoz1NQjOryyVPnh3Wy7EnIXigJ7z9uf/CrR06yFHecDqq3EZb6WMNsQE
+pN9zVU7OD7ONij//eVlsQZpMJmL1DHiOlmU5hU7jhJIAgTGS9dL8nVbuf7SoprFAPaAISwR0Lo/j
+lNIUaE1U60h5V1uI6HZIx9BcVlUIEgN+msE3++I0//21iOs27pvUlKSYx/PAdmwg4Iw+cL6iHS7d
+NYuujGGypv8c3WFUGC7G5S7R3fSOortXAvcB/5EjjNHX+zIv39YNaaad7CsXrL8W5FiSCtw1KJFN
+zMuPDhVCv1oMBjxE2S7pc1mLZp/3yX9uz/MUSlPSic0rgQW9337gQAF7u6gNa1i4bZBXHko4nWyH
+5RoQ7grSuvPB0EGT5/AHlWy/HJN9tM4tbFCRE0EYOL7/BQWVzsb3BbykC6AyqbaSS5Xa5X+9/7lO
+NostLmZuZkLj+8cYqMMPamvjwQrzdr41vVVgjE8/P1tbrv3uSqHjubmFbKNwf/v3/UN0WnW675yf
+AxTh/2PuXJbbRpI1/CqK3tNDXAlOzDhiAF4k2ZJlWXbb3iBoiU0AxI24EcDbTJx1784b+MXOV5Tl
+IYpqotVSnBh6ZYlCorKysqoy//wzTQbvTf80Go5miaLaNLzhgEPNF+0aemzyILogpFJrRFhX1+AL
+kuYQKCFkvbX5tS7Px571NqqmauI6oRlM2vbz8QHKoogdD0k+0COHiCsF0JLz8KGVaEGGUhRs1qtL
+yE5cp9xG1ZsBdOvToUmZGpE9b3pcqGwhO6Gk+Elpqhwx5NBeAOmQsU1qz4a+Y/2e8oBw2lqNNTku
+Rd6d76VYnHk1TfTVk9YbOegVbMAMzaPKaQumZCBCsZAoOZSV9+ElHhEmeoVQhkbCmw4ZktfPkoQu
+ZYYAI3ousrapdc2Gxo5ZF+4TDZ9xdURJhm+YrjtqN4iiNHFLDUPkzuFWeeqRTUgh8kNrDOJqeBLJ
+L5al4gG8h5wRJ2PMtySNybW1o9nxOTq0BJKzFEHgp4g2ER/pri8KDtrAMKlNdP005RabexAshk/1
+vGR+OlKkVcyFBEqAmssjfKCuDW3Wl+Fa+XJ8JIcGQDgCZlZ6c4hs00ialTocFOqqhUmNnkXmnVJD
+5xBSnytoJUZ9nZJ2prvvljhgIIwQAdkS8ktyg7otFAl6U5HFIokOiQxnxgG12qP8bTaINpdgb5NZ
+YZblKdyvqlP7gXoGSW7Y4xsP5o47Mi1PFMBblijhlEYcbSBYj7zR57FPAcAGlkWnNtd9p6lHhQDw
+QKdkbMyhLATWF1iEV1/WzSYaT7WNZpzHtKobz580ewIQo3MRIoWCINqfSL6iDMN67Jn11qYXngdw
+ObU+QptCBakeeD13PGlE96I45dKplRQ23Qy7Jq+5I38dc7i1zYja75wBTspwoDzNSeykkPrZDYYu
+zjIQoU0SWKRij0IbT4WAjYLot9qw7UvYyei9ezFkF0TvPa6rhqQ3aHMq8mcDUPSVkZ0G9aZ5C4lc
+eWmUK2PucWGmsKs2qMOkfGu7pocKddLl6syAtsVhSvsWurQId69jkgoQS5AD8UE80opVGPRgikia
+OrRzfR2+qWEzmPmUtvX0497BwvbW4E4WKDkVwyF3z9m4O4+6HsH83DCPXpDdlNT2wJylzVt3fQpj
+8amRZF9Lf/u1VOieo7sfYqP8XJOBbjj1bYr1GbT0fXEK4SulF2Ijt9jQx6JVrgwWosKColwLhvyh
+ko21ZQT96/o8zslyXkGdGa9na7+N1Gso4fzb1oeMuges9IjyRRfbIUgl8BJw73UV4matWsL+Wdkg
+w6DwNZNkAnw4nWy8IJwcX66PrKGOKPEqe3esjdKoXiPMzivMwdkag3jLYbR8+kpFypg1CpBN7IVd
+KRlVrW4csobKduXN1HE9mKUqVFN/YSxcqxRSgCQhTMmOxjRZCGFew46SIPhKUXR+OagG5vVxKY8Z
+B0gPlgTxEXK3ktcBcLFKq4ii6rWvBHM6tnojCkKU1XSlr4q3wxRSB7VM03OtCqqPTxfNHgWoDKzH
+4UKhsjpWthGVhRrBuYtaMbaLeqUMzqj0Nq4iSOVgTjPNK3x/HzTw0EzAzXPfAq3EYRqX0J3AwZbU
+ziALoO+w9M1FsI6TU2+c92VbDlVrkQFk6obWkAueHK/3hpvKHKZRY1OVdz00jUWlWzdua55XELhA
+2VqcjvTsabAWnA8RSRWyAMKsKghdaVuk/GjLtTtuKDyFq+DzOIUX/DRVNN90YJhNPSgb8xVJGBg6
+g0/Hp1NYStfNWAr7FngG0i9AaiTRgGeoJVsj2jLBY2u1G0yT1NtMaXVErUOR9UUexPMO5emkQoAk
+g12VLLdRWldfqdDh5FvYDtQ6Cn4NVyt3Bsw6oLZxlJ5CRdzX/u/Ql4l0IBAlUKVYjhwt92g1SF00
+9IrwGQ2c9TAZTNZ6Pp6l0Gv1+LJHRXFnpwYUKkN27K6RwtPW0q4RjhmIA7cqG8hwPZy6Yz+OZkrQ
+KubTTm00mbHYqwFUYLIiVy/t2IOa0mnLoADDqKHuGGTQW6Vr+qY90UgEUB0ReE9Aitwsu4Mau+DN
+Wiio4MmLrHzabL0gnoSmZ9xRGmZBhZYGfW2GD/QoiZT1GFL/Z9HQwKHSM50o+noZjJRiEm3Cqmdw
+B25lh8IH4sDpiry1Ke0LXtt4QxiRoBJtNuUZVCWRQ2lQ3GMXh1KIa5CFJ9HJlgp1e1eFkIpWwWhD
+kfJ4nRvTjVe1EDaZ7fz4RMmri7MLq4p1hZWrFkSkXSkUZim0fALpUrru8LoeV/RMWpVnjTaqbPoP
+1ddV0pceOhCJxri4CNS2AG3Ld75QGWm1llNH4eeZMqmhLzeccVIMrhSIld6NrULQ1TXF9PhAxfTv
+uxGCYirHNAE7RChYy+5Aw3pbVsM1faCKmW+XznaazLULddIX2pAzmTiNrhxpz+G0WJqbEDnp5Oun
+eELrDfvu/GpxfDC7+8ix0Wjd0dRm7lH4hxR1DqDAppXHVLmE5WVC+xPHmJJ6s99k9jns+Xbz63HZ
+8uXzYITCcPcOX1yfQz0THbUGp7qzdcDA27eji9H5U/dVWZNiwe/JqcMYOogYOfp7d76hqv4TeOZz
+t8cu5N1bliJtL1TjB+FAjKad0RrEgTfQiZ20Zy0f3JNkKWJN7I1F8zNFD8R8XWym39bOzdKYLz59
+6Gucuevte8wsJLcLjjlsFB8xmymwUwf6AfsTXJvvWmf0EfrOsx5LELZ8TJzkcsc0rMR9IG7rfIPz
+1b6N7fPfnA89Bw7lEYexv3Tly3mUx/kIJlAxKgiwHIJFDi2DHGtiThbzL/nkI1RBfRPW4y7k+qfC
+0tKxJ2RWEy52LDB/+mtr33689OyrfLLgTmDDtdmzsfTNn4yt1+DoUEMxf43zrZ0N50NnPc1n3qV/
+5trhvLR75k/s9UfmT5W8yFqnhJLqQjFIz4n4p9sQfjpws/WoU96bJfOXITv6gE5EHplLW4lh9q5c
+KiGSrDyv1qO+MfXZiuQ0rFGQW7FYaJbxuXRPfaiSU5VeZ/EaJpK+hPMuznZMgZLzCKyBasA3dq/A
+8B1tGiajWWEbzkd/4k9+o+YeRzy0f+sb5e78eUyw5E+2q4hWAhsEax/U8/xTcrk51765V4QbYd1O
+F81NfO6/066Mmx6L6VOv5GBWRe2bibAYDZuBeAH7rE455TmuPXLSaTxdTSzHcvog2wfBFtmAJE/T
+qPE6zMXCIAE580+VyU3ktPbStVPUm8xUu3cff8wBkBAExC+K5aiv6XrsfG1F8VCYLD2IpwrrQ5uM
+OTnozvhN5Kwd431+BaH1PJvrb8dnPVp+zK/uy5a0DJ1ME5Ig4awy2U7NT+HMm21nzWQ9y8/U076Y
+2WNTSj6BpAWgOpLi0oUggKc6aLI0tzPI34cKxbewU+nNsoyzSdC+Pz402RFw7CfuSbBD0wD5A1ro
+atUsfNX1Qr11BlqhzaBHglRZyXxarDVtj8/RJeeGKJCdJPopQbJG0GJ1RYWWatZqReMslyL1N8k4
+jsEDa2GPD5W1J6ToZLC4DYhiWTmuotOkmnaQsB0VFOW+g3NydJ5VYe4MGzV6F6RR9JFKJuXqyVok
+gsO1ikM7SVBT2M/eaSKBJyHLU712kkGRTqFlxafqRfQetvqwzxaFC9v3NAyQOxyBG4D4BtVX0jqg
+GU/WjkeDxhnFVTx2oL7IP8L9BoVSZiTa+iZUqgK+12iUbm0i2/nAhhoxugqDxv1kFHGRwB9QVdXZ
+JjLV96BJNrQYyvzUstMhbZOO6+Xg8E3OldyYqRBqAhdG7qqrGJ0eGnExGtVQx1QVLUcG4arBG0JZ
+603qnDavsEAbVR3MaHBaLTIyj7erfLyyJgrZwXYWpJrZV+Auny/FK2nYB+ktmF5pY9R9pQEcTT5N
+4muHDgtreIY11aYXRfSFwD9cBNu0ss6bVGXb9au652h7uNg0Jg14GvFgIvSatDtB5DrYNlSHOFlh
+fd0A3vhYwD30DsLNPpToI5JEJY1JGp6oAlie7iBXueh4N1Zb2PQCEygFtU6TpAkgCyVPtTw+yYfr
+mhAmMS9YA6jVGMop+dVoWEcJTFbOCCacaZHV9HfarHrSJweXHKaNokoNSCYJZLYAMeK9JbYiOaEF
+bVk57sBz7bqy4GCOVpqNQUXnftkm01HohlN1GOgXZPPDpRE1So8HO1x6vAO4G1GtBMxMjrQ1bbVd
+JRtWlwWVszldJe7gg74eggkcF1DhnMFeDJPLk7Ur/BgFPkB9FCL13XFHhhdpSehSZ58nEOA0+noW
+RSPt9OlSADeLZAGYAwplu1JW24rcVBNUsLzQzhMiJEiG6aX9ZP3pQ42BKETWyFXu5nhvDteNth4V
+AEMcf5vGF6GeKxN/APnMFvLQSVTW7uypoxKYDRCVZECwHF2yGbUZ5mGrFtDDt/7qPEgG7ZlLS5ae
+S8KhQ7FUg5JNBkXK7QB0SNEvKb3Gyh3aw8aT4RD6mxCO9tOhZQymVmRsIYat8+rMHeQ/IFl/u63/
+vlomV/duP3/9D/5/m8D1JGBj0n9fX/i3GXP/W/EP8Wc/v9b9o9fvqmVWlNny5GKR5iezMr5bFH4S
+y3/TeQSSfrzJZFEsOv+ZxoVfNO/LZdZcL/MyLI7/9v6dGZJ40FXix8VNcvCIP/Wl3bD+8EEny917
+3TTp8p+/LO4i9O3nRebfFr/8+NXZ3T9/ARMgYlx/O3jWbjzHnhGitKK84+EDVX1FbQw1+UDH7j+/
+nITg+x9+r2uvBFuH8FX3H+5ySNxT6B/p4eC1HtHV8e8cG8K9hn6oQZC7PE8N2vAVC4yUBwrdH76h
+vCLnCWZFA4crPvit/67hw4Qh8k/PG74yfkU9j0kyRHBC8CGKua8GrACAOjFjkQUWn/8+KxA1Zc9V
+g6q9IvUEHE8sCPGR1WC+MqnaN6knu//cL7///8Vwm5RxIXzWCue37xNECdifMQXpAXsOQRm+ArPK
+R5j6vg0Y2qt7H8DhaPd5wlL4Exr66TYdzw/vdl7VX+Z7rrn3Cw/O5PABe04TBXW+J3zs/ZP/43Nf
+d1zuztft/fLB9+3E/PjzH+M7lNyR9TCohx+e+stskd16ze4XzY+3vFxEOOZ/3WacX+/FCi+3Q0b/
+5y0OtoWfk370oeFilSzy/eeSp8GIn/3gaNEmsFs+PEm8MZdsrsbPfbK98PzFw2N27p6KwIf/P7pB
+/ilNzJZ36D48eWxfFees50uY5un332nmnZx8WHAbfXjgTjNcnV5Awjzxv/+7q3Jq+9gKn6vziwUt
+srzv/9N5ae5hL/HSFws0Mueklycnd+imDB/edze5gCkIBDx/AD+FPDzs/ul4rocf/HXbuVpk3//9
+8Jh7k6Sa8uEHz3ru4vvv3yRrV19ifV4ts3gRfStvu1NqUO/9/Pe+9pnK5cn5Il76WVfA/Qn1udMp
+BMwxSYRgMpdJVnRcI+dgEfh/WSmyYSLjBVaWcAWLE4fbAwj/7kRDWPUCPuEDq/bkalGG3Xm4Pxw9
+V0MfltnKTzu652As4GvPffJNcotmKHp4eJRYVkBmtRfQ+b+iRdpdr+LI/ALr9YIpzE/m7CN+973v
+T+TP1cmVvyi//95RiKjQe/jBX/cz1wlvHHWsT2jkJZZQEt99/9+4u2HDNEJU7QUmEr+7iLszCfUB
+WZQXmEtnKTt1sP2gY3rV/djJ7+f1+PA8KEUZ/ugLnEjFg29DXuv1/wEAAP//</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
   <cx:spPr>
     <a:solidFill>
@@ -2733,8 +4952,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
@@ -6235,13 +8454,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6256,8 +8475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="650422" y="285750"/>
-          <a:ext cx="5962649" cy="3429000"/>
+          <a:off x="715434" y="289982"/>
+          <a:ext cx="6547756" cy="6593417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6300,6 +8519,339 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>-- Colunas: mês, leads (#), vendas (#), receita (k, R$), conversão (%), ticket médio (k, R$)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>-- Query 01: Receita, leads, conversão e ticket médio mês a mês</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WITH leads AS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	(SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		date_trunc('month', visit_page_date)::date  AS visit_page_month,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		COUNT(*) AS visit_page_count</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	FROM sales.funnel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	GROUP BY visit_page_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	ORDER BY visit_page_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	),</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>payments AS </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	(SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		date_trunc('month', fun.paid_date)::date AS paid_month,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		COUNT(fun.paid_date) AS paid_count,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>		SUM(pro.price * (1 + fun.discount)) AS receita</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	FROM sales.funnel AS fun</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	LEFT JOIN sales.products AS pro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	ON fun.product_id = pro.product_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	WHERE fun.paid_date IS NOT NULL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	GROUP BY paid_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	ORDER BY paid_month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	l.visit_page_month AS "Mês",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	l.visit_page_count AS "Leads (#)",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	p.paid_count AS "Vendas (#)",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	(p.receita / 1000) AS "Receita (k, R$)", -- Colocando em milhares</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	(p.paid_count::float / l.visit_page_count::float) AS "Conversão (%)",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	(p.receita / p.paid_count / 1000) AS "Ticket médio (k, R$)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FROM leads l</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEFT JOIN payments p</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ON l.visit_page_month = p.paid_month;</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6377,6 +8929,139 @@
             <a:rPr lang="en-US" sz="1100" b="1"/>
             <a:t>-- Colunas: país, estado, vendas (#)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Query 02: País, estados e vendas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	'Brasil' AS "País", -- Para montar o gráfico no Excel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	c.state AS "Estado",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	COUNT(f.paid_date) AS "Vendas (#)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FROM sales.funnel f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEFT JOIN sales.customers c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ON f.customer_id = c.customer_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GROUP BY "País", "Estado"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ORDER BY "Vendas (#)" DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LIMIT 5;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
@@ -6989,7 +9674,9 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7023,8 +9710,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7044,93 +9731,99 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="F3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="9">
         <v>44075</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>259.29000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>0.19230769230769201</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>51.857999999999997</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="10">
+        <v>734</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
@@ -7143,24 +9836,30 @@
       <c r="B5" s="9">
         <v>44105</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>931</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>35</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>1676.45685</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>3.7593984962405999E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>47.898767142857103</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="I5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10">
+        <v>142</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
@@ -7173,24 +9872,30 @@
       <c r="B6" s="9">
         <v>44136</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>1207</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>44</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>2278.5075000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>3.6454018227009097E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>51.784261363636297</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="10">
+        <v>110</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
@@ -7203,24 +9908,30 @@
       <c r="B7" s="9">
         <v>44166</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1008</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>33</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>2602.7686899999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>3.2738095238095198E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>78.871778484848406</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="10">
+        <v>98</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
@@ -7233,24 +9944,30 @@
       <c r="B8" s="9">
         <v>44197</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1058</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>32</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>2297.2240499999998</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>3.0245746691871401E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>71.788251562499994</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="10">
+        <v>66</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
@@ -7263,19 +9980,19 @@
       <c r="B9" s="9">
         <v>44228</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>1300</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>68</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>3631.0958999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>5.2307692307692298E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>53.398469117646997</v>
       </c>
       <c r="S9" s="1"/>
@@ -7286,19 +10003,19 @@
       <c r="B10" s="9">
         <v>44256</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>1932</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>119</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>7911.1924799999997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>6.15942028985507E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>66.480609075630198</v>
       </c>
       <c r="S10" s="1"/>
@@ -7309,19 +10026,19 @@
       <c r="B11" s="9">
         <v>44287</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>2376</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>142</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>7477.5559199999998</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>5.97643097643097E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>52.658844507042197</v>
       </c>
     </row>
@@ -7329,19 +10046,19 @@
       <c r="B12" s="9">
         <v>44317</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>3819</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>394</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>21508.476480000001</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0.103168368682901</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>54.590041827411099</v>
       </c>
     </row>
@@ -7349,19 +10066,19 @@
       <c r="B13" s="9">
         <v>44348</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>4440</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>589</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>33179.246639999998</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>0.132657657657657</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>56.331488353140898</v>
       </c>
     </row>
@@ -7369,19 +10086,19 @@
       <c r="B14" s="9">
         <v>44378</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>6130</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>1073</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>58987.786489999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>0.17504078303425699</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>54.974637921714802</v>
       </c>
     </row>
@@ -7389,19 +10106,19 @@
       <c r="B15" s="9">
         <v>44409</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="11">
         <v>6353</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="11">
         <v>1254</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>68274.090230000002</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>0.19738706123091401</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>54.445048030302999</v>
       </c>
     </row>
@@ -7481,8 +10198,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70B5C9-62B8-A542-BA83-25D2B8294CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E082E-B829-2646-8E80-8F3504A2CE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,12 +53,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>vendas (#)</t>
-  </si>
-  <si>
-    <t>marca</t>
   </si>
   <si>
     <t>loja</t>
@@ -128,6 +125,27 @@
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>FIAT</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vendas (#)</c:v>
+                  <c:v>Vendas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,13 +1905,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$M$4:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>FIAT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CHEVROLET</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VOLKSWAGEN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RENAULT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1901,6 +1933,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9142,6 +9189,126 @@
             <a:t>-- Colunas: marca, vendas (#)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Query 03: Marca e vendas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	p.brand AS "Marca",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	COUNT(f.paid_date) AS "Vendas"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FROM sales.funnel f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEFT JOIN sales.products p</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ON f.product_id = p.product_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GROUP BY "Marca"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ORDER BY "Vendas" DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LIMIT 5;</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -9674,7 +9841,7 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -9710,8 +9877,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9731,69 +9898,69 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
@@ -9816,16 +9983,20 @@
         <v>51.857999999999997</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="10">
         <v>734</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="M4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="10">
+        <v>248</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="S4" s="1"/>
@@ -9852,16 +10023,20 @@
         <v>47.898767142857103</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="10">
         <v>142</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="10">
+        <v>237</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="S5" s="1"/>
@@ -9888,16 +10063,20 @@
         <v>51.784261363636297</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="10">
         <v>110</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="10">
+        <v>193</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="S6" s="1"/>
@@ -9924,16 +10103,20 @@
         <v>78.871778484848406</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="10">
         <v>98</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="10">
+        <v>136</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="S7" s="1"/>
@@ -9960,16 +10143,20 @@
         <v>71.788251562499994</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="10">
         <v>66</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="M8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="10">
+        <v>108</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="1"/>
@@ -10198,7 +10385,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E082E-B829-2646-8E80-8F3504A2CE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5DD0D-1B4F-C343-8921-218B87FF3333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -53,13 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
-  <si>
-    <t>vendas (#)</t>
-  </si>
-  <si>
-    <t>loja</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>dia_semana</t>
   </si>
@@ -146,6 +140,24 @@
   </si>
   <si>
     <t>RENAULT</t>
+  </si>
+  <si>
+    <t>Lojas</t>
+  </si>
+  <si>
+    <t>KIYOKO CILEIDI JERY LTDA</t>
+  </si>
+  <si>
+    <t>CLAUDINEO JOZENAIDE LUYANE LTDA</t>
+  </si>
+  <si>
+    <t>ADO JUBERTH VALTUIDES LTDA</t>
+  </si>
+  <si>
+    <t>GERRIVALDO ROSIELEN VALTEIDE LTDA</t>
+  </si>
+  <si>
+    <t>NILFA CID SILVANDRO LTDA</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>vendas (#)</c:v>
+                  <c:v>Vendas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2246,13 +2258,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$P$4:$P$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>KIYOKO CILEIDI JERY LTDA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CLAUDINEO JOZENAIDE LUYANE LTDA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ADO JUBERTH VALTUIDES LTDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GERRIVALDO ROSIELEN VALTEIDE LTDA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NILFA CID SILVANDRO LTDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2260,6 +2286,21 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9385,6 +9426,126 @@
             <a:t>-- Colunas: loja, vendas (#)</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Query 04: Loja e vendas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	s.store_name AS "Lojas",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	COUNT(f.paid_date) AS "Vendas"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FROM sales.funnel f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LEFT JOIN sales.stores s</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ON f.store_id = s.store_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WHERE paid_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GROUP BY "Lojas"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ORDER BY "Vendas" DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LIMIT 5;</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -9841,7 +10002,7 @@
   </sheetPr>
   <dimension ref="B1:G1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -9877,8 +10038,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N3"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9898,69 +10059,69 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
@@ -9983,22 +10144,26 @@
         <v>51.857999999999997</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K4" s="10">
         <v>734</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N4" s="10">
         <v>248</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>18</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -10023,22 +10188,26 @@
         <v>47.898767142857103</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="10">
         <v>142</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N5" s="10">
         <v>237</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>15</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -10063,22 +10232,26 @@
         <v>51.784261363636297</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K6" s="10">
         <v>110</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="10">
         <v>193</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>10</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -10103,22 +10276,26 @@
         <v>78.871778484848406</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K7" s="10">
         <v>98</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N7" s="10">
         <v>136</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>10</v>
+      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -10143,22 +10320,26 @@
         <v>71.788251562499994</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="10">
         <v>66</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8" s="10">
         <v>108</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>10</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -10385,7 +10566,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>

--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C5DD0D-1B4F-C343-8921-218B87FF3333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2214E8B-2750-584A-BEB5-AFAAB5BD0BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,15 +53,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>dia_semana</t>
-  </si>
-  <si>
-    <t>dia da semana</t>
-  </si>
-  <si>
-    <t>visitas (#)</t>
   </si>
   <si>
     <t>1 - Receita, leads, conversão e ticket médio mês a mês</t>
@@ -159,6 +153,33 @@
   <si>
     <t>NILFA CID SILVANDRO LTDA</t>
   </si>
+  <si>
+    <t>Dia da semana</t>
+  </si>
+  <si>
+    <t>Visitas (#)</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
 </sst>
 </file>
 
@@ -231,9 +252,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2534,7 +2554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>visitas (#)</c:v>
+                  <c:v>Visitas (#)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2604,13 +2624,33 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Resultados!$T$4:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="0">
+                  <c:v>Domingo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Segunda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Terça</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Quarta</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Quinta</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sexta</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sábado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2618,6 +2658,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>677</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9560,8 +9621,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>312965</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9576,8 +9637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19066329" y="314325"/>
-          <a:ext cx="3902529" cy="3419475"/>
+          <a:off x="21081698" y="318558"/>
+          <a:ext cx="4292600" cy="5252509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9648,6 +9709,269 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Query 05: Dias da semana e visitas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	EXTRACT('dow' FROM visit_page_date) AS dia_semana,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	CASE </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 0 THEN 'Domingo'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 1 THEN 'Segunda'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 2 THEN 'Terça'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 3 THEN 'Quarta'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 4 THEN 'Quinta'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 5 THEN 'Sexta'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		WHEN EXTRACT('dow' FROM visit_page_date) = 6 THEN 'Sábado'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		ELSE NULL </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		END AS "Dia da semana",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	COUNT(*) AS "Visitas (#)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FROM sales.funnel </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHERE visit_page_date BETWEEN '2021-08-01' AND '2021-08-31'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GROUP BY dia_semana</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ORDER BY dia_semana;</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="pt-BR" sz="1100" b="1">
@@ -10009,11 +10333,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21" style="4" customWidth="1"/>
     <col min="3" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="11" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
@@ -10038,8 +10362,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q3"/>
+    <sheetView showGridLines="0" topLeftCell="Q1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10058,500 +10382,542 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="K3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>2</v>
+      <c r="T3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>44075</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>26</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>259.29000000000002</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0.19230769230769201</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>51.857999999999997</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9">
         <v>734</v>
       </c>
-      <c r="M4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="10">
+      <c r="M4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="9">
         <v>248</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="10">
+      <c r="P4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="9">
         <v>18</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="9">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>44105</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>931</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>35</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1676.45685</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>3.7593984962405999E-2</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>47.898767142857103</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="I5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="9">
         <v>142</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="9">
         <v>237</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="10">
+      <c r="P5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="9">
         <v>15</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="9">
+        <v>1301</v>
+      </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>44136</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>1207</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>44</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>2278.5075000000002</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>3.6454018227009097E-2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>51.784261363636297</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="I6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9">
         <v>110</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="M6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="9">
         <v>193</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="P6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="9">
         <v>10</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="S6" s="9">
+        <v>2</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1238</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>44166</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1008</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>33</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2602.7686899999999</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>3.2738095238095198E-2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>78.871778484848406</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="10">
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9">
         <v>98</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="10">
+      <c r="M7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="9">
         <v>136</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="P7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="9">
         <v>10</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="S7" s="9">
+        <v>3</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1038</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>44197</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1058</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>32</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2297.2240499999998</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>3.0245746691871401E-2</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>71.788251562499994</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9">
         <v>66</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="10">
+      <c r="M8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="9">
         <v>108</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="9">
         <v>10</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="S8" s="9">
+        <v>4</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1076</v>
+      </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>44228</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1300</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>68</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>3631.0958999999998</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>5.2307692307692298E-2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>53.398469117646997</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="S9" s="9">
+        <v>5</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="9">
+        <v>956</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>44256</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>1932</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>119</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>7911.1924799999997</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>6.15942028985507E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>66.480609075630198</v>
       </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="S10" s="9">
+        <v>6</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="9">
+        <v>677</v>
+      </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>44287</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>2376</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>142</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>7477.5559199999998</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>5.97643097643097E-2</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>52.658844507042197</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>44317</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>3819</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>394</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>21508.476480000001</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.103168368682901</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>54.590041827411099</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>44348</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>4440</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>589</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>33179.246639999998</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0.132657657657657</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>56.331488353140898</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>44378</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>6130</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>1073</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>58987.786489999999</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0.17504078303425699</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>54.974637921714802</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>44409</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>6353</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>1254</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>68274.090230000002</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.19738706123091401</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>54.445048030302999</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>44075</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>EDATE(C29,1)</f>
         <v>44105</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" ref="E29:L29" si="0">EDATE(D29,1)</f>
         <v>44136</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>44166</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>44197</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
         <v>44228</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <f t="shared" si="0"/>
         <v>44256</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>44287</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>44317</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <f t="shared" si="0"/>
         <v>44348</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <f t="shared" ref="M29:N29" si="1">EDATE(L29,1)</f>
         <v>44378</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <f t="shared" si="1"/>
         <v>44409</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10566,8 +10932,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Exercicios/Projeto01_Dashboard_Vendas.xlsx
+++ b/Exercicios/Projeto01_Dashboard_Vendas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilhermefogolin/Projetos/Estudos-SQL/Exercicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2214E8B-2750-584A-BEB5-AFAAB5BD0BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A385A1-9AB5-D44C-8ED8-CC1A9D351B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,14 @@
     <definedName name="_xlchart.v5.1" hidden="1">Resultados!$I$4:$J$8</definedName>
     <definedName name="_xlchart.v5.10" hidden="1">Resultados!$K$3</definedName>
     <definedName name="_xlchart.v5.11" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v5.12" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">Resultados!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">Resultados!$I$3:$J$3</definedName>
+    <definedName name="_xlchart.v5.17" hidden="1">Resultados!$I$4:$J$8</definedName>
+    <definedName name="_xlchart.v5.18" hidden="1">Resultados!$K$3</definedName>
+    <definedName name="_xlchart.v5.19" hidden="1">Resultados!$K$4:$K$8</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Resultados!$K$3</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Resultados!$K$4:$K$8</definedName>
     <definedName name="_xlchart.v5.4" hidden="1">Resultados!$I$3:$J$3</definedName>
@@ -240,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -248,11 +256,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,34 +337,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -330,10 +417,10 @@
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -357,7 +444,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" i="0"/>
               <a:t>Leads</a:t>
             </a:r>
           </a:p>
@@ -371,26 +458,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -425,7 +492,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="176C83"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -582,7 +651,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0057-4792-8753-862D5E3DF6D5}"/>
+              <c16:uniqueId val="{00000001-AD48-3843-85C9-00B7348FAB05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -618,7 +687,10 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFBE00"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -783,7 +855,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0057-4792-8753-862D5E3DF6D5}"/>
+              <c16:uniqueId val="{00000003-AD48-3843-85C9-00B7348FAB05}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -861,9 +933,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -966,11 +1037,11 @@
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -1006,14 +1077,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1153,7 +1218,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:tint val="77000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1347,8 +1412,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="76000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1737,6 +1803,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1744,7 +1811,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2079,6 +2145,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2086,7 +2153,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2420,6 +2486,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2427,7 +2494,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2778,6 +2844,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2785,7 +2852,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2827,12 +2893,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.9</cx:f>
-        <cx:nf>_xlchart.v5.8</cx:nf>
+        <cx:f>_xlchart.v5.17</cx:f>
+        <cx:nf>_xlchart.v5.16</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.11</cx:f>
-        <cx:nf>_xlchart.v5.10</cx:nf>
+        <cx:f>_xlchart.v5.19</cx:f>
+        <cx:nf>_xlchart.v5.18</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2870,2219 +2936,2223 @@
         <cx:series layoutId="regionMap" uniqueId="{02A53EDD-DCFC-4A88-B213-71274D6215FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.10</cx:f>
+              <cx:f>_xlchart.v5.18</cx:f>
               <cx:v>Vendas (#)</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:geography cultureLanguage="en-US" cultureRegion="BR" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>3HpZktw4tuVWZPpuKjESYNnL+gDpU8yTxh9aKCKSBCeQAEiQ3E1bb6F38DbW16XMLEWkSuoqa+uP
-cpNZyB0EAdz5noP/epj/9tA83dtXc9t07m8P86+vS+/7v/3yi3son9p796bVD9Y485t/82DaX8xv
-v+mHp18e7X3QXfELQZj98lDeW/80v/77f8HbiidzZh7uvTbd9fhkl5snNzbe/WDsu0OvHszY+eP0
-At7062tl71fdvH711Hntl7ulf/r19bNHXr/65eWL/rLoqwb25cdHmBth9IZ++SDy+lVjuuKPAU7f
-EHT8iPjLn+P411Uv7luY+fOdfNnH/eOjfXLu1e9//zHv2a7/8bN2Jv165NQcN6huvpzol+ci/ft/
-vfgBzvjil2+k/lIgPxv6Z0K/f2x1l2nnrX7w+NfXt+kfIvmqiGfj39v2zxb+aiTf3e7/7Z5ubn+2
-p+eS/KFxUPQG0YSTRL6wDfyG4DihMPhd27jR5tXO3nePT68ezavb8YXBPpfT983kO694Nu3X18eT
-/gcY0c3J/0OFEfImQVIihEny9fNccYy+wUksaPLVtRGifyz+1amPUgelndx3T9qaP8a+Z93/XGvf
-zn+pMjjrf4DKznc/ksy/GoCTNwmWMYMM8tWX8F9UllAewzP06/gLlZ3r7t692j3Ze+1+tK3vK+z5
-7BfqOp7zP0Bdt1c/ksu/qC5C33BKkzg5etnx81Jd8ZuYSBlL9LsDQuj8Nm3e/vf/Mq+u7sfm3/Cu
-b+e+UNXxjP9fVfXPs+2fGSW79/ebL3XKN3nvx6N/pL4XU5+VO89O/odwD4+/vk4oQ1ygbyqg42ue
-Sf/qHrLSf//P7856unceCiIm3yDCZYIoR5RhkYjXr8LTlyHO3sRY8FiC+gWJeQwlUWesL2EaRF6O
-eQJmwRClBFGwC2fGr2PxG4Ex2INMKIYHhPizRrwyzVKY7k+p/P79VTe2V0Z33v36mlNYpv/63PGY
-MYsRRjJJRAyWFotEwg77h/sbKEThcfw/iPElRkM0ZpERpFI8DNOyqXDXXkfEEqOaKI4OLJ7NrAbT
-tUbNfpxrJbys79ksBpJGYS4G1Qw6h0ER+lwJom2+mRhyhZKti+ZNV0fFIc7JiNJKmgGreHGepV1T
-LQ/SCp+nqG3sR0tGg9NIu3FIAx/ZohbaokseFfi0CG6s0zln+agcwtRvitCjStWDW5tUJ8JdU02I
-Vbl3tlctWdGctnNEtLIWsfdJ3NZthjRWZd7GH1bkEVLO4HxfxTZ+9GTury3O2/uFe1akSzEF2ITV
-IIOqaPo1rXU8X7Pg11phg6ZWaRmNQU1cwNEs4pOqre1duoSSTZltG4PVbCduU0Mn59I4WvX9Uvas
-UHWeFz4ty9mVuzFUflFluyb30lPXK9KWXa2aZpZYjXyyn/J6KdoUmWjZF2KpGyWLJtQZ7NV96LrW
-BzW6RBxk0dW3OQ3uDplY26xpNTlnhpmz3vhIZ4PVbFW2cOKzKb38QGSeL/ukEOMlz3vQuo3rBG+W
-SvhTFEJ3XgQt3q0Cr3k2tqS5dI2tUDr0XfgkWL++Y+3qZjWisboKgzGfusQMN3pa0KJWPTmW4qRs
-/aoqXnOvktqEuyiW5SOsyNEhopq/bboq6O2Ur5PMwtjgZTuUvqk2A6L6s1jn4cnMg8adKvToyWZt
-klZkM63KXM3JQMuU6Hpx6RyZ8S4mmAtlbMJD1gZSvcOkZe6gq8Sf1LkoPoqFVafDvOT3Ni+NTkku
-3LBtjPA3cdet913UzB9Ls4yRwhJNF7pf2ouKNXZQpRxyoiax5pXya2yoGnOaF2rtTGhVjqX4XHLu
-m9T4Ks+zehmaCIxPyjOE2rpIK7yul3nNx4sBx+RDK038CaOEFyoOoz1DHa1PJUv6dNEN9+nquuZm
-6UPwamh7LFIyJ901VNFDocaoJeAX2vPbmEmtFauTaVutARcZYsZt2VokN5pHdi9jN19j2ye7Mi/a
-+zyXzZhCtOpciiZbMuVCaeSusPV0E+nOdWkjkfvkULDxxqzzvKrIBgtripUyVXfVkm+ZwfY80CI8
-yEG6XE0VSNXbeGCbBs9h2a4Fz7myrGHdpjHrSlTPTC13I29Rmc3VtJJsLTS/QXkxflrlQHiK+kBx
-KnKHIzUXNWNK0sYkm1Aj/9hJ6botK+x63o+gxD2Ki7racjT1VOXjWk+7cuDlmi7LQs9mAV10VZdJ
-nbo8zx/Hcu1alXDJ7imoaFXDYBqsEK7atMM9blMbRslT24eoV4ySds6sOZqSreplVEUZKp7VUYKK
-tOuGIk6TPC4/RiZxn5iMmrMwVd3n0VseqzHGhG7ZMnYmTYao45uiErG/brUTty3r1jaFBexphX25
-KiFbO26wH8mk5AAbieSy5qmrKf9YaTPpbA2gxs0S5347iYgRZUtEhn0sAn6rK946hVa/eFVWIX7X
-8gZdDQzVfDMm0p7n8VzpzPZr854JEkEoH6X7zRZNO6q2mYLe9DSeMlP5QW8GO/k2m/qofJCutGjL
-SNSuahnm+imCo7iUNHM3pL2oF5HRYpl/Q3MBcT9BdhBqhZh3kw+yWDZcG/M4j3lyO5GGShWc9Td5
-264MohlJqhRCHdgEInTGabEGdoCzFlxFTkPA69e5WlWtURWrlYz0/Yyr0UMIGdCYzmPZGCXwXH3o
-Qyu8YmPXnQSmyboxpQlPqMPsraniaFB1jTubojEMt9Ig1GTFwqd4U3QRWLWZESoVSooFq7psepu5
-bpjXfWHZShVCnMepq+K6yIoxh+frFuk5K1g5fy5oRD7K2Ay3zNEyzkyOG5ZOXNpogwTEaNXyCXsV
-jb5/73yJWuVyv87K1WuSbEwEng3heGInHW5QuysWCrbdVO1FMs+TzYqEko/VTDjd6lFEq2J9rodd
-M/oO9OOH6lE3Q/yJ9rkkm2Ecl0QVJGHR1iQzqU+qbsFvEx4hdrquZk32YB8xzXCie5LJBMPBzLKU
-foNmq5uDk5Zw5XSdrNcOEu7bAlXWgKf3ejzUiId1X3ucJ8qD2WbdbOI6Mz24durGzlUb4wWq0wJJ
-b7K1C8O+6MU8HFCoB3aTNK6udyWjOtqbcrZBdRAI5tti9vlNDsEpKIoYD5dkTGqclsK0n/IJL1W2
-eBMx1bRDUW2Rdo4pnft4T2JGTYqWZLYZ9/lq1YRdLk5chyOi2DrGdrcYWt2MPXVYTWGJK7WgtWpU
-15B6yVYia7mpgojijWZm4mp2Q2wz4m0zbAqvZ7exSbDdoWMzGbcoxmuicCRaDuqqJq8WPzd4M5fc
-jYpTD8+XsW4fer32USokNeWGVn0pwTTpcivENI8n0tTjuNMIcpRtqc33bd3NjZqHCt3NXcBPTAzy
-3vQYhR2AarZUOStDrZag2wArouZzsHN+lw8hf4zKIilUWObAUjYHEVKaLMOp0QP9aJsS16pFCfs4
-6HnqlPU42Q1QLGjwh6pr93Mx5ze+Nv2ULRVxRdbwutoEvA44dU09gKkT0jRpPXeSZXneQACURIgr
-FyLfKNPT/MREiHaZhyMTpYeuLlPqFvQWoXz53NioMWnTiC5OG4alTXM7m6uuYjJXJtS8U5i4st4a
-2sa3kMmgmPOOiKsy53xNB5lDRQUdUR8ueoHM3Vw1fQz1ToyNIq6pRNrXPmGppmiYMyLGctd1xeA3
-cetovGnsKi6bMp8+sG4sblluyvZsiGbxmNN6rJUjFgzFMB5FCspB7zelnSHdszWMaFOiSb6tpgJB
-OIhWMB1WLubjVFWgka7qIN0vK2TvXTGiAW9EraneCS3InNF6Lt/LPIKAYWAmBBjdg+pADkVIvVy8
-Sy0ZDE2jBHeQSO3ayrSfcppVcahvY1f5cdePTZUr3mEbsgoBeqgK3hkoBqZ5XSFVEwj3zegKrApI
-FPEW12X7Fg9JR8HSu0afzL5dcPpNS/O9BuFlewBFBZeUMmhHjv9lz9sDu0oeF0NUZZUuhy3JWQ9C
-7ISaIxz+jaViihlLYsKZSOLnS/GmnKCKT6osrNRf9qVpUzNJ/JHVdNr++FTHXT9rerDAFFofiOQx
-dFLsRdOD1kEv/SjrrA+r2SWu+c3SuNv8eJHjS14uEh+BmBjSGmHxi/M4imvPRl1lPRPL2xEqoWyN
-WHkmo86do7Jvzrs1srH68arfO9q3q744Wh4vBrEy1xnF07qfeu13xk1k/y+ugpKYcywIQQni0OM+
-11U+lV2bsEVnKDieYdm4HTZT9RM1Yehzn4vwyzKSJ9AHS+BFAK76tjkFPAASL6U6q/p+75NmzKZi
-jTYGVVE6xA5dDGxst+Ug+k0+5/N2QDi5zkfPAOH4k9r4jhckP9nHCy9gPQqeMKIzbW2rZi7sTtBj
-tBYtzSB3bkxMveJtMNBAo+InhvQXlYIUYoETibFgkkhAJb6VQrxSsfAWysExSfTG00ZmZHbmJ8I+
-quyZub5Y5aiLb4AAa7TRlRh1JotiPOFDvGxQMU5boyea/Vic5LjjF2sJKuM4poISmfAXJzK5yEu9
-MJ21M4KYN86QCSCR2pqcaEOHT2PJV3wwpkOfcjLNWfB9o0RjWryrA2bnfZUzoUheR0pPVb3HK4me
-xhbTT72poSWKoETnGaSL5KoYIUX9JFL9RSEQCcGtMdSoUhxRmOeiqqYpL0IFkYoQAxqX2mwirfHh
-x1L67ioS4isXIKcYgJ5nCnGGhrKXEHp7RsC9JG23Gjn+k3jxF7XDWY7BiUBRywWOj7v4Ru3FAiAA
-HWSVRdNiVFkittUBV/s5R/Ppjw/014AICQT8gkokEDTjRyjqm6WgqYKArHWdDc4XD2s9tnecF8N2
-qPicOWmikyIpf3a+oy6emRqEeiEALKNEHCG4F4vyedH1AFhDFslRX7X1CE2NmLu0ZT05xWWVA44T
-crpnpc/vf3zevyoQlpZcIk4INPMvzWReXR9F8wzRK47nLB5JfVZ7aIH/jVUSyMwJBu1Bg/lcqrwa
-oc7Kuc4EmaYtBQfY4mMz+eNV/hqKQY4JmDyFcwjCkxeh2AjUdtC1VlluoJLNhmAKATWU8F6NDWFe
-UaPp2VLWEU2dRR144oByxZaqJqqQfT/8ZEfH9PlSsXBsCtglREUqX2xoKjo2DCuDDa0D2xVQu153
-XDdZZfsYqWSckp/kvL+arwCmK8GMcoJYkrwIWqVnLJpEqDIpPFHeYzJlIjJyjxIB/XnVy7NJONf+
-JPr/1UFhWYCPBawac4xeOKiPOEV4mKqsAJRpy7tqPeR67LgCvJbEPzGmLxn1hVQJhANCjrEAaIcX
-WSDp0CKSYqgyI8b4ArqIRLnGRbcDRyKb6iYvAHLDE7SzhsznGK3JBVi+iTIKPezO2zHfAlaV775Y
-3++4/9XXDXzFrR9Mv1hdlL9fb/jz69/P/7gz8YWc/8fvxwsS//h2OT1ZP9qnV+f3vXu1HbvHL9cm
-Xs45rvznJFj4950cMf5nX/5COfwTUuE52f5vMg6UJAK0/2dh8hfG4cZ0j//9vzsNcegrDfSVqfh9
-3u+cA0/eCEEhXUjwUmjNKBjM75xDHL+BYCTFseyF8EsZDP3BOYg3QERALhZQeMcUQc31D84B0zcw
-RgW4GwbCAXH8r3AOEHNf5H8qOVQxcQzMFoF/EFKexyzpJ9utlNSZH8Jj00tzWAtvN0HTCnp6MWOt
-1qhY9/Han7KG0E07Yak4Bwyowwn+WEM5dGamUUdZI+YpXVk5HYqu5CfIumYHEMTjzADuUn10SJq5
-3dXJctmEuTwt+6rdLfl4z9fi4ohfefGud52q2ukqjt3BtNUuibSayuVsCMvGzeE3R5P3aMVCAQb8
-3i3VGe/Lh1nsRxltypVeMdPvR8+vaTNubClTOTrAsS5wIB+01Bs+1Luhlier7B/8Qk/yfDwvh16F
-aNmY3l2ReYbWchSVTztUq5WtGfjSSQmxzLLPCBW7CuOMd1LZrgzK925Xrd3G4zXVVX7QxPapJ3Fy
-T4WfNqKLkBJlvhuHB1Ks7ypnRVaW5ENEOD4Mfn2/AtWy1XZYdv20m4zJiqmYMjkxexBLV+8mAPGQ
-E2dzaU/4WN7OA71qdayWtiG3IuqQisVy53CV0qJScQFbCOd1C1B2OW0iesHZCGGKHyxps7Hvsz5+
-u7SrBsh6is4Sm2QDMzs/7o3AaVd313TKP5IEADevs7ifStWP09s2CJdWuV0yYHqUxEWShmWdrqPh
-0AA2MPTA6sTDoMSYFIeuAxOo3wG8+7EDkiYdVnydFG7+VKPYpv24fJgDP1sEATQtwdVnvpbhQQd+
-X5J2UkPB7zGKl2zmM1EtZNndAPgbRHgoS6RvwrYvh+5mMfomLrY8PlRdiFNRmJMiL9sWqJvYnvW0
-DTfJROkd8GDkith5eV84CvzKYgDDiZZtEhfzthG6S/UEJBSYZf6xx/lpHjfsMMVUn3LH3kKn8QHK
-sXBhmdMHWYr6BHW+ylwz3DlZpXKCp4PWLotXVG+BituUEb20fN5bCS2IW85ImK0yOXBvicmbi9qX
-jcJVdaiBk9mwHn9affdbHwFy6gGCVGSp3/JouDC5Bpxc2klsl2g1d5LMKdSA74LoB8WxawFhlFNa
-h/bQsGbdkqhn58UiVNW3CnDJcy91OoLxoQCUFw7FTk5BpENTKCH6HTRlGR7l3oWzqCuzkYaQ4tb5
-q7iun0xo3htpi4yN0ZJx6S+WSqd9P+9QNG0FfZhGorjIFRTA55QYt7OhADsMbF833S1f5L1rvb2B
-22+q8E9rmD7ahUSKlvrQu2HnJJ2U47hOAbqJzL2Z83dI++JxjYv4omQaODrO5HnBDAL8N1DeqLWp
-xn0LZmrukikowudHvmiVEweI2AfUt7fAQMGm0mYkpdJJ/h4mKGDPjGrXwSssFkCQAO9LK8u2NRjA
-xPM7AAQb1ctKrf0+75PzuFmBzIlGoB+6DZkOK4BbAcxFdTxulGefV1nfBq7rdC1GldvkQ9zuEOwD
-8esBybBbDQEmCxHAZfywQN0jzpdoBsbJA1vKy7bfxqMLe9bH7U27xp8gkKYxQGF5/qkuxm1Zx2nR
-4EOeP/hxShPsXTbg6l2dNxvu+y2biy2wfBs0rCe9wHsKIBSg83XW+eIQ8kscPlR266cJb1HTn7kK
-LGqokke3RFkeTvImnHk9oVRGTpV1Bdv+3EbdBS39brTNTleFal2+Q9W4jcpxFwZ04vCwS8yczYDq
-6+KymVi2NMW1FglPgUM8Acr80I5kvTXTcN7N94Ooz9plusCJ+TA35Br4hROhdeaq+rQLABjnFTAe
-el6gheQ6LYm+yWcGUUJEbt/GWmSI1kiVodnWbXxXmn7IgBh6V4vhUvbdbVslJ0gCf8pRigejAIS/
-Mq4rUkrGTd2IfSXKdzlgzem0VE/aI+VtGR8wi9+SQt7OukrrJO7Pk6Gt044EwMs7E6d89FqJFSy2
-haJyX4rm2rfxlW3RDvqjt4Wuq0vasDM9tjvL3ktghnDk7os57Aa+XowruSsMPslB0orx+U5EEMvi
-yd0gbqlK8PR5dMAgFclvs8tP23q9aFh1A9TckOZL12WJF3hXRSf4uIMmqjfV2NSqtGRXNbQCSlk/
-IV9eBMyh5BMOpTMA6HEZA/kugegvdYa7/m7iwQOdtAztDjjkU15QMLjp87oM/nyCewml8UsmwCG2
-pGPvO10DeWfeAtJhNpLJk3JCJwWur7nXOzq+1xBF0zF38kCtvVqW8WBDtcljEPr8lIRKq1Z2Cunq
-zLcSYkDvUz+ik76cTuISvDFuwqlE+FJXAdjdsgKcONDTEVDnXpbXo1sKgHr7VBP01Ln1kPCBn3dR
-z/d44XelLy/Hml8mUTQqYaoMH3leAOVPtIhOfJLkKcDJaU/6Uz/k79aq3OJFHEzcbIZVbPOOpwDg
-7JeEJRuZT+60RBCdo17PZxJzgKg9+0Dznl9L65dTkgwpS1rw03XbFvOm0QDw2/IGiNzhgiwloL9k
-TA0U1QjNn0nh3k1dfrXk9acarJlOT4AFpQCOQV8wLufEubBxur9AofAKOGiTLrYq00UwvIeDtVlk
-ATtyunxyJHxsxGovSDuIHVwXOJEMK8kCPRRNk7wbJTksQ3RHJdNbYfrqvCWRSCfgzCCeCdRsgrfv
-+iTAZQ8aq46S87jk2+DhtgYZK7pj3SCgsy4OvbGLsv34foDWFSwmZxaSpUhuKpOfDwXi26EHIc61
-lFswd7SZBKQQwx7AW9YsapoL3vqLWs/xIRegxrZpMgpc8MEtUJFpIe5dDsg80LZpHcUKNfS2Hetz
-FCfmnta5POdRCZR22+5mijKL6JTmuK0hFBTbeI1zVdIRqWaV7VkQEugbg38bC5a1Deo20lqnooWe
-Rmt9i3ST0iWfL0k33HmADvZzIxbl5TiRPm2AsoPrB7g9tyEXttsWfhovkC+q06mSNEUMJ2dFbeUG
-mabLAo6AfISblSK1C6Ynen4L1zryy8Dyex2NVaZxHjLEfdi6oqxOC27khsWUZoXOKRgMDERVmQDx
-PxxfaeXO8KU7MQTWqoc5bIsCZgCwdpSL6zc1hYsFtfWzCmsU7uqRD7fITmFbk7m8dsOUnMkpsR/Y
-AtO+PGzk2J0U8dyd1MskdzIZk7O6x6ZSRdXTj7WsO6hIfL8xSVy+r+vkkcbFZs41FL8MSi6QYrND
-hYW1j8vKEfYoc5BCXR1n2tYfFgfsxzjbpwC334CZOb4tNOV8N3gOpBDGWpxPWg8pRJHrpEapHtqT
-Yh1TXoj+AmjPvZ+vbA6EVcnYZjUFIFgVPaVwMUEBNxafUFIsGW0tRDfdA4mH7ZWN2relSN5FwQ9g
-KpXNWovsLiHNkiWr+YQIAHlhVsC6gB0uxS5Ic4MGeojiCWXI6rCVQNqm7Whvo7i+lFF/Ape7dj2g
-HFBZDjij/XDRJ9V2ZXajOd/OawGZO6k/utDfRIxPKfDF4bRuc72t12HZdwQyYGXI7crodUNttRHR
-fFuh6kKU/aVsi2sgUc+AiZ6zZOzyUz67FaqgBLiEvIsfUCvGPfRsn0Q+iyzpquSUeLguM3QlEOVx
-/qRlSNKpms8B3QFuvmjHW0TItG2g0Ny1U2kOcBFiPc/Xpr3NUf0ZLKmFhFSbLATNszGPA1RUhT83
-BI9Zj5fmpOotQB582yXzkAHGc4y7BVQGou7gNkAF1gLEyjqVegdM324t8pPFdzoDbERs5oH7jOuJ
-nM0o4pkZSZNy38GlsE+iYp+rDnL8LIo17UbzKNeyfbSF4ApRl18kBQJwf9HrhRzGkLZJDprgdF+X
-Q5E6XPZZ2S4pOCCFSj4vUxRYctFwPkPVQH0K0TFc9nFXpaHVOu2KhE1ARrZJZtpCnLmZnDcFZntd
-LtUVnrDYRkDtb7+67LA0N3ULOUfmjT8EL5tdYTz8FoOTF6hDezuO4B60P/q7BVvum2F+H/EE6u4m
-h3sgJHY0cyv4LqtYflkUfFmVXI/TmxgqT8flOVkX0mzyZmgWqFYTecEmC7cF2iU8fYkQNR6O/hq5
-Q70GWM01ZZexhMJmxlZuDCvrEZKKnu9Y3kCxy2ZTvg94htgS4FaBjAI4+Rqte2fdcFuHhb2th2Rt
-ge9n+lTMjL0VFelP5k7M+25qEMiW9+lE4Y2Ut8OJN2V5E5qFZnLth1snBFwNQFBq25SFKb9k01q+
-Zy6AQxfDUL4HO7UfAmqhhPkayuoAtwuYg2hV1HRMUrRCJQIED/o/7Jzbkp44tq2fiA4kTuIW+A95
-Ptrp9A3htNMSEiAQSAK9036K/WJ7/NVVHbVW7I4Vfb/uXGVn5p8cpuYc4xvz/Ee5AhmGq/LPjwgl
-YzqAijTflO7WK1ka/osHjs+0b11yALSETqAPaoYhmSxdvcD3+mKLNZqaobPw0yVq2CIAhMQd6mzF
-Fe0C7v3QJ8d/FsNp2T78XCS15mV/UlR0wBX1Lp7iOJ1qzvn2CtYaf2o7157+KIypQYVivbtwI37C
-v//nV8UzKqye27lDtZYz/ly46IarFb9nhm+j8hVfMQ2LwK+LUcrgkce9GV/GodNox3X87lipT34i
-0QxzJ0sOArxHjIlAtuORDfj3fh4SWuMUo33l4L7powk4J4qC+um8LMrd4Jw2oQZ4QG/RC6enYtRl
-VHk9FZjpUbtoX7LHXBAcxmIQ0WEz2yxqiet0k/gSkEViIyBWbQgvWbd2UCjKScKzbJfzlApBqoLP
-uh6Cir+HGR7R7pLoEIGRuo5Dsh1kUgCKnFpVPOk0Mq5yquy/ZVMA5eYxWQ1VFmv/LY999LUQWVmZ
-vYtQ17W/DPWhKK5MEnUPVgJfPExzsr4vYz4BAxnX7RrifijwSsvx7F0o7HPp4c6fBh/lr3Osl4bj
-nzVkdWyqIp2Un0Wy+w+y7uW1pVrUivl3CBrhsXPON8uCmaDucWve5uBMlUlZPHtBY1mHIMTJaMmv
-Wk7TrCq7OLlZB8LupkEWYKYknI0DSywwV8baK6qKKTqXBZO3NqVmwX2i0dW4pomt5tRkp8Ha/qvb
-S1LTTNg7skzsmgvenhYqprVJYfvP6PMiTPTkcv7ECnxpb7PzKPn2hcip/AiSo//2gymvWdFNrFqV
-LV2F+UfQ49CS5Zp44x/w0m8vraXTVxdbzauRbpC/NuhKkks+NtQOop5gw2DmH6Nruxid4Z54fh+y
-EK41lKfrsMXsEc/cfrdvLQPoCg656vahCJh8YyBIcokhfHRd/NXqOfMVfj1/PW5EpAcnTfuU2lBc
-ceegWmkUVpiivXOwAcr5V55u013hFDsWNgEoO1Ei7wgAEoIReRh74ItLB6ZoT6Iv+E/+s2R98i2H
-Xrw0iQ/FLyBDqaiglLM31Zf5Kx7P/G4udPlK2kyeJhEVT4OS87WPyf5iWbnTyoISvLo4aW8tHdnX
-SLjy10WchDY4J7lCCSGiO2qJOpeFVnyM0mDciMg4p01q+ul1SrrBXCfZHN1Z1g151ZFl+Wi3Ud3u
-PdBMB0HhENlFf7gEdzKA2rnrt8yz48zDnHy4tMX0gGpWJ8HQK3AJxTFseXlkS67v9sQXnwXRab2V
-GJ3LfcQ9GD3YHWnVVqcxK5/bLM3Oy8bLB682gMAwPa6TlGGEZHBY8gvrWtFpGEzlfQEEMOdgT9xY
-mjNGg6VKfd7fQxasaI4vTrruNuv5D4fvdYuHKz+Xql0h6q/lqZB60lVQub4FPL3WPIc5m3QJGqG9
-6GrCSHejo83UWUyix7bHRBQm5m8WghY8Jqt/IpQO5z327GqY3zJZ2m+49KYeje7vhrwASBN4pBpU
-+ehgWV9cd9Cgzkz3H8AN+dO06rXaiBuu/AAochVb8QS8L52rOU7XBofYdNsKxivjtT+IYtmrPhuX
-Yza020tod7Svfbvd5CArvywkpQ0BNvjsvZgrO6BeY1CVSaXLFgoBz+KndmXuFsDTXmvNP7zs1WPc
-UbZVWYtGxIWkv+9EikFgoRGr29aQRoHtTGtjeNwAadtAA0NFWOne4oSiUZMpH537EI2HOJbbeaZ+
-ecjAcTWhGMOv2Rh6JiX311mW0iPLbdQstIzuuoUsvyn3UlQDKDu8IJN/m30w9UWUzicpAbRfRM8p
-2fkPlnJczg01y7RxCXqbEYCwajBXvSTuJhbdekZBWJNqaG1y4wLovxPNUapvNKbT7/1S9ENd0KJ7
-BDk0TKd1icSHVKy7SakEZTEKh3M4mSDwpFFWgHvoe/cZ1iAeYMgVY61aqf54EtPtGrUkOW/bBuCP
-SlDghIFJLJKpbEjPy9eIxdJVptz07cgGtjbFWrIrZVOA7GM/Zl+XtUg/MSbS7koBlztNNNGHDa7S
-dU9hgteldOl2NIxcsGc6xZ+2FBiNUZ13fVxRbZMK/Nz2fVKx+qEL71DkBlwgs+M8q2YXuRei9Xbn
-5oxeh05HX5yGpWD3tn9OFU6iGrIP9B21yfbere1874FLH6hx7hSr2YlDR9ulP9AyJGkNBm/7vgvn
-37neh5fRFZDq8R6+lCTg+HMY0b6KbNcK3y/Omt30DoJbWVJ0IG0hjkM521uEEthh8yUxddLjE0C3
-6ZLHBZAnQ8O5ayD/mWLo83N+xxWXTzpfJ1CwhFnM9BEFdMwCe3Uw778nAy5kr+KloaSYHgBdivM4
-9y9Ln5GbUXCBbIRv37KMWWA0yUyPE+3n27ZQJauGcuO0ttk6v3robeBbhFvAnU3bUdhITFULqu9s
-+pgDCjXj9LAlfnuSUQxUN1Ibf9GiVa/tvrpfG+oyUPh2k3E17SXvcHhEUN/CpMZvKCT4IAGnCQfW
-WaLg8qxnlSJ6cDXb1faxe95DSbMjq7dQxld56K/xtk7iEJW65LXIKajP2U7xLzTi5pzO03yc+i5l
-B7hNHQxJYKVPfGlj9C2kpV8XVJs7B2y6AfQorkk5xeducVexzXKAdNM2nkQ2p0c8ZOQ6VTRMEEG4
-edzgnJ0ms/JHgkmpg2QwpngDM/vR9TS7Qsud0EaC9u+BFECrSQu9HSHfmw8brfw2yJZ9Ci0UWP59
-yR4gmODsdKYj9xh+DWRNxxxGOJvDCRglVOJapWN3s/mkPKX93oPMFU2ORAYOzam86dAVUGRp1vGZ
-m3hej1OaQac3JmsGKf1BCR096xSAc7xucR1aBSNhLPfKA01aB/6K+vW0RtRXUQ4NvcvCdQ6Pvtnl
-Doyoy/mvYem/7HRvwI7GdzAb5kYVkbmzqUnePcyM09CncBrWNq+A2T/7RVxF03wo2dpeI0VQlTh4
-IiqeQrwfhyg0IxLPfiN3XIsHiCDQfFR7gKd3GIyCda1U0+bpm9DzKcTx67JA0SuZPcrSv09tcWOm
-eax2vLGn0UtWj2K/yFsmRYoAip1E4qTPIStRFU4qi7uDHPUeGrO3jeFlfkSMabnPVr0fyrFMYVWs
-3Zthw/ydTJQePVuXuyVv26uI8SCrNjHpOUS55HVOXPy7pPt0j6cWVSot2q9O8PCF6o1e22hcdUVE
-YZ9M4sYXxldymEdEiFTIFJDS8BocuSngaCAl4DCGAXZBXsWnN8q130LHgP7zaDupzRYc9qCkGASl
-usM8j751LOQVH2KDg8X0jUgKMBNg+p/WeAtQQGJ33TnfNuUQ7+tJmHF+jjSxv2D/amjp8Ek24c1J
-p5TBadjxRg8suSn6dr+bEr7c5xFxtkqZK16My+2NEkVAp7kVPwtQl8dlpqTe0HPWuY6j63GZ+9Oe
-Tt2xTEP+ERHLa1Xo/tuS0Kwp+1heIzyCPnuJS/S/Kn9LUkEPu3Phqh9FjgAEbcdqmNcBULkk9+kU
-IedAp+kw+JKd9z1fv0TtlhxtlLCfwzasd8O8lw8bXRUkGSVeC0x3n/GWQAZdlF/uesDRhzX18jpj
-OrsFoORHFJJhO/VCJu8xGbvDrjKMzftuilpIjXkExEaDxJJ6T+BKHDnYhUfQ/5AFEYk4kI6rR6d9
-+3NL1ugRflly0J6WT9KsyaOCPwrjJJnOfQtWPOQXWSRf1XXbpe8aKPhpjGx2GDYvPiU37GGnbH9O
-sgUPUj+BMZ5Azf2YGa7cBlT/Sns4OIDdzAvfc0BrSuED6dU0RO7THZsKW4lQ8Maint1G4g8RKrV7
-AxT6gmHD+NNxaR56mG5494OnMC3SPdSCy6CbIZCpluMUBACukVyJeA/HmHB1W6iZo6BczACAdE0f
-uumQ6CF8yLJHx0JT2BLQts5ym6ObLtnFgeZjfChy62/2wP0V7M8FBDO61yFJw3nN5/AdaSuNMmbG
-57B3WWWnfUNgS5pXJIvmo2b8hBFd3gjvGfyoMjnBvrF4dk3bo/905BAiiyuiLyANok3gga+LaULg
-ELrbkZut+LKDO4arIPhx7FN+uw05hZspVHx0OAmvENEpx2rlCX/bdsle8iiCbZzZTh91UcgHPonu
-Xvap95UoPb0aW6/NP/GjP0GQ/0VSLmgJqMML5/XvgZTH7of9v//n7zTKn1/yV/4VC0GKGBwRpOcU
-IaMLA/0ni5LmiMYyRGJJDiAFxgi4tb9YFPqPIk0vuAnE0wzQHvCQv+KvWDGCbxZnAAmLEn9TZv8J
-ipKnFzru77xTSeILxAxQLwESDtH9v5Ioy2SiMh+RN+O9AMEZ0pbdh2UQupnoGp95RqCjqS1Lv6Br
-Qe4VAPwO1xflEEPi3uZf1iRF1ERi9JQ1ZXPUHyNl24cC+HRex5Hnv9oCe2LQifOR1D3E7fS49Dn9
-jEZAmeduI8leJysD0byjfjyB5ct540bQkWjASUdOXWjjovJGht/gQ9inJTa8mmw2XTWHAXUJ6TXx
-PNE4UhWCAbDjzJIGfS427+OKSrbOZ7tnLDugSKmncS/iD5LJrqijSaf3AwRjiURqhy8H+gOfVu8y
-/RlFofy1wrlHYpDpMUEmMSpfp3FZwytIYkNq1XPKzjbYMVQjwqffEFmABwQ5N+9h7BV4ZYN2Paok
-rFAYXrSHW8PXqX0PsVChWqOdz82aifwzQn7su8vRURw2wiZaecshnBM1dGtjumDedjbZ9pBEZgYh
-44YpreEsZl+Soh0fk13b/uyzPKRNguAFwkmebs/wSTCvjcguDlW8SUbrbQzqU66JfMk8ofnFlJ5h
-qsfI90ChUq6s//AzDBQm9JNMxqRGEgfOwojnFA1W1EPxmzaXPUAOcDCSfLv+6gdEI5AFEgrGS9Db
-q+jSOKotQWS1ynaOxt9kEUSbYc6SB4noIuIrU0vxuOQqWSqIcPyXVimE0XXo0MZ0o0t7NOmQTpdk
-dtNt3s2xONtMz+aURinE1T6GQFHBd8qec7ZPSZXMuYQ1siTDvXFDx+8XreUCtZpZGEZTwc+cC/aE
-et//jEuf/PLgipIask37vXQRQy87dvaHjFge12bRyIlGpO1eMr3xvWbSZQl835k+Eb0oA0ok/9zy
-foQ0KfaINQOf3WnO8+mUzyR5mlxQD3Nihy+7DuJLPg1F0jhK1c+wjSMAHwO3seoXYDlyQoLYgiw4
-DoqSL/s+gyBED+tfMB1pcFhh6m8pMmx4LBVlDwti4cvzEqPYnPEcjAgHeYR+rgpaxrQSFLeosl3J
-I8SgdkSH4iEz20EMTPSN3pF2Pw1pCT84Gjd00aOH5zuyZLZ345Chb9JIZBsMJNTDQAWBFd304M/P
-rtvH4o7F5a3OEnW9Wph9FdJC0QsSSGKBhqm2rULGePmRO7E+dIlR9pLbHJ40GS+2GYuThzRdN3/G
-0iSPOFYHEODsEjyosGZD3tdpPyHyE2NWGSuEYrU/9pD2dlg5o4fzB2ASveMA+zJKNihm6cre/a5Y
-0y/ev8cGmaK7lhSxq20w6mkzJNVnhIdT1Ichmx5mxLbiZkWYCYblkMZfx2zhfZ0P2rkbwzHsNsiK
-Jz/QKqYSEazSX5VjHkH8wwz+yjyZkBxsBX/cN4IWvrA9bklMALHVKZoC1hRQ5W8zatGYbRubyyqf
-y/mNRiRo+OLKyuOIiRsh3znLESeaJlAKEB/n3wxWrIcax1fgBxuHm5cVCwZWJlyGtQIF6pwcIPFW
-1hSLPbSeBrjJM4F+A1U3V1dTyZk+p9me3cVIdIdD4Dv+uc6Z/QrNI1oO+6o4ovBdnh20GYe7FHqG
-PCDzPXy55NiQzlpUvJ3yyKMNnxAlrnZXjF+iaHX0AME9fJO9S773ph/2pu3a/qdQhvgDgDtIS2YC
-LCiM5Yj+LjN51yQnc0VLtXxNU1vg1XXTGgM8SYoJXt9G39EQtTfLRMxrzCP5IvuuY3AtKZ6qTLd2
-qdFdDjdrOQhbh5glEWJhxfbERUTj2srI3iUQuqdvXdSLO808F5VE7yVPSyoREXeyK7/nEgfCIQC4
-w7TLnN0RZ0sgVclpLppM++0lc3hpYAxj6q1EV2DdASV7/IxtEbOq5ZAt5sX6OD1lFLe5wtOAVwMJ
-9Hk/rL6df2kEcBWoKY8mFunbR86iVB26pEzWhmYKEyl8er9UYbDdnUxVa6+oDcQ0+OTrt9V1WYf3
-oqDf99WkRbXIkbzG8Ncei3yXrolbx2lFgikeYrJdR2OAlglaChPnDimcN5kbIhxchVhotYCR/mbz
-gcHuAuNf8bGfoZ+MRSlgekPn4rbozCElxl67waLd1uJStlOezmkd7B5d8MV1Y4csGaVC2UHCo3IZ
-ygcEOZ294/kvYX36dnmyku9gfMgqcU53MCQBp+zLWcgVsYJspqM5kXkBfOHSJcG7DCFirldBvDqV
-LtdN7uFKHyCY4QWaRJJ9ln220MOUA1mt47GAaN6n7f4jsta9q3JcVCVlhIulEVzvjxTrYPoTE17c
-Ldzqi8tQpG9o6mNMeHmGO4V8bzKhGWln1WwTWnS8uJH/SRn0JHCLWQIryvpCgY71kpwL48GX8nZw
-4WBIBKuUzeDtDn2JPkP7HQdnma8Rq8IcgYpqbe4qiEfkTUZmZY0xqiurDaglcqwLKNEC4xuHEIjS
-P+NoSDv705TQyVBU+uWVGQBN9UzhlCP9Xfq4LvaQ7NBV6XyDQQb6LHVZyo99uQDLA1cHdd8X2VYR
-xCFtJYGgxDDnlnBfYq/AWi02mr/jDOdLnWaEPSF+7ueDCpdGyPKhjBqWJUjhjcAu3xA3R63Zp3G3
-IGUdVi2Mk8HZtosNGJVeSYw4iAb0UCVbH73rPcYqEO1HrOWIAubiRnu+YJvAMnkgA32ry8Zlg1wa
-trUKZscyAStBXhSAnc9xLWtkqOUjgubmyHNU+MZts9mOeF8uvI6N5Ixou0ORQVDPZQ2Ce+Tn0lIB
-IxKXdWtSO6MvANi7vgkRLd+caPVjP+YIIGyZhXpCDNnqHCLR1Mz5bO83iNmQT4SCv2btut4suGgj
-0GkeQ/KwWEVAADNgC8MSP2Ozgda1iLieGkNmtVRbuqBEUlr4J6ipSXzZg2HYTW6mEgY6ZPrpiPYM
-/RSjSgOjLdCY7qwfKUw6MDs4f3VYawMR+mmcvY9qkI4Rb4o25NdsM1PfgCyyBv2Lt1gqAg0FkdIt
-LWtCvYCokwd6FwiWL8B1cFMG5rGbt0Ocj/m9t2q8VRsKPo6XSV6D+8yHipeLKiGNk/47spWpRWe1
-z9eRi4hoMo8NKDBdUZEqpnj8sUcFcjF2N/xFOF4O1bya6RnZZcIPKkKovYJQoODTAG89IQghyVFs
-3WXHgWO8uGHL7m/jvu/hNc+anmKLeFgF/w/xckezXdWrZuCcQ3J5XLo8qJ/AHLcfg3MuPSUktlFd
-ssmzQ1SkIx6TdlC/xgHOE+4XgP4Gp9t8txJ0S2cTpETf6ET2uwUOB6EK4mtxoBjMsSsmbG6v3TSl
-p812fVtDjCxgYhIQ1Ng7EKM5hj45XynkOOY6gvh8BTvWmwNMHZQoQWf26TqAc8cEnPZQrxuN3+NC
-gabTikOhRZxffBcM2McRSrDrjyRqh7XuwOjQU+fg/VZ5Z3eIZEtIt6oww/Ihlp78XnJQd1WOJT0G
-s0TM2wMsOkR0VtGuWOnRjiuOucJhaZCHt/wZX2zpQ4JHB++/mwd6EQLtjLlntB+FYhiELPzQpdYZ
-GT6ANSZTFaeSftHwRgO+ky/Sao0Nnj8B0hafxKZ8viZ49EwtsM6FV3qYx2uGnq88yD5i9yAE0aCg
-iMBIw/2D1ZdEAuuCYpQcc6J8LfJKa5ZGjUTkCCdiN+fJk831jpvp1ugIOGk8pQuNT2g11z8Tr/+r
-KvwtsIIAYIZY0b9XFV4+De+mz/8iK/zza/6UFZL8H0mZ5mjU/wqy/EtWSNg/aIq7+dd2rIvi8Jes
-UGKrFv6qTLBzK2UQGBC2+ZeuQP6BXVxQAgjCKWkJheE/0RUumaz/oiokyNekWNNFsbSHpX/kX/6W
-dEQWrGTz5hBPAOlVlUa9x4q8/+2a/Kk//X111//0M/5bUitdyyCzHG9L201TxfdFHOAgt/9Dyg4L
-QP4/v0tOYJmmtEhBPPy3fGG+iLYIu1yqEiWXwPkAWlLxfIx+jZoN362ZYlJ1AzfvadHll91c2Phy
-6qHlIrvBBRlrpCRsdF7dMOg7uVMRXS+5Ddg/ZYDNZaZXv9Fxkv25CxK95YYQ4rMfXQLKWM3YJPEu
-fWD8ipczDCpk0/R86xW03xqwGFyjCquOZnKKOoY5eGJzPILEydRbMXPUTUnMkJ12DI3l2YsY3To+
-C5aNwLSfLRzdCMwzdv0AUjQiS/ozSZAjqBDHlvaQJrOGtEFCiv0eBueFLcYJU79as9cWiiVQBJy+
-MfzkQtMbh2uHHRcYgH/F2PrDqhiN1cFgg9iTjIOBXhnDsqqHglhT7zyN3oADtVha5IObz0wwOP8Y
-uFaH4wZAcC3UThW2PS0I22F5wIzfvfRhv3KAm7/p0ncg2EdMoPHI5RXNNqzn6MpQ3unB5lhcRkTm
-0Imw4cphZUZcDcmSfCWYulwVMuyvOYxucUOzC97/yJf8kGONyJtgSEZUU9l1gCj1DzLx9ZXsSN9g
-aou3lwVrMfqTVJHQBzPmBqs69jSPDznNKPR+h7ehWopI3Gf44X3tne6/pPsKFYqhrz1BrMpMJffd
-3ws7c3+bsGXI6kh0Vhx9bNVXuCQrOhLoFV/XvSO8IjvGKuyQS5O3DRChQs3v1AtAjvZrm+CIbBKs
-MfENelx96zjCY2pek3CdrG30Ng1lj+d1W1LkmtO4/JkYB1sCQRFA1aPvA5a5BaXBEqQGE3o2ZKIG
-ZvDH6oSd9PWC1acvyxDZH9ySYq4JpLqxyq1Lf4e8RBASG1tCXyXMg62QEKtxtvElOpLFou9Y12EV
-txmCAxCYNCZKgmb5yWdsmStHuvx+L6iAcRYHnt60c8DKNxcgA2LJUWR/AtsUXfVHwfjfs+VvZwuF
-2Iyw4b8/W+5+rJd1wnpZ/rUz86J0//l1f0UoY6yrxm7GEtZqgoUkGUTwvyKUBCs5oUyzSwg4iwuG
-svvX+VL8A9QNIpQIUGJlCp75vx0vWASZEuxQAaeWM+S0/6MEJWT4/1aUYyyzw08AI05AO2WXvZJ/
-j9InGzdrKTWrA+iK9uQi1SIQjMzb00RQ4s80bvEu7sCP3xGnQFRqGpLRV+WWxtiCBBtcA+oaRWjY
-qKHfOROLW0i7M7BfJJTAerVJ98NPdMgbmbGgTpMGj19hk8CWXTs69+JUdmG9Yv2QDIdVRsvPOZk5
-QC9nSnqVw7h7HRgZH5ck44dlsdiIVOqh/VhEJ84YGMh3tfLyC6h20lYs93SuF9NfEmzbll3tvi/6
-irs9OW5YnoQhKUVmuZ5GF70vPZLdZbkvJZhTgWYO/a15b8m0vXJv9W8KVfdxn+AaVsO095jUsXj6
-adgFXijsQlB3E+QhfxlprWlMa+bLIVEClwuziqCzg1y5SrDt7XfbbZCBfRKPz8BcJwiC877ArYcF
-MNYbHzJ/BDKYPxHfI6AnEbramkzuPTY9Jg7agOik+N2TfNwx9U0IQqqiI6+SGjGcVu2QRoBq2P+A
-TJy+gdAYAb2YGMHPbNkc0pZy2w4d5LXsKpqL/cFjkjXHAnsav5q9VN/aAZsvqnbn/GXGRrQ35L02
-qEeucx9lqS30a1sUD1k5jHvFddZj8sdKSSBia46/jCPogGjI13ypoxDzr30KmLBZZpWGGkRE+ZJN
-vIC5jTOxAHuDw63G1swwY9eTKz0OpyXCvSo28Qozdfg9E2E3YIYqOLAoUYLvGpXLbwFebq+XZHL3
-86yS+dCvHcz7spDtB+HzZZxPMO+A4pnWBzwE5YylZ6CgKi93Gw4Aibq1GkGpBpzsEaRMt2pJ6rgV
-OI23WEIx7K0M03GLkRQrM6wmO5pOQnA1uUDYR410eEMcfSjqFj9oP+xwnV5GIuhbWUbqe1/SaamK
-oRzAzeIeYZmH6ZLLS4DZtErT1r21bBYbLHiqyrvFSx1qbEGdfrltsFnTrobIQwYvJq+whxNeaw/+
-8pwP27phyR/ICqR4MDYc/QQsvcYKBVgKiBODu4S1kYtTCzXwMx9mmR9WiuSLHQ17UbtCFihw9042
-pZES4YbcJZjAw5qKz5RMWbOm9kFi+aPEZspBgGbRDTXIOB08QiFvyzD4HUcl9tOiJ+h28AmwxV+x
-r0eoCrw3Jti51e07ZIjubUZ06Hbj5IvE8HZd7Gz8Br2vfBIdNm/WCkPv84QNeQieSYPCgKAvXhIS
-y6coMdrXYbSWNW2f6r4Z6Y5cM+4/csEaJfJjUSPeuoThLoN4YQqRT5L7/pBj/dEvcAQlzt0IsRCs
-4cAMNxm4Epjhct6f+gKud9XKrHigoIJNNU4jdgfGXdvK01aI2B1SjYaiwoAJNinmDN8rQNPDAd+L
-Bd93yLDu1XNmsIUSoMiVNuX+FVx2K88xRR5FqJE8p5bNGAxtbqp5j02Gy0m6AeQOna8M/g/6h2Ga
-saF0hvkVizQUmGXt9BniGekDg8RQWRctDT8LAu6w7LzHZj3kZt6wyKRvsQwMy9seIyiQeFZSkX1g
-pQ0RJzavCGPMYNnUJeITp9XcMbiN/dDL8apjYU3aiq6Stb+xPM9Lh5x4nq56rOO1GHdkekPRL/YG
-WgralkZgjS6F7zHFC65Dw2fsHasgrLb4RaJVfNNjC8KxFVg621Bkh0F1lZk0N3EB9bIKSHBcDSkk
-thpN0SoBqw3tL+qRQ6sN23t6VGXag+wKFgoPRUQnvcn7ebX1HqPaYWcksFqGBgvJjYQapA7aSH8P
-Q646OIcx1EwxB4RN0Cki+oq0fiEamYrxayiLCdmXlFkE6CxozQrNuHrl3b68MxhhReWibi0qEi/m
-DdFHbPllMmyfll482WQqhv/H3nks142s2fpdeo4TABIJE9Hdg+3oPSWaCYKUKPiESfh3uk9xX+x+
-YNU5l9xik6HuaU8qqqJCyg2X5v/X+hZlBKG9Dl0hrYt1mY40JoLWxfeEjrWs0aFkMjrNc4sWnllG
-fbWxMgv5BY3K0bkMa+GlmyKULly2NhWQNxGA4Nc3ZH87In7LN7RGzR6rkmh5oSyl7mfUsMFxHQ9d
-exxbQj+DyG3alTcUSIacyZn1gVfUKFCKhHLKpqgtDke2VVK0xkOm4cPCoqRQabshO2FuD/UZLxfe
-JlNTjFTXG7vrIm+Xq0brCsF0bGp353lcwiq3FJ5ueJFLidFkFOAVRWEhBJEl6nAxinvl1Wwvuzqc
-zoeG7hH1aWWgudVxRI8wRAW2NiDyvihO6NNRV/lUZSKfG7TFQRrSpKE/GyqP+zei+e42GadbIz6Z
-g9go1uxzsWGUkFBRoHCAo00HU3GREFr5NupzFKM68cpmQ5Eq+pkafaZ3ZSlQj+pXb4y59CRX9Lfy
-a96T8blB/v00lDq+awdZ3BQDRrddSNXoWk4Bin7oge5LQv8e8AHgucdRWKzbRqW9Gi1bMXLo7RYD
-YGs6aFGjOkzvQuQ99ImYQJiAnNGe1obyYU5D4OxvBsee0TijaLvy+x7zSValudqhJC6YnWZbHoMD
-GoArDCMirlw21lUqu/waxhNmKokjnVJypaqtGiUeEiO1hpem8mZrzS+HqGloTevZ7CXV26ZLaRVr
-t2/uWWl51g7rYbOaQzpogFta/4yjGfzMDNzpk5mKuj5IxxkbTVQBrt5icfbP6xGYp7OjZnlWQP02
-u13bhktryuz1NzpB2Xd3clB5IRNODjtXhU+qywsFR8Gyz8vJsS9MFKjNgd8IJvxJTe35PCCMo0wp
-TWjeqmSP1YQVXRZhqZFHUxbFvfKt+sVRuXhxGC5YhaU/jUiQhu4iT9l3iKEP7uZRTw72kKi9yzrL
-/1X7QfXLMxLrFHCCb+zyOaWl3FeReZ6ozj+Z8FPf1gZ0qU0xubk+FkGqNv0cISPVbHPVuslE+ULX
-s/nVT/EEKXTUlnOQxHn+TD2e78GcE4rqFupivPpxCHm1KeAmbjlVY+gf3NY7LoCBDtvWMGvJF6m8
-+wghGxbtttHP7mC28jCas+LB135/jiAIEZN2HPqehdU4P6zAgMyo0bQjdUAqKbZ+D80BpRHyXFmZ
-CoV7YXnfxtiGkyXdVlbf+Z/mSQS4Bx5iZCMFrby+Wrt2aRZbdzLUr4iZydmgeRiDc5ydVvxUePZ0
-XFtKzpulqtKwO+0pNmr6yjmWu6BsVpWl0QykPSIv7OKO8TMbBZu1uDTz40rmFtzPsA4utV2JS0ij
-gdqMuXBeZsdsixVwn+EZl+piIMhS96TXEhE0ZO7k+zBVTDFTMMizaqSmsh79Mdl6vW3G2860l7J8
-XzmUqzKVhCs5B+EJIr2GrlI2GreObkDe4q7AP8fXVx30dZ+com1UD42kmsNMXJ4rMLniEGanuUNp
-1/IA55xeYpKiDaRVh77WxF/QyZzumBHOZd4fI/eERgRGNx2hCthSBoZ3REk3qPw7EDC+omCvx1+y
-Rsc3BpIaccPOiY6tYcNk72hBwRJmZRpXvUDAvnHwGTcrkxoNYAPV+2fZkCytSGEYwxkMNJoXasxc
-b5VFDa6xvlscZwIPySZnYo15aZmPdz5qXHeXdqK5LykwvAxqeeO8zIHwmbZTfYOuCfSzBzTjJKXH
-gZp+yLCipfxt+F31IhTxIqdhRsYI5lUmM583D+mTEzvDSypshm4yehfAV6zcv2icwndAt8ZmFvPL
-sug+VjFq88idrOGwaYSJBWJwxzt2ZsVTAeGj2mnhG9dGUYUXpmpsb+uYyLzjwmGpsLsoQINfCvxb
-9Ij1sFsgPQszsUjitUVdxlt3Y13c1M4cO+sgKajfuJFo9baucvEw0sSrOBDNKAQwXOvpQFTOcDZ0
-M9IFV3cDlH2na+JNTo/xYarMxlxX6JvytRGN7F3iucfyarluCyF26U4LmXFh+I+ifDVUqPnWA13l
-yxAXl79r5zDwN3Ucy0eJJH44QM2SZWdNot0rEQZsJtPUCS5oVbjnrLPmxZS50+2MTaOp2YZTuctp
-XYT4BBTq+Y5bX2QhhyHt6TLeLGvnzwKJIGgQulm3QRvFLzEtj1sFWqhbqSQHZWP2Tv+TpdkXK1XP
-3pWu4K6vx7hzfuQVZ0f0l3b3Y6jYx6NpTFC/IvyfzLPIGxIKlwJD6oz+sDgqOBkeGJGY47WvTL86
-iqG37qLKq4tN4tjIoBXW25oKquxg5Ebz7J+ME8KNnS9RHjBnGx5NfyBrFy4QAUWlau63bh8gbpJR
-MrLZcAa+qbpRStGrbI27tuUovbJG6OcI5IvuxZ0hIeoOI/4aoAlIlg4/1kNCTAXINm3WGoxmPTbH
-ba66G6stPSYj6l6PgRNKenauJyXicx97L4rfsDkBYcE52sAUE7OlqfHzZRwO2/UwiolNgh/M+MCy
-1Aj6TTK4y/7GtKGX6E6zOOpykQLADymnA0d6CzpaOCwsc8zHFdLTFScAkBrjOJhZwrG2zYgBoPjY
-xdrCUAgfOO/TE0ehhWD6n+3TgpaXdYAWH29+5yEEhfhsPuWUDi0Az7rPD5okmdVRxk1T/1tDew0g
-e9trsaW1sO3+6xoawSfvY0/+/hP/FH2i7HSF7UAZQ0QHoY8S2T9DT/x/oNi0Fxwj+C+HKta/qmdE
-nviC4p3pOLY0HX/h+f2zORP8w6dGY8Emw13EH/qf9GYARLBpxQqDutL1aFAvvL23vZl5xkgOvJwe
-tgEFu636NQy1dvvmjnzQndnrmvw1iqCKuGhUbTrm70dBTg6gXQDLCfHkb8POIBEB6PdjNM71Bty6
-cf75eHvdIMbDc8fdg25Ca4vD3fvxcosjZjD6DSKpAIKnP2DgyXvrr9f/rxS3D67qo1GE9DzKnj6P
-wdy7KvhNSdqYrK8c4Ow7EyTDEXubefP5tfx+78AdBvSsadT5jtznZjZ1bsatx3Z5zJwYMT/WsQ73
-kZSodsBp6RUN3vj28zGXp/6mY7fcP4vVH2mx7/Hamrx9b9+KQIm6KvoJcFat7GPTqOWm11l6Znb+
-V4zFD4Za2o90ByU+DtdeartvXkCcmiY9GlSUbH9YRgI176DtVwQOFDmZZ//6Lj94Xh/cSbqkfFEe
-t5HHtvdWSHAH0Kbx5/SJTo9gUbuHrkzbUweH9MXQlN4XiMwP3o934+3dRbD9c+n2jNfQNasOCyus
-jG3au8kX43x0C9kfEFeAO8AhQOn9LQwLH+dBKVFm5HXcY2Gf02nTJt38KCKaaX9+E0HwkoviL1xE
-f2+wgOIeRzVU3xENuU3XN/Z57LrhGukbQKTRd9afj/fhxfkI6XHvQP/dJ/L2Thf6bWLXiwvcWUGQ
-sLdJyxEjSuboz79n1zXphPM10+W0l+f55lXsncQYB6gSGJtM/ElNKHckVkZffM/LDdr7tt6Nslzw
-21Fmr2q0xQXJubyIYw8yHAE539HjO6dLvfJ743f3f34P317Y8mG8GdIypMyMkU3zREl909q5e67T
-GX0JfeovZo6P3nmA68AspSMwJux9zjqowAqgIcHyE3SXRCuk5LgocfH5BX04Ci87H7PLLsnbGyXE
-NlDHAZWPUtNcFARx7BK8MAefj/LRfOFi1aCLxmr7G/21CRBJInihvtIEAn18kGfHuVuEv4pKx7cB
-81X7xcf10cvOrWM6RJfh8ia+f1CpEedN4go4nI7nHuR99yAd59muOc98fmkf3UDPZOO5rFxEVuy9
-Ea4042igUk/6FzSrodA+lE2r/eKD2scks464TOzwiBdku7TEPiTY8JMOSzrlZIG+WSsxgBWI0y39
-n4itPECxypUHYUgwioDwtPiT6YLMIPu/mEV+v173NeLAZnPmLsvb+xvLkc5Ed8YqY6k2d68U5AR9
-BPCq0F88wX1k8OslCzZ8po10Rlre8kvefGujjvzYGilc0NqDVolgflfXlbgt++Ysco3xuNEVeoEM
-7oRg/PU4ERnCM0BBGxyhvK2/2Ar9Pt1gDLL4IlH8U3Ve+Ldvfw+CVWKZ0FlSD+cYj7EjANpgt0Mk
-NrD5baR5eCCvddcW4xdP/8ORidFj9wryiw3F+5GnvgrmqGbWGWKrR96YU6CuQwPLAdEhwUOZDvXm
-T99qrvXNiHsioMkWHIAt1qZR0AwGWwJtSnTqj98lRuEBc+NcD5L53ig+xTRUDtxRMVF9M+gio21u
-/z5b/Zeby98nH0ZxBXtYV8CelntTgSrh+WuvJboJH+81Zcd6KzIN/45clOc2aebd5/fuo6fFK7uc
-OaRrsti+f1phVpKOLVmW3HRwUObWvnFih6R8+WQWntn9FLRYx9kF/jfekrfj+u/HpTg+EkEG04Ji
-LVFgaHCPqribz1KKWSd4uaghZ6n1xfT30c1ddpuIdtnAO2Jv+hsrLNA5vmGMJ5a8b41u7AAa9OnB
-oAIc84gl27vPb+/vMzu0aMsSgiMQy+KrhOHNtNABYlssJqhdQq02sHobaGyQIHDe/Pm2k600OxhX
-SNPEWLd3R+lZz9kAqQljAL0kM5u73djKrzbTv8+ogSRAAJeg6aP9cPbnlQiE1+gyf9DJCa21SDzY
-qaHdzNOfP6t3A+1N3WqiUeJgRF8ZXkUxLKPvnaXelVln+GGIZvv8OS035/3ubDlXe9R+iM9aTtnv
-X0e+4ySPY+gHeW9qUBZGQQhVYR6XhfS3lefSCxsMvIFQyKBPfz72B59gwInfxs3pciAXew/OQ889
-Zy2r/2y0wU1eS/sC6EK3rmzkyyVy8BSHBPS0z0f94M1cMqtZIdgG8N7Y76+YM4nbCosanLTCDqJK
-AJHXgrySmL3xxcz50QW+npUR3RDzux+f5Fd60k5UsaGKy/4EtWZ3VIhWHidOYB+2odfSu6+JEvv8
-Aj94pJQ4qDuwEQF+sZ/O08QoJduWUUW3GKcXd9FmSEp9LEuBRcChGK38QK9rLBFfDP3bR7Isuuzj
-bPq1i0Jp74nKcFBVXTOjRKlPlCnBljtqMf3Z5xf42xNkFKRzqHxNn+3W/tzSwA5ohpl3dk5aksE0
-GhBanTo/pCusTj8f66MrYnZh++l71HLMve8jAz+UyKqtVlhx6DnWMNIeexAs3hevyofX5AgkZD6V
-ARRk799KxK+glOhk8FYC2tXV5JyYeVcc1WOnv/jkPxoKzzWhSgh7WWj3hsK9pWBzFQxVR6ikeljN
-1TwRfWpOh39+89gL8Qlgxwus/TW2xneZjIAfiAMF1dEY7HVjaEzbPx5lWWb4vLh5pueJ97dORx7w
-30XXkEu6LyaSZbKKSVj7fJQP7hqZYUs9jzF8Ir3ejzJZUWWnmpDjQaLsBkhhb8vRT69COF8P/42h
-lumCFec1mef9UJ5d1NhyMhAwix22zciPy9CUrSmJfJHJ88HbLaiH/mukvX0B7JQ6pA9ZwaPtv/ue
-Eltlh9UX79vyl7xbYl4DsAmwosBmmuLVhP9mK2C1tJpKiwRSiMrmaQ1s4qYQQ3kURNIhK28Yx4PP
-75+1PIvfRkS9SYw3sksSUt7fwLnO03ygMYzBL+AGIk/b4DzOaBIRSrqKwYMeqrGPtgiHA6w+tf3L
-mJClS1XtYjFk15//nI9uMg/SpRROfdbe/zWYEYuOsGWIrEEP2Lgy0i0lgpc/HwTNqu0gCKV6un+T
-3UUGoCsJmjtpwBZNQ+q2Gwgt+HY/H+ijpwl7gbIRqQwoJvdemdDJlCkmXk4yEdH8YV2CmI/sWfaH
-Ck//F6N9dO981+Xl8RzXQ/fw/kl2o3bHoi8rEsdlCEtnqo8qZtHN59f04SgUPBDesG65+4VtL0ee
-R8g29lzgnKdlFxfbEdfgF+XYD0bhtnGIYkbkQe3fuQytbRYkdFanwYvP8wHWv5XQ8/vja2EUapWs
-Whym9ksq/twbrbG8+wRUIh2ZRntThcr/Ys79vdIRUE3xbE4T9FKW8+H7B4MYFBlJQdpB2oXJqTH5
-YmfV+XE54Dx0Sc/2B3ldGWa4rWMvPKHefewGpPh9fq2/7a/4ERZlFtoEVFu4se9/xAzej35uzkbA
-7W1r246xVpdolM3+VHbDAOFgCPLkqOlRLn/xYn7wGXAaWMKwBIu1v2jE35YZjDImjgYMK47XVGTr
-eEkQATF4KvAUrxEm8c/Pr/Wjt8ciLYdHCmOPod8P2Nl41hDrMactUuZBC+TAxfzVl/D7KmfxSKmQ
-8QYtCvi9O0rNORobsFLYoRNYRr5XHsGk9I5o2cZfvEK/30GG8gXbRM4fNjK19xfEXOkiueQOlplE
-WzWVi2fbnGPrW4Bs/Gc8FCCvPr+Hy69/vy5YbPg5/joAZvgC9+5hnNVyjGpRripVGBuQ3fI7LOn5
-ue68fGNZyn6mDDKeYMsuD4vG1o+fD//762qBmaH5TcUd8M3S/nz7zhSqNqMekTrUUQzsuev9zBvv
-EZ6buyLHFYOR89Wu8veXZhmRQyvdNKqs++d+PSRpYi+pFQrxH8KKrjvkU/kq6vSDl0aa9HOXTRjl
-G3vvtjYzseAoXUDiIAjZySibWlLSrfi21I1Iv/gOyLHae4oU16A9UrJlrg4cae7dRqu3Ak22Trx2
-Cic3Djum6xcjtoxFK5TqmxFFK4QIWG7Bdhrho5zaE2KpA7b3dbKiU1bWUI2DhZXM90OAj5Hap/T+
-jB7FgYe6QSld9keBmPPsYICA2BwPvpbJzhd6Kg8XN3hySKktFMe81FN0HA6Dzo9mQLYldEtMb4BX
-IWcfLs2k7kDXkNsvYyfXGAsy8Mgk96YxekorbvzNWIfWQ8Xik60bcJk+7JrSx+uPLmveZq4S7bUs
-s3xYeb7G3qERoeUbv4wiy6cjlI7hiT+EpTj0i2ycDhCtAhJiBch+FlCvSO4YiNo8NOEIzccO2n+P
-LWWPfLbmaYYYFVxJiJ3OYJqPelFPpYBgt5E/omR0ddTDuwxzjgdAXpJka/ll02xdBej3MNdWNh6g
-so6ibaqRKq4bG30l5B4ifNYmCZDq2CDdxuEnGPFwAJN0dDegZwAvl5GbvYQz4LYROISCIMZODvN7
-YZlgdxDSr4ZwHooD2mM2jxDlSAUdA3wHmn+o7TjGKGTsegqDpGT0QRIdd94IJj4ArdABiYaLveMJ
-kIcSmbNBHnXURP7Ob6oCatEwu7jdEDDj9HeF4pDKt19uu76EwWGDlpxIuJp9gdh9VtzO1WzFdbFy
-imipnskJhGQEtg7NsAxhDuTNmHircNHqnMdFo1Ks8Bqhr4+krz+sc7e+BVbWpdick7SAiWlBJcPg
-3/YbDtDJUTeMxnSqakpLhNB3JtpRBTgGJ7RK7gD/9GfF4LTWOkphX+yScmKxS3LEntBBPETPJTiF
-TWqLkHwdYB3HKVL6X149Nd+mLO9/xTNydBIvZ8ChqDxBtxZZ4G3x1Fj1tkUZiSsuGUkLNs38Ecod
-J/dS2cH5DJrzPMv9GHpbI+ZiHTttka+R+qE9yln2OchJXx3PwFgiqJNe/ICdWkLEgCzxPPlpfj+0
-gUSaHcrLghRibOsuz3CF0H3kCIBHAMW9NVw6VFghwVkhQQ3YB0gewk45kUtewamtVU8UQFKg0/Za
-170QnkhIIXfb9Ari9tQdyCkWxCRB+U93eG612pbwvF34vS56s75oE+A8jhc/jVUU/5Jzb1poN53x
-NOy7OUM5NhIp3qSE2GP0GYpsJ616JGSsLfC+tC5ATeTS6gArjYpvevyQeMxTTRAwmmdgF/Rqxa8k
-KChZIdRH2ru4SqGKeDUnKjwa+jr3J5OvmXz6K5esUxJukCmuOvI1Ud5bVlFtAarYFUCWpMo25BpH
-9oYvJb/AjWI2p8KI1CWuebfaJuCnvJWRGtbZKJT5ks0IsiGAQYy8d+lej0/sxGVxEodpG+3Gwk6G
-Y6Mo6urUkIDYr+0sAfsKqkWGl7VDHNJpZLbV/exYU/w9UkEd/uhbrMw3dq2KfscT8r2rGrmqfeiE
-FdBuZZJ7dtwmC9rd4zshYNd0w/lEQXYaNzUOtO64KQNJdglPsEX5As9msYOQDnHEojM2Bw1uR3eX
-1Us+XW0UIUrIcDA3GRimkBSmhpAxD+yIXmsEknSK0LsFzx2iX4NWPyt2dAjiqE6uSPS2nWMjZbe+
-C0IH98w4giE7CkJg+JdEfBTu/fIiiJfE6fEJ8VyaJWjDrAZzvMrYIKo7vBZZeqMmVI7HrAAOdX5n
-DPPsexjhxVCHXYCDinS4lMWtXSGkjkbrcCyHKhzX8+Cnza+w86P8epZOLk6SMZ948oOZMHNiP06z
-y8n3J39d+n0Gmt2KRLgbbBLikRq6iOQj4Pn1qrSdXBFKBPXQPtMhIWAnQ12gTS+BcrhXQ0w4HJEq
-HhMxmxU7WNV2WRHo0UGhXUN2L++cLBjt3SSyaf6eQU2rj/+WkFPbo9gYR1l35lpeZ9+MnD5s9P6k
-LPunTWb2AvYt+J5148BmvJh9TeO3zwpj3FZ+EkKv487VUBJc5zYS3nhhekN1I0IL7kYlHBxGZaHd
-H66l2bkMoaSMauBgwSeHkOBhFrMmOsTN+VRbr5kAN/D5wG4zbQV8uOqtjRG7frEuJCzxlNK+gZKw
-88HmJjbeshKTxV1s0CPctsvRb0siWXSeG3V6HlNiJPwNN8F9AeO0YFhyZIgR6mYi5UpKdaYbxNwf
-J4wyziI14itnEd8iAMqbM4A82HZ7fNfJGiITPWDWatinvTEGFxOm4uBIGZZ/XeZ2ZC7ZUiA3OpMA
-Sdl7Dnl5Y8wk7VVZ7x9jDgNrPIEu+umoLCRsQan6Z4q7+yIKQXpvevxg7qbsZwl7dyiL77Gy3Wqj
-w7q8z5u0q3dNnpY3JXgfsaA7SrpCQZRfggUeCbjuyrxAhzRrZ+nbYBYnnqMo1x7Zbi8IT+JpnYJ2
-GtjSla27TrTI7UeZVwCRTNh650G4xMDYRtKNWG4gY65NNoTfOOyijoVebd+QhDxkuyxGFkxxIsry
-rdPZ+tkXWYf9xkPnvxJlHT2izZY47vAmnLjzVD04HHwUHraJXEYx5c3D7FvGd0IPPfTBs4A2HMq5
-/dlbrcDsUY8/hyqLf1ACwVgolHjAK5oQdBdHxi/RDt0lRY38ue2ZxldIQiu8YCQV/ZhEH/wIFure
-AY8seXB0NT+Dfs+OCci00E45vv4ZzGP5g+ZPPKzhzpKLy7ZHkCgjE90A9/DrE4DuwXBgTtL7nkRT
-bG3z7hW4r0vD2GZJCSYAEFvOS9KiL93Gvo9k3g6FZxyotEtvk6GUDgr/Uj7rVnZASVMR4ULoAuWs
-DTGwa/G7GouTzc7X29DfSs5lSHLOIVksdgxhx0PbjTcrc0+LeaI9SwU+wI2LThxKTySnYktDMO8f
-B3MiQsBIJhnCGZjcwbqMaWLwEGHbm+U61Wl1EaZhbKPPzcp+3YahbWPYRMq1wZyGRNYNMO6snNRb
-0uBUZz+h9y9OIlHO48bzdIL938ZFd4AnTsQre07Sxxof5wA5EWL4StEO2pEUThohiIUMz23kF7vU
-yflXUSfYT0jY7B8B5UTfG8wA4aETQWTjAwmHk7wbhzs3JcmEIMG8ushItol3HlR4RNO6c9udKEmP
-WxELA7WnnDVmlLh34ScbkgAJupCFKbdzV1TXxFqbq3R2gRYWANDx2LhG2q6K0cOwaRfSvewMbsyR
-9KKK6nUkQIQ7Vuo9jBEuvRWqZ1md4zuzD0mGKuRRKcjb5I8bDhRcr7PQ/HPiImLAA+O10nMCcpFl
-z7jAmRV2Gy8mF81KOMRjB3LZEZAlAR7IJrQFa4kVPcRR7UEfyLwg2/KRInTvAtbdjeslbIJCpbyT
-gPx5HBAUFhcoRjzm6xRR41Pr9OmwI2+LNNJYxzB780BlLxNEyX7FRjG6EqPpPTmGlddbBKZkvLg0
-xu/nNiKLxlTSbHdpnCRk8GCMORdhGt0Pdhyw4SAd56bImI9ZMiamKrPtekkaqiKCNJBNHa7wc8jv
-8Rh7pMyIVJ42voIIGiIgXMeij65hELP7rYx6PBn7kB/U5xE4NLtt47t+rgJ745YOcAo0RGDlfPBI
-l1Nt249jMiIPGEdsVq0pIqZv/JiELIW9ieB/tpxvjW1Oj0aZofzOvB4+mRsY+H4C382tVdgtc+oo
-Bgopdh+Yp6Pv1nHyI7XwHax7NqfkvE0++T2Oo1kd5y4kHAjjYPRTYW7ErxH7drUreUDBznFVk62y
-Ph/yDXeyuOZwXP/IcEdQui+tpN5Nlas1mS25Il/BJ/FjXRFcx44F+Pa0m0hH5DvSk309m33E8WEa
-OzJL0pJ4YD9ofxFIXN9Zs1VcTGWKNWluvfKFDKj52dceHmJke864EbHn6k2VVtG2pADN12ijbmAZ
-H52IIL4muLKwb93a7czkwE4jcTZIJ+VtM/nsQVrAJZssnsMrc9IJs3BYFodB2xT5mYXZn4i1qjfO
-q4xTLFB3KzmaCPeJyEZyOXfClGYziREG3pvwM+s4FCgWiSV1llfDb93LgWSNb36FA3Jtt5V66c10
-uOnKNrirOhXHtGt0f5Liq8hXk3K8Gzupxl9ulnYsloDgr3r27mfTMAYUomw+1842RhK3OAt9w02B
-Qo1wAXk1pjEWhARe9Msc6/m6Vz3q3Qi43R1625ZoBzvrb/KxGx7tIhhI2zWT/oiky8Y/ZgWc/BUL
-kU2kDofG8kAbJcvWXBEojxM6I/vDV6Rfrm3cTbfpTO7LYZQa1KXbChkqTtWA9BI7SXp/U1ldeB9O
-Y30dOdHsoMfuceVPiHMnVho7DNe+SyI19ALbJOmPWj4QUD6ViPczJbW3iYNHO1AJ1tF4Eu0h6Zdk
-5rErj59zvNEueW/VUiQAhXaNUBmlUaYT7EBU65R/2ICoGrZ+Tf15Cb0MZEdDn85HAFmVTn9PqB1Q
-A2USDzpnbMeP6tALf7IdToczY+665nDEZ9UcCMMluY/9dGDS6GxTd4dS1AHUF5rI2ee8jQ9xnxjT
-XQcsjepAgI4Gk25M6XN8tbBar3ZWjuNYW8n16G8xcGN45WXD/EpKGUbYgFci3eSvBlmYRZhlidbD
-OJu9mmgp+2OoVa/mWtJrlHuCbQnrLcpY2Z3ar5bcriRHjo0KTl3z1bQrS6O+616tvFlBADm9cBy+
-7LSzW/A92H5hniPbUF7D/lAJs/juvpqE61RP+OdfzcNmmLFNnl5NxQ7qx8fh1WrsvdqOu8WBTETe
-nG/kqzHZejUpB6+G5fTVvFy/Gpm71OvrNUyE8GfxanUGEb7YnlMVHgGJxAxNAjrGaOsvk7TVp5LY
-QQQ163HxUWu7w+hVJnQLWGBYz/Fa/229jrU1C7+GJui++rSNch4y/S17NXS/1hD/F+PyBuNiLS6Q
-N6XVzVP79Pf/Pn8qXv7j37a6+r//p0lgudw8Ebzw1r7y95/924xi4zihdU/PZUG88OFSEf7bjOJY
-//ARnTj0skhfQfb/Ly+KYXn4VBYZJ+yQRcW0COd12bXxf/ybYVv/EHQWUR0gkaWpTU/7P//9nchN
-7/33W4oXVpD3xUxkDItAhNqsg+4WVcNeOy1vRNHjgyMJFu4claRwcpcYUHC/5pwOzY7yAv3zOiGi
-ZE0Q2HyaWQKDK+iiolqCDqg4OW7UpQdTG4iIkCaXzoMTTMktIpj4omw9EH3m1DsXTmzleiXNSgbb
-qgbkcCTJSDhpZ0JgVvwCzuw0TskgK5xSYdbKjaa498kVeGrZb5AxFQgxbBOH0MgpNJN4O0GYuMKn
-20ckfuroWYmC/beqNJ0DYEuEINnmrO9aL/fHE2+uh298NNjzfMNFd0BipZh2nU5AnbLfquFo+CWr
-FFAOWLV4TjlPltY8H8pc9inZgpFrHU58gjBVoaHb4JYKEg/PuiFtooM6Q6B6Y8+zw5nPYrpKEaDq
-CDhi23jnatlxHng42NrHsXDlS1mUabEznJIJdkPBjlLM2jZK1WwGjoHTQWqaE6TaIYsfbBJGcafz
-N7IlNyhnD5PIgd5YY3MyF5m8mRWrBGSLkjQu9hEKvKpB0uYqaYV3H+bLvjWUtjjInLq8Mf05vwcS
-bZJFyJr94NpJ/jxPYB2o/Jn0HeXUgB/tFDfVIWXR2SxPMFnJOBlI5kx7YlgM2TmXDiF211i055ep
-z9ynwM3spyYOc0hTox1Xu7aEbAlQGbr3qq2ZBYnQ8fpH0/JZntzE0RgUTe23t0klifKuSXe9iLzc
-/knIROhtBkd0ZJi2NjlOdesOch0IjJYbI4IacJ730m5Jw17sm/Tc+oeYAjv7xA4XLDhOlVxRcF7C
-O5D3wuulIfm9xbJBFnpFOWQ1wOU495pywobeWCSugtdWJ3bee8XarUNsU6puh2t6+B60jkJYj2Ga
-DBTWqpabEDUcnXk3eDmoO7DYr6vWpuwSh5zUVpWe0ivYYA2PwWe/xt47TZONr1sqjEEVlKi9KIil
-O60S09zlcQsCLsjAKe1EraKDxdi6pD8qI9xEnkUFZPIi3kX4Xem8qt2yowxdUxBYkoNRA0a4lNpN
-ZzV+SSBQIh9cR5GCimuYDUBN2R/kZtnHVURSNElcnDta6hTjTL7qdiqH/hcV85KNxdxYJKZ5/C00
-AOWvSiOn2aZS5YR6dH3+VGFeClfQNni/rMluL0tPsDWvutg+I4+JcgHH6RnGQN5D3PaGOXBX3En/
-nIBWIj0iCC3wltH4/oymrkw20lTWjVeL7MbXZrVpmyl+bnUwW7iDAu878Z02Wd+ZpM5jlK1+7mog
-MGno1lTVe9+9C3A+dNsFqca7xr6AIykOTLHBzZ881xqSESKciNMaTh0v2AR8Buwr5zD9ZtVVezzT
-hZGrN2vA5V99vLeT6V57bWkAozsTAhfcoiB+nWrf6ExS8g7TqWHIpgcShK2l4BDsTC9QdTbpfPX5
-YHtNKGb+RWxBjx0YmGQR2Zu3RV5liY+Dhm5EBFjEIVnAsxbkR95/0fDaV7P8NtRy3W+uKwhpn84y
-TNZAOXy9pboabOMc8Bbi8oocAPb8P4OakKaWNtxR08UJSAqvwoetPf97Co9s+/m173UV//pBruTC
-A1ZU7vr7HxTPE36hXiZs/FA0EnGFecir1RfN2g8eJwstckJ8G+ji9lvRhCvCNCEYGgQ9QQ7jRPrU
-OsDwfGnF2rkgf6o+KvT0lXPz9a990yN+fYtMZCC0nxlV7uu8Wp/oOtZVqvsb+isrCPjbu3n149t5
-vLrUm6dhRetj9VVT84NrZYPy/wfdUxP4dBV8lTOoL++78HBhXRDTtpYq2xj2HyrZfrvC5fG+eZ8c
-gxN6PDKYpUy8gSF0n3IBo2dw0T9/Uayvrmv5it4MVWilvWy5mfXWWnVraKXr/8feeSxHjmVb9otu
-GrSYQrimk04Z5ATGiCChtcbX9wJf1esIZnbQct6TsjKrCsIBXFxxzt57UflxLc/wXrfPrfdAjfiL
-YfNhs/jTC/z0Zaaawbk1/3iBkUuB2dWcwCE7yam+utL6Vv50pU8fpiWr2SwjrOXudI8MnkPrPMbO
-fE2h9oFA5v0XD/Ory31qs6tqkZHzxOVm9zuApy3h/X67ic7xPnCy7Zfv7vPOdJ1Ofx2Tn6QgNiSK
-jHp664zud74G50fhHN7du8c/39X6o//fzxDF0u8jRIO9m4n1KsuG3YXb+BzI3C/f1J/vBXvb71cB
-zwfWYv2+rmr/e+rev+nb18c79Yvh/tW9rL/il9E+ZQX1h4KraBcaXLVTPKK0PgRfzL5fDHA8Hb9f
-hjzhTGvWRyZ2FNHd1g2dH+aVefjK2qWsz/5P7+bTRDGt4b/a+tSULYAGpkLhy2e0r57sla7uF07j
-HBvnQIyfMz/9eVjIn9fX30cfZ7ffb5JSfpq162CHg7SJd7J3n7uL80Y8rUPk7obI768e65/nKuPz
-SSzsptjgXECxjamfbgBf17Bj0XVBPbvEPvmhZ7nAPL+67jr2/vSUP80i+Gd6o16fcuW9PBYeZVPn
-5+Hm9Yvnuc56f7rKp8ljDHOLZsh6d3fKoX0sz/VB/R7cwCylOVe9zvfFIb5Wb/T7L677SXL1abGB
-Bfb7e0wsoehdy3UHL3Kz6/Iq8MwN2ZHuA1hZ7x0aA6NIct6/mr6+uO5nM142jf0gpVy324AEcke/
-3KpXivflqPmn6+AJQgco4cvFQvP7/bWpRarjupjW/uzL3KPq2VyRVJ1j7qaufmlvCnfYgm462fsv
-nu0/zWq/XFv/NHfGNQF8tBW5R2/0jcdsQ47yhiz9TbtXdv+JAv//hadfCk8Kwotf3sHf6k7OaxTz
-4b0VHYqVj+Dgj3/w31x68y8V16eEkxkHKEUn5sv/FpuMv/A4oVKlXoQth0iQ/1ttsv4iCAI1m7wq
-O02KQPyE/1abZOsvzjPsRfHtEYmB8eDfVJs+z6mMUCyWxA+rKjt3EhR+H6s9CbD2KsNx1Aw90IIr
-8GHqxtENtSS6++W53PzPxPLrWWxdGn6dbj4uZa8RxTI6y7+JO9WAoG5IuaNj5A38bJX2Rp8J+d8p
-qsn/N+lNyR83g1bhsy1+IeWxUQp8aUkEErNRy+qkSsvwhaL67wew9TJIfNEZk7ds6J+em0IEZ5MA
-knZoUTcrLHM+dbHZn2kG69uI4rCfhJPudGs9YEw7wteGvl/La7D9iDr4KpT/n16jgUwJQRU1PKxe
-v7/G2CqUjiC/kR4+kZotJO0jja5iE2dV8oXT6m/L8PqEVw8ZAwdvJWLL36+laZSwTXhoTgTgs09p
-x5WlugUzvDNifaeXzUsfjy+9HOxjLbgr9P7bVAboBRE2dem+1hBC/Xlg/W33wy9iN4C+HaykvIYu
-/P6LjIB0MM1CiSXJpBS85UU7pYckqvvWt5Kobb2xrgtEDfGSK7fUwuIfTdiLNfAeK/UXa/c/jHID
-36KkKsiY+X4/vYmaQkw0rwMj6gxB4pSmnFAe9198S//wvn+7yqc7DppF6Wm1U8uwFFJxUL54IZpb
-ItOSzPvz0/3nG7L5YBEpr/Xt3x9uQyZeQMmJQ+4SRhvFnsSmUkr7i3f4j1exyGIgX53yt/FpL2LT
-USIiEsJWVCbJy4gS4Ayzx7j987183o2vA2WdbWlGmxicPpvPhIo2YMiRzqKdSbZDXkXQilbYD03A
-7iRVcXpS+qo64KwaHv79pQmZIkxIRqiM5eP3x1gIqsAkdoORgrt4Ncn6+ErEstjrWYwcUtidn9Oa
-uMGI8i8F38yIFvBDvg1k9aQffPbqAxw1dNEkM+myWn2V4DnZRaild//2/iCkrK+OUhsC889+mUiq
-B0OqcoRRSnWLJfsVKQ6R1cZhSFqwgGG3M7XmC6va540Wd8bDxHeHFkxB3vnpmVIyH8O6I87cDqZY
-diyZHsmVXS1dsatQ0hpuC2Ar8mQSONAuEd6kOrCp7eSL8+rnffT6M1jQ8JvgK6P69+ln6I0W2URk
-0n02+BXqFCSkM2NpzELk1lrX1Ns/P+rPp5L/uZ4GIldXQNXq6+Twy5lylpdAC5UMtPVIDKEy5clT
-FobBBpYG6d+xWaFUVO0v3u/fZxwMm6sBgwoYo+hjVfjlotGiJe0S1DMxj6kAYlYiztNae1ORy/7F
-jPNPz1NfjXEYadYAiE8zjkqoJBphuvnTgurMI0karjQtZMkP7LjIN3KyyMYXt/e3+Yf9mYb/m/It
-18Wc+vszRatAG0QnOVSfbHR3DSHgVWqk7r97cyyYvDHeGU+QjA7r07RtKVRPJGL0nT4IpNvJHlo3
-CPs9GfSDgw53uh3K+Yv9EIRXfvqv+671opjzFJ2lmtw689PjlIc5R1aCrkwBkp4dKFE3MmmpAxPG
-W94r5Xju2NtOKE+tCjlF3WV1sO/oY9v3STDn+VWLyEy+Re6USl5oDXa5S4CRdHc0SshOnWZEUt5M
-bGPxbAF5pANhgzkVuykkiPhYKkQ5uuBjzfGlQOmkgF/otXS5mc3ZSDq3BOZbv4kWfIOKlrWt7Csq
-uqnhNI0ayYc07Og6ORDJVXCpodQWmxa616oKnJIaxo5mF/WVYvajcRVhYa78PtfIPNGXmJuM1SWt
-dmWvGu86yvViTZih1Zl0ilBcg1h0G8viMLKLa5Sxu0EsUs/PVUTL44AtjwhAm8z2+aQVMGfuVJqH
-MfliMxmSSl8LlWj4KJ59PUQ+4bZpOL7qNlhFl9r1QpqsqizPRklIOpHKVgq7wOzrwq+zZZL8iodj
-eLkVBgQDiaVaHnuFycwx+2EN5I9NsknnKq7V3QLG9REk0oKYcASu5vRICL+jlEIaMZM7e033iQfU
-jLV56pYYP3qTtEjfFiGIWbaXJXpZYsIefIsIQM3N7UJPbxXYxt13NkEt+ctJP0XjrVymqV379Zz1
-q9+l1ub5udByI4o2dpwG1TvGumhP+X3qz+M4kLxHfnT9PDQVAnr61PnLWGvBz/QDBhWBpSUon1EC
-YaMZiUldVpCN+IDahPIKuFk+YDcg2fXz9IHAQXxoXcQHGIcmERh60umRDcH1EB/ySou9zsrVqT4Y
-OwQbmqGbF8KgL1ZoBR0xdOBut8J5pKmx71DNED7bfNB7og+STzuuVB/A0Bn+shX2Q6ZHnmzR8YuC
-FSQJfsQfZCAFsU3v5VUTvCRIkpZDRlj4Aw9SHb2+iVPZC4ZKPI4rdyjrNBBEdq6pTxWDMHT6D0hR
-vPKK6iAAXTStFKMwXoFGy1IUutspIO5O6co8kvIVfwTV1sS2sEKRQqw8D/RuQCV1JtSkQG9szTE/
-YEoEfvAW2w/IUvoBXOo+4EvqGM53Opo5rD0rnckyRTVjqli5TXHeLE81EexvdL5hO7GywHmaNAvB
-fk6CyiMiXEhQmAfyPeRn+FClnPMYkxUbVdUIEVwDbQC1ZHkqmLWk2DwsQwU+QpMGTGtD1jJBo6RA
-9SV0CV6eLU+MxoWEgmZXyriGeF+lXriqFkMuRjRq/7QExgivj1SZCpomVTQvjXRUwKjM2lUCdND2
-RazCCkinlbal5XqPI0kw2NDH298sQbPXF3kT0zVuVbnxwa/gYukLvAfQQ+b8oY0XmtthizDS0Zkf
-1gB6fCGebUAJ5QMCVcnJLB41JymscdzExjhFjhStRtVYLDPoZbjZJbq6fnqMRFRc53Jqsh6Jbu0h
-m2qP5WTJO9VBUQelsrIKG4IXWcg/w1ru3V4HReWM/KzogNyvfcwZPADJiP6onVgeltHvlSTf0ezt
-C99EePuepyQ78KMssqfZpnUTX6qMY5dkpKIG9lwxxOHGkDIjAxAH2WgvUX6Zy1jvHLlFl+SNgVJN
-W4wUBnyFwhg6n+wbhPkR/jPVMYjHkP1J7fXXUp/iaC8V6NgIvNemx3ooJV6uMiidR0zVcJXZowg2
-EFv12iXOPn/s8AA8KV1Boz4A2Rx6E9HGA2PbRm03Jznt8XaIFgNLWlXdKMGgAePtJWCWsZG9iC4v
-TnMgAvJFxBAi1I8isqlKUOL3IzSRt3ForauxzfvSm3kmXg5JR2M9CtVnqY0BsA7skie/AO59xhBA
-hDAB+eRl00hCftUOXfONpxGS8R4bjIRsJGXZK5OqSz2M6QH66TTswfbagWS7hcZaQR41KBZwMvMA
-8FWhSA8j9yPSWAR6uLNXSvrKLWu3a2JReEbJm5+12gCpbpj2mtkmGv02Mjqg65pe2CmC1bBqtvUi
-Zsx1AT6aE5ErzTf0eWq2Af8Fxh1VMOjWdqW791g0qA+GBdB3oiTJqGg7ste3stnIMlEsEwtcKwM8
-9khNGe/lnNG60W1ip7F6Dd3PRNXpB5YreD6FbLoSBFYefS9lAmEDOeikLH8w60sJne4oo0x3lbA3
-4bSqeoWWdeSQ4hK0k9zJSpK+yVMC1LfsedlO3400V6Umnm+1uEJFMarmrHnazNS5I4GnuInLTn9g
-yKPz00RTpw5JqV2AhHVpnhQwNqRk4TtJ3Rk0rAL21uJ/DKURgmgy62+TKQvCtbpVPNFrTSR7+YKL
-7ogSNNX9rmoIqOkCbDCH3p4xRbFKAqBpjHxxkixUrB06hkYGutN2y/3crhiWoc8xdxhxBcBPLPbP
-EMnxD0oGgu4p+3FkKJyRVgSQrZ7ZO8Q4vJRW+j4pVnph2Ju6H+hjW+8ohDELi6LD1NmgVewh7yEg
-RV7eR7cNcBkixEH7xDBe4+W+sSXzjTLQ8h4Tqo3qN2wjedsoM0ZCUE+wSvlB7UVj6ROuQcd+dsPS
-MIj5yQzlrQpmcnkVg5XSBe2TZw7ZtuFPQiXXnPqsD66VPg+yzaAW2DRaVWtlB6yT8dDlqC2dvlbR
-V+f84tSRpFZ7CJtVZVkqUGOAS4WIRrTAOo/xjNcq5J0kG72FUWp80EqjFVzK0WL6oca1oV7SD7Rp
-9YE5pRVsGiAQV/yp9oFCHT6wqKm2IlJJxJ/weazk1FaDguWX+kyf4AOtqtQrZtXqV+Rq/IFf7T9Q
-rLO5YlmrD0QrMEjlwWhUtUJ0A8NVAQgM3bwOeVxaleaPaNPbwqmGIg79WpLQ3GBZK0I/SoO8us4p
-aykbfGoh/gSpTetX/lY++XajGauCZSK/SJNCOd80jWzzJ4us+D6BxmhdEwu5OEhlP8p8KKJGLpYP
-rdw9Lc3MI0Kh325HI+pf69Gc7+e+wg0BCTBrXLZ/dnhVI18atwP4q/CIaTzQ/FkvQuMgUVD62VUK
-gY2NtkjPdmSOIH9DrAyDCDQJ44mM/2bhVesO6UWj3055SDZfalbHHsnsu11yqNrJ7VjEnpEnK7Ej
-Rai2AVi0fCsrVT1Nhl7dlBUES9bTqUl3UoIGzosGYcOmGtPKl3IpmD30dlHlt/zsl6hsbeXYRV18
-TKW0wY+WM30jvDOrLWuyzJ4x6KxrDu2jq9itgos5stGIq4XyEDdr1EzSmPG3RKvGSwklYF4xI9KP
-BWUcgisxWK8LPkH2FG2qPlozSDyv7aYBb4KkVCxKUaRc1D6AMdfy+o/GEEb3bcGO2ZmxKB5rKYqQ
-bFVL6y/DiDg5jnXiF7VCNIqLedTYD0ka3sWDYb4FnehuoyEzL8sSyHfAx0AUjwTFwrmeBt5P0SGr
-y0P1UOAveqOrmytONyagKzJbLIA2KlDOSqOjPyu1IronOHV4xBZZvMS4VbtNAOkdO2qIlI5pJDSu
-uIf4pZ8n7cmcxKA7eHkWZYteX8zb2bbKu7keidBKqqq+CcCLYypjRDL2iYTy2qWyhM+a3R/xJ+kv
-Izj0N6pO5ati1JZ+LfP7mS2BImVeExntPq6B0x0mGGGXgYlu5aNW0YseTC0ZU9g2b4Fe2HgV85gl
-XxfzvWZJIf8T6FSkMFWZj9wt8V7optl4nkdFGugEJ9FMOaCW9MXtiGmlSQolCQvImIMRF7kY722t
-mc7jDBDVyTWFo4xW2JxH2I2ZF0SYAKSo3EpI39KeXOo+IHXDSQyzm4lhDDCOBwFUO7IampwJD7so
-CHKU3d/jbGyFgxrdfE3mRT22dhO/JQPxiR7n7KSmbrHYkqcXkWW6NeatBI+S0tyVLIGo6nS1/Znj
-akYh3nK2IGrD5E90tbbl+CP6NUtXue10i+DQvB+V1C3SYjRdkdgrkDWUpFsU/kDrkK1X12E7SJpn
-hWWU+ZThk9IPc7OqXCso2TnFbau1u2hppjtIfOmtpkbTW90q1pWa54npkz05POJV7gNXwop0S2YJ
-z6rHkMfBNcVt5MbCsg5mYjOyJEHRx+HAOaPPA7G+Fb02w5Qe8JO5MjvNH0IoUX3KJTN76mq4L6ys
-bf5dzpYIYnnTmK8kGEjRVlND3ig4GvV5kWTyLiO2OegvkbCyOez13PSFpNcKy+6kt16HaYOynp48
-tqHKJIhqvTJ3MFTHbsPoLs6DPvb1nmaGqXl5jJR1InoIzWMimjtM+/mBnZqt+kIx+LkNe4DQG/U5
-u4PLw3Ot2n64DfGIxBtoWq3uVnFsXHFujX40RtM+Da2C4mzFvoDy0eqKZLtAGVhmSX7wWzkeGhC9
-InsBUYizKY7NxCKkLU9+YnAwcLEDgEjYqzeYDKIms2O0xllIRGyCltGPw7L8UTc62ZgJ6q9wlxsq
-t1+HwXBJ67mAlySvO1GJZsxLyucY+3FhzN/5y8urmmQNzJNoUfCkkK8xojUVbbY1SWrAj9YJK7yO
-hQxnlVWz7jCH9w1KrtyI79GJIuED3NH8KLFGc0bvZvZuic4BmL0CBPmNPsBE34xpOJjuIgEbQu82
-DieD+AZOo/j+2ZkiPJJ3iTBhnISanbyKbjJ/ihSgsDtkUnoxaiTq6EXxP1qtIqxdrdXm4LZLNKS4
-Q43gMNe5gUIU20DoFlbJf4oMV/ohjIRuelVFGL0/AZp8CNtqOs7jUDO2oxTxKRlXIKdggC6Ik+kR
-xDOffZes8GBBsly4m9rEesbjYD1hzWm+we7LbuW+XlKXwjjnpLSPuxhnf46PEndL/XNURnaDcZN1
-KIeXwrDcYmbr76hSgNJ3Tgr10AzWRPFlajjslYAb2IZPzXykcjG2oK3s4RY6r7i1uxgJetO2HLsi
-VKPf4FbNb7pgE8oha1SecCexH500M7vp+1hv/JAMzBA+UTjofqbJ5VuBQe89ADZj0IIDR4bmcR6u
-U1keUZVxKls8fVnEuasQhIM61vqtwhlrcoh3JUMypKRTbPh8ElatuhWFl7BhSaCcCS3cGvYioWRs
-g1jBO6pEcJSFEj4h+Qwlb6EFhxOa2tW8aXLJjtyWNVsGhvaxg4R1p7uhmLJqwzpH0sIwNkq+lY3W
-/jljRuFc2JnK89y0ChnQ8ZB8XyEvCccSNSq9QouwdkVG8CrUNH3AoJbdNhNHI2eWy1B2hwFPqw49
-ph7wssHgQiRPgozd7I2wqUFHU8vpKXhFw1HG4wdMm6LHD7MUwauqI3jlgybtjMOg8bIIq1EdEzrr
-M1ZQFB84wtvYqcUcvEt0757UcN3pdrEanIUowShmeSRYvaG4ejbuejb/3cjqFlD19hCFNldzw2cG
-Fm/h2G+hJn6Etzw+Y/aqwJ21HYY+wiAHTI5Ft5BwW+avOJS6G9z3VDkisvw0JwsU9WwFq1VqkAEH
-bZA3d8iJOXnNTLlJmHkza/FJ64Y+LFwlop+UbMZVwP9Rqv3/2oZfpApoDGwK4f/Lj/ibuOG2bF7j
-/Dd5w3/+zX+5yJhpkPzSSaOoDRJ+5S78R99gaH8Rqk4zWiNGFmE0Zen/YJH1vxQgMKZNUtYKcVEN
-/tH/qhv+Qj6x/kVCpVHOrKGXn7wzf/LSyOrq2fml+k2Ms2kRNknAE8ubtYb1/F7Yh1Fa8X02pZvS
-nc448iraQ5fWHCaBODQeblpKpq0tJa+J2ZrvGPjYY0/Dm1FPG6NkqHckpDrUf8E7DPQlXKrjtVfE
-SjC7Wi3Jx7TBv0zTkOIf6NbmCkJkprrJJGtOjjbz0hI6cOFrGYRjLZhrZkI/Ln0EgWuhPOrn6ay9
-kTo1TdQnRLyXi948d7V4ss0oPo7hmN9pbU5RoG/b8jULoyRx+saorgLsjc9gb9NzrOvFnSFTYI0o
-dAROB2VvowR6IVxZsWbTJWGGPZaARXdQpWhed5oU03IpvVIiNbluQjO8ljtJlxxSQFQ6kVPOnNfX
-bXyVB0p6zPt8TLxe6e19RXX5icOkcRJdQAIIiDxa3eEY/AhHtbyvF9xLuH572PNKQ4qjHUbdfm6M
-NU9SXoyN1NnvMBUnJy0NbZ+F8HCphxaAXYN4ueYE3G5UMWMyxVgoCSgl+vwolg7jQjDEW1Dp8Saz
-O8kNezZ0sW7lHFugKrMJzTiuSQskvpaegBuaa6pS0mfbQlTpC3VsQMXYYnd2LZ7NQm6vzLyo9rla
-KadFXWlZWmWo+z5IxTPWxdqjJmZv8R3BEkkHthnWNP8YLT16NKQxW//eE9DEtzwxgmszjQTuZZGK
-O0tI7Y8hYrMdxBWhKHY47m2hkI2TlDa1w5Li+rGijna79BlsS5oM/OhgQzZG5uiZ6LdEEqmH1W3o
-V0Wj+ZLVTsAFpUDzhqawnpJepTZd6ubBDJPoXo0741CE7bLBXkFfCTSh9bwgO3IlgstPDe2Obce5
-7hDyIfpU7exbsHoGqw2bLEfYYUHhVl1482mWjlv2YugqoyXekg50XYo8vugBSbpaNscPKQ2R7VDY
-7FgBs22mwDYumYgI8E6mMnOpVeQ/2kotLoPBNiWzm2xTl1Z4CsE8OkO4hmhUFCfIJflmmxr2qN62
-RkfkIEhHtc7YFGIgL7QxvVrD0N0qrQxKyJH+jNxg4FCRZC5VaO0a7T9RCEPd2TwxPt6iGdKbPtCI
-nuyA2xwxBTdesHTRNu+m5lGNqvZWhxjbuN2UCg3Yn5ivcKCXtP1F270nYqxKnN1GqyoXWLTUUW/R
-Sw03oxgBG1k5cD/iy+zTusW6H6MAGnraq3yc1UJtrRzGN6nrtIesmcPrIjVK6hhr5XItypCPFh/p
-+HV7SdjWmZI0zOeiZHXDVZ9tpVRhU1bS5/T0QCeChOOfLzXd6mRXmm9S2lc+9vDoqUWMdAZELo5h
-I41vUyWKSzFwkh9bFmaa3dNRIo7Wq0OJBCzBfLIrsZz7dKus1x7o3RnhVb8pqaJfonE07wc2PTW5
-5XN0acuq8hFN/JS0iRzoUoum+7aqogshKHBfabAf2rQEc8i/Ht/KoIyetKEv2Ot101lMRfZaCn5E
-W0MRJ5yzpUkySo9aS3V3KRZMbEEXzw9VUG7TOEh+zKUmY8bXZvmi5sZ4U7dqcKXJ1Izp95oxRKdQ
-Cj2ZjsYd9VYDP9ekIwtZluQuQq+zHWpbei6qxbiRasl8ymh/3jKuxANxO5OnNUr3PWuscNOnQ3Qf
-wR574khTXDKLaAa/aOVibzY4mAIOBK62WF3PmXHSNxZhGSeY9lToFZNBpc2EmMVPc6WTkd2WuwK/
-Hp5729i3aUZq07SkfmZQtBpiVR0cCv7NzhymEKYgESHniBTK646spxe8SR1drGLfSqq27ftkoDbR
-kJ/YMoeR+1dMRbMfquUGGvaMOR91NaXnJtjbk9w8KKKpvF4T87E28mhif9R13prlqeJcg3G7JPm9
-VXbyYxfje3MSZV5OdGpXn8giriptkX3JaIYNu2CVHC/sy402QSBh2+eDxOidnHTjDaea4ahVFp0e
-LR2/ZfUo70pjkTYE1yynuLO78wA0nfNyHm9KaYCCCqXbtaEsXvKmV7a8P7pGPLhzombFeaSS6dPZ
-DQ6ZFi+7MqZS5Ig5THyCMbsz+Yr1KUuaO/6/TK9VeTSsjINjXnWDX6+vJDVDaatGifJTZUU+LGYv
-Xmii2e9tvWYJKGapHykGZG6cd9aJRjE9j4wqPF6+62E0sndyCWKXDlZ5X+JMfVoC5leqFddz2O4p
-O+YJFQ9Tualoe74SmCF7ZDPSXZNLc5+NSr+zh9Leyd0wuQbxhkdwPp0LR5IqEt3Ln7Jc6TdZHVZX
-cmdkWGeVaNu3qtgupnZKJYyUqjZEbqW1r4E5w4+gx0N9oCBAzV7ohgvR7ejxKm5I++vYoGp3TUpH
-V4GIk/1A9cYDZpwzKubwO2TU9GzNI7L3USchudObDUEA9YYAIu1byvP5WQ1acmUNcniP1bE8sxUI
-9kRkkFqGPZEdghOIofdzoIjbhnSpPWkbxjaONcVTzWWNWisavkVWuaiQwUInOdb1Dckk1U9OukxL
-rCraAqvBEqznRrnB3E+cXSTUzSzLCzDlOgs36AV7nwL1uGe3BePbIuDCwkrpKjWqp4GzFhDLjMoE
-DfD4og5DfRQIMnx9kClnD116tIrWeqlpzu9ipQ3uKDPYbidR4JQH0XqBDEZG6VXSlSLidJR5TI9h
-VD1nVlg/R1Ij71qrH/1irPRLJs+zp9RlcjNW/XyasaNRz5cjn/tbDrZeS25cZBQZglTjW1el4bLQ
-PyQlRi1HHyXdgEmU0uW3kcrbmapauIEtPx9CWU/3VDp6qh5CuqEVZ1yPqTp+F9DN4bmr2m04GIM/
-1jSnB2NBFlHkYH16AFdlFl2p6fhI3Z/EgXTSTkTGY9VOba3CoZdpGxmxBcJtpGEkTtjRcL/IsXrf
-gzRNaE7G1bGMNFrcJMvMQSwOcx+qhPAJ9SYzlc44EXaj7gylAU+eKN1xMl50CucHNi6kyExQeFxl
-UeiTDOQ8oJ4IiiOxG9BgKyXCCLUU9ZYzJOdAXZPzC2o8FiUxdhmtzsBqTkS3iT3BfKEv2C39mCiM
-S3TNq4RCZ9dTPEFKuVdBVtfUmIniR5xQR6fKpqpFFEzskemxbCwjt77rra1t5ch6men97RYIcRfg
-sJXPDjA+y0b3XTJ6dafaAOBRNvYPBm2yjdQo07vUCWYAbW1g8fuAjtfLcMBbnD+GnCGfxipvoTEb
-nINrkipfuQ+FYk1Ggpgua9M9aVjtZpLz+rVftPIYE4JaupGZk5yVSuqFkE1Or2QIZU9UHOgWq1Lx
-1ClyQCPVYskiJCvFSEowTptVxEkm+rClpG5cDVatrdv+eUs0WKE4IcmCz0taKH7DFoIwSwqyFV2A
-IOu9KKrlR82CvCQvxK1VQVcc0fNmJ5gowdEoqvFsLFrwanezuHQ4HH9mQlH2uP9GzwxAKDt6XQVe
-hHDnZOfWMJItEySEKLLpOuQIyQ9sQIiPkWXRbfS+6M/WIkluvyjFjwLju2dW0loy0NqbPGi0jRgp
-ufEgZftE+nkpObU6ECigVL23IBh5IKc92i1jTDstF7SQxNwRCpgr3SallUvRZ5C2idzD2os6IkPT
-eNppPd8UaU3xOz1f5V5Vm292kB3xpapne7wf6FPcjcRgrQoen7rvkZGzHPkv0p7DQ4z7ZDEUPyTy
-2EuRo8UkkMj2D9jx6ndq/ij5prAqX+aiYTZriKaTiRk8N+Gi3qTEs27KIRU7PQryOyVRpHeaaOM5
-ni3jUrHv3hs1bbSw0FJWgvKpzqwrNjibJEsoZFP7sq97RQlOCzGCO8JV1C1fR+GTX0XRoumsA8FV
-/feMqODt1EntUzDm4SYl7XETz6wiTgir2gvEnO8zAo5nj0b7iPl+5jywIuJ9O+jnCyFt6rZbGyMm
-9eRNRcDjvl3m+W42s2lGiL8sN6Ib2/eSXMWjGvfJbgBj/hTpqi/FySM1ZCcil83oUYlE0mFda/uq
-fZjt4CawipuS86KvBtNt0OdUwZT8di5UYC02obfmXbYava3gNovFm2GKO4W6SmIG5ywVNIQpqTpD
-SewiS+xobMigE8yUtfE2jXPP1VX9Oq+pt9EGFdW+mrL+mCd4qStCrlzb7o1zXRqk+qdqcE/+bntU
-hxHC30DFstLzcNsDHL+JaTZvhzGwb3GRExOfWurW4jjxQLjtjAYCU+g0TocwkLCqE4q17835lOTV
-RO0/V9uzZjb6gVb+eAz1xCeEqtqTj1ayFZTDd8QROl+korOjVomxnDiJSnSKqmVApzGzTLPYGywX
-Z/a9ySXKf5J0N56kptfPXZx2uF9pAEieZrb6PdsWS/K6or4dKZEf0J/ZvraE4W3eZxYpfz3HwyZQ
-taOJLP8i50a9jSz0XST0zQOT1BxLD3EyqpXHFzA9mkGMV17F/vrMIwifSmOWblQpTVUvgrwS+fUQ
-khBYxMtWzA2kR3UJ7+i6mvRxGg3u1brFw8GvNU4rDRsJldUli5T3JKmBqRsUDy92rBuvRdbAEs2n
-9igtg7yJI7O6LFPSmhClF613wixjp6nP9uNS08Eb7WKEet0U9blZkoVes1Q+2l1OgGCC2PO9qEe6
-0wor7qYeJXU7Ej5wgz5zecxHlW2Woce6z65HO4ZDLU40KRWvb8dwFxOusLofyOrqYxF5mM9ncvti
-3Jwc+XeFZDaUWc2kILZIyKd4pkI5gWk8SYQi+30xy1t5xuHuWXZFmaEIZ7IkWGPSk9kaZDatQhrA
-PYPkavRhDmYqm6cksGSOtE1xikZRkDscyOEesdV8n5vD7AxRmBjuYqjdpbVzvoVgCcLtBJ2UBrUl
-TJ9ywngtqaPhV00UQ65P09yhBMA1RlL+mFmGyjfkIPTHMSCFkWN9WfsGahMPgSzjH7kD1c9smrw0
-1GgxN9m062uKStn/Ye9MkqRFzrx/lb4AZcwOy44g5sgxct5gObwv4MzggMN1+ijfxb5flEoydbdp
-0XuZaSGpLLMyM8D9ef6jUYHKh+AEq7gd/YQA34HQtRLHPHS3t/wi9lDuu9Yu7tPeV/zkHre/7uqz
-dHwiXTrTeLLbjP7vLOu//CR2TgXoNl9bzy9MVsFxbIb41MNPH0ZdL5cupPN6Htx+l1KkBNxeDzf+
-sKRfU6P5SFC7QpMaSQscUPfXnA360leqdIq1WdvXinXuBSqJVHCJwYJWTt9Ml8wqyl0qQucylCQx
-l26gpnWAPujEhl8d2tkIdzBrnIUsylXkpKPcsiD0BwhkJIRLzlHXs1khCWOv9a5KZecJgQPZx7Et
-X2EbzXvXEObvSXQ2JJAoN37iUFiek7S7l2mHWN70xo2DCuKmYPA5hGlZ/o5TFT408cSB4wbWmxGn
-MfZhkvHWGXIvAtGMOvw9q6wi1rmsUaYYC1A2ommD98Qe7ulKNu9ILMtJXuUmOi+1U95Xbq/vfJ/c
-jkNJQdS7UbjmAeial6thpzqUbS4eJemnj3Sn60vVtcPeg+y/4YXoTh05dudwkF7E64k/lXFtnU7W
-+JrY14szNpdzn5bqxyQK5KNy2/lUB7rayqkx2cyccU+isnUwTZbsYBrrH9Mqi/tuaMovuuHKY60z
-c0tij+JMHOODyCZAqsWcj2gRnQPS2nJfzEXyqMnaRzgzpGI/2Xq4KQIGyhVlYu0vu5la1LSjwJ08
-uum+dtRirahzB2lZeCBDtE51vLWDqjlTUFR9EM9XXsyi755y2+sf46ION3bmWHsoYXnjade5oat+
-vHjCnd7m3rQfzNRNKQrwU/ISO+c02HkDUgTLAjHhhG+OYUStZc5rf7DIlQuS4DCUsrgJrHLYO/5o
-Hossd/mLEWzJCBs/xlnMWu0Y6Zo4NUFcsxY0BFzJb9bNfGCz8rAgGzY/iK7HnYhtFITEBxrf3mIn
-Z6NaWjiPpXrO0rbdLTbKT3KmrZ9+SMbHaqmLvZc11s7LSTT0Y1+ebd5p+gDnntg6Gz0YA9NS7Nhi
-3XuwThGRIlbvzKrptkSJ7bwW9EM9Z7ERXvyp9R99b4qfWEzN7axr4kpn3B1FNZTo/7L2siTEvDCp
-TpvUiMttNVjjLcFNvyVo06VFyx2j7TPSmyKlJGYZU+utgzvi/is9pK+52miy9zeJLf0I+UEMju3C
-3sVjsqzQeomtdI2EiKK4K0/E35j40nL5FiN7IHJmKg9hk6PFK229oidcgFBNl1kl5lo5KuW7aHQ+
-BfWcJyLhhnsyVNObIeMCLK/44ECy4l3vJ9ZL4PTjXTo5xVuY6Gd3DgobahFlCUhhRgq978/eiiW6
-OyRJR0o+QMq0tsyccJIwJpqX6L3rfIQxh+B9jLOEATM0673hMp56htWJvVPk5L4xxw9vPeKefKXo
-GRs5V7A+bJvWcu7jJiVj3tc0n+6YVpmS4R6AAs3SfheorP1th6jLWrXkn04rt8ayFwJXmTzam6lU
-tf825LFFJHs5IcAcY0nyPWIuvuJvsX1VSjS9tMDkoECyEzetfgoUmu8or4eZwGSzSx+EBWiG8pLv
-gM6U+OZAuejpjGSsx32/VJnDQtClTtQ1eRXh1NNfC6ohte4Mp71lZDBOroscfs1YC9pHdFO3QgoI
-71wNg/4i2Di47WKff10wqfbipKzdYJrpEuwxo2V8/F1WJmhihgyVKA3YXPSZue+WRS97B81FzoCq
-HRCrsTomQR5seKemX4kHencdLTjvg8wgjGOYqiNSGBZ48v4QF064JtbGYAU3f0KZI0NANPXxlce3
-wn2YUxsZuUxEKHn4xdygTV95lfgVCZI8KkPrjSgHVCxagp/YCuXWiCcoy4fwPqEK5si5Ozz2KCc2
-hqfXcxs0t0LUFtIyo3iqBkfeJINzR2TYA9E77drKzSpl9wTdMGvclzjlmc2qND9L5STn3nSrkx8b
-H+U1j2hlWKyfcOyclBih0lVM4thXJ5opslrfePBQgEWZ778F6bly/ecAJ8+KIbn6lak42xm2HDZI
-7sW+msmdiYPRe+2xGpL3EotyS7ZPvBVNlbDRNxb8dHzBbKBWicOF6eVIpPkzLfuAlE6MEqL8GPux
-OJftKCK7W9p1OIXJHRq3fkvXUM4+Yw+roAvDKCNDF+0wwsYVJd9u5DH0HUUxy0/RAUV3DGqfltfp
-txKj0wuEqyKiekxfa+CueEPpBWfAIGssD9pfwhBGK6Xtw5rB1pTT1LcJz9xNzcP9EPthecPxk9+G
-pE2jU4u9LN22qokvVDHr+y7p+x2FNgiAKpPGXt4WXhw9Jz8dWlKfLNameJwXcH4GPf9uIfUr2ICe
-UdBU9Z2n/1a+929e9p94Wdv0rkTqv+Zlbz7JOdx1NZTff/yQeDgU/82B/rcv/ztFa/4RUhFkYpDx
-0LeiTvgHResFf1zbugg2FIFLO/X1X/oXR3sNPATydFwMWBY+dHFNX/w7SWu7f5h+QEsg9C6W22u9
-3v+FpOUL/htJS7EIuTL8x7dJziK94H9WcceOzfPu0JBM9jlgP6UXznMvpBig8DSBRIS0D7/GqZ3f
-5ACawbGN8C2kseLQ2JNe1xB6F9eZdWQn3byvJnkyZrd5tUQxfCddkN+jrle3arDjdUeB76HXWFMI
-I0vHhxRrlI1ZvCJDkCauaBYQaessHq2P2fXHx7AZp4tGk/lKaUe6JWRVH4M8R5bcxyQb4vW9p3/A
-Ba3O6uIZawEZ95ac++2EBQK+UyQ5QPnQi1e7Uh06D7GoM5qW/B1iPLQQHcllzzRS/+Bv5uduG/Ge
-GYrzIbAfa2y5ZNwtFbcNNdvP/ZiFt+6iq2PtG84aSRcitmmyuDjIkoUV69OsjuI+8deTnvUXsvdg
-h3XROPnQzHdtmcsbVOiQU6gmhkOyWFwuLmyz//YnfVOPIfyUjJs1N/C1/KWtnHeXyi6yFnP9VPaj
-/TwYCJJyQrdKNhTNbTbJib9YMIGLDwUSNFSIukagkTrLhr7K9GGSNICDczrI3HOjbzYJu+kT40by
-U+fXXxA321DugsBuL5MKit3kcjWiXMYzI2mfzxAXustpmgIAtER5LHT8dldqTuB6g4sruWpAo9e9
-yX/LLDu/UKkaSixPVvITOwZ0yDzOct70MHH4Sua4Yb0y3Ok4QZ1FDODOe4JC/y7AS1OvXT8Q931c
-BlE4YglbdaLoI9ccwlPGB5msSARGBjNXzevsWTw7LMbUjel4ulcIhMZNIcfsOANTcivYoo/yyqof
-8Af439M407TCsH9VCFlr1ZffmVHcTXUCXh0EtbVP1LUoJHEx5FBoHt4F0Novgy3UjmbJ5HnGdIR0
-PsmR+hAPKNaeEXPHJWqID3ETO7ed5dVnhPDiAXd+eqhs/ctw2cbiYpKvOqB1xs/AQ02nDN+blvsu
-nix3Wnml0z73pEtfA+TAP8l6TA8BHUQ/dcxGi2XIqs6+3RofoZ5DY2+iYO/WvaoqGtSrpdzU7Lo3
-dcWDSi8AY1OfuvJzShkK7mpv4tMcl5GIYWcY3pxqYGDMCurCE1L7l/UgXDdFyMfkgxTfRyWPk+yO
-VgokpoXfNMVGlk6QHE2vyduV6l0ptyIPJPFG7hjscN1KHSFZ6iFBmxK7CPJw5tnJ9xZI9KXb+oFB
-EYMO9c4KU6VvYl9V+jJJFZPDDli7Dukjum/LUfEjSs/Wa11Ww3HJansjK+KoQLdlslkK3Brh0Pju
-Z7fooo46iVS9W7eAyw9N6ZCjWAPNVApsOiIVxHpu+DF3kqTQ3bJ4K2K6gzWLJCy3ukImVD6l9C2g
-a1xNQmQl3y8J7CdzGGeIdahfz49/e5NAa1BnOBBOwMuGWPP0xck96prSAjBynY9aVdeX4UrIU2nE
-X4Rrg/eyzxsveZyqgHc8EFk/bSYbSWk9MeKsKOeCeU5sXtPtZMsM9kIHwNt0hPQ5hSQ5TgQ6UYK9
-h3Yj2C7krdpRju8s32Z8UX0AQaBd1zA7/1AGZnlWdbBB3fZumDUplnNPd4xA1bkazf7gZ/WDqZZg
-Ldr0jW7pKmKA2kjLY0eX7ndNGvYqBqz4SUvAkcGJsxuPHIDbaSz3vtEWm1HNLyoNnmdDHGFzb+es
-Pw6ldUO89rlMgx8ooIthyTPI5UM4ZiTypwwpjvb3Juqzh0I53gpz/ANMyrZrltc4cb5zkEBSPruN
-TvQDf2mxtZNZrjPLL5+QkHivrcESyOc0Us7U1LsKLjuSILirwBwugVNuJ1ROa2b5b6HDU6BNwjGT
-ckO1w7s/h48Kbpir5dHvrWewDMh2u9/XpnnXePMptsy7wih21Lu8pSK9ydLxJpzkV2LaZz+krJzR
-CuoutjZCm1sVz4+4L0EZB8k/UijI7Whs1bmodXrf2eE2XoJPalr5mrDucKc4X2Ox7BqyNo5ZA8lD
-nAx/a9zPvAEIcpuqOBshf0fD/UY4/Fa1edQnwcVS06oL7aepJvScEYCOCidrwO3UIban96C+6rEn
-WuPZFPgDZx5JvVkpsi33zqbTKpyplrZpNcVe8I2cCvwCo+q6DxCdBnaQnfowbNYYTX/IYzf3dWu8
-BJoVkHcdHxU6SbJEiD3c9ACtZyxuL3S2L4+5O0K3mNcLDz39xg2uTzG0+TEoSrKDCXwJNi43I4hV
-G+wGiPzHOFDzqzNJc2/iPEUI0ud4qdwqq/fosYzVEKT3Ke8wzXRJ+JZWbgcF1yZYVq3fCU4udGHO
-8poodASjyH6gZJpt15f2vlHBNdm3iTt0MjPRY94Q/2pdEojnDBM3heHitiCIf2Ny3lfRmFZ6kzlM
-K6qtxy1L+rkIvOGAnIICMzP/wm1+MAL9YmRdBuWapJ/8Jt2D7oqHivN477bytzEYY8RP4Oyaqv8K
-2E3WSgbFtkSNvRmT/Or5JVZ2JRHDb/o5/ND1gDuggbyG56oOKPwpUCeK9QvEEfxhcc/OWJ6MzqIH
-1PIuMQkGh9JUH32TYn2sKkKjg6mw7ulnU5ts9HbhqB6TtN3aXmaux9Ttb1WcXqvnKTep5+6QNS2B
-O539WHj5Xtoc4flInQmDkRkVxC/va6a4qO70voEm2fKGE6YmLP/Y+815NMxbsuBf8iIj4n7k+Pe0
-2DdBcjHz5ok0lU05ViyOraSg3Odznqix6F+MvLePHB3+ziYD8aoX+06E+9WMXY53snlDMrAL+PWu
-JWgcKq3Fse/qx3I24nttTWpXtp4PmhzXa18pFrWp+iklVEwW80WQj8O5npaRLg/1O7GKXTnkw4Ws
-kHBlWhOlecvwgfzDPfhFTeByaXlRFwzppryqkwZqhZDFwSmvswnlhzt+jVp+MRIVMyiduqGDodyQ
-SxFSxGe3d0mawkcEqd7rZiCRbCj1ta8CaGDhM9iRt/qiW6rHUCUMH8tkioth/qgQcJQ6mxkvZ3OO
-U/dDV1hSKQcK13IyypuRWQloF4kZZgmxyjCAChMfCTUFWGnzWxfS7CGnVyrqw+yIoYW8OT27m5bU
-qYhfYcGG1t/WAX0F9rXWIXQvdqzvkFLQveu1sDeJcwCsrTeh62wSHxXzrCDRddxf6jg9sDl4zwW0
-r+kMeyAsQjep4GZkAxkvj9VMRshk/fKX5MQBTRYcxmXSUTgppeXARM5NnW5nhW1coWkieONKTlrk
-DArkO0Gs3wzdx2v8HS2fYjMciFuIgePVqZyBMQUNdIdc93dOT1QzT3iUOM3VArKbg3pnWMt7jyEM
-aUOufqnWszZwQsCehXoP7Kl4oATmF3+r25AHVNruGS9+vg2UoNIknhA4AiS4IaDauqibX6GtbsNu
-2IJxn6RpvzTVTOnR3Izr3KCHYYq5UYP0zU67H9Ru4F7aTtY9AlJKGPh5HC/eVoXIjo0dfiSszDuV
-x+cZyHrVWeMvYK86WuwASRwuHZwIDmyelz9lRW+ibB/oryNDmaUjfjXMpeXel79jw/2Jy+UNOn4T
-G8nybCNTSUW7STtRrQTek+1S6mJnFDghfIsbPvGGnaxw+C+eT9UcLZKo0q7ZVQAJ0qRqYaT2YCUb
-x9u09nDDEJSc/CTDMT6QFb8Y8RKZWb/PfRSYtP69YMfFK1CnqJcqD/+xa7wW5Dvvsgq1AZkf+Zo/
-vQ1iiiW3QKXBVL2EtxhAOla066lOJxp+JKGi2O+xpczX7HEt6EtiHdoPKNLPM9gsP1Zjo0Uphr3d
-GPEawSMQfg5zi8oEhbzfWkcz5XrTLC+HEthwPcfTwRK9dZLF9XHM5+RtVlNNVhbtNl7ubjAI7+wZ
-73syUaVEQj5ehiy+LTOBYkyLgA5cypUgqYeHuU35n+Ui1m5SI+LxnHxrMA/t0dW88OyW23kx/Fun
-6rlvRkueOPCKXebKt4UqQ5QBHbJfxQBHyLzgjq8oumM2XZvmXG9GmTb3Wdb5UYur14R9QEpR0jyX
-ZDGw+bBLbE5q9tuBpP95bfAnu6b4/6qK5ZYynm5bzQ3uf9PaCts1thKjwTYUZnws87rYLh2fZ6Aw
-4dd5CqFoURDT/tn6FWvQ+vbKgZgciwtmlUZ5D5ypPsy53wGixkhQ8ix9wIqcn036eZjsibyKk1Fv
-vAV3ShOylGhoV1hb8T1QI4/rr771CCNZN9ot19gQsu3Ag5koMPigwLBGFQyWJpWVe9du7kYY0JaM
-CVNEPj4A3oQiQPpvwEt1HvQB69rt0vAr+KW5MW2zfwaCLfZJwL90BO93uHyOA8FgGxr6xDo0kWM0
-+UyZZWzI3dRqEtIG33ujnP2x46LfyTi2tqNbWPilxhNQIcrYrvtwIDERidSY0OPmDeet3A1jYj+j
-QbI3NKZhaTLQqi1jMp2ccH5f7G7rioQnNk3nRyac5ZdEHU+t91hsNQb8G16kWyfp82jKTLHNMH8f
-zEkXXKS9cVRpkgD6998TfZJHtfgv1eySlCmpn5xoQ37xMBajQc/qXUbfou166bvCg7RBvptFi3Kn
-dRaIT9IOPtAPI29pw3VLLDcwyvQrJcZ65UvM04ljv2PfbLh4l4DtA3+3bZNqUNnzcK+8pdstxdLs
-BbbTjYvMhEE5oE0p9IeokL3C0jmOEWAB70i1PCDD/cgHLmGl2yGSDqHRouO+r+J5gz063lfa7e5g
-7dvIsGquftM6Y52xN1pQlmQ3uCEHXsVMCmRnBE1sVDoMkKTYHSlcaXd17qeRTNrmN+IOC8Z9DAEo
-AfID6p60blIwAO8dp4774VvWV0uLMkiqv3Wq1P22Ud6/5tCwxEUQ6ErtVXmcMojkpm1o0cCgSy2D
-b0UiQ3PNp01TXhXz/1kskjXKgbsqbamyjf/Uy+LDYlMJz8Kdh0821nllBWWCFW1KdyrB7E7eL11Y
-BHBGTdcyVYG+ASaF6Vkkg/UgTOMzC8XJa3Pvkfreg+bXxeEdlDtqEd8DA0H4GmfBJXS5tf1uQgho
-d1xyZLSs4Ne+YkWyDGWv4yaUufXeGhNpE7l+XDroO9YsUKneRmWjmNMx6a9moUdeovpsCMlQx3li
-JWguy9B8Atmjt6cL38qkvbMRksSEYzVE+JaN9RS3zQK5K6lM1VdWcVWQ8A8qVKTmFpw+eew9GSwP
-k9Eq+p88iGe+eRvvk1KGX11F5E+96vAKmHAdbdLtObHa/tw0Hje8YWA0xTK2FiEfxzK1YDgB+TbL
-Pqcsp8c5W4ZO/2061AqfAolZA+u4AAPvAwN399BQwWqDSnPMzyglay3cuH8BExF9v6l9S9/SbZwh
-crIADKLEIExi1UxCk0SwtFnDi3nNcxkcPM+RL8cd3UNtGTmd53Mgp1Kl0UQD7nSP+S+DauIeP42d
-Ij0lHOdAbFy/bWLidSwUCXosw21dDxhJZuqFgXp043PSZqoLz0jqyBwZyjTsosou9JZGV1wVFE0g
-8lF1Dp4SE/NQ5yNhEbX0M1ZXfrGN7r0MhXntjMbabPPkHXEHdd0tis400nxXzINlOOfwF/gKpaHa
-9jaGWVU7MpTMGh1XastnYi+M9hiqKdsbhCPe0PdrxZzfzVBEivtSHsIiBu1jMpdPpj963y39JcM6
-d0HCSEZkraZpKQvdDSckiocKCwo1JPFhspL5tbRcjxcRZRPPq++gdZmctBK7ycEdtrLAAGpAO8nR
-LgblCl6pqrkzoVCeRt9O5I4Ca2LoQqAWoqqRRvo0KCMSlHKCPsqtHX1UsX/Mx5F0GoQ4ub8Zq/gq
-6088hLxdU0CS49WdyAca503djjjkArVQ7EiFtd/vzQE5SD1Afumx+rb8ek7OVtPMH6RyhtWuSyHK
-+8wF9uCJpjQ4aL8DTx4a6FMNmxqjzOHB97YxQllTISUz6K4eU0he7yFR9kuaZj/dlF5DIiKGqbM5
-B0eZNSjpeq46q8JkiiGVPKpDW5IapItPv+5fg8p/5TS/4FWKMWHWFiKcJTIKZIe9LOc1Dri1QSed
-PTrX2/ADuPDRGzNsHMY2GL5Vl32ks/jurfkICeQdPJzw5t7QTn0uGqtrD3ONinqELJY0uaX3BHmE
-5mlq4cGeSOc51l5D6H3dP2q8fl6kxuKNtA6eimQwIm/i6cxbBPiLCEc/4nrIPJrWVOr5D9TOZcTD
-DqhWaLe0g21TD0bzZFqzf98aPGBRxd84PUBq8TXlpCYIQwY1+Wx44VcpiSiSIlW/xyEOxdFrJAMw
-JnHvek22r8Al03fj9sTNpJqKoxUwHtZDYkiMdD+NOYUnmItyc4+FqKIlZ+myKlLK0a8uLT5ik45I
-HiMyipaz4nfOtnmQa/s4Ex0l9y3aoYl25i6Fvptw1u4ENUTMvMd+4RxeMU866bnMy0FFxQj0i28T
-kC6aKBn9tOs0DviUHOgBNDxlcoOqDTFn68/spd0YDmLrxqb5I3PH4QWJLSt9VoiGDgNnq3G2Sgvz
-ccudlu/+7U/ssm/1z0SW5V6rOP41Dfaf5edSV5/9//6av3Nf/h/UccF9kRJpCtOxILH+sicK5w8c
-iC7Zxw4uSOIG+Ud/cV/2HzZpkqSEhsS3sle6xPT9nfoK/wgs4jRZaOnFAaH4P9kTPft/RB06gce/
-ntRMTxAQjVPxSoz9U6qiO+GrngPmIuWXJFIMfW4sG8wtrv2ek3lZ7gdtZiFVJ1nX6WYdQw7Q+cv2
-Y9QfJjYy9G9tC5zVd8h985QZKco7dyp/G7Ovsk9uCO/ICzA6N9RD04tsFqpt7ny6TK1TyIis79Gz
-dMkBw7aXRWgkO4xguIvY18wpIrPBf1S8A+uaFJB8Bx/JO9JNpEIAcVydhRbgG+qlwDSMxyD1cNHp
-xEC8CwBlb/O+FuJEiI9JzedQ802AOeDjS7VPEEYBJ1dW8yPMetrmCLKyp4yQhenUN3aWPXlyNi0f
-4RLtxlVREql4xpqtuT+WHtHbmHdjvHOoa39a+rACt8yJPZp3RqMs9xYHTnWU89ylX6MPr7gyh1Yd
-xs5T5c7wBwQaddxBPMmY35jtNSSpCQFx+ur0E+A4Euj0FbE36TbUVRrEigzBkEQqkfPeqbIBX/XC
-BbhQaomaho9C1IA35ZObToMaHpVjlrc958cKAdlbJbg5pUQKwoFGDZqXoRRf49iS71lLKhVzi/3l
-aO1CcBb+o+EpdkKSF5YjD+2w77y+YUgYWy6Lpmluk7aSZ7RZBapaqzvbZdXtJrJGNrhvqPKukw41
-AyaJRI7BKxkoTHDm7HAnjcHwXNZO3m4Esf+REyD+coiLWcWUvOxjx8QxsfTZpbOv8hHXyW+6kZSA
-hVjM7RLIMiIDhzpg2Vj9UQj1e6ipf1oFfdduFT/0NrVU/Uy/L7uZ0MNjmrjZqetH7JR9MxjrghSk
-6yNw3R1RIwI0sk6z5xdCjOdrnkPk9rK77+KwiYSrrzr21t4O7O7IM3qneiSYrvqhj236SjF6XPir
-2a9GljcqQgCujmCf+jGznP4Lpsl4nzxaisnc7iluDagZAx3QlPuarjWum7gf+lXdWNUboWdO8QKz
-ZoXFvvAzUR76svHUlzUlSJxW3V8tnAQgGZPvr2nldpdv2zcaufzMY3sFn2qGpHE7UbWMwT3LtW+/
-0OYmAIgqAzkOs3uffrk2ILU1JO16chPrFDd0sBV56f9uLUo60zQRJ5EIFI5+U176hXAPPZXWd8hb
-P/C0FZ4zPpbB4qgzoVZuuZtRbFkHTXtue5MilYr3RLENumVRQyn/gIHU8B861ccjQk9MYQg3rFgg
-LdKUoZ1q2fbphtisqkMTBQjx2mumRZlL03hvMdl2d6GPBPCdpFTA3E6miX32at/R0ZAbZLox50yI
-OgfBZvYt0o7lkV5RVjK8WQPyQc4m37lT9TXZFOzLyEcsASDJVQP/BHd7IHEirW7QiCp3fS3RhHKT
-jU4bMjWLYeOKJn0yGnyjOWJX9O7Ehhb9RYJMSjxWy9C+smJbqOquvtlO5c01OMmaa7Iqsd12VS2T
-epXYaW0fTcKrCyxKYbjWWcWbuqZBkPCJJLPStcrHGStqUC1eHjW1a7T3turlnfRh3EiGm0TsfI64
-Sik71KaTTrdOqJEFFXSBx+v26grHLQQTatXXQnW/mQjc6K+qF9i3povcsCCQY7J9bd5PV6FMXYe6
-3MTMJ6uZqmWSnq7ymgDMzr0lYJijgpVQ3crJ7Hnh8wBP8NoajNmT0QxQfiYLS6zIGTO3FKabtDMy
-+JR5o5sbPOwfo6L2L2nhV+3ON6nt1mEwRhN5CtsqaRTJjOSbwdgXunS2blFY+Xoagqo7SwZaOETL
-aZW+R7s2dTfYVEHa68G2whfzT5ka9DoasWkqAuucMHMharNG4bzQYnc9Uf9MJyFox0/ONSyTj/GQ
-OMsoaBP4YJYZQ3+Efdrq9/7a75cVCSHcQGyxHD/7P5V8nULYcT/DOMn7BMR26xDI6dyVRHglW9+U
-mE1WFj80B/ecjDNSyZ6aec7X5NgWveO/Av407QkKZnb2zRikYNLlnH4yOhqEU4zEV54BGSse3xx/
-6VCyUSJGjJK0N4Incp159ogK9HEbrgkhkeOpdA1fEOFRdcVwJEvame6lJZzhkCZdXT06s1GVBCjF
-i/1h2XNar8dswlZ0lSSM80FmNKLd2W0d83SOVokW0OUeWvcNvXcEZgS/yGsp3iHGRVQsxiclzvkp
-TJZ+L1JdwbpV4t6XxZJ9Y4cc0td08TAShxN+3VXRX+vdrrawRCWIVKTKIo2AF/9WliEtNVDHpW89
-tb/FjtgjmhdW7JXEkbRBi3OzYI1KILi78Dt3hC015BHBblET4grYTMWVFcGClGV7q5vB9SXQZB1l
-Trp8lfPc9CtdhPXz5HEl3PT5MgekhUGWTAc70Hb7Dj6Oc37l1U3VUFetZ5yNc//eWTWGABNvbPeL
-secSUCiIdLUV9aOofb1zbeOEi/nJIqB0Ogwz11z3y0OdYa/HhU+dSCsWaG2achNb83AoeZt4Hl3i
-WMjPgv37ok+ajQyxS7ZcfIp6s01DIGhm78leC+bn2sjZtYBbnJCAKhd0PUJsONMgaVdOB9w80JiO
-BF42aP7bplaIgMNGXDjU+/itC4DEV2bXMPSn+O5ofl/qyeIKmLVJ40NYUir1gn+x4voNFu/6bX00
-NigqTc8JyG0Im1q/LBNJEyAVg3FNW6wsU/aHvqVice2KQU63eezGXhgtZaq2DdluwyZribvdDWSg
-vMk0AIchj6O0bqugch4D4Q8STdAQi05sOxPotKmIyfp2kjCX+6yfM6B2V/fpqRD+nJy6uRPlZWzR
-bEcVMY3qGYHIKF7ShIN238x9D5aD6P/UmHOWHBIoHe8g7aLe5wsZkAfhYlXbOqJQnb2yJpnVW6+c
-sRinIR9iZCPTvQ2JOPqRmpJJ126r18nX+snJR+JdW6fae4MhjyEB4Eg5zeorCz2109CbDuyX9Mef
-dlZ5BeuDDxCw1LGYFKuAR6NOk5kysLBsp99KOG0Nxk/sdLZLwGe2+DZQEnkxJlL297bzd01vDvM2
-I98AabSLi0yA+Vmjib6zjf0cUejSxgDVIeHUNy7SMYPCHg9R5ZGM4NEBL3LGgCfMmMbRi0Kx9Ceu
-2+zRZ9czjA0/Dqs2tJjnJXc0u6Ppm1e2O/m2Mjdcf06SYQaz6S4X74Wnwt7d4GlU8sOWHhlQf8vC
-/7cu8p91kRSbEMz+rxfCy//7r/o/7j+JzvjnlZBN7vplf+2Erouw8aqto6FDOCbn7D92Qs/5A6Uj
-aTZBSJ6CIILmHzuhYYV/iOs2GJJLY/5/9s5kS3Jjy66/Uqvm4DL0gJZqIIfDm/Do+4gJVkaT6BtD
-ZwD+Rt+iH9NG8rHEDLJIUWPNHl9GhMPR2bV7z9ln1VGylfttU2jYBECbvJUs8i9N2PjOP9FDIrz8
-Iod0SBL1bMF+kCgb8s85jN/vCtH05M6Q+sm2wt8PKNKxIFyqyXA+83nwHmiu5K9WFHUqsEl7vtaR
-ToNdMhFAYSPP1Dtk38E6IV6DehmBhLmo3C55zZuMgedo+NEFRgtQoDkz41YyuWJlRmwJyVl1g/No
-JYsabzJTL/yzwcK6fk0pb4hz2fjZsM3LHHZc5gvz1Xbs/IrYELQROiG+zSPWpSRn1tIofXhTRSFO
-QvXDSSsHtjC2kQxMa4Z0bXBhI6XPNPBuRrdUD69payQYDxCSv4hMIHAoWoYdm5g5zfVoUHkT8dtn
-Hw7yvfh8bHwsU8LIfC1UINCnrSl09ZrhUwNEN8etdV76EhjgEk9jj9bDnZ+dcVJsPPwkcjd1H1GO
-ikXZ4PqUzruGCsADAYb36TNu2vncq7NpCnQ3Q6dA1got/bGmvA1xiPgUgl1G9W5MCcILiBF5E2hx
-1KG3JpTlPM1jcYFfrvR52Uy6tolQvdIMpfmJGU1f5HuV+8MdRWb6vR8GddanTvaU02/AFdE4vQZt
-UViXk+m2F57pdDedvarNB9sA5jnItNvSiltH6Ziu/GCJJsXUni3mC/Yp5zJmGSs2rm74n4h9eqo1
-XPTexnNRcW3nJovKYPJL/14h7fP3iA396xk3c8zcAD7+JjV8ZvBpKSpA2NOiNez8Zv1dNBmSmlnV
-A01XAJNtV3EamaahrfPo+AFMaka9gJrpmyoo87FFng/cBcW9iUwSHWZTvubJbMMmKqpl1xIlIrdL
-7NOaHdo62vt5Ur/zXJVvI75DGKea0Y8bGPTFYyojtAB+bQx3ho5cNRj7rvmW90tx0czAcQJwfdEj
-aNisDb1qwu8yEVJ+vci8crZ24RIBVMqE0ZunkG7WmLzrQKYZX1CUkyUYO1v+d9dTE4MZx1yxmUI8
-twuD7WIYEyIErN4udxldT4Rpkqs/dw4jM03pTXmwtcVDZ+b7Bk1UZjo9HYWuXx8p0d53xiBOngQX
-gMcxrdAKoeXC9dzb5oDIdkWSDpoHjD5eLFq2NWKSKvC0ybuZ/RjAQqxF2rlyVrpzm+TM+1k2oaO0
-mlaGcWx3HvoakA6IKZbpVnEk95qZDN/pJJDzOw25jY3bZChYtSlqkrrHUbcOYZ33UZ/oCshYua9e
-W3WwiSpzIglb+M1dDBzxUdeqHCfgJBgj+a1g2pwNS/VUMeBPdtT0fYbcclDJln4UTQeew84Po2me
-z+MeLyn+mkU9jJqVYV6YCgRkGP/0cZ8CFl1QoflsOyLwmjFCzaznCYG9ApGULZ4fNLOznHFqxba2
-VHwh0JldocXJbyN979mXFgAlgDldZN72jkv4OFN4bkUoQThjLQ8UXKVS9TjCLmTfD2x04V0TWVYI
-VaF7dfG8AE6aB5r4PEofSNm6eJtkKbHoOHgrfjuOC51iMNa/N/VYk+Jt9RqUes3pgMXM0PpL2cvr
-MXVsEPI62yJ0bfAbtLZm5yfyKe928VhM99hfszLwvMh9FimCHbpa/uoToip7qRYs+pueorAIO7GG
-giMaH+/xuLCNyv0EC04MZh1mHmZiCk7ayfCCclncqryjDOZGxv2keWZyI9Honinyr8owLbupCiG+
-KGNblE55HtX+0h2jghyvDVpX2Ie4d/xLhjISaDtIsftE12n4dUWVJ2Gt9+YdWe3o0vx2dj8SWkzZ
-xqiz+Tb2nfJzcghK50S32n6NmA8RK/VnudJwgNRss9GBdF7hh5NddiHYcNSBVczAa6NAj6hwrhzr
-Tf2Qr5aGlrfoTOldrIuRzXYW30kcWnlXnZkaY/UrAexJbKtkWG2UZoXgxmzbGir2WMbu1p3Yw23x
-JXB8DhTImg19Hx/ZsTeMssne/mQAHTunuMsA7EYQTpnidXGytiXLiAaKJyRyY7q7lGX5MoUjzhxm
-/E1rmHtI0zl7WToBrwhIKBUVPvOFytzOWGLljAO2pLuzr1Ql7tFWAAGmyJj9Q+EWog4U/uI+dNOm
-kKHSE+AZ8wLxh5QRGono9emJMTml/VBrPkxrVACA2S0zMl6EBzr3YFtt4oQg/634KNxyNgMgoOoe
-Ajo3j8V+l/TpanKsDQZRMOk5diQncFMLgEyMaOxtydEfsPmgb8b7bbAeLOaS5Z5+7PQWkx1RHrrU
-xg0mhp6XleVl3GU12OPmHhZI0jP/zmiYmSODRc+MBzZnk/RflZtP9W6wfCAUMP8iscce2xM9T9LI
-uVm1sRXYLIZ5WGEjA7EB0ALpYbRkAOXslAYI68KM9U/lxI3kbCtQHpuM40Dfc4geFO2PeGBfu1PW
-zP1QazOH7y3s4va5MbNm0a+jh1DXLY9DrmjjQmxt+N8RYAZns4plq30JMSVGrWNP83nuss/bjgCE
-70gRIyW2Hzj9WT+qeVcbZk5XLh/B7Vtaoz5z260u/bSUS2h21XSLQc21AtlnkbH3E9PrDkv2Q7Jf
-V6Y8KKky7ypeKhocavbWP9U3aNzyOeHMY8nztAOJMi2DNj3u/LMUWWRy1BUEzWOkIoGYR3osIEOB
-rWLtvQmbcW5a0UxrNU6kSZxz4KzcP4yRuv49atQkAwcdDXPlZaziQ5amiA1JnZnHsJtjUYeS4dtT
-l0x6zf1fYZ/vTKFh418oANwfloZqwm0X5DBHnuq2jaJj3OfcSzPTk3idLJvejheAa6I3Tac3rxC4
-Y+MMp9xRRUCIKGiwPF4Kk1bhKdbZyZ2hxOE2JhIKGUDnd2lxrMkfa5/pEjKfRhgAKW1VedX0IKI9
-o4n+SKbHehA1j9KxLkTKg+JTS3N3QNnYjt3kmls6lYt/aCQdJ9AXmk7MwGTkZ9yBzNWbYZh99CKR
-Z6AFs5xXV7ezj3zoKyAGqszlHn2rtmCaJDZjB3TYfPEmAOHosLMSVJlZrauXKPdVr/EVgBcWt7Aj
-afODQl97gqggSpIc+uYp8lJEuwvkVBLNbK9lu8cngDwFDO5su0jQYiFE6CVeMDcgzllvaSJzoEpm
-Dq7QRdh8MU0yW6QbKXniaF3QD8yZmJLvQAsjQR+18PPaZHMnuQjDWcwGBWpu8UqQ5hnCdxzsuvXA
-eVWfwJ+x0zBgwPqjSrffoHPInotuoX5IbSmIs4V22G+q0jOfslRkYHGdgldZ1KVM5NO0jm0IXMo6
-eu4003crlwUOGbFqGVZfl4Jy7Nr+1l2nVRuumE+FatYfvvTiGeJPb916oqX1mFfMfUE2ztP32s1n
-dxvZVimDyJdaF8yAjj9NQwOuyYajBR+GLua9aQHGbKusl2lYYHHesrlWaYh4oYS2vHTddzpQRJ0Q
-IVA8+c6UpSiLvPZCWlNmh8PiLAQzKedxWfq5h3m9QpJsV+kPMhGGPHDFUUXOldXvZkXQXahp7ZBu
-W+ZnLxFxKlHgSh2vEu6vcQOboaWfQs+dlzwhSyfe9mDUoqSL77XUdfqbSXqlHZoz/S5QS2gfdn2P
-NISpela9mZ5WoOQZO5Isehg/jDfsINN8gQzPV6m9lRk7NE6lhubBrVI6alhg6V9L2qx4tvWGI1l0
-KgMZeWuhYds9SG/bs76h+EVjxqMZfaCU9WnMunV1g1bVBKBoJ1hjClRy5OvkONgXJ86zXZ+gTzoo
-5J2MapIBIVEu+g/XXG35BDxB0zU7A4imyGC3BmOmdJu3cjy8aqlh0TNUs4F4gT4htVaNUSWv13tC
-M0q7Col50myqSHOad/jYpBUOmZWdXOl1MOKcUb1DONUvOgCQ2q53F5MdCeZmvMIN6+WmFap1gGaK
-7rUt15ehpazhFsVE7f06B3+f/lv8Wf9Jqqz+JbnNYlOBh9ESpufbRJb5XwCvqDJym7SNZLssUvAM
-V/UMNHD08gts49lrMizyKSEI8AOZrWmSiqEjP0T0YVYBLDl4kH2PgoMzzztiy5jVevtdB+JPDvBP
-js81SCV1bGEJdj3rCPh3I15ztuCX10RR0GCNL+zelFs6D/rfJMut4+rfcW6d9TS4Jp5A2wBy67rW
-l48ZsrKING9MQDPPXnlCupS5WxNlFuGLMs9FQDIuVHn23OMbonL7AVgt3dQOGeo9wA71LXWbodr8
-9Xf/Mt7+9aA808DxaTNM/5qMqBXsg+sopv3dvpfRAEm0aZv5QGhWnAZL+U/PNFN+g3YDY33o4ACG
-fz7TvGZcS4sqihHZxwfRIrB21N9G7a5pjhgQY4wSH//x75xoqnpB5qSwWEQs+MY/f8pQpM5Y1jxQ
-6KRi1MQ8bleZnMApOpPGgkwPArJstSP+Lb7+69O5qh/+8Nke4miLz7dWEcLPn+1ntQD7W5pBOk/V
-cykjc+EZh9PAY4ntoInT3MAJwV4+MHH5o7Vt4koPVedA31ERWv19VbCe3zVq0c+lPS/vDVl7H5oJ
-ST2g7cwGR1dL9NTRVDa2f330P5OYfz1xPKLCoreFtZjc6p8eBBIkCyPSUGvPGHo2DLg9FgX2ufaw
-tP/8o2zckSYtPhMNifPlYWgKkbS54ROsk0BVimS1bOEa4zvwZfs3D96fXBLku2s30SEcF5/1z98q
-Y0yNbI74slV7d4J50+zRwpeBAfX/FtUgJGCwPkFWTua5Mm31N7fEH54wnUBtnNg255db0v2SW2lo
-vt8D+DWoV2NvDynZ4O2MzTjCLkUDpRY3f30R//A209ExuZxWngKLZ+GLYAUIT05SnhWxHOXWIV+V
-qDLFp/LXn/LHb/Xzp3y5VbAK+5qEIRY0mnDZzjh1UKzVrZ74N+OINe6vP874w8uTb2WaLCGOMOny
-fA03tcm/a1IPw17P9PESObN908zIVS7dilQMDy+VbkxvuhPl0SHJdX3P69YvtzmwShRsKFKeWC/Z
-KLApAaBcThXWg6EjW/MwWzX0Lr1vjB5RBRCdjWx7/X6alu5epE70mhJWnP3N9/mzi0QbGtkTnmlP
-t77ck0mj0dBhnw1NtnZekjx9lmRr3f71Sfvjh1hr+LlY0QIOiPUvd0JBQkviIJUK5sIsXnxR00Cd
-qub/Yaxx1XxWd337+dlffGv++zoRea+bGXFI0v/ADvyf/7oaP1um2J//xg92/7Ybqo9vfVpXX3/n
-pz8BT/5fQ5YVf//Tf4QVwafzzfDZzref3VD8+nHUJetP/t/+47/mF/dz8/kf//4NmhwW9A6p5nv/
-+xkFF4ub/L+ebPyP4ltcf1G6/fiVf001TPsXHTO56wHat35c9f+capjeL0w6CIckmdl2qJR42n6j
-PIDv1x3C07mCuqtz/3MVf5tq6OIXy+dp8FEd6MIzWb3/CeXhR4Tu7xdOn5kLZRB/UZCUTEzXz2/K
-NibSIorRZWS6svZRrbnqrieZbsEB4xnPk7XQD+tHBsiXFpt/1JQsGOjFZ7ANTPoWJ92MM9M9TI0t
-iBvqa48Gg1cb/eecd8WdA6SngBHtoZJtKqHttHRw7iCGT8TXxOhE+jqryb1smvyk+YlVglqkdbWR
-RH+4IXS0AsKe9KLzBDhbfU+Hw7od5sHNQiVw7x0EKuP0yaeId3eYmITa6eC07QBvDZoKGLFLGjpo
-qQKSX/mw3PUf5zFb3a1O0+b3ftqXt0wUqFGVlsWnfiRcFjVcMd7QF4KTCxAInFmRD211CU0mtjbg
-cd3vEskE6lzdL88d5gEQiSC5vDQWPu2DaNbuSJrXcCONFl0F42TduxiXSX1CTkpiQGczobMGTvWW
-Jnbu3yUW20XC6U0QyGadgtKP1Joc0gyORa+YOc7T1NDKOyyDpYydilS+1RqiUzauSODYE/DaXYzD
-SJid5avipZ/nHsQgvhEt1GMdq4A5VCbqhUYWKAjxmoOO9uLXdFjw+OVqdd/WeZ2cD1qKqXDtwzgB
-boPlzu6tMg0rG6IR3epxrILRaOT3gUQZFbhcxilQJUPXnZ30cfeAAq+gBYMu5IKiffXoi2gYtpXv
-AN70pCzeOtJTXkiRpKtNbf6NUBvl0bNq2itpm7jLwP9xBAmiBPPAmN+/lLORaNuJv2CF2Icm/2Jo
-0ahuZsqa7yZ50N8Tn0n/xpNtBn69G+ydBE3cBkYFEuRC6aKzd7BK+KuQMNZ5mkAms5nhONOCXMNT
-SxfTfwgDi0i/BlnRXcW2cQpaW6lnj43TfASHK5ctmYdoZOJ8NvKNR9dzHXNojETcBKnS2YTUQh6K
-LkELOsWrs85ljgL+gvSlIBUL/mwaS+nN4rYqXOLM9TYVZcoHmnQiUivm9MbJaPWJuQpZWFiC2Ife
-927VMCZAElJu3DG33k0m7JDzHBcCErwIyJgysc3iIGx3tdHAiaDi1Go5BMWgYctRwMGxR9pD5x9S
-MsXsPeReVA+VtPOnnpAYcs1SryE22dak/jfbwK/FJWJV216npY4B4Ua4Xyq+qdDI1V14yOtudD70
-Cexcge0c+lbrOn+zvOrr+vnzm2z9MIfdBiMnZstfyhNVeyghsIptlAQ44vJq1QLbdrvzVivl5Ryh
-Q+udYTh4fkaIUYqpOG604vDj/f//B/6/G/izofO40v/1sriv0//1P7ufFtJff+W3Yb/9CzeDToHM
-FB1y47qj+pcAnGG/YblULkBiTJ/tIlfxt2VRN35haEdBzYLJsmpaFD//uSz6LIueuS7YPgsje+5/
-tCyyCH65m3R91aZTSlFOs9p667//rkGgM+VZ+8jO6jJEP8kMKWqOql/5Bq6josupGiZ/z3iqILd1
-TekO4VySOerQ0dnAWEg+2BS2zR5t5BCfJp8u31YQW5ohoW2LPvCkjg6ApOylvEmLtDdv4skbF9gd
-4H7OokmG+uSAJE9FBJ83kwhhSWAJjQF3nyhYQ7yIiETbbzoCf6ePbACeUxRD8zB33nxmwUr+xHco
-3jPNSAOaDFXoTWZzIHmQBqbOYIBRudPjsel7tHmixtxmjdvJZlRb94SIb/wFQe1Zb2rqjR08XAHl
-EaoTjhh86p02wVqgCCh5OeUOZyWAMKGFYDkTA1+Y7z47Q+/57xFzEiCpqlFt6LRa2u1GmkVoxkiQ
-626ZjCJphMTC6EA5CwNI16ogh+I37dqPJRsVQ9rIxNgk7BRaUMqQZuvLzDnJAYzPaMI2pH0ukxtr
-1mkDu4U9lE+VBvSkKtfcYpHaNJBxaUc5uvcVS6EtHHRoaQb/ipaJRvCPwOPMUdk3YEw0g7O2wfpm
-LSNfUK30v1+nfgQU05rvVjzBdZ5LfkQja7C6G21T7dHkaYgJxvqGUM0d046j06S4ispBBHnvRMGI
-xO0isdeewAR86BtblIe2Q2o1zKvBXZjIKohH0wJcsQhM2FYFjAg4xInsu15r4HxjXmfs0p0zhfue
-LMmxtPqb2eUeJZmaxa8lbVL0l43kqD4IwjGZOkzNg5+1H26JXe9EYsdE/GJJuRfQQyFGx6md/tyI
-CjlvzayOGFOWEQUe0Y/FbVKrzuQ85SsaPOHbNkhiz2Tuv2uc2XiHfcCIQt2v/DsgXvHbZCJ3h1Ep
-M7xo6NzqHBPbXO3a0T4wWf1IEFqgBMje8CIxsnMWgj1TuRvs5AQ987zAoRl4xGkfYTjfd4VoiDhL
-8NY739suuy1Qdp+U7n0nvWIbpba1QdSylzDCO0mQQzSLrRrEPXrqUyeib5MH9Uaz97S0N5oma/ju
-cRGKyJMQj33k8aRJBWOXnAOavNGsHHqOXsXVfqFnZu+qFRyDkVVceGjJS/qC3uU0wPx2zMcB52mh
-qQvueDaQYM48QjysIj0jqdAjj7Dys2unWJ79zPxWdg0iFBB+2a0WO0+TM1X53opNeU+NbH4vdFQX
-Jzq1MTeN6ezwtr+UlD3co1EznqHBrD+YVo/5caJHz4QfN3UFE9TKL/UJZ+ih5UDac3NJh2t6izTx
-SqlB85wAnHQKGv9xKvU0JNEa6MctEsqIXFsdznDtmrbYkZJg2YiUXfA4+R4NRbsc49qFNC4yaumg
-9Ail3FR5JJIzpXU2fDQtscifBWU0Z5cziUDWPkUP7J8iCSjmWNp6y9SowYYPQ74EGIFiqempVXWj
-AfSdkIvgt2WOOy82d6nyF/+sRwFzCZTRwz1DamGVB7mAQE4pBrIqFl7efFMTY1iSK6Z7CJQY2Qfs
-IzkXTqL7Vw36w67g4cdCqan7zm34f63cLswdORy8VWK664yye6bNAbQAXCSxrVBZg89gvlPHE9Qy
-DK8APjdZOnZkbcx+Kvc2/bxma1mNODCGXSMzCnYAxzojUwnEvlnLK3OYV8eLqcbo6ldTCtMdyv4M
-TUz5pHAdwxQfzMbYm6SU9Puu9dHk+oHbeOVOaPjJydC7oO2HwEqrCP5o2xjb0DC8jElxhc35KUqK
-60ZhIoxbMNG5ukqMHkHlggVeCXx/pTO9O9Hi3Mhh0VBbWnLLSIAMb6F/elRC+0WrKXzraNlNDj13
-IU0HHk4d70pcm2BijGvYzPdTQlppWvjOhp5Veswpda9r26dtxawtnOENIcGfLtOkHfYYToxgqGH+
-tJgBtqwB9hWuHCsAw485IbI9bBwQjOwc4/g4FNUFt260L9IEbXBuZbuSmJFzPbVhTUX+jZ4QHDtZ
-w7hNOYgjcLfnqsnMsCNf4CwtPRUashn25Eiq80XN0x6+k7Ef7PlbpuSjJDYkIOfwstMpJuUs5BkD
-WnGXi2aLMyTZsk99qBhpnvlJDWoVEsnJ5heDgd73zrEnZ+MIZrG1yyqScIvv9M77rg/eSZiYgSWH
-QkCsab4usIcACMOYgU8Npr5JygcEURrQEb565LQOEq222hd4TW6ahkAGb1nmcEmz7ZJo8G+Uiz8d
-3zSPk7pMLOO1GypqeCCkpxYDmtgkpn1JBKg6IfIaNkUDAFshQAvcFRgNOTrDAAZe/I4paXY9jJbx
-PqRV9hi7Y01rGP9XG6L2tm5ZPu1DAjsYyRnPg97EjgpH7usXiPGoixhxtDsozs4SLN5oHto6K589
-JmyMI+CKVTzKS78bVA/6F4Wc8ZJh9DkVPxKNVVwlDZusYr7Tnbh6NKe8fG7Hlq1q05Yv4L9xYzDY
-9bCCaOYNK4ecNknSy0/uoUKdYdHqj0MthkezytTH2MsZVHS1BjAD0/e5ZfX4JtEX/dpY7GrAOVJH
-ob8mNzN9Fowxl+WTXG1x7S2EatiG1PY4nbULh4oLBkXcNHervDdnHEtfkfg1/Yf2x1qFHxHNSSQW
-bdkiUIwa5zKn9/5ottOHw17uOnGmaHjQyCUiTYqRcKyFY8JAOV1a5YZzb6xZ9XhXjFWWvwYXZ0l6
-F/HiZRsxwCxkXT8i+pJdYEeluJ2g3r3N9lDsWOyA7gPObANbDeVDX1m6u+3Mub/DgF5+60enMTH4
-tbE8yAGAT9oyqWQ06ukvWFWgiqB8co8zfN3Qjcr2EnkSDPgFVcfNZLbyDawfgVlZDdSE4xznHlZG
-Jm5Gmg8nqiFRQs6cbCw/KfojZSFD2bgIsN9yd0QbgK0ggpw2gsCh8vihfalHanL2/4SOBnDM4w/l
-CQomZfs9keZFjaeKEA39rNUKDXXLyGuZQJJ0k87YmNioG1uXAf+ysUqXmLrCWN7tLnlebAjbozWc
-FWNxIAWWc7bEYkJ70Mstnczom1U1zRZX8skRy7WZUE4JT3Lw6q0TFeheaBmC5wpoGgVOyAJ2OdgL
-ek/LLHm1xwVF2z6nzNxpQDlw0bD14Jn5Qcarxarg8gjv2Hl1RylTtz8wlc66D7ewMBdndUnJmLds
-oC1Wedw/1fUP8qY34/pTHXTmmsQmrGMxQRxebzKih7QQ6tKWPNpN08Ngh2NQYb4Z/GFcoOin8GI0
-w6rBYdglYpdcb4CnyUxmj20eu/KmWkjPvss8dG5EWkIjmEzwaFB6FL8zK3BHpGENfuRW+6haw2N6
-a37IbSaHvdmW9UeWdDievSysJDqBsh7cpyEuXTpnLviH61WIxibBpEFy8I26BD2xlPJpHNXQ7GTZ
-aR95NHEy5mrl5HhRIuqdTLB8bSXdj495GB9tssIB+SvrSiLouS4cZXjvFjr75ISacXiyUJTtO/R4
-3zxbOhJ/t4mD3iK88yphrXkxYLFe4rto3cCso8uBuVjEw4w496yxBtRtQAWiOFgw9UZr7Iw3XKQ6
-klcYBXNZXMVNGvvgyUrtPMpj/YO+WB20BKQg9QEF1ngIKjt9ld6ZzLLfFN/yozEL65Xol+gWqbG3
-RRDhIEid2lNVRcOylf64nkIJ39NXl3SNwKV0ZX2ETNHtSgBnu8bjZcIY4W2wpmGPzc8+Q3DD02nq
-ztacGgSNtNpmaj+igM5g/mhXRCpaBxZzdeZjy9wZOTO8eqD8zTk9GF3IKNJTK4SkMHHUfuxuyDoe
-7ysmcu8lmPNbtro2MmAMM+ak4DQ5iQOLZAW2a6RAaHA3XoFeeqcsK8tzKE4xDDfL6u88C7MUaNpK
-R6zG09jx4r6fqd4YgSh8lhn+qLDQO8BpaQP00WKvsvV7gv0WXyMbShPlYc5rcUK5R1E6u93BR9y7
-IQR9wV44aqSLTZkE+bKUV/nklYHPmz/Ioe2yUyPx+swyO7CSvo7mFG8qkLoCL11TTncmX+eezjdq
-uKEE3Ifs1D2f85LAsCqbsK/K8h4hGtLARNE041qKA9rZR1tAERomA/hZkhKE6s3NtoigqxhYq3ad
-vhx1jvCy8pmZsuqYcCocPb/R0rI5ynjUtxXlB8lQ5D+7iFjP3ap2gco7OM/oHIYV2RN7CQSdllrJ
-bQkHoCQIoCZYBejpUYw+kBy7aeu3IcuXW9NOc9BYNtUkRccW44p5pQ3xcIbdQLv0Rq2/iOKqQKfU
-cPfbXUWwfeO/p66B/jBbzCMMFvmCSo7yJK5U2K1h0gOK3xERaUYoUo9oJnH1eu82aB0Vg9hNyeQE
-NBwOSBLexvyTzbTXbYp+6Pa21fMWUFC0ak7YoZQk0oyA9/bssQn88hDtxklxBpDPPxXAmsmc7+RZ
-iybtmOuxPGENT3e+G2GnU0UV0hXDDWcwGXcS0T7YvOJDURevrZtHYYnmFnaVyPYxBUtIVqQdTmUk
-ze2CpflArvTwRtNjDrxx1W9MKPPDrrVAAS6Rs61gSdxqKGGSracnJVDG4Rb0bHM1F9G0Q6ZlY5Ir
-/frNq1LcSN0yEa1DXmzmLBAcAYUdUCyXd8Tbm494Xb0j/sIRVbpR7bGMxmHqC4Mv0QPgaAxxn9nx
-Q19a6bmi73IhkJ8dDNzGmQX2oesBj7AV0Lju2T38oa2mAOp2ZucS9+D1AV3rhkY2rx1W2TuyWgxU
-2JYDWy0WXXxNnox9QLmnjjxTcUAEOwOPRjmnyfAIRultylPEmUmfFHt+Kzrqac5KoTfDDrn4rrZ6
-89ATi/tUw2LCYGjTNULHV0P28JsL15fyqBCZb0HJXvLrj0mEBKZEmoLCLN2XAOH3+mQ/Yw2tQ4Ir
-q1sLt/VtJ5ZHzUeryYFFByfHUsdggaY0L5Eunr4tWQJ2TnOPqwkwsIyxORYyebZ1MgY6f+qPmPje
-VTucilg3N53dGKE9EGlbKsRpywAGIO7cNwrlTxtjXTDN+Q2C6mTPUrOvMiFvZGkXW5FZ87aNG1h0
-iaddsfkwr7uZaXpjVMUFLFqf/b/lhcKl1SWK8YH99C1PGtHgTkQjYX5DGtXukYzH20KxGgsnGoJs
-zM49l6h4rCA3sVCfBvie89lT5kGK4gWU5m6Bchsko4r3RdtNhKratJRlnGxzq712jGwOXD3a2Rns
-0DTx5JVD5yrwgUyelPDO62ZS297Uu7DzHO18ZA4T5j7oIgHg5gppGEFt1XBTT/V81ZmMMxq3a3bc
-kYdSYxHR9OnFk9Vrzhxha7h69lQ1hhmyoLkPOJOLQ6fNzwljjc00O+Qikh1CVjPzH1HuHG80eMgU
-P45Ea9/0C56MpbqrjdbceXQQtylk4etuzaQrseEs2XS9NPpuNQNCuITwEFv5Kc1N0KVx+drgxn4s
-4vkqNVGMtqQDBIkxv2M5GmEElvSo4lEG7Ky7o1F7z5lNapObjpAPFvKTEENciAGa7aDPJEfSDr3U
-KzsPEtiPnSpRbdU6JUYW49uoXxhQ3Rezae6rxj3zBA5xN8vINnYh5lEyrBmax8Y2jzC/s21mcL7R
-WqANmNSuAKflUuptlI5xT4j0ybGgyhlpd1sh2kcWUWSrcMcOBtk5uHcwSZPhdpPjyWOvG+OS9wxQ
-W8OwRybD6pc2jyWukhDE8vlozzvTMxn3NHKfasuVX4OsdqfuJbbwkzazfE4T3+fF2t04k6UHjR5N
-j5NPRxV2Wc5yPlo7bDT5iyn8j9hoLnPpWwe7BPDhQLNuy/R2aKpv6cIln8XJQseIlVij6qyyFBQ2
-uMkWltBLrLO9aGV9LUWyc9xGbr1Kn9l39Dv6QmglMlXvTb++pyt+RQlH7BV+xyBXDM962z82bvWp
-SVDLzYhbfpitdtd22EQbbYLvQ06lxAFC9nZyVrXemUAkd8R91YdZS9GAkG8II7z8uyHN5JVmUxa5
-mQ1HoFzSVd3Y94GNpnaHhIifiduHKLZYxwgYrNsuHJJpAOM03+KjwI28RIDIqjPCoy8FVcMRsgkq
-am1ZOMHGM2/p1wLFYkBwxb2MeO/UvHcJk+Z0RBqR3rASiXUWlb6VcX2UotvOKnpKvPoh60jNbNN6
-Ch2VPFhpZQZ5S42NAPcGFgARSVF95gy1safaza76bAyNfDnSsDuRbnoeT/VdUiMiTszTSIM5qD2W
-d/z6RYFMvByOmUcWK0xQXLbnMCx2DVbUTZ7hycedBQKJVkOR0bYXWh7iUE5JrHQ3SbO86yjSkNoe
-rRn5HVPi0KKJW/1v9s5kOW4s27K/klZzyC5wAVxgUINyh7ekO529qAmMoij0fY9/qq+oH6sFRsRL
-heKl0mL8MgdplkqRLu+Ac/fZe+3CutCL6OzwbSInWM7NYGqEj7OdnnNuM6yZWIlTr/3a/+5zuVv7
-qXOgTU5jRsp0CH8zYETLJyLSgXs+akF0NRfq+8ABfz2HMX2E+E+qvM5OJPD3pal5BtkePC4HAy6U
-hZYTlrGXJ/Wh7K0raRIVso3s+1zUR2JAFzAGZzZ6X5JGWqfA9cMtiiuXiaWJTmeqIgeAchWoXa/k
-Ge2q2eh59qXNp32XvU/sgZ1s3Ff9/ALU5UsGl05a49U8yi0/5xzqsr+XbIrJ9aSPuXKvCRet3Wk+
-DX73EuLD7aFB1Ga5Z59HEIaI1FIvSSTQic6lY59IXIfnIA3vQYn0RGfi6y5u7xeGLDiJQM8fAlUb
-+7wBM6gZ0xNVe1/tyrW90CBrMdADfd8N0kXorZriEH+c5KYP3rn5wT7nWAsHPaGL79ukLOjoETS3
-25ggqb2FAgdAPf6AqRdVjeo3CNt4cdxwWTRMwfh14I/hrxOxCu7wGCxcdj93duqD1l7ZTYK12NHT
-fe32qF4fUHfBaRh4V8r2dJ1/gN/NDwh81FJzHGnRngSfTyddmDxxyXSMh/6DHm+PC0k+WqDyJFtZ
-2zdNpj9XsMsxSTCYLxj6KKbItw3ZaZPDhCJA59Fj9sGrJ37BgY5rMV/8xjGPVfzBts97ADye8wG9
-p+CFgALAyPB+1DlUBQjJ47rMFmw+f9l8M/tAI079QdcX7kLa19ghHIbBrg8JsYXFnwaYP4szJQ//
-2Yb+7BFyWTb+ahm6ff/2Xr+m//jv/EW//ewfW1H1iZMum09lYWEF4sm2/PetqIlZyPlw5whjCTTL
-H7ei1ifsm+xQpYnTGrMR9tP/2opC2uLIZLmkpy0Mnq75d7ai5l8ceXx7HPBaJqtX3MO2+dOK3Zzq
-2WkygHBjreMqp4dqMN7G3ojDqwFlofpGByvyr56pHUrHte8wHRfGFv7PVRZQopRYRDXVcqZLX2o1
-bAXVfSJwrrJq3OZFcTfH7XWdR5shap/npHqrR8YEzYFTlJTvjRNzRwo5S2a3+NmJ3wT5mqWDhxlw
-iyYCh7AZtqCQ0f6HF/Ynu8kPn6K52g29Q9cMGLqgT9adJNXZuZeORuoQ6kvNlNoPpE+ALRGy067t
-sYbhG6FV0+9oR+LdSvx7bFL73JmMpQVnRyL6ZcAswVn7aOAwk515D8fg3FJ8CvJ916hoDwZzz27t
-1KXjQTcarkb+UVUpDdY2dl9ZvoRmThDTgvsbGDAAi+30PpSn1n4wuPvoNEqU3VPaKrBi+D0k7Ne8
-inHFVxSloNe42T6L+TPXpGSXG6gN4tiausdchFdY/jlm4goy2QRpIOC7fm2GXyiyASB2LOIEmmPF
-YqzZJpy+mDjWIuq2OZJAMHyfpseZQLlL5BlJ/EDph1c3BgTv6ahoSCGjcTAdCuosGPPzq7OQqjhB
-dH1xMCvG9fhzk7NOLOcDpEK8Lyx/9eOyIxfBXUmYuh6eg2jcRlaxq3k7FUI1I1KgYJmwl5v89dhz
-KErXtkSPE17Gc+1UwIyzgJFA7Rv1HmjNOq9e6uFYjwNk95tu+hZYxlqw5QqfwvZ+Sr5rTbstVL1V
-8kvYjEwARy29M0L8uO5+1ppdYvtHu3W2o0b1Cl4FiiBdYmLjvQG93RHxC/2kOz9J95mtrke/gtpu
-UkLiE+W3wi3C/Q0B5z3osoNS9nMSlpdgtu6maNhHA4lxlP/I5R1syUAHlkepyrnxQ8SCdqdLa8fC
-nkJZuM8sHA58ow5p1NMHax+ctN41U322zX7Xuem2TPwdJi7IGYR2m6zljaMQswtPETF35E0+pMK5
-Qu3Y8AI84mY9JgVy6Gxj8Am4C0xsO7gt0vwhv0VOvA2twFj1c83idlyQ3fvKFTuwIERhmFIgochd
-Ovo3Kfq54TecZ/111iME0Mv0uYqMExP13tep/oGvvg/TLNwZoBtAdYQeS70nIGyfg6F7ljgHvTYl
-PcQV4K4OM5gBpYtCwRQnsETEPt++6HmqDHUY3e6gd3BOQ4o/2sbeTHb2ahDn27Q1FHTEN7lipch5
-ObXuEUjfCotNcRrdc9GhdUUbnpA1Uc5NFRNdZUvfWesqMH317KIszSjXicMpxqmMloSN6dAOPg97
-ByzXDljPGx0KzYZdRUlk3k0PnOT6dRbZbyWgVlLofXzOKudbPicP44ArnnJRGtfQHGnWiw9kQ6Fa
-pmbOUSrOWG330dYf2v4uLueHrOAJdUl1NU41xc31zH08fOLKs60Dg0JbuQ/sxLPcz9K6LZ6SOvVS
-lrHtQjxgPaMMsu6gs1gTLevKFstFAkM/4MzKE8SDeTGGftuQesVbp39P+jbGpCgPfUS7jvIbD6Tc
-mpdhD2yBhKN2GgxrE2no1xJzYZFrNCa797Wm08kFq4AY0ZUFHbTWB1ZV0Wh4eti8KKM4JfZwilqL
-YVLbTeC0inz+7sK8W2txTz6nQhW11LbN5295U1C84R5cGKhdn1/sKGAxlub3bCv39iAPpLweNMff
-IXM8p627HQLOmOQWAfHsdU6ArZ2cG9Wdgr6u15kGGtiZin3YmQyw5Z5YnrNydeeNHs5rPcgWAeZr
-Gum3xCtOAX7NMXYPJkr+Kp9fLJbrGzeVNj214Y1WSCxopXQ3WYLGb0FC0FktCfeU19ZM82OqMaVm
-J2suTe8/E9DPExDppl/bpC+v9ev/+79fX390hP3+Q38YpU24n5AABA4Lg8nHwF/2++yDUZpJAyK3
-Q6+d+o0W+ocjjPGGhgU81BIbs7KVxUDyx+zjME0RVMe2ZHxYqDGZ/Q2jtHT+Yi80TKr4MHETfnWV
-aS3O+x8MYQkqdJSnXCUR0uqnkg/slxp04IPZDbAO3KTV2gMXQ/+pKIX9LUCVeciMWEUrWfrtVVCO
-xfelkvI4ly2FtSJW3B9NUycgJFSD6YeMIXucqZwVLTHSTdN1zyccNEeXXDhcdaYXQqkb2d/V0dcx
-L4KFEkd/Pee9ugg3rQ/KzBOTX70AnwxeGtDl7rpXqZEBMhhj3GGSwmivIa89eL5M0vNQgCBkoImw
-TmHhaFKvjPGYcS5plhq5mGXssR9V/giAvIMbZjtg6weqKB5JiMfNiji3JVi+dOJOojPqq9Qs8wW1
-MofnSbfdxFNjZHwRuLyrPSNlzqLb1NLLlEZDzU3Uz+3NbIzGvgIRgygNYAB7SV53Od3K7MYoCXeQ
-28zReHOdzH3W2NyAUCvhHdKikXQrPM503oAlM++ZrM15V2WC8twGtB4FDmzASBsniX2w9W6+GMhu
-L9hSypoAb2WfgH1Hr25lDNVKcsiHdNnzzhzLpiDcO5By9yoFh3ll120zQBlPCExLlSXaumsc9LVA
-5rxusVtmZ9HmyvbcwE+9MZ/FpvCXYHyT2iaqWYd52ZccDlHk3HReo8wQ+7J1gsZrf8ZFDgA/0suV
-Zub6Q2FGFMQqGdR0TzDT3mL3Y9rCNWFwOYd+6TyVRRBAPQ+M4jtdAlW4j7mKU5aWC/uzqVttdzCI
-qb8krAy4c9aReyBZjILUz5P/bGslY3iv6dQUo5dgWYLUHSrgy1MTe05gQInsUz8Z1n5uUV5UYHLT
-11Ez+s8TdBNOoTFdgmsrLbVH1Tb0lNas8tbEQjTi982Ie6nGK8QuitUGt+dWB7kwJZrJOIP/KJ/G
-SNvUYpk7ixm65TpWKrnDuoDXHYK5DWmucDRQMxQzWCw646g+0CSME4A6qTRbDsnDFS6HENRtOaqv
-SazN4c6UMyF1G92MoqQgrWjqSJdOCnhB2bOeFsMzMpC8UJyKt9BuMTpwmm7aU2xF/mfl5NN3iopp
-DYvrLFMb18cugEoYC3sdG9RWrtmMNI+8SUtdbMnZBMDjhH0IVFpabhf40Re24TV/jC3/MZ2xo5NR
-T1Lkk6yvvEV2e9ekYxjbHvTqxae8nf8dkEZyow7biZ36zMlC040LTsWFL6e76iKzCEwtX1x2na6g
-s9aVNR3iQDBAJvV+51gbHPfkmq3OpeiKBVvQerj7p6PWJAlxcdCM0FDquDNWoZY77Qqjh37B2A6r
-PA/HN5mRr/cCu9Xe2AeHzxjvn8Ro4yhJgghRT0MxuzOaerjVazEXq9GgG26XpBnoCEvXKA8jWDsz
-M7jEq7y5NqxiY6RD2K6i3J1aryalfDu6vfrO+iQO8ILk6mveJ1VB6nVhg3Zm4DNKyozcLbYbZ16x
-pwkinlCWsWLvRXsFBBAWls/ZjEbHgV3ExrCz9ISPLK2IRQzRF3LWybTO4rxAHMGK7kWMHMSfYtLT
-ns5y6thz8Ry90cyTS015t4V7gFVEYI7u0lE+NDhYkX0ALthUq+1dxlzhR+kLdYH6OZwGwRRbSigi
-acFbSE1aV1GLA3zgkida3/C2wNVZiYJvRI62BOZlrEjATOz606sGr/qtrZnyO4xJXCTo0xNqUZ/Z
-jC0+0P9CjDQvD0Im74Y5Jd805pWI6k3Z8oHWDbaCFuj7JzUFkWK2NEq6UN1+RKTvY2nuuJsS2DRl
-wGJulIZ5aDhbEPom4dhSDNCo6qipyr+SadPHazNOagyv1DvSzgr7H1tZyPZjPSayIulTXfngG6xT
-FyhXbIJeA1cwyGpB8jmFyWkOhXpaAciYHnDeqeoAM7c7U4idQmNA6njGLckihiCflR9D0gAcehPf
-2sIUJdgsK52ycfYNGi+ZT5N4FbTdOnRL472iz/PMfcXmTdBAo+BSLoe9JXycifCelzqGyKaKXqZW
-dm81QhEN02gxiZvBf4Q4w5aF6BFVKLz0FBK1ABQbEh9oqnx8nHrbl4JFAionyYw69rk7URxubPo0
-rjIgVo5xO8xteWeN45h5qaqGh5ZL6JMxS4i/Yay3LzWlSseqG2ndsUeQ2l469cWj27OHXdW6z9CZ
-JDU+wba09VOQ5GG4YVscvSpz9h/LdILOMLM3eJNVSn+OG4fmPX44Xreo6ftXwA3at0oN0Iv+/vT5
-PyGnx3z4Kwnu/7zV7z/Onh9//ffJ07Y/2bpLn7LSdXPJG5DV/X3yVPITkQJhmDAiyeMBNPhnFoEe
-Zl2KfwpriyL3x+Sp6590E3S8K5lNfxtm/8bkqT7Swj8EW6TFzElSH+VtidEbzk+qWzAqoHJDILwm
-7qv0VUzwe0mH5ZbH3pEkU2J1E02+ZOK8sjSxHCPqnoD6JkeiBO0lcZPqs4+p46acnXFFJap2z+qA
-NFSRctobXfY23jxyql3PJMG2AS0f+wr5f5VLrb213JENKOwLc6erHvc1Rc1hS5ipwFr9XM5T+dnF
-Qpl7qay4Y+rUd61UCtnBmWzrfQxNKp6hYWCmH/UQCaxNdjOYxEuqpjnGwtvYJ1Pn5FtyxVDrwuJi
-Slwy2S5R9HU9UxhspN20rEqZkRAHjgWG0fZaJL1xPcRdDVV7CoHRx8mxBTD53YI2G63pqnVv4sRK
-dk26bMYNDOPXMc2ah5QLz8HSh0fimYK6Gpn5z0ZJwLCmR+MIcZECnqB+iNo4QnKqQJ6jK+gmeHz2
-X9FlZhd+LCc9vKsSGIxhk2xKWQfnsufGYeIhfsYuk+9HbrYHyuIkFD4hg6fGyv1oTamA9BR33F07
-JuKBlD/wvcR1noa4L9l3E/AwgX7sDYOxaSw0aps57vsblfeBs7JGdoZ5V7Cp1sbW4JoXTqfSzueN
-Ao24ZiaZKbgIOOVaSXyoQv0OE8nRivPn1tUhR8UXLFZczNVAUDwpO7bcrU5uk1oNdq8ONgE93k0E
-TtZRkBb0AFM4t+WtpH1eyPQYkGi/mjMBMYumj5Vr4N83qll4+DWw6rE1Acqi1R6RErm1R/CMtSqM
-A0Hn/OvsGB1NvZUl1nLBv9mQEjDBjBKlr5L+TV6ad3oeUX1mMmhkKBxBY67noKzuJvzitBuJ8U6j
-PHA/KErV5MjzTTjhnFXk9Bt0K/uWRyjutM4YvaTRg60EPLXJWnCAMbE5UAx94fV8uNrbbLQGbFp4
-1oCfL5seOlBSFqeazJLp6HcLDDb7jQzbD4MbWeegMXx7BnaZW8iulQobjm6hm0hzm1QB/sdVbOhh
-r3nmXIWFfip1TQPsNi74YryLYU4NWIs6CJA7ovO7GxP9QrMQHaBk8TzZJIVXsjjGSDhRLNi4/CJA
-Mds6a6KrgBvNNzucq0cfw7cnkmk61O4Ufaa+BVFwYCdw6bGdsr3kxQqrPiA+E4asdGmuvkubuNwS
-GZCwKidfwo0e7Gs4ugkxU73SXman7K6CZQ1pjzK7pKPBxtfSk5fUVy6SuF9+zY3SpRHXV6e5amax
-bJGTHUvY8A7Ob8WxsEyYWKoKVk8/mNkVFh6XSRdqN/Snsa9oAOpoWuPRC/BunX3Gt8eqauiqfWPX
-Lk+/nLfkM+j6St1c81IAyhsKiDHe9ZO9BxTYXjhhSwqk3Qfp1NW1gU0Dd1tIkA+8TVe9WCJN7siF
-tWu1OIvo4jW+WSqanqYEKvpKC5vq2pT67ZzLcJPhvd4QnzTuseiS/W1mda1g3W2iKJYXSjHlsyrm
-nB5Vkcn9YOTWcNSJ4bDukCWvI6WB5vfQ0I2HulTBDaogM3AT59HziKR+CQeXVjCz1dW9MGmuhyJW
-c+EKSuspD4tdUVfl6CkjzHbwvWNP1yQGLCwT7q5UywQ8Y/TBJWRR3sRpzIZwJbTmTHFByBUzxfbb
-Zqx45wI7Kv3kdBtM2mLEBQSWeIAQ5puqh3DgmRXerMiAdobBjDE5ACVyHFnMs6AtIrEPl+Nnk6cL
-w5UWjAfkXvc1y6Pe3xqWbBmBJ+s+5ri212chLgDz03sONvJIFbX5SoORfpvBvziNTUqLHv1HFIw2
-zKzIBYSjBf8c8lFlf4HqaGxsSOenRG+0z9gHaI6LRk2dB4lxw5TIk1yL0OcaUt1bNcFWHXU8CMIZ
-rStmOv+tqOx6R7+5qDz+qfZqIRBmsWc2pcSxV3aemWJXx/rdrxpDfRXo+jso/CM4dBgY/JU+6jya
-TyTOHUDnho0rzVQsrmPNGjyCqe2bPXQ0UXG3XI2VdM45JsWB6k4XQwz1Dsc+tYZb5XKkBmMKZjv0
-kVMKX+orMyA+rrlYicASBh3Whqg7tEaiXVrdift1bcjyXYBh2IP6nl58wa6/Qj0l2TQEzinJLSIS
-Uz5sl7IEaswzBxh86rftI03RNGZbjukcBtxOz37H3dFq9UV/1pS1m7DO3S3O+EuP12TX6WGycTS7
-PnPpKa+I4cDuRNLhjJYj3ZIMiWf1xrFMtw/ADJ3XUCHpcI4W58FWvKpkyekacWlk9FqtMV+7Qna7
-LCUGgwU5OI9xqJ2g0NckfJBJcNLmFPOy3Hoy+VLvwpCb2joOlP8CDdPfZdl8Yjud7alsX8tBX2Md
-5FhjZA34zZ49tjBuXLaBHhy9FxLTzTHRTflExVVSoK87+rMuEDU4a8efxViKr3QVGhsSgt0jV73q
-nES+c6CMGFmnQi+j1LFc6yp71O34XBF78JrRta5KSySnrCaE1ERyT8TsPkJJ81ob2/6WwvNjRv2g
-z9Hi1E1G641G127NwIQ+0PF6osP7zZUIbUiNqqp2yspTAlOjOBGvIiNfsYKv4JMc+A6LFSdUpBhR
-28eIQBh276h6hrhDHZuwzE1u69M1GZ7i2AunWUu99XdjQw9WJDR/S++4dU+DpLvhNuXiGJPzZUj0
-6aaMXc7lQ1meXbKQ93o85zvLTZsdi37CNNiLPJx0ybaL6WXjyNvfIF2CSnHYHeg2heWaqjHUhdRz
-6vIhklTTMx6QGQzR2cITDadHNnibKJm32FS8fnD2eesuScZVX38p5Ts6kX1T9gAdV5gvRwrlUFMI
-eNjdAiSW/q0ukuC5ycWOKGLjDbrxjjBBYMvMh7Nvj4w7+twvhAKYfWLQrk3fTPRTxgdv9OrKwKmV
-pe94yNz3RZ0ExtKSs88FHGoV1OLcYuai/MGg2DdRhBXLhu9lV9UPaYNUjyEzZHswhzZ2N98PX/ue
-xSPmSfp7Kr6JXjdRGaD74hnR0/dMjGEranKX2vIY0HU8hhqjKo2V5azrGI1G7asosCpWkvit36TD
-Rs8iseUSkCIYjcYFYjCkSkQL3Oo4DuMp+dyIrN1otGasStOPjgyowxeyiP22pqQDsc+2NkEEEqVF
-Gt7TXjKf86C3iUlNgadTNbPRCFp6YW51nkaHA2Nc1LinOpkxhYmsuHXoKKZ6Lk5oN3Gjo6kFDcU0
-hnuHcDftaj6uB3tcVFyz81i4jEfSxZLVeGIjCHT2zp4kPnUzrfkrsO36mNq1bqRjPFrisFZB3rci
-k3tVFfpnrbcfUhU8a8FEnHBxRGplYlB9qV3JbrBXuj3d+pKdYsVVZTXWM1jGsMZWr+nTXVORaXNb
-kG9RxHpp6Itkm2nl0zzkvpdy1l/lueI9i5Eg2He+S2qiNk1VRV5kDieNqp1yCeCR7B7wAmK1dVnt
-Lsx17H4UKVuzfea7ckYsP8iIaI8DHXBNKWpOMIK7Wm1FX2NI/oSNG2Mbk/HhGlhhHCwFVazZexll
-j8Bybya9KvZQDil7yth7xoWiX4MW35Wfg8HUs55FIxQ0Ug5H/HCcVeKiexFAK947vcO85jaajsMT
-ny2eZHymMbUXbs5NIavNLy00XgKJQbaVWq6oY6hosKV47g43NdvYRtQbK24fEL6is8zGalsVJtor
-iUnMnh3/39CtG5zy0exbq77VP1MlPKxcyu25KOePc90fauKP+KQND4YIvnC0Wg/PXkhxNShXt4Ph
-TGnS2lG8bjA0r1pca3cpNrhtZbV4vrW4PlChmB+nNnQPkctpq+SusmulMa3wMJvHOUxBRLYgpIZ8
-XMDems7HnbZlAwvnPanU+qClkFLDeMCC7zCHh93FydRTEbN6BhuWgFbxVw7rBHjNU4OvMeG+qdL+
-oZt3zuIKLFnXXZUK76KUWrYq7UvclD0byXrcB+28brvoYJvXQ53N/C4HnwjVaU6wEt0ZMnB15K7b
-7/N6TO9djM4HiFjiQJ40ACMz6g23eQY7uGmO8R8701+QR8A6FnLGv4Y73EXFP769/+P4mr9H9Z8b
-HX770T/sTOITnQzYhAC9sX1ZvEd/CCuUPTgObDYBt5SoBAu1fworhmDdB92ID7WJ0ciy2AT+IawY
-8pNET8EiJQ2XAYCf+xvCyrKw+0FW4WCEV8qxXX3ZHxofu8MfF3pTV/Yx54Vq7SYN9ekhtHeHY97f
-Q6AAGDFsYpXsIIGzWebPVBL6/gyCvOa81iTHYrg14SrTSbHTmjL/tmv+l9DNn58QD6UYznleunIU
-WvefN5SpQ6GV0QeslboqvCqY0Lbpsvn+4d2+/PYC/SPvsksR5W3zv//X8lt+fNmWR0EJQBRzQO7w
-nz8/iqkT41ENl742CKebGpzBse5T/P2Tkd3EZZY9IpPr/waox5v+84O6bIHZEQsLn5uNx+3H96qY
-allzx0e21kA39Xpdr3qzzW71Vkt/+5L/y1dxKSH5y2O5jm4AdBRwO5ed8o+PVc42qhMLMUIhfe7C
-cUobwjGLYR6DleNc+4qVBnN48zl3Mg6EjtUMpylT5WJMTxpCOHPMUTqe/CcuuW2BdwryNfove1Wv
-ymzjdmpCPd90jUKBp9SYFFTJcefu1++TvsB1/vxGUbBh2vqiG9Lbs0ikPz4Ps9DivFUKPtOA6r7q
-9XmyP8OFkKAngiS4052e7oWwsaq7hMnUpBaVfdvOtsBqbU0qf17rBGc0uOzA8aqJRMfc+ksdcCnt
-+t98qJbX9Od/K/9EC4aLzWfX+un91To2rUIvR44QFNVz88X2N+TZSyMji8YfJtDjVFLnwAF13Pz6
-dfrrR4u6GSEAdy7fUbCof36ZtKrShkkfUKta50s196R09U7cJAV257/9SIYwLNRLXJ7Cdn56kkFj
-ZW3kGvOarZ5N8EBIn3r5mMPrbE7vv36sv14LsJDSl6psbAs2WJw/P6tAiTErEGcJQkzw20g6C2pH
-j79+kJ+RS1zcADOa0oBoCKxH2Mu/4gdPBCQsYs8z9kJs/7RbEI1dxRmiJeaH7AhbrNio1E83BkGh
-E2p5+m5lk/5vrnofSMOfPju/Eey4+nHf+BlnO83kgIqq7detU+J2zGbhX8Gy6rYzS9ht5tOxkvmB
-TcplkAT16Yw2E8EieEB+/CJDB2gFFvB95eTZVVgEAL5buAbXrZ6z3Pn1C/bfvCvLNZMtA3UGGHmX
-S88Pr1dmhag7KRmnglse8SBkbjbOcv/3H0UJqEWgM11gdMsn/odHCYbeyENq+dY0bbSkaWJ9bVGU
-829e979eXkzu3xxh4Y5aqGc/PZdkkpzIlmaZaFhAFmaje5HGcmsAXuxl3ehvf/2swMTy7/7zG71M
-cstKhcMrk8VP3x8xuioxR5JcSVUG2Vq6cHjgqlbNE302RbSJ9cawKcdIl8Ax0JSHsEsRKE1LcvlL
-Otd5liE5lw0phfCr3cShCzWmEi+zRkMCyts4Dpzb4+6JK4F2145u/WyAXuIHqqbb0w9kvhOLThet
-JHezLR6UlPXvpCOKKPCu7C1M1RSe74r0gsgbWeSimvJFKyaHGFjfNw/cHscQBaUQz1WfDiSDnT66
-10Tq3OUF9po1bdzdIfMH5LOu8Kc7JFGn5KDc2Q8jMeR2HaUhK3+K4jWDdHhr4mYMTLYEfd+Wuz6j
-mG5NmtrtSEbn/YuRC7hx8QRohmob7jZRogiyVpXBRzukDtBds30qP2NxaXBvojezI4bE4jV2a8a7
-Ycjnk8QfSCZJ8teqgfILkvTZYK4MfwyuOkoDNJTYueme3WkSFcKqFr/YBOHJWVXW+OSmOFO9PAJO
-kU5K/06hnB94LmCkxqtbd34iuj9kmFNSK/AmO5/qI1qmuNc1PDGbmTQRuFnmCYMG04HgWj6gcK8E
-cJDbhEKHmVcw6L7V5EB6NlkZdIVu7inhC2P86W5Yti/oQ+zCE0frqC2xAQNua9mFxXVAbZ3JpbgV
-GDnpeCo67FhZGj0WfgVNMERQjNddm1cUwXD1IyWB3MpKzMKgE+N5LtZC5voR56NAtqVF6NACs7CJ
-MtXTyTUHQaqsVeTbo8qaBGc7sPCbvpbTW6gU1BdkOtpDFsBP7DXJgFejH6l+WQ9FmN/y9Vb1WZ8o
-ZGahnlCS4PU2TMdXYEV2fonxIpgsj2FSWZhxzGo4EOEe7aukrXzj2q6r8drvem1AZuSOurJ7MOwr
-P1swSBFVtb03RRAS4ItA68SFFOVwCmc/frTE3NCfGBXK9UBbFA1fixgQgRtb4VduXzoKr4A/wgcO
-pvIW0bjsNgSC8ED7Nt+1HnvVKx3Q9VdWW8OEPzTkKzmEg3rqGuLx1x3FlV+b0SIS3sAFtTkO3sNW
-xA0S4uD6xqRMO41fw7nYsFJxMILNkGnIjs4Fl7NgrjGMOqPCEN+Ja/a6Bn/sBgILFqWWK9UADdpq
-ApjESvnYOle0z9suJRB8MVi0VSlKyWS5lzKPZbuZ51DauzxonM3c1szNDtmlxoyLz85cTt8MIjF8
-cuppes0qM2aFRgpJW9M76qarmfXKU4r/9LkyKrol8CdG2aaPwBSvAyNDoB5Hqz6OYojEOZ8ayTJW
-9NNy0ScwGU5Qir0O+erWjN0p2TKWxbdNYVRWvg7Hqrpe3jEyAVEgtPNkpUkEd27IEMNcyTk+GCbS
-oRb8DHwNvpvdlAX9V2uudLSG5blQfIBTMQarGBfFq0Zs8zGjKLdbsWSw27VR6SGQVqs1XdzOeXEz
-8p2gLEi23aYoaeM6B8x76dqNVAk4yTY1+CmUd+1McLxvaMEVqgRrpaVdrekudZ4RQVQIxTdVsmh6
-QEsysXdyUw1r2njd8UJ5cfRkxw7uplFZc3jEV17uOYZgQcvGQe+8OKzHm1g6XN7stpVAi6C/jxCm
-R3Xv1NSIXrVBjarRGibGtrg2Kt/jXTKbjTt39pVZdRwP9Fz0D1mnWNANH9Vi6qNmzFwax6aP8rFB
-o4eMHih0L/ejniyLBjybH6VlzVgS2GhpMjNk2xRrKLbd/WROpUDco/UM5ZFXqfsoQ8Nql30Ned5v
-4qMsTYZN8VY5S4VayRlsG38UqwnHTr+Y05iVmzBkCUiQBfMx0I2EG6dLFGXxMi1VbXrUTngiPyrc
-YjUE507BjdnoZazA5MX6W6R3frm1Qx8j4VTXGEo6cgtE1asFGRYkmnPBEqiRVVya5KoeYCiQlZ6G
-YpPBk+WxuRTPYSnCi5YtdXT8evtMcFN/mfxx4Eb2UV3363v2X+cderYw5xKR4nauL8DGHycRYxJN
-OhvtQgWIgmNcaPPBH9vx38zVfz08OLiJcXAYMD0tzvJ/fhRUL6iDvIEwKcA8C9G4BCsN0MCOpdEz
-Zw34CccGG7zWzL899H9wnz/gPlGEDEbIXytCu/o1RxX6Vvzjvkt/9Nr8/tN/iELuJwQXEx+1MJQ0
-5TKb/kH+VJ84GLnLCI9WhGryoyikPvFN4ec4jtPATJ3EP0UhKT8pBkKOOIqkjsmZ5++IQh+y1I9T
-JqITv0Ti8EafAiT78/Gf/zMhD59Um1baF/bzJai3gX3rgo5MjfTCYg5iHt1PZkOjjh0xBfKNdMAU
-smxzMkGku9Wjqb43XPQBbr0SdXourKB+7Zpaqy+z34ikYUR2LTvcsO+lDJtEv3DNAyXeBPqdRgxM
-YlZvDdFJqMi0UrawWDthT6d1j5VNYTzUvuVZrPlc9I0q5LLUs5/yvwx5Di0lWJxqV6AhdOrESkn3
-bpWLRRPl4M9/5yjxJ8vRnLM5FNQ8qDzQrkafTch2jCu/95ra5TdGbltfO3EXgWuS4XRJMzl8nzP8
-CWsSPtFzUhQwjGdHBy6k0WvnrDGEimMtZOtjwmA5ztKWJFICgOVNaGNYbbOYXpgVBnD3ntuO/eTT
-e/UU+W1xP2VBQSKevjZGGaaSFW7g+D629epGodKdeNU5/8fi/7N3HsuNM1uXfSJ0JHxiSoJOJEVR
-XpogVFIJ3iORAJ6+F+v2H20GHdHznn1Vt65EAySO2Xvt0TwoRPPR1m666hNBY/0SEf5orEs37f7Y
-C03+qq665HcgIQhMzVKMrIzHnt1tkooO4EwVDUSNo/U7LlGRfhGfTfCF4YvopyU17YrWpfFuqA1D
-bYYpJiqindLmQcadla9bXECkZBC1cMolxCE2GfX8mrm36MYiYMy+NsiD9pH0W3lyNNKGmMg8s+x7
-5Ejjazf6CLAq2hQrjHhrT9lQY0JzJ2G9NWYO8mOqE7yVhUeCCcuYE6FsLqDMaVLH2ZsHB8wZ0W1r
-vxu6J4zFkEKIxMsu6eDExIvRgVROpDZKtN0bpWMKNwn9UZx4xZsLiOScYqP2VvY8RiXlATiZlTGo
-GIAVS4IS1l1RnHJ4WGpVWjkqg8Er42KdJjYMu66Uj3UdsVnrVCIeqnRerhXAlHjT6olpPKwH8ZPL
-zqTOUDXB5awwbhxcrj0aNdlF1MWle57jwoPdVpsRDVGrKaCwGREqAaggnlzzPSMLlYUUP0GvCnQy
-PvmXboOdyC6I7Kpn58nT/nzxnXI+9UEGzgwpe/mUDgGkIaQRqU/MpQ+zSJQm+h5gOn27IuFy+Vsn
-kw39MRfGp/KH8S3O8VBTMKr8uSKY7KmG90QNgzHw7DR5Tc2pDYu4uASVP00GKjJWpmW/NTu/pQhN
-2RatMN8Xjx56sz8W2oc5zHrTvyxmvLDox/m+GtVUPRfCs6+6Gy0Tznph3buZjwN+iSriP8l6As+S
-Wlb8R0Ls/XZiy0EZJADHo65LnHBoRY00otVY+q3Gi5DDWPNLiSziuTdREa+6SZXvbWYATDO6Ln8j
-BWQq1vAd5y+c9QN5h0y/vkes4tUN5skPllHr3jGeoGJTJsApantPfJStFb8HEEiWDblR5r1a3BoG
-GvFEa6T9HU2IhLuKnw/eahjzbu7wZcAxGnxRMCIkVXXVJ4o+t5s8OICJaSyaNWGq/wB6YPUPiYiq
-HXwcxgZY//DGha+bE5+jRMKdBu+laQ8cXLjcps2AW+bVi7X1jBQJL5sxZc19WVRVSXgbGMGVobJ2
-2nQ5H84aJxn3b8M/ebQ9Ab+sQcz+gDkWhkpQdB7ah7IroxVoqyzndRj+71R09bSjoAjSsDAbPa5R
-KaY38NW43HJ7ZbPDTNBa7OkXILxLahIGks30UitlZ6AjiD3G7Zu5aNzw0sPXcpose++aPH0Oojx4
-INuevR0r6QWx86gB6wCasQSCFAch/Zx41Rcs0OZDWAmqlaFmsLwCRBj98ZK4meEvIGVHUcead5Wo
-4YZz9krCa0RPkEwm2iLdOGMisCKRsmazpJb+hSxDBaXXUcuhr/sYKIVCahDKJbFOPdllL3HeQTSW
-nZcegSuQjSg7RkMrEz7br2ZPckrbciDwr0OGGabSstFGWuk0IjphXYprdDbe3cDS9w0TRTOU6WI+
-2xPi8nWLQpL+3I2R9Omc1FHCkqvgOqBGYr6d5km0iSKTGIRZWMaLTu3lBRWpMtcWG9WGFa2lvpys
-t9s1wNi5Wy9wCwlhTG/ZzD2t3APAyGaVNQOSxXJaiNCxkVzsK9E/l3ndcUfZ7WqsDGSfPgt7YBSO
-PyzE1SEu2Zi6WcAtM1RYVyNbzq2oLSfeg0ULrgY67WEdwEOyjjbpd6/mMioQZaQnEJfqaZC4VnaD
-yHB3B5ehAnoYxoMhegKXkdUc8OrU9RX/gduskVpCUGUX8OW2MHMZt3PAbJqqpUPnce6Ba4AOh78Z
-jMbXaGtDb7TqzGzLwx5GiTvxOFuz2CYo0c3pTsImJYth1QKk+1yg8RQXnkVmRvKeYWJRrQeHAaKc
-OYU0Jqb0rqCfL896TOUD1DJGcDYzlZh/OGVEty63pFK1oGdFGWGXP8Rrm/12TkiqDmd0uRZIFQIc
-QtplFJwO8Jkk9FXv6OesWGgmSww/5sqHUPaYIlSH+ENshUGCJ87M1Zx35d+impoR4WgVPNYkAhK6
-t8zl2fLs4R3DC4qYuUbpyxK6AXOHaJhQZdnQU6dOhE5VoRVDT1Fb92ZkNuQVxDNJC6YOkDoXJPL+
-1ARevnQuD7vGvQWM9LiZEBTR6n1xDTS/MhrTdIW2xHlcFF0rL9Bl6TJQT3z2w0DnNbZjhRt97OTF
-bDAj7CLyTD5jQ4szlecojtIq7B/tmjbSEOMm02+LLD5Ejk0qoQCHc5m59Ey8ToyPVjOYcL7MpOSm
-86dMXJO5dGiVHcEXOArhPlPswT9icsfhmd96EoMgipfWyocUv4dSTxYO7XRdMV+7N5WNQAOT+3gd
-iAgr1qYs1KlvUoBvdWQWyFw1bWMheqJSiFaPspDkzeRNpm2HtrVXfnzV49D+YJzUT1bVjw2JnqNF
-fVrl8gpKFVuN47fxpS1KFOMjn/8bUPXxguQ46dZMLMHCG0bdP7TFHH3nDdEf8NUnI147k+TZ1w8x
-cUIJz2+s3Mj9NpFVxDxgM78vkB/zjIGaKisUeFBhEqcigSkWAdJMMrIIpm8qnhJm2yEliHIpV5On
-ORsymlK+5docn9upLEtGtSmjy3iyOxWSRt//BgRPj2GC8jJd6xEx4cqNTXwWjXSKR8JWmMLB0ff+
-YMfxr03VVw/pXMmHSPRZxCcXmw8WF3m3EcwOyD/sGhugFaf8vLUy22WyOw3Fl1+0YtkssCtIpyEm
-IghJlAdKAWG9AUQFL+YtAF1ZbifLRm4Bp0W2O7Nub6ZqPFKbGOY4ybxDzOksixgZk11PjXnp8RX8
-5KSV5mum4/xrcvfUvrO8HkmfSQZ4CwjsfclzxMwBomy8cwbxklRNmbObF5f8sJLIEaws3MTd2mlz
-/TDPjqO3GdMhteYpbECBcyny46IR+Wb0MsNYDboxPwh0J0adKaqRfSPwH6EqGkxigTUwKdg1rSOS
-N0RtvFcPw6aWfAtDlT1p22H6geXfROGNCCZ+UT6/Mewg7ZuU3LHpsEIhvIRq1z39axr/fy/9v/TS
-9k3v8H/rpZ/r7y/yrar+f+2h/8f/6796aJceOrA8wWzGu/0XzfB/9dCIJxw219J0/cCVgWTg8l9e
-aaKovIAtJ5vH26KTx8H/7KFN+7+xJ+IQuzXRFjlu7v9LD22xA/rfVzV2IITJUJw4XXZyrIf+zxUU
-YnK/aGiTKW3IxrXlLWJ60nqL4n7YWnG8HEiWonwviQRlY85B84Luw73oUQ2PESTJjc8Ob9fkWR/i
-mq52SZr8leTjXmit5B1Zuzj2COP1kLpSoKxyY0DuHxC3Ss05vovEjS6gY9sQgneN0XM0vtPA1F+u
-A5OxcR9mfxQHCYbu2MZm8DKV8bsZ+dOnmzvtMyLm6NExh/q+apT5QVWuPvK56R6IkQ7LOPpRgVGd
-rLbsXtC7yS24+/pnjKyRhQ7C8u0UV+0l6P0+HBrXPmajsLB3zlSEIxbaLh2IS898FOUugrVL4QNz
-0crLH0BqP+FvNIGnUSduCU4CD4q08z5qIuwHgMFCWQzdNanIWMY2yLPis3UtYC4WrXiIVo8EeLVA
-g8omfKEifesE0ckF2QwvWE9GlhoCEJ1flnetXx68Yr6QLEQu8lTMOy3cgWRtZtHThAIOLHmAWs/P
-0JlP2UI8Uu6TcJmN4yGLFCzKaYQqUygPzIkXpfjKzXZdq8gHVJ2KEmUXuRcbFgyq+M5b/CngNCsg
-r1gieBROwN0WZWD4REARGRLILkDuIdf6iG+pvIworNm15MGek4icLR6jeTgTNAagV1ZbEKn5VqDB
-8HcLiI2Ovy3VV60GHgq+gPZWOR5UVuLBpC/Be9ArCK1OefZtdn+SimJVLsCHQPRA0/1AMfi2mIxN
-yujVWUg3j6pdG3loZf+SNvgbpPkdxSG9oflXxOWLyjy8CHZ6KDwbBV11iDHUe7ZxLnNiFYbpfq7j
-RySHRxlFx7ZM9mwW+3u4LxDj6n6P6HSdtXepLJD/mRBxXaeDc/Ok0tRyYTUaV4VL/OYhbgpspH1a
-PWfJILFym+yPMnm2DL/a9OYE/Lna+1G+SQFfDESzoK1DpWvvEAF9+Ha60y02lxGKp3M13A1K3kcn
-eYvmT3OiNadgivAID7dNKXaddIjvF9OnJvV2osrDpST3vZg57e0uD6fx2nse3odg2rrK3Sm7C2NV
-V0SyvNGm79282Qyyvfc879XvoMk3t5/h1iABhngtyLWSv7cxWUJoQOLPh6gZdzT55k7YIJjbIHtp
-Gzvbshp8jnMfgwpdgHDa5pc4S4ZqxoMDg7xwg5chlS+JQGugIzZEqdHszUHQsP8lQIAWpSXRghZq
-1eZ+QCj2Lf5KC7HJceWv/JEdBgRGbRcY54X4rOqgOHtZHuAGwJTr929mkG6wY6yL0gD1SYJBEOB/
-QuxSL9bv7KtklzjJ2nGvg4h/uGvfEsJNBHLYOLiUznnJ7b+O2z/GIn6ZajPAk99rpm3Gpc/hfKIC
-/jILaEsqrgA2TtljkifUk1FxiYR1jiTaZoGuHrMIFYyZsmdhF9Z7mv5HXSfX/VBT++aOGGGDwjix
-l3uiZTvKBtQJJd9VDMWHmThcn/m5nvuPyKoOhhIbFTPHiGsiDVCU/ol1D/h1eFUR7rt+yD0E2MYf
-nidfDOiOprL2Fss64u1eZAp9BqjjZ1SZ0M1hwgwuW0ryha6kv5F5bWx1qi6jIiNpiNuHGjcX1iPg
-rh1Ip/pb1lyeN+fR0oujNzwkgLeq+hPj19bv0hPW+nVuvNuTXKuOHJ5YLl9RxJHjZbubhcZ2kp4L
-VDVhb+Lna+6TwNwvYDB6T30C7Jq/mF1tLdKTrfyliY7w4inT1e/sDb9gAYj7pXsm+xwBQDT/Tm13
-xTV09W5cgaUbjlHx03Mu9HHyiTWB/JpgbVTGA88jrllGd2SRuBHcHseFHXQL/jZiA/pVW67dxr62
-Uf/dpqLfBl5FzI9+CCqMk3b9gn+D5Pb+z1IXm5pY8NBO20MboXJtZ721e2YNBVKVxR1/lSUv2SJe
-ZzO+Bxn6EPnJYWIutGJHFPrkYKwgybPE0Ul+yHpI4IuiiZsCQP5GVaws1JfrJUO/iCZA3/zgL3Fc
-PZRTvC9LK16TL/MDaed5Ev2PXzvxscyIC9RBH9ZsaTc2qOLBIxV3OKYABToXFyCjNIuVo6dZ7A6g
-c5cD9pSsg/egofJkzQ8+Ws1fZ6epdfiQS7EuG4agQVohmiFoh6HZcJ/O9euNxz04BAQJvonGZJ8+
-cuterJIrQdSPvSIDSrTW21T2w5tAJPk7NfNMUhNjkyLo96B1y9Vcd2Inmji41fjU7fl0zyHzbabF
-JY9M4zrSDqOka7l1naNvFcHas0Y+Y/fCo5xxIfdqQ0+GC+ajXX5If9jcLDujeqL4PWJgO0Vd+yRT
-G6u7+Z0lotpWylR75lKwKL6zpu24ENNV4C5rx4ASFMESt9vuri0nBxKoGe81kfPdawu4NuK7RsQ9
-rjrAuJ5m5dSRjOhqnOJB+9A78aEDJ0nlvE2SCOviR+JXB+ElW9de1rLyVsXIZkEyZarutBUDsSUb
-Ps/DjOu3MN579NdJcnHdQyGndc8G2cOE03g9nC50Dhy2ZsH3F1hUDiKMk18pHtIKK49X7JIgInc6
-uRfVd+XQkfkQdlt7raf4pDxMeonzVgctR3EV1hPDxlx/ekuxnqgsViZZ2nFW30dzs016f29aKLwC
-m6EWqAE/2bBYPrpAbisjDmnetsPNy2ejb2IqmRf2AfY5XHP73NxwLnL87LPgyKSKqVtEpA2+B+iA
-FcNgCAYn1/2T1faDAKTRanM/1f6urs1rwqVi27/wQzhY4ruGlg9QCqNVBirxpvTjzxLvbCbeeqwA
-RY8jaCguXcn/C23KpurbdUPTXDn6rrdZ52cVnBOTLquTEwNbTCLAqZ8RGNzl6MUnZkgx/BESYyBu
-KWa4epn3kDfDQjlqkyZLfaa2xLWawL9VDVr8cn7miRS6VDNJgZEiqHy8PU36g31zvjjEknpgd+e2
-d+8skBPbyfa/vbQ4V/Rd4Fxv4yrlHTB4AushXGom6UlYr44wN54EGdc3nIhy1YKgPuNS36Z8RYqt
-1QrTp76XtMsOrlxmeJ1BsYP+nuCbaMYi1fZc/z5imLDr0ufW9IqNNmXKGqsPwlGW3BjsTQCmQPgb
-MYAmFf8c51RLPbXSiNLAj0MC21Wu+acnc2O00oP2/U3G3GNkt+OlxleaRptK8YgPxvroBvBSnOwe
-D2q5E52/LRwCGjr7uR67KeybedPO9rmub3ZKsem7ZQsW50Bpt2HOGAZexxzhnBZGaFOVFBPAP6K5
-KJkdxrDRB3CkNZmgT31Rs+WPqCXyGUjw3+hmkqBKAp2K4408IWtI+3Xu43kyCmctPcy5sbNJncdG
-3VPNrke3OHrKoV/fm964t33FTVfGK1t1N4a/S2Ubb2b6FZS6e6OTWL5ehwhPZlcTtiWtjSwAHGaS
-dFXSkmY5hiYPyr2nn8vhvcGoLq5yfh3naG+zimqXFi9s8WqgMRkUzmWjmZgN2m8shVaLfjBVgPlD
-kH4j9zVASMAujEUx2Hr0Q/ojmTz48vK152CO5a9FtsNUtAdWKUYYSz9MUms18JcpJb2jYSiNjFJk
-sgEGugoUwxtM83Ex3fXZFOJR2pqLxyHcPrkN5gsKYZQHBmP9WJzN4rkM3jNo9JVB1rZ3Jz1YH7jF
-Am8TcBIUybiizkdBBlsJ+UKztmxGGGQjshIxNhE8KMsxtxInNwQ4slv4QnceJvGd4g9EYIFlO46F
-Gy4Qqe6aXPZhD8ug9D96bngiB0jlG7uninNfdzdEkRUiAHooCTp6xrIzw32OVp5/cYPk3JvmzVy9
-9YaZqC59SHB5926nD17Muswo4upv17T+Hhf7xoMfWLbZYSYthD57lc/RYz+8ItBBAGK/DqkAY8pc
-3HS4BIbsObKx/Wu+fTJe89QOW540O7B4XIRKr4CN9accN/1sD5AFkpbLX/JYHeIXDpZrK8ApQiMh
-ehX/voOpKLJQv3KeEKy47s2mBxwCyRyFHnmRLgq3dJ6fJfSnRS/HKC93o00gq6rBlDMETu5M6DOL
-YJiHW2gn4Iy5UVVuESuFNtkoqUafvuCD3g/dG5qvTV9ZuKYL0ouYkPbJuk7u7a5iw+RriomY7AC/
-vndj6hqv4AScOLast5vPVDnGfd3P3MNoIqsh1GmzCpjvsa3dMHSNV8NCYFmCStqqqeEJv8E1AbGP
-80RlR+ny+YpNtuiwaBl6lsF9G+cnP/k7gth2nT/K+NBTWuxEVm2nZDkEjfsI3erIhHDVz/UGCdRT
-m1I+LI8ymVZR/tWKZ5gS+4hvK6UfXtrqXoPbeaoDq1wrV4MDdLeQJWkrOeHQ629Y6RzMTCPwihf1
-F0ACx0utNiOpunqGg1MzwAaXmF8iyW59jj5yXx4Aa4RiouBMYUuZtg9/pimO/mQffZ9qtakNEuGM
-+k4mHRRM1Q+guNr17PYS5OM0h3ml+mrt5TLLtp07RQ77Nhx0Ry/OvHldm1P7p0C55oxORyS9m1Ze
-qMcsam/lWvk6Rz3pjktGC5kOfyMtTzFZhAFAQygDstizzOMKTAwxnOap9Q9DkrJ8Kgk7rvaJqVR8
-mUrV9FcZ9JMJF7fxSdbRAn1zGdo+QRts7lXNl00RTSX+ABiHplbiMp0pJnPj2wOtOiUdb5ukaxcW
-xWTNZ9YUqNmKbcGjO5r3NhfSpumg7SBRwBGsuJwTpqSrLAvGbuVKi7Evuif8cl3JPx+194bOvftD
-lkMdWq3Qoc3G/X1BWn/u7Khsv1BeJjivK/D3gCKAai9e3VzKqq1v62QRGyGz+jTeiAqANfWg9coA
-ZLyrsm6+5EPACTk19XPJ4XggdbG+qKRkuFFT/dmrXBu/KMfEWVXwliLGM3+RWJgk30HZWnsuJ5Ao
-hgg6vu09TkMWv7l8hhvUjLfLceRbXjwAfD0Pgjkegk2fltZJGPWf3NAek1j/sWmqZO+NvGHsHc7L
-nMMrGMeEYbLg9ROuFq2ztBnvlhhr4WLQwWJDL/7UsiKmM2GvTl9POpe+TZb80v8UWXHTMQMCeJ6g
-J3+mFgYaoHD8GXMpgxOZju3Trbva9T4hUkJp/sh6+ignj47AtSaKCD/o0mtv9MEpVzFDH1nPybXO
-AoblPer4g7SRe+Q8AMk+i+T9gC/ptOQ8HnoZpLdwUHnGxsiHPLcHq/Oebc+u75JGeVAaTOeFHd0N
-OBv85FXFS+JuFntHZ4j8IhhVy6K/GXV1jyImZcthqcJLr7IvIrFI/yBvJ9RlUOwksedPehFw8/L0
-9pqGbjj0vcc/7Fp+HnMiTIcZFuh+5qfWAdmKWhuv+AySN3LUoQKMNiX77Vf2Dd5KPfbynBR9uvUR
-IpIDMgNyd/MBuDnW5n+/M67L6VkupbqABu3POd8u1UGaXInwSK6NM/b7dmBCPxXjgSXCj7Aafq4m
-PUfngEkca5FnbZes0uLg9p+NYp7Z8GvRF0aXPgh4KcWot7VHKiK+jwaYMi+090mlFdEod/95p5ZM
-4TJ3EWMNZ9oRYvPTu0kGFjKxP+KCiMuY6L+9ZoV+/vfZ1mPBB9Jl3FoY2Dfg6uWmRzpHQdWQSQP9
-AaLEHSGBpM6kIHuRxMtd7fU00hAabQoUkgoLtbxhhcSn2RhPcOd5YzZXUTuX371ZYK9v+YBFavwA
-73VCPtV+Ja3gRwTcEGSBFrvakrc0tIDrhd7yI6vE47+L6d8LWMT8hSj6s84ICq1xYz7GgVPs4sB4
-1REv/N+LAyBIshpRqJt/H5CT8FMdGH80biJkY8nh4Lt05AwPc0Fb6jgm/OEIuPKQIztHkcmjnUSs
-jSAj8NRHuL9kwMcAHQEqjDx7DR92LW4wC3CGO2fk6wF8+WkTMrT59zKZkv+AwH+rJwIcQTyQOCFz
-wNiZDk66id/+vbghyvQaU6/7yC1HH+Tw+nthd+/OHMkVSnO4m4W84/yttnFN4BErEz6ZgRbr9vlp
-0PzSbh6qtqJ+jn6AxMEAIZuJ9iHhKxyB5cVoHVbC5sXkvJB45jewQnrtzOQbzZC/dqTBmYhidtPd
-Ln7ZMi3PuOG5nowfO4hee5/7yBed3lKi0b8xGWRDb7zWgCpWaHZJVqmcB4nXPEITv4qpAUOy6Akx
-6NtbkODtn6fuXT5wPf17l8hp+auxQlUSjF/OwA81MEXcwJXc4tNYD+tlxHOgcf+skZzwUkBtHKqB
-m1rGvHX0FlWYBMtdbt3e4L8fx5Hz71UhTAlOqirujWRuYZdzQ/37QOq+EXvUWHyPt3dY49a5yIk/
-ap9sIqcfi0edwuqohsk4Go6WZ2TKhJFOXXWHS43zAozy9d/Vqdtl+iMZn77Xpk0QLAvHUzzy+zXo
-qHOM+fQ/XzVolGDVKLTNlZhnA5IAZ8+/OyruOHH+s6K4hQP1SY8nPgbMRuNvPNEyMYnIeiCpXdDK
-Z1MijerTTnIO3460tuN/QVFkhxLG83thGP5VpZ9eZzFNR4y3TVVsP6sgdvcE2DXPg8A6H6SmSUQX
-WR8ISZrTZCnxHjgZR5va38bsQ0shGne14MsySN8aAu+K0d5YD7q9SOsxcEkcLmqCj+NHWIp09ca8
-iohMWxGWUrDS7xlTJe5v1lYk6zVAqBb7r1fa+K2nRz30f9FsmRss5xvZI/I3iR7dqqYAPjSqA3qV
-tTmLc+fobs+NcBwUesRkCTBXTPPdkGft3jNvOCUfn0ZdFA9KDc2l4T+CTv8N5PihqqTa4cn5Qpl2
-UlS9+CD3jmo+PRU/SK59uBE5PfRPEV0DBm2ZNrb9OL0p2/nLhgH4ZP/FCfaAT8r7KFz3uzKzY06E
-WUWqpGXpy4RsTZK/fKDntPedGFVYe8MH0m3mtK1bcxy3FxablIrVVcXDFXPBtw86cWM0Il67FYlT
-s+MdAHas/dllNmu+If166hy4QDQvSyC2RNVcK4nLQNsviecdXCXfHK8+dY4dXCfAC5y+VTeuDTTw
-JJQrclls/dPqZp9LH2MODyymNo0DFnh+7RJgE3EMRMltOz5e67ULfPZZ7pmS6Mspgw1RjtZrUNl/
-VersdRDdjb31mGoHJFWxibxgFTRQELrpvhAoS3ILkaCHSmJLIkC8rrL2Za4RY9jgKsnZddF+yAHN
-WuccKM5Ak4pNwuoAW5I81q756OoBfmxlTlD1fcwGkB3R9L2Ozfw+xTW6I82jQSoK5C5vyc9iq+Bx
-WKVueld5rDNELl2W+3wjumho1Kthgw7BDFWbi73wInsN8OO165t33RKiih8n2zQGNHu/JHNFd66z
-UpxSYQBtxDbrjHEF6smGOfZ6GO04dPNpfurVpxnJ0IXhEALcwNYDiiKcDFncBcWUH0ywjPuGm2lF
-eNT0UlBwf44qyg6odFXoEvBz6Iqs3PHui1UpB4vCUjLZH+V4EUYB5Lwblw2KMBMHFZ3DNC/5Lqjt
-hkPUuHZGT5/tkPQ2QqRnJQmo02idZzjFP2x8ijszQu7nJQOgK06KLY7l9GhhhFxR5PVvo9lC84hB
-hNZu1IVjBnaOX2DvNMkyv+SGmZyayF9CtzPIEmrc/N63x/w9HVL/LmONRCgYqRSeR3vXN6hdaozI
-dzEXNjoscD+H3jWTrS98+zWWHtiVjro11WSBantSyVoJZW06r0IY4M4uE6uosO/6yiAXSZd8GWgo
-PicnranUcnhrXdG2IYEC7TfHagefRxSHok/QvBVGJj5rsijnldeU8dGNYfqQdZeW2xiy2aGO+IJW
-BnmRq971mjPgBtaH8+y/ZoFxk8dI966wRyAwzoglRzbcu0WLDA8fHWhlywRh0ZBZ2K86nZCSY5mf
-XhL4q4qHD/qDqWNgEtUIKZSNwWMJiLIICBYb+ipUThOfJkUGwcpvyq9GJrlJXxKIozBak7bcem9k
-O/1YLOQPBFjnazmUOK1vS+uV60447LTyuSCxR9qhqKhExQBXbUduBcMG4gRCPA3jwaurhJhYr6UC
-rGtqNETE+hTFQfSOvi37yk0Kvbg2UBvmhRWcHBRHez158gzMscA11gRPTEWJqq6XoPmRpq52cZra
-H/9KXg0xDWEaaSa3OXOTf/SDR4FbZ0awcn0tcqQ60xKH/ylbTSs9SoxH907e31yseYqHafCYld6C
-6Ta3rwCDPI9MBtuse1iADgTwFdE5U7zt1ZSp6Sc2Lc7mvLfu85gvOqwj30+Z3WobSdGwmGuZDt37
-v9T1WBYUaf8ptEHa7vF7kp8kcrXwsK+o8QFCF49dm8b38HzLL0BokEfGyvu03ba/zJYBxspyMpSF
-UXSevcJ9FCVpkKUyyFZuR/Y7BRla+6ATCbtFKzN3izXeptVpytrPQpXSJXa1y3OenQnyrqUc/Zce
-VfVZEWv+0C0pwd0LQ/FbVOxlVj41dsN1J0qv24obODkO/EcL28e5UuzSGXEPQYizD6sY6rSAoVfq
-7lhcWyiBFeA9/OVJzoDEVb+QNfGkIdDbR+mijxO1NT13uWx7N55DZ2JehQym2pW1Fz0si0VviyDx
-ZKcJNDx/SF3Ge2Zv/jDCtk9OaRYPLIB7ZvpWQHtRMlEGlsstZo8YvAzW4hf8hVJsaxZ9jzjui7dZ
-Q71dTe0Melja/QdC0/Jvjwpw53o1SXC8r+E1V47mNIZS/VgWbrSPPJCXqbm4b65rsLFFRZj+FL4Y
-QF6D77hABVg2FckTf2lghx90idZBTyUUehjT/afpD+TT8ju7eyCP1lHpJu9uq+f0EAWuSrdV4eZ7
-19QsjzqHD2iMmUBiHYhPSVxLdPWg5qu10wTq5PqjH/EsxFXQ5dwVqzp3/Xfi0ZsTnN523ASpk/1B
-1c8UYR6zlniJ0b8v5Wh9BVXgES5hpfkD4DsrzLI4dm7KxdtEV5CfHMqmomQcNNeuMG6X/a26bzyR
-H81WUgypbgAA3rcON4u0BU9pMwfDU1feueAOdtairvFYCNaiJhY/oG8KwtpDbjTN1s6m6IVVHZN5
-yvxzBDRnCxQ1M9bMgl5B5iHXDui06aQGZVqn+taqrBOeq/JeZmRUhtVcIAPkGmBlCc8TylhjT5Qm
-Tuwbx2LCckByXauNjdnOOeMzm5gAGvS8uwtqbX6QpsfcuRk7XM6GR6L3kfEbZCB/GvpwMbO8PLVB
-mvykU6C/8HRmz5MysxsywY/h0HfaRRzA98nVxcOE6JSoM14QbGIFDkREx6WampEidoU7w1jAeTNO
-YWsuE8s9QfySUO/08pC3Nwx3oQJrRoyzeHc8qxkpj5HbvU0OcC8ye3zeeG4W8Y8B8PCD8ABMlFba
-bVLzFgsJszWqaJX64kA0WXXgqH0mjuc6N3WLZ7mGVevL5sed9R3V3RNU2Pqa/5u1o9AdcbAznEgR
-TGcjA/YU+OsjqHAUiJWe/+D3e5gXS5zQHTIt9Pm3ERloHOoeHgda8nzDBeqEqT3GV5Al7h3p7uNO
-tLG/GQfpnmh8vKuXJwvIU+J4GpX8d/bOJEluJMu2e6lxIQSqUECBQU2sdfO+I92dE4jTSaLve+zm
-y19KbewfGCN/kRaeZEWOc5KSkpHhMIMBqk/fu/fc6q5OQ3XRV9r5pJ3AWMBYqJsRkXO8ymtikhPr
-8xgZWBipL84zbjTxAEAyU8hp9ms02v1FNnTI7T0yoVf+1OYPtSsJv2wNOlxneIXG8eCN6Ec3Mw7r
-Ev5e7I37ocSfjTs78Tdun+RPZdf17dYhpvKCNTPYhxZ6HtrtkJA2dl+YfD2AEXqTBHT1gUA2N5VS
-0DWraJjmNVOj4kHUrn6zG/plaNDFp150/dkEoKuACyeob30tP1o2kVuM85MCJu0ovc9lQfKpLZmY
-1Cr54DdR86koY5Qr0+fO1u49i9wS+ZLr9mzqvenNRtdFpldUw+GkNcGSxMGUUsEVDtokevY8wgi3
-ta77AxiI4HGOfD/el2Rv3pQ8u/Sv7XiPsDcmhgC57g0NXo4H4xJ/Wbh8QUXGPGRHeiTn6QRTyuq9
-apsRBcw6EwzBqxE14X4cYLwNuJIuVa6uFjUE6WIGv3TGjoF0gGOSrQtELbWgg0UjE4Rxrqn6RPaJ
-ZbG7Day+upxMp38m9v5LwjK2JrEGnSt+mA3N/U0fCJcsHRc1jtdku260sdA7Vfgo59j55NjteVRQ
-/KGtHJMzw0I4z28Z3Y6e8t+8SvQU242F5Ki2D/RyqGtMBLWJ295IUKcPcOXYpHN7b+GvXmGYvhKi
-Y58VTPuwC9dB8FA5/VMb3Eg1w15ujANCp4zpI+PGu97M++smH7J7WqDumXbq6dxMu+KaBdQiEDQh
-oLeISJKyRuuA6zX5NoBtTZDOqSssCO1FKgk6QkIe3PoTSwgi4eY+M4It9qNkXdMNvMsBLNOE9bMz
-BKMp97vzryVatGDF82BvorJKL0HqBlfoK7Z13rAnGzLbVcEcXNKURwYj8LBUaQ55fzSTTZe71mOL
-rHZVIsJdd978gu3GWQ/8xM+AHNS+cu0LQgxuE5fGnFda2RnTX1qr4WggWGumTeCH9LtxiZ8Jn0Tn
-eUqpbpL2W5glrPdl8IpoMuJRB/ZY4B9aoZAagKyKl0oY9xaAyLu27JP7QAb+Ds8/J2ry6fFUs3CV
-RvuxFAiVFZZlmt9E2Kdtql9s+H03o1T6WzBb03UIQhcUYQjeZyhc+m2pt6d2u6Zai++kHrszgri8
-Wxpr7asNJmGfmi3WAKOrzv0pZ0CMFGwfdEFFN1qJK1cWAcPa0memMfMfQQ+DIScFjAYsUSaCHx1T
-PCSTupztS0MnwxnkPMwTqRcEe6AS8cZC3Z+unMIUV0YNErbOiuwidkfAhj7OdKscXEJXp41oqKi6
-8jFWyT5IXN64QaroumQCdZ42Vn3rjaG1zki5f2yTajqn3nI43dNb+t7hmdmsLqiw6Aa5AgIg2nZa
-vkvyew2WgXFhEBwmmuJbhSxh2+Bjq+ltxOqmTmF00KusdoRoMvcIjQlCMOQBZya5vDRt+8ZBP3gJ
-7KE5L1srvGGSnmzbIpyuQiNtDgzC5jOlC3z6VhjgkFPigxOL/GImjfbQjkiwaKcw9Q6KNrrWKb0q
-SUww2xKTjJzT+Vrg4LiJ69zeLQ6V6zpzvIs+8aLLqjSoYGDmHLq0dHdOsoAu/GkKDqFP1lU+yLMu
-z1oieJtub5GLPpqscEOdXjZMONRaCdxkD8xUgEBNltvCZuijZkPaDQNJq26J7gMcMTyWbdFdwgyN
-eYIca1Pg8eREwvoWcOhF68kIdQWMqEDqH0pmW4YUlwOdAIABVCdpiuM08PsyPTfpbaL4mr1LbWek
-9fhSFQO2NDa7rOvKQ+h4zaptjBG+JENdknP8z66OvOs5G+PXus7aQ28pusVVB/siokxDtecIjxYk
-xqJ7HXbBF8Wx83wKBalyE+aOS5p//o1FB+1CgaDfE0Yunjpg34zG6Q/kFa3DAY82rVW6gXVFC9T1
-i9tjXzGu6dnmGX1flJmMJKzEHL5aHPqekPCTu9rJ+jlwl4dG06BlsORd0tiLLo4DDzw09PmQKB60
-wXih4GxDRy7i3NWAOOJSZNJ8YW3E3qQKdO3KgHVA+7lJ700UpTuAGhxeyEml3usYgNCRWmyZS1PX
-Wtr7Uno0eZ3afJN6XqcOAX5YWF5N4Ih3js3Cg0uRU7IDMj8aqJfdaZmhwbndAMo1HhuOiTtvqD+a
-+iFqUNUB0bglZH0Z5pUbP5/o0XiVXuGDK25HgLiryhrukngk39nzo51DRbWiJVmdo/nSNwEgjI3A
-Ssf6Rc3DBo3OstHufjb0+WRDAUYpiqiyzKhofNxp0EGalc8QI0C7Y8qNaaHMMFuXeMfcna8Nc8QH
-0nkE0UVKUsLyHQsk2+xUU0y9pO1byzsnfANdUUlK7WS741vg8bN2GQjlPoOWnNAotjwq7MaUbE0J
-C/crASLjY5LN1QM1FMx8DHf3yuSAfBQK5xU31mz7ADaLpNB2Y1k9NDD5LntQzgmhnjwtpkOvnRZs
-dKHcgXNw1KGwUmyU0CAIDvBf/m0wOM1ig3Rv4az/lcVg/fW1/u//86O/4P//S386DCz9B20Rgibk
-d0f9Enzxp8NAiT+A/zkQExd7pAOq7X8cBvIPcFAOEbGUJgTOmpgCGkqR8L/+w9B/uHADgQ+DdmSK
-YsFo+BvkRss+YfQpT2Clw21okoqBgsM5wZvh1e0hW8YFMjgoN1jVSCWCRVI1X8DlA2eOaTTsXRHw
-ynNAHT8X0zh+VtJJXntdc6JF0MHpwi5y+9nqou51irsGnAhuYdR4vSZQlL7ywDHf6VMgz5NzR9AU
-FUsg2JJWjleoby1UoruJFIAU67y/NOkoaeSGGab/AeXBPHDexabPuk8fMHEdzIvhLGk6d20vcNUe
-k4VCKkcsb8QN+cRH1McEIlN1aPq6YcEuDRwv6ILMU/+Bvh8qbkFI0O0cDz1RAEu4EQ5Eco7iY+ZR
-hBpPb/IlCqkWDYTbYglIGgeA2YxqiE0yTIdBnExnJTH30yRadz0hS22HlXw1H7OXWCI6+r1jg4uz
-Hv323gy18Sqriqk/esuh3nDryteuaZrbciwRvaGrXqrCeA4SGpFBcIVIyppWZeNBknaqvrsQlp8S
-yptk7SPQ8zbcD+RkIcbIc0VeZTR1qNlNQiEanZTOeeZM+KMjMlS/gRZAeFPSzW02eLjN8zlNXG8f
-NH78SIiWvg57Jsr0ONzsNfPHFD26Kehl+rT7X0hVwxAPiM1PziIni58ljW36fy2W1V1gK+2vQ+GH
-b1VfLuBfI0zyu1ybBZ5pq9Nhv1eNqpj4N0NovcZpmT53vgT1JTBYg26OFlMsUsg0pQ4G7QlzWZvJ
-S9fN8hpDpwZQSVmFgVxURvGaaGB0F4ATffvStzmj9rCXhmyEvjPXyVnVCJ92g4ls+5BFHr0Dk7ZB
-s0a1WMY7yBgtxvNSFOQHGJ1p79nJmycE/X6xBTlqbhegebBVogSwnAqPkyXhdBhPpUuoF+4ait2N
-VTkogei+phM5ICWKIBXhVlhXmPVc5r5SvlhJOXFeF16JgHsZMl7TLq8ZjOZB7LK5GMhag7Iq6UoS
-OYZUQvv9sG1kKM/KdhjVOQiBNr11fLjqj7xcxUfU6ibPAoSz4roPWsjUM3yhNVL6bl3R37wzGsPx
-N5708WP6/pSuwp40m73oKcEhkoFv2CGynGhkmT3RDnHdDXeVVNanDAMPqkGio7x14rtj+gy10yUv
-yu07Nk2vpv6xYxO9jGaP/1SruIKMFAdlvC9MpFUcB9LwSlPilM9+LNA3E4NhrlPIAncTMd2oOT2D
-T0lnNbtox7Rr8BJIgRGeAAhuhjHFD4ku6sfKkd5FVIyM8KWF8dRnZkDKieIZOhOgZT8GGR3GldVU
-4gWloIHg1aumSxaukAZTwutEI8xP33j+EBZGaW99itman2vJ9bZjT/6iUdh4UG0quYPR6gn9QBnN
-zTrL5+xDIZMk3jLXTq8s+oWEvJqOcVlPg48x0eq7j31m5A28i6oEpiwLSBpK0IyI3cFJUBSZlnnn
-4WMke362625r1CGKoYQBH45Rl1+DI2HjPwVjoBQyhABHKts2BhLFNPNbVJbgvJ3KXiCLOBkEz3vS
-xTthCGRPkdFXT8OIfn6FJLBf1pXIuhyKenJpYw0gVkFv2hQZdIcIpTakcYN7rcBP0BTWI6pouuCm
-KYbDFKUK765ZWq8V8AEY3VnR02yxGwAVSabMj02MIRf9d2Ai3Rs6ZpJZqRYpoVDFmZ8HyZ0ntInw
-ntV/vkqaYXjpOaRwkrRfamEFYk1WYEZdgiO82Zd5PmySzEfZPLm4NHdJfYzOTUuG6H49I5vtrIGo
-mTiSA2f+sKUTZKl2HABhmNaN6tQyQedFuIuCCoJghW7wJqun+jUsQI+wKZDiw3TdNR5GXfBU5bC8
-zrFcXZLqluqrZaB+NoVtbFzoSQ7Fup7G7sH32PguaVx634iUYZ226JQ/xrRwchSWBhLMHLF7fs4x
-vw52wVih+bV7RLyrGmGRt2c/yLFjpAODIXICuvskLBgK9SqF3J0rooU2LFPoaJHl64ZSEQUvPKWW
-8wVbNIcFo6OmTsAJiLXR+dTxftQEb3MeMqhIaSryxxNz2hJWacsDUaThW9kaU7YZpEnJPneU+WtX
-QTpYdSUo/LWbsG7gIp/bYfXvWu+01lvQShg8/7dgpuuibr/+WPb9+e//o+iz/nCF5UDfVYB4aWeA
-2fqz6COCl0kx8B7QTcd/Qjn2D1sp/5Ztwxl1LUvB3hKaT/SPqs/5A4yS43o4UTi3Iaiz/k7Vt/CK
-f8B/Kojhrsa2SnGJ61WfIm3JnEIp3DifOkL4EGZi5TnLTL0rYEPCqV3V5QQuoY+/P0j/FAd94mT9
-flXuswl72sJUu3yqt9f7CCrgf/2H+E+jsysjG51PY3fuhe5l1m9l4XNIjHlVnn/4cW6/f5UfydpY
-eE++IgWtcjDu2gsjC7LuCVtb9qadAKBiyy6KyVhXx6BUjQLC2NKKLi+qIbP3pkDBvTW7sNVrZIqE
-rdJT5/AHhTD0bry6JJDVWbJZ22TBbRwDW+eAWd0qXnJcy2Okq3GMd9VwdYY1urIER8MxAnasCS7b
-S7RU9UpPVtpubaME7tLBW3gCZzkE62TJlGWjh8InmCe/oKtDOuIu+bNWISWjjWMsLWGyxbfiGFY7
-1PXgfoT/BOJDltAC2FOi5s45xtzmx8hbf0m/5fSOFNqbl1Bc+xiQi1OHsFxaNFgiieHIvVUlOgyh
-IJLUC6kLDG9EZZuk78TZxlXE52yY+GfXoHs4T0q3x5HjJcEyrGcZBF6UiSVjzXApf8qgqoILuKxa
-MBmMFbRPQ02I6hLLBpc6ImR2G1RdmBsCeR1hc4kYFlvXWNLGFd3j+Z5O43MTwCjFgcTxd50xxiN5
-3UmIwCsNg/btROYLxQLCP1o4fksC8hL3kW78ERg39CVhQygRfoAD1J2maVeaY026iyIgd03Pnhza
-gm5wez+7mbE3e6MwblSY6i9jNCTBHjlT2+26HCzaro5BD1xQdjCasyoNgknNbvFcdG78tWoc9hxy
-NAFbya6vQyq6zCu2tJ0hCDZu1l95HinSCAYNrKQlJK2NR3jSsJPIx5Ob1iXTeZ3bRFqSM5FnnGTC
-nBOPqDh+7DM5l9UGRlcenxtpjKR4nlVEGT2OYZTfVT0pfWsh+vANufoijm1N+pzQpAmpJVwn5hbS
-ETgr6m6hSi6le9Ur/qKE25SviSzKXkErUOePbayvmXfEj3laDt4+Ygs+90p35p73AI2o5zk0ZIh/
-kRrIKXfOmy7gXIGrBepvp33roCo3prULiSPcQ3RvH8NCJfZOL8cUSlpOLNw1Ti8Bw+vL1pFGvOkV
-0qJ9GyxNSgw/EDKWAxBRwX29kamDLn5ejki9NbX3YxcEH4txCt88VMWXYLlwTBg8aAQstg2Fb7Bk
-4HZ2N3JocAJsX+ExKlccY3OneonQRYSb8X8/RuuKaaZJFR8jd722lfZ+bDIsAaIhlXduk/Y+PUb1
-kkxFrLUck49Vb4cEZZPpqzWs/A1TxvGtj0Yyf8tM3qaI3kFC56qTUEqWgGBdLb9DveQGx9URAZP2
-5CMHx2jhOpw88mvqekRJEoLMO2Tewg9B0MJ0nbSmEekdWcVYTuN2B5lGAvrkmIhkuSPY2D+GHEun
-a792ddPfzhTQkmFY533VXkEYuWGr5MGeWxdPTJEkH+pkMYMMhWm8ELCTMIpNsZduvdLDPxJGSwDz
-Qgz7EEkG3rwaS0TzmPK+ri2IJnpbHGOcmWxP35Ar+c9zG7VX9jHwmQMYyXiczKxbDiPDU75kQ8/H
-mOiAnjTnIJ1VuKHkRDcfVp4I92056s/OMWy6WXKnK19l2SYqdOlvm2M0dSEWOymA5ON5wlVQ9Fx0
-KvgtSLX+d0Hzl4LGlAvZ8Z8XNFevYCbD//6/P8eOfP+3/ixjaFDRInZpUNmK//BMMJL/6F25kCJt
-V3GkEWB8QFP8Txkj/jBtKTUGVg+YPW2YH8oYYdIOo91M2cGlHEqhv1PGnNBKKZUEFA7LWf4OqpvT
-WAYZt3zygrlRHRswh4lxi54r1ChAVkpf3VZJP0dMB0MUG4wwANn+cMPeKTKOXPYfyqjl+lg8QXAi
-27dsfUR3/FDQWBJHwtCyiBC1d0spmDwK30tY5mqoXqoJ7QfMRuGAqGNYUB2cyvXKaJrqQ4hC8ndA
-/HduBh1rgbvN9AT39qSPJ9MG7nLFvCOpmOjwsrefB2cySAAbvRUkouSqcT8SXBD+JrmAX/PHWvL7
-TXAXmijVkrYpTH+q6kzcCHZVAvyzJ8S06zbwrXnv9QLr4K9v9wI6Ob3bxwAOkCvSFmqh6P9wt+lx
-Qcvo8PsHTed/QNNg6S3EeIKZgHfr/d+/mOfZwqXLClXwNAmhVVRfRkuC3sydPqdf1F0PuTZAhxfD
-468vtXzuk+/lLJcwbQI7LJ6nn7+X8JU9aawgK0Am/pe4FdMHt9X9niYGvqV4Dp9+fb137iONbVdp
-XkTpkqfz8/VSZURZN6FXcGCOctiljqhrVO44FNTf/8lcxdmIpYKWnSdPng16hWXQtPSWvUkBkefI
-TXwAOWPWQYBZyDe//mIn54vlSXSV4ovRNDeFECdfLB5zB2QU2gniyECxF2GDcRXMKEFebiO/QIXu
-TQbipnPx969rm3RPBGe2JaHp5xvatYNI6Vdx3SHHhTYiPb6G14xLDQ3cB+Jgiku3D42bX1/1nZ+R
-kQHtM82Biv9y8jr0uidI2UCGwmOKECPnLS+TioagbpzVry/1zhPKbEDZHGpZ8I8opB/fvNlC3gkm
-ogD5CMsMK4zcTw4Sia6GnjZAvP2Or/qnB8X3vhruGJhBrolN0j15Iyq0V9Xoerg6GtTl0pjlJgvs
-gtIdntuvv9ryp05ePiwXlmVyDzl4L/vYj18NMaqkPIMUYQZRes30dd6Qlxvu/oWrcHK2pU2EF3lb
-P1/FzEriCW1WE1rG1RaooXvBYWy4+vVV3r1tsKxcBkRswcvo6sfv0oRjUTsIwhCI2KOGcemk05ki
-qZtIaSil1W+WyPeeChczLzYrwT7LVv7T5UxzdmosxcsD2D707XyXFZw6HNhvVMJx9Zsf6r2rIauH
-as3Bnq70ydUA0sWOVfJy14ivzvOotnZNEuiDOY7lBYKL7jff7p0HgxWZt9mjXSHZb37+domW2KGI
-P8A1XzJvmkNT9psA2m78my/2zq/GJSyi4jzWLhNe2E+3cSzJMWsj3mMoUDrbMLNYOAqYkFYgAeqH
-Xz8i79xFbuKRa0bjR3gnj4g/CjwGAS5TxwvtfMPHqd7yWmFX9dFH4HToQSD8+pLvrMpA63nmpVoq
-xdNGDPg/NDVYzJEeRuA6FrrFEvtJGLuxVX5Ntvcoht/sBO/dU4Bu9lJkSkrXpVb6oVQIafaWmaEo
-+5r0XJKyvQW4jU6BidxvlsZ3qi7vxyud9LSc0qS943BD0VkM5MjGlgVwQsMRynWMGb5tnewe8EUu
-tkwa7d89PO/dXM3iRWPQFuwxyz//4YtmbY2wvIEp1I5zu8fIbdzOMDI2ld1UW2P0pnNdRf7T3/9F
-Nd1NJtSOhRzy5KI0wAcRuRa2voGbGnlp8iGbHNw9OVJxp7J2A2e831zzpGO57O3LRsAKuhw4qLl/
-/qKNy0A5poPCqLMScLhzuhUjwm4/jN+KzMo+2ZlZb2zDrA8SEfZv3tG//so8RYIllQqbo8vpYsAE
-ER97ysCi06O4I74XFR829lfDr7qr2TU4xPpVc2WUzW92wr+uQsvjy5tjsxfSsj3ZOHJSRSIMWkxK
-JLL2qBUB3vFY3v36B/3rqmDRq7bhFmr2Qn263zIXW4hpCHMosMNPwRz24aYlVyvfKX8sPrV4z15/
-fcW/3lAuA3hxSaCSqA9OFr2wzYyQAG94HRhghgVQbN965J3C+klUtLMtQuNB6ZuMRUo/rn6zPLx3
-9WNVL5hNs8qfPMD0/sxIkE2zMssyTDfaQGO/GuwC9pM3kEOzinIfAEM5mmVyNhDJ+/XX3/6vyxPt
-bx5kdk02Mg6PPz/MDoHKlM0sGrSZLDJkrdekVMNehq67+9tXchHRW3xHLshB/ucrcZaQ3pyya4J5
-0TkwVpckIS/JEV5ju5/C39zYv76lzBU4VlAnkgZhLWKXH5ejBh8mGFhAA45Mqy9sKHDaY4BKMKa2
-bZsX+yCbqpdyIGU9niz18ddf9q8vC1dHEeNSjAP0dE82t7ZznAQ1BZFAaR1foMUzGVvn8m+/kstV
-aGxQCMNtPJ1i8Ia4UeLBbQYb4J3Hk2KyPxqHf+GrkBXCW79QRE/36Yb0NiMMuAhw3/LWBMCADNI0
-+/A3C9s7b77Lk4GTkqESxfZJVcVoyM6GnPFnYCobCcACjBMZhC1Pj+eu2xp/u0S1XJfRlssPRJDm
-MuH66QEJ5FRUy0+EEcTaYiFMsQghfMiCUd3++ha+9yy6jm1KJk4U9qflaRZHJueviRpAD83BjCsF
-0lxlm0W7ciib2jyvrNa+s+u4hCAWlr95Fd5ZYyjruKWuIx16XidrjA15Lq1NinF/RHq6qhTsMuWC
-Fl+Zo64fpTTgbKDLrB5VBMTjN19++es/H2uouEBXkSZoufTZTq6OM6mU8Flpb8+F+cKPgf0pl7yM
-SN0DPIKhn6DZNkb7X1hwuDDRM/zILDvi9B2MItzUPYcCwsGbtcEnPPSA85+F7pKHX//AiPRPviXN
-SQQW6GD10oPDAvTz0+TXYcD71xFgjotjXFWynttNJDyaGdEkK7kPNTa1dSrFkO6ihSq9w4RAynpj
-eVhk7SnBINQCV1w7Ob4YMFSV+zWfUO6sY3sYa0DWmX8Azs1pBvFmfcDmV8KkE01LdW4vyqSpi1J/
-rc1B7aMZOzMJ710POAlUkAai65G+0vR4yBGzMi1BIJzpM7fpqitnkIQD1L1AUw+xKflCfB1YJgL2
-RpeUxKE31qRE8GdxBo2vFZizNzx3DVmDXmOiykvGOVlnTQMxSUAqdYH3KFTgSeAOl2E2RvoCkQbY
-oVpCct8plc77GgWevU4NRUR7Qr0ebGsABvcinkg27Kc6IKALY8ra5Gt+blsM2iw/KebSudMy3Eye
-U50b0WR361wKsrhwdYAGpazIyNyaYswSE/k8ymvzy9nJnWuLSBmc0U5Z2WuDLYAQR2eWV6GV4ILI
-6tb26Ba2Yhd2Q+9vxopYwZVL/mi6aVTXnputzbCH7LnRWBtTMNy1HMLa9dh31QyvP4U963Wj0CsC
-YorPpluioDdFmxHtRc0LhU2WrXshBCB57BX5eJfiosM40aEkAuftFeDgokVCxVzXvO8mT3PA87r2
-Lkx9w1zLScJzLDlkUNuTikmkheiuq9SSYDTzVBIGbHfmY5Y7LU6euCxvg9BonutCt09qYelwxMFs
-RBB2BgnBCn3AiGCf7E3fT6iRXIJukDLlcTtsgZHW4y52Ct/bJmaS3PYOqQzrqA67ZKUaoMArPcI9
-wLWZIJUONVOczShyqElBODUZgkPSCjc57acSs0W9oALkbLwgkGFoC24EVUw157MBUjFwrEU9TnJd
-FZUzIqWyMdBXorF/cjHhMqQLMs/YuDrtulU1lmO1VWnl3mUVEFHi5I3qk1/SdF+FQTNfJwpxwVoy
-Ee9WEv0zEzbP98CfwXZYW72tgh2y5gSW0GhUFy7G7WmDxHkwwd0OFQiHOiJLCXNV89h4ea9XeOG6
-t3IOK8BJObXnnOnwkaeB22Ba0w4mtDmSnREjoA5wmcq1V41KHpLM8seDFfZEwwzBUAM+8C2TiKUp
-ZOpsO/ZgYL0sgCmDsxyQkjPlS/d9jlryOQNq+tqQGRGsCiAy5XXfkZ1yX0p3TED2zWAPB9Vw3CEq
-NAFIJkha2g96ELTTscgbG/AKfnoOynIaz3q7jKwLAH+MsTj24Y4kiKOZngPCC2+ZWMJSDDJdwRwU
-GYETXW26T8MSQw6yLcNmOTtmOp8ZdNtMEF61vrEAKzg3bcxMvypDG2xZmBbhGcpHiYAUWEV95brz
-nD4HPVbUrYyLsLhlOu6ZG+bX1Zd2bDOmcPEMpawz3M76WvEUkQaCxXX61MbQCehYhlO+564uhD/i
-UBHhKdG8opMKhxt4lXl245ep113lVm61Jcu6P+P/zm1Gzg+dw0h7zXRVpYeYFVCvUtYpva/yNLoa
-W6JgLzQprzD7iS9o9xEsN7I6CYt9MhAMECZD3ziFLsvk8DwgG6Ddl8GsYJfmQGk3RlIZN3ile2/b
-LQ8p1vNoDK+jIZqBN8YGTJUZ9mewQdjb+h8Tjx76CiuuuK3KsroNnaYf9jGc8HZtaSO87DNopTuL
-YFbco2FWRS+VX8XhtTc4SPvhJ7nlVtQDzEa2SA84cgvq/KZDEeu9Vh1qbNDQkUOCQqZy+Bj4wBlu
-x5PzzYfAhRMnasoOfW6XNzsmVqO+yzMramD2JilaPIfffocLdPimMj+pz/KszzAfTj65fk3q6/gQ
-mCJ+I2ywjBJIYGb3UbCwuevUyzNBa1cMJlm10MkuSLwmH7Ety8k4wwzp3UsrIHpX9vMS5FAzq1m1
-vblg6UrUnWtFgBExlansU6bzXqbPaUg5MCPnNHvRWW6zNsRVR3XSFjUa5En27ab1DP2UG3T5Ng2Y
-iWbtYzv4rFvoT6uom8pDDRMHPgtcv1XiePHXqdHTE2lDwZXjy/AG32y2k6mX3IiUwM+Dk6FLWOPg
-4zfS0PtwgBcRvMysi/v2WmdDUx9ysoVQITX5aNPAIAiXqIiBOBSnyzoMPfbCBSqlMw47gQMlxbDG
-6kx+Q6yKA4kgxHQT+uVFa2ln9rRNLSGy68zss+xMdGygRCtFrt46qp3PhwYs7BlOYCiq0Wwt/9A3
-lpiuOXKLVZuSJ72pDdBV2yIz6pjJPuC9p1Tj1dx3rlOm/P4uyg5yIARlDqly+GnV8jYUbEZkNpUh
-CEbVhmV1oLWhHoYQXv1WQQXmaVTz7LNamhUJsDYXW7eeDfCEUs26pdtvphcN7jZ746D5wBVlM7In
-1KJprrucCmNdEmEcbxMHjga7r5q/+mCqrhxdpsDXWz7dVqKzvBW8F/VliOr2pmkCRPWEwkL/QEfB
-NtaPZgpt3PaQaUyTj5aw6ubyqYhNeYeIhjIjxBd6P1gK7+js2W24yCQx/ERBAJkWjKv1jdmHRpkf
-0BLaUN4EiGNcKw0fshpzXNw6o4kHSWFZV6Ia72CEpagkwccgfA5lpMFscuznZe/HS3xHpqCTNQTf
-gEaEr/FosuVgj4ZpgrWQsUYKCARgOyybeKdY2tE4M97s9uzBMWlzGVZTp3WcG22XqMrKvu3QOtml
-9ynh9WRIMnnRRzds6poP3JMv7WA8uy1jmpKr0G2xGfFcFaucsBgKFNe3b1Hz2pdRKZPnoRv051Za
-ZCtbURe+8PQCoohsNz8f/RyaUWVDbVlTlRD2Gs1INdeumAJrbzhVcT2I2rt2xkVOwzE9/VSXGcRP
-5HfNW5PwU247V+otyAYnX496BjySmnwYnJhp/408pPoD8Qn5t1TU6hykk98A6kphzwzGCNQ1wHL3
-FhZTWq6GkpdmJ2u/QYZbmf0VbvNFxaJp8TaRj8SmDtrB2WQUEdMlWNXo0GURKcblFA7wv3PUX9Q7
-Oc9WmTrVY4OGpz8rhYkmy2tY7xHucMi+HmcdUnklGdrboUOwiHY4wZxsZwQ2UIaFFcVYjtMfSG5M
-XowMFe5tE/xOnKPJw3CRoLjjpuPuw8VNrQDpVhalh9O2DDuKMkb40DZJyW2YmYdVjPuupvSc1RwW
-G3q76f1czw3/s9mT1dB7mjWbcVH93GBTIHfmCOMwDJlaO5fkinljm7XpbdKegoE9o49f0Wf3/t76
-zv7AUgzZi5jz+xnaEfbfIzhEeik+cCVm9S0gcW7eDpnviGtpGXSSY6RlYh1MIcCSXKC9Wwd9iPzX
-mEZgH8ac89f73MKixQIxRnvN1vehbYQ3b6uaogPcUQh3SUx1rHYYCKhyiirqqF/9fvTOoA8hz/SK
-2v8YQjSr1pRgiNSnnlhkNqjZuMjy0LE3oTtV5HxodO3ogTCBqrwul4VkIDu3bWQO6BY3zOVU5aok
-wSEsMYI4tTbXLv4LrPliJsWxtN3KPQdg6H6lvuONI4SDerw1vfIRtXyCn1qY+nawQjA1JiiMB2uO
-nIo0Nt18I+LQUysj0iNt/raB71I3JLUDOAnnb/EUe+f5KKxm64JePIqer+YuHT5OpY09AmtedgZW
-kKC1vAVPvnYyLz4ksS/dXdb7jjz0IvDAhoR8CCdwJUTupgzXc56EcMErOKNrqAyMfNk1OSAEBmHQ
-hDvTe6Tutyd+VkrQL3YmUbv3YxLBP9f+FK5btWQBsZ2FMNJ0WhC9KCTAoNiF2ENVZw+Pyo/Kbj/3
-OL0JQahw39FG5RHz+eTbhaXobIqFrtaU9hSdFRARQSIOJihJYIugMnj4rZfv6XCKRY+/bYSZXEnC
-8GxAf13OGWyhuw3DYsTUgc0DPciYiIbYKJaP1XXjZ7OpuXDghTzKdRyh5Cc7m9NUkBEqNhAvUdxa
-bmBnZ4WHB4EfADRk7HTSJr4659nUxGe3rHihozkdNMPXeiEqDqnHB6QTyEmlp8ta0yAwuTD+f/+G
-YEX1wRwhh65QzyJXp3JFejiQO96zdY9I8q1g4onP8bHTSKiGr4tPbLHhjmFLFIDpObuBtEwFx7rm
-oENdFd7FmYXcvamJmQEP0w9fzWAR90OiEtOhyMCVHvIjZtOaWwT07HbeZZ0Nmb7UE4DlFXUuqn6W
-gZadeihrLB6Y6GAMH9/DdoDnZmWzu5v8ogy3bSnENyLDms+/7jucdHYUqgmMcpLeCs+2Rsj0c9cB
-SnLdlpbOeNsUZ6TUz+PuzAz8klvv45ZAqsSBjJQAOI5ICX998WNv+IfOzverL61chQgc8sBJZ8eB
-7FHV2JTRNStS49T/Y+/MluvG0iv9KhW+RzawgY0hou0LAGfiTHHmDYKSKMzzjKfvD8rMtnjEJp11
-3bajwlVZEg6AjT38/1rfIkOSw5BgX2zf1xXRrHVPwCV+fry2PBE8bPa8K4q23YgxDFyitJsHRWcM
-ffK71krhR79rfWq/dKLI7jAl1fSCYgZpi5tGgxrp5mQ5bFKh/ogL5FGMbwVGdGNRYde6oNiA/GVa
-WZnzQW12jx//oqMi+58Pitxf6uvmTzH+2x9UT5nGxml1U+cckl17Rm9N0traBmxLMgQ/vtpRKern
-1VY1Pf0hSo38z9urVaNRYMTD2zsn0v5qxBZbqmDMR0hck5y+BmQ5flK6fW8YWmhdKO7hC6CT8faK
-sFJAySM45pMuBEaxEtdmoNmbsFOnwzwAGAauS3yAbn4iPPn9whQUdY3Wn8X/aceqt9lUZGZVwDf6
-AiAx5dT5fEZTdLqK0rfNVHd+bdc1dMUs3H78kI9Kujzkt1c+GmN2OaQG8BE0AMNcRn4pksG5YCKY
-Lp06j0nMDODKsJ7JuLrLjUYMB8BYJFp9/CvWB/t2pPMrUDhKmioWCVlHVccWDBwbbr7AjDWUI2si
-iDOsysPHV/l9QHEVR0dWIUxEYerR6+XSse7UfE86FqMTqbGK27l2ggh5vLHwLX8ymn5/tDQ3GUYa
-tQZ65vpR3ZYJWDq1zk0t/NNnpacUSRpUvwOPMV0pSkarTglYs2TX+/iltN3Hd/v7x0rzkTkN54sw
-mViP7tY2qBrlCp9P03F87aagxRXGRKWCJvz4Su89V/bSGmI2lGIoPN5+NpWTIsGOaeUGtagPxFJq
-rceBdU3pUjg/g9eyLv6NK+ooaFWafWu//O0VNXVJak64MJwiZfwWzIoCdi8BUyWbKL1qgtn+RHHx
-3gBFSUJTZxXvmsfNoxGBjFHqIVNx07OsO0tF8kVltUPxyff47oVQ2zm0MA3e2lF3Me7NkQRInuVS
-WzWbNzT/YprqT67y3hujW6shIkQUph2blUZk9kuK/cHt+kji9JDOsk8i0WwmwEhXbaT0nzRP3huM
-VJ1wDqFwYIo9+sDNkgLqbK9DRBuc67FYiHiZQnhjG7zxWf7JdHLUqvk5qTk6Fv/VpGQwp74dHqXT
-k/zGTpD9dZi/xLAcKJGlHIuW6sxuV0I4e7Th/uMx+c4czmqlreQBVIs0iN9edAnsBd8kYEgbyN6W
-VxzsWioAQM6SbZ0BNa+Y+3eGPmfpJ7f7ztu0EAvrRBnSmaM19/bKVEbLyK750tugt5/I58DiADhl
-2DcLlbNQj4rNx7f6ziBdZzSUarQdeaXrD/plY9KOTicx+qAc0cnjleMK6VV0dfvxVd55ixYmNIYp
-mnfk10ebQmcOIBiu3xxVFOBYBUk4yU5vqS9vtW6NgdWwl5HlDTTlk/t798qsQzhtqA+hEXl7f4Gd
-zJR4kYiU6aA+tvOQLoT3BvEl/GLtKysLKKxRw7v6yUT6zlfC5VR2PLT6uOOjF9nQobC6nutiLplA
-oqrDxpwU5drBNPfJhPbOLSKy0pFzMZmZv+tBM1Uso4T2UtIi80EyEcwnGyMDRqWL64rgxcdUcz7T
-3rxzgz8746gp0YEL9egGZVX0DmBkcL28O1+Fx+AWVF13IYj0Tz6Kd8aoozMDoDFCBKgfKxdA+uTE
-iHODQSYM3+mAbY21/EzF9PtVVr2JStdUgsQ1zaORog4U5mIYBYiio/4yHdNiQ7bP8Mn28J2rsDnS
-+F8mTwQER7NnT2wN5WQHHPrqe6+0QnpwXc1PRv07V+HsQ2edFVyo9Nffjnoqg8PEIQfW9kwn5bIh
-GLT0y0bpok+G+XsXYpdLLx+dKyPh6MPWB8MIqY6zxo3AqUiwaIiCmZ4/nj1+nxQlqmAAGugj2fId
-3w1uGm2caHdRHJTpCXNnPG/oJHB3E/TdTbpG2T99fMl37guhF4U55FdMGto6+n+ZFolPQYOUsZfW
-dc7KTWRX2wqyi//xVd65MctmWkQkjH3ZOL7KiCYflj38ytCBjVlmkXWGlK7d2mArPKCZn0kT378e
-xxLzpxHgeF0bhNpbFg0rV2YKvVCyx2GwFiCG6amrSXndT43+7eNbfPdBrqJuFhkUD7+VA3I1dvRV
-mThHRexjwAn9rOyWfz7eYZeqkNvQqNvoPd++LkqvlK0Jw3X7TA2uoPzTkknS+RMvz/rVvD3aIMhY
-MSf4iByOH0czRACGO8RlA5kDof82yqbW05NhvMHf5OyAjFtemsJC8EXb5buPH+M7b47dFlJyiXND
-s45lVUOsxnWNXMstTSN8XOUej0vvGO02KynnuWY6Crn9+JK/LyuIc3hhHAcwjOBxe/tMo1EUtP2m
-3A30YtnJHmR2pvRzewZzMSREsiRBiopsRIfl4wu/M2TwNkB84gzC93dsLsIFxP617BBdRJ1yQXR7
-7rZVNf7jbSy3hwkPb5a24qKObq+sJqt37J5yfmYDVzYKNBFIAS0+Beh38pMB+t7QWZdmpF08UYKz
-3z7MnkWtsGekIKQqxrvENNauTqwYRH9ayXnRhPO5pFEGmjOcb//547R4jGitbIaPPJrKrHio6X3L
-nFaDpOOVW86mnDXT+/gq7w3QNYGbO+QjZB19e4M04yoMf7yqHKShCwJeedYnZKpzatT7SYFp/fH1
-3hsk60Heop60GpvWB/7LBL0sLXSSHmVOYJRV7HdGR3JBHMVq+8lo/Ok+Of7qLYoM6+6Dfz1WysXT
-nBLupOdk8wIhcht0O4RzlM6Ugaees2LTpxahGoPe2NR8yupbM6HVdeccjdsnv+Wdh7wqxzgN8YxZ
-2Y9e5SJC3awW9IEzMnaPDmI1zNtElJNvhRiGP37Cx/oxFloGDQdXzIRrMeBYP5aPxDKUgvp3Ajcg
-Ag6aBwlNpEASPRRhDQK3NCV24GaVbIpTlbLWg1ZzjAN4CNbBpFggi28aRPppn02KJAXIYLI6tcSA
-viXgZPXJN3ZsOP35gw1C59nmq6jsjn1EE1Gcoam2+On4mPNNPJDYPEIcI3StI+GNUHe6KXW7i5Sy
-wGeh1Cv/Yra0W52f23/yQbz/a3CgOaZusmQcj5vE7LJBpffpBsuC8AsxSvzTKEPOb6473aXMI+Wg
-jgNNIlhZPkzbxVWGmZDiKFH/mSr3zyfzy285OtBGqLQT5L9rGHQTbnBOZt4Yis/Oku8NT8YL/lMK
-Vcw3R6agco4JDjS4StjVpFcDxnrVmzo9B1MVngwEiX/yObwzB7BDM/kkWY8Ryq///Jc5wDAXtcSn
-g4ZV6vWmUQjutOZ8/OTZrR/V0ffPVVazK4csXuXRRzchr8ymntMHCpL6KUhC6de1CF8wN3+2wXj3
-hjjJYT6yVSHUo9cEw7qBFs02pqms1EfA2UHOEP/QkvxzMMCYwRq+FlR+196GVlAJrGkIm8LY3hbT
-ZPQ+57foM8/1e08OcB4LNi2GtaLx9v00HBls7J1cSOnULbaCxAeDZl1XUajffDxZvX8pSX123a5j
-RHl7qbydWuQ4vKSKhKdLO+iQlqQ22BGa6WNy929cDAUxdT027trx2mPkGHhMwTYa71u0JZgIMxHi
-F39Ap7L9+FLvjQg2fiyrGBbZNxwNvjErDbNFH8Y5RObXqRrbF6Y92J/MVe99uMACrLXmxAJzvLEt
-ssGkW8m4KxDPqiB44L8xOY73EWWvbdUHqf/xbb33uqgg4j4De7RaeN6+Lr2LojA3aRKCCEJNvOTq
-XZMgZeC0EH3ysn6/N2ow+ASs1X3s8B2/vRTp2U7W5ugtprJtdlFQX5d2c4LyztyrTTx8cmPvXA0o
-KftWxrugfn50EBl7nawMkC0ukkrzZNWK3iJiSshF6pcrMGXBJ7vY38eHyeznyHVzwjFfHF0vxlBm
-aEqJmsSqw6dKW1Dm6GL88vHrevcqOEf4jDnCgUF9+wwVEO3TUnMVADfpizGEzUWUR+k/HoW8H57Z
-OgotVu+jN0UPYAkrGx1XAUzpClgRjMOa0KkTIx/NB1EH2Y9/fFsMQZwqGGZ/9s7e3hbRow1CVA4a
-+O85AuTiO7z+f+gDZrbllGEwLTGh02s9rpAI8HVVsQwcGknzw3EZ5Aola6PwGmzchNzwzj55jr+/
-LeZ15PUOJ1X2rcfLIpjRSM4Drb4Z+vmZtSTBudqP+l/gu/+pDZ0bs+CwWbjDLWZ3Tt1vnx6cKG2A
-pJa6kd6VmzzNX5dqRAZoJsE/vSETpZXF58TBW6wH77dXClH6AiOtKzBQc/yUl0q1Sbvos6L/7xt9
-LsOJl/0E0DdsP0eXseBZ1LYFeQSUll4jaLET/bTV6n6+0AiKw1vYOlA+1VpW0y5BEOdcBYGBKLHQ
-6k8bcb+9RH7MOoVw5mc2oen39p4zzlIxcaYVYK8MDhKG7uiMUMX8k5LGO5dhf28yMJkgTUyUby+j
-znQxjbVQWFqj7Tv6+FroavjnWe1/vRkq7U/M8reymn9+NEf/9r/O428Nnsgf3f9e/9j//a+9/UP/
-dTm8Nl3fvP7r/KVq/wVQ7PtLF5fF8Z9581dwpb9+if/Svbz5N5sC7NJ83b8285fXts+6v1HQ63/z
-f/oP//X682+5navX//yPl+95XPgxsJj4W/cGcUiXj1Xs/00Uunkpupd/eVwYfiB+0D//1sP3//wP
-hvT6R//GCtl/rBtA0ELrIYZKE6/kL6yQBIEITEilrWBzIDPX7uzfdEQh/yBPDK0DJSrKoJw3/puO
-KJw/GEnrrpLdqwFv5B9hhY7XbpN1VJoUMnA4Ezd3bN0iN3Rs277P/YJyFSpKI7g1x07fo6wevv3y
-hK7+3GT/yik8Hp0/L+Ww82HmpCR/PHd2vYXFNxpyX+OGvUEb8Ocszvd/5yJ8AdT96VEdbxAAAYa2
-RbnJj9AuEVUP17VAyfVJk4ZjEJ/Sr+cIMg3o0FCQBwVE//m4DqM4qZqJSp19GyTI6Qxdl+g/Umwu
-SpY969yICNP2qgJRuKdXegu4dgzApypYFAiM7py1rNIE4/JdHZGykwmL8pwIg450DgUln24hko6C
-JI+uBJO9400GYSBWaNjxNp6DqfBXnT/cWVWR094wJoXYG3zZmaubA0Fjlcy0V4Fy+amIx+F7Furh
-4jug3FSvNjn4e8OUk4unhHkX+mJa8P5KsFLovISh/GjMsjwve80kp5sANctrRNK/ouFYdSfl0OKs
-QzB4M5lWF7rWKMVdYZOEovUpGtg84PTsTUvQxN5i5ZC4y6JPRj8XfV1j7CQ6G4zciG2tH+3Yp4VI
-lcfsCxH7TG0gcpfZEpmnqUb3o06NrodoA7yOLPehuJcCsxqNd1N86ziQnOjEOzrQJAgW4O/HWzFo
-fZl4FI6IJqsUCyIhO5RInJYY9S5UKzETtj2WfFETuOhuIrSC4s5g94NXWkm5ljkwUfCfF2S/hQNF
-YA7axZk9r/RddFuxQatnAWwbkzZgEy5lTunZ3NYO0ZpW0xIaue65rrVaNRYvKkz5jD9NaVepQHNd
-dIL461rqq3lrUFrdk8Myn6t13twjQB0Rb9pQCqd8LL8WURkSFk9o+8JKNZlEF6VZpXnw8abmVDOL
-JPU6nQ7aKS1Yg0dgGclroIVA5FOoTbq65p1OCBa6FWRYzYbXkpk1u6IPmy9TXZbPQk2SK5kv7YST
-w8zuo9SunwVdeDxO2Aoui0jMgR9Wmnmfkul6viRWd1rksY29WS/6eROEVn8ZyNmZ91XU2Y967Jhf
-mwZ9vluXnRL7cqUByYScGq00eROoqdtbJyzSm6F1rENJMgrxOtSbHp0wG1O8XvPq8CuVea+kMyFm
-gpD5Z9kCyqIWN5MyRbwEnY6QofsCHhLheieqJtplQRB23gxoMAR3vcQvZag3rQcDSTYEPGel5pqI
-UwdfVeey9WSj4kdN5BIeElvpiV5p1hOmhkYlc+2pn67ZR2I70ERWsmlFqV57YO6N0FOyMX9pxVRd
-D6VlfgdDHOwnzqUDfglTeQRc+VxqdsZHxnH5IbB6alJ9ai6TFxQmWx4RC7H6KMf2OqvbBW4gEm+w
-h8Eius0cGAFkqkTrkAUroXYKfVO9nGRvzAzIpau9VvSl5oEzbJ5aW2kDmkzJ/M0kyIMwyILNpxsr
-dqd6JAiEB3TkwbTpDbUNXQVGSLDBx1UFbophEIpcrijg3ierFlBf7fRlBOfPJrPWMNJi9i4mVw6z
-clgoQoNZ04qc7KNyfeulRcIMdM1ZQ/eL7+lE1GTQulGvZneRQll8m/dtqBHEmBAEog7Tsrij0+NN
-ZRitypZSr0e/7rMEY0ybdP0uNcf0hkxx3cevmpOZFWikBrWiLol5smf8QpOFQdyrYpwEfNWLubhp
-MhPnZ6RT9ADQTMN6mMZ6vAvtqdIAiWqm2JUJzTDXMpBoMo3N5ZMarZ9/OoTQM/gU7bsw6zt1E6NK
-VvCEsE/YlGmiKIyqBhuzoqdYEhtlsr5LAFv5Gca/8CaPguERBJx1aeWtbm6aJSg73K9FtCNXrpoI
-8u4cw9NbkKYoacY48ZasFI86abLFRgsWVSHF1XFmL51spFgpmlBYNIpeXGvoWr9EgcIvVVpp+gEY
-XEGSXx+hBOrFfZEGFpBXGrT+uDT6i0RMjv5B9PmBSlM2bMDC8h3gylVvCZ0WJ7YyULUOqjT63qZx
-+AQdnNfd11MeeyZWMGZSPScrpk2HhBSYFafutokjHrIMR5NMFiiodaSJi8omXs3jTO7Azo9VdsxO
-q1g/bPxLKbF6UYGZF4Wg4mfwbHsfYH90BUsun3ytGqov6xMh45ZQnDML1+Jjgslj2gR1EZPrmhUF
-OURTUl3w/zqtL8NR3E6pmO7HuOinTaaRveAu1uDgS9Hs54VRfJZVFRLkde8CwrytJ6SnyUwYKgaL
-8WtX5qsjaTJj3naYMTcrDZ+OS4h89i0w+GDdMDPESS9yMlKFjffYNYceb6ndNHhku0WWV7KttAvb
-ZoneZBQIH+3EVJ9y3Jsg7G0V54wV1PLEKsDvuuQSr/UjXTW+tQNZXRtSJeaXmEtlqw8/fahnWMyk
-H4T5Y6MNOeYectFvMVbMd3kVK/umHhEyRwtxERwnlQiWhKmS7KTxVV1XmVF8LZwq+zqSulpRbS/4
-Ug1k67iplYHciKjXNT/l+Hi9IP65BbOfRZjSw+WpIJXwEgs3VtSYjKutgZHhgOMq/aJEBZ0PFXk8
-kROa0mxzuyVfjtz53KD/DwnZw/cEapZcxOA8NAhTxCZkmzdKGKe3SjLQbBusbngYpzh8wbOBo8rs
-1eU1i4lDAUunyRrjTocefuzy2HLNuWN6TowxvyH5j2nQJDMBo0a+ELs9GzesVcSJABmoDogqcHYB
-nxtH3muAEWesCvFoYUMnAQ8I0NM01OO9IUBUeXFGWnArR3Kxy6VF1Wix3fLAS2H1zdQeonFiN9pd
-YIXq92qcumGPVb0mFi6el2uyV9WrgjwkiVAkt7+YslC+Yf3BGZcJnB7Ea9YQsVS6iGeYJGxGKk5N
-Qv4yyfoq5iHIkbD1CVbw0ujOldDMHoh7DF26RvFZHxrNw6Knw2aBvEsAshGejW2dXkr6GMXqGW5u
-CEiQsTfxdAw/nKb+dJljSYAfVZozgsJI/EArARybWLi7LIr1h7grO8wiTS5uCHgTwq8HCxDuSGzJ
-fZII/aJJJLa1Bad4dEqBprfcFH4QaVJxzLBI43K+J8XBEW5F4tNZM41iYFKM9dSbBx2RIVGxlTsJ
-nPEbhcaQuan0orkOLDX4PpcaHzKBDfFLqpvTqTMOfeaSQ4HJdxkUFPkm85DpSpmS8FkUTfRDLELT
-IW4t9Vdnbk3Fi9OmvGPZLp57DePLNlUH7TDlQgswFIbyfEia+lKZzORGVsLCg0UG7AHHTDkTHx+V
-N5iEmnviOOU9WxH7Jte5X3dRUGRvCSY0v020bBOY5VZ4CVl+jedhJ3/CAmszKpjGGUEQnNhbdXb8
-UIyjTT5rXYw/1FlMVxg/Ytz0Ttec2VbVs91N6mDwR7RK4/bjk8pvJy+hcoZgutbW3gDszbeHdaKe
-BTSyhJjVVKmviX13fHat4y6infvw8aX040ImsiFDgo6A8EaZ2zxmhCEjb8ICHLSflFK/FTIs1+Q8
-JXiubSXFk2mRGQH/YMZnnBkkGG4dPD4gsWssaqkU1b1mdSrSOvx72qnehOCEQmSqimsUqnY6YSS8
-pQlhqz7vVbz2ZKSbvi2q6tDFmnUxtUPygz5oe01tbX6WcpwTzyDYtgDInzovU69Pz1o84rBKqsm+
-7nIR3ZqNsXwlKj6/GXXRLm6C8053fz6X/1/K+KUewUt3PixlnFPAaP+1e21e4vbXQsZff/CvQobu
-ENhAWWlV0rJ5ojXz34UMIMgwy1aZisrg+ilo/7uQoRl/AEVWofrQWKEDvbZy/o55EOIPYINoNVR0
-+JyjaYf8XdH5q5rwZ9kpfC3fqS6AXVprlL+cyUmBM2iqoJSD7IXQ62cL/JcO4jAVTjMXhNXNsSOu
-bEkzFlg75Jl2Li9EJp4pqFxii402Gqdedprk7bSd8ESf7Qur117qZSSiwI7DbWU1+EuxOLq6svrC
-cs7xNt3PjT4mAeVR45b4AhwCeVlc8PHFZ/BBdFfvspS1HIIKVfxko4bWzDgXGQfbdk8I8lXdBjN6
-jeRySLA+Rt38pZ7HXWuTrDpEtgKFq3kgM2bazEMoAGY0gpMEp48Yxt1dRToRcPkigGMxxgcjSWzW
-huauxuV7CgzO+CZl0LIyFNbqdhS7VJl7d1aK6IXSi3Fjp5gxk0aa27iS32VUsK0zwp0qOzAZHGR7
-HgvOHY2i4D4CdOBhv3iqlKw6TApZZEkcsqElvZiQPWHvSjY+F0gTL0PFylc1rLbL1rODAej/eQgM
-bjqF+E/2LoZjjun3dTXetEEzbrvZSS5boxVe2FOrZBFXOJwq/SZdYkC9vXFNJrCE8kpeQh2l6a1U
-cFImbaltWrPYztTGCGBsx01okVJVN4XuK0W9SQyM/pHdgKhakk3X2kShLssdol6FtV0pXfRwjT/N
-bXGIMZ2y9alYE5NEfinHLtvONaHEjsN2Bd4uIe3p+GXpNLbXRpRubLZVJxwCDlD9wTUg23A2OPhO
-UvAWD9rSxD5wBiKHNY3dVF5Hi098l3Ho2Xf6og++Nkmvbqqur7/YinIvVWMzmua0xc/9Ja/mq9Du
-bc+OFXZ1bEbdPhIPoutV9tRp5dlz/2RPxYOSmbtCnx4MGHHu0nEOdsh89JahORmnejggKMPy1spm
-PzlZcKhNzstzOiqru5SWI6T/5ja0jGVr42ixne5B5xq3kWI0e5NEpBe2KFc9GEW3YTN1a0VVc6aN
-3TP8jLtkkveVg/V1IaZSaYiXLXF4439Pr+Wk9D9Csp6aw8R20HG1SusIniwpqx8QaE/5pqcmbJ0m
-+Tw9Q0a2xaXqBOWFQXcSTS5lrPRyWIL8srcz4tI81Ujt+06pTC3xTPBEphdCEMfWmznKZSXbbHHp
-qiNBRGDq4ELOKJESIgq5YxMFNF1dgwxS865IdaQLSSNqi3ehReTszcxf20WOpGsOsZZO7hxKYZyn
-uHEuUfqE1QVbiTiW9AREZQufamlab4lKivIN4DBs76iNtfh7UxoYui1l6UJcfXl1j//RvJ56BIXw
-XuiBeqqlYHzBQA58iLyG8Qlv3BCeIFSOL8LOsKxdSzDESaAoheKvtT4URwugauwIZc3nhumRzz0N
-svrQDyP8JUufhX1IR0P2Piej4BYYixP45lynIGucTP1iDrSGqAhV5KtZVV0JP4LQrG9TvNfOPk6p
-KIPKGAUHjNqeFnRAYGuoxY51r5KOQoo9u7Y5Qk9vi97p9krBAu1buW42WxEFRr1dAoSFLifzjlwq
-CXxka5gDhgpbVRIkWxHFWK+zOhtqC56mB3WYW8WfgqpcvKUq5F0bEZPO8XKmPkdDZIbnk3V1fUqu
-HnUCzVqmxtep5hzKKMJZPJtk1YW5HWo/Eo1TCfgYO7oe6NaCQtLyqXFDVOTdIbNSB1gHvcbugvip
-rsKQSzDU+TwWsXLROEVMsQ2X9HzlqK3d3SoQDEhgzaXYo23mBZdCDukhDQqHUEJM1c4uaxRQrcKY
-xhdBOvwrZObgS+pEPJDSiWdng3FlXnj6DcQhtoq6/DaMg3HlRMH4MkGmejFGQCEbM9YH3U/JTey2
-BWurQ7KiHYsdx8tBPx0JjhDb2DEquQ9tFo1raoBWuqkolsyePkkO4zYpk5xfQjmBnpm6y4a1fjsI
-ZdhncjlVlSg5TbsGrEXRFdcyrC9ikEG7OiXxPRqtaUshprxERYWSwlHHSyqfgUsmDHXdmQO0B6Lp
-RSPqZBeZ8cXUmMpudiBjkuCunqEvrDZFPh1Uk4+tACLktR3+wmkKfZpmhV+3VXuOGnp2F63nAG31
-bBupGXMAg1RUOcGuamLT01Mt3qRTX22GMr/JwuE61I2AjV9OSbcAL+PS6mjO13IOQR5qlipnQWvs
-c8EUPVYdujSO2+ZzCqRp2qlayGnNrE5KxaGW7CzyUIbKhYS1dZoq2a5Zi5lDtAmD4jyaKvW8z+p9
-PwQvlFx1KCflj6ZCeR71U7El1/sqdiiOqQmt6ZYqo29lhCv3XcCcUJJrzgjNBWJ43QYBo1CXJ3E+
-dgdkdBcl6W7eHAXbQKVkmVY6R0v5WIejelKS/MjqaJ4HhTXty6Iyz9O5HvxAsF9OSrEHC7hRtHxv
-Lpq+b8aufTUXMhdlDKokzcY94Z5d6SWdArOjZ2lOKusB88lto6ndAQbbhNgNIa9oY8ft9OZrG7Zp
-58tp+DJSCov91UswbzqFoiIrFZgBr6qawDeGnhmDTtVpMkJA6nslvpHENkVUcMgI/q60WhOeRAkY
-AALW7Ew+1LlK7STKDbHsECrPJlmMWncqFPZmW8tZQO3QZBmw9ecpjvU2q0KS4Gb0etegJMwVq0BJ
-3AWYNbJawqOPnXIhbMW0hlODVO7UtTpizxPCM29AGaEqIvya3npuaOXryO6r2iLal/Kqi2gV+308
-w7pA/VEVpzlO3H05kahH6KBlF/o+jhZNO8HAgAtwTAVm/Dh26u95TiiFZ9ujUu9HzjA800HI7tC3
-dTTvqp6/6FAtJFY1blKkxvBUAC2QOyfC99lsSQc0mKFFDRoviiCL+AtVneRkJvFSo+mRsfgWcETi
-PawBiAd2YejRKRIi+GWJmWkhWxDagg+LpfFd6aERkhQhwtZsz9Hs541b63FB8uWsjv2V2kJ4o+6p
-KEuwscex/9JjHiPSSpXFtaM2C0QOgw729cye52ltpRmXpWnB7Ehsgwz3oujKhWNXEVoUaaSEkSxg
-F18mtcVmrol6Tpggx0p2h+yoqj2/om1cQLB2dDDVmJjMka1Bue2sMQ7VTdpq+UlCm4tdQ+dALiDc
-ObrL8zld/Gqc7WyjkJCjfBFL8yTzFNSfSkNkoG7EFFlvNSB8C7iPPaQ79rQti5DlpERhRZQNhri/
-jQ3iZGuhfXMi5WsaY3hE7BILoC2BYnupOYHbMgJ+JkW4TWKXd2NnnpSqumHf5jsEWm5L3Yj8UV2q
-Xd5We82iwC47J7xLKG/aWn2ukfLulTnFSdnmw468RpA5EAxNvpOtqRjOwVAzx0NodtLX5a3Z0gQY
-xhUOsTj7PlB8kjAu20aO1zzghygh9hoy8qVqpyddbULTIMubJa8+maci2Qe9PLAlugx1rXpiGpsu
-ZGffooy9IaZh2+vGRhItvwEV9KglGqLjtgy2pUlrr+7us7q6ap1+H4nia2aXuS+L+EZE+nXUKjBZ
-CBp6jsMCugbSy6qKT2a1q/cao0+mka9Plb7Vkipy4bpRKk6Xr9oYnGe1vOmMQHN1azgHQAeJzHJq
-YuQFDDx93RGZzoNRQz4yyvLHQs6qH0iNswroo8kaL/BLnQ6as+uG/NxslessT+4Xq73QZ6qjFNtP
-IMF9q/oOEjhpZm4c6NFOjzo4YnX5GC+4ZIFdqC7prINL8lb1deibm161vqBrirwwHM4jw9lzltq2
-YX/aT1QNaZijRm6ss6Vo2Yz2lO/n7oJe5rVVUVSDZneVOPKasJ6tonf3lHNI+hStwye6wODrK4pT
-dvfIUs0WeUzOekWL2ebZO7a6jyVIzHquWcQRm3u1rL15HDf6UJ2IogOcprTZLnGq74GQzS4c7Zcm
-kLAMYZe0BJ2H873N0YhimMjJgJPfJ4dNeQUuRCfqFhTH1yFzqL4XmbYz4uwx4TDE2lIN9qnRmQ/q
-Ui+vRKwOZ4ER3zlL0t2MrekNqgEQGppfXHBsnaZNWAcnTT7fpbl6WiwIwNoiuBpNaycL84ymAMLL
-dEPpd7if+/5sqaarlIPVRW1ZN0bWJbTxhcpUTyc0aSb7EPdJ61lIrJ8JMSYZIam+gFDQn6Qx3seF
-1vrtICa31WOOZWHWeDIPrsibJxLVWRTfaVNxGggz38ytxuuhO5RuiXqer8i3uyI+t/LCVh1PwWx9
-W8gro6VrjmcsNpVrTTN9mGlabhp0ngf+DhF6xB7TOjL4hvM4eXVqxfZLYyjR7wU1JXGn3y69bLod
-rK1K7MZBA8DCatvnD2kw0XRt0xZqpAFBk6jUuTWA7nTsoi45xU3lllpo3B/+DBg1gkjds01PKr9r
-ADTt0ngAN8Oxx6DQDkxhxa/Y9mBuwhHM5baEr0g3HQ9ryi01wGMWZwa9oqdyZSrZvTSZJ5Tx1u6T
-WaOf1a4cnIH/VOSkvZ1NtT1MbJfC6XaYAvFED3scAfCtcCTq8vFpoo78dDLD4yL1WCzsxeutxmTD
-1szOSYpa7rleUNJ6IwWYijlhTgjxlQu72abkrhQivf1EGcetKqNkjROuhuZMxnCl9iApIY3KiAOP
-M+ZsyQm9YUtLN738HgTVcAI7jpcjCpJ7q6oLr1Oty4pTaJj6Dz3U69sihAK3VcywZ1M7OYesrTh4
-VpP6IrPlMTT05KqtwXy6JdSdk1KM9rCdFkEzbajbk84OruA63AMrPEX5cUHGcZX7TSfU89yaHHrG
-oya3taEEUK9k2Gxp9l80OqFnlsPBJ5l6eK5wZIF8jJuEekzZxMLLmBcIdqL92sAr7zWoSsuVMWY8
-BJLS9Mg8E0DN+poVM9f7HQrOe51T4GlkLRdKSUW9WeNvM3oks7ImAf4f9s5zOW4sy/NPhAp483Hh
-0pCZFK1IfkGIMvDe423mWfbF9gd1dReZYjNDPTOxMbtd3VUiRXOBa88952/MedviZkxBMaGm2+bH
-EuN1W9Ww8Zgk+aHDMsvLF/0b59BxUpFHq5XbydSjYAf+gjqdpgTCF9EqrNtgFuWAjH7chX7W9jdk
-toJL8K6oFClCOt6FJV6N3igM2U2J8qGEzCReHpT+shq4CD7F3eWaqN0sqgG4rqQiwvuUY5NeKHp5
-EKPZL5Mo4v4xyCC56jKVv7Vid5RJBgVy6XbUu9aiW3norMGnGPeSyPC4RgQ/bSTcntCCDjfULyWA
-L0bEzij7HEZfc9IDhB4WZnUhRvCOYso3XB+5+EfkO+AsWsqhLOZHkknfhZCKNae1+EXVyn0sDuX1
-NIF0pPg1bjiel+I2SetVpGisFf1TqfbcJ8N8Db2GFrFJruRWgyIDusy2WOJ2TTlrTL5w+6F3qBEp
-eIjrhGKhqCDCJDYy9QqROlzqp1mG+lSZ50gilUJpesShLH81NFZ1Jbi115zd4eQ0dV/4I35V/hJT
-p3QDLu4ZgBll/owI5QAes2ubb0Wc6ZzpY2ui/pTmIws6VKOxOTR1lrc3TU9t0DYadP98EvFD4+Ez
-CehRb6Fnf60Ly3icozURF6mD4EEEGwtHnfG3gWeyakiNCi40/mSmjYhfcsJJ0SrC+ILxuCbsi27G
-OQGDhRgYRsJtVcRIXIK5e0tBsLuQsNH+pKIO+SOuEQ+KwtLY5qQUidU70npVJX4tFfJxNrIEwybH
-JfneQH8REvP8qZrbwc5Dsd0Zff89L5fcGZlAftBPhrSnUoZd6lh5TSl31j6azGHZ4nDdKNdod07g
-ziWTQ4HkYEpJHgRWsh8tYR5dCQpkeNHqZlVtOgLWbxTE4hEUtzn/qPUQMj+y+6vuZ5rioon+fR8c
-R70s9smUBqT6C3WIsUrPDWWXKiIYl6WX2umixZV0ctOaDLIn6BwaYLfFOCETg4WTHefIee2rjESv
-J9QpGy8mWsEVpEl9dkqxVB1RM6dHChHWfTTXIkaifeZ0CQqhMdmqYwbS5SEmuCgXpdmJcU5miRzP
-dzVYuU5iqCVfRkPPNuiPodTWjrp6P6SZRM1D1JCDg6C5X+Be3iqot21ZCZZFNoq2XWki9eKIRWRM
-l10pRKvamxKE+cFAAkC6bRNUD3z2mKKGXQ6hc6toMbTfYeLyskvloE2+LI1Y33IdpCjJxbVePmXt
-GE5fpqREnArA8KzdaYOoZV7TiP3iN7E2Ldu0KoTssimiJCNzZ6j3YyMWxQ1BcFVcK+YcN/fYCWjh
-rgtmaawpF1sIq6Grniygx/DH9LoFd3rK2oWlJTYauflyaeoBfYD4PfFCgNV3tC3KctV9RPIzueNV
-0IPF5LCXEBpNGWjIqGF0nbUlmr7smulTAP1PwNFTFKQfmlTnLzFj84PrtpQ/1sDKEFxEqRCL2o6Z
-GaFE9YKFal0jCInihxt2Is84ypQHQGLAvLkKULx9UTFTGj2BGUMyEpbtRYyxrenXNaKhDN3IedaF
-pYUjbJqi44fWPtXWQuqU24ATSPpEqNeAEIGrdxkK1mD4LJNacPsRigCIAhG8haGpFv9Vi8WRgFLp
-HoKd0TW3n1gn9bUqyC2NxPQUZiRxPcLj8FsbKIFlGwK0rj0bm5A6pOYWdoguYFNDublZnzmLO09V
-e7ayKtDb6YjsZ7Tr4U0je5cZ6/29j5nMnZkkugeAUBxcUoUY6aLJjNSywco6gurKwqtJAmK6T5Le
-QNiBGgCYvEF/lPvIeALMoN6wRxAFGpXAXl8bhP9d5NYdgZQ1Em5S24hfhiaMPKNr+uNS1sshHGbl
-JtNiyB6hiTRdTnbHHJRdjRXsw6wH+F/L7ZaCIRgM8p73lKr1LREHYdISV8ExUfA1XVqzJ52J9HG2
-1MWhlIZ0a1YY0Uur6K8IBaPUzAAwgjIfKVMjhVriOlDKgc4uGKrHJojVvakKklNpyk4wl++5Pu7q
-fEatkdv0MuXwBmWrcudOujMbwEwjLvFPulQUtx17+HaSMuq6VXfTmogH1+aNSorvK+40d5aR7TWR
-kz0jJnF7UdZvi868DK3q0AwCfpDlvEHCD3ZnbCBciDIk4MnwgQLwtwFvEB8kmLQ38tUrLEmSmdI5
-fWFTctYyCKFdRmJH0//GO/t3qfGk1EhN7p+jpv9X/qX63/9xWmTkR/6OlqbIuAosQSZCGATFQQqX
-f0dLq3xJl1FWAHXLlr/SBv4sMqp/qJCPIPBT8UNZC7HCv2qMEuVHvrKWH7HIkvnnd2qMK37+rwIj
-MGkS/NQ5JWgAkAvUta76mqKoIDKccJACOwwxQtxEiP0SifFopYcYK+VGuSik2V2GEpybKKzAilfd
-9V6R8y1oYH0CVaXIQOuoa6FEsz7hqxIniNagT9HytLUaM2UwF/UYbGdKhs+KmQePkdZiXhCrufSo
-JWWMKo/QwpNNlTr22lkZET2aZU3cND36Y7uEmAfNYRiELx8/5luk98+npIZFkGewX6+o8rdPKXLH
-aaCrUL7DVO6mg6twx56ebD5uBYzEm/EAxqDz23EDk6n3QmYy1t561RthTOaT+GwhZmiCzDakFj++
-sjX0r0mn4p8OThgjzkCCqW9yWb1VrXG66nBqujPNNq2Rro4DHdA75uCe0CJejJcFilhXVTpb+NuD
-TFH8cDIU81IozFH6FFhzpB5iM5zkW7WUZtCQsTAjUUpFs9+FUqksnliCRNnrySAuD6vFouxLvV5+
-prJeKM4cprXloDiLbCbSoATNBCCpMyLnzN4pVo1+PUrRYDkmt5ziYkIdZyAuSJfBVttMDXwTgL7u
-i0glW26qUS5xx0YmsFGVgq+WsAvHqznBjNwhYMswVyAi4gg3C6ONbPTpRWihUibl7b41IyN4QDN1
-MhzsyIkFZ+o8W10dwP9FrVp3u0JOusmljhjE26VEaQTco1AtuzBdOXEZN7rZiVs4iHaJHXHiEMVF
-5UbAeqBxYk6CeNeqyPBzpe3SAxMWEXH03bknozlvkADrxBHD+LCVH/MkRMVXgMBO3tRQUODOwHSK
-KFiZyaO15FBn8d9A3Cke51k+4I85pF7b5osM8WrRj7gAC59jQIP5em3pCg6u0DS9FOwoSzNBOw0b
-e7Bf9tRYnMR5M0gtwtGj2DwUgMGsHaq/cuIuYGMbp1YTsXoIoW50x34CBGknXaPe6V2TqR65RcHa
-Gssg6rtMWLB8GYN8Qsm716v5OV+KLr9j9lejS3rBvK8aRS53VP1HkIBpofQebrX1N41C3T5PJdJX
-EZDVZkMqArG11JKs+hAL2qgAsop61UZEOCMWKgbsElJJVeNPOZanhCH6yj+XEymVnBRLM6REwE13
-+A42o8bsSZQ7GVpZ5ImBJNaumMaq+TCFkpo/BKOQfwuLKjHtWs0GshFDq95TbZsDR0HdnohqTGeZ
-4m+RUULvF/MmkMroMZE1/auY17jOTVGVgNkvxmkrKkskHMda13swqlH9aEohAPpWGdKnFv+6m4x6
-3zc91rp8W6GIfF2No34dlSKxS2wOzVNoSs3kyFKr78XQMqZbvHZmlkTLnWKDfYklbkbM02pPNMBT
-clG2Gm27kGxnSM02fyglo/kxzIuwa5pZlLgJkvoBVY48tANUJaxJtJIP8DVVFo7SnFLuACarfQEe
-KbDGEw4ku+rkWvWqqB23SdIhNtCsiS7dnCUQk4Sum64L8wn5JeTLSYvMyJmLEWZjzgDLzG0Qy+k3
-I2/zpGBGmjmkIRZQ5unAAMYIlSPWjK0rC6wZ+3RH2ZWATh1MfBPbKrBCu4qncXDjWWinfSj2GXDv
-pDC2KbYxqF/noym50DwwaJDWppy+lKnnF1IfqE4Dsl4gASwzBVu0Y26gwsqfW6UEki7PVnsPTDS8
-17Cq/xGh7nktob5FbBeD0PItpVPujVJ7zHQ5fkkR/fpccmFexay0mcu5APsfl5BWgv2PpPy4Naop
-PvZdlBiuuETLuAmUkZKw2beoRY1AH2qu3Vof+mNYai8EzSq5maRPcApXDGGTdUAEwcgUi+z1ykh0
-14YaUD1SL2HoU2/hsheFc0TecNaMB8mcrHFjxHlzEZPnQttxDFfQ5CwjRKKpFWUddKjLr03Sdt/C
-XpKQQKKgu4chsLwIuKE/mUIWh5sJCMpXaxjHr7AcqLGOdWu3A6r6CJDl8mUD0dxdJqP/NFtV/ZkC
-w4tch7HqoCGgPMlkuINwvBnAUH81mtrYjWhVb3ouIYi+Lt23uWngYtbTjMZlIZbCgwy2+Skdusgi
-KWytimpzWD+NJKgvrHBBUkUu6/C5p9xN5SrogTYrvdy+FCirZ16UhPOXKG8v9QmJXT9sdOk2Tero
-pbOwlE6VJL6PgQ8kgEX6gHLTIpePFTUTrLtp5dixOMlWcA2Tn2e97PQVHDuM29FUoxmYf59+1xOZ
-wquZUr5jQwoa1Q6MJs3dKrLQ700hYnxa4hh93UIgx28rsVLcpsBXar8JSOuHhaxXbjYa2UPBPVm2
-+wzkgCtY5IeZwaF6NVpK9U3hzBDsqU2Kb5aJDbujV+lg7iXSoSFbe0ugjdj6fFVGQz9THJBDcQ8D
-1byZcI6ydisM5Sqtgo6yqAGexDYGhtrBcQOA4qJpWXNQSO9/ifOQeoelDCzqBZdXxalCGWDMmJqY
-ITRL1HzvqWHC3y7L5LFTxUoEMV0nxyKJk0+9mABvDAWps7zQWobPOhActlDAONi+wOKn8pdE4XUA
-GCp3LKMaJBetYbm4TI2MZA7G5YSCZTYl17OytNBIRMt6YlLhDP8z0vn35eHV5YHTYyUf/vPLw6fv
-TfElf+m/lq8vEH/+2J8XiJUbCcWWKPnvjMt/XCBU6Q/0PizJWAXg0P3V/6Jbin+gOYTGCTyRVZiQ
-D/+6QFh/ACjRZSjEXDtWnKL+OxeIn7TAVzcImpVFQ4FOiLg+PF1jjWhfRawLl4dCi6TrC//5KvTs
-3cbe+Vf+zvb9g3/DPzt7w0e253mh7ey3+x/byhntH+52u/0x2te3Z3iMJ6pAaGiePA8j8Pp5VBFX
-ooTncR/dO39je463dV8N0jtXFu0tU/LXJk4uA2kJek+KaeKwPdiPvusPtr2znza+fWP7tk2b7tZx
-3QvHvfCvHdu7cM88gXxyHfnlJU+o4GRfWxVx5euDf/W88+98+tf54mz3zu2ZlqQToPUvL3tKo29l
-EDaAy64PjPAFb7eO6/o//rx69g9b9+pg7w7PB//5cFXbrn84PD/zRPblZmff7G42u81m4202l/bR
-2zp752LLTHi6vHS2jm1f2s5xy1O7Wzps6zrXF47t2Ftvf+1cXLgO02X78dCdmx3miQQQKfRM7pgd
-vnv9+HIV2le293R0RPtct1nrCHywLMyTi3U6GMYA8e36wj24rnu4YkkcWBU/J6Tt1/YVY/bCqrDp
-sMP6Fb6RBePf2PzVji+u84j5xHKyjzZf4qN1Mu92myN/bm/pS3fvXB/oN9bbwV9H33Wdo+P7O49v
-5PP93nHWOegfmCNX/tqhkb1lxPgZxst3GZELvpHefzxcrYNw5fIzH3f52Qm0rqZXG4QZBqWAmTar
-xecdeTp7c3B3P7vC5hV4Kv7vnBkAxAjODMC6hF41uxjgacZ1pB/pzsPt1lk7gQ/cK9e52O0OTLpn
-Ju6Of12W8G7jebXNh/6WLj24W//Z9t1Hf+P7z+7u6orhYE+7uglt+zM7nE8vMk7engXxaN84e/vn
-bNptdle7m++70P5+s/7Sl7ur59i+W+yX0N4x3XY3N1c3fPr9Ozulb7MIjrcsWv683t56t9sfDOx2
-e2vf3ex2k22H9oZV8/nyePx83G+9+91+++322vE2zrXjHhzPu3XtL5frCDLPblkttrffX7IJ7Ld0
-t8u+83Mj4s1/sCEdXFbXduvwejtmzIWz9Y7MhJ/f+HDLX6/r89a9uH58dN1b59uZefAWy/7rRnKS
-2mhB12HUyoCwhTzSEUwE59JhojrbC57Vcc6dBCsS/8M1eHI04aOlQDenxasd09/5sd3FNgO6TnRW
-3BUvybriU5YL/7H3jPz6qXvl37l3u5uD+1gy6Bv78eJlXT888NXG3tx9GtYdnmV6w6Rxbj1WmVfZ
-3vFLYu+ZZ3vXlW33mp3w2bLvveO6rl1763ocBfZ+3Q3OrDBp3bQ+2mtOjjxY+HWy8J4H9/luty79
-24+HDtWoMy2cnHic+5Ig0cIFE+eKDWc9By7WvuMt1w2IqcVEYn6xcphoF3QV05tti0/pD762ZU4e
-XG/Ph3y3v6P7t3yV84OPWQkOa8rlvOZX8uvXb/FLfn53x+CxWbD2fm6Ia4s733nmW3gE22EU1m/n
-E89el9OWdvlefuOnzRW/niXAr2Ip73beutseDo8u59Xuzqaj+BkOo3UGsnPycPw8v2/9Zc4lH7BF
-HHgiliJRDeP64O3Xb/X2O8b/+HPX4q23m5KXZ2ht39syn9d9ft3DebYNP3njfOG3suic/XFd2ms3
-0VHrTzMxcnYchsvhrz8esrdTX0c7TaRIgL4TniYW4nPrYny1+2EAiZkGuT07xLbsGC5DQA4kHy6E
-SBs8QDtcPabpnMDh21nyZ6N4mZDIlVUwmSc7PYi2ThtJFoJ3k9PrtFoybzFn88yrvU0Y/70VoPCa
-Qu76bzoWr14NW40QDzZeLSKBSTHXAnPOZRFzMVCF54xh3nklCfElY+1MBUWRk3hB04PAWGpwkBKO
-p1De82BTolXqfzxa77zSm1ZOgoWmLGWBMQReCt7azsfKvPlJt4mAEf2moA4Tg7sCMqsiWr3cAU6a
-6nsp0sksA8A3LG3DNVoEKr8Y515I/HUCKmjac3MBJ4MVg3qy2y/YU63+BTBKa7inrhxhRWJX2Np+
-zsyweBDiErRaBHxU8FFqHA6dPMhYz9SBiIxIlwFNw1yAXFEqJNFuVnrSWzVgUq8LYlmxp7EnAx4W
-+tB5lYExJzoTQj1tpmUaE3ctukLDrsQkv44mFfwmpOZAInmmI59uCmJZu5lFDwNmS/uJZDLWtjal
-TgjAZpZqP5Zy7Asvr5p8O5O0Hb1GTwGK9wFiZhsrk9uHEUGtaC/Lg5oAwGDuTYjSfSNpbDXOGAU4
-FhVA+QFoTzl00hGbLgnehEqarBPb4gr4/vSgtEpeHiJhmVEIwVqYzKk+snoUqP2j31JPVe1OxR0Z
-nnkYkp3UoTO4VH/rxhUaDfZiEy8qdoVATu7xawIJn6uRWThoMOOvgQQrWAdDaLIGM8naehyirH4q
-GxjO8J3qcrEDGLKxE1P+tzwxstTDlFLhAadd1aR/I1CfXpqaEXDMLLW+LWIvkhyoSq1wClJZuT1P
-fQvVRsxxuw2CJU8PdaRiemdgDav50LCTa7ShcBclf67/0PVK+pEnABRgWRuzdZBMBIm9GUUJSsTA
-649dKtXKNitjECaUWPXS61GcvALpNZqYIuTql0IOq9sWMZUnA+eyF6DUcKKMxhx6F0++BPSWLiYH
-kpyZ7qmoYbf3OMZGoa/D/ZicDktgIKOTVv8ougFITdJZI0tbVovYq6oFZF86TLqD0gdPUKRlhF0Z
-7AfQ9QtSG41cR6D2rfQoFWU+ukuZqoUrhhLdEjN/BQpSlH59xRqzp74f5NlJsPs+DKYI0yasc3D1
-SqUCWRZALuo12U3PyhQr2+bVkH62JgDzJPJRjHCachW9wLanSOwYWS1QJUpq3eZtWTX+bC7YaDZ1
-HIfUWSaQIYpuHig4gIKdCxOSfYrtbu5kY9el2zZKp6e6Gzp4RJKVX84CnrNIyNTGDzWtQtVmKnTF
-UdWwIdul7QgWJZCy4ZrMs/U1gy8VobcYjx1eI11+I2hVk95NA3PE4wQR7qcZEB0MhKF2m8UUrjGv
-KQpPUNR+j7xuXvimYFajbWkdmV+EJGA/6GKdPJRxbWES3c4ya3Elo2MlCisfKKpGISYPZ4ov+H1B
-+AI8rtmRqgKdahqT3pK6pL3WKbfCxZv64lo0Y2OwKbMP0bZpjba57JVOWz348lJ0g0nCMhhjImQO
-hg7SCJqORkvGmEr9LTo81udEjOWvUiCZOMuLWn3bFs0K5xuhVdnIGBSZI8qTvO0CFE+8OrX6BsSo
-QFYRHxRsnskM1ltUs+XnugzM1J2xkgZwVyzFZYPDAut+6MUbCAlstVYLetVWYafdd2NE4QyszErJ
-nozivgVRA7emVud4Syl0ruzYLJrMLfu14DWyp6C/q6TZETm0ZoRYGfW1204q7G6Sl0B4wQLGFham
-TfiUimP9hJ9Yvrir4xb0kXAeNRvKV7gaXJrRC4L+6P9UatPnbhnFwV1fQu1q85yRWKoF/kiANDJ/
-Y4565IYKWss2ejnS7LCiwtaHhgG1goH/IZPVvAiAm4C6FpfpDqCX/m1q++BBkwKr28GysEgJ13F4
-Zw1K/EylpH5ojFFb6QOz8A0g1vBFSFWKBBGAmFu1zhqStY0Vf60zZquNMYtwj0x//CVKC1SZtSaV
-D1mK7ITdSgHWVsFQmQDl9bi8N7D0Rf/WVFtkcvQw3ndx0j8F7FMkdsMxf4hIbt91eT/n7rR01U1E
-ERMzRTyeUG9AQsOrqbYch6EHpD5ygmhg3RoThGcWoRMOoLX1o6ABWEcHWJguSAAqnaG2gntgglBh
-pSQ1v6uZlt8CyJEgn6NHDf5ODMJ0A5pq3DbCHPZb1g+HVgwd4BhblYw0YdH2jokN+rYMVXhbY88q
-38Eg0u4F0TI1v0Pjwk+iSi32Btx4cP0YBH0uQvqIfq/7IxR2vd4FYjDfmThHrr1ZqrB1cz1BRhrn
-Vp2OgnnkyZWgaocsqy5myuiPbTSsrhjQKMCFV22MKWeSNgAaM0juDjyu4AKZFK3eC0NedZxoCDHZ
-iH+oO00BUuoqsryYYOyR6d4s1jClTi7q+LsJphYaPqQH/QHZRFQ+Vqnr4JgiVXyBI+0s2nHdw+JB
-6rf/0g2a+thKY4KKUaUBLtRkHQWfJgfypkRS9LkVeTRUsPJoAxhBg7S01O03AR/x2tabKRjdISkQ
-PrJQMBqdocq7xbHUGQkPse95v7ENWT91h7OvWwtG+JWNR5N3YioCku2rEuB1EWFrHCSW8BIOAZNL
-hG6FQSyexzdIHoCLSnWmG1wQytbuDDOvdcTFAGpVqgXgThzUKXyjEQToMzDiHj0Sa1UYEIQ8wi+T
-bP4GMi3kt1CvQMhFYdqEPh6A8HDDWGBbEHRewV3AO9wZ7dzBcAOm/wMn1Km/5FdFd4iZT7JjQKPq
-Dwmk76sGHzvIRdQPqZ7NeBJsoBdGuGrnGmo0eWSVjDlCEwLdMhDzkRUWASuNzWLgMZgjhdLmrS5v
-W01u25uwaMwrqcMtAsBXmF1OlgQbGW7UcDtPSRf4clmhOsJEknwcT+EyQ4q0yoTSrlAovGQjF+lX
-owIu6U7lEt3PYYzj7bCkV7NaKdexAq+FCTvARZoBymdIVxR+uijfQdUy5B0s1WtTIOK3UcgRJiek
-4H5bYPPdO4MV6yLxN1OlCmIzc2cpCp6TqqXqpzdCsjfmeeicriyoQeZqP+p2DuHWckB+dRqITyXA
-4iyputTF4NWs3CKeiZTmKMcVj9pR89gYKWfmkiirSyyLD792rASOvZbF0wqNBotM9KE8Qcutj3qv
-BVfTXDLr2hXYO4L1RUZ8Hr//RARDJSpMpxLQZYKwXGCHFzLrL1FtyZ7VXky/9amohK6A7eMnUW9m
-JGnqoGGFiFY7c6b38XAmR/DLPYZeQz2QHD2gXlE+RdnkgItbTKMfrTid3VohGJr09JxA7i/XmLUR
-8EoE/GThUSp9e+mE66TqicnpwxFoeUqtaHulxysXqfWYw/rnnen/xwrS1xKtsFUCNIQ3/roUtOpO
-//Pykd18WeLs9Pv/Xjcy/1glOLnSUJYRNVUnP/on8MxQ/qAiJMorwAxdVQDb/wCeaX/IOpBVaNuG
-YnFB07nW/V3cQlH+4N6IxaS4uuaqFJB+q270NqP0C/Ds5GL9F/Cs1tDW4v7TdQ0MzkIt9+GiJd25
-C+kvzb1FmZ2kyP5CmUkpDqDfpiyVKLwWgJ3UW87bZvn6aiTeqRG9XW+/4sVO2vsX8WLnE3NrFvxV
-MuTfibn/24m5c6W7U8Op/0Tpbt1uP0gLWydL7F+tdf20zvmonZOU0n8+sX8m322d5Bl/O999tuhp
-rcv71bL6n130PFUQ/ldK4m+P/l+KO9bJ0f/fjgI4V/s5tYz4n1r7OYdFODUj+6/HIpyttP4shb9a
-LP+utP53V1o/3vgJ+d/uXv81FXd4Yx+eN7J4ct78vwt5eBv8AeKHSEF5AmSVrOOva5ycHsOyWIBe
-ixbhIWGADVQNDn7MnfdxiPl2lP9sBSU6QyVRDg3kpCZbBkBtTQWhoaCA3xb0goZYwpQ9h1ihuHFq
-CWeM0H99K8TwQIyZIsJ3GNacnLqZtBiaNZHt7RtL9WNznLCYHKS/XeveWDF8IKlP32ki9TYD6gtX
-F+3UtlfqTfjjIlTUREUzDFfJfNdV0+L+bt/RyupHQAURwsWpHydkWTHqDMhvU6pGBuqYExn6tNE0
-1KotBLVx8hiju4/bfHtEruOFLIAGs0M0uUehIPh2VaIoDa1wmKGc14W8FwVkG4Y2TfA+MfUzr/dO
-U9z8YNNQI12xYidTQ65Ql8/7lKayoSJRWCx+FfcV2PA8O1NP/HUWapRkKfNhtgIOcb1Lvo6UtEov
-TKFA9wWhm2TXx4m+1bm+XWJhb12NDRzgj3vxnVn4uj3jZG+bEYQp9YH2mkJaqm0uBZXgJYMen2nn
-vS7UcC6ims3rYY359r2C3ES1lhol9pt1NDgJpInZ7eJ+eVbCoT7T2HuduHpjoONKkVk7NTm36kY3
-kRGrYWHLqdsPjXyMdBwUNZXylj6Z6pls0LsvZyKHKbPONP1UqHVQ+8DsYhlhwAxAv4Z2sUcBC6Iy
-Jltn1vN7TemiquAjLEvEiSeHgiQgnCtM8MFnlLDcTs70YwuFyLbysDmzwE5KzusC0183dbLABooW
-TSvxVtpSXkWREW5MMlEknxX1clRTig5m//j7s/F1kyd74qAiojVStUTWWsxJcwWaj+Z6eGY5vzfn
-V5Fb5MRVBUzHyVxsrSpqFiGizhZb/ae0hH4hIBD1e87ff+s+JjuLWVc14xToGWhI4kWWUUM3y2Mq
-ayWqmkOpbz7usfemOrU5laQUOAR0it+uq8Yy4iauf/LSMIt3qOel+0zPgx951UZ3FvtVd2ZxvTsD
-V14dEQsWQupJi4kQYaOlKzW1dEPfZEOPVIwKI0I2vI9f7b1hMkRVlNeTC4uw9UFexcFoMSLpT2HV
-RvDegOWCRQolge7MgjpBe63nCGgrC9MlCw94DpKTHTcSYEpkWrEqbVGlaQsF1sgSJRSwq3CDiAb8
-bV3bBEGabhStG5EEGAqMPUU1OrOL/Pq++K2heS/LGs6TBD1v39eKc7DWA6eMRNJdvy5Qr2l3kdLn
-7ZkRlNZl9FeG4W+vjLI1Z6aC5K50Gnog4mBG0lQ2doS22x6bmgFKfaXcIXBxCDGL2De4rXu4waIM
-RfsOlrgo5BtOBxFi18OKPhMK/brT4F0msSIpl6giOKS3b45UGOrwOA+gOG1S/RhDCwF8uYPNQyUg
-lKncNoN+0/Ywk86M/q99TssyOBUT67Jfw6NZVgCUSJwUk1KawATwTFnQtD8zsu++36tWTqbYPFTW
-Eq4iHgBoBxd1eNkZ60DAhTq0Z+uJkk/t/u7a4b0YYDpOR3TzlIdsGmOhEFHWsHnNxhGsSXUGlRLY
-x638uvnQCiL7ItrkElnx9euvVmgBgzNtDZA8aWjpN6U5156StskGhlry0sXN4n/c3nv9yJRdeRYa
-6+R0R8C3hgS+xomkJyOCrwPa5BdyIIaOaebtQR5mq3OnkCjwzHuea/fkPfU+nOq6VFGgyosGccSy
-3FVgWA4J8r0XPbZZDpoY0pnt773OXaNNcHIE8IDm3nbuVJk5lfuCzo0l7RGyIvLLsjUkiHRYKBtE
-hdB9/rh719/4dluAsSatNGmcBClmnOzsvRKOhdbChxwCTDP0GlyUklNBForp98NOQmkiGMBsoqgj
-+/325VJ1QT5ZV5FeAiDjienS+1On/X4wDZ5RIiAhEMQkTT0Zt2LGNBwtMmh/RjVulJQqP4Ip1yKi
-RnbWiGdm5zt7yZvW1ln0ajVgsIzMh85uJcYZ6DgFIJiOHlOzzGdmxhqfnIzTankrrrMD32XpJH5h
-HWPTgPCGjeF0i6C1kG9wSkJXNNdM4Hv6cDdRJU9tlCujcy6Q7ywFDFypVhFfcyFXTl7SwJIGJjin
-/yJ01i0CgvIV9dHeoeRc78oGEyW7igLtzBu/MzNRDuKiTISNvbZ8ckBwJ9E7ZdWyAQLT2xUYL7uS
-EFuMMcn6/b0altfP6FrnmvKTn/VqFM2qnVs1rCD6R+Vwofd1v8uBP+1jxB7ALBngtzBm+rP6+k+v
-6e8MKSkO8g4EIvj1/axyvGq1iWp56cAJQvVEiMnO4th0R2xS9lqp9KiNlYldmKgY1zEKSh+v+l+m
-7Xro6qoiSyo+G/LPzO+rptFnLaq6ZkcJE1A/sogkNLmY4fBxK7+MIK2QfQA7TcGcSPVkb2mCCRHE
-hTm7gCZFQLhHkosrbrZVKqM44+D93huxuxB+mmAKcJZ9uxBTdYX4Vaitp1YxIeUG9uh5EOTMODNV
-3n0n7M8ZMjIDv/iUxkuCXJnYA5WSQAG0WKhdiBlWSzU4zjN7y3tNGcx/UcG4UKSi/PaVuhFjeTTP
-aKoGuUraAyeAZX4C+zWfCQ7f6zxiIZYAmOaVDPm2JRS9onjCmMNuVDHGZJ1YNwJa5308Hd5pZT1m
-OBrpPBG+5dtW2tCILACXbGEaam4iwqo4wmHs9XEr7/QaAfWaz6MNzJJPWoHAX8lJi5fZuDo9AJKS
-vXIyk+ugDpenf6Eptgucf9mkiGHfvpAho+kvhCAcVZTS/S7FkixVwHuREjnDw3mv68iH/qOl9euv
-1mtRznWwzEgUWvrwgH+t4hVyUJ2Zb+vJ+OaIwRac9OS6/7HvAix/24jUTXUO0ri0Jb0UL2vwzbe5
-MpY7K9TUxS7Hadp83H+S/F6Lkixb0HMlWj2Z4UuNtv9Y06IaWnQggvzuVKCEGVirVClenSiSTShJ
-431kbQqgTT+EWcDVqcAlQxnTm48f571OZiB1DR0dUULL5+37r1Y4vRkwcwxrWFyhEhKPFMH3328E
-lToki1YnAnIRbxvR63GJ2wrc5hQ3MgySMdE7ILNWpZ9ZB++NJvbQpI1ktJNApLxtKFAB1ipIU6C9
-V0yAqBXdFkfBl7RhW4DgO9Pae31ngpSwTGMFL52GCMj0oiE44ItodFpwkQ5zvavYRd3f7zyUNzD0
-Bn3PnniyTxmZ0Sg4QFZ2gkr2ZdljwTBpSA7/dit0G5codkQG6rTn0qIUUpCBa5xq/B/qzmQ5TqVb
-21dEBD3kFKgqtbYky2o8IeQOSHpI2qv/H/yfgVVSqML7jM7AX3wRe3tnAdmsXOtd75N+Kia4fUbm
-pP+aKkL/o5OBYNvgboOF8evv4+N6obRt7kMoLK/BYJhRE1f+iT33baZjGwZjKsejlsLN7WjnKN21
-dvTSA3oxxNkVsmU8odviot5aJVx9/ORPzl2j6fGuxfjnknz3hSua5sT58iaA5EcYGGNQJiDb4h8H
-AjT/AI9ICgIBdzTpP5nTvrqBJKGPV84wTVY4T6LIzjtMhk6lad9ZBtwG0GKZlusQZh0tA2w5HH3A
-cSNYSgnLLNUxcZya7MqyEzsc+pj//ffZs/lw8UkttGHHp/ZgejB0dXYRO02zYOqtbu+V66mVsP3s
-13u1wSclQ8YMgoRwfB0g55zMncdndVM6GArgxudLhSLVjsWpjrS3b5ChfIswkfsHquijicpe6eod
-ZmZBnYOWjJa6AOuG04vxVeCI+jPFiiY+sc63ff/46Vh5W6aR7cs+Fh6keQuysrXqoKlKjW6d1nlo
-h2n93kJ9iwyjMr+TBpkvm9Sqz8rO7L99/AnfTlcD3j3tamTcBX7IRwcB/kRQ7qaB1qaiS6LC9X5C
-sfxGJ4YbADUtg8E+FVW+3T63Ebm0Uk0jy7pZTfx9vvfwQDPTwI+q0kwure0wnLFUqhObwbY9Hr1W
-m65GTjjmJ2fP0faJb5fl2FAkgk5CdQ5x58qe2nUp7ahrYvumzbHHCWhWImcEExMV7cev9Z05i76e
-cJYYkOyReXSN7NYGrys6+gOtiNu9k+DDFYrYSO/rvrPkicHe2fgolXBV9sj6b7vf0cNaJu0QoB1Y
-+G5/w76Y4zck8mi0u8IAip06X3L01tg8x1Ov9mZMk+Lm9N1+hStUNSfuW++8eeqxmAP6hNebaPT1
-9zWLXnVrO7HZ40kWkj9X3yeXeB7UkwiKJc6ve//BwBLnn48yXgJldDJntAdQZXw9rl6KwmnB0gbO
-YuM/o5LYWg9iNOBN/Pu35eJl0y/BdfJNq2JZVTJGeYp1HU0rX8dFWt5uMUR8qTJ78E7Eje9NJPz9
-uLCT5OHP0dukn89MNTy2Apye9YsGHsOnqfK0aHRhXH/8XO9sfmiwGYaCokexz3r9Ao3Ydhav4rk8
-UCQ/pTKWrxj8jIe8Kgpcwdb08ePx3nk0cvSojvGyNFGZH11jCxuT9mGp2ddrz4+0lAJm1yVU1Pk7
-//7JfErOHIk8Gtnio7mRuWWT9Apmo4C/hSHiPAwgMdbKOjfMilzgxw/2zp7qE1PZ2y6nbwnH1y9S
-zpVbJCAvAqMsZQg4uYcd0lL4g+Pemz/V0kGCaTlrTtyc3huXdCND0mCDmORorgxqMgoQmIw70R0U
-zENmfzIXCo1dlaVfp41F7o+pdiK4e+czIlAgBMCYlLSdvv3zv+5rozfapdIw4GKaLjDrWOXYWteh
-5/Xuia3lnRmKBSrCAVyKgMj7Ry92tabBG6etgwuuXVgMq3lY3NE/oy1IRlOVaCcSLe89GtfqrXyy
-tcZvtqp/P1o7eUk7+wJrwd52z00s7CL6P+q71cdq/eM5s83Ao/PKJ4qi1kAjNe/y6By23dZUCVxj
-XJ+z4tNmmxlJ3Av3/2EUzl3HdKgGwrF8/UA6zu2l67CbtLJodzRP+5eplk7/nAszKDqSkfBJ4jqw
-ll6P0uMJ3wGuYxTMAL2QhoNiObPl5ja8OL7entgi35sVZKi2ewxBBQDM18PpmFp3QCW2Cai+jGq9
-xStxIxQSvXhAxU58qPdGI8e3SahIE3Ovez0afXfStaAZgAJok4sq66x9nyfeuT7PzeVKL86Jp3tn
-YrAjk4kWGHNROj3aJXPPbKYZE9lgAntDXTbVzTFKwD6fiiLemewMsSXGyNHakERfP9jc2EaqMtbx
-PIKOjkq0A5GXYxAbZFncffl4Ir7zFnmJlCYRKWBNfDwYTbZzBZGiCvCsg6TGz2l/wAJ2YjjJJHLJ
-/Nvpv++OnNhkS4lJUHC/cRioffpsZ2hmcsxizP+TyKZfjEyto+3sGNzdPBvTiZPgvXdKUO1sKegt
-z7S9hr/2xlRJrSk1TAS8vqD7P853RWlhY2jDYv/4hZ4aaTsb/hrJbZCFoQqiCXBQ2QjWyaOxrVry
-sQE33fApPx7unaNGeFthdItNOFOOHqxUnQ+E3ACqSVfsATcN7Qb/ABFBaW13eBcuF16bxY//YVB3
-21ZYDtyWjgbtSjFB87KqoJ94iRlSkK9wrL+mbtXtdbe19lOf2ifGfOd6xsZPVI0+FdmCffReodTU
-vbTg/3FTMoIkrS4giRePeNPKH3Vpld+cUu8iB/jsuTnN5YnN5m0svVWF2EKJqOm7Ol78Ol7v8Law
-0h682bgdTLp0i7RLXrS4Ha5pn493fdz213BsTpx8b3edbbqyUoijSSgcH0eVskWmyE8GsYlwiJJG
-spOWNG8//qBvdwFunQAIUL1y9hGevZ60I7a9WWbiY0tAnX5L1nRMI1X3dbW347n+pgYnefl4xLcv
-dLvnbs4ZeKFTlj3a5FJVaqmOmW5QqqzEtTSrnBsxrMDqOsoqe8fCWdWrEn0M4gbK7IlV897of6J4
-w8GekTj76Hk1sB8GnBV8RBrabj2I55B9HAB0IR4QmRFkVbxurfr4jJyRLDZ+ffz0bzcJizOEPj3K
-EhbdnUcLyKUiQZjMJmHOuXXOn5e8saeDmfr+/p9HIkVKZohSzp8E++sn5e6AOXDBKQltwKuiavUn
-UDA5Nf29i5NpeuLFvl2lFvMIwewmd9vsK14PB4kll7PqOU7Mov3JAULXrszhL8dk4FRV0+e8tM/N
-5DUH0CH2w8cP+3axMDqpdKTIumeQEHs9OsbXbj70jI5yTF4ajasHjqzMf16S2yg+hX6qPUhMjwIB
-VoiPSnsiQpw0cSEXG8zzrJ3/h0fxsRRFsM0F4lhX06P101Cl8SKntblBlB7jVaLr4ykt2Dsrn+Q2
-1DUTSwuC66MoivqpA1AY0+5Et51ItFjjg7RNztH7zRe+r7R/DkkRnOlbsQPrU25HR+P1CcjRdvtE
-miatXTH6xSeHvNcOXJl98/ErfG8uorykg3tLWKJLfz0bSuhT3LcWznxv6s91CROEZEIZmTignzd9
-p1+01NtvnU42zxjcNSeWwjt7DGEcr5SsE4L4Y22wU9C53+kE3/GcaOAlySje2H4BIlqfve7eNDUH
-HrydtfcQc5buxMO/jQuIsEAeUOwhA+4eK6ZqbW1Mh/RLYKy1/szHyFza4FmM4ZAmkEpTZIZ3iTYD
-ufn4rb+ztTEw+gI+MtvOce5fZVnfJiOXgMVo+1DjF55DQU+fDG/IT8SuR8udlSdQ9BgeFwD2cCK7
-1x84HtOqxCoCB/SpdyLDL/qDUY/yxAMdJ/X+ZxgwH2QRWfTHd7WKA0rPLCuLJDUKJYAIjcmq7Wpd
-amHr9von6onVRW5pN/Ecz/uWauctbtr/OJ3f/Iyjzc1u9EkR3GZR1oE8mB2vOxAYTocaMnaUC2i2
-rqUCVjOJN8SMu3/6rH9GR+CHYsUgk0oG5/W77uoMhgdc5chPkuECyvGy05Nh3NcZXOmPh3rvs/49
-1Lau/46gVyhDTjlC2RUi2ykLzyVz7usTn/Vo4/vzQGJLDG8me1x8tn/+1ygaRt1Omsk0ijM8bS50
-VLBx2C9N3p1bixT6F69R8T9Gc9ugKOlZjbi44cC9uUz/Pai12G3n1CKJcAVKrkEvtNGWuToRrL7z
-aB75PJM2CPpxvONQeaBZBG4tIZzA5Km8HIzCys+UVXrmGe36PT1AXsOO//FXO9pw/jwapctNqcXY
-XEZeP1ode3GaLTZGWLMuYwrAzZDh644ZuQF/b4a+iI1XOk6HZGiptn88+JspQz2fuY9aAbE9e+3R
-kdyNyoPpWNmh06rkTO9iLOYRvp4Y5WhHt3HhQCROGEWZFqfEY7nPUGQ0sNQm1jLYy4/hYhU1RON5
-Y8nNm4cYp3VZNdXeMtfkxHZ+tKv+GRqm0KaHA5aB0v/12xWy1iGIllZo6HVq3JhOM7YPmVIm5B00
-Lr06UY16bzzWBWc+sRxy9aM1mGJPZ8ZaAwgWEHVQTBgFwRsqQmdYuxPL/Z2hyN0LUvgInFiHR4/W
-0NGFL5Qwwphbxy5uqzWaOZfZ0truxAc8igi2t4gKghI7fzyHw+n1W5S52xrzgFPe0uv1ZRpXzQE0
-eRma+ArdwRbGO2saZCjL2bqaLGc68RHfrMtteEojBHUod5ipr4fHKlIQA6dmyCT1D9qqTBzFOhLT
-umYRH9T67b+uCosIi9fKvCVe/OO0/NcWBwE6B0HCtoYdm32WF9W4a7NUnXipb5/q1Sjm0drLwSFC
-S7RibHN0D9sptw6LGeUdRJnbcbScE/vMe8ORnd3E2TRS8HyvX6JTkTvN8FWM2MT0Su5xQlsy0PDA
-cYtho54D5dgtqsjs/b+/TdhOpAEI/Ul8Hy8JUo1o+E0NXGntPqc5Zcy6/0c5EB8JphaiaDI6VIBY
-8a+fDlxcAeIBhsnC4zwLvYa0O1fNiQzc2+2SBgjdJQPHTYZY/OgdSpz2k0kKGZkmVR/Hz+qdlmXG
-+b++MEbZckSURElMHaem+tqa0sbXZNTYJpEZLa9gA/tT8+Ht9uGyJXLFpUWTiqu7/fO/Jjmp+nix
-Wl9G2rjUQZrqHG+TIc/mmGL9xw/05ojbFE3EVBaXF5qFjo+4rt66bLMsj1paxX6sGKLdO07S7lvp
-zFHv19pFQhL1xHx/7/lQQlgbXWwb/+j58GZ03KTlLcosbSkZI2XvzcoLZs2YTqzk94ZiRXG+cF8h
-L3I0LZwiHTNav6jgrJb6DECrDOvRN55tBIb/vJi27j00SGTUt7Te0TzX1zZbmgHTxWZa64Poi9+d
-5Z6SHrz9XswHyhHo/rdj83i/7S0jVzadrUxAb/k61OsaYeaYXtH32gM3boprzB27U7Wxt4vr9ahH
-+0TsLjUtW3EWWQa027HJ1KEGbX728Vx8G4tQ1CSDxrFJCzr1zdfT3pmXDK9QLiWaP0Diyoc1WLy5
-Cku7MS+NVIInzabYOsNMNX75eOj3HpBDjJutSQyE0Pr10PPaN5o2z9yHXBcm22DmV7nST2WS3h2F
-pDbV/Y2leFy7deSA3DbGWNUzx3FvNXWOhsw4ldd9O+W507ARWptzFrW4o0tV7eklFNdURlBv4+FQ
-T01v7lcJhuisLU2lTmyJ27T+q7jIYzAcDSmQG7lFcZt8/erGpLLbdrVlFK+tfYDAt95WTgZIvNty
-VWIYxYlp8s4SIOuHjfOWNyc8PvpWqbJtbfSwVvY9og2lDGpWHjDrMy4qaj+iK78aPeh1u4+nyDuv
-lf0Y0Q2j4h+pW6+fU2lb8NWOMko4fPZOJdfzOBtI6dZc5k81zb/zUgn+XUpyLDxuVUcvVVT64omk
-lVEPG62m/YzQL0R94MOccgVQ+tyus/Kft2USjSDktwNuw0oexXK2N019P+DBWlEMhdtox/fupKyz
-1arHHx+/zHdWAoUrljmJYsq5xwoqNXhUAdKxjNDRe+FojE4IKvvnfxmETDR5DlrBjq/DugGf16tV
-GSGAnnZppesw28V64gR9My9In2wAVEpV5hbCHX2qmcsbxUVZR/SWt7cFafdI7zvwpYvhPn78QG82
-SOY7hvaEHqxvm/va6ymIeW63iavh6taOdR+jzIrPs3WhyTWq404XESf35MOTm5o2/yanQVgnpggl
-1DefjvsTUkkC5E0JQjP96x/BdS6n6TNvd4uj5/SBays8tOJmLNYeP1+3tOFGBi54ukIE9E/2sgh0
-HxfWHES0WOJ2JzLdKI0va2kt6UuWo8Wwz6fCb7QH/G/JUDzGSy4reeZpY6/9rEqpxX6oZXoMpDHL
-xyqXO31K9NgK06UaWz1SI+VeeVBCdtb9ODdCq0M3Taft30/X1npuvbRUvw2lN9Pjaq6u9akrva78
-2ea2GkJzWDIDg2ZcoGFRYuhcXgyNzC50T7qS4pgcl6c5rRQF8mpIOuntTTurhnAx8nESARU2v7sG
-AoBbgrTSwn8gvWPalzgJ9/pP0dP79DXnQmjJAM55bVQhb6b0orHQ5FDx4+s5vmg6WaqQym01fTEW
-zaVdslYyjqOSInkeygVC3dfZtjr5uasdDWNyIWIShDxL7TxjuztYa2S1eDc7Z127Jqu1U6OcNRUW
-egHO66xLe206qBKpFfTImWr1DoqATzNtCaAT+/SliXXMl+FN39XDalQ/i6YCXHhQkGUf257r7BgV
-Xd1on9DL1vEnlYkVsfNgYFGaOmPPT3VRljwZQ6LT1GqtVbV+adwGTatIsI7Yzb3eqnDwnELe4ijb
-sPg1SxvEoxMvXv+tGboiHUKSTNXwpa8lSddgrGTRpVxlY2GcpZap5js3m1XOLSJZB9y7C6lrmN4X
-Zjesj+7sFcnXzPHHVtvjIDCNxTmG1kN666VDM44BbTO+fTtNXg30UxXJhK/3VpUlxs4WLIcfO4+O
-fe5dVSPUw7oA9J2DbHRW7dYHul38sDmxzSQsNc1P+midOmn6VPx1Z/hSu6nu/DLX1U5gFps98HOI
-AqMn0z8cTqMPl6GtOxUlop4Shmchi3sZLyWa9aFx/fWwJE5VPftOrssce/Q0XThbisGbvrFXjqYe
-qMHO15t28JFBHrReLL0Fo7TqnCTME2UNXZCBLIx/9V2Fhy11T7enbUFbFkN/8m2gmfSs2/PajWEC
-/3Z5Bkq4GheT2djrVxuf8eSLJWJV3dPdOhcRREwInrRFrF7g6yquIrjLi35dYulEwz/J+PWh0FCP
-KFzBXQbvpta7Whbp2g8Kyt+69+OaHShEdtenekQrEUzQs3YpqLwGVWsvy3OFIXSa7kt9waYh8HJ9
-RSJSSa3q9EurM8tGhFsJXOhRqrS0hxaS+qQBg9XMqQVcDhqdnCI0xnJYfzopgFQ/itMeFVBg1Ite
-23skQpVPx5wB2MAIpL5W0zMKS00mAV3lcXVlmomGShWfH2TJwVL7Sf7itB0E+9BL9FW/c9MG8wS6
-dpZYyGBVSGSGgA3WGX6UcpFpGmhmIroh3PQQfX/hGZB71ae8xk29O+9UkTbDoZtpDe7DkUuB50aN
-5cbOVWVJtxzwLsrSKj1X7NYSjbQhVBNYeNjAZrQ1rcnDbJj8xjxfrZLt62tcOMsw3FWYZedi11fC
-m4yvXVxz9yG68x1LbjVJzbuGVDrPlz6iod7cNaAxp2ASy2DsemzufT0SMHm7GxAIS3vW4ueRSRSF
-qs4B3zvmJH76JZzOca/k4v5WTTZ5l4ae9/o3LzP7+r706MhH9YdYCeEhjaT1T9NiTw7MkWgBd+1s
-HC91F1zb/cIFeXjQVd0Vh6JIXPOy9/GjCtm+9O+eKjE4yoalOe/itThMDojcoJ3axAjcZEqu3dhM
-Pws6D/ZmIfLP1NUa6j2lJ3rn3s+cMt+RbupmM6DoXaef3WacaN5tLOjJT6ZF7vsHz5RZT8qVPWmB
-QdPEgZ9FycFI82EJ0SEU1gG5tV5c9ksVO5E7EaaHuRRm+2QNJoSOAGPrtrnSnFwUd2aeFe2VwQkc
-37R2Ni9X7HfN02obS/qQVKKNf3hr5pe3Mtd871a1+iqe0AK19b6vtcyLUqMZlwOx6qKCca4Qje4A
-JMS/aiCf3Q2y1azcz0k2i+9M2Zo5FxvIXW47F/r5TxHb0qWxsOM97Op17KxfmT2SnQYk0JnMauaI
-Pt86Vkl5SqsW5X6plrVdL1JN2rT223Nc5A9xAtGhOrOn3u29ve50yWyczVwUYlAEMKEh/vrLpP8a
-c7utpiBVBqDpsFeabX43u3keLDroq9ldIzo0sCQPcUJKkjkQIoUlG0x1uqlSu9Rq5z50l6qtfnlD
-CSgHknXb0y2bJqYSL/+fBO3BU8+IGGomehqgDFtdM8zrxcJHfDCGUlVspKchzkgP+uH5Y3yzM9cZ
-sqIPcc3O0BgPhkbG7H9wzV6bdOWPP6BmBF6c2KLU0/n2D545YX3FV/DG0yr83+KZq6lNhy9ECj4p
-6dQR5aFdMbc4YGgSq/+OZ3baopB76TrxFbebpQyaslhfILFm4rz5FzBzji4ojZqyqvXw/yiYGaMU
-Td+nWU0dSfc6HPbpDRf49Ps9wSrGMY171cAbz2/req36g2n3sjnf7OON/WApc/6a02neRnbraVkg
-nX6iDFTP3cHtRWnv4gW4Sij5O583TDaZ8CWvxxBWh2mGxCi1F9krsQi6xKXkEJFeCSqkGswXMTnl
-ZWLV6xyhbM6AS+uzsg6ZtrZ0la+Z/FZ3rQFyYCq0vUXnt8OvrZAUOU5TIfsrcxM2r1/upV3wf0nD
-EoMnuV8B8JFG8tDlUsZndhJPOO4TqSDBkL6oQ2EUzee8cP1075kSTxuYIK7aW3WvU9IXay6Ceu3r
-JUxHlL2B5hipzdIvdWe3DmVzN3l96Xwp80Qa4eRqUgXl7DWQl9N2nq8dL2lotU4skYRVMnlGVAPa
-bj61q25ClpClc15bxQwpaNZsoksPf3bYHAK4tvIUm1m/Znaxr8pR+2wiraq/G3W+BJrPnhm07jwk
-UZq0/GcteMv5bhQjEZ/rZU6CUrzyLkUhPftAjOtrQ1CIKv+Fvz+IGhfjlaeyaDhPZJplVlT1QnR7
-tSY6z2L0VUi0ZOPIPSH3uIjnznkwnaX3L6qYPoAwtcbkbvUSeCsNyvvLeYwJLsdpIsgb10aYkVvb
-yQxAwxbYLqZzdrO0pvmtt0V6lRV1CUkJx33FZihkFlbxyMY4rYb9tTP15ZtW57EINOy8jDtzUFgW
-OEgcyqe8ayGWRHmvAMLAS4cggR6ekw+0kq7dpMS19+ugYe2i12Z2WRvOIMI67/j3+rzOkyhJUt86
-41M5434d0qlnqlbibqTdRO7iOVNxkFCjTs+ySWvdfY5UJw9G2pi8faxi0sGrFgNWSOvZeLInbRNE
-0c0p9yQh+x2UaNSg8ZzGh9UcdXyInCQpD3Bm0uYxlRa8Ld8D8NQnA5I8KhteXgYTLZLlWUe/6w25
-N7OIqB+NxnnrKYMOMY07C+vLzbTxYDv6LM8q2++aS2IVbm05n0Vi7yf47+hycPoNP0M7PA0s6SNl
-/fKXidv/z7Spp5/Yv6QvU5IXV5WDNm9vcUu/WeWQ31fgj+YIVrb9NFiV3h/03Kruu1zT2TNLOBt7
-b3YLggI9FoCKCCisg2vMRn5uFWV/T53dSdaQ+z63t1VV1l1Hjx3glTZpojSW7hT02liUITJe/LHi
-wvYzgsGKC+pYWO4NVXnMKVaamcQejb7e7TWv8+avshJ+fq7snHBYjbq3W4uRcyjos8oCMoZfHfwM
-TUufZULnfIBoTS/v5bBMfTSWbWwd2niprxFRxLT4WqtL280g3MBeJV4BCCnEb0jm829daeJ3bzvc
-bEcZt0s46IND0dLvOc8Q2EHpsI3S3MUO13N0L5th5GyU7cs0TXS6JKlV5kEvVusHxRLuQEoYgHmU
-1n31Y6/+XlaLZl1YdKcfDB36d0g6u4Om45MF3tO5kjehdGK0J2naGg9jHY8sl3pNvrlVM31yVzt+
-EWrRbgfLHG6FJqb80BDxIJ9UDl3FXknRaZdJ2e4nu+yznTBmP4aPlS3XU1vM+r6wp/m7hyVpHjja
-on7A36hLnF4qywXFZHqHQu9GncRNsr70uj3SKt/41Xw25r31fZrswaOnZ6lfGjaPdQeIQ16b0tR/
-m0M5fRo18uB7q+3dlzEp5H3q4JJBS2PRXwxuQojkUEwZoZab9nhWIMKFdTFl5e+51bXvVT9Lk/1t
-Wb5ktcKWpa/XIv0ss9ambFqO1S+j6DvwG4vI892i2UWBcrMYLrVybjouCEv7O3Ht+NtiNcnt0KT9
-DVAg9Zwqx4fGw1v74bWqu5zL1iDWr/jmAR4ssxEWuUYcWBTg7sLB7pEt6PZSzJQ20+GT6LiGB3LO
-FbeqBQJSRN9KdmOY5VztGz1zyMgbOBrtwYuMQyDbzPEOVC6NZ1fljos/Sa99tjuH5W7SdumRqOIO
-H820tXeB7c0et1KUBD7VJm0Ruwn2h8dKnuuLlZqvvZ9MLvY7s1WUPZWt1MGTvOtAqFK5YT2YQxIM
-vcckAx5kf45bP31AeVHcT+ZAHoiL39BDNRMtCDgcGMCuuP58lxeJ82usRXE99VmfXMwpRLCd8Ali
-9t1c+irMh62iosdGcm60XqH28yzEPWd6nUWjk1WXkg5vdd7VhfutHi3tepZwwPYGOLrHhIB1uPCS
-TtylIl5meh9zegzIsTgxSJe23fnG7OVnrWFXEIzsxv7pwzxBBFTFxaW9duuDPQ2NCjundyssjxYN
-chpf5lBSipz245iuT3EyL/MVuwW0R2HmJlQZH7JQi2SCcBZw2hTEPDxvZxHLE5du697JreRL3tHo
-G2Sqdcwg0YgBIjNf9N9FJstL2v22LZzslbvvxqzxQrpo1I2n4OUFfEKDF7BObrjSlvUZXzdrDtNm
-datg9DW33SWE7U6oFbZ+7owTjynW2scLspw8L2A92z+o8MVf9cbuH23k9N8oEyyXSTFI2HdpIR79
-aax/kgksbrqhKb9LZ7XOax6zC6mSc/2dqRLhloHmHx3cJOJzq+oLn3GHhRmlxWraxbo1moFhxy1v
-lj2DPIjp9HcF5h5c9k1UEeyeXnszckudAox8pXEJcM75Ni69c+25snspstx+tDxKaEFvF+p73uM8
-FcwF+c+wL2u3ZNuThRl0Q++/UGFW5W5IRXK1Ou3cBQsv8ToGoJPRWgUZqRkSghTdGIxoib2ipq2r
-1VzYhHX2rCHNevYz1+Z3mw0tIQg36oPdgGgKlrGbuQLRVsrlf83q9hCX2nQd+xsYxKUUq4I2Nb0k
-7NPaH3ZETUsV2v0qn5Dpxzfm4E5jUPrkYMMy2aK21h7rs8rFkzAYG9erw8SiYf/C75buxRwX+95d
-hc3era3VLZgi/9FJLGM5FzC+7hsl6x8KifU19hH1ss/cTMxBjQvGkz6TSA1MTmCa/7PWuCvGiiMg
-TrHOZIt1vdu50r3HwWq4yqEith/SceTomOqFrh+3y+fiQunSuix6LsnEvlY9RFZlaE+ZX2NNV/A2
-uJD6NmZOPVHLVblWqg8au2jHgCXufte0qUh2aTthfiS5EYdFkuefKysmxjRI/MlD0cbyqlsxSjjE
-mjDO/T73fiUlqDL060QxxUiIYYBfvCez7LURMuR4CmfQgGnkOw0C+oKEGHaZ9M1fZxSbfkyFEu5e
-qdrcO+5IRF8puWah2XX9s95O4sZF3IfWvsKSJMidsuhCgf/jJaVMMGYU3rIvSZmrJmxUZRaYso7E
-Xj7GUSA5raT8MgjNm0JIq9YaKtuYr2w/WQRHocrufJx4PfBRKvP2lj8Ye75xsxK50epcmr32jLiI
-dnea3s0+cgqnvyrojpvOcqpE9542dekFzpEcjilhdRqwF2lnItXn8aAnjedFnePTpe4kbDI2ybIL
-cIvrZ5inrditc5pfLtXSOYHROYsVCG3pP2eTy6lWeQllzGLoqrPMo1C0W1EePjlxs760YtbbiG+Y
-Xw2zMo1ITD2Tu8jj8lFpefNdlIWdhC4Ryg+KDMu19OA6Rr01Vp/UvGjFjY4Vg0ruoMSpDHiXpbol
-iIesezaAixJ2QKobPtmxmbiRX/nt8j1fNb2HkalYBZqv+Ao6obrBFLJy67AJAGhxzjrxw3UyaJVt
-16/T8xQPxhefwuHZMuopC2cdhydQmuIHEK0i3ftGVT1gnm4/DrUmgbZZWvmsZ5y6gT4u69dVkwLj
-JVfUe6NzmaXCHaZip/WD8HfzEDfZWUeuuw/MyjbWq6QQxCzgVZsvrt2TXjRmE2cAiwR2EWVN7s8B
-dqX1vPN9Wee4b1nll3zGOAH79LXSgrlL52dlQ4SLTM+ovF1Z8GMiWJcMPfut10f6uszXBM8td9ml
-WNqwJKOX7ejOB8zWUhN6gYXq+smPYt1SCovetre+1Hx/Z2LXQ7AxtcsUrplTkZnyBqCf2jKvNYdK
-Aw+spqb921w8HetfvkNmnjliar618YDTaewNrRWSY+Zas3gWmNlac+vmordNrcCm07LIDmGuR5a4
-a9IyrNbVuRnklF+NujZV0awmrkLJimwvTOcOI/m0U820N01iDBQwCTLgsinhPkqa++5kN5g6//pY
-fzIsSdy2yFUv9ytZXzt0q8y9LQtUA8G8DA0Zt7z0PmFLZ3kBpMPhJw3x8xCQDNGbyOUzN4BOtZSE
-VSOSm3HBGCcgUZLrhxHV7hQ5Mw6d5KGF3zF1TPu6iOP+jqJKyd1+qStj276Ll2y2B7ZpPNz46xnR
-dKAB7rs3V1t8bspZzQfk+vKmrxLDjBw8Im6VwMART2+F63vlTiblKiMdiAT03jS0/SCaen4oU5mg
-8ZDJaIR1DbrvOrdzrmoOxyCEYDU4865ZNcw7tWKdiv/H2Xk0x41za/gXoYogwbQlu1s5WpYlb1iS
-LTMnMPPX34dzN6O2Sqr5aqZm4/KwQQIHJ7zhItWePNVN049Bw/z/IWFX9SBrCi+hV6FqbFrrlAOV
-gpWJgxm4F4WoY8cnQ2xhOoo4ccMoM8r6OPAQHo9CZ4jmF1UVvXGSUKWe0VO1bmp3cv4kGLANxK24
-X8KODeQGdlGsBi56cb7u8N0eHyZblCKQMl06tDFU4TKESd0ybEr8jIMFbazZA3RhrRNtXvCw+fWE
-hpodMqedWrL9ybtiSKS/R0DkDAb+tELQs53wAvVkzyAgndpVhEvUgR+VKXdTgd3uq0iwYgwX5ecP
-ERP6Zl+6wl9CQX1w6+MeOIWwi3QSGEa30mdeivwsskx4vf3MWCawUWaodi6Zqw4HZnwlX3KtKQBm
-ZWsMKRv1zdeSulpCurxn5CNpYbRyIBEahjzoc4+Z1OL2ze2QkvLu0OTOz8o8IccYY4E57Tgl46sZ
-LQb2tubUXGZ5Wcgzs4/Eg16VdQf2dy0Du498Oqx4pup9ybTvaq3tHB5QbPff/xkyBP7oN2/moOcb
-UUX9o4jqttj7us3ebCvnOm3GeX2dFqFvrKVK3toaCQ+KAyu6aZbKIQRFtfk4FgrN3pHu06lr1uav
-aCDksVT2GHPRddgNc6V/upWgMb+uI4pbA7aOUJKRckGvLbP33HPqhglad0+pujahFdvLEyBp8bNi
-MsFF5idzFxSDFNkViqXMk+K+Hb81WL8u4P1XrA8a09Vv2kCzhWzdeRMIORohxah3bZpTZiHYPnff
-xVySWSf9YFwV2RZp5iSJ7iquT1xnezleMByBfQuQ2RX4SXfSuZrtVTmMZsribpYL+S6PrG7MWThI
-G47cd547Eqy06xj3rVdl7UUXuebMgKkc7V3sFn5MJwMZmNOhVUhl2Sis2LteVssf3tAWrEg187Ch
-nfoopwSJ5Xyg2gpsRdsjRprEPuUSlPS1y4hBuLmW9V2+KQ0c/MpcLgl7VkX5QXofOJ6o/0SiVCqs
-5qSlFB6t+j6b/W4KmZen3cFXFaIv5pzKO00KYoQOKJ/bjvQfi1I+CsMn6CMDzPjZ0CTZ8YwCfISf
-c5AT66Anjam7nCkYgW+enWUqKOWgypBNsjyNQyYeYpnplFGw1i9VHrlLMNoO2fAwj82tgzzpL83N
-c6P1Im/R7K3N2xYsfETLrsyx39gmxHNWSf0jovNnnGTWMtyWhuzKi8jp183wdI6dA2RE5n+Z2ESP
-N73hfdl15PKWt/lc930n0hCIbfKK5XVGIks84/zpPGdM1OTJrQkbdtjrHtfbOOoY8c9A+Xi/i0lS
-oQvDucslltO86phcoQYN+mrkDKb3VUcoDpdsZsd6teH+6S1juVfLMHYXjedw5SxwbnDaHO35pZW5
-q8IOEPKJg/RtcpYq4PHbNYcmZtPUFulfHdO3Q4bGjELauutTNo/yeckLD09xMxcXkN7rN8edyjlE
-6BnB1YwR8I+hcEc3KIySGT6etO1Z2Qn+z6UeW1Ja5RY2ztSe/Ye5h43iLiiCbVhcwrmqVEeZhXC8
-8YveiQ8fgaA2hjnjQ/Ny0aXxvRCqNfcCz8I0nNLC2/rIEcN4N6H/u0NLrr7PJ2t5nUFyPbMgXFoo
-Nopq78IOcULVjl1/MqGffk7Dx5gC3Mrnb2RLVYHpciSMsPZWYZ0ssreeDbtKH0GpJj8HerPPyHnK
-5IQ5dfnYZqn9ptc6wV228PEjV8zmXpu6xdPd99pJ7+3Rl78AjjdrYEYZIgC4Uagc/9ti+lFh32Wf
-m0kV6V0PGoSNDLHzD+dxbuketsyJ07FYSPFA3rR7JxdJs+90qi461CYYN82Veouskk6ArL1ol+jJ
-mQ5uuoImTAfbEFQMtejiq9jOStYsdS/Cmf26HOphsIqw5NudV7I2mCVDyHzLm6m/a6qVpFZEGCiH
-C+1qa29X9owtuFFYxsUaFToKECayn4U5MxGqYs/sDxkF7D1OrrIJfVuI5SzVifkAHBZlAEMm5AZu
-jYZL3Uu6M/GWBwRxFDU3RWU1BcF9qr4JzXiMWxrHj2CVjXtndM4YHybRlz/dhuwoTCua1UEhYpv7
-zCyah76d7d9wLujPVPlQu4HuK8gXTwolQ3llLYu5XuYas4jAyiO6TWNsuzdgdZt853EPr4zavZag
-JOwBet2IOsQhxsClOImK1s0uTMIHneek7eUer8r0Icux8w5MexLpvgaXpGjnmbSVm95ZQ3MZQA/L
-fM0f4XU5+AOjZxHz1/W6cypz7QOuSGYcAzfNW4eIrtoJ25fnzlRGORqWvnPu5J6YaehP87eEV/nY
-rCsk4xnP4ToUObEvHBMzQXK4qtvmQEsovu2STZ+jmBz5KIxk+AHfg+NXDREAlKVs5m6XKK9TYSwa
-oBgq8syzLuP8vYATIEAqt2LQZVoE25w0i8NZmboJZEqLAXETwJHoJnYUsanT9ngDldI6KXp037gN
-3GivZoqIQOWLf6jGXmSX9jJFTuDNxoz39YgyEb7oNFRPvcWx3xq7TX5UhBSs7VN3OKslKdHOAwOl
-7te8GC4XZdTpJdmZczk1hlud2GM1pqFtl4BqyBzo1kg5Sr0rR1PQgFljNk9i2/XzuAwspLXS+K6k
-6PoxUxNA8RE1Ager10Tfcy9uFtiUq+uGNP4ZAzDq1RdNQ5pyKOmp52HRLHqAPmvpazlM9S9RCDu9
-mE3HPoV9PfxyxsLeG2YytNe07pl59ZAiF4JS6/zxxzL9vVRN9lbQfX1UjQN0ImpQ9AmtPCZ761tS
-8106NuqmB+4BQqzd6J3+uMyMHEaVh4uJDDmim5N+cbOaIDgkdMu5SXpXh1mednyKyWXr915TqaBK
-OvXoAz16SQo5Pxqti9VvaVbzS4VItNxlySjuyCdWECotP971yu9KDfoxn2vDx4y6lBkcKHAnIMeU
-JmlZ4iZF8sipVmq3teuDFAEYWg0oyNPmalztBXKY1Yste/XdMtzhTgkK1KDzxu6XacQV+QhFULOL
-8lKflSyQlC4arIuUlNQJi3TsajAr6FYj9mkhTDs2gCw4+mVzwl2YvLpqsnvkpRc8v0Xbps5OCdtN
-dxEvUIbAcl3OasQ+CFPTSoEtoxnG/LwBsIV7uWTYIvnAKtDYSl1WHu1OJnJ584jAVPE7n0ddg8Jf
-i5uqIPPcL2PcMNZCE6zc+dmo5sOcJe1TOztlGy5urlhZBEt0v0ZcMKHbevPPJjfyFwoCeNxpKdYH
-Uy4GrBXRTg8qXrJ7cxklTSM5MYXj+qibELwGQvmF19c3Yx+116Uyre+6otK/o+1kqbAFefVzgVn3
-HNdL+a1zclJsEOAZmLA0sh4Te6lh4C+pdS3Qm0lOa6y8X5Kx3hCI1CB5MCHj1p8MRpWLYBx87gux
-DBnjJIaJD44DqCVLkLkMprbq30YIFz8dStCYfMPifFokCWQTzLj8fe1MaR+23Rp/l70ETNQw0dlc
-NRLGFXY98Z7TEvnpAGt3eTdb03xXYk7W0LpU2QuIOoqQpR9/zyCLyyDptl3cdSqtT9cmr55qBsJs
-aL+Y01DQGDACZgeJH9B0ohW1OnlylfRN5YZamZp7eOIvHdpEDQn2HgnN8cIQS3GqygjgUBfP/V3c
-RUAssg1oHyg1JQt4tEE8UZsXN5ZNq5s3n4mbRvfxLXQaxHMjWakzU/b0gPUGUeLA2TYCkXk9eDuX
-ptojTcXm2Ygn0967RkFfdtSpvAYzWTkhvBIaV9RrDlPpTLpLSJwFvEHqVd0tAxYxO9FafPCkZ5S8
-4wjA8ohB7D2JxGrmnZUsxukkGL8Tw+P5xWvs6MEmi+E9OWJ4ldY6ywBCfIrNjLQXCnUxJY8ySu3o
-HEnW6aZqUYw5cBQIbEDzuCtr25U2E9ixjcncLU2/CQt2roql1pdCEVsCt48xYO8L1a643S/RDXyL
-8X40vf51VL3SpxLNkIuqYBRP5lZHjCWV/UIfbyL8uTo+rS0Y9vRi0/rEmFqQPbMSzQVL7eIAhFGS
-hAuUq7eU/cMT0HA/dEbp/GlUUjh7ocfqZQsPVGnMPNDyJpM4c6O5RNaQeelz600SvkNixRU3lPBo
-z9CjuC405ALgMU50vboFjn4rjTiwCMlajzs/quOGlEil56td0cFuInDqNDBAfxxaseTXuV9zeZZt
-OZlsH22d5zYzJzRvjLqghnLye6Ofs19Tvbo/E/DgADITy/jRrS1FEe7z0Q81J6AnY9OAYxgPRkRa
-7ozWD3ZhdgkU/9ccdUUbWlVDtuem5Ofu6pkoQlaFcZqZDXimeWXIScDO2mSf4UJvBKOgEg0yxnWA
-jfzJPJtEmXh7lO7wZnIqYb1UgOGIVhbXcFaNxmnStRwJGv/+bWc21m1DB7raRZM1PbcmtyabT02v
-ZoXdUJDlmXMxdmC/gsqv08dpYVxGT2qyr+BgT+xwwJXJfgDYp9GGahTVvJszxXC0NM75cBqsRj6L
-h9yfY4BsGwCxtnEcOhnbMSXgRtWzhkT6NFldfV0Z6WydZkVjHCox9+qE4NrmodvXfaJATdASxA6I
-fkIxnucV80+5TRLB1HmBC6N0PJ19u2TeUKZORwQyafZilALRAa18xtujlXOe+AiRBsfU2w6Dj9G7
-yqcUR7POoj1+BamM7kE1546Lt4wGn0tbgm4F90bS78fGLawDTkG0tLPB0k91Zk5vU8UdhCIXE+dd
-1i/tN9eXorgE6JteZESLMnSnrapixsyPAC6TxoFL7vWEDqm4gLXIGNtdp+xFJWp6Y8bHU3Xe5f6O
-vlXh3WhV0hDG4XClHkD/lqlr5dn6Bzy4xr5I7Dr9Duig70m4xmYAMpMKMCMzVJY81A0IrNOYllp3
-CZ22uxoBmg+hR7trPcUhsUmTG2ats/kAwmJ9JfEawcPProq6xz7OoYLsNRJc7plglP+Cyvf0NMfW
-PJwwk/fqnU9VDMZiEKhDUl/T3I7dVTz7SKIh2+U5/nUy5H4CGizxSK7r+lvHGB83DSM1XgXwiGq3
-prkd7QGH+ECjKE3LnerACDHp3g6AGhbECs3KG9vQ405xyLDdMSc3Fv5DX7fe3TpYk8GwcmWZMJTb
-E5C209U6divtt5XIsGMwMtzHgKYH5kMyb+lpevljijyCtRvqWqP6AwqQJDMvF3rFnU3I0TKn6PcA
-hshTMpe+B5cikpwRg2DbML9FxjFvVjc6bektp4gUkeCGtWEyMmQEVzkHZMcatJmQUvMOdO5z7ibL
-ZDSngJGjGadXyuVKjyZDK0vE30gep3GfoKB6jpiMpMNiVEJQHHds32k2UFVos3KJgnwhvDNHpOFz
-hio4xTSAExc9nzWTL3Zu5vCHK2Q0UVsd83lXWqP6nawVMVCkuNEEwirp0foZGOBgIFjf66ItvgNM
-tJo9Vf38OMZJmZwJEm9mG2lj3bmxicLWLBt2ZO9UvWRqKOXVRHLz0maj9w25YB/wEW5F0b7wVyid
-q2X219pLzZ9Jbbr2Lstm42y147q50X6t76alsg2wGx4I9npL7cvIynWojAFUGBm5gHldOd2PKimo
-czNkQQnygDijHZ1xdUc4YIYExwxIrlUVQgRZJoZbwtQ6hlaWt1dpk6FoNLX/3AOq98egNur+itDI
-nBgcUfQEE6M4XVBWnXcAHhgPAvNpnxf4cd2uxe+rPcc3xfgTz5VnnRiCHl9Im0BylRgODpIEF+Ht
-5WRRfiI83v8uY7ObSKjz+BGN3fFuSfTIDdM48UvbL8uf2AVVfMi1n7/6XNJ673CwmES0mdciQZO5
-4EIXUs6QHc+wWyWCcwOLgcSP0jv/RY++eqkbN50CiTT8I1NcejRT1y9XdT35L2i/gOZhYmy3TAHW
-DMiyJbzfRVaurym1FauSBZi2oXRHFWZpZvfbOM8eQyN1i58p2q4Y98gVur2iU8fUM904Hd3oT1ZQ
-1WsJ+MQw+PgxY7vzblrMPjBcc7I5B0okoIyyWO+9xgd2zd2CpZIXqzUOGci21ziPGcvONRzj0o4r
-zAZSORX1Cflj/qOticokcUCPBrMh9E9DXv4CbprdwmvtwRmmZin2IMKj2574lISk+ZIyLa2HbyZY
-8e8Ns5sH22GOoLgdL8u6sO6zwlLVXZtNA1I7fjoup6Y3zt+6pOuQQV21hQxQU/TRyVJb2f3QWB2d
-p2mBtLIYK91GchdEU1fTy709VZJw9qmqKRfnrnX0zuw5Nfu4T2fioz/p6qxSszlAx52U59NbtYkP
-ttXzxwl0nl9NujYiRGutRtEgk0v26tUAJ06QyBijq5EaB0CXG433M7i5N0VpwKeWm5hLFdNrj1QC
-nGwBAQO8oTeK10nP0UNEpv8bUaitzbrMkyIQkAPuoeJYz/BBQHqU0IOe23TmIte99E/aYsqZssIQ
-Kk/neI7uqVUajI0zswM+b0MOmuTayrArYCIGuWkWBQgTmiS7KIImQx7purf0psk2bVgBF5kGfrdL
-sZj0GB4MXE+Aa6xHc2nT19kD2RsWhUuWC/tPt2FreNFtlSlwRmT+JLmMXZP8UFul802UJkCeAdGQ
-207Ifg1bLxqmAPobaKbGNeqH3E2Xn97gyG8OAy1jL6PVELvE9xlO4A0Vp2GuS1LTQljVnfR67x73
-xvrZEJ0NYKmuYzMkHtI+xB2uuoSSJip4zdp6QU8ewCf0ofJMQ7wa9xLd9z7k9xgPEZzn83WdajAi
-NFB/d3kaP5t008xwaOcyZRLLFgtMqxQLSMFxw10CcAMcAAT+R1QtidqBSFoZw7tecwLCnr9pga2r
-ufeYvpEcA8kPBgudtH2se/e6z2wxE6oLadP7y7In3eTpgx/l/i1jQzouUxStYmtwzXXgOQJqy5wq
-0v2FyPZC0kCpYYKyDPoaskMAsSp6dRJaFYfObzO1W8BC+OC8+uVcrU6J1oWx3TCZ0RbpXo0JbdkC
-RIe1l6Xn3mx1p01QGdazru5iHUbDSG8P/SbzshtX9T3OiWIBApcpDkSUJQdPN6QziDfrPxOEv8u0
-LXtzN2qDeXnqwSrgTbMhQ7tv4yIY10U8QUDkG88LkuheusoHa3aRamnBXZq0xkjRgimvTYg3eeXf
-9Xm02gHFekLSEEnJgTBM8X1KrfV7lI6DxPhm6zMjBje8qKyz2nCd6MOEKw4U0aYruDBwo2d0Wy5N
-LIDPUlYHi+XKK+hi+trzYwDHrizJ7GPl9phF+c00E+kZz5vdwqh3nfMpOgAUVfFpITv/TlQJKhq+
-z8T+whonphmMw7tdRNjvoFhw15+ZmfJF0PV4KfeVFtSiPWP3PcVqlUFDzOr6zlwksAAwYx0kmshg
-3gVHbti3c7I0O23MUoXeCgU6nI1heBmtSUz7adAyO/iJn3OmEt8h0wKAugKfi+NsJ2kJpr/nmMbM
-fliFHMOyhgBPYrbkQC781kzP0R/zy6tpTL1bO82LdmeNawFNqwZjdwPlh6H2AE+Bl9Fa5W+ZV7I7
-LMkazbtlpmV1iBMS453kLerdShAnt8iYUvFii0ZIukJmdJ+2LrlEi/WFAOg5koQsnNW3opoxVE/h
-fdzX/YLCy2YDcIUhQv8EZlYxhKw756q1mTuH1ro0QIu9JkOLUUUS5C2RKxAMUq5lJIG8zHRSQeJN
-wLJ3Bfyh33XULN/rQmY3ClS6sQEG6R3TjXUpROvmjxeNFH/0dekV0j0k48psBja9Wxg/yfimPqRE
-qUhBR+3dSFgx8iRS3vozFpNxBcV0NC4gk1m/J1taW3OmAJ6Jl1B8RmM4WZmPGtXNwuaS4aKtIWHM
-jsFBCAiIE+XOmXGXYHqQh7Uy+GCjYdgPQ6cZK7eDw3g3Nzr/bBFxP51MfO9vKzf4fKroZpxldE/u
-emukh4TG2XAJIIJbsgZ9ck12wHVRGF09BmtHE+PES1tNA8scxfqNnmRBClKPJnipKvfunLIGDMt1
-E9+0BUjiYOQt/wChPt5shR5QHKOADyZE3d3Ck4x+5Q0d5HC0ZioMNXsFMBEsVZ79ZOEwx02yuOCz
-CtoVZYaw7h41PPWroNmGMqzZJA+JqnoqX8Nvn9EZcgqabFXxK5atBgUR5bSUYHMXDZj0qnmQNQgA
-giz4C2WjeRykHabkO07x8tNfnHUkj7fAgky0am1QOKSN4KRVca/SDhoVUyjn1fa0e8cd1FmHOoqZ
-c7N19d7oY02KrxurCbfovBzMjObOPpt72ti2twKMTLzyZsOgLrtkbucrMpeqc05jJtrLPkGJoEVa
-rhVX3citeZrXtXXm0RMxAw+BeUr4em7kTQcZ8LeOjPXGgS3aBxPAiuG0X+m/3cI9i9A2FW7Nu0mU
-Xe9x8erdy7V3iuaRukA8Cp/GKGOgxgCf72Rkuf3UyOeiWpVBDkh59MuPs1EElF9gFCMJaeqkaUGN
-/3BxDfUZufiVTZCwaI2Bs41pwgMASpfvoEtH/DZ8qEsHq4kZDNfDghft54zrTUvg3+IGmAcg/Ylc
-g4HIGV3II3J3IRfbbwH+MBBW5k8x1FEw5O1w4ubTfCtEgdiriGI+XT/sinyQJ58//pjwvT0er1bo
-+B4ytkzB3nOt4bDqHthKGUC9ohwqgDIPpwYoQQt2Z3PDjMIPVlvFF3ougAV//vBjVzEM5ni6aRhM
-HS1n0095/3R8whyb0V0V5BFX7l7LiINUYgu4z6kqUmBNdNFimNnMz1MqKjii+7wCbUISQ8O7dfqn
-L37RMff8+BcdSawAeI5aXfI54loRhxlh7rLYN0NSpceWVJjAwyxcw0bbF/1ko+/lLSdVRQfAnGKg
-4QstB/Ak/hdv6lgC4J+fhYnhpnorrb+UxdqZCD0oSuKqjGm3wp2LAXYUdCPzrnbq3edv4VgbYnva
-pvDhbuqmYGKOZFKaSVXYvIMEAQ7svarUtYDHYR5EWjjb8ytGv+YXIjofbUMk96SD6hGHwT6SvgAg
-2dV5xxweOqB56wAzIc2VYHF7Yz4DPeefNBXc7dpy/pv9w2Zx6IA0drYdyPPl0Q70ahiI4F8Y9yGE
-B+WK9m/afC8Vd8EZnSBG25+/2r8X+v55R/trcQTElKaBeFgZExXttFwtPPcCPIYFVrztd63Xtve+
-XcSHz5/8987myYjP2Igau/hRbb/sX5JP3WLXMlXsbBySjPMYbCsXb1P/R62Wf94nJoFsGxgZNHHe
-P4VHp5bfcqKtSfbn9gZ980p5zlB++uaCt/5i3/x9LlDfJnwwPWYgyNd8/zhP+ZFfCnaq7rnNelrD
-IR3HH5Br5Onnr+/vM6HQ2XBxI9+sUQx7e73/en1QubSeU+6GqDXbMzIYuFjQh9MQgCesZE079wvb
-9Q+faCHEBAMeasKxeqGkwm7LgTPfJGL6FS00uvw+2zqJOslvUWv0vtAZ+WiHYJ3gQYTwkH86Vhef
-cIRQTG6JxnqgXvHXpmt2jduN1f+wFbEgQhNeKsVXO3qXKWByMgre5dq6LVjn3gdzNLdfPOWj94dc
-uQQ8hQsKmPj3X2xywenmCU/pQQg4UAv99TRLTL2f6bEywacX9vkW+Wgz+oYPeoC0jGh2dMKcWtvx
-4m1bRI7+3VQhDBLOceyK/VCQ1HwRSY5FiraT5luuwVtUqEYc25TU/lCQA6NIqmVcvqQM9MCH5kBX
-1ubS66rNklj04+PnS/wgfHExIEImiZU4PZvv3+kaeatlAxIN0BSA0Snd6KRb6LdaZXZoi8ijC2Gp
-E2UBePxiuR98TURgmTajyURwUUeJymimdeK1nPQuGrxnU+Yy4y6W4ylmZcMhhh+9/3ypH5yGLSHD
-msWSXEnHoaWb/B6MXcEsC3jozkbZ8jAI6ytX8g++omui6OZIVIqQfj5aFnI1cVZtZy4yczmDes+7
-7MTqOmkcZL/VErKDEpXIIfO/WN+HT+YigMKGWSB66e8/ZQTuf+5xA2NYMhpPsK1y+jt5lN4sOGO8
-EtrBuk4wOaMvAukHp4THGSQXaF0Db9t+178CqZbCciGY8l7zZj7vKmPcIwQr7nwaKF8EtA+WiPqf
-hX8JJ2VzC3//qLYwzHWyS5YI9W8nNMiy2dbwblPmR3cNKOWnXPpfyRV/sEB/k4bHPsimgWIcfVL4
-0kgwj5yRlG+3MzRoJJgt0UlsQFL4z3vUB/LhY7KB6w0amO8XmOm+pJ3EAiP0gHZ+D4xpau2v5N7+
-Pgmb4YKBx6qN4JtzrAhojB4mHi02MAL9gJt8yoHzJdn4RSb2wVM2aTz+IXiioH8UPQfoKmVl+8yi
-XSCijaxswDqJ88Wu/+Ap2BkiLY+Eomkgfvb+jc1GMs5k72AswIyUNxptnXpXa9EnX2zzjx5EQomY
-vcEdx054/yAGSiquaJ8G64QwaVqaOgSv+IXg8N9B8R9HUeSycIgn+zlajUm+Ms0VPU6Wm58TO9Nl
-n3bAP5oZ0v8egnWzPP/XLYcWL16NINTtzVnlKGykoLppH5AwW1ZDxZZ4zaFZ5nn3+VM+WJjrERaV
-wd3mUOa9f3sT8q2xzlsqcb9lYlgk7iVeMt3Bc4ckbOb4K2+ej59HBYCPKendsSj+aBqD69LWAYEg
-OsZ/uIkyXI1iiDaZkdV3w6ytX58v8YMNwhJxMeOSQfL/r8obeXxIK7zIJalSiLs1w4W6X//7fkeS
-h76YbW1R1z/SGfY7B4o7nINgKIzo1pvhO3VZvnxhXvl3WkAnyuYmcbkqYcQfnd3ISVCb2tQzLZzt
-AGojygJpZvoGYt8/8ScPCm4ez0zwur48+fw1fvDlyLaQC7SxKpS0Ut7vlDE10rbFrySoHRU/wQCy
-n2Dmqe5Q1EOcBE4Ooujw+SP/vlbwpeBVboMcLs/jOzuZzMqfMNEOIqtaT2xAWT8LwUDyUphU57cR
-BF4Z1G1CO/fzB3+wZTxUPT0OoMf5O5aaxfaS/BW5wWBErOo6s1UZdE0z/ec0luX5yF6a8K1Q/D66
-v+pmhsrvgfvyC686gdYYofEmKpejUBSl/cUG/WjrcDXTDNzeKJi5999vsHDEAqZKWerN6QnSXkDr
-ilQgSh+52RVyhMuVTc/uxCK3fvjvr9PlNWI24rF97G1r/SsTcVNa17FjA/4Hy3QrkXza10gqflGi
-frRBXZOSmBTSplI9SpmRfGosBOcBJju5G3TgFX5aM6KewG/bU2gi3en/sCoqaXRuqXoI1e9XtaKm
-UsMQZHequkl3kNwbB5QXGllf7MYPF0aRvyUf/PfYzhJhKlChCDQg4BJBIcAYmHlJV/tzcZqXttHd
-rxB/vmqEffDQzSOFsoeXyRV+dDGsJijlZoVms2DYxogKBtcCDL5G1iYuy93nr/LvTI7NQYFqU6Zy
-K1hHsaWccki2qOrAiOrhFoXpOrfFE9Qvt50hiC+T+VVR948tyvt28OaYQmHl8V7JHo6+3lz6Seww
-mQh8jl25T8feuJpmBMT8tK9OI4/JkUzb7iQBGIkFoGA6FcSLyzywRCLvi637Qbzx0T0hpFsOsf04
-vUwmgJmYQ9VAa3S8x0cXBF+MUPznb/njNf/rMdtn+Nc5zJy+GI0I85toXWcn0MMMvBmnSGWHpeX3
-N3aZiDNjYrzmFQjWNgWTaHTLPUx5MuMLm6qP9hdf/P99FYgMR6e1RksuchVLjoGOhwqw6pul2xxE
-mBGfjx0l2ueL/+gV0/vmLuHm3Dzd3q9dOSvWFKgyBq5ttciuQSByl3L6YlUfbWQXH3GJNr7Ft9xW
-/a83DDBYFfNAnYCCXvscZTFjxNaMX/Dd/ioV+HBB1FybQDnQXuPoBSKODD5AknBoPMR3kQYQyJwm
-+SLh+PApcEoIPLQ+iN/vFwStKWpMXFNxCY5T74BKkRp2VFoQoD//Ph+9Odx7uFrpu9N7OErjNcm9
-B6eVB4neOAiA6Tu3Ht27BsLwt//lUeg++1tijQX4+zWV3dz1vuAjNXPf3HhRnzDg9EDxAiaasu//
-w8Mwu6IDR4otj6tw1GwSxKFJeEfmL4dh6PG9BCC+G/uiPHz+qI++FSkaFyBqzNzwR+sCwqScrqRz
-Y1l2eYeShXfteKP3Raza/i/HgRONZHfrDnFDHEsxV8XoLOnKvqs6YJPBAFT0jOA4PSY0qA7NANnn
-82V9tDPo9YFQBKzECMt6/7msHs546TA5Q06rCrMVdpzO8Agjr0+++Fh/r41uiWJTcPHRyThe26Sk
-X3RAqjcytT5Jovau9vQ5SDnn1NDp+MXCPniah+wy7glYvmxos/cLmwZLYDbOdN2ehHMel754wNkJ
-5o4c1lsU+qIv8s2/9weNdYlvDnmECdH16CynhgNeX9Rw2hmxPzdyXWi5mdP955/rw6dgcsgxppXB
-yPP9qoQYnXlFnAlAGwKsaoz1NQjOryyVPnh3Wy7EnIXigJ7z9uf/CrR06yFHecDqq3EZb6WMNsQE
-pN9zVU7OD7ONij//eVlsQZpMJmL1DHiOlmU5hU7jhJIAgTGS9dL8nVbuf7SoprFAPaAISwR0Lo/j
-lNIUaE1U60h5V1uI6HZIx9BcVlUIEgN+msE3++I0//21iOs27pvUlKSYx/PAdmwg4Iw+cL6iHS7d
-NYuujGGypv8c3WFUGC7G5S7R3fSOortXAvcB/5EjjNHX+zIv39YNaaad7CsXrL8W5FiSCtw1KJFN
-zMuPDhVCv1oMBjxE2S7pc1mLZp/3yX9uz/MUSlPSic0rgQW9337gQAF7u6gNa1i4bZBXHko4nWyH
-5RoQ7grSuvPB0EGT5/AHlWy/HJN9tM4tbFCRE0EYOL7/BQWVzsb3BbykC6AyqbaSS5Xa5X+9/7lO
-NostLmZuZkLj+8cYqMMPamvjwQrzdr41vVVgjE8/P1tbrv3uSqHjubmFbKNwf/v3/UN0WnW675yf
-AxTh/2PuXJbbRpI1/CqK3tNDXAlOzDhiAF4k2ZJlWXbb3iBoiU0AxI24EcDbTJx1784b+MXOV5Tl
-IYpqotVSnBh6ZYlCorKysqoy//wzTQbvTf80Go5miaLaNLzhgEPNF+0aemzyILogpFJrRFhX1+AL
-kuYQKCFkvbX5tS7Px571NqqmauI6oRlM2vbz8QHKoogdD0k+0COHiCsF0JLz8KGVaEGGUhRs1qtL
-yE5cp9xG1ZsBdOvToUmZGpE9b3pcqGwhO6Gk+Elpqhwx5NBeAOmQsU1qz4a+Y/2e8oBw2lqNNTku
-Rd6d76VYnHk1TfTVk9YbOegVbMAMzaPKaQumZCBCsZAoOZSV9+ElHhEmeoVQhkbCmw4ZktfPkoQu
-ZYYAI3ousrapdc2Gxo5ZF+4TDZ9xdURJhm+YrjtqN4iiNHFLDUPkzuFWeeqRTUgh8kNrDOJqeBLJ
-L5al4gG8h5wRJ2PMtySNybW1o9nxOTq0BJKzFEHgp4g2ER/pri8KDtrAMKlNdP005RabexAshk/1
-vGR+OlKkVcyFBEqAmssjfKCuDW3Wl+Fa+XJ8JIcGQDgCZlZ6c4hs00ialTocFOqqhUmNnkXmnVJD
-5xBSnytoJUZ9nZJ2prvvljhgIIwQAdkS8ktyg7otFAl6U5HFIokOiQxnxgG12qP8bTaINpdgb5NZ
-YZblKdyvqlP7gXoGSW7Y4xsP5o47Mi1PFMBblijhlEYcbSBYj7zR57FPAcAGlkWnNtd9p6lHhQDw
-QKdkbMyhLATWF1iEV1/WzSYaT7WNZpzHtKobz580ewIQo3MRIoWCINqfSL6iDMN67Jn11qYXngdw
-ObU+QptCBakeeD13PGlE96I45dKplRQ23Qy7Jq+5I38dc7i1zYja75wBTspwoDzNSeykkPrZDYYu
-zjIQoU0SWKRij0IbT4WAjYLot9qw7UvYyei9ezFkF0TvPa6rhqQ3aHMq8mcDUPSVkZ0G9aZ5C4lc
-eWmUK2PucWGmsKs2qMOkfGu7pocKddLl6syAtsVhSvsWurQId69jkgoQS5AD8UE80opVGPRgikia
-OrRzfR2+qWEzmPmUtvX0497BwvbW4E4WKDkVwyF3z9m4O4+6HsH83DCPXpDdlNT2wJylzVt3fQpj
-8amRZF9Lf/u1VOieo7sfYqP8XJOBbjj1bYr1GbT0fXEK4SulF2Ijt9jQx6JVrgwWosKColwLhvyh
-ko21ZQT96/o8zslyXkGdGa9na7+N1Gso4fzb1oeMuges9IjyRRfbIUgl8BJw73UV4matWsL+Wdkg
-w6DwNZNkAnw4nWy8IJwcX66PrKGOKPEqe3esjdKoXiPMzivMwdkag3jLYbR8+kpFypg1CpBN7IVd
-KRlVrW4csobKduXN1HE9mKUqVFN/YSxcqxRSgCQhTMmOxjRZCGFew46SIPhKUXR+OagG5vVxKY8Z
-B0gPlgTxEXK3ktcBcLFKq4ii6rWvBHM6tnojCkKU1XSlr4q3wxRSB7VM03OtCqqPTxfNHgWoDKzH
-4UKhsjpWthGVhRrBuYtaMbaLeqUMzqj0Nq4iSOVgTjPNK3x/HzTw0EzAzXPfAq3EYRqX0J3AwZbU
-ziALoO+w9M1FsI6TU2+c92VbDlVrkQFk6obWkAueHK/3hpvKHKZRY1OVdz00jUWlWzdua55XELhA
-2VqcjvTsabAWnA8RSRWyAMKsKghdaVuk/GjLtTtuKDyFq+DzOIUX/DRVNN90YJhNPSgb8xVJGBg6
-g0/Hp1NYStfNWAr7FngG0i9AaiTRgGeoJVsj2jLBY2u1G0yT1NtMaXVErUOR9UUexPMO5emkQoAk
-g12VLLdRWldfqdDh5FvYDtQ6Cn4NVyt3Bsw6oLZxlJ5CRdzX/u/Ql4l0IBAlUKVYjhwt92g1SF00
-9IrwGQ2c9TAZTNZ6Pp6l0Gv1+LJHRXFnpwYUKkN27K6RwtPW0q4RjhmIA7cqG8hwPZy6Yz+OZkrQ
-KubTTm00mbHYqwFUYLIiVy/t2IOa0mnLoADDqKHuGGTQW6Vr+qY90UgEUB0ReE9Aitwsu4Mau+DN
-Wiio4MmLrHzabL0gnoSmZ9xRGmZBhZYGfW2GD/QoiZT1GFL/Z9HQwKHSM50o+noZjJRiEm3Cqmdw
-B25lh8IH4sDpiry1Ke0LXtt4QxiRoBJtNuUZVCWRQ2lQ3GMXh1KIa5CFJ9HJlgp1e1eFkIpWwWhD
-kfJ4nRvTjVe1EDaZ7fz4RMmri7MLq4p1hZWrFkSkXSkUZim0fALpUrru8LoeV/RMWpVnjTaqbPoP
-1ddV0pceOhCJxri4CNS2AG3Ld75QGWm1llNH4eeZMqmhLzeccVIMrhSIld6NrULQ1TXF9PhAxfTv
-uxGCYirHNAE7RChYy+5Aw3pbVsM1faCKmW+XznaazLULddIX2pAzmTiNrhxpz+G0WJqbEDnp5Oun
-eELrDfvu/GpxfDC7+8ix0Wjd0dRm7lH4hxR1DqDAppXHVLmE5WVC+xPHmJJ6s99k9jns+Xbz63HZ
-8uXzYITCcPcOX1yfQz0THbUGp7qzdcDA27eji9H5U/dVWZNiwe/JqcMYOogYOfp7d76hqv4TeOZz
-t8cu5N1bliJtL1TjB+FAjKad0RrEgTfQiZ20Zy0f3JNkKWJN7I1F8zNFD8R8XWym39bOzdKYLz59
-6Gucuevte8wsJLcLjjlsFB8xmymwUwf6AfsTXJvvWmf0EfrOsx5LELZ8TJzkcsc0rMR9IG7rfIPz
-1b6N7fPfnA89Bw7lEYexv3Tly3mUx/kIJlAxKgiwHIJFDi2DHGtiThbzL/nkI1RBfRPW4y7k+qfC
-0tKxJ2RWEy52LDB/+mtr33689OyrfLLgTmDDtdmzsfTNn4yt1+DoUEMxf43zrZ0N50NnPc1n3qV/
-5trhvLR75k/s9UfmT5W8yFqnhJLqQjFIz4n4p9sQfjpws/WoU96bJfOXITv6gE5EHplLW4lh9q5c
-KiGSrDyv1qO+MfXZiuQ0rFGQW7FYaJbxuXRPfaiSU5VeZ/EaJpK+hPMuznZMgZLzCKyBasA3dq/A
-8B1tGiajWWEbzkd/4k9+o+YeRzy0f+sb5e78eUyw5E+2q4hWAhsEax/U8/xTcrk51765V4QbYd1O
-F81NfO6/066Mmx6L6VOv5GBWRe2bibAYDZuBeAH7rE455TmuPXLSaTxdTSzHcvog2wfBFtmAJE/T
-qPE6zMXCIAE580+VyU3ktPbStVPUm8xUu3cff8wBkBAExC+K5aiv6XrsfG1F8VCYLD2IpwrrQ5uM
-OTnozvhN5Kwd431+BaH1PJvrb8dnPVp+zK/uy5a0DJ1ME5Ig4awy2U7NT+HMm21nzWQ9y8/U076Y
-2WNTSj6BpAWgOpLi0oUggKc6aLI0tzPI34cKxbewU+nNsoyzSdC+Pz402RFw7CfuSbBD0wD5A1ro
-atUsfNX1Qr11BlqhzaBHglRZyXxarDVtj8/RJeeGKJCdJPopQbJG0GJ1RYWWatZqReMslyL1N8k4
-jsEDa2GPD5W1J6ToZLC4DYhiWTmuotOkmnaQsB0VFOW+g3NydJ5VYe4MGzV6F6RR9JFKJuXqyVok
-gsO1ikM7SVBT2M/eaSKBJyHLU712kkGRTqFlxafqRfQetvqwzxaFC9v3NAyQOxyBG4D4BtVX0jqg
-GU/WjkeDxhnFVTx2oL7IP8L9BoVSZiTa+iZUqgK+12iUbm0i2/nAhhoxugqDxv1kFHGRwB9QVdXZ
-JjLV96BJNrQYyvzUstMhbZOO6+Xg8E3OldyYqRBqAhdG7qqrGJ0eGnExGtVQx1QVLUcG4arBG0JZ
-603qnDavsEAbVR3MaHBaLTIyj7erfLyyJgrZwXYWpJrZV+Auny/FK2nYB+ktmF5pY9R9pQEcTT5N
-4muHDgtreIY11aYXRfSFwD9cBNu0ss6bVGXb9au652h7uNg0Jg14GvFgIvSatDtB5DrYNlSHOFlh
-fd0A3vhYwD30DsLNPpToI5JEJY1JGp6oAlie7iBXueh4N1Zb2PQCEygFtU6TpAkgCyVPtTw+yYfr
-mhAmMS9YA6jVGMop+dVoWEcJTFbOCCacaZHV9HfarHrSJweXHKaNokoNSCYJZLYAMeK9JbYiOaEF
-bVk57sBz7bqy4GCOVpqNQUXnftkm01HohlN1GOgXZPPDpRE1So8HO1x6vAO4G1GtBMxMjrQ1bbVd
-JRtWlwWVszldJe7gg74eggkcF1DhnMFeDJPLk7Ur/BgFPkB9FCL13XFHhhdpSehSZ58nEOA0+noW
-RSPt9OlSADeLZAGYAwplu1JW24rcVBNUsLzQzhMiJEiG6aX9ZP3pQ42BKETWyFXu5nhvDteNth4V
-AEMcf5vGF6GeKxN/APnMFvLQSVTW7uypoxKYDRCVZECwHF2yGbUZ5mGrFtDDt/7qPEgG7ZlLS5ae
-S8KhQ7FUg5JNBkXK7QB0SNEvKb3Gyh3aw8aT4RD6mxCO9tOhZQymVmRsIYat8+rMHeQ/IFl/u63/
-vlomV/duP3/9D/5/m8D1JGBj0n9fX/i3GXP/W/EP8Wc/v9b9o9fvqmVWlNny5GKR5iezMr5bFH4S
-y3/TeQSSfrzJZFEsOv+ZxoVfNO/LZdZcL/MyLI7/9v6dGZJ40FXix8VNcvCIP/Wl3bD+8EEny917
-3TTp8p+/LO4i9O3nRebfFr/8+NXZ3T9/ARMgYlx/O3jWbjzHnhGitKK84+EDVX1FbQw1+UDH7j+/
-nITg+x9+r2uvBFuH8FX3H+5ySNxT6B/p4eC1HtHV8e8cG8K9hn6oQZC7PE8N2vAVC4yUBwrdH76h
-vCLnCWZFA4crPvit/67hw4Qh8k/PG74yfkU9j0kyRHBC8CGKua8GrACAOjFjkQUWn/8+KxA1Zc9V
-g6q9IvUEHE8sCPGR1WC+MqnaN6knu//cL7///8Vwm5RxIXzWCue37xNECdifMQXpAXsOQRm+ArPK
-R5j6vg0Y2qt7H8DhaPd5wlL4Exr66TYdzw/vdl7VX+Z7rrn3Cw/O5PABe04TBXW+J3zs/ZP/43Nf
-d1zuztft/fLB9+3E/PjzH+M7lNyR9TCohx+e+stskd16ze4XzY+3vFxEOOZ/3WacX+/FCi+3Q0b/
-5y0OtoWfk370oeFilSzy/eeSp8GIn/3gaNEmsFs+PEm8MZdsrsbPfbK98PzFw2N27p6KwIf/P7pB
-/ilNzJZ36D48eWxfFees50uY5un332nmnZx8WHAbfXjgTjNcnV5Awjzxv/+7q3Jq+9gKn6vziwUt
-srzv/9N5ae5hL/HSFws0Mueklycnd+imDB/edze5gCkIBDx/AD+FPDzs/ul4rocf/HXbuVpk3//9
-8Jh7k6Sa8uEHz3ru4vvv3yRrV19ifV4ts3gRfStvu1NqUO/9/Pe+9pnK5cn5Il76WVfA/Qn1udMp
-BMwxSYRgMpdJVnRcI+dgEfh/WSmyYSLjBVaWcAWLE4fbAwj/7kRDWPUCPuEDq/bkalGG3Xm4Pxw9
-V0MfltnKTzu652As4GvPffJNcotmKHp4eJRYVkBmtRfQ+b+iRdpdr+LI/ALr9YIpzE/m7CN+973v
-T+TP1cmVvyi//95RiKjQe/jBX/cz1wlvHHWsT2jkJZZQEt99/9+4u2HDNEJU7QUmEr+7iLszCfUB
-WZQXmEtnKTt1sP2gY3rV/djJ7+f1+PA8KEUZ/ugLnEjFg29DXuv1/wEAAP//</cx:binary>
+                <cx:binary>5HvLdtw6suWveHnc9MEbZK17agAyMyVZkvXwe8IlSzIIgiRIAiRI/s1d/Qv9B/fHOmT7nLLkU3bX
+HdxBdU7kTD7wiEDEjr3D/3G7/O22ub8Zny1t0/m/3S6/P69C6P/222/+trpvb/yL1tyOzrvP4cWt
+a39znz+b2/vf7sabaDr9G0GY/XZb3Yzhfnn+9/+At+l7d+pub4Jx3eV0P65X935qgv/Jtb+89OzW
+TV14eFzDm35/rsabzTTPn913wYT19drf//780S3Pn/329EU/DPqsgXmF6Q6eTTB6Qb98EHn+rHGd
+/uMCpy8IevhI8eXPw/Wvo57ftPDkr2fyZR43d3fjvffPvv39x3OPZv2Pn413+dcl5+5hgurqy4p+
+e7ylf/+PJz/AGp/88t2uP92QX136Z5t+c9earjA+jOY24N+fnx3+2JKvhnh0/V82RPYiw6lg4Elf
+9xs/tgejLzLKBdxDv16nfwz+1R5nprvxzw73443xf1z5q2n9tVUeP/1oIV/X+W9grquTn+3Lv3hu
+CHmRoTRFCJPs6+cHc+FMSJp9PUQIPTHXlXHP7u6fndx092Z0P5vYXxvs6fNPTPaw1n8Hk13/bGf+
+RZNR9ALRjJMsfWwqjl8QLDIKF/8y0j1s9WG86cBcd+7Z9fQk/D7a+a/B/4eg9xevePTY78+vYKX/
+Bga7zn9lsP/5MH198as5PU4uP82XhL7glGYiezj7D5+nYVq8ECRNRYq+hQVwtu/T5vV//W/37OJm
+av4bZ/77Z5+4z8Ma/0fd55+b8c/tK27Cze4LTvku4f786h+Z+smjj+DOo5X/sbnHd78/z6igREKc
+/RMBPbzm0e7nAPH+6z//8qH7Gx8AD1H5gnAKFiQiQ4yAoZ8/i/dfLjH8gkGggFDOsMxEKvnzZ50b
+QwWPkRcy5UJmKZY4yySSz595N325JF+kXMLbpKAZE+A85E+EeOGaVbvuzz359v1ZN7UXznTB//6c
+cnCw/ut9D4sULMNZyjnklSwFaEYFguu3N1cAQ+F2/L/YMs0AUGqnRJiTWMipaQc1bYO/W2fHjapR
+Wx1SrIPJtSHLJ7cuyydGhL2Z5WhHNeJYz4q7jr+nk5lu1nryZbE5P2x5Osv1TqN5igVbxNwUg1nF
+ZZ1sq1Yay9IqkTn2ORCCL9cqs83LpSxrpFxcNSnskJZvSuq2qJxNZq8oT8cLm4p+UtVGKMmnMGOX
+mzUipyrjyDkuTfOhNORsFCK1R4hNpVZTjN6qKLoyVeO2zm9mIRO+w2y1F1sd56VAc0lPttoxV9Sm
+6Ri8klJZdHXnTkbsmzV3fTQfl1i3Q0FF25wlSPh+R5qNEWWychzyaUbhZZiWhqqNB22UYWTqlFg8
+mfNxKcMVqmRyQ4YBaTXjOo4FbF1/M3nvL/qlnxIlZz40h6XetC3iqPUZ3VK6qt5nIVNimKeXmJYN
+3yPbhtdRp6E6xDJarNquY8ezMeu08xjVm/LS9uKkFSvqlcGm/rylGMe85xz5QtgNnWyNTbOD9mX9
+OpRBnldzsg6qN2l705ZL0+UrwsNQlLKMH6I2Y1QpT0t7ZERbvydrbFJFgxzKveZMlnmFy+p2mHs7
+5TipbHfZSeTCsKOTrOYD82wQe+5jRW/qpm/eTyXJxhyzpdEFNoNuVJ3RptGK0EBpLiSyH6ZpI+dR
+czmqmTDT5TChxN1YuW3yZU9FyU9LHicx51LEdslbs432aPC4jINCbvXHrcmSTSHmrM87Fvt6nwoc
+/B732LmDSybED6k0/p0NonQ7zjDaicVMesdwL1nR4Cz0inbtyHOSts4ovfSzLegguj5vhrpZL+q0
+l1Exg8OSD6wLqUoJIR+o7deu0DjrV+Vjl9DzOZ3HmCedrlPlbRLhBPRDb9WctZ3OU1nOcedJRY76
+EBd2gusmNBeibJv4Gg6Xe8tnjMAXEtS481mHhuab610up2rKBxnRZeITURYZKfGhLMu1UdXMp/WA
+Zzzit52RW7PvK7tWqkczt6oep3g5EEY/tnJGpsgGXWe5LdOleT9uWWoPNp2nVa3ZmHnFa5TYnSRb
++nFk9aBVV+u+PjikdaWqpKnOpJu7/n1Z4+lM64agvGHtermilCaqyhKYZZtM7cuwNJPPYyS4hZ31
+FWxGstbXVrrx9SBI9tK4hXzQhMpelfPsUU4Z+NARzqx/q1uHB0X9gD9g4xKy77JhPYXAVQ1KWzhO
+u8yUzS34X7MWppnpxzqh6/uRwHi7ZZbdm8TxalM8ifVxEuS6HHxvNp+33da+ccTaeufmrDmjzgi+
+M0gkp+MaS7/TdJ7ezm3SeWWXod92mjh+1jAs3FGdRmGPQ4Uouswi2TCETz5Ou2SsHNw+yNEoloI1
+FJO+fKcXzdjODTpYhURbgvegOHw2fT9SOOVc1EW7lg0Gf7dTvccJ3iDGJfPwLi7pkKksS+eHuGLo
+aXTjmhYbjsmaJ3HlXi0LtrZgCUlepUg4kVfe0ddpJ5JMAfiIx6tpWA0j9vRm0OM8F7x18/yy5V43
+uW0ZeuvreuxzQTRCRRun/lXf9qxVccTMHZWdtpcZlmjO4bSN25n1MX6YV5sWuuQfRkw1zuulba1K
+qir4Q991sbBticGT0sHFvR0T3Sna9KZT5biJJp9oJAsEXhLtUVKFaBRlYYlHiUT0FZuYq9UCB+HS
+6KGedgMj/lU7ruNN5eyyQFJw2ufbnCbXi3TgVR2n9kSi7LSmrJFnlszL0VqFOnkpVxJdPq7LdF1m
+kPhOnfPZ566xEKcpNeZ1vXrbFUmV1F511jfdiQa30nu9DKLZ8bk0ixrbTGYHyAddpbYm4qAyaaYr
+W7nE7mfWYAuxpptcAWHKLMXSeunzam1YWSAUkjaHFL1RlUy+ubJ+3nCeTCWeVWm8vt26ClnVTL2D
+l1u07hYycHK8lkN124dkbYtI0LqpbZrImKdsJVZNfRsg1VqIG/kWthDV9xTII8xw6/p1NBrs8gU5
+/fn172d/sFVfaJF//P5ATf3j26v5fgzTeP/s7Kb3z/ZTd/eFsHr6zAPW+/MhGOkb9ntAV4++/AD2
+/gmc+8qF/ZOL/69YjyEuAfr8c6x3cQM121Ow9+2pb2CPpS8Q4WmGKP8K6gC2fQN7nL0QWHKRAgIE
+9MYF0F9/gj3ygmMOxzZlCOAcogDR/kB7RLyQGCBglmYUww1S/itoD5DnE7QnEEYpIEoBVcUDvoQZ
+fo/2iAsVRkMyFYmTpFY8DvO6q3HXXiZkJE41iUiOmVjcogbXtU4tAGmskiG1N2yRA4E4s+hBNYMp
+4aKMfakkMWO5mxnyWqWtT5ZdZxN9LEoyobxO3YCVWH1gedfU6206ylDmqG3GDyOZHLi/8dOQRz4x
+CBG0Ra94ovFLHf1k86Vk5aQ8wjTsdOxRDeHUb01uMukvqSFkVGXwY69asiGAAEtCjBpHxN5lorVt
+gQxWVdmK9xsKCCnvcHlUi1HcBbL0lyMu25uVB6bzVc8RJjEa2INaN/2WWyOWSxbDZhV2aG6VSZMp
+qplLWNqI+KzsOPY+X2PF5mJsG4fVMs58zB2dvc9FspmbteqZVrYsdciravHVYYp1WFXVbtlNGqjv
+FWmrDo58s6SQN/g8fiztqtscuWQ90nK1jUp1E20Bc/Xvu66F8z35TB6nurPXJY3+NXLCjEXTAuxl
+AGFPexcSUwyjYZsatZefXBXS9yQFUHCUaTm94mUPVh+FzfBurWV4iWLsznQ08u0m8VYWU0uaV74Z
+a5QPfRc/StZvb1m7+UVNaKov4uDcxy5zw5WZV0Alm5k9y3FWQSRSNbccgqJ18XUi0uoORuToOKGG
+v2m6Opr9XEK0LuLU4HU/VKGpdwOi5pPcluHeLYPBndJmCmS3NVkri4XWVamWbKBVToxdfb4kbnot
+COZSuTHjEdIUqd9i0jJ/bOosnNhS6g9yZfXLYVnLm7GsnMlJKf2wb5wMV6LrtpsuaZYPlVsBeOMU
+zeemX9vzmjXjoKp0KIma5VbWKmzCUTWVFCqJrXOxVSVO5aeK89DkLtRlWdh1aBJwvjQ9Rai1Oq/x
+tr0qLZ/OByzI+zZ14iNGGddKxGk8RR21L1OW9TlkYx7yzXfN1drHGNTQ9ljmZMm6S+CYAGdNSUvg
+XJjArwVLDSAJm837eotYF4Bs/Z5tOrsyPBmPUuGXSzz22aEqdXtTlmkz5RCtOp+jeawYANHKpQc9
+2vkqMZ3v8iZF/qNHcRQ7ty3LppIR6g41yY0yZbt6LffM4fEsUh1v0yH1pZpr2NUwioHtGrzEdb9p
+XnI1soZ1u8ZtG1E9AO70MPEWVcVSzxspNm34FSr19HFLB8Jz1EeKc1l6nKhFW8ZUShuX7aJF4a5L
+U9/tmQZw0U9gxCMktK33HM09VeW02flQDYDi8nVd6Snk/O6ytlA85h5g791UbV2rMp6yGwom2tQw
+uAYrhOs27wD4t/kYp5TnYx+TXjFK2qUY3YMrjbVdJ6WrWPPCJhnSedcNWuRZKaoPicv8R5YmzWmc
+6+7TFEYu1CQwoXu2Tp3LsyHp+E7XUoTL1nh53TLAlDkMML6scQDQKdMWQCEOE5lVOsBEknTdytxb
+yj/Uxs2m2CKYcbeKMuxnmUBlOVaIDEdCRvzG1Lz1Cm1hDaqqo3jb8gZdDAxZvpuydDwrxVKbYuy3
+5h2TJIFQPqX+86ibdlJtM0ezg5ppLlwdBrMbxjm0xdwn1W3qqxHtGUnaTa3DYu8TWIrPSbN0Q95L
+u8qC6nX5jBYNcT9D4yDVBjHvqhxSve64ce5umcrseiYNTVX0Y7gq23ZjEM1IVucQ6sAnEKELzvUW
+2TGsVXOVeAMBr9+g2lXWoFqojUz03YLrKUAIGdCUL1PVOCXxUr/vYyuDYlPXnURmyLZzlYv3qMPs
+jatFMihrcTfmaIrDdeoQagq98lnsdJeAV7sFoUqhTK9Y2arpx8J3w7Id6ZEBEkOIc5H7Wlhd6KmE
++22LALlpVi2fNE3Ih1S44Zp5WonClbhh+QxERLJDEmK0aqEwCwDnQv/OQw3QKl+GbYESb8uynUvg
+ZEM4ntlJhxvUHvRKwbebuj3PlmUeC51R8qFegEPam0lCtcr60gyHZgod2CcM9Z1pBvGR9mVKdsM0
+rZnSJGPJ3mULsSd1t+I3GU8Qe7ltbsuOwD8ELXBmelKkGYaFuRXA7w4to2mOfToSrryx2XbpIeG+
+0ageHZz03kzHFvG4HdmAy0wFcNuiW5ywhevhaOd+6jzURgEK81yjNAC87eJwpHu5DMco2oFdZY23
+9lAxapIjVy3AGHQQCJZrvYTyqoTgFBVFjMdXZMoszivp2o/ljNe6WINLmALeSdd7ZLxnypRBHBHB
+qMvRmi1jwUO5AQ+AfSlPfIcTotg2ifGwOlpfTT31WM1xFbVa0VY3qmuIXYuNpDbd1VEmYmeYgwJs
+8YMYCxLGZtgBo7X43ZjFsTvu2EKmPRJ4yxROZMvBXPUc1ArlKt4tFfeT4jTA/ZUw7S3UjH2Sy5S6
+akfrHopYNtH1Wsp5mU5SZ6fpYBDkqLGlY3nU2m5p1DLU6PXSRXzP5JDeuB6jeAABdaxUyapo1RpN
+G2FE1HyKwBe9LodY3iWVzrSK6xJZzpYoY06zdXjpzEA/jE2FrWpRxj4MZoGacAw4OwwAFgych7pr
+jxa9lFfBun4u1pp4XTQcKtyItwHnvrEDuDohDdR9S5eyoiwbCIApkfLCxyQ0yvW0PHEJol0RYMnA
+dA2drXLqV/QGoXL91IxJ4/KmkZ2Ach+nY16Oi7voapaWQOJZ3ilMfGX3jrbiGjIZgLngibyoSs63
+HPg9QFTAfvfxvAe+6PUC5JAAvCOwU8Q3tcx7GzKg4ygaloIA13HoOj2EnWg9Fbtm3OSrpirn91Bw
+6WtWuqo9HZJF3pXUTlZ5MoKjOMaTRAEcDGFXjQuke7bFCe0qNKdv6lkjCAfJBq7DqtV9mKH6rYDd
+6CDdrxtk74Oe0IB30hpqDtJIKFWpXap3aZlAwHDwJAQY04PpYB90zEO6Bp+PZHA0TzLcQSIdtzbN
+e+AYi1pEey18HaZDPzV1qXiHx1gAxwrVsOadAzAwLxsQeJFAuAeqRGOlIVGIPbZV+wYPWUfB07vG
+nCyhXTHoJ3+WNH9BBwPl/IgMFgAqeEopg3Lk4Z/scXkwbsBK6yGpoRqvhj0pWQ+b2Em1JMAe/utD
+CYoZywQBijATj4fiTTUDis/qIm40vOor1+ZuTvEHZum8//lQD7P+nuKGygtT9tB3AIJ3BkXU46HQ
+BrRzP6W26OPmDplvPo9UdLufD/LwkqeDiAexXUBaI0w8WY+n2AY2mbromVzfTICEii1h1WkKnNEZ
+qvrmrNuSUXwtzr8qSH9hsL9a2vejPllaKVaHWFWaguJ5O5p7Ew7Oz+To52v7YRSUCc6xJKASIA41
+7uMNLOeqazO2mgJFzwucNv6A3Vz/wkz4qRQhvgyT8gzq4BR6YEB7+b44Be0HEi8QMUXd90cha6Zi
+1luyc6hO8kF4dD6wqd1Xg+x35VIu+wHh7LKcAgM162enADSZx6Z8Mo8np4D1KAbCiCnMOLZqAQb6
+IOlDtJYtLSB37pygQfE2Oiigkf6FI/3VZguQfYCRlywl6RNBRmxUrrwFODhlmdkF2qQFWbz7xWb/
+cNJhjd+P8mCL72Sf0RlnajmZItV6OuGDWHdIT/PemZkWP99O8jDjR0cDZZKmQggqQQrL+JMVORAR
+KrMyU7QLgpg3LZAJIJGOlpwYR4ePU8U3fOxchz6WwNYVMfSNko1r8cFGzM76umRSkdImysy1PcIb
+Se6nFtOPvbNQEiUA0XkB6SK70BOkqF9Eqh8MApEQjjUGjJrKBxbm8VbV81zqWEOkIsSBxVPjdokx
++Pjnu/SXo6QQXzkoe1IA0fPIIEDTxqpPIfT2QHAeoG2n3Rvk+S/ixQ9mh7U8BCcCoJZLLB5m8Z3Z
+9QokAB3SukjmFTSzCrG9ibg+Wkq0vPz5gn4MiJBA4FzQFEkExfgDFfXdUFBUQUA2xhaDD8Bs2ql9
+zbke9kPNl8KnLjnRWfWr9T3Y4pGrQaiXEsiyB+kWdNUng/JlNXYArqFI0slctHaCokYuXd6ynrzE
+VV0CjxNLesSqUN78fL0/GhCGBhEMcZArQU194ibL5vskWRaIXkIshZiIPbUBSuD/xigZZOYMg/Wg
+wHy8q7yeAGeV3BSSzPOewgHY44di8uej/BiKH4RncHkK65CEZ09CsZOo7aBqrYvSAZIthui0BAwl
+Q1BTQ1hQoJDQ07WyCc39iDo4iQMqFVtrS5RO+374xYwe0udTw8KyKXCXEBVp+mRCs+7YMGwMJrQN
+7KABu1523DQFaBUCqWyas1/kvB/dV0KvVYYZ5QSxLHsStKrAWDLLWBepDESFgMlcyMSlRxDsoD6v
++/R0lt63v4j+Px5QGBboYwmjCo7RkwMaEk5B55xr0A5TueddvR2XZuq4Ar6WiF8405eM+mRXCYQD
+Qh5iAbSYPMkCWYdWmYGsUjg5iXOoIjLlG59cDxzJYrZNqYFywzOUs44sZxht2Tl4vksKkFbqQxin
+cg9cVXn44n3feP6LrxN4IjE8+fr/geJASfbQ8vEnMPmhu+TKdXf/9X86A3Hoa8vP166Ub8990xx4
+9kJKCukihVMKpRkFh/mmOQjxAoJRKh9gL4RfyuDSH5qDfAFCBORiCcBbUASY6x+aA6Yv4BqVcNww
+CA4IWkb+EFce2Q56kr99/77DBGLuk/xPUw4oBhouBHTBpARCyuOYlYZ57DZKbBGGeNf0qTvedBh3
+0dAaanq5YKO2RG9HYutfsobQXTvjVHEOHFCHM/zBAhw6dfNkkqKRCyiPrJqPdVfxEzT65gAUxN3C
+gO4Cdfw4a5b2YLP1VROX6mXV1+1hLacbvunzB/4qyLe971TdzhdC+GPX1ocsMWqu1tMhrju/xM+e
+Zu/QhqUCDvidX+tT3le3izya0mRXbfSCuf5oCvySNtNurNI8nTzwWOc4kvcmNTs+2MNg05Mt7W/D
+Sk/Kcjqrhl6BRrtzvb8gy/LQkyLrkHeg9W1sK+AsnVQQy0b2CSF9qDEueAe9Kl0VVej9od66XcBb
+bury2BAQZwP0B91QGead7BKkZFUepuGW6O1t7UdZVBV5nxCOj4ewvdtAatmbcVgP/XyYnSv0rOci
+ndl4LNfOHmYg8ZCXp0s1nvCpul4GetEaoda2Idcy6ZAScn3tcZ1TXSuhYQrxzLZAZVfzDvoaOJsg
+TPHjkbTF1PdFL96s7WaAsp6TU+gdKAbmDmE6chLnHTSG0Ln8AH1SuQ+mEP0M7QjT/KaNIJLW5bgW
+oPQo6DbK8rhu82UyHDfADQw9qDpiGJScMn3cdeAC9i3Qux86EGnyYcOXmfbLR4vEmPfT+n6J/HSF
+ZgUFWbT+xLcq3prIbyrSzmrQ/AYjsRYLX4hqIcseBuDfIMIDLElDE6FLYuiuVmeuhN5zcVx3UeRS
+uxNdVm0L0o0YT3vaxqtspvQ16GDkgozL+k57CvrK6oDDSdZ9JvSybyS0rZgZRChwy/JDj8uXpWig
+VUdQ85J79gYqjfcAx+L5yLw5TitpT1AX6sI3w2uf1tBABXdHY6BpZ0N2D1Lcrkroq5EvR2MKJYhf
+T0lcRuVK0N4yVzbnNlSNwnV9bEGT2bEef9xC97lPgDkNQEEqsto3PBnOXWmAJ0/HWe7XZHOvU7Lk
+gAHfRtkPimPfAsOYzrmN7XHDmm1Pkp6d6VWqum8V8JJnITX5BM6HIkheOOpDOkeZD9DDI2V/gKKs
+wFN65ONp0lUFSPwxx60PF8Laexebdy4ddcGmZC14Gs7X2uR9vxxQMu8lvZ0norgsFQDgM0qcP4xR
+gx9GdmSb7pqv6Y1vw3gF/9NB6XC/xfnDuJJE0coc9344+JTOynNQ4oG6gZYht5RvkQn6bhNanFfM
+gEbHWXqmmUPA/0bKG5Dy6+moBTd1r7M5KsKXO74aVRIPjNh71LfXoEDBpPJmItVDy9c7eECBeuZU
+uw1BYbkCgwR8X16PbG/BAWZevgZCsFF9WqutPyr77Ew0G4g5yQTyQ7cj8/EG5FYEd1EdF40K7NOW
+2uvIjc03PUF7RPZetAcE80D8ckBpPGyOgJKFCPAyYVgB98izNVlAcQqglvKq7fdi8vGI9aK9ajfx
+EQJpLoAKK8uPVk/7yopcN/i4LG/DNOcZdEMVA67f2hLaG0K/Z4veg8q3Q8N20kt8RIGEAnbeFl3Q
+x7F8heP7etyHecZ71PSnvgaPGurszq9JUcaTsomnwcwoTxOvKlvDtD9Bz8w5rcJhGpuDqbVqfXlA
+9bSHjqBDHNCJx8Mhc9AoAay+0a+amRVroy+NzHgOGuIJSObH7US2azcPZ91yM0h72q7zOc7c+6Uh
+l6AvnEhjCl/bl10EwrisQfEwCzRASW7yipircmEQJWTij1phZIGoRaqKzd624nXl+qEAYeitlcOr
+tO+u2zo7QSnopxzleHAKSPgL56FFi5JpZxt5VMvqbQlccz6v9b0JSIWxEseYiTdEp9eLqXObif4s
+G1roBIGellx30IfDp2CU3MBjWwCVR5VsLkMrLsYWHaA+eqONrV/Rhp2aqT2M7F0KyhBO/I1e4mHg
+2zn0wr3WDp+UsNOK8eW1TCCWidlfIQ5tQxmeP00eFCSdfV58+bK12zn0+VyBNDfk5dp1RRYkPtTJ
+CX6YQQO9XPXUWFWN5FA3tAZJ2dyjUJ1HzAHySWi7WoBAF5UA8T0Fob8yBe761zOPAeSkdWgPoCG/
+5JqCw82ftnUI/5edM1mOXFeS9hPxGghwwjbJnAfNUqk2tFKVCiAJkiA4AMTTt+e5fc26N2327/9d
+nSOllGKSgQj3z+O6gEKV/bQWKR6IHe2ij64Cgpn0b1A6+m0WZSe5kJMIm6d4qvZs/qhQRfO5HLMj
+M+ZxXeejsfW2THDR3Te3dbVps25DqvoytRlqgJ7yaSYnLZdTIvE0JsqeMxI+VLWFuytr6MSWnWeo
+zjqTT/MIyjTyOq8o+e5Gf+TxEF+7QMeHcI1f5SQf5iZ+4EEwb9K+LoBysQ1E+VOVBqeJ8zKHnJxr
+qs/TUL77Wu7CNT32AIEGn+7KLs4h4BxWHvFtVi7jWRJU50BX7pKFMSTqKfrBSh0/ZWZaz5QPecRb
+PKd+1wq3VRUEfiOfYeQON7pKqL90zns01YS4LyrG96UrH9ey+dngbmbLN7SgHOIY5oJ5vdJxBCxY
+6RuxYtrAg+7z1dQyX9MoPOAPa4vAQDsaK/k9UvupUm9utB3SPXCBUxaFmyyy7CiU4u9zBrxoCF5Z
+FlW7tNf1taVBmi/wzFDPUqK2djLvmlvAHizZdIxeExnv7ARag84120fdkGKyFkfdm3Vj9PwxYHTF
+HVNGBodlyp/rvrwOgsS7QeMiuibLdrjdyXZJcYT00W88Lb4IlLrF7XRrKpccyxQfY6tUweAFH8cV
+HVmVpr/GEso8bNu8CZINUeylnZsrAUL8i4FbvMaBhKXdtnvHSGEIW/IyBIdWoaYlPik3ks1ko3zW
+Xmyawb7pw7+ziIpWkW6bGTNugpWdA9+8kErlbC3dA+2G1wnSwcGpdN1M2bxQcJ+w7IAfhO3V2DI1
+3U5My3wjk6jPS52xnEQhvwAby7akV11hwwDmI7I9KcizkJ0q9waso3ywUfmrCua6qACsFiSe7G4U
+sj6LuM+2UcJYIaqS4YbBF4Jachj/w/1Hmmzfx2t36il+VzM4uxMCr4Cwdr8ugJIbBrCgMZPbWB/Y
+12aOhxdiFpB31MmncVj4JVu4+RGteNk/39xnM0i3xHWnZl2yfcZnfmnAyNYbUWv22WSA4kY16W3P
+E/nRNPwPS8TWlRWa3wgtF66i2hNh8Lvvvzab8R6zElehqe+vNO10XEe4H7Mz3xZJBzgz959mlXSv
+wxTDFArDKr0CYB5yVJEn3pC8GtqT8HMei1TfYHseJvdoShhWEvCk7wUUrJqdGcCEDbyx5MSoWAvW
+GlS3SsPEC82jCdo3mfL3wE4DbpXaFK0hZs8p4FDu+5+EQsizbgPXBffhKvY265/JwI5BspCCmMru
+Mpi2eTublyBpHrJAnwB37TVUDnSWQ1gwPdw0r3c+MtsqjncO5HbuefM5Wv0cRPGSwy+2Z+CP1a7x
+w3roKE7AuqcvPmJPipl6mwbupSb1LZX6IWvFE0zUC5xoV/C5K8+xGz26IA4voeyS36RN5wNmtp9p
+6dKCdzU/0wm4zNBJGOVJ+V1lludL7a5Qd+DNi3Z+IZQuO4VGc98usj8ChPDX0qv2pSTNF+6kFgdS
+0xfWVnExl4lFRyWma0/DudDhqk61NpA8YqC2biig8dzrrkBnkDYdaIAadwuMFb/Iag+nb+9FeVqn
+riqgjaRbN8RTEVcLvTgSxEU/U5XHUwco7GdaR191hzPepcLn4CX/ZF62f4xI4w1hY3njgkDcXyt/
+y4bZ5i0v8UnE7NDIQeRjKHUh2zXHA8jQyZcyJzbiNxXHDl0Dm3JUR/ugk67ObVtVeSd4tMCMbHnR
+tyK9jI5elQijQyXX+hGMdLoLYO3v/v3IDivYzBZnTlaq6WinTO1FP+H/JXjIBenIwcwzHg+m78+7
+wb2s1eA+gpij71YlOBCajKwYAWPuojoqH4SIQW1m/v5ylaDzHOPsSv1K1bZUgwIjHvPsFi0GtEC7
+2u9/KkQTDvfnNRiPjbf4baOSXRGBk4cl2WbbPpKg7SNeudcIuHADf7iXHzZ0qC0WVEEWWDzkPvCH
+0YzDS2PX6K0ZuG/h90fVOXVR9JbWVJ9cl7pDtyiCaxvrfGH4iSxuh9PUS/ls1cqKzOvhZUxToAEE
+rbbJI7uUD9Hi5Uc0WjzQYhjkB+5T88OSFi3Mv0tZY0EXRCOqlWjYzHPi0YnA4CGHf8oVyDBclX+/
+RSgZegsq0vxo+mo61tyIP8ILvKcVpPMW0BI6AeWbAYYkG6t8hO/1NqdToIu2muGn16hhowQQQirU
+WeDgtPL47FvFgBzfi6Ee3ZcdUpb3gqt9Q2UFXLFf5RMhkc6FEO4VeVr8q6yWcv9PYYwMKlSmljs3
+YjW+/9+vIgMqbD+UQ4VqXQ/4d7oEZ9FM+Dtj/JgmmfAK3Y4Sfy5GKYNbHp9N99K1VY92vCefS8b7
+vdVhMMDcidlWgvcgmAjqsttlLb7fDi0CLjjFqNoscN/6nfE4J9KUWn0YxwbINg2MzwEe0At64Wif
+dj0PNrbXKWZ61C6qePaYyBCHsWxlsHXGDTKvcZ3OzHJAFmwOgFiV3r/E1VRBoeC6hmdZjgcdSRlu
+UjH0eQsM+acf4BGtCwu2ARipE/HMbWuWAorUZZM+9VFgls3ScPUj1h6Um8Vk1W5i0tsfCbHBeypj
+vjFrFaCu9/Y+1Ps0PRoWVA9zDXxxqwc2fY5dooGBdJM7Qdz3KR7pujvYxafzM7dw5/etDZLXgfRj
+IfBtRTgtmd4EPePfKVvtVzit/DTTXuZNZj8haPjHallsMSLl0uYKH83H4BeDMEOdPltJSZ17L+Xe
+9LU4loJG8YZXhJ2nNsyuuq1TMFM1nI1txmZgrllWHmmT6uDA06y+zBE1SDIMNDh2U8TmzRCZeN/O
+s3pfVh7mNJbzNRx1dhJSlHtkO/RURLD9B/R5ASb68H7+kAZ8qZrjAwIV7i2sNf/ytUD/bVvDT0in
+6GwzNTNfNph/JN2BpB9PoTX2AQ+9eylnqt8XMvdIZFAH+ctBV6pFLbqCzq3MNWwYzPxdcJpH08f4
+TKy4+dj7Uw/l6eQdyR5xz63X1SEdFWLm55tqbVOPyZcAQapHAuGjqsj73A+x3eDPs6fOhTLaLrUp
+n6LZp0exLFCtehRWmKJqWWAD8OFPEjl9TZcm26UzAyiraVhfQwAkCAiYtlPAF8cKTNHKgjf8p/jN
+M8V+JCDUx4JZn/4BMhTJDZTy7KNRPHnF7Zlch7Tnr2EZ13stg/SpberhZEm4vswZX+lmBiV4vDtp
+HyXtsvdALvzPXZyENjiwBIELFcpq19eoc7Ev5VdXG4wbQdgNUREZpV81q1pzYvEQXOesahPEp8bx
+q3Rdc1kV0MwFgsIW8H7/tTB8kh7UzlW52Ga7QfiBfS1RiekB1Sxn3tAjuIR0513Cd9mY9NeV2fQ7
+DfsodxyjM187fAadBbtTz43LI5Lx5zKO4sPoBH+wjQMIDNPjxKIMI2QGhyW5s64bqtvWbKxNgQAm
+AuzJ0nFzwGgwbiKbqBtkwQ1N8GKkGi6xEr8W/KwLbq7kwJtygqg/8X1aI0CEmEHSXwBPT7lIYM6y
+iqERWtMqD7OwOveBM3lMwuCxVJiIvM7seQzRgpNwsk8hpe1hJTY7tsNHXPP5By69yTvTq2ubpABp
+vAiaAlU+2M6ZSk8VNKhD1qsv4IbiSU/9tHHh0h5tCyhyki59At4XDZuBRFOBQ0xfSpmJjbG93cp0
+XDcq7sZdjITaiy9XtK+qdOcEZOXbGEa0CIENPluLNNDcol5jUK3ZpuclFAIRk6dyypYLgCfE+Xrx
+ZWvVPJKKZm4Tl2hEFs/UrZIRBoGRBlleliYsEA3Bh2WMIAWQNgcaGCrCRNcSJxQNirixwUH5oNsS
+UrvDQO34EIPjKnza+T+DMRTBJWFPcRxRhM/moBgpD67VGI5/qbC1RHTP9XhAtP0YrDf5XZROdF0D
+aL+Lnpqt4lcWCVxOh5plSsJBb2chQNimNUdVh8uZyGo6oCBMbNOWMzsvHvTfniYo1ece0+lPNaaq
+zVOaVo8gh1q9n8ZAftVNVp0jWoOy6OSCc5hpCDxREKfgHpRavpElkQ8w5NIOqbC6+edOjNwJtYQd
+nHMA/mgNCjzMwCSmTPMiVIK/BhlBHNRw11+6rM2mIp14dmzmCCB7p7r4fZzS6BtjIq2ODXC5vaas
+3zq4SidFYYLnvF4itzNZeMeeqSbfM5cYjVGd1343odqyDfg591M3pPnVp3ZBkWtxgcyK82wzLMHy
+gnSfuy4Izpw8UmJvSw9LYUak6jlqcBIh5ZRA32lcXd6WqRxuFrj0liILtSfNsMhtRctRbSn3LMrB
+4Lmfq1zsp+jX9qVbUkj1eA5feOhx/C0Y0d5lvPYNfh6Ji9WoBYIb5xQdSJnKXcuH+YJQQrZ1locm
+ZwrvALpNxR5HQJ4ZGs61B/IfNxn6/ERcRSPqpz6ZNCjYMJsx0wcU0HHms9cF5v1P1uJCqgYxThqm
++gHQpTx0g3oZVRyeOykkshG2/IjjbAZGwwa601QNlzJteLZpuRNIzcbT8Gqht4FvkYjVili7nZwD
+icQdqL6DUUQACjWdfnDMOuR1CVDdoHHipZdl81qu0/LHoS4DhS8d4rp65ci7hn0A9c3rpvuBQoI3
+4nGaCGCdHAVXxAiMNmHfLnm2Nu5rtUJBSZu7LHeek2Pi1QlPq5bbgPdc5DKhoD6HWZM/aMTNIRr0
+sNOqirIt3CbEsEZgpU+IryLgasOSvo+oNtcF2HQB6FGeELwkh2pcjmSOE4B02nV7GQ/RDjdZeIoa
+6jVEEGEeHZyzvTaTeAwxKVWQDBClTXQ8f1WKxke03IwWNWh/BaQAWk2U9m4H+d58zcEkLr4us2/Z
+ywYs/zrGDxBMcHYupgpvGH4NZE3kPjHCzQmcgK6GSpw3UVednWV8H6lVgcyVRYJEBg5NjfQjugKK
+LM3UPQtDhmmnoxg6vTFx0da13d5jZs99BMCZTI7kvmxgJHR83VigSVMrXlG/nqaA2k2QQEOvYn9K
+4NEXa42gIK0S8acd1dtK1wLsKLnCbBiKJg3MdY4M+7QwM/atiuA0TGWyAWb/bEd5DPSw5dlUnpAi
+2HAcPAGVT56suzbwRYftNtaFV9HLB4gg0HyacgtPb9uaBtY10ohlEn3Ifth7Ql7HEYoez+Zdze2n
+LtOz0UO3We953M7WWd7J9S5vmQgpAih2NRInKoGsRBu/b2JSbRHJXn1h1rIwgic7xJjGWzz165Z3
+PIJVMVUfJmuHn6GmdGezabyOSVkeg0z4elMyEx18kNQiT8KF/OV01TfctahSCDG/L1L4N4r86WkO
+uqnfhDKdnwxbupdMTOF26BAhajyys33kX/0SnlM4GkgJLBjDALsgr2Kjc7OUPzxi1HkkArdv3JwK
+2IM1xSBYN1fM8+hbu7Q+ipYYHCxGFZKlYCbA9D9NxHkoIGQ5VYtFlrcl67SXphuegz6c/8D+7aGl
+wydx0pp9H9EMTsOKJ7rN2DlV5XrVTIy3JAiXGZHTJX0xSzKfG5l6dJou/Z2CutyNAw1zxHDjPOlJ
+cOpGhM7XSFc7HvnkKwhnkSOOq36MjMYFV6Q+ITyCPnskHP1vk3ywSNLtuiz+qDqZIABBy27TDlML
+qLwOb5EOkHOgWm9by7PDuibTW1A6tpsDlv1uXTtd22HlD45ODSSZRr6mmO6+iWOQQcfGjlcFOHo7
+RbY+xVkfXwAo2Q6FpHV7JWv2ScKu2q5NjLF5XU2ay7rHPAJio0BiqflkcCV2AuzCI+h/yIKIRGzD
+SjSPS2/L345NwSP8MrbtLeVPtZnYYwN/FMYJ0wdVghX3yV0WSabmVFbRZw8UfN8Fc7xtnZXftTDZ
+w0qz9ZnFI24kpcEYa1Bzv4YMV84B1T/2Fg4OYDfzItYE0FrT4A31kynCetVXJMbvCwxSUcyoZxfE
+Te8iVDSvBVDoO4YN468n3DwomG549r2lMC2i1edS1L4vWh/qvO60R/JaduFRIhG6I6FoLmkzCBSU
+uxkAkK5QvtJb1rf+q+YKHQuNYEtA2zrUbgjOFVvlliYd2abJbM+rF/YI+3MEwYzutWWRP0zJ4H8i
+bdWjjJnu2a9VvJn16hDYqs0rkkXDrs/EHiN6fZbWZvCjONvDvplx75pSof9cwq0PZlyR/g7SINoE
+HviUao3AIXS3nTAufVvBHcNVkGLXqUhcXJtQuJmyIbsFJ+ERER3ebSbBxIdb6+wlCQLYxvFc9bs+
+TesHoWV1q1VkLYLmlh67Ernof+NH/x9J+R9oCahDDkTk/wJSsA2s/V84yn+/5j8wSvYvEIx3RAsw
+Uoh8KaCq/8Ao0b+QHKAII6T/xF9Bvvw3ixL/C7RCjCwq4EoO6DfBi/4Tfw3/BfTs/hMB1GFVSRJn
+/08oCnqQ/4WRxQlBKAOtI6AulmK5yj9f/x9QonC1HpPW9HmTVDGCD+B836ZmQPbJJJkpCIRVWKvQ
+NX/VEDD/JmABxMYt38mAU7/PwmLqMembWZR5vPiszBVkoKJDy7jmEXjkc2NIhmdEzwKxI2qu0Gex
+qqF2YYSWXlVPo4vKJzdHSwA5UE7nFUjk0yxHu0Ooqtq2zRp98yFGsL0FmHIMuzm9TUPwwVNZna2w
+LYJIgBZg2I39LwXDAN6dgd1YYhD+LBGDu0GI7l6SEEVEIqFQgiARBCh/3AV5iLKV5n1oYc0GOl1O
+jMj15Fo3fCJ421ypZPUDJFjxEE4kJlhrgWqJsteCKZiHsbq2JW3O0PeAxc2I8Ry1qcePaqqTSzCV
+2a4LOqisUqDMClixr4NXMCedmxEmASPh9hzZ8+NqklrDsvTJjkz8L9JsbtP0CU5vMeL7RAX2pSwr
+/9BEctyxYAUNzNaGBGi34/U98FOCry/VPhuHaqf4RHKBqBgU+Kw92K7CVNU3iiHx5cG4jkvEc5E2
+6Q7RMoVCrpufbSIH5PCr8ICs22faheM1bTt9bJmmF8QRBNwWnbDjDOT4c6XxUCwoyHAO1iWvm6Xe
+Nplbf9sslu/Qt9T9531Mffzd1kn5kDYS8zHGr+AlC8j4e5FYIlJWetkAtbNHHtB+hgfATbjp51ic
+ddfYZ48NT7uSVxHedLnzzKtNrIJ5b3TLTgBAoDB3JtqSbHRAkEkZFSjI2Uc9s7lo+zjFgFvLV1ZN
+yQmLffxuJArAJvja7NOnSZQTWpKLCad4P3WSg7wliDX5GWpD7RIsLIjAbQRcdICpmccn36jG7uNU
+VYdQ+mrvZ/nQB231FJf1nVdaq7emiqY9ZIf2K5QwBF3JkycVSAx/tetV3paq/T1q1j0ticIpyY3a
+DTgsLoiXyM0iQn7s9EQOrFl/8DSq8xApRnStLbW5ZQOAjAprR7C1pbkiwRkhCKSTQx/K+FPTfkFz
+Xqs8dF30UI0GHt8yYEVOrPDwdmZpHucy6lw+dVlwDnoMEqXHrpx2cuYd7dP4HJPRmHxyDWJnnQvW
+q/VhL7YiGKe/dWB1T589BHz6tACtovo5idjyaANbGgTcV2jp6wSLb9TuFbPjPTA4g+exOJA/bL8g
+lzhN0Zsyq3joIK5A8xPoWcgIaZql1ZloMR1JAL0fLgDsg66HqC06AgsNmrUreudZAeMeuu9CzfYf
+eyHDuocfpJn1NuLIHo3o/G42ZRCdDbHfDnjPE0ZTvbcjckQ6ZO5MVgSE4bqqDp/rEB/6KHJbroDO
+QLuSN0btvEN8cXjCuZ2+LsOIECWpoIaPPRq3lPI/BH5CjVYXEviotXz6xxzoB4jcY9P/E32CUdEj
+c/URLdDekSh1t8B16lePcPFmHGaExd04FrOx5D0ae/fqu/vip3Kq1jdd9vumKuvfax8hxNZEa/iE
+jJh9HEZWXqOwXKKN82k1b3pBsCMIeMzLkCAlinkcMqT0vn6RSxTul4GTT/RCySMZSPqh0Ic/474K
+3pBlc5D06ISUWiZ2c7PIV4l1fh9mTrsnlbEm3XZj2B1TY1cMvgqmhs9AN8zCxbss8imC9ME4bCg2
+0XQRtiSM1ceq41OMta6HLqZsw3DPH8dGDR+V881WJYkoMNkDPipBNh4A/2AcEl093+TMp4dJZetP
+sJgIx/PuOGKFxH6e6wVwMXJsxxE1rN+QznXmuGj/iLzSmsOVR8AOs20JZTc0b5D8dTFHwXoeklZi
+NiqnqQggSQIB0S3ytXX7mvVT+D5VJbS9mq7+wtcIrhvCR1eMVOEWjNyyg3UEYayrkYNGqhBHmeHb
+AGoMeLiM75hjyznSGQfQ3dgfarDhoQeAtqtX4S+QDqfbAup3U40tRnuysNdWBGHOlUb22cx0j89v
+yGtcuFvNVHeDdi+2vanKk4oqf+irEFuIglXUMBGa6TZbP1xUbV7wvSivuj8nmQKF1moAjsP9I2lS
+QfZM1hTGs5YnGALBT4jS/O841G2FT6iPzz4KsBeinbILk6HYSAVXivfqYYEe+hehYgBmg+lf+7Uk
+Hx4GKLYL1Q+rGI9x2LbQ29C3PMLzbn4x7DACDJKQ7Rj2KfhDOh/40vMD7AaXJyRLzh5ravK5EtGG
+hl78CUMdP6pB6Gs4AQ/RA8Weh5EFe59GF0g1iExGd5kqGn+V6Xpf9gT0hqD/vSFMBBYtCKYDoBOK
+ZK0Oz0bB3kqzhl/LoKqPC1lGBGd0i7tiFV+qls0tW+24aW3cH/kUmx185GFH8Dn/aHB9/uglqq/Z
+EopXPa79Da1AeVywmyhA3nNAh7Apg2XetqwmII0UHoCFJfsK68oKlmK8yJCkxrOIUw7DhWBgZbGv
+Zpdyo//ELZqm+6kCaJW1WYDzPOl3AjZmnoFL3K1h6EmOeVLsaBrNW2S37RHdFoyBDCtuMix7yOkA
+L2PRLp5zr3QK9dRVgEKX4RyAodoiTY2QzTJhQUI3Zj+HeqKHio7lS1UlPJ8I74twgXtSgsffITEO
+gUymFRAa25yF1J8qE8OnJCY8jNlst50FgYNFE2uBQCYWV4AOvaxEtQdDQrnF3+dPwIJgS3XKnUzZ
+YM7tGFme/NwR5DoZdGcsIliAxZed/WF91t0q1HOsRfArUKa4OS5lN38sY0Aew1Uk0OyZ/Qp8mxRl
+xKJnsSTLFq6jyJfEF6vo2j2LZ8CSPVZmsca+63Id8rhxEVRCrMfYNDzSRzOrCLRRC/puCmMLGoXL
+5dWHFXudzeDA1clKn3sZDfmUIKVcVsFpnQXLZRSwR5XSKblEYc0OCWTNI6K/09klP2Hpdic0LgvO
+PKJoTj1tWb4EWGWCOF13jkpksREcl1D0fDfsE2FA9MRR2D5p5XEoAaRQSAWXmbl0NAyOy4hDEyoY
+/w0EQyGFUep6e98IPW1QmumR1c6D2VXGIoUzDfKiuUl/uQoZGeVmD0G8zb7ikUf7UGY/13G1yK/3
+/skvDRJ+ZVXdwmT6IhjMD4zP6KBdMr8lg+h2xFBsJJgCVIAoxjpAvD8YjDD3Ti3t2neslHAfFgbs
+m5MYYfNhFMsv/B10i2M1g/WDzXOv1cjGnQvb4dfso/5cAfbrkUpvm2/XEPbUZxVRULpS9VHFRhZY
++Np9TDQst6vNcGQpiBYjhKkUSWoNCKeOl33b2OS6ZEN0b/sBXMulg7Kjhfz0TUe3Bi1Eh3WElGB+
+j0so71IO4Tt2g41HyMlsp8upO0MKV5elBMWXdAhGJx6gEJ/W4Glyq/yjAkqP1dzACi4hb2ziQZcg
+IWZ64S0I3I2aS+xyrNB0nVoE2k5oQCI4jGEw7eK5m28ZVLgcNGH3u5MQJFJNBkzz0fjYluBWA6t4
+hQsJdsctoiebgS3+0lA9F9C07JsbWnnwAPd/J22AnRzBOv3GJgk67bCgEYHpeiHA16FkTFiHfkQQ
+3R2wwEvDcZ2rv2sZ0FfGzA9eqnOgO3bj9nWB4vxieUVxD9ZbTs0Zd44/4x/kiOGhuusfCcX+NcYL
+8N2swqaNkP9empF9WRvNyCYL3f9cO4NqZrB7CN7gfDMCoH6DHYe7fmmCQ4wdQC+0puQvTFF7q9Ys
+edLou4/JgMUBiBY1OAn6j0FlVzQ4u1rVwHTmwfOHmdISIu/YHliQsD2ejm5bZ9yDnJyyEwyQ+Utp
+PNRuIuNHaVuxa3hLd9gfWYKeijmwWGztOqo0TkGcVwD6Q7diHuhcrLa8nNcn+NpsP6G6AG5vzE4H
+gh5Hv64va6rcikVp3j8Gkx3/9jDZz6ya68MylvZDghoAGvlO4XbJRm2TWeXYP3G6n7WzHt9WXj6W
+WffYY17cstI9l3Pri5i2zysi5O3KL3RNX1RfAcAun1UVfCdp8ELnNa/T8qaA2IEuW7vN0jM4YjS1
+WOBYsQCVcki+sfhlxm9n8QNkP+jbYxzoo4ameG7rzhQ6reKc83ukqIe9GjasfA1kOJ7ZYvsHubTN
+Scet2M9ajo+Vq7M95E6ORRljgJx7xvYZxom3Jun+ge5yQG4O9D3JbqWh/jin66VutZvzoGUjFHkT
+n2CM2TuMsV281sdqjXu0gqH4K2gX44mEkBmXTL7DNFAbEjW59gsg0RXHNA77BMfFDX1vDZgYO9ul
+vRAzx7epagDLojWmpMDmvvgVbUtGiglyrCUNP0UglLZYvyOe21ll+TrOGA9NyaJziqjOU9gmw15m
+sNiLZVwhyOq1ItjjYpku8AS49xSbPhb42039iUsgPnqs63xkAAJYIYcKRtSwiLFYusrvgxWKeMy8
+eIlSl9a4+yKQovcWD1uhwFmOZNkR17ZPStK/dY382Oa/2Duz5biRc+u+ynkBdCATU+LyFGoixZkU
+RekGoRHzlEBieqf/Kf4XOwt0262h3R2+t8OOcHSLKlYVkPiGvdf2aze9DzPP/1iXqOKaau7f2Ayt
+j1katPdwV/rgqLzVBXlTshF1vCV8Xjuko1NYT4Y2qu5u9JqvUe/YzXM4VIMf5W5hfau7qaJN54l7
+7CbbOU1mLO+8flmfq8mhzPLZOhyoetw3Ccvyq6AD5YomPTlnIcK8qRiQQ2LlSfdpHyynYGUxAgtQ
+nWs70DBmg7w+mtgSV9mSr/ezV1hXdhEXBwPq5CQWxAmATVrGDHWyoJ3gGcPcs/fdQzyuE6pbB/m5
+m1nqMihEcMV6htWVo+urdLLqJbJjkVwsy7Q8Qb1c8P0kuR+t2Lnv+xDAJ41inJxmDViGy8MKDowT
+plvbmZCo6DQ7szIuqh0jAF5jqnnAeunYHnzBAnECE+mybNZNd/CbvEU6sXL9T77CZlHO875IXDZw
+upzPpmOoVFq10NhELOqxbvSTKMkNYqAq2TCso7d+HSZudd3J8i7t/YHf3OPpP+sGruEGq9C29SS7
+rD7V2EM+4ctx3pTodvjZZnmmslKXY2viNz1QiotxbtZHHa71xWLc/pSWHcQmZnDXvlnTT1M785V4
+g6zkzko6xgFNH1RsMenlh8phitsgOWDQpLszrFiF6KQDxtu302MmyuqExtJ5BBkWHipXASFUQ1G9
+ocOvL7rFApUIuyXf0Sgj/UqBBtAgbGjW5VtnrwVHXU9n5dURfa13ZnzsPLEdGfcylvk7tnv2nQsH
+8tsUaHmp86A6+CB5mE+0yXzOU+3dVaDYDs5QtdfwN+QFDLLqW5wO4X0bTxw4rhIvVpzGPfAuFP0Z
+qp2N/9mE35Yhq5uDqZqCHeuKCSxJYov7RJq7NfDsW2nNBQJynkRXK/ySu9rt51vfzyUlreUP763S
+tVH+rNxcLT0VEogieMhj4T8k3Tw/1rozZy/3xDU3hH6jlV9ehQa2FLcnhGPKtSidxPgukduDM7bX
+qx582he7GdMPeF3Z3au5PuZTa9OZOeM5aIy4gCA536hpbL7YoirvNOzHT21qqstmzmz8DGDm8AXE
+F0GGkB7M73JZufgnAONUZ5aNycOMbxpEm0mDM9BNc10i1u12rly6r7KdumOPIQgNyeimZ1SUoEyr
+DswtUBJvDSM/aPB7qrpFcObVHyy/rh7tstdPhfT6h3gjeMnMEedgWPJrb3ad69kKxkcvcKeXpbfl
+vZ266YULT+veUhqJtyxaJkXNbO089qEvjmXhRrGXyDeIYxaVqAtT5eW1EhhzgFfZl2VWuHxizRhR
+wkIVghN0OzgWgq8+C4ody4QOudQE6aXRiCMbCy+AtiS/yNyMpyCWDcvZ0LY+e6tMcCah2MGUUb+F
+dsJ+UlrwalB9fOlNMj7Ua1OevawVJw89buTHfn4luafRvy7woyJpMZ20prU80cW6d8w6g71ayuZk
+160+mjw4eR3Tj+FtFlvhoz91/oPvTfETjal9XOYme+8uiMJL6N0HI7PucU0ai702HODUiqtjbcR4
+4yfmW8606RHhohvvBMqNa3Z46IHHVLzoIZA8/yrWNXUxHGZlK6Snub/3h4SNcu+uRRTD0NglJgiO
+uWvh4MtiXb1xcpq/dC7yF3jbwE850i9CFBXIi+S8C2cVMKGaHpchsaPBGVL+lnlmBedA8GVtZu7i
+KUmvDcrkQ7XNB03jyNseXfCzcvrxNp2c8iVEz+YuqpTnuR/ULZPCzDlDiVjQP9hKXySJzs5gwxn4
+Cbtg5xzGDUpaaiLqo6QdHZTJtS3rK4rm+Wy5lKeeJXRwdsoCcw91vHnpXTspNlqVN3KuzFV+bDvh
+3MVow7iKZg9zH9UqVTK7B0aBdiXfByqJ/aOuN4lmVxs25W6jz2iX5p3NpX2YqqHxX0wRi/yAPwVh
+zBjn6EXQlm4yUOBZ3a7etpC5YCbHCiR7w5MWmejQMxQrGrNMyDZ1eh8Ihma1v0lrEtyJ8loNLuJb
+Kxmb8dyvNapWPenU2WskE/tXrPoq4RJE2nK6G0oG643rakSslLVM+3TK9LFWPAB2tTHzJ9a96kYD
+gOHA3QTuTkrbzUwzXdVZOgI9Z6+zikV3ZtBy8SylHi1R3up1BX2GwG5T7Xqzw8RqRLe6kbK4p5Ae
+e0zvttKC815lYIMbM9WXY8zCHAGHn6LudBlbWgaN5Osoc6QI2E898sE1EyH6MhmOOPtKdaCPQ7Cs
+UAZzK/EWhxYTIoiEQ1CZ7IEShPmJHKa9Ay+TJakB35EG8SXnrnnoV3pACzX30qn2hsW3ODSeVT7V
+xsmvE+Pclmq+R2jTRegYQPGGMdMNu/H0ueMcunTrtLjKBye56m23fuPH1oeqD+kULUH7CcebkzLx
+PdhbvZ180kE7IR7zrXuvF8M+8/0XlV7VWLpUiO6YIpnYlSHOTpaEQGzcMDjXSznsYjV673qF4GSX
+x0F1rLoyPgYtZjGvaNmxq/jRODToicMD0ysM24hYrWelKaDmJag+jP1YXlXdGOylXrsonMLk1kaB
+ewQBWtDPSHhcOgz3WYK7rs0xR+yyFc8K3lF9GZRL/jHQjKI1hdpH4en5BShK9ryyYr+oWZK+axh3
+xWifcs4AkyNBjmYfLh0brVROVFPM1gYYEjcJ19w1mPTsPvbD6prjp7gJDc/93Rp7WXrshjZ+tNIS
+D0bS96cqd9odExK0pdwt3DjzknzRirwh1ONt+cAuGQfMYPu3a+twYTE9a+h5enyrV/9FBWxxUN9b
+/rcdK7iLf7+Xvcs+mv////7kR/7JJSaUK7DhO2AJcrf9K3CNf4ZQ+CCLWYRC+wIUgGENnsjve9kt
+hMJ1NwwAphYPmAq2/X/tZe3f+Mtsj71tEPJvQu8/2cv67kYt+Z5DwX53g0sBUHFAdWGG+pEQ0Lfa
+CmlYXI6oFLIOIw91s/ZV2uxbyZIo8QT+hmL23LeoyeARAyajTPaQqSDeXWL/7eC4dPI5kuAcVH9n
+lUerMOziwFr5EY+y5EsckNWGQjKpRVRiOnKPfenLr1YNLOeczcKhBxoUpKkFXcc9M9NtmF8X3HFO
+KzJxytbYDnaTztdv+PbVVyPM+qS9Drh7t1boRYzy0odWwsnfAWzjztI8f5tzME+TvZO5GrqzWTzl
+HRCPFPf1EtifhJdnQWS1jXvDDEUw/WOSB23Z9vDPNkvufrasNfwyBEELyVU1NdD/3gqf2rof1idW
+5lpERZlIdTYMLFceD0n9AkoObx42G0ZA6RggpVibsUS9wngVI6IscdEl3M/vVzst1t3AIL7bD17q
+f7VYQX8YfZReh1moVu4mA/+cA7bKhj1PIv1u4aEbHxxLd5ALxqp1Ixyf3luHWdSdszSmPE8eA6u9
+AxAPaCQl5gP+NXS0rLF59tn0uTKa67X4ytmcP3qTkP5mFu4wO9twF3EOFGMYvfrMNMp/dH4qt0UU
+M9XI9zXXKcI3q8SJ0c6jd4tMe2T5N8XDl7ICWUeLnBbM4laWTWnm2lZkRMIOySNOROw0Qwo6sM5z
+bnOQsmAFW5qMiCgTh0He3CVfmsLl8TrQnMT7rAbmjngSS0vvdGN75WednZ6N13T65Fouj8/SRji+
+ww/oPfhqaVkIsaLCstY71Y0eqyxhqNDkPS4iZTDytUFyJi5B3aPDKT8zsHC+TPAenAg5ffwhHC2F
+xrAmQiW3lG9HNGjwey0iTR69Zk6WSOWj59Dqd8wWmp7oFaWZxPhljWUkXSy1r5JuPHW+3558qqD7
+dlyL246S7e3SrOlbv60CnvZSFp/XueaR2WpcoLuyB5eQtyzrTBuIY1VI8XZZOsguaAsnRnOC3Aum
+KuWVhC3KZVlIddtPnukfeLQG8sx1UANtnLYlFntDW+5SyVdEjx8mFnjKBaSjXfFwOqSVSksqHdkM
+p8qlhdhZrLsg9k94cWvldOa6rjz0bA2kbPD2r7j+BTKG9aaEC3Yes6UOrhVo/2Zj/A/GB/dvb+R/
+yJBpj7dkCwSA/dx/9Nm632YOTcDG063uG1FT0CRqSxRwB8IFGFMTNFC8hg6MDhcqltktjMB9DSaw
+eaTXO2DFBBaUr+EF3ZZjkGTp0KPpe403cGacDO6g3k9b+kG55SDYeotEiF/jEQz5CPfza2gCUGcC
+FEzltbcdOE1GSK8RC+WWtlB7W/CC/xrCoBNEyHsY3s5HJHzENCgVIhh4DW8g6NB5UpNoIbrGaXK3
+zFvQA2k9fCXkOlDuuky61T7YciE8Sc2G7mKLi/C7sHsnX0MkOEQJlKhfwyWC16AJQHsINDCFdN8U
+FtkJl8QWS5G+RlR4W1qF9xpcUXbMZtgE2QRaGB305hC/Bl3MnUBXj9uGAIw2TFRzdr3Fu7Yhba+H
+NVn4442vzDNadKs/LEORgCjfojUaXVfXLjrz/ACLu3q78UWhZvaFPZ/8LZ0jaUE875bXzA5rGOUB
+I9T6km+ZHqUuq2VP77clfWhCPwChMATVLRCXFGkOSOaehJBG+ILt7ZYb4jIn5tYdWQwDBNiiRVAM
+yvc0xAxIWqGf7MTKH/MyyxRu0i2axGtiYkpQ/ZFYElYpu6rXIBMPq9x9klrEm5jcMtcOBqT2Jdvy
+TxpFS7TL0cTlp97dIlLGPAs/+K/BKSsgFFTIr4EqbupgIcjbLth7zTQ/eiM3DYZd1MiEGAVg6KVY
+7Aco/l0R5QRz6Ecz2e7Jk3zNO64Gbg3I4N1yGKa4+9IARi6gWVDAUuA1d4my3OKQOaEz7KVXoBTG
+P826cKXmvmaAF5sLaVah9/zmw8uApIZyGAbYh2XQbrDr81o82fge7wKfcf7epn+UO7Hq4NYW8yUt
+88IbWReUwAsWpWTvkYrCgytIe7ljVCheDFsdbIiw15isl/TjWR2EKWZk/Af0oZk+uEKby7EyyCCb
+dDu23cTt3Gg1i7VhZYZZHTynzsnGYRq3Ifc5PugFG+8913+IJZVR273JkwX2ghjybemOUXQ3zkt/
+TvMB3JvXyVqfRNdjih/d3uFeZonOtixF+3QKR1QZ/oRb+ICRgRuoTR3va1h6vTy0PighRBkBO0sy
+O5aPljHj+yKsiZDKc4sPqwEoXrJ6LJvypNIpvWZzj6KncwP3HWJLG+Utfb61g7vstBQjcVfsZ2a/
+HjeuNX2W7JU2noznYBE0E1OLluudoYme4P4kcTWuBy0sLKyqg4NyKEPqDAKxeHCG/mDRZXUWtIqY
+4KMdon7xLrf0oPZaFxl1PSuSr8yqofcEyGoTDBoc/R2PBjczn3WISIRDpeyflAY0EXUSBzOqgXCy
+o2BZnQW/i+zeIDDFNyNHz02QV/XgUuCd4LqaAm/eCTC16JdAAyC7Qmp0wzAWG09vrO4Dz/Ckj1xP
+qHuw4FPHCGorhEyClm2vPAc6ag0O5x0YcM6apa3ZIgT1CAKfkQnPtiWdwVugX7DpcxrM6DtnLq33
+zWIT0dBMdY8KeUWvvG+mpIfyzggSK3cZN+F+9Kq837M3YGbn9S12fzi+gE8mn88ygm2d3wEA18fE
+54Tfj3On5yP3y8ZRMFbegRxHbXMAoDp6e4Cq4nMfS3pdxceKjMQgHWBSPwzv0tTqX8Y0bu7K2gcM
+xx4bVbvQggkR4v123/mduZkxGSFrTwt8j8YMwxsmnKYGaZXYSNENMgmByRw6fm8/QJzfFo9W0rQk
+gnUsFWe354iU7Fzumck49pZPoNUbX7chxmZWx+2R8ox6SsmiAW8UUJgyaGHXyO/UsptizMUYIRfj
+PcP6yYog0FgJC8PVZ/+r23IP8cFo6pfJEPaQDAJ94IxMTsgpRWzvr/IaQZTwcIONrQeLJutmhCO1
+fzOZor4qZg58Hi9tfgmPx692SdgXIfpGUX6AeesaKqulu7RGS6R71tdINFqGP+FOFYn9abECeIVm
+0QkKniSsdt2g2weY0iI5IMgqMabmosA/B3boBKAuF8d0JvtnF44qCd4o1sRXdlmWeIC7Rp5sA7Zz
+J4sA7PcovaWIhkbBn1pJlyL8zF+Lz+Bn5o/VOI7uyRG2saJQtZM6WIFbc5nQ636pKxyBfF+OH+x5
+unXXg6BaYlaS59SNY+p9i8GUYCDAFBMcJIJpMjzWeVyisW3d02yykgw0iJuYSwVkK3jwNsUxvpHu
+ooCv10UWs4oLNniTPmC244hKZae+jhlAk6MDP6tidCPt9zbBbUOEvArnDEqh9EOqsOMfceiM5VHQ
+lw9RBjtBnlC8QQhiuLNgXuhXd94Fuuo/pX0pvvU+NBQSojYCB7dpEh+wToJOHNJ4IGoh3lLK5mAk
+zGXC8/vV3uzCB4dLh/t/7NgCYNAwHX1PbT4F5O0hVMen2kcNUplP4GZo/m03l28REDFXIAQmcHeD
+rbn+UghI/CbGTbpLwaWno5SYDaSwr9IDar7wkJdMsyC3UKBwiGBw5PtjR8gQlxgXmyNHn2QyBP6u
+aZRr7XNQkDwRs8537o3fLHyZ42AdgUbUxMpJ+0SpOfxOIv6v2vs7tbdE/0xH/++nClvI7K+RwhuD
+8Pcf/WO6EPo2p9E/SYJ/EAhdRN+wWCW6RgTXHiq976YL9m+AbkMP3beLfhIc7R/jBVJRHd/zN9yu
+ZDSw/dx/QCDk9b8fLngAOTf8cEjZbbPeQEP+P9+DaBfTjjnlLuO1ovcO3TY9p7tf/wGt/Lck7h+V
+5cwRmKsEwpbCcQRA8+2z/f5V/AENeFq6a8Sj2zkKV6SI6XS2TxP8St99D3f/mIt8j1T8+Q3xUttE
+hvcFcDZw5U/TkhLM4szWaI1YxKV4PGkAy8Ypd3/9Ktvf8t1MZntD/N0CFDyhVSj6f3oVVyxFFfRi
+iYYkXW71LAM0niVZMousbqHAVW8VJoC7v37RP/kUCadyGSrZjJy4BH78FJtFozZowXU1FruAUbBc
+wwxX3YvBKv8GuCw3uOlPbxAaPBMGmxfDxv/TN4ZmlJzDgM6JEqQOo6wo+7fEErDg9RZDlk8cjME3
+UbTELqkKObny+umawqpFqpEVvbXb5JZ3ZFrFz0xb8Is1YUE5t2oFoKDDxHK/sDSoD6YPWh6lerPy
+t7aaH/76IxM/oXH5oiirXWR8gYD+wf9+/MzcxsprRkQzp7kNp2AU6+K/pA77u7caO+mDUCN0wLT3
+uoeimBr3SqD9y06+N845rjR//KiLdv2c9DRweyQf5fU6xGi0sI/6+m8uqu0z/fEzd8g3cz03JH5M
+Bd5P369lmCXZop1hFKwF1kSHlTOe5Pc98VDMm9pRXS6tjHeUifPhrz+nXy8thy/adtnYco8qZ5tB
+fmf9sLqOiEQxzRHl8gekYjSdwti3bGzMP8xC/8FRwJEnPd/fQMWwBX56k0kPyCoLJVibmVSZXWo7
+MVMPBkDQPpevf/2ufj0LIAhAkg186QY+6uYf31USIPto2pWLGOLdYdAzm+EuIc79Xwf/nxw44ieC
+63aJ4b9xJPDzLYL+F2w4CVdOvkIMjK0ti2tEw5xXaEPLZKkuM7M2B9ZReKbt3L3G0FN+9cim+JtT
+T/x6IPFLkODgc/rx3PgZIwsPdEqQZ40Y1GiZwC7aAJKszhxJWiwAY2zBmXHiH4xgrJWxzMXna6fM
+FN3Z+eCkEBRsZmrnTtXVm7RJELwPsfauACip9m8u8z/5VrYz03vlgQs0Bj9+KxUkRqcpYzbQTNRZ
+9bDdrJi+nf/6a/mzV2Fo73NLqdD1fzEzTaPEL5uP0UzXu2NjJyKPXulvPvdfjxfiGHgj7AYcz3Ve
+UeHf3TfFglJ+CJ0pyqa2JvK0F/uMAfBuAlK6r8wcH//6XTmvd+KPh4TrcigznBdQqaX86f6x5zBA
+wKkZinQtUXhOWLBzZbzVPztL3eABFr30d7Ip8X4689A9pUBVoI54G6aFNaJ656TpbEAc+ukn0lbS
+cD+Zzn4PpwGCxkLS2RQVuIGeOQmsh2EO9TtpWjZ7edebcxEa9+uCqMnfkdwTVse4WsseVocgsjiA
+dzbteID1zT4O7fKuMDOmyI5eg4ywRSFHHsf+icfjDJKqbex33Uggzzb6yR7J7lUPwCBVFwXpYC7I
+fkWwY5p4eQiA9dD+dcZ/mpnwblV+ShhPWuYWkFpoqqeKvR/T33Ec2tNYTXAlmdKEhCOKenwva5tG
+Kl9K5KPM9Dy2qYG37LtOcmmnM4klCLxUi2Cg78kCrlCYu4CAlj3KIpRkFOPrNQQdZhytwx/rpqBa
+dsqqJja08ZzAVKRsZ72y9uZduCxoRhEL5u/9uhkFunpvfg7LxJN098p9KJdAfHNbAvNwgRpIBawo
+1+cEGXAFZAMMz35B2acv0V3aj8LKRItFNO3iqKWekDtml6NgJoz6DUdKpe6LkU0An2BivujCQbg3
+h5UI9gYx2w2beALrQtA67ztcpYzCSGlEbeOjET9qB0vFVZIgnuMoHuz8omF+2uDWdqsye9vEHZ6y
+FNReHhlUfaSIcfqdLOaWNipwj405cp4tgsqpBfTcFUX4QuDVxVCX9L+20Mt16DKaO8ZDACk967zF
+Pnh5YwPH0c7yOQ2CxY6ssmVHD3G6gOtbTFjSRibHIppYx95zewf6Riwog1g0Fda2j/eXZfjoYrSu
+7/KSJmghStxoL/JKt9vGwd3svylgUsorX3fzVWxGi2jvaevF/HFFcR1jpd3scFZP7lNGWkIU+DV+
+wBitnY56Ug3fevbaQ2fJmoDlshmY0y7kZuW7MPfSTzy+BFQ1e3QZ6aFvb4/xtjs/TAyd3hWxz702
+dq3+qMdYfxoKD/+Mhk2EOSedgmfTh6u4MnpJP/Wzx6ylz8tHn6y2x2aFabJPbeV+oVJmrRDroYF6
+hfobUdMablDHkbDjGR8+xhmh5mDnrMZGbhRK/jFIODiLbd3ugj6x1dFCacP/jzXXpphXPySzjRsD
+DX1XsgxbvPCuRaQ3HKA8YXHAGIcmAbNNFCuV3TCkbV4Amy1fZJVXXDl6WT5WnUvHr4rCsqKx1iE+
+NPZuz0wbxLtOdig8GBFk1YGxaTkDJcE6sp9nT18incjsm3rpncsGy8ayHfqQDdKlgK5vkrS4d/Nw
+KY6UZTkeK2J9GQHMXXe1fWPNcckS27pZvLLIgD6BrCM7yhlqQk8XVotsOwaPizGsbluMOCripGsh
+PiGZ5AIuieZjfmXHHwFYOm8r20kRmwYK0aDsBGp+5Q0Md9gLNrcz9wQoKWcwwMiRuN8k1HtlFGZB
+W0R4MC3i4VYI5ug3hs9znnYTaiCXNaHh1r9jaE/mTRDGwW33yldLyqCyz6p2CSbDExvOd12ms2c/
+x+pxnAPI25fVmLRnNE4KMuM8QRVEtTff0tZzvPnD4KxHxAPNHCGRDB6VRh33Zkh04e+w5hrcJ1p2
+8Z5vye0P4Wr8N25naA9EbY9PTJD7JZrURHkbVF1akqwXsGboitrfT5auyDFLkDyFVZvrQ8We8Jkj
+up+jfm7LazP07UfpDH0TqUaaxwUAB84Hdymfhen4lPBsMQR2hVd9Snnfn22jmxgbUt987tiNd/uW
+HuyYp4sXM6vxyw/uMlftIWUFOURlscEyAKzz4AwNfs7rUG9oNJENiz72fR2D0g6AcTEFr8EltOB9
+LAZfnzNhYqC6KNbD3YL0B6FFaAfpruuwKIK1s9QdAjhLnaawCp86nFsbmWf08r1L4anwa3gD6l8h
+w6/IozXG3RodNvR18R6kKYsASB5F+DcV76+ViJJUCaFwJI9zQr1+rHfkYvflKsk989csucxJRbuI
+52H+m1f5tXlAqC23VBdHoMD8uYJvOCRTyRcYBTgM9zgqw4tSyvxMvIF1UJU3bWthmC+x1a//eOn/
+ToS+mwhtOhMK/381Br8EUvxv9bH9MQH79x/55yQo/E0xBUL8GdL40ODRYv2Rf61eWxQXHQqhFB5N
+6u86E/c3Rgz8l3mUTxErFY3bv3Qmv1FzhkhQ6G/JVeM//8kg6Mfrx+MXo05maELD5AjydX/qAB2C
+53OZ4GkaEjNMpzQPscbU/GoNwF09siysa0Fs5IjeC3/eBJPsu4/rz/qoH3vQ7TdAUaMEry4R1GC3
+//E+aa0gNsTEIUjscrzH6whf6rwU2vrgqCp+SdlApfvMrcQLZUSWnxyrT+B1OkS2bls88Gy40TG6
+GKuoL/K8Gdm2JEH86a9/zR/v5tff0qP8Jh2EoQhDmJ9+SzureRYCNN11PGEfhsDxiTnw89Nfvwoj
+ON7td3U+/4C/nZQRZEkeLfkv/UuWwLFM0GMnPbCQXSB6xABoz/3P+YBWvpezz/mLoppNR6zaRzec
+5luyL9wnsNAFGEWVxZgSuoYIC6u3UOYSsNfo27ZYwolgXZypx2RmNojSl9X5XRwuqXudodeTj+Qa
+L8sBuQ30Mv54bi4S0TjrwW7mtLv0MTKtzy5iH3kUjJ3fMR5DfLOQOxRGbpGyy+g17ot/CJMmMjZc
+kC2t9u8nAXIQqYbV1W/mcCDPQGcFNavbs008Yg1DfAoovMTN5Dkk0U5aItt0nZp/2/h9Nd0i++EJ
+D2kWPN1IAYyORtUB1RqxsuQIQoskSOGyJywifq6xLSIhZskxRItM47PvjqF8l/ZuhwJQsgvd+zWi
+ovPasG17aY3VrhdJAX+RBHeX0VcGjw41uoKaELUlKYwnSzeAibJGxtlFT0CDiiYxFNdcsGi1VauY
+y+gpYHXbD/ak9wRvEHCdJ6iFyEwm7DwPHLSnpRL4XsAi5i8QZwmgzcnyHpDqgCu6BnE9Foe+r1YI
+p8HmkkgTCw91IcHUhWBU9+maKOh+Cw/ng5sPYPhjb5qBBerQHmEGjaI/Snzl+rlmTc5iZcol7NKC
+6iOigrPb58QP7OHGEC9MFc9m+8kn9NU9YBe2wnOwjrZ/UVrEXZJqUM1ih5akXT5Uaz1UT1z9yEGJ
+oVZvUUfI5qKPFzyYAI8dgwxBdV88RJOXVSGgcqcJG7WTUmPJfRqKsLvOLI/5wxKnhl1LM5cTpu5x
+W5Hz2MzuGKkyVOv9GVmSZM+FgCvYVoONYOK5y0c9eVw9ufMkXddLD/hV7G5vA1tQz3Mi3IroAav6
+ktRtrlg5lyPY3xGygJ/1Sxw58bbsNFOxwIQlJJT+zqzqIRZN+pIzsAIg3dn6YiYWp8cgNM1n21lT
+6wZtuo801qTdC9kruAh7ZwRiXeF0Kpcm/+Jn3lCd22ZGVDRN/n3a2OhnMzXq94kSeo6k6P1LOwmD
++ZHpODs4WsmYFJCwCO3TpCs8MaBVqNscDDLeee1tvO6x6qvnhv7nGxpp6wKzqS32cR5TsdLPEZLh
+QmiD99tbTXYEoGjRJxUpZkZv9j6CN6Dr6XMeSLt2kMSR4yWbznk+DNVBd6I4IskS7tG16+Q0DEk1
+478qWjtqZ5CdezuF7xdhM272mqhHoih4N++d0pvLqIsXtCheMfIFZkvZ5tFoUdyA2Gf7edFnY7Dg
+kCAq5tC3cUjNkc3TuM9QuOBSsw005zyvgzOARiqgqZqgxkC/xi8vtpeKTCPRFNeUeYAlReMTpjVL
+LkFMB+nDPKzyXe809Qi1NezfunmQvAVcG39LpQpJdx+qOVozPa5H+gPnLc73F2SM2afC1jjIstKv
+dy6tPzE/rDchlSWgsiM3Bux9Dto5uzGEukGTWtN1OsXOJOgODDoubvIOfYQeMCcfGbN5nzIivGHW
+5CYHt+oE1qkcVqA1NCWrPBhnKukUEo+d6FD2CbZHs1FNWXakAJ8WL3imewsnAnMr/QaJSa934ZQ4
+NVx9HHkUqW0KdmDJms8QZIYvicFDv7NwJFziK1o/WeOaAbBG6AfMfww/h+NEhI9f3sdyQkrdj57H
+Mras5JUOLWibc2DulrDt3pH9/Ul2SeZGhFs572X5uUVC8jC2RfoZAUhwMVkN5nwxOA+htw5fqLCd
+adchxs526JmtZ7mU+n0xDikTE6jLNVcAhnL4pHhSkxUZl2y65ANqxplklNgMdKj4mT7VS1qWhxRN
+yse06q9g6U8FcCtfPMLlST8N4Kx5jOfZ28wFWRWpzLChVatsXtpMQlsEjNHB+bE1O9TeKVHj+A2G
+u4y50XSeFCbRyCfi5Sv2o4p+pQi4eoMCyy5yN11U+xbyVcABlJR3a5Y1WBSQqiBIzJz6sdA4y446
+7pqXpJZ+uy+noHyux5WJu2FI6e+tECApV3Di3k6h035xeGZYuxkt0JdQdaAc/bZgMi/m1EYVo3og
+ADjxl9smHVmEE7ad2JeVJdTDzL48vDDWHN4WmJm9SAatGHbByFeNQTIAu7CCUtTXzjrlsKaSxN+F
+zshNTfeeOlGbSJb2U6EMtoc11V9NtQ22PGSUL4OLG2xXWF1+U+dZfmfsPAQMbokhPCThOr6D6rkd
+ocrg8Masy/K4ytPkPk6x4EVh0I5iv4yboaQIgDXs1BBQCjblnN8vzko6+UJA3nsuKogbr5XOf5uH
+n5oH6ul/3zxcZ/XH/n9OX0GI9T9L1fnB31sIhxbC27aN5LoRrg32648WQvy2zblZD3rbuovD/18t
+BGJIGgV2LlujoLxNlv5HDyElWnUkGbbNwpT9AenF/8EyWTivK5Xvylb2yQz0+RtZg7O2pmv5sYgf
+Z1jLS81JvrDkuVMejQNLwxHZEbQNyb1LGt/tEmbpQQzJfq2UTWT6AG8BeXQdGPGxW6fwAk9RcmwD
+RA9TAs4OFvomk0CUpRBXH5wpj4GBuU8NdCeo2k19Q6ZrdkVVyF09lAXOUFQlwmpycnuhirpIjqCW
+9OfcJHcdFQtg7fx2zE17TIfloVsmYrESJHWpsvbtrN/RdPwfe+exZKmSZdFf6R/gGdKB6dU3tBY5
+wSJSoMFxhANf34sS3RmR0RH2atyTqrKqykdehPvxc/ZeewTiiLjPqZS9bjj/LB3M9l5OoTrrRBVt
+DanTI9hKsJyjum/AFGChUu53z8OhUqrKJ/5jtPe5QStnIubrpfcr9xZyybzNlCd2qfR+eEl1IdnH
+9yScCAcqKX15q6vttVXL6cCnmcPYBQVKl/Q44gq8ytLYX49lqDbZaJN1Mk3TBXXvJfsZ5k+CyPeF
+VZAqEFXYZyKXH/3PhJwQ7aCDMq7BltpGSu86qvrLFo0IdDBsAnZtGZB0QFPmtD1XonevR6PyNrQ3
+OegkeX7n0X29yVqcRq2odpPviZVjIxCLfVqVjaoAYFTNNnNLHwSwuhiCOdt2bUCRNc/3Jg3x1ULi
+AXqk1AYpYnVMRTSsTCVjyK+Zd1ODz9hhZ+pXYchAA91DuZ0X9hfZfisXJM8WeXR14kX1cXBHlzGD
+nMOtNuMTBvHNIxpMYm1x4tDcYbNGyJ7MmJYMl/UWZLrdR68s9OZWdn1zExjGA2e8rRZi3FXmeFPK
+CWloT2LL4jBwgwiBdmI/2uiPoGeAr6Uf94zj9NEo6JQ646MboYqb6ZGtgLZBmh3UiR6b4dh4UMIZ
+JqvDiPLu2HC+WE1gsI95FlHXdFKpu9h3oXv0FuEg3aPDNe4S/HsHgZj1ZW7V1bJBYI/w9J2fSEWp
+2n0DfHefjd6DDNtfOXSnNVqpvazDC4HTN7/2RqP/FTN2oXodGEetLPaVihQIlFFH3PUjHsq0rvzT
+rJwANrsqsC9NDIUXbtUS7+NnnMIukZOWl3DIswJ+uZsHD50hBcGGYpLEecWY6uVmLELjUnq0sxgw
+WgrNHjOBmdA0zsuritKQBl/EEX/lJn0s7unv5XCWaFL6PIul2VpPrF+72dM5re/UysfVxGTEPc+X
+7m1Vy1hewOtJ8cgj5JeBveH8nTc7QO1JuS11xbyQNoaV/lC1G+W0uuYOXRzY7ge0UQJ0IAJZzkcG
+tmW6v7SpBRZZxjQi1s/EKA7xCYob+rodhca+7QDcRIZRsRc68CSgy6Vlv8Mi1/C5NSjG7iXZb82x
+H/SST0Z1Bqwbg1+/ye0xurOwn0QbQUe12bqgYG/E4PNsOP7gcfPJZbThCOuKiA2ksuEhzZHf1HzQ
+Nsg+IN0zqkn0owNQgaY3wxWugl6grlh8J4FNf/UAMHD0NuSqC7Xj/Oo2uzlCZbOCwkyLuvFy0nVc
+xPzJLjCNLEXChs1p3fld4GNxGaNHWu0tzGf8ijPs6cq7xzlQJMiYObesAahC/omLrmlO/QZUwsqi
+cFMbDt7JkXATCbWZk9NjXAax9SuzZkT/vSI7bPBJZgdRWJKtGPczdroCrW27jmJJWmHZ+ohT2rib
+u/MJQoBxgbI2xYpg9PF0FZpt0N0ZEHXajVF69qGmrAWUikc1P+ZRRUiHL3HO7gtlqHFlA+B6sdto
+/lm3bnSTh4zrNnWYTuE2TUK0Q2JSCGHDTjnedyZh7lWYRPpl5PT+wrTDi7Yidchsz4vZ7XYVeyv+
+GRmk9n7mmO2cMsoDAp6CFfIOccCmQQ3d+/lW6hDWhwNgIV8FTo9JNsMOetuLsbtU5MPuBtsYDoU3
+n5pQ/Rg4Ee+EyqW6Blh5kWbo9Bt0/xsmPuOub+P6MmbGs5KhqS99SXYjOVscdCfJPR4S/WKBrt0n
+Ir0YlTD2U8j5r01b88yYyX2pyvEIl4xTEXk767brGtSl8cZkSLJpWtmeI+uYVrPVYx0ms34HDEis
+lI8iWhI+LFUq1k5upVtoy4iG6vK2iIfrGMP0WrJ/rvHainSFskCdZ1Me5/fKhG9yFrXuobRZorXs
+yFJ0kXJ8y2FzEUNpwQ6uhTypYecR9jh7R/QCF14j5tPcKPYKLDWeg20cVefJKM1z5s/YC6IXZy4d
+DkT1LyXhNCY9Dv7EsK5AGTLLzPAdwL9GYVoIwrC6iDWhvoqWNxRqEYLVABesMaIcZ7UiTqW2L9Ca
+awBXeHFMsO+5dH5I7T01sTZP6lYn7I7iPFrie+pKinNUGsMmslMmtbV9sCeCKqySVF3LORAP0P4U
+MwU54ZIbmRf6kKR1V2NLMtDC92zNmfQfu766U5YJo5MXYuMaI+edFl1556jXlm4daU7jcINXH0P0
+ItPAg2BEs81OVXXNWkoVbYABsmKAhDjN9FRBuDPSWw8nMTU+DDr/h9FaKj5JMjdKOccEhffYUOMn
+66SEzLAXLsTkC+AR3SmeFcfccdAx07UX6SHeKsxJnDoLGdebeQqr6BqgoYAmGanWpBdXaXZLCERp
+WM/bOhH+cOrOpsRQ183ZNUEz3S1smw6scNoC7y9dq/6pqb7krlCV5111STOlmz6d8nDTlo2sTsli
+mg4AGQUCgNwPKoe8qNkCIO/GuLF1bhe4yFLCTsqy5EAbBITbHHRndtxTxMjdsW+bBBBUzz/oiErH
+KdQqq3J3eK6MpPT2QI57KCDYgZbTit2U0RGBuedDW4qI/aBhMVn3FQlE6qSyAX0c3IbWyYqBm5Oc
+9h3zyFUmCkiPLX8r/3H2Lb4rJ3bjtF0TIihAaRvkD4FxAnB2BV9G91dm2y802hZrYbQNtO5v+qDJ
+jZVnetV1aOIP32pEHs31RM3z3JG17F7WZADP6yxwB1IckLqhoLSr2L81Ys/rACdYaXCZNUDr1oju
+iYKIxFhTHVJREVYkWk7/daKD5CjMFHy6pjQgy8HXDD23eWuVJxk+FaqGLoRLG4ddcl+WUz5vkPcH
+BYQx2LU3GPGevTL3D0AODkSKEaw7hc3OQiQ+W5M6MPanpm3ZhGgh4tJIxtNwSPu71GWK3djW9zAx
+XnP01ugyHc7cKxXR28zFmN32bsRfk3gf0E71vYahShthS922CY3O39XwzjfanOW+bOXB8glz9row
+vqeXuA6s5twSCG/qEi2515bDXllIMQV6cBwm4U7gFDzC6w8Bc1QnfVPfCTgfK3hHuPnn8ADqZmPV
+/SXeaH3NDX5MMvi1o1NcmgEWt4Z4PV+jve785mQaq+wQ9d6RkugydixodygGLrwuuIvS5BZo/a53
+3K1XFN1WtdWTlVm0aVugHTXsvLHpHopGXrVhf0js6rUI6pKc6fTWTpzrpDXIkoqa8VsaV89k80KP
+kenJZOJatXj7vDyhTSURtpLRQDI153Yjn18tHZ0Dk7nt6NLjjxjOddOgdfDD5iwNQCvUzlIRifDR
+bcwU0EL9ax7ibhN5C2Gx43f6muQ7ghOtcN8N5blojWucnA8zVH/8pFf0MNITgdFL9oi8yzYGpg7H
+iSFsF600DY109tHWB8DnoqmACVRI+TqQ19eb/g06yASLynCeuOGBsxT5iv0pSNKG/U7IdaL8M8wk
+FKOwmv2pu/AK69qXDscILa+y0LtmOLJDzfsw1DR6TbsN+UThNTJ7H/BbdE9s1ZTImigoqAKUecGe
+UvepRq/fTA2beF236wbd8aSR1w/yxK6YOmUGkeVZKH9Etqf2sQ5eVIQ6lFSQug1P0J48BByNttKx
+SdeKvR9jSFEuZ059StOSml+HIqT5WhXWHv/cE6x7xsImwslTtxMElzfzT1MYw1nkpvfhnHW3usWV
+b7qrJh2PLAMcWyEwxE10osrpPi/N02qeIekTN6oFzJJKnLWc3agvt5lvDg9T35/NcrxCi6UvGt+/
+dQsCqjn+AsUaCCfL1BgApMuYytqB/00XwWbyMnmD+sF59lz9kIJX3rQDXBFEnhzLEAKtSfC5Spoa
+THI4GxvcI/ZpZItyO9GHalbT0r6FRzldBY68ItqTULbW1Kd1Kr/PBsIH4jT0GZsN4o9xot84juCN
+PMs88s+w43XooGSZ0IIy88+gaWONrd2hPhlJe6F9FaIY7D3VIXJwcFLowVrQFkgASsQto1EyOWoj
+yF7/iLgjUgmNltlRRV1yiiOspyUmpD8afcSfcmlWHyjTwT11ykoamLbIXbYce1y8F2CTTOLKGQ4I
+hBwNSXR10OIbNtoWOztDL+Gv5nDyOpQ/Hv9rEBBWwjph6LugzyaLRLbWwKA48N8CZzKys7FZ5i8V
+CbJ3wxjZz/Pka302IDYjsBI43mlmAlLjKNQzwwNI3gbzuveVoGBTZKPlWTUjfU3wHGsaMJI1Ycq2
+OKlnqllV86sMLaoNCGS9M71kkSRVclBn9G+JmbE5x5wnXsKBJ9QlJbmRImo6gkqtf0TEAZ/0HKxi
+hqiLGVR28XVudQjSDNk6vxwQGHdVDERwZ8C0oagdGd63UJ1pyJsvHt5O5G3ZVdt0CEXqOkwIONXB
+QKSmDe0KCBuhWtGVLRzQtkQ+WcFFCxi8RFtmm+elP4anaFMsMmZdTDJ728PqJfrqQoF9Gf2Qg08G
+3TYeEObg5NFbsKJriLQ2Og0yYYCzNbPq8btbhJvNV64uuAmAI51EwPypN33Djlk6/R5b5YPDKfCU
+SI0L5hLrkWyqtSqIoZmM8qWLg+nQ5mOz7oNMrpq2vMAHR23pIaQZLfuBZvm0JZj7B/vQxeiO4LCd
+2zFA7nHUjo6pdJzIeDEJM7mNJqDd27kluHxXtP0Nna3oLCvaxZZl5Jo4aE2IhTaG4qYuoxz6QQYH
+Gv5h0ZAkIUhOOFsMGPvZ9TOyjDNX83tqrfJT/DbngN+JQUsSzh+DjXS9wdf9o2VkZtMMgpO06XDl
+U7Lp+rwLh11qyldowu2ZrvHm4f19zlIz3sNWwtuv/YSV0YYBOX4vaQ9QeqDAWmjErFiBfcPxkYN/
+Qr8Dp1gIaKSa4Ku0P414HpeBn/nievVJag719TiWxkqxYO7ZnufqNssbSr5AN46AZIgAZxWXS+n1
+TzwOI2yFbkvyfzFrv1abXNBW5vTD3elJKQRgLyjFYtOZyi29dQx9JobMfJcXYGdpt5V9vakNcnCp
+Q/n8maVT0GVL7iZ7N9AnBJnVTs+u2M2pB/k84uBerGkATI9V6QwVA5NW/agYuyw64zYwoVTA5YX4
+4iZanaumKNsbaK74X31lpC1y+3pQ2xCrNRqdFu3D96YK/ScSpmjEJe5ggHjnQL12p5K6NZ7kUmY6
+CcvOGBAtsPUGPGUspIaG+5V7pLd0E5TEUIDtBH/EadWktW0NZn1ruXl3auHMvnJbx/8FvQBQZFz7
+h5KWIrV6R1tPSvN77dCPQ1hQwC8tennvY2rd+sl0Jad2WJWx2R79vv9Z1nO5Buqvd1E/+taJrGx8
+WVpuVW134UkyBsMMbzZWznU2ibHk6w/YFGgOMpvmcBpmJzo0JmzKxdjGp60IJElkFKw/mjJIkXOb
+AUg4xt4hFFBQ56sOs0K4b7FZRxda1NUJpL9IIr50B2Y1GXLqY+6YuCDn3mrH09ZdnJpkJOMxI60X
+HNFYw8ekEyNptqWlE8QnTLhr6skmZ+GN2448e5p8pMGZjK4QrYxPTeiE98kEELiNFp4m7GOQcdRY
+hWOODynFRT076shUns4SPZ6fbmTzTpqQJ1+0L4p9zcMmnlYL937IC9SsLSyPVYPQ+WQGt3/r5Ml8
+4EsIQ7pRXHtjjbRe8Bsn/njW1UzAsMWhnC3PMQKO1m2b+TlCVl1XzWWOwjA9EFtA4ugwcng55iSV
+ZS+zMptbjoMtMjQrbuYrWATx+DJmNekPyo8n784bTHijSplQd1XqAYDKJca8M4V+tqBz57v3WplV
+dUMRLKtrxHmpus8mx4uPXYRpYpknhVW8dVOO8euu8ZHMdHM9kDIZEOJLIGFGzMxZACSt2Ouqp14g
+Q60imqwmER7qoZFnd/wUtB6IfXprB/GLB92HbpwQeVwj0GXVzJ8jZ6wMiMumYf3yrKZ8TXk2vzhu
+W+VTIzmsr1qYMAzIOt7MxM2q1z7OQLcZ0E/7Tdwx7N1qzAM0hxInNi8jYkJfXQMGydbgjaEZ2Xbl
+aQpUmbxGNC3M5mPNftbFddhsxzyXHOKwa8CkYER4G7EDWVeUeoqp+uCos9gIB3/HZ9IYm14XbbmO
+RhOZpu+5If/qVvMa3cMstlHgJNecflKEiA0GEFxBFq+nMQl73lIexz8IxCZN10ejB62q5wYx1i1n
+VoguYlFrw0otf2fMjVsMtSxlMhLteBG6RXLsLZuaJCv85fzep7zMgGsysQ0oeYYNrULJX8B3xnxP
+wrq+ABFSxJcjZjS+oaz3n/gyjY0Rl4N4siEBPg+jdm9YI6gCfWmw1jc+5X+XbJpukQSTMQ/TZEpf
+BxUnwBZUfzHXzXweD5NzU3jptJNxIHa6pLsTDM6x6Tr7AerGAQBxCxDCHrcRfc/7kL/qgYqDMolg
+ogg2fMMsG0w37UysUcXcVOe1NeSHAG1xYsl+Z5oNgiD4tOuJJfdCFQK8Rw0qAHWKYBWMXQhoqXsS
+uODnpefgrZ5/lkIfm5IsUJ/TNCgsE2VMKDdTZ+F6b6O17tviWVhVdduxhh9Gi0n2LLubNlAk6QU3
+Li2+727t34V+ceKZ7OwFNcmmN21xi3P2LA7luRoMMi1q8KVhplcq9bcYread62XxQxcEP4YqCncZ
+4UcnCOnJ+M2yjIi2lHuxMkbB+FQxw6Gx44n/52F173lYNhLDT0eNty9V9/Jf65fuhVf6TVzRv/7o
+v/WKwV8OXT96UcjsLR9z0/8OG52/OAT65mLfChYnCkO+/+FieX+FOKJEgIzRNj3T54/9W7Boh385
+9LgxczPkYyTg/S3B4lu5IGpIa7ky7n5SlRYd3nsLJsV92/Z9yXHLJTUX8didIOfzMDv18P23YewH
+0sS3mr9/XSq0MdxyvYARxduhZsfobmn1lERtmKTcWoO3Zs/+8Z9cRMAaA4BMo375vb9ZiTD+QRqp
+u3KT0NAjXgAUTqXD+fTzq2BKeiss5L6FITpTj5uHmcBcrMW/X8egpCyIDqUMrmLjdPKnsd2MRjFd
+1HMs/XM3cYkzlZXJtNWRThtsZh0hUzC6sVOnZoeNE3lfpOcfpCWbkbNuDQWZln0vpTtrL5OUkiIw
+K5Mrm6qd1gof/t6P3SCF/E1W8IYGLhgdA9kPAHQXCurGbSNCbYCYxtNG0mn4acex8wxdePhRxE48
+b0K2N3PdiCiDyT+W8OxZoZkf2yORmgcPOlG56mzX+IXEsT4HBkt33UtS+GEKKOFPF8osnWwUoZhZ
+Ck/fjsLv6Gtoz6aBWEcXVp+zmJeRvxC45gjU8uyXll7XVZ9pyvce/0tqZvGj29u654it6fHauWWi
+FOsrO6VhI+AjceIk7cEy3e5XkzOjwUsBFWg9N0P14NkZ2SyoNu3vHT7ME8axYCHGwc5e+OcvQeZW
+z1QmNZfIHrSwqdp4np3Yp3U8VBemn3HS86XvvZjZMk0lehum2TQE+A5rwopp+ect4rTMxq1UxUPg
+r4UARxEQKMoIFwe2i/Zp5gCfBqqnSciwmdTmtqG7LHxaxNx/TNXXVmNi004q4X1LyhHSmj2O6rrq
+bOiYDZDthSlltM6agK/pnB1IPTAx0dT0wZTdjTgBXivsgzAnSPhj0t2yv65I+JPWum+9UZ1aAnYN
+M7LCJg3SgqtBm8vNfkKeju6jvNZ31JIuWsYS+gP1kMTbwGA6kBPWp1jdjOQQfMNJmV151AMMGtA9
+PSR50Hyzg7Yy1wSjFpcVQvhoE0tLPORmWZ3Pmd9xAk4Da9s5VY+yNfb7y8ibwukgky54ctJQvCqV
+umSA1J0B9b126zMvc61zNGg8iV7m7R0JUPnt0Ib+sa7Kjpwd6SlArjjYNok/MYJApTgdoDlhy7MJ
+WP/mMc8gjKzC6MCICu0W57M5fBl0RtnX2czZ9kUUUUBMvktnzTPm9KWO8Xijphs8zEiobayVmNkr
+N6YJL2rtKYDO2FnmGImE0SPLUR2HK4sMhmIVjP3CX+oAb1h2AVOymW10CzMGlxijlS5fEA3L66H2
+xQ9AGtFhVANSOgoH42lM0m+1RasQrYPpPkY+0N1VnwvOoFElaOraqW0zsep1e1007QwLjIh0IFwM
+OLrtFLkRuKIMLSzZXrF1KsbRvIT+wmAqs2emH63d19YaLLN6bkHaceTGGv5dGGOL+6wypcVwJwBA
+VedGfGzxu43b3jUZDBmZIaOt9rXEvdikUb1SpYHvw4FmbCP7CvIX3fVQD+mLoXzQVOIIyIfJOM6W
+Z5HUa1XldSchz1Jn+aC6pw73LW7wqkhP7CYE95/0ZnGfgCUUu5JhncUxOGMaag7jPNNl6iuOaCYG
+oVVXO43eNH3BkN9vs67fc6TOb5shcjYFS1CwjiNms2izG7KaeziH7Xr0SXyD4S7JIZfGLOZVvozZ
+Nm5OVBWjImvcBDmN3D1SWUm3bkb4s6+zKmJ5cqcGal8y1c9msnz+6MFNteFTDO7jou/MbapGYp2n
+KW1hOueZYfBW0XVYGU4O3QcNi/8DwURSnnlVH9+WSTSgcq79S79sHbFVM0zhbRlWyX6abTlumrwL
+XeQ4RYbIJNaonueitp+cMqCKt6LZNDYJQExSeseAbkyuSoKoCoMYMyvogpskMvibGjRINxEZ4jY6
+sz6hFd7bD0jm/D3Od6Pa6Fk5L15qkCqItLQ8KgykwxbZKt+BHfXmnYXh6CQwhpzkFZSJP9o8jZ9t
+oESoQ5uRsYKIGupK2ykNanIC5+IVRyAGtS2p449FYRPMjbB5ifOxbOQ16TisscyE6SakUUPMXmv4
+vzAOgtCqdMJgQmKVNTZkLHFK6ojGu8J/W44bSw7yZrkjZPOQQXzmD7b1hIsUVl/UVGm3KoALLmec
+TF7wH8N248XavkOoPT7otOrHbWE5SCBnfwifaJ4F32be4jOa8MAQl9ql2tBFGv1Vmk1NSirJqF87
+Dop6jYcx5WnHdEZQevDprBK/KL4jEVYDEFCXCF4bxyvHywh7rRh6cE+BQnK/7hhrX3mttC44q+p5
+WzR2/BRkwnwuWxpHyxh38ahFjXfiV4iHVn3QS2IsHNP93g5G32xJj59emK8h9cUrkj82k5WRLRjG
+5ZOyhlLQIpbRnWPY030pUwOllaaZm8DUZ/hlGIlLmwni7criqyIZx61eq1AWr7qOfPQEUcWX6tI6
+l2gVB5t08d4hR96EXzMj77nD9Is+Afny/FwNjX8JLgjuVmr3aJWdOT16pshvjATyKNIhH53PYBlq
+VwaAfVboE0pcI9pg+hU7PdhFkYvoPHazoV6VlHUM5NL8zsgWUDAymeFRQ056cQPDztnFzflnkdY0
+2K3S8ppVbZJ8udLgLn2Q5rCSAfLo8laFGcugcEuSkgjGvGzqyb1lr0J4huuNmI+yKvgDjkneago9
+CbY/vaAnIj88+NhF0j6P2FoeXARX0SJg9U4Q+njncz3ToFA+5dZ68Olxg5/qYQdngbLuYTaajLbH
+bjiUCPpjGvfTfF2ZrckcPkIBZ9AkAp9eGd9bQdo7yo5FcQcaSHKbsqI4qwsPlWfU9XHB++Oxv9rT
+wDk+HXtS42AqdudGLIrHMOd3jhxFz/rYVY+zkw/0WPF0J2whZ5qe5yUa8EWozPZ0CwfRo8fL3XE3
+MTmWp0sELt5OYxBnml1l4dDXCYmaeXgPudZ5TLuaUPdSlfZtaTEp2DSDH4wc/ZR+yDLbuVAYbCGy
++naenMJ5Jb8mD+WIQozGYgKPkvCGLNAhkcJOapwpaITMJgiVI6RgcOqrdoxLuYIUFQ9bA0s8uRTI
+964j34x+TLXFhwzdMX3JHcH4Uw89aV1pBIMP6Ta8alLWB/Q3Xt7mbEkq+UUElOWQBzY3r+HUCtJd
+clXfs21X33oLQdcOD411HCF7geRwY6JUMtVccoTNbj1pE0TS+4V5nMu4nlaNn9S3Ya3UQxP73gOl
+SHCLATHjdG3gqdnlYSe+j6GJZDxriRh1hNPi7KSSP2GDDXgrWMZ5g8pJUFt1QfpYESlsrJOm0r+A
+zoxXuHTSbp0ghTkLIOJS7mZNNGx0VNj6CwjBHycve+nBsVwj9ER1+p5DMwrm22Ss1BvyRxpyLZlp
+U7XiGZss8fj5ccV5Z4NyEW5y8HeWZrxA2Oq8s1uRtKIAJZZ0CcCa3jG6IAZAQgH/1gRGTgfRnxIe
+nZ4QTxeuS+RpKL3pFzmUyJ9zz5YPlo/igPYzzPFTRwH9wyaaoAJxK9M6BXZQ30m7D8wNz9X+2eMd
+EIzvJa3U1PIvMExmv0Antdeh607fPNzcGWpSryaWpc7Dl7F3xm9WqnFXZXIMrrvSTu6EcufXCrLb
+rUYiSaCE5ny0+sd9+X/V9G+qaduzPrdcXr2ot47Lf/2Jf3cwwHcLx6avx4tKirIDaOTfjkuymLHW
+MQJxTEg0pqBl8q8Ohv0XosVFD430AREoTJf/bWCgv3ZC3n3gJfz73xRLv2sq4AGF82PTxBCwsaAQ
+vjuHY23Hst9XLWI/AxRBJ4e177jd9vMP6N3388+roP72XStA6f0eh0WWu6TdSjkbVfSUox4Pu6rG
+4ltM+twmzUPj4vPr/fmrEKBz9wJk6IELGvVtd6GwiIchIkMhFQzdHbFo4y4pQFb8/as44NWxxQY8
+BvNd78fqA2a2JuOfzEWna6ZNeezk+BVK7M9755lA2OD7BGHgeksH7PdOCQMqM+nIdoQc6iY+a+uI
+/jRXnsdZJ1zwvVajk7vPf9m7tZXnxSiegz1tLZ/X1ly6N791gTiP0MofJsa8TWWfmAZSiaHNs3Oz
+D8Tmb19qMQpYWJId3xb2OzSWLelNlMSqYfMYJCVeNe9k2kt8Y2XxBSPpgzspXJZI2+c28tjevRWe
+BLFhVGitEJdlxz7NxEF4WXfm1k54qRVzt89/2gdv4ZvrvbuLEyKsWgxcj7CqWR5KK5LGNhtE+sV1
+PnhawrNRAyBSBjK0RLr//rSiMqDmqSkXwwJ03jrj3EG8H8ynb048NF9c7KObuHRWqQIcXPvvG55h
+o0SAdJc85MnON/2g7ItECLLWXWT2Ygzc9ec38cMfF7D12nxnC7Dr7Y8b3D4KAPdREReY/Twq323a
+2QwHSdn4+98zmbHkKfA1W7D1/rgU0k6dW1wqMcu1i+hnx5k2/uKFX57Gb96U5dt6c5XlB//2bQ2z
+L1Vr8YO8maC9xCdpFFXog2857pl28+ZBBf3T37+Hv/+w5Zn+dknLoJ40RobLE7Jaju6FuGgzNKFh
+Gau7zy+13KM/fh0lEodR1zGxjr+9FBCaRIEKInArDfurnMQ+tF+Vc/kfXIWXnY9ZuKzA764SkQ1B
+TK7fIMiCXOuMNU6WoRb7z6/y0asOGo6NedltqTXf/hZFcJBKgQXjWQ8dQhDCIj8pRBn9KmWb3IWs
+V90XH9dHLzu3juUQkYXgTXx7xYz8FpTSDtgzBh57RC/Is9xXu7H97ec/7aPH5MPaAxcn7MD2370R
+DBdoCHksGbRLfBywNNjdgv7651exljv09m3A6IIXi7IZ9hli4Le/h3ZWSqe7WtStQOzbCtIKwJls
+S/ch3iNcYWYqvH0U5fne8TrNGH6AXD2bbvLFKvLn7xV8PwupzAPGxif49i8SpqU5DAO7jFV1hbiu
+UIy1x4TghfaLJ2gti/r7n8y5yDZhGnOc9pe/yW/fGsKJILHGmm4EeuoThhwDY2zp3CEqOY9pNZ4A
+z6y3Kqen6nD99Yhhes0zAJOOLZNJ5Bel0J/LDekvFl8ksQ7MWZx3fx/kufQW6FtxXgkwvWtwzoDZ
+Opy+CGZjG/6yGsRN2+Na/uLpf3hlO2B3XwCzFBRv78Q0yHCOF0mLTqwBwBJ5xrqJDHIl4tUUPteZ
+bjafv29/PmV+629XfPfBTrYzlr3F3jQ6dbBWNT3+mR7M336XuAoPmBu34GTfLwuBj5uGirJBkBMo
+IFCjC8C+q764e38uPlyFFo3JyRbE3mKX/P09qpif55hYIJ7Fobipg6nZOnlLpCiN39cuVfPu83v3
+0dPilV3OHIzk2GzfXo+px5wWHtuSyDQmq4GT7akdmfE6CMr23B6msNuMMVXgF7/zq+sGb68r+hjE
+Vu2i+iwrhSGhro/EJc7nGZa5UwJ7kP3kmfXF8vfRzV2qTdMxKeDdf5z3f/9IZUAOGPGpdHMs7wmQ
+AZZHMtHA7FUhXUGI2N3j57f3z5UdN7u1IFRcKmvEXm9/Zu/EeskRaXBC0HIVTYPFqcyGJV7l75ed
+lNJUMMJB+gD1+N0dzd0Zy6JwkTvqvtia+dzvxs77qpj+4FsDoUxVQiHIiN19v67EtmCsxvphAla3
+1g7hjgJVopqnv/+s3lzo3dINr62uERrDHgDruyfHEYpH5l+bKBZXhTK/+AyWm/N2+V7O1T44TSA1
+yyn77XPiO6bJh9hlVQxmi4nUKPfM2fDylF6wlb4Y7kZtYM/ELUJS9OfvyAefQsiJfxE/CQ7k77tM
+PgMNKDHs/rNBnCSiffsSmnUPdBFGfQ3zPyMGI/K+uL8fvJmo9Ra/NmUA74399hdzJhGds+jHPIvx
+mXQA6kkLgwNiT+OLlfOjH/iPszK4cBHy7b69VCBbpNqxpKBK6uFUgHA7lk7nnaSAoA5d5GM3YKzX
+f3FbP3iktDjoO1CIoPbAXP5mJVVJw/Cv46pOj/hxtUTIbDRN9hOvdsiBcEkdqgKcgwQ6p19c+o+P
+ZNl0qePgrdGltd9/ikgoKtk0rChxBuXTNrFh0osZzj9/b/54glzFM+kO8ClSbr1fW1Q0YjyYeWdn
+ZHOY9npksBxxi4Mj/eqf6qX/E5z80S9idaH8ZGrMBd99H7mbuqkncTiTtzIy3O2N+dtg2IX/xavy
+4W9yHYdHRmdAvL9z6ZzJQJs9Ph4rx77NAP7ULBjUNWPffvHJf3Qp1EXA8ZC9sNG+Wy+J6EECWdKz
+95q4XdH2wH0/T88QdKbD5w/qo5tHLcQngEQntN7vsQxIknSkrbtSrplulUGtSzpNs/3bV1m2GT4v
+bp7p+0uF+tvm1sZ+EjbpQnjyUFCbmJnQEzAW/vwqH9w1Cuqln8c1Ajt8t2wwHZN21jIJ1x50BclC
+ta3HILuOGsZm/8GlluUi9JZO/HutkG/jozfiXK5c3Mm7LmegnTsDsXBW+IUu6YMH5NAP/Z8rLXXD
+b7euqqcmmqcMQ70YHgK/craVDerx85+z/EPebDEhRQc7C8cD1l3HfXfnrG5sSkgH9coStXnWZGPD
+EEbXxzD2kH7Uevxv9s5kOW6ky9Lv0nv8hsExLXoTQASDoziJlLiBURLljnmGA3ineop+sf4Q+XdX
+ilJJlrWuTVqaZUoRgcH9+r3nfGc++/0HbtK7nz+RMUnoIEJz3ffHsLXFT6838IGQIRcQE3xMvBzB
+w+FmD0LphQp4xr3J5Cwkz6W1vxuLwUwQrKxydH7/+6/zq4vMjfRohdOftd9/m22QMgYJT44fkvNg
+NEa2p0Xw9s8/BJGfDUmJ0yfoqR/vpNfqNe0bt97NaWcDttGZN8S9GRLO9vsP+tXd3LIQWOSZDYE+
+//GDEpFXpoMLFL17BTNfOSBytXGw3OlYDeDbfv9pv7p2gYd4jlAJz4eR/+OnYY1Dtz+hqvHJx7zM
+p6U9b1hF4//Gp9DwENRA1JHvG9t+4XcO+iEy2HCmXtUj2IOZaKg/tGN/8Vu4bByiWBG5Ue+vXF7V
+Rg6CZatTfXVTaFQfVuqqf9oqAmnHAIVe1DZPoZH44xULGKsOJ+gH+pbyGvSEHTdJFfxhzf2507F9
+DNBK12eWsp0Pf/yY0ltrMtB8QBNjkl4ZS4APsy0uau2S72dOwJPd+8Ywk30LFPCSfveFFzbNH/aX
+n+orvgR6IocxAd0WLuyPX2JtTYANsqAQ8CYbmdms+uqWQaE5Xbmj1sRY6rBIzzsAhH9q0/7iNeA0
+EDBqIRaGMuvd7wfZ5aLVDGtizTIm4crEOKGb9MohOA7RXcI///EzyubD6hE4zill5cffOtoEExEv
+wJqmVMpk1ekOfrn+6U34eZezuKV0yHiCkAy/Pw7Qc5ZzR7Q1mXcpcnKksedLRYqmSEL1h0fo5yvI
+RwUOZSLnj23e/OMPYq30zA7QKfGdCJPipd6C+aDAWR9DXEjfFJi65A/v+fY8/LgTWRT8HH8FzFPe
+wHericpbBE+tU++aqjRiEbbuUzvq9UuLZiC2rMr+QhtkviR7rz6Wnd2//P4W/vy4Wg4NFByBjEDR
+pr5bo2EXopHQRG6bBSmFhed/QwP14lY0qJDEEccp/lRV/rzkbJ/IoZVpGl3W9+f+HjVZaluwKiuD
+cG3STMcjr0r1hzv5i4cGCRD1JEUY7Zv3CNlubQBR+uh9jCJpD64EkhmFiaUe674DZP/7iwhf+d1d
+pLkWMFpmTEzBI1zz3WW0cGb3vYORWpSiMI4jy/WboSyjikgV7x9mMwkt9DQ2uJJlJgT3yl7sxjmj
+vEfwxaSsbuPVAH3Nn1+dcqeMzL5i9mdMERUsPOyq6uvpPASQnZ/phHnnhQ56Nz0EDjSt4xb5lx5p
+tSXOBQ/1Ii8SZGXF+Zorq479wZLqKMdcucdtmDSe9S1axlslcJaeO3mS+wdULAqmlqW6IJ7bxPrc
+sPmAKShkGODTAiG7q5G9rXtw+85w79agMXZ+AOzirjdLq4iDWkorYCKUzclloJPaOQZlPi9nqiGc
+IWIHyL/h/dcSM5xPrWMSFr1eCD1gyxHthNG35W5CA2Bpm2Ifhsa5nnu01SSoYe5BEwnh1evlJABP
+FhwPSPJN0z0Swa7bexWCmyOez3w+k6Ur5SY3zrAd2jYCcQ1cY4lM0zerC8OD/8JXMBQilXSYvTjU
+TlZGtfTytwR97ed5LeGMjg2VXCxQ2pi7Ptg0vjpZdYlTiJCI/bJxYncoRlLy/eCgTRFytxBgBo3B
+CvtsCN179AG7U8NqZ4xMvSbkLZPqg2rPBEoUFbKTwSHoGpxzuV49b+8V7YAOy8NKjMDZL+r9CGB5
+k0+XYNRMQDFOt+7WissJ4kXh+BGl3LpnLv7Dc2kQ5RMZbkKwJLpEpGoJVK3+RsEfy8g77HuotGCg
+pmNbeO3jHCJnJ8suzZAM1xYSNUyfwxRzgE7PRz0by1XV0lqK+2qEZdhV+JQgolfpM/7I6ZrAi8GK
+gKytywEpFptdWlTJKxGwPqajmszMGBFX0nOyMgVmqqT67rdL9xFp9PRdrSb+pMVfR4Uas/KrqMxD
+f59jHm73w9D1X8mAIleJtmzx4pEV0ezqyg5v1tyqb/IiUM4Z8Ve4LJUYyiLq3JEA2IJtn4OcG1So
+pFZLRvCR1OeRWoHY01H7X5YgKz7pIXSvqiBxb1EsorxWHvdwlwbDzBEAvfEOjaO+FXRY6ziwkq5D
+HddmT3kd+ktcuE34UrQAIVGhlX7Ge+V5Hxw4vgXshiG7A929jGdgmwBbDAXozUMTIkXf10DBkJMl
+Xg6DhcgjEpiFr17nRqrvLohdC+YOFudkGlekumpGc9shjAQA4ugyP7hWO98BNCuhOg7ebEblsAKM
+gbSsHiasIgQJZj3GAxxafk8M2Oh8T0OMBJFwUjR0Rt3C8hB+y4lqEMRRF8ECZILDj33nASl6Tp3J
+yXejGzobO8gCzU9qrt2gfE+bPDaJxLRj3pTiw4wNtrva8OC3GLy8Zp+SMe5vumzrenYq8y1fA+IK
+sYh33SeP6fX8SiXukiKUZJizkcel+sIoIcZcGRCrins7T4v2ykLPldy2Ip2XK2kOzaeVTDX1JKuw
+Tb5OAwSFB7utyunAHQr8uxacjg1MoMkDiG2V9i4GcnYIeeU9cePC9JL1sppskqrbPHHHi64OXR3D
+PFwGlC82v29X5J60ztl05u6sM1fpHXJUeclZa5TJG7ZSbcY5WdtJbKLALw+EzhBy3EP4YVIk0zn8
+MlqVRS4S+6Mhj+RYt+kd7ihbXBgZ1fohBErj7dFBVut5CIq1uVU+E59P24PgvKVimk0ALjWGlA1J
+oc35jhwft3ouiyzPHqoFOMUFO4Cgzy/mpMifEokivjqOYT/6067N2NyGnel2craOc40gHoMgDOnu
+ezIGsrhfXVE4l+lcLNx5fWJjgwjLciyawRLAA59y/UFY0kkO2jZyGZkk/XaxnBx+VG2LooInLrvZ
+voYQCN5Ht+UILYvkVcDdysP7za9lIaZYsaGV2XUTRtOoIH/P2VA/izyc7QN5SMv6lI+SjEuJaQdm
+OL09mo1K5uM1lq7Rfpg5fdhiR46FHVx1JxA5bpBAR50Iy+7DGvQMfqe8BMGIehuIucmVAxqwsc2l
+488fTHTUD+CcQZ83joAgUJe999U7EdJ14tJGNU6gUkh3yef1hC9F3cqreoKaUsgDYuANBHaKKBnw
+qQFpsYxK1zJuM1r7RgxiFazGQkzWgA5H6Wc4VYBUh+3otwcJJ2+KjbSqaDGaOxxH2aeSiK+Sj527
+t5k/jdO1rGnVmSdw6ywS4JKe2SK+EhvblUYLmNf1hHydFs7LkeNvKFj26tEFqAwhdjnBYquNG1uf
+ELLNCScLKG754EJgKzDmbMBZokmAzyYnEO2yMWnFCU+rq6r9lm3MWpls+NrphLKtsVXbO1fX5ZM6
+wW7xXdWfii7bELhFVj/UJzCuMZpAciGpFLcW9jCfnakuSnRIay+2uU0CXveE2vU36i7CEwC82QnG
+u/4F5j1Bet2i6e2dubF7wwRT0M420nGOsxPj16Qg/Mhhd8bCuqAH9k9M4FyVBF77ocyLvRghBwcY
+GXzE2htQ2NnYwrOZu+WORWW99Nal+SxOGGJksRIk8UYnXgPLeOpOyGJvdaDsJBvJeMKwfO/Y7fxN
+b7BjWiDhg+vAYHFOOGQNYv27M8B/oqlRfBn+IihLVLy7ZiWWejlhlk/EZSi96WexYZjxnecXoshg
+M08i6L+F61x/ZfgD6kqcOM6UPUilsxPf2TGC9tI+UZ/NxfWf0hMLujhxoee+Now96mbEv9OJHc0s
+BI60AnmCo+7El6421HSqa1fs5g1A3Z9Y1OT3yC6qx7ASJGtqqpZgbE19hkw292PmW+mNe6JbizC1
+oYidqNe9KXPvqlwXxrN04ENCbNDPE8UsXUAQDASL6UWbSwE6KCW9Jd+li6etW8UQg5uYLAGOtqzP
+mg8bjdzeiSWvSZ1LEhteCH5/3HyrT8aOFy4lad+ZT/XjVaP9Gmo2BenU6xz7PtzD3QqzNTkrQP0D
+2ljT7KV1/VnHDv1zdwdMD6656zbVvihBm0E/DspDJgr+lcQHRYRR6k0vhMLIpy6n2DhCHdMwm81E
+XxbjrJ/J2QnrKLSK5kNeeIE64P5BHMBq6g0kDfUmZ7xwxYOH9r5eIjV50LcM11KCKWRpuvt1LJt7
+F2roLls9FdyVuYRlpT2DPLly9hu8caXr3Y4GF+bc9WVD91pCxoiElfmfZ6m2niIux+amXU1Ih5K8
++nOiSOeEP26IKS78Ebipw4lr2rG2bEaWNRXFgW3P+GB7STLGvtL9hZVyiD/LtEdFEIQLGdA2wnrs
+i5b8rGTrWzEpdGG+5yX1ht0Ysu8CmUspgpIK6meIn0ecpTQWAV6ZCmcHDKrudRBTpg9T2MEdUL1a
+mQCFVf62uO0EK4oE+TtnNv1X3ONFu0dgmujYYzD+CeSmABFaueZwyPBYOpwC8uHGSTL5SdsqpOBY
+pflAAkBfsWUsLFXmMGKZbdeq5mFzuzbZJXPnPqlZ+W1sO5l71QVVflclCAgj5UzyfvUl1W9jtPPl
+PCV8oamQGHbsYVDP09qEduzVAgYJGqIQBS0Z2LdLa9svczojD5jxSjwMpiNZvoMwS6MqmTA46tUS
+HzvbXF4AOMEXyP2JEHovNLyK1GtQcbtk3NbU2dE0UuwpNK+gz7Qq/ZpZDonVE8Wp2lVLkHJiEz27
+4zomEBoDsBbfKvCMUIoU4vFDzQ0KD8KrsHLmRNwV5IX55T2H4/ZrDoSI1n1tpe1haby+P2KlJ3nM
+C6qsi5qRSC6iv7piOSxLxZjC6xf7fjUnyfFhmcfggNmzP+dnDd8L29nIt1b5AZ7n5jQa/PrNrMz1
+SwCroN4h2xNz7Cjf6+Mma+S+pgHN22ijbmAbn4Xck1+P53MRSOuHFSQ+lUYqwPOV7mO3BNQgQ2ZB
+jlFrcmcuMCl3TlKXR0wGZXFtGTDWo7GZjBusrBxT3NRKzxfC+uQxBz3oHrOloZicVWLCoAxy6wI8
+mUdy4Cq2RyMYvFutZv9j0LSOH9mEl71NZqYfxnoIn5uxAsDTiX66zNTmLoIq7T/YaTN/9/JsZLMc
+Eu9uona/XvQM4UXbvK6jjZ0iMjkLfSwsGHQMywL3jqyuCoDzbNRvq+rXe2yPqHclWNZn9LaDE4V2
+Pj0U86hf7JIclTigajkPMALDdfeXJcBMk9t9tB0a6zMiF9i21iZjKVqHvCcMsErI2rKrsH7MVpj2
+R5kZ9KWxHa5se0WIX9BO0ymIG4INPiXL3N6DIVwFeuyJnMEFce7CTmMnSRRA+sQZN9lmQSqhgHAX
+8KqA7QqyGRKjCl9scKoGgI/FGY7YNsMrrE2N+lIUTQeJRzRbk4C8+3uEyiiN8j7Fx0S3rgqOHTnk
+eh+09J/BYSCQxwiVM/nA0Rcw6Z/WMeqLqTJLxDs55fh5m/jJN8rhTF8b6zhCNc7BSRK847ntA/V0
+aDLoHDLvgFJU2PsiMZGzr8WgjuUsjeV51GNOdyBERxMtpEqIaO4dAriswTIn0gboEsDRdKfHrtZ2
+uudhc5KoSFyPO8IjkcVFWs3i1swtz9itGKEbSK7AUmPa/q68qpq6bg89+BvvsgywMUUoY93xym78
+couSgAtKobLOb5gScay6tdE+Q9zkTcnLIOQMo5Yepj1060VLQIip4E3eVz5wQyIOzfLJmyfoTW3W
+L/imWMT1mQnGGQ1V6eWERKJ+fMHi0fEpCgEYr0IVPHmwLorY5Vw/RlahZnFJMluDCwQ6Sblrg6Ww
+D2PmY8x1wzL5VmqIcVEhtO8Cwq6AcvhpArMIbgxmab0NE2GpZW7EEdxxo9kY1Cccgfi465RpARsM
++3kQM9rJ7CJlIbdApbbAizwx4FIx6hVAIiS7IqvOT+2v/7Gg/GBBCWmn/9fc/t2rSl//Duy3OTD/
+J6/fB6GBGQJBKUI81Hg0Rf9tQBHev5CaMCxA84I6AmfG/zegGMG/0OPTVLS2BruPUpS/sa/JHvnf
+/4ty/1+OA4Zrk0/hTNjwGv+A1/+ufwm0FE0UozPmVFvK2CkE/G9D17Eo5nDrhuycgrbMOjfBx3nQ
+OsIzqR7+dl1u/2pt/y6W/fRRoU18AfwdhiXbV/nbRzkJqeDVVo97ZUdGicMuMxaG9c8GW6cfZPvW
+6cdwZHyvTl5ZDzpif8EgKNuPO6durqBgTX8YbL2f6v71MUxaGPdsECz3ndrR1tnUZZNB1YYP8sgY
+ebkaUn+8camhzxTv6D6Ts7sbqAXg4A4TDttxlOdu5uCdZtAd/f7a/uo2QvMQWxycbaK4+fHapkFF
+XVRj762XudjB+iouqTeqQ0o8zx8EL9avPmuT8mxiOpMH+J20dAuHzfyF+0i27OOYUxXVtXO2JvmR
+HKSjW3cvY6rxRybnqUgeKnf8NNcJbVv6S0N+TvzUn9Kkf4rf5slCO8KY0SS7fNO+//jrcYN7uSC2
+bGdaiMXfyqqf8wvCOcd+H2Sq72FMtRVUu3Qt7XtrttOvnRyNel9NKFr3v78T76Yc24MB6IN3kww9
+h/f33Z1oLXLGlu3BUIMH9J9bdsUAaPzDu/SLe/DDp7z7xUm32iMnHgibAWbkmQZELBl9xC28sj/M
+qX79g7CZMpBm2Pf+dnddnyZVwQs1rlId7HA2Do1dh7v/xmULkMQTZ43q6H2mXsjGXqyZ5KGqs+xF
+cyC7MSbDu//9p2wztb/N3E43Z1ttORP46Ezea4AMhyPaVDLBoIWRERPdKJ9YG0vuqcWGK7NJ8yt7
+bJoLBC7Tx3/+0Xj98HSRa8jM7924r4KRYOkynMBPS3U9Wy6MemkZ526R0pU2QjAMPFi36AH+4dyN
+Hx2YwufdYLpJDfJeMm1o6YHHAbAFPrm9zhj9HxVDqz+Mv3++tLjbt1tnoisBGPVu1K/MdvLMpoQn
+YDf3KGNf6Yg8Jqt3MWU9JA05HH3R/UEx9G6Euv0yLibyJ1pyNl32d9d0UvCH2mHjOyZzSiyxNQ79
+ddisQ3VsGGh4US/I7IstjBC0kPDQOYBovDB7+v2tfTc8Pn0NNjTG/sh7HLSVPy4/bidgYuR8jcDj
+WzhzkhEejLKskEy9xNC1Z7//vHej239/noDJ5cKQt99LshZrTYS0yVEDca8iG67lcyFlcljcLsP5
+4Dc0jJ3wD/f35xUH3dw2B0cWyFN02hX+tnurVWQkY5MDgOjGgIZS0yMVfXhosmX8w4rzq+t50ieh
+Z9h0+O82GEePK6MaDlUz+IExDpSo7lcqeXOfhGlVwtgGkfKHn/fTKrdxzJDhCp5hk+nru/2cI6Np
+Be5Aa3TGqW10Qbtvci//wzb9/s6xYXLHuGdcQawSwbtlO7DJpjQb6e/GJDHv55B80kSO54tDd59x
+yHw/1csf6qHQeX/ntg9FI2WDSDOxD/vvLqc1LSWne9p7tray4mKLJbT6qJtYMN7K0a71zTAw52EA
+EDScaoEatsn5wHEifMySpSyve3p91j1dp9yMZTCF9REEgxoeCjUAg5oXelUxIS4VYHQ3N+nRwG8t
+jeMs/RYoNTkpNCiL0dcvINQ41e6GkcTsW7BjXjZslOG1fTN6+AoOI4W+Ca/DesiBWXWOsi5yOTgj
+uI3JdJwPQpp9dei7yt7i7eastS8nwJLtte2P2rtWKEmb/VgKrCfumvIjU2fNm2M9Ot53lwFitRl9
+3HCjGxuQg2TLRamySVPFdbYebjmzt8tnsuJWPjhMcWKHbpEsV6LqgOc4Uy9TbJ4kK9AObw2wQUhK
+l70rOcXC55T6lRRDUheRq60cMB0owF6drCMo/SBf9wzg22pP9PpMCBEXx4uJVUnwZxlrsz6NNovZ
+zh+3sDfixo0tGyRtYdnl3frkdgV5hLbuV4EwI0y/0LDihLoMS/uhHj0uUKdb/2pYU2TBXdbTgVwN
+Yww4eK7qBTavb+4DnNgigvXj5ve2lvnwhSKoB4ydjbPS91adkwu/b5di3GQHrViWz5UoPTjWYQpY
+9jv6JnXuzM483mg9YYAGrNt+nrqGOWZdB+WLhr/3LVdhTfd0Lksr3p6SdGd1evyqVxCcEchoOFjS
+WqW4BPGBUZFoHvdmdoMeBbxDg9Uwa/q6tWxEc62ShO4NsCHjsHW5A2odXYF+aCxID/jLfRmVleF9
+b/pKkCQ/Mo6LhtIYX01iUB9oXlgMiU1yNMDpla5CzUBg7a7myIPMRxfrHdaKEi5dpYyKHSRLvqaw
+qOjW0PMY4xJ++ktGZ2i9KPpk+MiFdHQ8kpNECOfUGE+a48xDMYiU+1UK5xneB6D8cUktAOyNL5/a
+JAFAOptj/iTTdFSHda0qNxpsmeqrfFn0jVmyZNO6nODKL4MmowNFxUfaZhNsXd9QN4nbhWLnk/pd
+bb4L7mJfecBY8hwR/34glKA4A4u9PLhbykVkN3J4DHwDVFpKtGoC1rdbn9uUniDgO+CFbKhevZ9F
+wNy0xMjyxCxkMKGYm+X5bPG5jIfJ0oqycA2vm7ZzSqINt2jOwporVi0z9S/WiaDQnTAntENT0bNA
+W5zCUvrmpuzOQoC93W5FKN4doYmxnjRN7YKLEakF57vIw2+BwXw6HpVjkWwjzMZCi5trO8qTRVwD
+wW0AFAN0gS4F6o1GWOmOCEMMHjbGlOGnwOiKbm+UXYo2o3esbp8IpPbRWDECBg68lB/7dBXwtXv6
+0zuX9aGLOWwvKg49ich8FPaGtAX9KggbIeHjAOh2VjtTbXrB1FgX0Ga9U9a0N8f5SQEb+lBaOfhX
+jnWdtWt8B24MuOfB2dHYVPTtgPx20TKu+ptsrTEa3cQB+8PXUhd0XfunkofHOjNwYAARtKZV70cA
+Y8el1iNYXOYf38scgT1fKliIfiKdeOZN3WTKGNSqNpZpwyPuVQtmH2uR4I1Yo1R5t9SpO+ysnvYQ
+mBcAXmfMswmFBt43wWTTI/NRhQzI2Xm4FKz97Izua+3OqTo3K9qJEae3+amdapOba082yVnWNF0X
+oTaSA6AUwhkafy2fBkaxz/ZQ5QzTAOjIeF7HdOLZDml6LlnZsf5NavVQBjXNLZlBQsbuaOagv73i
+xRjK6mpJjASbhwHADD2fwiJYu/X8qPtFv+mpD651v9HGF65JXJJVL9iPIECafQpQfaJK3rj+lXfD
+XHa1IjNz+jTq/XyLI5iG7hNXQ7o7H9hvFRXaDJq4zpohj9EHJ4yxckk2UhkmhGNVgr0CXFXZF/tg
+WSayIuwKU9GyZMRkGEbiymOYBDRCeQP7s804Jm8YqJQ3ovWyEVRiuFlnjc69V95gkSfrVoQWJKNs
+urN2NRY0TglyhiucL8gh3NYpDiO8piRmOAMMu5+hG49MyvtdS94oYafYwQl/GII5PbP8zrJwxMxs
+cL1lQu/BvKIfrQ0BfnDJ58YaVEzDt8xxwbvVRBN8yA0LtQdgO7eIwdiBLqTnwCXq9bQx3E3GJZoE
+lRDq/OhDCXNcmFCM82wvwu+UPVh2lr9Zcwb3sia3FeXfoDsiebt0uRdA68i+dfxFxGJh6TxihKpu
+SUZyP/LI024VBnGMO4AVQ8IkYe2eAU+lmBUZ/4NksgLmp9oL+I/S1OpFZYv7NvuWgcdxGAC0jaJT
+VlyuiJkuacjn7n4AwiN3Q4Ia4WIMF7Qp7JLVJ7vzwMVlhbSD4xp6HYkyVT+sj0tvhI+sRSUaBC9t
+4G0SyfZNMvn5SsvAYDBEPc7UiDNStiO3y7mhdjhBQXvzCwGK+R2Pve/uyc/u2yONMFZhA2h8fexo
+GZM1N9HHZ8o3qnvwfku5692W9CkULOsjYdv+G22g9Xsqtjdolb2yzjobviBleObJmC/U3wm2PmLo
+0J0ukaw9D7cVkcRvDYlw4mB77JRRssoSSKZQ8hvefuIsgPslH2DjJcVhcioScXuHzKGdb83ex6Gk
+6b0bW4cxV8k3znemScS17LZmN7B58zghMapjtr7gRpNaa51L7kl2cHvbPPOSsTqDZDsYB44W81cn
+bT3nLkdFxrteQ4qOmZn5HkBJlCBnApoAw210x3AUBapf0Hsbgz0vDBImhE+YRu0u1UUKLV2yc2rN
+tGIklhpbWenM7BgUa2i+tC/QuWZyZfyo7Y9e5zjNrnGt8ovdbBj8qpVcLtHk5RMjwp6gtKlK5b41
+4TyxHLRwy1WelM0HmKK+fUAuJBkTm6Tcv/J3lfM+7IQHtNOcsZEJU1rloeuskL+yKqovM3w38ldQ
+8hoXZj1qixfFaO0Av1FvDc9rt3CJGJT2Z9pT42ur/eVxGRuG0p0WxLFQ/oXymmCQSp9NTuHLS7S7
+idgvLkE/FyYNpW9DY+ObB/tkfg6Vr0krg/mFjiMRJvN/UGfMusl33G3xBft+LiUW6dxvLkcmF9/D
+mkPV0erJyouJKywJbsx7DnSlm6+f6sZxrmbPbW7rxie8oGnmLj+amVu4sZqMsI61zpu9WZrJEldO
+qYje42u/KPJy7MtBDellbuakTM8ly7ePjLo5Y0+2qBmTIfjAoV1HdtjbiElVyKjOqeyPabc5frLO
+Tz9lotF3tccCRqdkMr+uhLOQU2FMweuKXIuaos+dp2CBrRT3wzwxIjbthk1JKfvOGZOKtHRu/yVk
+X/XYV1TMcDrX7rI1lUIM1az9fp1INN6lqYsLXlTGFrDBLnY+Zbl8SCfPf0sGY7hXU+HfrWtiPXTB
+VEY0qQWoUdCO3J9q8D8lpXQuKmQeb1lRl/Zu0JmgcAkNgkhGMIQ7uyNsdVeLSj3Cr5ieUKdVLymi
+weGQEBqJKlBOSI1mT3rX/Ib0ZVxm8ewDs3N3SCpW+4yxqbEQzhfUD0tLInqcNU17C+mSd9DjieTZ
+x5lH2FgTQOnn5b9EJuK+6DwN3+g61a+21wbuB4vvz2oJK7OIO+X15yQW5PpiLufhbmKhq6JENerF
+TeYeqx/qufuVAgPJWJmy5bvG8igCU/KfssUeqDVrwKKDxmXJ+IrC80bb5tQjz1ML7YDWdEkkgJaB
+FMmyQNSautxI+xAGH0PRzTd6sbot7M3mKCMquPpAE7V/1xPtnpIRkZikC+UjeCASfZyAPDV/WHDD
+J+h3k2RDb9ZQQFnwUO3Z/P9G+yUtdA+HlP/zNVtW57IPu/QtI1smjDlnZ0TW6zU0ydZSIIpbNDRk
+fYR29wAakOa15Tr9txJxKYO6nrMFjgefv2JoxRnHH2Lv8SvZ94MbwG8oR22D6suJWImMLCQKe5Sm
+ec+gFYIx08Pmg+wnU8SBrFWxpw2f1XtZ+mQuBlATuXZ9L/qjWrv5wSeL9J7YuPmt7e3g2inLzAfm
+305PSEbHJDJRhNxjHeFakVcCqZRAGF9FMGuDCz8LebJMg6YPUcfNoijAWGWNkZiSaJyQ9UQWleZX
+w7BVe1WafvE8tCX5jNrpyy9EtJGfVXad/4qQ3FRnwpHc0bqrnc+raYEdUJQ5fqwZfFIcjm7p7w3T
+bYlta2a3jwdm57T13Oyplw6LIMPDxj8aKtXDgae7uplcPbbnDDN8EZdpuJzNOMAwGmdG94B2uryg
+UoOVZ9geX7ejBpCxdpfiYfFIQo+afpzuJaP69EAARE80SppuqYqd+tp5Xf889Tb8UKbClRmXot0M
+xok9sc0iwN/3Vjp1cSiN4mUJcwQmALkzcItpmX1jzuwhJnb9ItvCnpj1Ek0apnuE9BJSR+Zk+T6V
+df217VwQBVlh+fJYeg4/v5XJdJe3S5Xtc2urRE2GMS/ETDXpPq285Qt/8/rqZEVHhIRaARlrbA4k
+rzVbupiPYB5Z0GAE8kNqWBxJ2TXbAY3uSMiRIqfhsUHWTtitLLuv5CmknNGHhdotczkAUyuUqXNw
+p2BQB53LyY9Wc/AvkNrqiWj7NuE0ivx6C8oCxX7MDH+Dboowe4WgTsJjXg5dNBVmfue1psepb0aG
+FvS2ERxb0fpT1K9qyhHpeckFiFEvJP+qJDYFTjn/3DDO+YU8xSA2DUyw/WzM8qPsm/ly0RPhJ8Ff
+qYlDO2YpsWnrKVZxThde+yHrp5mGA1KQ49xnwWdGzcEzConuk9PVxb01tmse0RjnnJRDk0wRWG/J
+jYgM2m/a1lSDaVeQzaDWyiMgZ6H03zkw4Kmfs8q56KZgpvkydxz2avh5lOFzt1zSudA9wdLhdL9k
+tnEfwiKfd13fc+xSYIs+eYtY3lyDIpRDlrafEYlsHHbhF7fjmLrdXoIikBHQ4cndF2S7vFXopL4n
+CVk1jODWEOmSt0wfcsvS8LY5la2xu67GzdAQHE00lRjPbM5YgKHtFiu/pKVTHXh9MnattgdKnFGw
+ZFGNKkuekbpGqKbsk9TeoSgDrJ0aNuR3ZIlmvDKCQ5BK72o5dKdoTpCrqMI4SG4VpEgMN5LGXDQH
+9jkE75Pu7PLM8vrw24ImgHPh4Nufl663QfGkU/bFbYgS41jiEN1SCYXCRnnJKwDn/CM6oeK+mzka
+7RarllY0EYYj3PUg2wlJUYLbg5aNKcPu3JMdgVwLvZyRhpeaLi2kVhkPkei++rVB9ipI5DteaEyn
+HAa9l9UIwAL5Uxd+RpHXLfSeUDrvWmNJvptM754duVW6Q+okNwZRXhWQEGWwe5eBFYeInCn+B83u
+ltD1jkHgdNdLx2u29Xc49geuWT2VYaE/o7lpup3oB3RVePIntGbVsAIaqctXhCLDLSJouhwKSzUs
+6QQILFBjFCuTNSNUnohObQ4DJy+CiPJMFjEpneuVGKZRVhF0fMRjW7aK+3Zqsv+PtuEHbYNtMqz4
+r8UN4DVf/89/fHmnbzj9oX8TNh3xLwy4jF4dyJJMoDeD1L8FDk7wL/QNIY11HHVAPbYZ+v/LCIHL
+aQfbUIpAOHAb+IT/U+CAvoGGNQN8getko/yE/0TgQPv+x6EfygpeTIZDtoWJEPrg1vr/2+QiT9DT
+VAXpEgD6uqfGKrKXzhrlI32AxN+FOcXluYW48aluTO+bLOTyWNqZD9rs/7J3ZktyK1l2/ZU2vaMM
+82CmlpkiEBE5MJOZJJPTC4xDEvPggANw4Hf0KfoxLcS9XcVAhjLEepa1dVvf4i16AHA43M/Ze+0m
+krcxScW/PPK8b+ZGJt1ezzxjQvtnIOzTvQ5xUBRFlGWnBrYcRd+gKLYDB0ucIH3+4Gu8J2FS876g
+027T76qqORhT9kEcADG3TnYyMso51KdIfAHCE3/p0Kkjq/cKAi5z3ExyW1hRL0JILO0YstIW92Nt
+Uiaq+pTlWBD6UKDtI+1v49cd9RA9S3BYDcqrnvKG2hkuE18E7DVm58mHT9FtvFx3qPoNvf7Omiff
+gJvbVG9SZEvJPQBfTgGeSs2vOjImcUU7CB1mYmvFAzvCsd13UVS5u9lU5pUQY1VsNSg0lJ05JVVY
+baV4r0eGj7ncVuaPwC+DTwhgxXstaiwVRpz1KR1Lo7uXlCHt9xaop/kgSto77Av9SG1KDf9urNGp
+u3aNfn4w9Xr8Qvgvi8hcCffOknX6DQcC1BS+PNMQ2uxuKbR1tf3ETpyIYuFRhNi4rezGMBjyPjpY
+XknXqu98hRHLghJOibMp78mmogwfxBHyzGrWd7BSJ4MEZdf+kjp9onG7gxIjGaaVeQu2TUtC14Cb
+yoFdKA2eV4r0W7Mr40NtQ83YeIix4dsTB/3Yw8zXCW1SxMDRB+z9jw1OuZLBzPpXU7UiucpaSjfb
+gLrlZ5zFsr8247H8kheytzag6IJrwjtBXxOzEX1ytQYI/KAZudxZWPhRMQ9T4h2oi3YZ+1szY9oV
+UT4S1uCgXya1LyebrSMCforpzWxowxJriSJfe/Jklz5i8LB7UibYwLJJVoSkth1Nk20niW/f6nKR
+/E65Zh/6IGpuq0ml2q7V85SbNHdKQ0Ds5e/gm/HRMeLJJUam9jFSNWz4kL1YWdpeC8Oq8Vy3Ps4B
+mdjjLQFgSbTpG+V9J6pgXna6s2eFbkPzf2vHBXlXekGOPTkSqvxEmMP4ScWO9QCZLyk5YdFioo3b
+yTsU9dFn8qanX02iBc424wTi7YIoQh8HPwetKSEoY7Z1Atk98ZAorqhmBNg/i4mwUcyXfJ5jmcZf
+tUJr+Y+jMX9atuFqM3t58R6R5yBCx4yCZ/x1RDcObTc8RDKS/HOcFuQIkGWyJ8WYqhJhbOYDIP5E
+7htQhg8W56vPFS+ugxAbhvsmgL9nXSOvHNlj4tRxdomMp37j9EFZMX08In9FMU43WpdzEB71bKI+
+jSWDyEOt8uXGTz3jYUyV96OrEko2JSf3MHal9kOUXfKprNOPOhoQsh7jtE3Y3tndO5MiwKOBywkK
+g5kZziEHod1sHQMeHar3YLa2bYCTIZxb06l3ZkFHb5NWwSQRTanpkeak96uzSLzZJEnlfa+GXJBj
+U+cNEeAI7dNNYZU65eje90mhcSS9MdSkJfnugy7ZiZatYC5Glgn92mmbHeWP4i5ANSzCimfxlXTL
+fNqWWVXfiAzVdwjhHRPDlBG8EhoEatzggsEtorCzPLSE1Ts7yymGp5jdAqsruy2U1SriXCzwnOVX
++Bvu9CgtvpDLZNwn06hjVWgsrApFzSPc5hgN+6UQ2D5UJA90PBaUkRu95o2oRorqYaFEpm/IX8uK
+2840jUfCqa1fdi8WBwRtAfo6xB88xinZh2Gto5OD4mflzyYGiJ/EtlLaqAtLMqENk6gDR2XuR2+K
+U2/PJhIdwhQMbI6TIbPsA1/TGewjeyyLkotpX3eK1JtNxNZbEvDZEWeteSK6tQr441s6muzV8GVQ
+sq+rqoHgnFAp2KrcEp+VLW4jZbvOXR97gb6LBw2k/2gJYr5jv7anbUd/ZNoAQJg+jLSpxLUdG/19
+m+CnZYoa1qdBlHhqLMNxqptE99w9IewAWIs4d55IPDHa61gniZtbFqkrTcQIW1H5m8+Cjuk93xVa
+DuwbY4KzRTNeOTpmpwMhwRSxccoa5AoVTvne6SiXtpMWTbh0x+gpAIXKAbpPfQLmlejbnSSjpNs7
+RSKumD5+y+aPOtcmm3T8Ri1ek/spySxzNxQZNtiAx/pIYxGHhlKqxEshxg9UYcqP5mxxOk4yQ35p
+3Ti9ET3BVVtX+QlGwWmon4Kh8fliGVFJWTMn1WIjG9e4i3ME57tO79Nvnj1HTw1+Y3gObZ/+sEDW
+YfzLEvt9lNvct7Qbhm9mPGk/hTeCOvnz3efb5pmMvfb5Wd59a/77snH9UTcsyOT3HAWf//qnt8Nz
+K/v2+T/4F7v/2PfVz28yrav1f+fkr+j+x/GP4+c6JAju5B92Ff3+6bHnYbx77vrir+H+/jf/X//w
+723mh6l5/s//9u0n4TghvN4XWXW6udBh/u870Dt2oFXyv/9XfSKx/eu/9V+Qd4MtKNs+xM+A3hcq
++z+3oDZbUBh8tm7pC5rDXajT/7UFNf6BBsNcQCsBiW4m79i/tqCG/g8WAhRiR3AnFaY/iqljL/u7
+6gx0uGHb7HOXv2fB4azIIGYm+eU1IbItFZd5i5s6/SzmqbTDtonsB5EPMy4FPwFjScgLHbXfbtgZ
+3e0ZPApAZXbinmvYwBeMlTTLwurJp4flcHK7B0Qw+QcjYo832G3Bwa1LnPc5ZWMCmKOxo2TEfhZh
+fNeJp6S1MaW//mvO3AzHQ2BDiTJAB7wW95gFk2Sm6EeUUwLUY+jl99HF1l/pKtgUU5Tfdf5HQ8TJ
+BR3MSuCzPAToYssZQGf1xT9wegrQOYo6ouFr7GBHIiYnjqz5EAwGruzXL3AltzkOhMiPWWVZpoOk
+6HSgsqqyqO8rQia6PnoapszydpMRRLfUPHrvghTs3GAYAQzawMx7wqJOB5O2aSaapJ09c6dvGvp8
+92NFlBG+3vHD69e1UmUt1+UuQywaAQ91+uoYZUTwJbyK6/IyLCGZNKYnX3rDIa+K4grsefLp9fHO
+XBokXw6JvIgwNnRe3d+PbYVNfHo/0elya89fDLrRtkWxQq3uzzHnrADsMHyWCtdDQ7yaG6m71Lsk
+uSBonFos0KrvIwjhlXVtmBXE0NcvbCUCW26kj/7T5kU0KLkvx+LfLyxTlVvEPZoTgxrzlnCujj6I
+oI9HVmBn/qTQOOgHgRLvglry3LhASRmSrKtFonw6Lm1dA7uYx7hgQ/qN6lP73pyArbdVmjyNS96d
+PyTaBaX8mcfoIxqG/QSiif9n9ToM+MVLqcXwWCQsQdKfgg2B0/UWA6h7YWk5M0P9xVHhw7omqHDx
+Wvx+Y2drxLs28kmPunneFj0dm8kd/Ku+jZBHEHV5Acd47tKA7y2QZR3Y+no82oSxUD5qsLqz3WtT
+m80QEUJNt4YQ9NfnzPLTfxMuH+cMVhAU7p6Henn5jv1+abYrTI4MFJZ1Th/36JhmXNROsv83RoHO
+4+BhgRG6hkbrJf1XLLA1pAFOfyLS/VuOvOMFA8HZ24aOGVAVCU7mC0Qiae2tO2FOFIWjMP3pbjFd
+2dmSAzzRpr+klj03K5Al29DOcFeihz+9dTpx02zgWLeIuX4/yPmxrAUeFKhLG9gY4sKDOjcaJNAl
+aAXBPGCn09GaqoMf0PByt5OIb6q0tfYoA71rXanmdh7n/sIH4MzEYEXmbUZrwJhrH0rumQ3UFr3a
+jAPNABLQdBPNCNFil1BHZ54aQyz4TMp99otsWtXYBq1k3mM1EE+29JGwJucLHyhNo/b96xPxzF3k
+JmK+gMcP+n8xVP0+3SOF3EzGPpKnIHGqkJ8jfpA35eAa1sC9wge2kz9fHfliM+dNQq0sGKunQ84o
+GFWi0NllQxptYcKEtskht+sdbWdHrcJRbIwXvgTn7inoLQeELDQTcrROx0wkyZYl5SOiJIsbE+Y4
+Rnfi13KbUs/rN/TMrovP979GWm1B3UanZIS/mKpRMGZ7MHHWR9ZruXgdM6QAUrrlu3GeKmOXIe68
+NHnOfHoCj8XLX/YqfGNWN5d+l0/wHVopqWZ5mOlhP8xuFITC6cROU8F0A0ol+vT6NZ8d1F2WGV4P
+GGurQVtsvEbqWxVlRW5qSoDEE9lpTwme7L3uCms/dol9YcyVI2FZp5cPASvocuBgz336RDt/rrvM
+aqsNfDVjEyfVDel1xacpSrIfdWmVX52S/E5H09trc0RN8/oVv3zKzKLFFMAOm6PLejHQSWVXFobZ
+Te8p47E3OfQXSRt/0yLR382+togORHenNd2FL+HLVWiZvrw5WNAo968l5ui6AxTkVOcik7gRQMiA
+uKzMfHz98l6uCrDq8O24hNFgi1x/bwePijcQC9qwmPS/UqweklDWXV3t7QgfrkS4TCfjn2fNM0en
+lzeUYbCXQFzmm+isA7kT5MSJ3rKjgN5ES16klfMQQGuiWAqMeQ8/BM1hFetLTmmUiQvLw7nRj7v6
+JSp98ZecTqZBq/XUIGQPVlCTFEhgm6CH+FvTjw3GAqtJWsEmCxulk4A9Cs14fv3qXy5PFt8U3Dx0
+3pbc8+Wp/9Y4ceEYs21m0TCpM13zv9+QiyJDh0qy/+ORAKuacEKXATnIn47EWcKkFslXs4oCrwor
+eFKYenKSAPbusCh3Xx/u5VtqMY981nn2bYAI128pkr5MSVRmrlmIn3xQwD5leWjkEdxOWdWw5FAb
+NyNKqWyy7I+vj/7yZWF0F58Jm3HMYGsTiOxJ5e7Jft0kYHdujQYFgJNV5h+/kssoFDbYCEOic1bX
+yBvik+0GlgsgbnCTTfY9rXnt+t+4FKCIvPUe6WHr73Rn265Glg03cpybB6Ls8K2nuj5cSpA58+aj
+ITdpJC6dPDaNp/MjYB9ZjkhqgOjZThigw0VoXsbXpASpG6Qp2h9vUXGy0bFcrEABp6XVzO9ic6rF
+8og0LbN2xeAX9048jLsyhkXw+i08NxfRdNIOxa3MarO6tDJLkUimE3sAb+yuoVzZW4oLZWhOY3Hd
+dK1+I6D0P2Ltar4kXtJceBXOrDFs67iloDJp3vqrNcYpgJO0OpvxCFwDiiLQXg+2X3iQcZTXfjBN
+2Awbx07FBxtgUXvh4pe//fRYw47LWCpti5HaXa9wNc4XbEv4MYy51r/wMOAqViYv47ZP4gIhBOFE
+7xBTOP/GgsPApBIsbWmKg6sNpkzTTsQDh4LJEB34RN+5Hvw5+Wx4fX5hL+sZ69lLcRIXG2Y2b6nB
+kRt5OnujNol5/xCg+wjYFCandpZhijq1B6xkCvOQeBYJ44VpjAV5iTKWez8nTTzsrKCRW2fKjS+e
+9GE5wLus5z2BbP5zNTXTgpYaVbubmzK6LuLlNDOUCcX6QceVDQ1Nsjt3HG9JbScoZOvpIxSgWREP
+T872QEugrRqP/G/QIhsE/M6vbgY6tumNpvSu6BWLO3c0PWz0g+HQ3I7K/CedsZrA7EYqf5cheNK2
+JFDz12a6p74JNy1+6BZUUvSAHbTBLFfoicquQ3hoQGUEBTLY2hTmsT++SUp4lbeGp8di05p2buxt
+u5gPrTsUzrbQbDSbOfv1eNfKtnlnZBP6Ptio8fvJnk363FzmdyltC8gzUavpZu7xFNFlcemdwK3q
+EfYbxVcbXCWgH7YVIC/TKSMWalJEHgeyejO7OArQmRHonbmNcDAKRAZqT3c27xIsKIjPWwxjVAul
+sU/6cYiApGoYXBAUiiLs7F7e6NIRaehxRNC29EDGR8khTG7VgJQKm1KB/jnoleFh48nr7zgTkNjr
+BiLuPR/YiLxes5H+rWHUtr4xy0o9Ft6AIN3qg5x4SfS9zRKYQbL3mHX6u34KPA54QS8fkyLS9C1Q
+RHmbNmz92dtbrCOipLcjCguSY1cVptqOODE+YJ3A3Mgi0jwgHes+Q+mSn1CmL4YEwhjh3WC2ijdW
+Ehk/sgEnTIheczR3vqOQ4lhVJvGsKNGqfYanLdghKc4fBtfQLARhCV4ElK7YbzzE9pD1SoSCYeIF
+xAIro1JTGMNZAZjj5JLu30Kthf26MG0yc9YIe8gn2vJxhbAYh9isbVoZu9amKsFrkgzSzP2OPauG
+JhKS4CcfXGsWDnEZaKHvFX2/EapRYmfDbH4sBeFiW9lr4mvUUHRH1NvN90jXdW4VfXA6gHBWiNUO
+ouBDGQA/WpKs7XhfziLHHqw0cYsHh8jxZA5GHQIg7IAtAlbUpuSndx86UF0oX13V/2jmRPihRcT1
+17n0EgQlktsAkH5feJmuPpOXGAe04NBhA7NRtnmdlzTQri16d0Y4ohfuvo2RpY+/ZtihNAxdZ9To
+/Nd6uYs8a2zCqJBNcRgqrCCfS1hF37qmBT6DNjFp7hFAafm7BqRcjktl7sR2xLa0bCsyUs0KI6rb
+w+iNBuV0bbY07CduVNyIUk3qanCa1LodTJpNMLGm1oYj2XTTZ1wa6QPtXvR06GRhYA9GiV6jb3X/
+0whL09jZQ0mDfnb1Yr7SqLbpYLJbDxzq5LhvZYYUQjSJ422cpKiTK2wVZhu2vTLbO/rEc/E5HiDu
+7uCwJfWDrHR0wMhwxE+pZGkBHZ3h6Paa31vPgllE67JwoumrzHwqsqpPpurAXXWhe2SaGdymttF9
+A4mVjG8RvVbl26iB2XlXwfWTDct6hBJ7Uzno89739Ijj7TQj6L/OWAE9+tdV5x1EVaR3Ss5K3aIR
+qbS7ES+dPKTKttGLwtL7pE3DAASXujEEKiY4WEtrjuShAd9ESntFpnqo5UJ7Kx05BLt+maRb5LIq
+uU/HFK9ij61UohF1kzhs50lGH/OAGvoGbJHxIBYJOSLwYTxkbSolsmUteTOUtZXsiU+btFu0DyL9
+IiKRJffB6MJq6wDbNTuMlZ51xScSf94oA2N820eqCL6JHpf6Dn6VmxIuaFf1FhVRr72R2eSimGTz
+iaiva/q9npM9vKdjpbzHqrTS7taVcPK2OMhKb98H5vjLLqO8vYJGh/44nyLCP7oi8jLawUb2Q8cK
+iPuRzlz/ESxA42/Bx+Fmof2Di6bstca7xX7lCCTKzaRdpaUK3plWrMPCGmarRrtEr2bRC6gkdJoB
+zaUdSQHCkOC+4hblTendUJByg2tnLsovXlk5rA2Z6NmdyLotDmoyBxnKQPM+4Rvo07DzuaRthPPv
+uydLCF9pPzXXbYRPcnQiQ9ss9v9n2uvTJxdVzp0bmclbRBrlHkZX/tYo/Dy/dstejNuqs3hGXjGZ
+876rU1OiNs8Gee+VY9deVzZC1o3ToeOigDFN+l6ZI/nNbk8IHnKISlRhY+LO2Rt6D5NjpvmP4mLI
+7PpamPk8bdUidt6aWFOnXWHB370nJrEsr4yeD+imS1Lf20Fwmm/GbsjzKw+5gRams7X8YaTFxTad
+MXkiM0P6ErZabkW7uoTzsGkLlRafCq+2/APyYKQ1HZ1vfghOMbY5KE0KwuqXt6HmYzRueV9R19gy
+aRCJ25b9Hteu9HY2rkhmI4FmuCoDnYZ65zDYFpSyZ+JESq0Hqv06UompipzQHbNFEQoArty0dA/v
++4odxrbRhUSkTSQIfYfUnp+jhRrseg3gqvIIEzYXrrDBe9G+SRbacIffzgztI4S4OQKJB6UXzY7v
+MGawaYpM/Gb93HyqM918LI9QY3Sp3bsRjynd+sAhyco6IpDTOAbC3duQkel9eKDrYkpCIdsbWDFk
+YhfJe1BE1SGTLnjlBc+lb+yFumwPXZHvB60BxjwkJn4x7QhpLqpBvbGP6GapxvhXsvCcM6XzybGP
+mGfYOLQ1ithvqx1LFyho+4iFTmhv9ge+wdnjjI0DCe7CkPZIRc7CZpDQYksHynTO60mTZArSj37S
+tS0/eEFSu1KMD8Dm0FclC7M6Zl6B0T+irMuFaj2as/Mmbcz887gwr6W54K8tPMdfmL0Yg9OFj62I
+WuJb6Ryx2ZWJTjHFrbjA36fYOmiuqO9H+Dn3ropBb3NML76CKR+5Xwubu8t5lLveJw11Ngc8Kspb
+QN6Fzo8hHRu+9wB89akC2verMFr7Jj2CwGu9kGU4agpsMHjM+EdyxIaPDS/N3mwh024zoQ93DnxN
+dIIeJV54MzMFlliOOOTZRExvIO1AJy+RXISYK0ag5UeAeTBUzK1m4Zp3UNIHoB96W2yDRY+NyoxD
+9r0CRMrOKy/Bo489NcptXubtcO0cEer6EaeuH9HqaOLhF5qJbSrkjkGTVahn9CHKt13HTUf6g3mW
+vcJQHhbuMS4AkhLZlNHCb+B695xWtA7p0E4bW7aesz0j56a2C5W5nTv+Y30AhTzApLGuaBe1nzuf
+lTusIs9LQ4whCznSyCxk63qrB2ExsGHgmzFgGkDrg4Ixz8Hhz36LbSVOev7aOgDoh5dBg+wAlQAg
+pTHbv+KxYJyxjFzj3rQ0KskZoj18FlNS9GFloFPcxkMCd1+bgF6E2lzxtw+VhYeVBQIPqsen70l2
+RjCj3WPTsY2jBKq/MbUZce6GZJdTC1LC94DmVXC1cO7abVC30ceEtFOxZQtWPtXTULD19KxZuy2r
+xMWrRormuwjB7Lwh8xHcJRJ83KF8K+J5Lzuzwm+BkOvNJCq72Wl5gi+tcVtP3/q2KkinNWaJacXx
+hX/jB6n/zP5uAatHJvtxSbjQB40iDuIpQ/ceRguw4EZHXPTemlNg0jR+u19g+BGaaymo4U0mO8wU
+bTf5OL+hW/7Kpiy4qZRhAY2qlfUu74b5bu6L8ePUODjqjVQrr/yZ1OZtBUQT71kZZNd5Fpn+vsQ4
+Zl4PRhzcgmXlR7ixb/7y9a6BqVblido6QmjNNmo1Wr58NTkgxFofEz4bUHtk34//fxOzBf3plOYw
+hAjF0mYrvIhkCWkrsKB8zhIrrMgHGK4QHEIhzfyO/6QunPEDkIOmP8zDiOM3B+CfbimjMsUifvmO
+CIzEDWuptFvcaBN5EbOLAyof9WncjqOGa5TJjwOlbUjjs1n0+Lu1BAudCakBAwm6Xs5gqg/ejCOG
+ro0XO0zo0cyABWeEz/Cz+l59R87MwHGQMJXbLGVa5hpfHDaS9vhhnMu6frD82Cmv6iDRLR7AJN5n
+bm9C+q0q5qanFHPbihOcZbboxufWE8njWAT8QCqBnFQGqqwtBQKdgceyi95Cy7efdIVVdFNPbHI3
+7FyxaI8APADDF4rrseKJGV8JUVBIEONzpi/3EQ98InddrAfufjySzTO75aDDvip5zEpr8U+3DT+n
+SofxWY+XnELNLwBiYrbT4+sqCxjBmiWWdb52wZu2HEvvjTeBJtmwzw3eZCwDki/12LQh2a6ut2Nr
+vbyHeCaGvVXO/n6KwARheDaMX25bdt9fLyytKjtE0BEpSVmJlicFc4RMp1UH4g9b2aB75m2zOSMV
+EQDpKz1GEkn9vHnbIFXiQGbHty1elfZCv+lYG/6tsvPX6Esp1ybsJQAMfTo6NphItKWGU7S2SQGx
+pzjkMGSyL/Y/iqaQfMJtHKiyjncFdySsMn864MDtdrBJok0CGOOTZjGHXr8pR3HFa79ruWu/1bTJ
+V8NJ2yQY1qJJJDskgDouauIUd7mp/0or5FHMby3VNy2OQDClUbXLK5a8tgQ9CmhOfn79F62K7H/d
+KEIWqa+Tkk276vQHCQWktrczSt8lh+SND4eUJNdiaQN2tVtfKPetSlHH0ShpMiGoo6IxXVUbm9Gu
+xtzIK9xajv/dTj22VNFYjt4mVY76ThCx+Wc9qb9GROtCcY/kBzoZp9dXRVFX5ySp8EpX5oMbgZXH
+SOrvsOir6wkI0aGpkn5bW+4F4cnL+U9B0SKIlxnI+GvVG5J0p8DpyXGy0selnDrdTWiKblVC669V
+As21L8Q7CD/x/vVHuirpcsmnI68eqV8Pua3jL9u0w1QnYW1mQ3DPQqDeBqJMhyVRho+tMJy0eSrt
+1hyuh6ST4sJUX27s6UznV6BwBBfmeR4RrKc3vpscANM2byC5TjpH1sx8O81Nff36tb6cUIxCtCGT
+iSQpV189XoZOrUDwPsGelzeOwVfcL40bHxLAe8+C5f36cC9vLc1NphHJ38RqmNaqbssC7IAF5qJm
+/vSrBuB30+eiP3j5qB40Mh+QeUR8s3BThEXeG4fXh3/5stJ8ZE2zCI50WVhXV+vbVI1KjdenlRxf
+pYJo0lssVHpmXL0+0rn7yl7aQMyGUgyFx+nTawKcxiqllRsJU1wXWQzNigMrhQUPHTftR8+7kFV/
+dkQLBS14KnPpl5+OaOgzouqehQhLxfgjmjQNi+xig3LaJH9oof5fUFycm6AoSZbUOkoEoDdOBxwR
+yNi1FbMUtz2f9WBuuiZsvG6o9q/fy7MDobYjItLG/uWvuotp746iHLiXs4BtVEnJhlkpcWGUc/eP
+bq2BiBBRGNC11eV4viR2i1FknzguOKRgvoJB2+6UFPVDl2j9hebJuclI1QmgIwoHjw7x6YD4PZwY
+ED1TxBiCx7GaBQyUOPa0XU/2SXlhOVm1ao6LWrBwHaEYezZr6uloddAXPUIqpr4Rl99SHOuUyPBF
+DHPzhrAj9kfs0YaPrz+5M2s4XyvDWrLO+TiuhZlz5OO2resKBwwcMh5xdOioAGxIb9+LArwJLCYb
+F9FU5Bcu98zT9BALY09EfAqvb7WGUxmtE1/wpncYdr6YRm5kbFmM4QrKar+PreRSbt2ZSbqsaCjV
+aDvySJcf9NvGpBsD6dgJ1c/S0lCIjJaz7zXrUsL6mafomURxuvSdfeTXq0kaTFGMTZt3jiqKodgu
+5+AFLJAe+t6QU/SDxAYHf67RZ8Hu9Ud5dmS+Q0CDqQ+hETm9vsjPJkq8SETqfNA/d9OQg/bKo/Tt
+hDDoO1+WUm5GwxmiCwvpmbeE4XR2PLT6uOLVg2zpUHiyZ9wyb9RNV+nDzlWa9hhgf7uwoJ25RERW
+2L+XxQwM6OrrIArdnEcHS1dNiyzUWs06KKcl/CLFtPLY1Gn7OScu8EKj/8wFHjvjqCnRgZuLoff3
+iUM8Sh8EA+8IwEMHbFMMvY+q6yHW1XzhpTgzRwOLFQCN0eL5XSsXslaWbT9zgRFpTSEABQVZ2bmk
+Yno5yqI3AZnuOwHBBe5qpugDhblUoIrTRNK/zcccRFqSXSJ4nxmFzZHB/7B4IiBYrZ69XzWUkwPw
+XR4u98aAzGeIxL0w68+MwtmHzjpfcFOnv376cKgMDopDDiGfE52Ut2026HVYtyD8L0zzcwOxy6WX
+j86VmbB6sa3BtmOq43zjRh1GQ4k5rE7UhczQl4siDmq+Nj76SLZ866vBTWOMinYXxUEnv2HtBBlD
+J4GrU8T77PIkbqYvry8bZ64LoReFOeRXLBpr7CwwDzRIBXtpgFEc1xK8Ys2kVPj6KGcuzPNZFhEJ
+E+2M2fb0MY1o8skiE+hLAjySdZF4b5DSdXuQnckWVuclaeL58TiWuEcjwPq7Nph673k0rDZOodEL
+1Yhg9dA+kbm5y/SsfuxVa/14/RLP3shF1M1HBsXDi3JAqaeBtSgTpwTKFAYcQl9rOf/5fIcjo5Ne
+hkbdR+95eiMpvVK2Vnxf+kKPHnwlaclk+XTBy7O8NadHGwQZDl8SfEQBx4/VCrHQmmJcNjgWEfrv
+k0J1WysbRoA1XXAIRqhCeR4rcoUwMx9ev41nnhy7LaTkDs4NyP+rCxxSPRUCuRbJj3b8eZF7fJ77
+wO72RU05b0Enmc7+9SFfflYQ5/DAOA5gGMHjdnpPk5FUGYKfyk1kVfPB6U3ja6H1U/dGMykZgJ8a
+LOOYUVf98XLPwLbr8wL6vH9rcxEuIPavNTC7IZHafebY0O+aZvzjbSyjYMLDmwVagA/96eXVjfL6
+AJgTZF2/OtCvRBOBFNDjVSiK0rkwQc9NneXTjLSLO4rA/HS0no9a5U9IQYoFt5i5NtGbRarZW4e2
+5h38henOoVF2oIEyfXj9OZ55AznrsDvggMD0WWO7vXQQ9L7x2WqzQ8er9GDnTYa7fX2UcxMUwj1b
+Zl4RTqqr20kzrsHwx6MioMbbdJWmfbUUMtUpt8WV0txL3PezV8VBHk0upx5myukNnUlOqzuM7HDB
+a6zh0sZJu0mTVO8uzMaj+2T91nsUGZbdB/93rZRL1ZRHWUJIcj1Hw7hp0e2QZgZao7hyjKmodn3u
+YW0frNan5lM3P1qFVhdeDRq3C7/lzE1elGOchrjHfNlX34sZMqkLuY7FFBn7lg5iM0z7zKzJtYvL
+Mnz9ia71Y3xomTQcXDETLsWAtX6sHPOWuhz178yI4gRARhllNJEih4TKBGsQAFrwnbDuGqetbnXK
+Wp8MwTEOKBfgSkjauVP9MGCCqqtCaZCQR5vF6tYzB/QtESerC+/Y2nB6/MG27pps83VUdmsfkSqD
+JHb1Dj8dL3O5Swep342qsA6oxKuryI8XJZboDolWV/gsQDHSa5s84wNkC7e/8EKc/zU40AIipPlk
+rOdN5spi0Ol9bqJ5RviFGCU9GmVsZ1tagXzrgDW61seBJhF4prApAI1qA3mpfZLpFzbrZ96WJSX8
+n79ldYpOUGlnyH9Jf1NtvMM5WWxHcL4XHsC56cl8wX9KoYr1ZgWzr6dUjzybUWIpSCZvg+7ZAtN6
+N3R6fAPyUl14Hc5dFWV+Xkm+xwjllz//7exquzPY7gXO4TmW2LXwJ7beVI4X7t3yUq3ef/aBi9mV
+QxaPcvXSKeSV5LNx+kBBIr6QNeiEQpjxN8zNlzYYZy+IkxzmI183TX31mIasaUv65hQ7SJMPEXDK
+XTuYf2hJPr4mwJOwhi8FlZfa29iLGhNrGsKmOCXUWCm7Dzm/JZc81+funM/XlWeExYmKxunzAYJu
+w4HgiAjAWt9jKyDDuh68xyaJrfevL1bnhyLyKli26xhRTocqO9Uhx+EhNUo2b/1IIi3JwY0v0u0x
+e/o3BkNBTF2Pjbux/vbYwE9sd6EP4n1L9n0vMRMhfgkHdCr714c6NyPY+PFZxbDIvmE1+caitt0O
+fRjnEKd8zPXUv3f9wb+wVp17cYEFeEvNiQ/MemNbFYNLt5J5VyGe1UncGTPUQun4MaHstW/6KA9f
+v6xzj2tBbWFW9IPFwnP6uCyZJHHp0iQEF4SaeC71pzZDysBpIbnwsF5eGzUYfALe4j4OeI9Phxpt
+Iyi6Em6Hqrv2kETisfbbG5R37hWs6eHChZ0ZzUe3j08oYHOCzWM1Wm9pOLqBdSKpdG8WregHREzZ
+jtLW/BCJJLqwi305PwASGgGRbQRwwXlYjZdiKLPhtSPthdH7hYgCpMOWOb57/XGdHQXnCK8xRzh3
+vS5p2uCqWTCK18T5N3uI2/ukTC6llJy5d8sGi+YRRw6+3qsnRQ9gjhsfHVc1TMODYRCRvRFVJm7s
+cnQ/EY9Q/Prjy2IK4lTBMHvsnZ0+LMuFdgX1hCPAZHMEKM2faeX9oQ+Y1ZZThs2yxIJOr3VdITG1
+PmqqeeDQWFtwDzsiSihZ29WWIAngnzrP7MLb/PJpsa4jryfDBnACiovTyxIDQthpoNVHknL/xpuz
+6E7vR2u88PV9+Q4DtcOaiyWO1Z1T9+kwfqkZgx9A4Ewgo+3KvHyeG8iPrZtdSpl7cUEuSiuP14mD
+t7kcvE9HilH6Egwumo0hpvRLWRPplsvkUtH/5UafYTjxsp8IkENh0jgdxoNnIXwP8kibj5ZA0OJn
+1m1niH66N6DY4S3sAi3f6cIh8CBDEBc8RJGNKLEyxMVG3LlrXpYQzvysJjT9Tn9MwVkqrQt+zNQW
+Q73B0J28sUFVXyhpnBmG/b3LxGSBxE61OkbpE11M4jpJJvFGPwys8Zn40fjq+J79f6blb0zLo+f2
+nx7PhW309x/efyshEf3PH+3z7yih47/+N0jIdf/hYt89NptsE1oM++a/WZae9X/YO4/syJE2y26l
+T88RBxqwQU8gXZBOrWKCQwYjoAGDFrupBfQqamN9Peuvruy/Tw1qXsOMJCNId4fZJ9677wfYhas3
+HI078+KrZfDfQULOD3ZTVwAE4XjMpZhb/w0kpP3gOmcZYNC4/Rse878Q1sm8h0/b32pgg5vlOnS6
+8mV0wJb//DFJVx4OsUChHQqEvJ8qGTfB0neNhdjY4ONZWhNWinICpiwlGd1Jkee3YsjKUzsLSKui
+7N4T0NN3cndXT7JrejIFnO+pvaqCV5EWAOEIb1GJ/13WKJVVcuh6SRq4oYwPlljtUJqiNGMNF0pC
+QvKQjcwUSa/v3uS+yXfREtsdVEYHg0+rahcVlll9M3Eh9yEzxwsi5rSn+9EyLN9jGe8Ihe4rZ9sL
+HwOCfWsStMIGGgyG31o7nAbbLKNq2cHl76IAUzdtsRx3ZqYMcU6tOc3k9tHn3iA/7h9IO8h8cnDL
+E5knZD6R8pz7xBKJO/jYZTwgTCVovtOrG3AT5rECZXa0tOUF6xbzCtOokzfyCJKbfrJTqN6OuGEu
+/Ex2Qh6qc2ecyrb0MOeNB2Xf8/udicRJblr22JUVtpqhDKXRpxc5g6Iz83l4S7CzHFbwfcdNYdXt
+rQSSvw5Wk+T+xhw1cOxRice1VJ/JKkH6Coj5dSkQGu3LJkPTbMuDjkU1BKueGt5ArkzoNDNRSNZK
+0l4ztSmq03XUoahl2620mz103LbwoRzuR1R7IiRCgBIy0x5R556YW75hFCATo7jHUUHT7SyJr5eA
+I7Rm1JBp2RjTNsv1QbMW8bWN9PO0onFIcdhEvJXEGKhGdUrHJjtTLHa+29O/CJ0kc5105MBE6R1s
+nT1E43hdY7qjEbFuW7lkW/2YlXnztbv6FAIWtVTfyIgAsbe1IccS47qPKT+5a6T5qDW54RHn7K21
+5ffpgBI2ld3j1qtptJfq+qjsiXNYnHHzSWAu/BJm6sUh2Syc2MwR7DS1j8qkr2RfaykOh2wO61HW
+hwJljte5cxvMfLjGh3q1FjdCQ0f8VD6Utlc4WTVbkWLgPTklkzYWP2trFIMZzssicuuSDnpi7x6Y
+T4SMNWk74LqI/ysNMyo7ujicKbqWEYhm7l3WardSQ5WCQBpffG/jRmqqchkft3ze9vyMFWMttfvC
+zpvjYndItoeyDWTfsVFhYfQb5xB/UVqagKaH/JyCrvu2s717Scj9CFQypHDAbvl7XaRFjTNcFfez
+lVyNSrxYGdNG/FRZNqDadtvHaihkxMqeVItpS9Dz9ot9QxgW9H1D65SP3SWvIK3wOdirUd9Xq15d
+GC2UHxg+RIyOS341uhQxgmfndu+GXfUBZJYx2uDscV8hUnuWRADhdd2QPs+LWZ/tvRewMzOXQ2pZ
+rwMWzM86MyejDUtzIsxHJtnTukzdYbB7wa8vGeenUMkcnCRKUDVuE+6Abk7FvNkHXUnGe5i9jABT
+8Wy4fXejI/Otifp1BYFw/dR9WGpVPrJfH32ns0r8d6P+bTn59rqVlauR9z10N6ahPQB3ysJ64oGx
+nUJ/wi1YPzrDjoRzUtswZ2N7rxqT8ea0O8PTSq2NA3N4azlpK1lwcH6v6SAN/eefjBXjM3OC9G7R
+K6iaA8rxNzbMw322YPzDWKE5T6pJ5NVc59DSlVRar03Wxm0Pvz9w9AxFebEWAZvqBfcWOQaxdK5M
+zb02Wo8Cc568VC9sJWxVZbhgAs44MavyYR3rGfdVixajTTfo2mh2EODCEGdmAfb4rpuJ9wvMjnT3
+XCfmlCwowJsp0kz6roZZWNrm6iG7Am2xCtr8dzGaz3oyiM8a4WsS6ZYx3oKNtJ7Y3ucHbVfVewFK
++QlUqnHC52R+Lr3QHmrYWrfrUOm+lm0OtscBCiYAYudPp/Lj0F3K+X6bLD20i7y8RWWgvINUtzp8
+VopzQeywRaaxzkfOIoP84mmbIodtzsOKG8NTiUM6Q4lMYPHbPaYf3CjkIo14hTMYyAUMO2kc1VlO
+gYlhzmN6NHuD7nyp9ujGHYvwwSPyauRL5nwKJq7KQNEkKiAbeR4bQQmj31qCYbbHX/YypTcat6W3
+doZ7aZDNLmQzCvVCCBNYZeTWD44A0sswJRkiQkSIgkjYwJAgWz8qQhvCNVex9vZkvh1HvVTuR80t
+Zr/XDfmbpUQLeD/bPhK4EredwS3tyyV1b8vGam7HrVmiEcRq4YvaxVhRJeP4Mld7nnlgDt3jkg3V
+W8Ly0LdGrSSTQ3GseIMo+LjhoMaQCbJg0rIydBW7B9teybMqK+I+gER7qmiKQQloDHbnF6BXzT72
+cPY/MwdINGRe9bLYDq8qnHx1C0gEboJRGczPqTWmmNBnGYiEeJG1yJRbayPxTMUGnAWdaJrveqrW
+V5OHOs4yLjW/YLj1Qe58Qju3307Srg8ruTaoBP066QCl6vWA9WQ2T52q34nSEoFc1o8hS4ZTCcbw
+1QHcTMrR4GpvUNSYWXMLv6urVL8anJThrpXTC6dedylJMDhKNwUU3dGoZtkmfc2pXzS7uHQ4fYJh
+FdZZWmp5S1jBGA25caga5SmHzR2MNsPgqMqa0zUVOAFWejthqA1WfRojMzWBjUy8nkFhJ8NZzew6
+JtSyix2rqYK6XNXbYbGABHV1G3S5ax95hlX2dDpwZ7W3CUEih65k1v0GjELze7Z7IdEU2w2dTXua
+VZfFJRLjeB2U4pCTdRQltONPeWGLkGtK+Jtt7Pcodrc7ScbIW71IeRHz0jyRgXq1QlZDrJUZQJ9G
+2wLyIspoKhL7BER3vmPZll8sl2RRzZ4inrN+8gsydwrNeM4NjRANEW4uFoq+yW7bsTm5dRbm5R5Z
+SRfMi3toEMpl6uzN/U9p/IY8bd9JOk1Su/RmhUQCnzneHXsidwZf64OmlukbApt4czYitzX994RG
+/YPAneWCX5ZyR9vnDAsScQRAKW5MQo+0W8whyRr0TLnwQFW/hdOJ31feua+ZY7eDhRz5hrRXL6No
+c/zZupV5pTPe6HLguZy6/rkapBksbkrOQ7tn9lVfm2Sf8yz3Y221+A/gmPDUb5KtQ6K+gVFPrvay
+3ev0aSFKqmAbUKyZQqmqLx5rEi3U8QF/qeiW/c7AWZwM1RJqda5GHAEVCOpVv0+dPGqvhChySBmf
+FVv5PqBhCpUU7K7EkHGiQF1+LpM6R3076eDDbStMc+CtI7B5zJDjfmnS2fZlgjheg7yGdWgwgozE
+9EDZNkkZlw/iti/3NBrVun1g3071SixSXBGEezKVlOyaTBePoMC3uOfjemQ8RFnIGDnHlnWy+8og
+5rS0QQxPdmxvBvlXqCn4kkqDCG4SaLlqepBfrd9WmyJxm4V27lrtnUnTM0FXb0q67YEU1zpTljrY
+AOVsTAvxYPb2kBhL53ecKt7aY2pPMpAFUGi2R9gKqYd4NIPp3CjhMrdlVCvydV+aJKhS3tGmIYtm
+KYAaV/n8G10C2N0OG31uLrdK6pzljMMEOuTiU1OlHIbDnWlQnxFXQqbFbl94Vi7g949GvmC4yMgG
+GQE2enhl2PBY+VchsGGay6BHheSrZdV5mivVD5IMf8u8frGluIP90B66tNp8SIx4P5B8BFKFOpA0
+5cSfzQGxg/5ul8YpSTd6laKdPtQhaX9P2rQWnhgU7TAopu1XCJN9PN9FyMZriOre/DlK0Z6xGNWR
+wTI7MjBT4zMsqscmTVd/G9Q+tIrxGZR2fiHArIu61owdBUcnKXMT/28hgdB0bvI9sbx51N51zIse
+gqmCQ7l52TGx9QhzyWPSgw0IvFdBfw+668KH3BI8NhM8SUauCIZ53TQd/mhluY8Vapaos8YmBG3S
+A/WB+LyNmTjmgm4Lx4sWj4a+eWNWmac9q9SoGJs5XFD9+POoaHzcCWbWnXJ8slGgHpWKZWtWLLHs
+CXgts+nerZ3XtsAfZQFKClOgAC4BBan2ZxuObFO4N51qfp722FUbLZBpNZ+lU0C1v8q6pX1fDHIO
+zb1fD+lIctWUH23zZmEfw9/lLpFa/yG3x1OnS7mvjCTTcT40WFiexF5kR4A06hH7T0q+6aoNXPMU
+dngzXf3436OUf4YzE61+1Ur/58OUuM3/9V+Gv49T/vEt/xiomNYPBGlX7q5gCCqYj//fgYpl/CCW
+w4ZRpGI0ug5b/mOgouk/DIFnCBkRW76rFv1vAxXxA6mIgbz66gLQOAL+K+EgNP3XYeLfJiommlA0
+cwhCTGZvAHSv//9vu0vNxJeIFxrXu9MuYJhXso6PCzCzE8ijJbmgbFsFNy0ONUi0ZCSHUJJJfLRn
+6sLB0bJvFYu8jPH6slNfhbItAa5NpTiVHL+j72IVJN9Qsff6Ia/y0XhIV3eGnaBSY54SbhdttTvf
+oteOJ1l01aEiyiPUJ7J31QpEspsQUGcJOfgQ4r+LCSJMVU3yZRvc7WTuxfB7H031FzyE3CcAuwnd
+1ZCA2PE17ZqFXEBf7TGmEx/P5Pe1TwzJ52C1OOxbyk0wWwQTKqfRUJav0TEzy1vcslfDmSi0NlLW
+q+OOTF2JO9TmVfGrXFdC20YZRKCjcN7taXTFr8ROGDmbi1z60O5xY0dcJEAkAL+2w6NiZEt/W9QL
+jrjFpnTzSYIQbAa7cei/d6RbDSZTY3urVQt06pYTVQTlqbDP3SQJwDAER2aJPPPB3DSyO5yKpxrH
+f+uSCXtNjVVzC+fjTghDGZXD9TbDDIhJ0FSYBAQsPbEG/hU3Czqi+Cw3E1NegfvU8jBz8wuSQquc
+U6JtuRrN6cpEqTvLvi/Lji9hNaY3T7NlLPG45cq1JGofnMWJtMo62jK33ziwVcJUkYLMSqneZhb+
+0m7VneGzK8aXfnA7f9qu1mTVAKlBOJXitwvJMU21QktYyOpU6Cox6slfdr3xIdRRd+VV8Sfbs2Nt
+jg9UVC6gBVPx3J6sP3W8yI6f6pt4blrEZZUvoui/nboYy/OSrPRzRk1En3/FRsfCBqNyoydVtwVG
+0WJoAxdUah7Be9Vj1lJz8DqVy/OsZvy2ckiHU1eKXwqvbBqJTdWTUBONeKqmMf1aiZvO/dHoiuS4
+KNOvtjT8dmuifrYOzW5/Z822hW5TfAE5IgrKZg+WMRyarOzcj85NReXtu4QZH2kYnocKo/mYZ7RA
+9p9+KB4rRRZniCV/SIVnvGgxrNGruOuo2rsNX9ymBhRUz3urnQc1+VxdN6wUK66qGVJX1wZsM6tQ
+TVw8Zrm4Jmt3fHqG7Aax74NiliX25SZt4t3ANhU1zirO3airt+5GAEKA2PCyTvPZsI1XEurvKmW5
+5RPvFJ7UF3eOqOXz09jBzCEhVhT3drW/i8L4rAdZMmmty+JRSe231V6bMjZTo3t2GtfADD9WzbmC
+k8aHxrAjfTM+6ow0L5xKcj7pXKPfNDJzecQokmdRrRNy7wkmNRdt1REK9/wg/Q025ul+c4kKknWn
+HCkibJImF8J8j2ut5eGqD6A9H6dxJ65l0vbsq3UMC1n/loJMq69aMEIZjE70+zFtMap6mJak49cu
+KFePuAc1Oy0K6v/xRslMWkui3LbispkL014S2ExxxtFZ8sZZWk/+mawoVZK11juylBf6qiXRdOnD
+xCFmhpiPkgDd1IhyLmNxGp0ezlIHHpOY7q1uSr9Ul2t2bNOsz6nqlvJzWRN6BQBrzxudzxpOG9UN
+b1xn20yGdbzLFQ+/lzbkVg6O5E/N0sJprAqyRzy4DpaD3GXgbGlz6PZeai21EbWuS95Lm65aenTE
+aOI5LRjMsgeGsdDFVkJmYGCaUj2Q/Ymj12UeNh3bouDsKxWj7e4MlJZMMAzYT3c9/awIVZrB2i9a
+4nnfllTq+IAnQ+qxoWTjGA+9uB1K4TvSrSNVoRAmwey2kpvqU7fZcQ7EPLS7afqYs+pOU+u3JKvu
+5dLeVGlPrke53GX6OEbNTmO5sIb3mfX9spPdfoB6ocTwszpa+I4EZVX77ZrbHO9Ka0VWm+zRapfF
+T7UzbG/LW5hGDXFKVa/fy2R5XjOyIvNK2FTmY34sx3a/b1k1xApsk3BTbTeQ7XrJs36K3aLW/akF
+7tSbDqaspLfu5p3nNAPFdSdQntG1COdilbXrz1PF5AKWVVzlWRESj0E/SvDRjZbD7k0T8aBhfvIR
+t8xBzg9xZPX63kjAeoNt5Ke8dpdQ767+dZEtN0y+19g1aj2erO2zWLrXroFgQcrcZUBY4HWb2p1g
+J6lPpSoDgomzoNLlS9NW6klk7X4wbNc4Uz5z5iZpHtkWHYGtjlx3DrcI7Csr0gb3jza5wGmKjc02
+nRbkBePnnkLy4ZAT3B6KFtgyq18ECFCCEfjVE7tH2Kj3TVxlk/ogpVJEOL23cM+LYM+UXwzTnQoy
+FNNsgtIvkCR+DgwYgcQk7rlHZkuKlmFdCGBcznmtYsmWCRlSuV34jk0aPHqugggf0HRPzBuL+2k2
+9V/Ig4rX1Jnb3tNIPoL1trnmI9endcChv17+eh6YcthLOPO5/jBLyAkeOuI+0hDT7f7uzsahb4v6
+nTWEPYD1Q6jFo7yP0bSMTMsgF+gfRdaN5+qvPNklbRAgkZC0PWl22rwaa1m/93Ov+gmqqA/VmvPC
+c9fVpfdXjAduDkZ0WTZ2v/kMVcvJaPLxOLUwgaCGLd/z2G1O6TXX+FuTE5ePrJY+kFCm3QMtaabA
+rgmJEtfc3OsIawDRtP+Geqbeu7vNykLvlLhfN+XWpuJygy2V8qlkwleGZoZK4tSkGh2gWppjSHNo
+WOBDrL7uPa4tGr9ysJVXo1+/7U0vwSytyfSidH2rY4LPqlQJ5yy3oeqAUgq3kXG2pxdpq/8qWQgR
+G1tk+VPCweszJRp9lXv92BkFxECm7Orjqk7aF5PjCpAJ7HeAN2rvW8tUv4z4yJ1gMLbxqc5E/TnO
+tjQCufdpd+gmwtLyvtwmRtSu9gFYBetTmlYsiYToQiep+8vYqjqUrVUy5UW696Vy1vWcORvAk22c
+tzGazUJ9mPOyPVMNqXWwOat1RzLaogcLeLweicigfpXOnFdHYW1JQnqYnvVUHooA59DO1OTeUBL5
+CBIlTb8X9y+qAolZBEqjdpqBmFnaqScgi5nyzLHMcgOcIONdfyN2ERxtZWDhqp06fwA58ssasvfd
+YjI5m9OpmqsDGZy8Zjvj16Nx5b7hPE0+CRSRAd7Is63u90ZGOaW6bIyc5WtQweN4HYUwz9VWBBQ4
+BD6pl8kiqfK6m+NoTyuKtrikzIyUGUxDZNJ68MyUfOqjFvIa+bjKuEQE4VHKtP21oIOO0C+huRht
+dWprSsayH5nKc8v7A+ShoWNG724AvpdhBQxBNLRnUiR4xLuSZUVZ74ZaZ3U82kw7FRvSOgnl82ES
+07z7Ys2b1Vd0s10814J3QJkqxQ0cmK547QG/dw/NLkZAF26Rb5Hdip5ZjEvYtGEtfA+IvaUqYGUx
+WW1iRKpYKkdzeyktOXjEyNXtd5ENkEDcImw6YgbrdnLeprR2wOezQB3vCcu7NgnYY4jA0tuawOS9
+7t7meYHQ0tWD8l0mKy/G1tS7QzORqW3UZUq9Bh22gu9tml+twnaOnL3mXSd2+76C+ej+Mhl7ZOfV
+lNObCVcpHuZ2/GRRZndRyb+WeODDkzu89PaHjhT5MupN7/gEvl0mklUSHmbZKidMdmUWAptKUn8n
+6g+AO1Ll6RZKFAPpTCDOvktlngpMUbVyAzxQ+zbavPXJpfu9FC4RapLBvzdoA1QSY+6br4Xf8pst
+gfmzFHXyKDrhBilEx1t8Qf25aZKJKZSYry9h9wsKyXIRqwpRZajbY07cC6nqqxOROk98dy2+JtI+
+4lVO7JgGlacTokBgrBJTEwRLArTluDE0S3PlTvSVeeAyX07gRdgaltpN106Uv6BaYmlsGAkw3EMD
+y1d+aoGjh6TZ+bkhsOIXdJDxkVbXCjbJvMi48pu4uuyz1VU6svzO9pVacAWRFX0uirq+wYDAvAeB
+0fjkmlMdKJ1sNN80eBoHDu7njeotKLsFskLRV1NYaQOslVwORK3Sq+DOM5LbXShEzilqfdjKVj3v
+oqEo3ZzhIMytghTpwCHrZ2XnNy46rOZ7fVeubu0juUz9Uo4FnRp5wyfTGPJwEwzCE2bzkHuq6rGV
+9fpk8Os8q0iuUm+qSUyeSbO72cp6IOmjWA+71tXPe6FC4csQWB94L9WDRcAP0ALFm1a2U4DOylvd
+3WRQEdTp6dUgokHbjxo/4aWB7MZkqTYwv9ta+UAkjDwCbtXgJglO7EVkjN1G5cZpWudQoAA/yC5f
+w6axiFBBtsNIuOZjWWt6/VyJtn0VKfw/dRYO8Xuyb7+motwfDSsvY9jeVJMUHcGgTsYddJ7phPhf
+ubizMt4maVOFfSL59AN9IzFRil+5o7uBU+zGsbTm7mMaNsqTtFnC4RrlOy1Oz147KziZyFRk96a1
+sSMJhluYono1AV6mZ5Xs5QF3lr9ppl2GeOM0xJY5cgosthG3vGBsmfM9nnOxxPTYRZiCO4YAVZ0K
+MYhzBS2OxO+hO+EGV46lll75lcymhZOQzLlgi1DqbjsWOrtFO1P7F8wGY6i2wL2cMglrxpH+VREc
+pxQs4cj2P1zZ0BjBXujOgVTf6Yuhx8aqJjHY6RXrGg69Ofj2nthBY0manjFjjeZqGey6bHrMTGLX
+typZI9AqrGBJXmq/2FCpoTnsa6xsBXghNsMHgqjswwgx8MnlqH1FEuYeGaTOvzT2C/HQiTTMharz
+S4xK5EpdfS6s9GWszfxmYe5yq2pWcdBn5aMgmuJlGLG20AoovO/Fc6/bgbJkO2/F4IST7o4wXDlH
+nYZjh1v2CS2tnoE7tsFppuqQ3i9LYh0GQ12OPFOpTyBQTuW+2OdVd98SIK+Up9BDMwajMd+VHDXw
+2p6pXd3gehW15mgccP5Xb2058TebFlMjtaMntRYhbx3RdceltVNm7dOFb3/NcHMBfWvFC5iOuL6a
+hbXVel/Z+YaVuzWPJuaIx0HdXxUBrYkfLDnY6I7Dq4SFvZnN7bV+MvOEPqE4R8pCiWpjlkdSbt8t
+bW5Og1hHwIni19JP5yrVEJBYUg+tCQMnnpIdXu5UBOngfFEo/7Z6SZmzlQ+6KbOYqyZuCrV76Gqr
+AstpbgjT5X7dtCt3NB/GPXyR5V7qTXWLyVXQ/5tuqGInZ2g1v9BPP/KkEcxsJwwStq9SHfvYdgBg
+Vgu3sWon7KLm4sYFB4bYxXpAHf5bX6V9s7mLcejU6mPYRLSz7iQwcUnjqh/WQ2te3VNkgwWl2d/b
+AKh8R0siq0A6kWPXv7OZXLEsYJizqO4N1rIlGA02soNrKzez3kMivK4yVFQDd6PkdNCa6aFd2+1u
+MCqkTc5A1LRoDrXCJQIM7cPtmp+AsrJAd7TirZG6gcsoc14Wni5G/9t7Jjml140gw81Op3M9ubez
+Wkdow3UesoUvVzLlqljKGLQ1T9h4jMhlghjki2PfD2CvMub91wXU/S61SDETVvoaWJPULM95aYze
+mNY/pSKVV4KJ73LDAY03ygRs8PZLG4izXcqaGVU6Q7bY6uGot+57YW2MM/JZ84q9rD1dcRCewraf
+sEn5MM/ZZTcWSZR7eh6WmiD2VqPEKNJ7tMUE33bP1WYYMWjok6uOjNuKgpxkB3ssJcOlFGR3W+SZ
+olQICp3Xm3x7T8tAXVZrEzHh77xFa4Wnqvmbbba6pwNnRIhl+4laFSx0NsufusH2JPkG0VKnD6VO
+yiNYLXhLrk5E+zTFEpIy2x75ChE5DccmuZnRCODe631dIhtQ9jv2gbuPS/cjNYWCwbp7h0ohOFiH
+B3s1NV9qyfq6Ciaqacf4MhOzGSXbUn4YqvhOdXkpO2EerFrQ6hXOqa/zx0k2n/nOW76pZxOeKEo6
+haqzKUg7tYvC76e1+kg12gs0OvedmkUs3LvAZftK3zFGzIWIGy2WNjZE+8xU/I4SboNbZjPxWDL2
+eJZgCdL8Vjql9OSMsG7azD4CnFb6IBFTHyblbafh457z7NT07kklIObYjyxIip6iYYHlFSK8gw6R
+F92dQiix5xSWxmW+57W/axBkr7m1kT0VfE3avySpyT0mbta2H8IpW6eAZdYjiyJI5HvyrKrsvhOk
+PlQNR0VRelrkfecF1t85pX9WScoqbBufO1wwtNAaxD1EguTwZJ2PhqT3x+sap0vBmqpDsC3JW+a2
+L8XAfqzP2zW0l+zFzBvAiwBt+GhvDx05AkfYZyd7avWYareAGzyzc92PDOzOG+q8dG2f0BVFaQak
+mAEzpFKu94bpc7WHmMSOhdseRVdGqShvKodyjpxgj3R41csJv4XUOgekaMeWik54MW02svBGM7n/
+0jr8ev14BMtZeWMJ5pQhbtNa96hc3HhJS8YJlnu3AC1jyhNruCkD3dqjdHZ78H3Jn4Tjzk8q95jk
+nUKNBO+2o0NhK5mAmJskgHElzc976/xZaPD9PSvq41VV1TUIPiBEHqSpBPqo8YltjzqGLGIJg0wW
+QVP2RzlbZ2zjvWfr9Z+97U/jqt6j0Lxoff2zHAzrNhVJFjFx5ZgYmGZpVFXIoZlcpU48O8aF2dUQ
+ak39c2y2w1T/3qoFItN66Ob9gyDVnzWxxIa1nveVZCoxu0fUneQdu1TgQ/UCP+9GnSZfbPvtkkwf
+GfRgZOzPPRoZd2ZJmqKaIK4CV2Hq5hfp2rfFqGeXFJSq48xQvJPiZirGJ6Kfme1mqdY8p06vH5qh
+TkJF316zLv+ycScGmQ5tYVGr/glNvGDQ2w3tsfirk9usuQABi1DFjWhrwVyWyL6/N8caSj8HXfoA
+bR5yn4JGICOr1slXGreeqd+i2vqHS2gUi4YtXb8W/rj13Cvz5LEfrqjCIWncGIoz397ZV8nf7GrV
+oRczUy8XdFWo0g1n92PVpa7fcFtnZ5OjOnvLSbUhBjg/wCWGiFtm5StHpqs/zzCw6sAG5AZFDTvG
+E+aopQyGodbeuoxGwkWEQHxMFeeFuQckYUPYzxOJuEcrXuqRvOJALEi/O87ia8C1iyimaAcQmc08
+oSxxkc+Yn2k5ppAddhfFHJqPMGWQvPqyxuzEW9eYv7CDKJMnbJ7KJ1Vk43qrsEM4Lovdg6nM81jZ
+R9c51kXtGP+9Df3/omo11TSxR/3n29BwkP/6v0F0t//j6bMZ/5/A2n987z/Worr746oGh8uoY3LA
+8PIfa1FT+8FaEcLSX+tS12H9+u8yc835wcoT7gqmRIFa6JoBOLTTmP2v/0nm2Q9yLNiv2gSMI/OE
+rvNfkJn/Gwbwb0tRS8WhDnnFNcF8QC3559DGqjcgmorlOuXm5PWSZLM/c2UahxhK2NJHuaglnqDc
+RBKyF+l+U2pGxxVOtYEluWgbdoGUQ0iIR2GkPv8WH10Tqeqz0NXsrmXRyF2wzeYdQzzsZpYqLRHK
+jknU0Sqy8TzuYkVCstRgUXdaZHwt+Be32CSunUlm0cjPMUOl6eGEN5YwR6jFlcK0PNwcxXwYNB4G
+nzDp9KsxwLzASh5yLld63SbU1X14Gx0AAGdn75aXge4+ZW5kUxkmK0TEaBry7VNxcOuGKP5bFHGV
+QBNhogqqWAdq+w71ljPqjn/F1g7bdDU87ktf6C6KZeSXtxPaljTuSl3Vn/R9R8PraSWkx+d2HlKK
+t7F3aG73UiAlS8T4cyV38TfTqaKmBCQWBVIvUCat9nW6gP7KTxZbXKjq1gfuUmYfepmZTxwpUKny
+TTEQz29GVYcj6tQz3HzraaedZKyttcDipsJouG4UCz0wC2jnPamUYvQS5hExVID2SUXV9G7Pmbrz
+91Tiw9bz6msn7XWj2FSzOrS2fqNUQXrum+6O3Or6DkKGy/IF0EBBfQPvbDLvzWFIHscx2X/Dd7I/
+hV3qn9eY8d1jlZVRW7fDxhR8nZnojVRfFPe2M/9UNTclNT0ni5jydHDH51xa6XHptLa4S5FlfWPD
+SRwGmwYp4fmIDPn/sHcey7FjWZb9lbKe4xm0aLMaNACHC2r9yAmMEhdaXOiv7+UvIisZrMhHy3lm
+TDIYRsIBXL/inL3XRuliT1bgoRwqQiS1bn+OcJtlVmsn041mIcdHoTe4ohB55blfgoy+SmmLQfQi
+aVKgle2V+35dCIDImjGf/AkV5rnT1Qv7ok6bZipmTnWiF6QdIkyPOcFXbT9dZ8XkZDv0wNoT5oqJ
+k17T8xCSjjAnxgaDA/1ZU69B0+u0qkWcsmtrqCRdGVnW8Rrc2vV8qWY4LVwK+oDvUAodwcaEAkSS
+c7KKHrEHaOblPT8x2irZxjSlm4CEDCUOE04ibbAAKSVShY0hOja7Zj2e20ElQRl5fYNcn3o4nPPO
+pbXsptajbVYc8SkCwLhtBT7qKqhHzi772h5XzzfaI4J8XqeJMk89jR/TQPfHL9dOe7AyLAUhAa/W
+RyM9zdlkiB+FL4axeG6wEMbHBhfjiwyv/pKeY8bGdhD6mYJs1/HZ9K6dvxbjSuTrtNJ94km657HX
+ViTVF+jwOH675luykJsA+7rSbpzWyG9cSXen7xbx0kvKbadm7Tn3bSt0m6K1RTqYUvfyZWib7hnB
+Y8vGY3TtByoizYBVO64Ya0tu6dSne80ILbtKX1rJ8cNvCc+Qx/aYw6rL1wD54xpnd1rb9IfVrZnF
+Pq0Bl39Mmv9VDeVlnVa9/O//84XeYjG3ESBmUNsEGGHjPfyrviTTZ7SBHZfsRi1QNWCziLbN5R0C
+dpitV7+/2BcrIDM/MArTQuXiASFlC/TXixlFk2OCMNFJCopxFFjeM0frw7Itxm+8jV9Buv/rUl+M
+3vQAHfo3GFnSpXTlxnMWbwP5uSQ2VsGRXdjCevNazDu9Q9O4GwRhFIlDKVdIx73P8Phvfn/vXxx0
+f3wgPIk4sFhReep/vXdBhopajhbNiqUd9o5KVIHJmTX8/VX+5nWy0JJbTv8HuMJR0fRZLsQez5gN
+ifo7lZ0WzosgNMire+VSE9K88Ny+3Zdy6b+5t19/9vOCfBxFqg0eECOpgQnty831rtF4rKvSH0Mz
+gKvhp5uH1X+9Oxf+pQyfJ5/KlP9vpnb+GrqfL2r89V5dJ5NuVXBR1/o5oFgl5afRi8Cq8lDRv7O+
+fx26X+/w+Ho/6bBMxUh6FEdEHlVqx4kZWwfg8cOYU6n9/Sv8Rf793cM8fpRPlyoluS/58WGivfKH
+gMJ3gIMicEM7fN4+yvBu8pNvhs1XT+v/epZfvpm5aRc4VX69QDr6/IPK1K8C1f8u0E07vpXf3d2X
+LyZ8yWLR0l93Bw4wmA7Sv0/95YJayV3nW3/s/F/n/5u8138zvX17uS/GVeJICr04Xm4JXtZI3SKE
+2mCLOE/3AGm2376740D/3d19+f55Mw4q7fgcp+CFb4P/WvmHj+Dm/vdD5Pih//VV7K8sV9PKskI5
+XmWN2F0ESHWDKvj2Tf3+Xmz1C6bFSDvSPY/fr7N285IHt+/W9vn+xvhmuH93L8dP8Wm0zyiu8qbi
+KuZVvG1bv7oH1XqIv5uhji7z3z2yL5OF1+WFSbsSnfjODKaAho3/6pw5h+94U/p3F/oyUcw2HhEi
+A6Wvb2lgMxUqG+285XukhXVgbWC2+CedfyD3wl8efj8sfiFmfneTX2aORa/yQh4HOxSBCD9UeEvJ
+zX+P/cZX/TrS/W9RSn+z3nya+DHF//XtJf2c2pwLiK5h6keuyLdr3LHoBkQTBc2m2iShG7jBd4vp
+V2jSl/mKtPa/XtcxtcFuj0+5CZ/uqzANKv/tcPn8zfM8fvrfPc8vk8eUlK7itse7u9EP8r4+bw/G
+S3wJpKEDavW83FaH9MK4tG6/ue5xlvjddb/MIpmL96yXXHcMibC5qM/i0Il63wrusCCEH/TlGUWq
+//Hd9PXNdb+CsQqsjqOac90+wnMdTBsKxWd6+O2o+bvrwIIAN3eEv//yuH/+zsvcLQkc4jrtZtlo
+3CP9YK5oBt4JCoXAupKXVTBuu6156u2/ebZ/N6t9urb1BUeRttmCR+54j+G0se+LSERTROJjRG9i
+9yeR4j9Eg09EA+3XLvNf153+X/m81tWz/IsO/9fv/FlvsuwflISQ17BzVY8YZF7ZP7kGzpGGCFAG
+KI/16z/9WXDSf+i6B0kQLpALR8w+AuH/UW/yflAfUk2ykzmbAUT4t0T4lv5lGgD0y+VJ3LUgJUCb
+/JrUbk6p1+KHJyfOLsd7MchcWTdVs5r6Y25YerkbZuilbLcRT85IbdusiVGS0q2on1S0dowz4nUw
+CwLWjbDDJW2Yd+aEU2Sx+/RZaxPr0HrNaJyJyohh9BR921zYYpLaCSScluiACW3Wfu7IZECmNSIp
+KuZG8W2T6IhsHO3rXq9FUJvNlG9rdHhh0U3zMXzAotkeaFSZxVPlqopy7QqSOM1jmO4mqbGaokev
+HedkQEj9pNQkRtWmEBiRNSgCxHhmYZ5XWvPm0CyMcjJs0ttUFdVEVI+eprcWJXsNWzplYLgGJQeT
+U8VM5tvRXo+q1DHnrLulBjLfrgRT9hOsLb1ZtkrTa+Y5gS8Vyc8IaV9GkCt0DIa234+dBRVVsQfE
+UnVMeYc4GO6Y1E5v7X4mqyEeDDlRSzdQfD78IXkVVasgtRtcBJI9YbY7RH6UuDAYmNZKlywm1a1+
+cmrpivLWFNPQD9e9oZbnkpxy35Tzz8rR6EZmvUl5BNgPfocey5SG7uQxJbDQT3JHfzEgoL2PU2Ff
+K1ZPtwg54UrvSht2nSUbFJxjqwVYZpvzBB7RKb3t4kKMWndKbipZl0nabBAtmNiaE0J3bEMESTa6
+Dz25UIJyo0EE3egOd2Qr5ujsWHpCw53ayDBK4cccNHaxgfFVX2V60+lDigXRyM+6sUkQsrhWtCKL
+DQcvKSw/azR5cJz+Y6gpQeBw6tqo50NHQuvrO0IUFd9yZsQQiZmedBKRwiKbQQmK3s2OQwAuog8C
+QZDBBn468elhjadtEnO8k1lH2oLXhNRIIU7YrR4NKvLMMCXc81orneqNmuD0Isg6vOGp6Q9KilQn
+1GKrP0w4F69TzZAv48pFJytBHzQOEuWCS6lrp0NqZhyY2oiAVw7Srxut+jnoo1Hcz26CX2xX2KlT
+7mWJF+yFbC7MvyQKjpVa5gFqW2VCea1YJPm9YhtpsvWNXv+I16ROPTSDuBoGjOhpPtv6PRVFh/pY
+pZQJrvhBihdT71DTDckxqjTRTuKGOmCB8/Gj1RC6o953TpzEmXeE8ZY3cm11f55K7dXjWz8w2grL
+GK+xYBr9qYUxudwus+to+7nO4/ZMKGYX79BsEVNL7WzMJTiQVLGvul7GI/5pHX0pZaoYAWOHiS07
+qVFyio06Uoqhfzp184NEiXXI8kxVHlvZpkid7XW0HnEG2AilMpHop1ZtG3M45EpqF34nJ13uBxx2
+4tURna4PwaL2OjpJndDHgLnJNhBlLoYzBqqr5GMDZ2K0quaxnuYl3ntuJ6qzScR02XWqyHMwZ82M
+/BZkwrBBei1u6fxjeK3SVLQIONVC3mQtokTEt+vQPoAbBd2/GHgtuqNvHDWtttSRl9JZ7ghlSGBA
+6qLWDyo1O4Ig6b2iZa34pgZUsen8Jyne6h4VkpkFLprzHBE4QM5LvZfZBVG/2FSDCrWD8TxWrkLB
+HYSJmM4Nb45TbKhEZAbtQEU76dYukBoE1My0GxS5QN6s+RRxK1YbGphgtSfiMFWS2Rq0Y1Bbybh1
+c6qsnUtfF9OJ3Loyz8zzI+ZewyQ49+fZpJIPaOSuVSiBNiiLlYULcrZT7Jqo/aVQKY/S812pM2Fx
+aObmTHrq09hTek7aYbzQOxuJAVIcdwwnN06jKml64uKmCdXUVCC2iUwkR3kwwYPvTjMhUhSj9DL6
++TKRM6Yltao9cocHei/34IFEH+DyJeximsBJnCZiRAoqNRqv91RSjzOqWxMrl9RkqJ7Wmof5QOWV
+FKHbJrgXjFFR5iePLjBW92ONOS2wCxMKNsXZ+CyHmVyLrlfd6nIx0ia7TPBdREY6S+OirIoqiWyV
+mDoc3XxoJu4lGZdz2hbd48r8mhzaQhr2Q+KaTYvXy1lQw40unUJMReLZqHOlO1vGQU1PVbRMDN9c
+s2ykhRKb9kREs1TcWyprjD181vbqDEivyC46KU3Fhqw7VugMD2bRGNNlRh1s2IukQ6NkLEpVnk9L
+vOpPmr4IOsbk3lLpzIdyRHmWUpW70Ns6ZnQCwccpbLIOBRJ2AF0iz31fprF4XMfCCYtVec7jLj/x
+klXuHDFXoZCVc2lnIBBecycZxINYraTf0zClA4VYkFePnidN+uSa0EZ443NtUDf20zRtbxQkjeKn
+nIa82PYj6AmsytKCqwAjV9GCgljZ5LCmnXcUfAPh8LMpFpiAEUx7G4S5cU0GzpJy0qMSnQWZClc4
+TA2xvpQYtKFKoCm8myyWBDwfRwkWf2Adpz2ZzHr7SJ6dTtvEqhvsR+oyL2cxRt3HTiM/ks88eN07
+254bl6K2HdqtU187tT1vTcwui5bcwrvspv2wsMx179YoDD0YV966gnId7aSK2zjWlmFPsJ7HeEQR
+pubTIcvaF7BHqhLaOSzJGzttEY0hTy1TfWeX7FfuakxqhW+40G8V1MadNoat2yx0MXQoNRuTuDMC
+OPsywzGftU0NEYb1yLlhUpfxz86dcdOpyMWcSFC2q4W/1pPGErDMqtJvPJKEu3tUARXLr7tiw4Gz
+kawaJTYVtCHJnB4+E7zgmUPaWw3BghFRaWqGMaSlzE/Vdsim8zw2Y6AQayn6qJmmfNik7ex228HO
+hp/I0JC70QYttfPKrYxrmqpDdm6uQ+x0TtSpOgF3lYk/zUAhAlpBLghsPBPyxknh2Ety0i2dU96M
+LQihsBqSpL87Sq+ce5Ew0e6aRcoBsTTB7I26pMk+WXrVQkRZ1Lt8NRFuOOaI0dtwir7TfW3K0jqy
+yqUbI+HxEkO9cAE15GX/RrQAyke9rR4me55vjXw0z7LWqHbWgEfUMzTMgZpavaTk1m6RWxvGbm4y
+e3xrlx4kJ95FezgbkSWzU6xchkYtkoWClFe200fvGG29Bb5jVSnOoA7b0LElVVtxJd2QrLXO3mID
+GJYoVRBlk7rutagUmlYbVWr0Lbok+i9rG3sIB4rBOTP1pFM4NFpWNx+AA42G7k/G6DLClGkcrdBz
+VnnCcpteow83FJg0IhlHNnWeZSUXGEwsOgG+bpJT3avk/hpGkiphrK9x5zwWf6CUsObDVULzpeTl
+HxEs/zkPfjoPGqpxJDr/6wPhzTvLdvP++Tz45+/8eSA07B8GTRJgmP9wWP/PgdBw8WWbtI+OI++o
+UuCs9g8FgvcDAjniAwN8NSByiJb/PBFq2g8LAioUIU5zOLSBhv4bCoRjDe9TfcYE0kVSoKZBuONv
+mb9qgJ9qlvCXPbc9AqOcvCR6vcsf1Vx7/PRMLv/4a58bc99d40v11ewBBrD8Uf1PWUmSha2gpxXf
+ITNZMf/mXo5YR27DAdr3Fb58LFcis8+oVOYFSrlMeDUnFLtS3qraLZ9o7Koa8qCkezSd1IZor07w
+ccFvMTNpidCqIBZkqe96wsHrMyxaQjlIe1h/6m6HP8HqivwDRTPYjZQEt2UzA0G/nqrRwJ+Zt4VT
+PbImuUxhXqvjqk7auj2dclLDg4plbmKzbimthgvQbQy60wCbArqg+QMcWybrDOEZhCFrkN5uEpxD
+8KooOZo3pW6HII4VGtVYL3HUdMIyip1mlD3qNaBa7F+ZnMCRaKv52rDGlv4A1JPIsLy3bmHKNhg6
+Om2mcMqUqZ+MPLuYWI1We1MTes6QdFEKd5wWUXutQAZ7yKOkCzva0AVLYioP4J8pAyysuO2OXUu1
+Hipb6Ufk9NhIA5Fj+QKQhN8OvOEKS8bzpnXZY1+bfrKpS2ckea5yo1ZJttetmXBhGBjeWY1tjvOJ
+JqwRZ4Vb7scm74mzNyQadXazI6mprl1vqlGO2K5wHD/b0t7YhrccpY8zxWAvTREF18/48vpbbXHx
+LzqtOt9IqRBET463qDddZWPldheAFRtbt3QCqka+DSAFFHFucXHI8GNd3JlLP6k+rAxnu5aLhX91
+WTAXDm0ynRquhI+nCOh/0aQO+X3qln0dCGBk92xb0KsR2gytzC1N4wHiVwoQzUnzG71y4/sYPYIW
+GguigBDHfX2KrpO6R9sb68HoY+WhKT1IbNks4fAJU/Vekc/EyCdQrGXbairWKxPBT+13k4n0ISHI
+XkCDgXwTGhpcykA6hncjkVI/J4NG8J42a5zAbWyNH6vtYQji7Mm5hSN4pfhZKcAazolUIk0OZer3
+fdmLU5RKaE2hy6Mg6Xr3arJcyTlIS+3zBXIaTmwMZubRzoiYe0TflgXzwLKPVw0S3a8J4z9ry6e1
+haw9ioP/emmJ3t/eu+fivyg2/C+B3B+/++cSYzo/qA2C93CO0PQj+vR/lhiTJYZIC5XiNMoI1hGq
+/v9YYjTrh6XyY/JLaOiTKvKp6KhRxmTB+ido1fy3lphfyovPiwwSUaoD1DXR9R35vl+aD+bSrcfv
+TxtQ9qP8lWv43l7nUc/ECVudqX1rqhKPMxWXLXa+09jFAlLrEcWVkzLRB1irXuaT4hQWxWPnQKYx
+1b2auCdlO0dVXV+vWX/aVekGctnDmrfEkaCFV1yKQHnzLt0M2TVMQKW8mhqvBdNUBTjr6azbEca/
+LozlFDWkACImfeSAsF1icZ+u7XYa3cu8WE/7ZMxJH13DevAuh8a6EhypO6wY41SCa4RD5nXKqT13
+20RPMWTbmW+n6ruVxzeJYuxIwQGYPKjbXvceUVptl0w76EvzbgzmDZvE897KNkiFttJJd2a+7ABI
+nAF522u6RHIbH5y2QMdkO9vKaB6FWaEts+IDT+YAaSNa3qfmrLdvdSTWmkKrargveoeaLSuCsXbb
+qs34irdBTvnU9UBpZvzMM8+75Fj3M/LIWoa7ShUnMar3cIAaZoI7UMBrDmNgiidD5XbMQ53loQnu
+AdxiRMz9Bll9QOp7RBYlTICPZblbs+GYVBfg+94nrRl2UmfBWQ6OyYzUQwxyVZ/s4rBen+GfkaVp
++MNY780WT0r2U1YwMwCJrRQr0Wzh9zkcQTBqct2oU9BND0k6R0ye247X6eDGxgeQOBwUqQkucTCP
+OH/gmhqYTtWw5F4HB3w1tCt1NLaN3u2oCBBO/thNh26eNmCuhuUtsfRABeUg7kV/s+QfkOyj2uki
+x3gSkoB3FObFtc5k23u7VZHb3I4PkA5BvGUbcsAdstC9gBLDje6UG1fNHmMNCVle7CD9n86UysbE
+DM0sngPHEhHu9IvSTnfUhff0kh5y0VwmqwWjdNql0xRo2NtTjzfYs2aQuVH01bmMBY64fqsZ1nYG
+rxiOzS9X/Z5v1B6iV5QKe+8W3VYu3bltjtvBK6Imj7epvnAsAZjGKsKLUy/0QZylM5SaPGeQqu4J
+lr4ND+Cu0Xtwu5RmVpttSILUecHSj/Z7syzGW+pmkbASnTm/g04yn5bmums9dcuZC4UbUnyOmQa7
+qPiiwCQO0hLTVhyUI243loafLYRebCO7WINFWNTwcopSbHXiYzgHiRByxT0V7p/JNDwYvauHfaFA
+u3Ct606Urp80HjY8rAoq3J8s5tuXPiyt7uwJHNprg/XaCsnwZlcAA+5Zb6ds0xPhE+AwBXjm1pjC
+CusGF/BrbYFDKdIbJh0nUJXpHu8u9nDTySANg6IZrICU3Nh58KaxXTeTlbtYddxW75+U1HTHbblO
+O5ea55ZKyKs39nKDIb+J3M4r9tiVxqBM7dcmpjuiQyU6L1v3rVrz2xlWaVC2R4IkxtrQHLJ9rbRp
+RBO/wi+UlS96N6ZRPPXjddast3SgObjn7cm8dHTeO0SHk7hn5om6RIcOZuwSOw8t76dhXdX3eVeQ
+vuz4vVtBTkR4oqfUrBa++taRydHDFcp7JlGMWdwgCZmX+jRGsrTHsPK0j3zss32RG2zVVjxZsQyp
+1wc8hl0CIjSelLNJtzapgknb6NWgBjFnrt5Np2gn0JckelfzxJpgV2gwreN01kPEWY+OXp/l9nSW
+9haOCWW7UKusq/XDo6EQKNmo4+nB+mvRCK7Wt4r0IjTJe6TY+2GsLm2AelTrqhuQHDt7MvZu2d0q
+brzFy/dQ9F5EL3v2Ew3DqbrTsDn1dn4uneGMU3kXlMqsMyHUOzGYuDSa3bqsrk+c1mu29KcE6h5d
+hi9Fql0luGFBol3Nmbc3afz71fpoQZDZeIXBJjMRF4CkC8r2BmznnG23NXZCg5+geqSXWasRgovB
+ilGeWUed7n92QF+hZ4aBqfd3W6Db+hV5f1r9pd/652/9Y/Nj/UCBqaOaAK15/H//bLha6g+0E7pN
+ApxDFgWH239ufqwfBOBx+Ebkp4OuAF3w6Xxt/DhqDo//c2xE7cSn/Bvna936KoIzSHvRXP6MZR/T
+4ggX49j66YidwHh2ClJEgtpaqkNtuEIN83maIkDYfaQnybqff3EkytHNMRzPSnJnc/a/mDBkXcey
+MzcOB8dtk2cybI5UJZGKd6K91gt2fi6rYe8lvo2z/USllUQ1mKPZpvSGKlLTafypCiu+wPTfhrBX
+ONdao/JKj3d6tkzctI11uTijuiefsD5p6UvdzWXyk97N/GQhWb+FLRxfm/Tazqtm0B5N9mOP+dJ0
+l4WrhGUSvw2eUp3qbdndgaF0I0BF9dsY6yMmfXjPERGV7YUnHRn2eBlPslHVfZXJw5/ozmBc6x2M
+3Q5HJ4ti1UXhsEOZBju/BIZyo1PQx/ZmrnUUD7TQBALk85iONOvCgluHkuCVqJ4Q3h7dp+NTi0i6
+9fW6dkIQmuvGHcjHSjMIqhYOyU5VCSOEqnVHB3z0ha1iIXTK8tDShbOL5aJOuwQmf7FsJ5USoSeW
+PJpnwJQAZTwgmk5GZXUmumdT547BHx7HfRYPuIjnka0Sqd2s3TanMllrbVBTIQUxkqolwEWIZRvH
+Bgb6mrdg41FiV9jzqQF7e2XGlrcOir9YgK5jxQWPAEqlp9l+QpxAeTECPvYrI/d2iUaFz2p5PDRn
+QIE1rltFmNvzSAVRzLGVdaPjp+XwjJ2luCbunp5NZdr46edshyCANWvedOo0nObZq9a9iEr3dRc1
+4XHfCQfhEZDnw6qBByjje3NNt3lcbSlegrB9p53+4aX5YaTp5uTau5qUd0Nmo8g30n1hG4Atq33S
+TaFtKGdlfsy5ns+XOrmGBHrixvFJW4rdss7ynM0MXr9a7mb4bKTdpMTBRS2gitAyOzZvN0Oa6ggB
+F+VqKNZAeAQoFKq/yLS6xbNCJxM93wZIzRmG22ojNQoMbrVz4nyTMpv3QPU4xvsDrotZHx8dI91O
+LRyJEf+1eaVYm7y3r03xEC9P2hxTG4jHGENbHxjzkaKf9sn5ivyecbilsUhlvI6mYjH91OjycB6v
+pG2DJPfmyBqs7WB0Ib3bCpjeQzHMOytvNr3bntu2fe90cICa49+waIgWfRKo+onufqxs6AW4J+Es
+e9Bk23aota1qAM9ovewO0zduhDi5pVUPN34B/2y2zUcBUZ/W5qUJbq+wvLs+de+oE/HJ41plkW52
+Wq+emc076Cd2ay0sMlskfps7Hm1NKkn04igUz4CSnBF6D97ZySg+mkpVn+i9FWd2lnuh6WBFceSD
+5qUbKOlBUSqYtGFPeR6xBHYH+Vf/WEjr3QqTxDvrqleTN761DwIsnQqlNvEuSvNszY1305LXiZrc
+zbTnAq+SEzgL5YL2jfCB8z5rBUeIISEucJqza5ELDV59cRGr+lnsghxWwV1jt3YvYy19nTP8C9Ke
+Lg185LNlPdJ7frBGDcZAoZyuWXGTtoyyhvVbr+SV2hePmjAZn/lZTSco1qs9gTqbgQhAeobAqAC9
+viSTxLLf3w8xoRiyz224yMoL68mzMosT4Ag7fcILIdo7N2VLRdnmKa40uDRsdHprqRmR7tXgzltP
+U6IpHS7GAbpln7SXNSEL2D+w5dMgk/WrWzM8wbz4q1RP7P5ScJqs6ickAhGqhNOMT5UrP42ZKMSO
+ng/dnGeCduBMZ9sj2d4wBTpcdWhCqRGz0ZwLT9utgxlSnnziFLo89xAE9XLy9fyuiU8g/WAKHz4Q
+5XzkGfaSSvd8jCz4IeLlY267KyTSVzYNcn/t+pO4eJPMCzIRT/QbXmbDC5RKuWQ9YsyKEwWKnBWz
+GSXH0W09erhKQpe4b8vAaoyrNpavLSmkkWdXABqnS68iz8So71x7DuJRvqx1sak9LQ+NtN1jWoBG
+uUwR0pcRlcYYrNb4ATfiIlvVe7px55i9L2NH7OeVGhiJoqEDwYyj4gqmcxL5PpMwXNZhmYLZA8Gk
+VAXeNJsclYwKQ1qICY5BdoeF57Kckx0ZV0kAGfCN7ePtrMo3pzaTkzLLCzopMkTo0mwMIBO9vSX0
+4CSder+zCOcAE61HS2pPUSx7oAfrHmp81hlH7NRZkjVvxNtM/Dg7nVuTh1yqQdl4uu+lVQtfkmAJ
+derP06W+P5JUehO0o8qbaDRVYeyl7oVeMhLU+loO0DvVVn+YS9k/qMioPuZmWWBs4ssvPLkDilD6
+S92h+G4SL4ByCkIgn8+ZZF61tLjIY025GrVsIwWtYEeaJ45eeIGtjzxj64KlHF0J39XGxBovi8d2
+fYPbtTmS9MfhxuTkT67Eady1N25qbEC+vGZCraJq0IadM4F4T16zpu0YiKnvWWtAJzLsYigwRtsd
+2nI2LyZAY7tJPonuvgU5EPOu/ZJ+bIfYwp4ofHfzzHPjROu1l9JM9h1GYB3YthBxkNuPwqn2qi0i
+y1iRRth+MV6O0I4ztkuTnoAf0IIxz8OM8VsoPyVYZCEuLGuPsRChBZVO2PiNLTl84mRkstUK3p+n
+s3NQabZ/uOplWkHYt4ut8OLAGMW5Wr1WJhkWDmyE1gimOTkdbLIzhPlQey1TcRXWM/EI+fRkr0Uw
+s7PwtWRE5VSfx0sTYa3ZaXrvZ55BEdzcSwc/pAENDzxBpSShaaVRf4zYMAY2AuXPvDD2g4SXPxln
+DZAq1R2fZOadaBPZG1oMjBAcOSWvSoshDyWnlvWS1cal2sHpmrTdXDtbDG9XgqFiGB8wrJhYkkNj
+oFXTbsdhDl3CukoneSqJtMnUBwmhu5Ar4pLioiMk1kdlv6lkGzQ1zDxzOki6B35WZdBkCJ2h0xxm
+EnY7WJFbsCIHxG37mUSfROGJippj5IATjaL+Ds90WAwmTWKx1mfsLSm6iGQIhgZEdrncsiKFNFx9
+UcA39yoH5H6TvpGqslyYjRPR346WVloHHalIRNLoq50WZ9TL2cGSbeMng70ndyUYHbCgC4xOVb83
+VW1ju9RBZMOM6ILjknBeNDtKeUWDZrk+WSzTuUtr1SQsp+o+OoXNTmANIAvjheSCVjL+nRWaUdel
+t61mF5tJo96toOULRxfBVb5IuwhMylYj1kZBR53gv7BlP+VPDhEu6Zbj7baytBcJLW3U0/3kYNAD
+OzCSR2KnynOaxhv6+SDUx/rE8uwgM7NzomHKrUqjvDBBa3UGrtRuDmWzbNrFOKvrY8qJCuZnjWLD
+27O125h6Gnp2h2juLC2U0GBXUsxUsYCqsmU2A0OLH2O2tUgbbmRRBxp8Jp8ODHiH9/jILmeXhOmd
+IApIkHqfyiB3BH7JwoRRS1EvMfHwXjfDObvZYLSKE3swSYvZafa4Mxy0/EuZ+Jg/j/Qli51tssHt
+xU5C3ymdi/Tnvo+JSulqMKmuvnGLI+nWjVIeSL6g/cEPs3Jqvy37n6gjG/XKXe7HJd4ZVPvatSWi
+prhXpLvpBwKFlAati2Y8ZLqBqfdSGzx4OSrcQndXU+UcQdfoGrk3Nueh6VHM9nYltkkyMSfuhw6V
+ay7avVZaSpi4TihS3e/5YcqW3pxQ1ozjbYsox2KAeAN+WrKskmI+yGwO0QJF2mozCbc3kJX6DRth
+C05sij5SPdOK29L7mcERqpRzq7APiNLYiXgbz96QyusXYvTZ59Nfi2cIlEaDXm9KQ6jWkdYpm5gW
+pG5qkUvAEmUNqHu80K1NdtN24F+Al1JrOCHfJFwLvTw0uStDScRY6TxKvvDAouApj91NxbwPUcgf
+FT0k6uiyBFF5q7X1ArEj9m3nwvLEGd7lY+ZRZPcLkNVpL5pyJy3kLHZi8aGLpHrvmtbZES61IebS
+L9tsv2AO5Jzt50t8Lfv7ssxA7Bv3fapSm6eeqpkMgT67jY10o068fdp7eWqELSvNlloPg3CYfIr9
+8jT3NH8xgLEWomX4uyyrfXLHxHLVqtQIofUUAzKH2cSFFes4wplPQGIjYGtkWCwwaNzYg/Rtac0m
+XZZbim4MhfUkzsvtaNCSHWoAMzmgiIOm1v6qNkEOxH9L7DIckKqM1r4LkZ5A+ak8ECCut/v/7J3X
+ctxolq2fCBPw5vLApDfMTIruBkGKErz3ePrzIVUTI6m7pZj7aVNFSmTC/H7tZdr6ua7YzeTyLu5T
+fCdFu0HuXIQnpc5LaKBo+PoA1yejOGkB+xo9ZQYcmbbk5yX+pVOFE+ppxrDlDjnc+qi0KeYyyDRP
+E2L4OnB2+nAYHblgD49toQPzxWmZT7p4b2q8X9GL58FNK+x6MutUBcnBCL/1mKNo6kcHWXSM0rUY
+54in561VajB4671oVQimCy+2plsVsX2YYTiPsGXfK/GRqLcNptkQTmtnrvLTkAj9rbDkzOm0AYxL
+WwGXcqxkhpuxa6sLqgcUo+08mLtv5JYxvRSd11P8HSaj2hXEC4ABJmffjBwsK18Tw9ySd+eKIxtO
+PDaQ8mKqJ5Tp3hiVvWGwW8VkEC9fodiZYQ202zXwapmoJ60xwTFHdAc57FdHT8wYap02+qrH8cII
+9noQw+kspLH6SNEmq71aZw7JEbnuDn3sV8t2LXuaIMnyZmOOkFH7zR/MQ4CLtAVKhy2bmW5iX6UH
+hoLYHqaxMraYEuA4k0GEyjdEzXbBecy6srmYVjNKFHtKA0/EQdypSeYqBhZpUUtforHZRLMTf2jz
+jkOt6VXmxGYyEb7q1AvGsOaxW5SXFMhHeTrCRnYJTV2lLN0+ZGw6klfWkxfjbERQz8LADX0OAnFs
+QWXXTNnMqSBrxFjUGT/eD/pz1kb1By5chStXcNwVv01f5rnPjjUE+eodilE4uE0OQWilj9ihzHpR
+wkFEPe1VODUJbtXnUeBBj2xY0y35CQCk3+VxPZ2RrTNDjmXxmDE5bvHLLs5dmAFuFOz+FDsZhO/j
+xITW5fit+sAz32bk9HgWp77o6EDjLgR9H18jRb+ObRw8a7xDD0330h2xIMAYtrSThoVgClrLa6JM
+PohC8ZFATsYH2biWZR5udFwQdxpOrF+mhBixvg87Lxa5f+r7vhPDkN3NcI3dWeAEG6G4/yhMCtEw
+2PvlXI+v6rAgS0ZmvIlxim6eHSYuypQE3yIZJow9BHz/gw1qRn11W05XVMuw/yTllW/JuNmbo86J
+QJNHNhGGBZWhERrrkHQBoI9ZTOGliC2I+U0BMd9UBPOUsADiWuubJ0ya5cOcsDw0phUttu7mkXQR
+XvJUbSG2PuJgWuzCstMJT5PUL4TeLVUU6zPJIf5yGiTaSx1icWPCtXDmefgK1FVfxQB/VDVYXLTF
+PH7HzBTfNpwS3YFy/9oUpuo2zCLOBUm03FNbt9um0fnBuuLzwIlA+2OSiZqJTy0sXLGHQXgKkil8
+vjNaKWyxZV8u2ZREngzY2RxDRHMro4PSWagTFjxa0mJLQ+LQ/ZpBkY2P5px150XodkxoXXYHUXjB
+fC28lGrfbKq2SJwx7bdmbXyKcsnnDguDNyEvUJVn8zgo2UK7tZYvS1QPRcllB3Pwz41lcStpP6wK
+HT9rStYlFUKot41BnoDo9+b6x5PKZkSxsfaBNdRx3VTWZ6OF8T4oQ+U1SH35NcC0GQ4MDm/3d1v0
+KS+kjhla5Ep5cO1MrxlB5EnfexgGbGSDUtth74xfYEQdKqm47UJvOEgTYquwQcFjOu3mZ7IMiE8p
+BeghGQ+m0IuqKfvaSCmpVxUvWIwEKDGK6vJWEWPL1qdoMSBwcU/XhWwuPrYW/YWz5Wuci9d7Z7rf
+wCxiYzIHb0WMxXtBSMo1wHNjHVjCE4RjEIPl5gph8cTFxN67vyA15FNhOPIw7LAozTI5GBoncsDD
+BAYOqZQSRTWfimGbNIndjMvSjpepJxqjdWj8tvRMi9cAY5ewRvMIG3ykKLJkzOGOt1ah2+/w5npT
+sIf07rcJSv6Jk8pzMWK9TSoGXmFmQrU3HqzDUAbP95tr/XhwyNrRrgw5zkEq9085rX5RJ9+0k56L
+YOmyY/7NVwEJz24wLG+m5Yi1vL8BUyVE9A85jgBV4n8mRC/aKq6aHB/wBDF7WEJBEOGKr3AzCTcS
+TFyhqISnWgq/CjjEYX0iMCeqBqykpfObFWh5zICnPwmfiuU/NQbjyBDrYcUWjfMbyKANm/epID8O
+ZjgXIw3vwSQCyjcDQv3YA7pQmLCfakigvl+eaOFd0tKf7k8ZYLjPXeb+Rrb6d7XlQ2H/UnZPdYb4
+iCWvA/mpdQaTZ8Unl1tR03abtwxqM+DRFZ0Qt9Cad4m8POD945hy7ndVj5116PL0JIRTRUGeAXV/
+IUWDSSsWB7Tj8oTFLPpnc+TbwcBVUm369DpEROjl7SjsBXUwj6bWYiM/1vmOWDPmC2qDl3vvHKp5
+/IAvWL8UkoKFfyBah6Dn+gOUtGOAKOxHU2OZY9klqiEvF6dJIOCLuec+ooKaGedHiWKxdWxCfHwQ
+C9GLrU64cWQCiYgbiPe1VZmPkglRoIlqk3l4mdKqmr8JEp7MpHD5kgqCcemiN72WQdOJYV1FXaA8
+IunRNlgPl4+tSI3ZiiQJc1Vc2mKU0wei4MQXS4UcLnabBWZvKzaiMN9FW40EfFNbC43JnAlOO1Rn
+U75aGlkRabEiBevaJxWnemGyfcxubWzu0tUEz56YRO17XOV4IpfYfs/KNz1TiEEar0PbfLMoeHgk
+QXlmg0mJhGn8qitT6pF9t/VnfnkSj8jbalxo8n3blcJTOFu9PY7Trk3iaoNTLsEZRr0LijR96LoW
+MjRfWPXwDSHEa5eH+VqvmneEHoeOXW/MSUjtyje9Cx5M+j5sxIQz9GfqXyyAtngQVpDonjtF/UaF
+AY5Y884M9oChtg6lV/uaS/E+wXw2xw9clofzqLac3fBK58ypbGqx71wSSF7HkuQxqIUF03F1rgqL
+rWJ+6YL2UpXRV8MfZE8oRaRhOV6h8OK25Og5xqSBzUrPY1fcapW4Tg4vsyWuYNpdcqyplEH5Eur6
+VuvMZ1UvDrWqWJeRPDRm37zuHWEEXwp8NB8c1j6rodwkqGbtjAUL1KZUYWVOT3UYMxoDsk21qub1
+yk+1ZVDP0o5sid7VzPIw4ZafrFz51kXqZrD8Xd/I12hQV4KSer5uYeJDOFk9nlIRhn6yiAV1CbNg
+aC6Bk8fVlwn1BQeUU0hCgpZiGdmq1AvULZuzNyEVvZDSgY8Sc19o0lUb2sy1cmmEKmI44agiPoIN
+0pfTyxgUKi6LLA1mxwa5TiqcT6kq6ExWkRbBgKScIaKYcQKRFsGCkIN63npmVEluVyXiRtR9xSGH
+76luypehwv6+m/vYKwUoGkaGW95Qk7vSMUvhSmdyRC5i4AoEdCU4ttP2SuBqyTjdmu5N8k1XK3ka
+cvAMtyMhzh0FM91Z6ZhspZAsdqiQRIaJ6fglZcP91nd+vCWap3PhhwnbOo1RIqaIETKzldlYmiD7
+vdmfRSGlcl/3szfFiQTJgZPDOM3J2ioUpPa5cKmFhnM2HlSkHugeJUlM8IRKfayG/JOKT7qTfGVy
+9bAlf5aZYqVqerSX5w6jxFxonnupImQvMGsiMPzaJa9JXS6grAe9Sb7j+Ipomqw1zlG1gAsk5kwn
+Q+mTl6iNjF1MGQk7V6hWus7xDmUiHNY+t3YBHZt4QFI4t40mhStDRBcUmDppiDX71mjAxX1Qxi50
+OrGTvVrPJUTnkwZi5afKrsGpYRUMGY2hBdLbSPA8O7UE+mWdVpULS6b6yrRaO2Yvptu0CZWYPhyL
+bwUu4pONZi7Ya0FJ7Stso2wV1DqTqE8D2QJO37j/6lCyuojy4TQZT7ElQFAKTW2XKj3ZjGoPDZpo
+nkWYiIcTxvCwMGWJZLkSt2n8i4YQf0NZetORONg5iw+eZ2MNYOIX50brlL1azRb8LAtL2LbJ3U4t
+g8PYQawhiyB7L82Q0KGQTr4XIRxzLJdfoBuPnzIF+S2SkMQx26w07aVobWvaiL516DDkskmTU1wx
+ZycqtnjIrSFjATbAkSH+Q+m3epGHGPxjVwCltGCPFrECH3yMMl8IwSXuaQmOCgoBr90kla2DarBx
+G0bdRO3AOiLMpXUDFYWkW8xW+WlKQ74Ookh5vW95EdawGc6h6C04c5m8Nq3OBreIBcvWjEGEdjqN
+c+D+2LZKcrQ3Z9M8qUnDWgmpqfXmFo+4ER4sbtQ0AQEMLJkA25R7KIC2WCen/jHueGx7jLvxM4Bh
+9072pHxKAhraLXwMJsFuB8VN9HaWHDNq65d7Xk5gpmzSfmy0K7b6idHifCkmHdK+YEnKQRiSXusq
+Ck4FVqXv5BNjANzn+puiVc15koX2C7zr+BBVvn+c9FS7ihk+3nC8ScWoeuo7Ke6nGwuZMLVFOZbW
+s9wvaHUUUfaTBxPat5Kvk4S1Ez8+e85640sjROWxI5DmoZ5hWSPYgnqHyf956gz22CX9Tsz0eiVi
+RdoFlnGVhWY+5h21dCDu1nJDXckBXKbMAvSKtDWFazmzjY48bDuPwgSAROu+y0ofuWEtxRs/mof9
+yN6aM3c2rxotmFx1BK+agzhfZ4XuP8yzzNk2F5uDEqHys4020oD3pEb6BMJWDioivQcKwA2Yvmxx
+vMhAlDG/ZogpiKlOAmXx8xxMprgqKPThbm2mz9NQRIvx2oTpr6k0rxHWNN+aMcjWml7g4ctztU9J
+p2JUhy18fM1Szd/4Okn0ONFpz5omULEtoy76TA2xxfrTMKXzYv/n5dCpvnGAbT8bneD0YcxqDOHE
+rnmTjJZkAa5Zn8hel/fdUCb1UnrGcMfSOiSOqZZsNGmgeFSrvKA+AIEc/TQ4hEFhIvrDmjd31NLq
+DprRGz5roTys6oRRYReJZrwQbFMe0rGqes+K1PiDxHNQhKmPKzhTvXHKzF5+JxBMhzElR8kDedSy
+G8dBgKyhIpcBCz+SL1wT1Zs3tAN9VxSWbr/s7ktdTPZShTzO7uoW11wkXwwWUxFZpXFIvOZFrh9T
+RrDqiETHRfwzRjiZ1GQxdwQfPyRCWa6UePS/UKoDmWebj6yOLJ6gTGPBAQt6IslaDj4sTtqcpNpO
+kg/FclRxQtZV82TGuIu7+ZQKMyumQslSJQiN7EtlZGuiBoawT0c0fngOVwPeMtWUAJ8pRmRzQE/q
+nYXYDUVwCO5cIpvPHEEniwXHSsoNDarVxp2lOMkOlRWFn9FoDe9IBOLHsZNi6L+DEeguOzENcgDt
+Se9iMYEP6NfCl1jBrJukaZ8TV1cWQIrlGOwEYUY8C5xC1RypoHYgiNeElTzMD0mVZRAKO8wpIePM
++o61Gki597X6eVTJ3IWIavDgiZQGn0IrGa9EC86OL0e4KELJz0m3oJzJUalJt5jK5iRfSY9wTC9T
+WVT4xWN44Bhm+YlOZMfu7qb6fnFJ7li7Gmz6RYramNEM0tQDsEfYLVwzUQpSOx+mD7XqHqZZFgm2
+EkALDX7Wx72WSV1PdI4wfeLRQVU3UvrgMuFiviOXp8c0PzC8vjW1Awcf/aIn4byeIjimuApWlzoN
+1T2yPf3N0ANhyatFgGwtG0sEvARcJMrHGOECMbK/2GW86MimxOqnBBpr79GooWYdOvUrvIGaHcbU
+5rcay/Ec8T4I10aPsnHcWqPShe7c6KQj5WFsjeuhJMKtZBfgu2af5M9l1/Wtp2MwvmfODNahAp9n
+kcebg6v1hcjjoRI03CQA1SebvTlXWK0WXhUN0+xQNSpueDMaX7UGvMz3Z+mtl7p+M5GbWxDXjKQb
+0ZD8pGjwyCnnJ4XiGqNsfZQFMgdNpmJSq8kXv4mat6KMYa5MH51mmFcmuYXHmBvtZuqt6asGrwui
+OuIbTosc1zjy5wJbBdz34CaB2dOF49I2jLrfpkwRj3OElcO6xDX9XNJ3wa+RmvuYWmNTGWvGGYCX
+48G4GJcXOF+Qt85cz84jVHbpRNSr0pNglBHiwDwTDME7SZDhehwQkg4ZwJeaq8eFDQFlXqClM1YM
+qAMckzSjgNRSSyBYAJlE/yF3yWYpe2Na7B4Cpa8OpEv1Lw2hhwnTmAMNk3jBOEVZndC4gWRCEDVh
+41hNtupGbXIrvQof5TnW33St3UUFmz/Y3WOyERSFPY2WRA+jpfpfkU71bLYbBcoRFGiwHPY1IvnI
+idmeUcrkN+KeWaRzba1olCfrKjxKUsc6K1Htm+yxDoJbpffPbXCWiZMELhO2EJ0yqo+UGy8oLftT
+kw/ZFQjU3Bh6Pe3EtCtOTKAKVu4J0QpFBD0aY8HtEATJ9wFBZwJ1TkVUbBHLJcPeHTgUPviIdeAG
+V801EwJP6HGVr0EDL/kQcZqx/GxjVFXK++78EzYgRAzSHzQ3Kqv0MGpDcIRfgfCoWWLQ5GxVBXNw
+AJSHBiPhQFqlueYpo5iQZGUqj+0A5aaUY8XprPkViwNy+Gjil4mQonVlanuhSR4SE2DOKhUsWlD0
+eAC+AoS1ZiL2LQTvrttiI/lkccwTphlj0n4Ps4T5vgzeIU1GdHUy2JEFE4gVI7MPBem1koSrUknl
+pcWV9RrIgb9Ss5QTNclCwYDyNSqF9qmUsGxQcWgA/CZ8KG1T41VbAolGWTW+B7MyncI0iUkID1tO
+NIUJ3pZaa/ZuJ3Zr8UU2xm4Du9x6AFhr37WObp6KbfOuCV2186ecAjFUsHWAVwVotCodTblAxTWX
+PjWNmX8EPUExOdR2ANjRziQa3a9bPXbrctYOgpEMm4ooGjTqVhCsszGMXWUWGRd6IUpHgYxUB7u0
+bB+bI3njfgQfrxxM7PJR/TXsqLryMVaTdZCYjLhBVjFbpwK1Q+FfP+CCpzgEizWPbVJNO/ZbOqd7
+sKUfCM/MYrVnhwUaZEqIqxMRKck9s6cWuY6lB8F2AhT3VGgJHna4LO8sReq5TovIA6vEyyStqHuE
+wuQOAz7k+kzmTIk256zDHzzI7FB3ZauEZyrpidcW4YT9RtpsKYTNG9UoHP+eSjUJqvRFj6V8P5Mj
+sG3xRj4Cp1D1Doo2OhkpWBXWLSPLEpWMnNO5IxE4do7rXFsFSW6d6ky39n1iRYeqFNjBiGO2JT/N
+XOmJkYGqTFOwDX0I3Pkgb7o8awlPaLq1QqLNKDLDDXV6aKhw4D4t4aV+o6ZS4u6lwL23oz5qXFVI
+KUgqdYseRdHm4bFsi+4QmXpMD9LJA9NgIykW81vAoReuJyVUe5Lw9E2JS6W2hTf3YQAJsEN2tw9p
+mgE4+X2Z7kSwTRhfs3Uw7sFg/j0kLIhY7LKuK7ehbuGR1QijJwwUdbWy8j9MI7JOczbG73Wdtdte
+UUGLq04qKdJlAaw9/L+BIEMxvWK0EnyqHDt3E54zu2Qay/4A+OefFRC0PVmZoPlTLj13S47ZHafO
+l2yzwQC6a2LQwLoCAjX94uGOK8ZLKlqegfvCzKQkoZDQ+U3h0PfcKAWO+Z2MOZC5dBoDgJbCknUA
+2Iv294JHXtXgfFAUt8YSv1ZwtgGRizh3NUW52IzEDTd7j9pVCzF8VoWMou8QNekVzwJ+IYR4muBw
+z36vowACIsVu5w7qKgu8j1MVIK9ei19l3FsIKINo0E7vIpnlF11j4knTkFOyjtkQdsvy1pyWGtqQ
+EADeqMJjwzFxZQ31k2jcogZWnUb4HPE4SzGvJKmKaNncwlFkCEn1GEfMvCtluCTxSDKHhWuIzo7K
+BpKsdnC+jHMQiqYrdWxlJKivEws0PMvGIBBRMHbTEoEHUxRSZZmxo/ELd06EEWtxihgB3B1RdkUF
+ZobYmmiWcnM+CeIoz+hVUFdEqswWlmcsoGyzUi1hSYOhPSjWbsa3AqyBfIFJM8evAQFfZG7hQdFn
+CDhwkaKbssNuRJmlKWHifr+nqybZXN3YQ1kHinPpVRU5IN+JwsTJmUex7YPP+p4CaMZydWs0ENp+
+nLB/Ekx6C+YluQsEG+1Vc+AcHHUwrLCprTuEoaHq/9Bk/5/E8ieJpSSKKA3/s8Ty/6XvQfGbm9v9
+V/4RFyjIBDSUkSaqYNWkdotw/R83t0W8rxgGMgGquaQILG6R/62sJHNA0g2sTHH6MhDp6zg6NmxD
+lvgASSRUnXA0C2cdCdWm9b/yc5OWO/hdvm+h+OQTReMu9PxVW1CjLyTwj61sLA3q2i8EY7i1UtHN
+doaY6gVdgZZ6bc8pkKPfDCpUq2S42srUyT5uFjOzXT/hYOHMas3p2DZyE4jNLOT22wRX8KazK09v
+YW9GbyFEYWElRJ1+G3N1vAZmgKa4LWIYZWQUJHvBClXcOtOCCaKKIxUaQlMgYBYr0z+EvR4Uj5DO
+1GvH9A06J/ZQ0sWqb6JnKyMfeZWHojisJOqimiOrwlIkKYM58liAOk5o8j1FxnrieEyFJNDLOnm0
+oja7GrEvjvYAM2Pf9pYGBich62HKpI6Px7who3Dq6pwI3ZKDs4T44zuU3hEmvWRlB13RG3agoTy8
+lmrUJBuxnAgdjpKCRUiuqbSiq5fMYz+PwzeBSLDAmbhFwg3quKhXnCQtELJIgx/SKlAwyFRsCXAF
+0cKYvtPBBXK2V88jZdJ0oewOMvnNhJYIZQZXxhBD6igJG4xj3/XyRHTDkL6209RKcKqmjlNxIIks
+m10OJTFke4lLnmklpx4Psbeom5XeTYZRFQAUivDQCZHFRj/pRx2W8DzftFbNIi/X2hGvkrbv8aKU
+y+o7nOVkIKJNhZc5ZJx3Vxq05ebLLKmEcw14Hx3rWoUV1IsIL5CK6cbkmux4Pxq/SF8LOShvgSaq
+7xmhXNDv4rI+V5ilEx6BO1lkh7DTlA1WNpBfFhsFd+QTkLGwTbOOHeR9VnZLE78Tpal/h94PJ9as
+6viC0r/TVlUvNIRP5WaSHLG7IUaYSFY+tUubpHOhw/Yc1YDoie4TAYkzIyY4ocg1I3bKxWeAtE3A
+sFobhhfzbkRAADOmBJkZULqkHAGbiYQdjAuyu4mBcTc0GIfF3ACoF6ODcfE8SI3F/qC5WyFE4mKL
+wB4nuswGXgmgXYZp54uDghH3nMbyu7GCzLEKMbCxGC4wp2iP7d2GAV0JlgxGn6hflbtRg3Y3bRAZ
+DTUk8cXMQbwbO1h3k4fybvgAbWqh7DcZfIZRW0wh4P5gEKHfzSLyxTei1QlZd/y7nUR4t5b4aTb8
+N74dizDpZ9m2tZSb8dJg/lM01KyL38ZPwqUxFVo5mBnkRdPrnxIwMVA4b84Wanizf76W9JvZMEYk
+y8VIQCZchewx6TeNOAcHzvG9Ciu7YiE0mFoFWDhGc6AsUJ0mSDarVu+6jWnFMsZqsQzQKaSb+138
+36r406oo4x7DivSfl8WHb3X+nn10X38J1vnn1/5ZGmXrvxDzY3267EENUVpEb/8sjQTrKMQiSAaO
+BGTkyD/52oj/hdBSYQE0JdYriy//Z2W0/ks1ZV3GSYqVExNVfu1/IbvTfu27JCLg4m+wc1MkTJ11
+4sp/7btzUE+5FkqX/ertHHj2dm1vV+fV1l6tjqsr/9naa76yPc8LbGe32X3fwM22v7ubzQZT4svt
+h1vSfzZvX673P2PpX+/nN5dnVeyRcXE/7ov7uFrbnuNtfkhG/+MlNAwb/niJ30ZQUgijIiFsdY+b
+o/2ycle9bW/t1/XKvtor2+aa7sZx3b3j7lcXx/b27l/uQKb5/ngHqCp/njBwFmhUMZYux9X5bbt6
+XPF+nXdns3Nuf7mSpPzlfZq/eR83Mmrlnoc90sJ7nm5p1+W//Pv8tjpu3PPR3h7fjqu347my3dXx
++PbGHdmH9da+bq/r7Xq99tbrg33yNs7O2W/oCa+Hg7NxbPtgO6cNd+1ueGEb17nsHduxN97u4uz3
+rkN3+THt/Memk/72NL85JLVNncotvWPlXl4+zoF9tr3XkyPaf3tt1tICf+iGJnLZn1soIUGtB3m+
+7N2j67rHM0PiyKi4d0h7Vdln2uyDUWHzwo7L3/CDDJjV1eaPtvzl0o/oTwwn+2TzV3y1dObtdn3i
+35sb79LdOZcj743xdlwtre+6zslZrbYeP8j3u53jLH1wdaSPnFfLCw3tDS3G79BeK5cW2fODvP2X
+43lphLPL7/w0pT38eOSfPan+2oGW0fTT4mYGy2aZN8EleUbuzl4f3e39Vdg8AnfF/5y/NIDyW7zI
+v8wDiyj558vOxjRMw9LSL7zO423jLC+BL9yz6+y32yOd7o2Ou+X/LkN4u/a8yubL1YZXenQ3qzd7
+5b6s1qvVm7s9n2kO5rTzNbDtZ2a4FW+RdvJ2DIgX++rs7Htv2q635+312zawv12XD/14PL9F9uNs
+fwT2lu62vV7PV7799o2ZcmUzCE43Bi3/vmxu3m3znYbdbG7243W7HW07sNeMmufD6fR82m28L9vd
+5vN2cby1c3Hco+N5N9d+PywtSD+7MVpsb7c7MAnsNrxul3nnPhHx5N+ZkI4uo2uzcXi8LT1m72y8
+Ez3h/oNPN/54GZ83d395eXHdm/P5l37w677jXxvkN3V2UzUl3rk0CFPICy+CjuAcHDqqs9lzr47z
+t5VAW6b6P43B35YmDmYKHkxc8byl+zvfN9vIpkGXjs6IO/OQjCu+ZbjwD3tHyy/fuufVo/u4vR7d
+l4JGX9sv+49l/HDD57W9fnzolxmeYXql0zg3j1HmlbZ3eo/tHf1s57qy7V6YCd8s+4t3Wsa1a29c
+j6XA3i2zwV9GmPTr2fRf3+xvS54vgfTNPOfRfXvcLkP/9uemU8VlsPzpTf624rHuS4LEFfZ0nDMT
+zrIO7Jd3x1MuExBdi45E/2Lk0NH2vCq6N9MW3/I++LsNffLoeju+5KdXW17/hr9l/eBrRoLDmHJZ
+r/lIPn75kVXB728faTwmC8befUJcrrhdOW/8CLdgO7TC8uN849nLcNpwXX6WT3xYn/l4hgAfxVDe
+br1ltj0eX1zWq+2jzYvid1iMlh7IzMnN8ft83vJhzoEvmCKO3BFDkV0N7frk7ZYf9XZb2v90n7V4
+6s264OFpWnvlbejPyzy/zOHc25rfvDrvfCqDztmdlqG9vCZe1PLbdIyMGYfmcvjjPzfZr10fG0QF
+yymCGIFA2P5xwvt19osgtM6WNYW48o3BKQCmdLoh6/dCqPXY94LUTyNipz9f9Nde8s9FLZAcBZaJ
+Li9GVz9PuQTYtqQkcACufTm5JOWcerM5mX95tF83nP99lcXnQcG1kY3nr1dRqBqJIoo1DKUHMIPM
+EqgBIszoHJHa4l8u9m8eCUd0zVheprJESP56MU33cTpEJ2tLeAc5yGB8+M5atvrzi/s3j/TLVX7b
+LNRFIQu0YYjYBZF8NpTmVRKK2AvH1t/9+VL/7oEs7KbBDCR8S5fEzZ/bqOukUK99QGUDL481FGIR
+MH42/vZA4r92QIWyAScXWedIi2f+r9dBd4+tJm4WtlzpWeDKIdUjSm8zx31YvE9CBMHLwUo+EFaW
+qPXHVkYO6FaVj11R06bTk4kgDcwkgRy8nZROe5/A9iWv9eHpYqHeQQkLcp2SdWlgTI2QW6jG9Qh2
+hLVTK4EXp6UYZziIqUi+iX30JcjOZAaSiikWFQJZ3rAtlnCmncY0wfYhVXQoGNJEI6V46HIvK+ts
+MwE0QI7Wlwjwzq9UaW2lcvOEN6wZ7mQZmgSx5vS9sZuHTwr2Vu3gfR4iTp0z0GzqQx0nbaGltieT
+kTqBpDQ5ZMBufMJ9EfdLoqmnFD0Vlss4ZQyMHkULUW1DQqAC06oydoRkjQYUSnRtAha3qEy4Qq2J
+1G1JhsZuHyPkLzDPF96LCsTiFKSu1d6McI68caFOa08WKusFRWD1WtRG2wN0LzaWfqQkETKtBO8n
+Au8pZCXCIDugfpVEpUxBKZYkZhhSZ0SDMYsd+FhRFlqOFtYckUqPXVNvdDHLRDRnZHQeq1Bta8cQ
+JsK8jQVnSvtCEghjF/Xvul5K37O40lBDG0TrHaXFSsYDIMVrQ1gQrBZam7KhYAcEhYUJIFe34F1Y
+ugB9IS9S3/MFD2tQXb8uVeEPamrm5Bq1CR23+gGjLYjadAfXMDYHaOvvoJt+B+DaOxgXj1r1Pb9D
+dHFrYS0sySqWduWC4tV3QK+9g3v5gvPFd8gvvMN/tVyFb8mCCUp5gYZgLhIM3Ih457UQ4NkL1B0X
+OFFZkEXYFICMENvBG00R6DGoFhhSKVXLBXwimK1qumCxQCKfIFuAS2uUSerIaC7M/AsTbJNwNVJn
+ozvmSVNZt4zSU72aTDAyDwYcBRnq6sM3FZLGMYvhPBHwaYKmJkklZE46tG2ywdlkfK3avqW4vMCw
+k1BOILJaZXxX7zgtXQH7M1ULLHmbNEOXOv4C6xLSYX1NpQFH825exPpQ9DJCLBY0eLwjw6wgwpdx
+Mmu7HFH3u/VsChesvfLcExS12yVanuUrIikoT+IE3UIPYhRB6hSr+KmIKgvFVzPJjEXESIuKVPeP
+ipxpeMdkKBVIc5BxYp0gC2mYdaqU8era5G3htNxcdFQvnQ3xNL/gpwkRR5fyPkR1YDT1oVNaLfNi
+IStE1x8lJVzVrYITTt+WlkjMpgFdYJat8uabmfUci5H8VfIlc3YbUaNglNddfqox6C4pKA45oQfy
+KG9a38+xZ0ksJLsRNdaHuUpycaH3JXi1jpH8hh+8iWEMSv3whPlHfqgNy2Dc409/zWeBqdZqOiSr
+Kp7lX1oqcxZLVgp/d8D750sDywg6ZKVO0aaKYTXZEfwfuJJdRJUKE3fmKIoQ6aktCrxfyFToKreB
+UYtWgjxZauJjFVlOmtfBK4XO6rXzYQ4uJNMc+7lgIsBgyAvckYTJDD+sqhwxe1HrLnMLIgIeuyLF
+qTXLaIm5nI0SYglpNXChBrTdgQIt255jA89ARlTQrHT8kVBqjcV3ucTNARd4KhyqOI+PZSnqn2PT
++U+aRA4wPuM65FoFwuaj1SuUNwqxesJcUitsJZiEz0oP+ncEa3B4QlNUbmqV1kS6gUN/hQIswFdS
+AuELYTnRe5jkITJjinvHNMHjHaaNj58YtWmTFAo9Kr4YI2E1bmWq4NqNHkS7Noq7V595CnYePOSn
+sEbhBpFlytxx/v/snVlz3MaW57/KxLzDkUACSOBhXqpQVVxEaqNESS8IyZKw7zs+/fzAds9lgdVV
+Qd/umOiZ+2CHw7R1mIlcTp7zX9ryA4oI8j2y+FWG9mJqgtiO/fC+7zsN42BuECAeWe3Uexva7dWI
+9D5GgKC46x0T4Jb7EhuNcNtXrv8J0IGPM1WcOL/M1Mo+lpGNaEoKlgNZR+EHICSrcriqtSmAdNGW
+XFpRZ/r3kVsav+YyX9TZpT9eFYj4AY7p2OXX9I+tT5rAIHTfWsLex2Fp5jeokNL/6REvfcyDBSZt
+iqq7RzHBrq594cPtzXNUG+ETgLI3MztGEB0jAXxqe/BEO6PUTOsuTcvbKZHVlybsjZo7Y8TSHY4Z
+BX0rBpu4MdOmj5G7r/xbasRWdaP1Wdlyo4mR5s6CLrck4EhPGrSzPd22dBPWeA/mORN2EXqaYwXI
+EIyx/VnpBpSiYUylf4+DArgzzkyxiaqu9j2ji7rvbW+ZX2gBgb6LSwtoFoiwBILeAt6XoU7HXvCr
+bdF4Cg9zX1h00+aq+alFc1rRREdbCMB7DlfaxTdm2PZl1s6I4y8dCNHR56e+H7B/qlbjw1eaCv7k
+4LGMa5GICfYkSEQg+CHIZx8M+Y+g91lcYiwFPhY9HX3T0kEtJKDjaFhNSAx4U8ZJsxWzQgAA7xtI
+p4O5uG4II/aTva+i7oMWutzRg6aBFs+j2XYPuk5fhpS8pFcYBkkd7MFEp/kNevIcC4Au4xyMnhE+
+KPxWQTIWjftbQ+K/e8MfFT7Ejj9CH2nxXLqLgWK+rQEdYFbt1gh85ZNRtIcgczCPnjO07kEuufh8
+cy8DKsQ8hpyPqjCiYGqoZxg6fYYASJM1CA40ltGgIJTXzlu9ncBkxGkAvAoIFXB5Te8/TmPc+nsD
+deNPPgtJ3w9DjKTA6D+6RTzIjYYlOWk/XoJ/gotXEseKOfw0QS/8VPRz8nYyS/k+knN5YMH2BwS/
+MCqif8n9kMAUKo3lkyOGbbx3NDL+TQq1atwGYIg+5k2fdNvejRCe8RGw/F7Sh0m9SQ/9b3HZ9PPe
+rnEdUNPUQ+UocnSJMrMbMDgvQZZsY1kByQaaAf05j8s2oYsnIEHk0USmNIVZYG2cRNVfapVwZ86x
+ZJkpNp++Vbpj3XdWGo27uWHlbcg+5FdESZCc6lB6G7GV9noYgHx7YdC4bKbhV1E6w8PkpLmzLQEW
+gt5Lch/nSFb9m9ip029mJ5KfHfytwNNskCoC8Jy9wY0bN+xBuM3End5Fl7yNX6T9zBrqfdTowUfh
+2Lx6wGdVlzdZqL4gKwaMUNKNHO0kuVCIePGMWYLQ1SXhpytgr40dMckw7djh9uEKdHeyktaN7PQZ
+QYg64rJ+esj8q4P0vIMkaNE8e99539vvf/34/nv263/9z7vvbfE/DjX2bMctpH/7//5qIaHPSIsG
+7AJeeZIn2dLP+KuFZOt/8E6nTSQtAyFqsPj/QFcoGk9AMagg2JYjjUXk//+AK5w/np6PqFmTWqI3
+rb+mhYQrH4/Bf5SXFlAH4pD0vehjKQuz61UBS45BjS88ENgZaV//0GsJ4KTCDZr3pY47wZUhfGTk
+F04KSQ2My02ZyZyzfjTxNpujhjZ1NOXh7Dl5wcHSQ+14kzeAgT34nSMPHfQ1vg+lkdlebIHOOJRQ
+ZxA0M8zRuumNKg3RYpihhqcZbt9trKGzJStEkMy+JivGdS1/yBw9f9dIK9jhoxIidFJk/o8Ggcir
+NIdBlLSBi3gKojG81gaj2tJpcGBCYZhzDbdNgeztJ7nH16urNrFJ+YQWeq99BTPuXlGpaTCJGcIB
+1hswbtSNy/EBpV6yK0dr3k1lggZsVk7wGVpkMN9jfhQCNbXd5K6EwTFsXRsPKMSioOCAUHFBZZGd
+asC/lCyvpeaK36jqgFobpMg/KPACxXaqJg4bPGnKnD58ZsHwxbXnPQKzbQxNdAxGFDemtEHquY8D
+RF/i8Heq26hH9yN+dR58dv0hNpDDOLRFL/ttkYzggMhpUPb182I31pjT31jN2KODEI/jLhqwu7rW
+KjW9hSWvof5c9jAVQWZ98bOoj8E+LrhjpY+PcYtxFEKwUf/DdQtAfU2nFhmWjLwmKFCK2YK0HJEM
+olUNi1WLa4hefms3W20WwefU7KvQa6rEBFpnNC7SM4FCcwUEAFY6kD3MrZ/ZiGrIpneRMUsaxLUt
+NYYPFK2y35UeUhaIg2RGByvRYNBomtv8DqMMfY1Glv19VZE67dI2Ai3tgov5oWPfh6YPb+Zs31Zl
++5ZF4FYLGRdPwSGeYEo5EygaWGYVyv+loy0pHKAefSv8ENTCKOIWJc8unss91pCIcWGyZO7rKIYW
+XdvhBHgwN7LHEUy02qIphrTRJJX7MddD49F1teQbmhWQ6VXmZmiH8Y0KnDQiuWwCGKmoyPj9o+9U
+4bjtOyNx75ohLkDl5Vn5s6dMYXk+VQqonBBGuT3boQKD6CPNZ2fg7G9jVCNZxEbYt/uhVOizQdUl
+P2qkS+KYoMkcAosaDWi/VWzvMJc0/8SFzvmYTIn/4M9B/xWkeqG2yKHrd9KF5t2a4S8TIqLXmt3b
+2ImimJyVPCItkfCoIdftBtQZHnmUDGDSlWY62FlEoFEKDCAfeCchhOXOGbqhlV/4X2PeMY9V0wxv
+xkD/FNsGgu5c8l8MfXDfhxGvI1TZpuFDmZb192CMUXxG/AbmEdCX+L0m62LYzlC2cBlKzQI+jTFV
+YJ0TLcCmkSPyR8PzI9pIh69M6u4A7NEhHaSo/YTlTx6xMBICTXffoJ6K2mdZD0LA8LKD9JAqH7Cn
+v9ANDKlF9Sbn9RBDsl+oCaMKRb8zC7ww4Nwu/nZI7vNnzWEM2R69H3Sq2Z/IqwywO/MdFSpxXdTu
+9LlQ9LqvhAE5nKeR/sFE9WgXI48K2mUSNc9mR4+y7USue13zb7C+yEoksftKcx9EaM7Ka8Ou/DUL
+6m7bWhUkTApjoz/VQgNxo2FoKRaP+aOL+pgPG7UV6TttmBVrxQytH0XB4js4iLYjs2WUAkNcgKQQ
+tSPKF1dpliIyEzlzK/2N0ZK9/jZlRIq/K0rbJFXbCmA7U3qfzCptuttK6wIr83BDx5SKCpBomAeP
+B06qNhCcSb0nrQ2/FLmfThjI+D5lRewQeam6pI+3QkU+Yn7Cd68zE4Ap+GlOsq3tZv5PY5hhwdfO
+lGJeil5ERlrclVC7U+qD8F2gVG0nfOigXQBs+uzgDWJtR2nUydb0sQGdM1ylto4jkOwKq1kMC5kb
+TTQ19ir0YjPMP6MGVAac7E6X7oA3mxCj0iR5CKKp+epEEypKvYYG7waYVf2oww6EtRjP4y9s+Hg2
+wJnPDDTrGtW9yR2zMLdFPKLE56JnC8+sLIpqb06JFbzBJi+IPURf0J/TMXhAczLKR/OdX0nYo5lv
+2QgqtLH0t00xGNHO0qz+YdTCMvWMVhf99dSgOIWsd55/mWUECrcKh669CXXZ/Biw7kQXC6QaUvaT
+OTcHlVXwtbMnO86s0vH1MfSi5rUUpQ2ov0KIZksNGIvBmOmptppKJSShHEkAaB1jB0GwXUYtjTLZ
+NiN65HulGAIpft5Qtp0koK5YEGWXt1mme8K0CsFMjBKD1QpnlK7yp3tegj7kiyjXFmXPMJAb6WsG
+6hm8837l0tKn665cCOhwGFN9Z6KKpCcU3Vo/5+VZjNGUQZVFp1pDt84NyfSxaGmvkaSH81rPeA/t
+/cSAQJ+5o56izZjyWmwiVdQeNmzBz1jDfHNfFNAQvKbrOJJFU/D3YAzTD6yT8Udt6CjKFE342A68
+/rMhsBBTFtgqYLxXNJ7u1PavSCcH453km9+AkHBva2WjsHrgiEUyrcODgFcQlc5tUPnxo6+NDtLv
+HCAcQCYqSYiFOp3YIkjSfxwQiXEPrHneTJQr3G1Sxmm+HwrcRTfRbFg3sNWH5kAFs0HZzqr197HV
+YbJQLLBRa4qpuj7xGfPRSuVeA9eKfpni3cNvHrY7rWkoO4neArVed3EEztvu6y/ctHxrk/uw3sz+
+AmkvVOvcxbXTxLtkBuYveHJVh3iceXUHZYY6tKCRc19B0ZzMvdKzO8qaGLjtWwSR5s0k+uYT3J3k
+sz2Z8lZVwxxddRDcviPinAFCb3XjvphM4y30B6s+OLXkwJ/yqb2fB3xIefNZoFKrHOkYGk8lBgqo
+mY18miLLvuSOXv2CJ4JGLuHcjQ/Fa/R8f+jeItiSfJFD7z6ilIzm8OAG7WPS6c7vynHL30qLdIQy
+LEfbp3PMi7MvA3Efobx2CwWhfKi0cJHrg2Dc3EiXh3s/B46+aUhz8y0qk8Uvpyrq3/1EMZ9Lv6E6
+EoVp+iMqEvaDmKMOlynq6JRe6BfYHrQQZpA3sFZ8H+wWtKXe+MOu1UQFUH/I1ZegqXBQRUml+WGj
+oWxdBXOSfXUACt4PBT0kdFzMvvcyvTb/1NEKp3gHgUpuZ21hZTm9lA/ZyEm+sRBKhkiT6erTGBqI
+aiHDapWf+aG4DRRAbUyLjApKk+pL1E0LhLXtSct/B5xMphe0cOnutS7Ww++ZMqabSs+t2VMYgvGG
+lz0iI01BogXNxi2oDeuNgU1yPxgKqwtT+5mMkmSNKmB6Qx1Eh8biV+47cEbyXYmqXI4GAqocsyla
+XBZx3fth5AhzbbCwtW97SPkaGNAi+jxMJUfM5A7WXTmiwLYdqcHuVG+IcNcJA3WMtC/RgnQxmvU3
+GE76t5o/IvJnJqP2QH2w+mhmSRyjsWtn5aGv+uhNghnU19rq5i+cxOiwi2iUVzGNJMxXxpYPSLUp
+QY586klWE8cMFqE8KgRxuNV8xHf7GxQAQV7Cb48X0hnIVFdT16KmVOg8asFMyaGbmvG3VYnk6+ha
+GcxGMqdmW2sGLNZOq1tE27mZkGuUiQNFfqTauBHYi9nwrXvnLhkiqL4NNoXDHeSlxWdyTGwFNbGm
+cNF3iwW2VIXr4a2wePGUnMd7Z5AuxcNOIlqDN9avIV9WnEoQRvHiFnksRTcsfaPwM4W8Rd18qwZ6
+CAgfoCKOE3TK7lcBkje56rVbVUJg3ijcLr+boTn8iqVB6Bo6suuhi5c61KWgmiNSSkEN5ZAgCb6g
+8ynNbWBPOhXQWgoMTQZ7fCQzy75nw1iX+0Y62gctK9GGymtD7Uwx+I9hhuAtxsOB624UOhn09uBk
+gV2nBKpt6SxG4VbHUgx6ylhlHytzDk3EbjKsx2xIcM2uKlP5dcxUCPe+mgPuXKdppgNtmOFuoGVH
+Tazphnrjm10deqlfJV+nUtRiWwY5fl9aMJK7hHOPRgK2CC0lyyFYOnQJA+vw96K3V8LM3g6Wob/z
+3cF09tCP6WxUYWh9ozFaDwdZUWq5q6PGfi99l2Qyjk33bW5l9j33rHg7Jfb0MDtQiirScNQHUkRJ
+fDfusRWg+I+yIeqX2Muohqrqcnf+zGxNq7nqRP3gtkH4KxwN8ZBDOOgoNKY6iWVv9j+5mh25gROj
+3sOxKXWUMaAJpyVvx23BDvlzKMnjUeyMzJKWXIwET6CGCM892ZEJd1GRXSPsjJxJIGfEWXLqZtfh
+OM/w0lWVeRB7aMjmuAbBWbctFLlTQMzO7TjpSuwdq7RCzmwNTsFcROKtjUJ1fshBf+/s3p1Nzwqi
+kWTDHNhTVU3JehMVrfbYtjylNzqCHuhgdln3y551+a3pzLzawrTSBKKSffA1cgXKiTawcax6gmqs
+b9o07z7qbYGGosKy7RtMWKxoShs49MacnJFuiTT8GkZSzDtas3w39LKqQo004XFIF2WEreHR4Jvp
+wSPm7fZwhe0lvwEdgERx13A5IkrL/hPVXEwH01JIAzTS5GKZQzYXXkK5vB1HmO83LhakGOZgrYrE
+iD0iIKmrns/bpn18i7VU2HH8z8abLEp9/YAkhbzVOoUQeyFj8T3F9Q6FSQNlqkMdRXN+nTBp+f+/
+NbQ/iw4NpenDryAq8iObUOpW/zEEe1N/n6N0/d//O/YagpG5uKgBcQZLYy51q78KZ0r+QdFMGCbF
+KjhI7vKjv2hJ1h+G7eKE4jiKUgyAWqpZ/144k/IPsBcQksD4u8IEhP2awtlxvdWifA0Ahvgm/Ebd
+Md0VOEXiFhQb4K83ldWm3PNhi8pU1+VmcRPMVtxeAnUcVemWcBD6AZRDGgC5QcvmGNJRasrvktYc
+NzrPaOvnmCaL12HuR5r5kZ5VPf/57EucQI4e16yf4oFSwTJGoSyNmNEqnojypJ7SitxOo2jVUop8
+QNopPlyIchHctlQnnwFU/wVu+78NbrsEf3dX6LZ/Av6+QET/UZl+Aa1cb7G/ixeXF8CxLofW8zXY
+/NPg2AuYUXeFons1ZvQiccBdtvezbfXfmziAV9XRaP4OrWR1nK+ZNO6yFp9N2H85k+YSfnrdlvnv
+ip++xOeBKnw08f/5fJ6LbIUnOsnzb/8vtsJ/MVvh/MFP2/x4TfznsFb0C7QhrOePw/6/Sxs6Tv5w
+3SOfBeILO9GwYf+r1e3Rz7MbCEALaENrvTehnLNV0mx355O/46/8VxRJd9wEbAohdrXzC4xOkHVB
+ccLPY7wROs1CaWpMvwXjjAhp4mr35+O9HJUlSP7RMtBxieaBcPx5U53WiTuCmOxq19zj6D3uw7TX
+/+1Z9x+y3E5FAbOOngLoM8NatBmeXyTIeERxLagb0ZgwHgV+XdfU7Gbv/Fhezp0lFt1KxSOE9Hxx
+dnwepa5Qi2kRgEcDCYHtxTtuIdjXltXRup8wANDRTH44H/P4ily+l6VT1TIc4fCOMsQqTXJzWZVZ
+Py2au5hOoLlpAcBJ4jvROfaF4Z0IxcuPdw48g+VqXk2iUWaiyDp0CCnrUR5x83mPrCG663GWXsDk
+n5hJaA1A5RXTCC13NZNWaUOmz7N6g3pPfN1FsX1l83x7YxbSfTvUyJOcn8UT6+N5PLU62yZY+oXd
+E6/O9bm8ynT0K3ew66MLcU5NIXWvhRHC8Oz1vepnzjwtOH+c46qw38bxHE9ei5bCNxkgAXB+UKcm
+ERcpB0FhiBqWs/z82Q3q0rSmBTFRigL053V9bSB2hCsCgiOI5o6OuT0f7+TgHKnAzygHZZLVVu7N
+znewM6g2OiZNeGrGxg4QuNoEEaYlrw9lC1Mu+gB44hmrS0HXLAu5HWqmE4gKrzVS+76JZxzQsqC+
+sMGWN/U/3jtPG8x+Hmq1wXqAvyhxMCprLt6GoQoODmguAJzSfLM04z/XTvfl/OhOrcbnIV9MZKSN
+A8h/dM1EBlTMt/bYtQYXtvPJKEiOODYgNXhRzvHyaNwyrGctpB8Rud27BInBreagf/o3xsJiZzPb
+VP/WZGnf8k0EqejoFchJgE4vsM7qC/tCyeLUUgffDmwKDD7ordX+rV0VIURl0zesXWlvwcQnN6md
++b+zsgkfXM6r9sLmOrXYmTqOQ5c/0TRXEWMtTOvIlvjtUS87pH331TLNH0ZFnf71E6gEBdXl5nIM
+tfwiz3axDQkqGECgIKqsKRRTGgc9RlhE56OsGJPLMoex6KLBCrhtuUhWJ26oOVGXWjkwCQnSuckl
+hibALSCBlAEl6kJuSts6+H6SHKTVDosoJ+ieWSDzdv43ebksbbaOLQzD0p/SkePx0qpAr6DnltEB
+rtrvc+zTmmu87LLmwhfUl210vLOJZJPrGDga45282mZjEzihPtKQA7KWoNaIaWGF/+kDPml3ga2N
+N2inFzss3XUcq7psO6KPTjd/2+qte91NWnUhFXp50rhcruxIIMegKeTq9xkm8iOtHytwHrSncJ5x
+MxuUyAAHAjMeA/ZD3dsfGkQnxwtf/+WcE9mA6+U4LqjDdXo0GZI2i85NMaICB9UmTvAs6PILX/bk
++J5FWS0xZHPcOag4tCGh914XpMA7sOQ8ZDgtTO5XYNPVq484xsUHZuJspYt1DcmhSSzJKCtEp+gq
+a6Ajt70JjPz8in15+BAFFSzhoLpFVXx1z+aF4SeNWsyvA9f+QDu92smkQXyqS+MfODDN+/PxTs0j
+S3bRKrHYJ+sTwU8KCvgWN5IdD2bp9ZWj3Ro+ngqOkzV3Rj+5rTcGZIEXxnkp7mqcgD7GqirMCjIS
+KrzxUBTXJTwwVM21+rZD9Gorkli/cPydmtwl24RrSgIP8fT4OBhLJ4P9gq9pEunWlxaWYLfDJiU+
+4LkmaJrnWvt4fnqXP/H4WHhSSJOSJxDX4joX7GQw5FYTVHgAom9vV3ALEdfqQfSPr087SaXJYCCE
+CmHT+j4eHFjMORlseo0TJLOdSOZuP7bW65NpOMGLHByJIJhmc/XdcpQLC9OAPaWpkt5rAswyidV7
+USXWJq3FhdV54iw5irasomf31RAYdjPanFbgoWCYSsiUNmLU9TxdWBlLfrL6TkrBQ15Wh0lbaZW/
+sI8x3A1xzkp70dyEDhYOIDfFTZFZDhRYG4wXTJPFGBQU8eu3giuWbhX5NQ9yuRqkSkYw0y23/6y1
+7scU3sxbOAbdFtpGBRDRnuNNGfrWhRGfWJkudRduCEOhDWesLgjeJHYrdXrL0Mg6pMzdFCwJ2pGR
+6LXXn9UoJT1l1zbPlCeNo2df0SmbCbPckoQqLHp8OqvuOoNCeBOZ7sL7U3AgU+iaF6b1xCelxEHd
+gUTEsYCyHK+dOqyMuW2JKjsgBJs0ihwsEIvmBonr7n40AVnkjttsK1RdL4R+sWyXS9c2pQEOcUHe
+r74o9pV5WVWcKEEMc84QudxTi+nvXnm2EIXrFf0BSCdkqqusEScIxFZn1uwMI7uggR7PQPia9Aq0
+Y/7mfKxTI+J0If104OW4T6pnzz5hgup6ZJWomyeYYpdw2rX5G3aeIEPOx3mxKpcxmRJqhENlwF4f
+YthQQ/ABocOqhEnTlJN5i/J1dl2NXXPhbDkVSrH+hbSXi1atzst2AdGDYSNUBfubsofmlfP0FeTU
+dCE5PDV55EJsAXQBFkGx45VYQRqLRgOvlNoU0a7WyHVD6KkXNvSJKMs1w9XI5Am4HsdRmkCFOI6A
+100tUEXCbsJNVWTO6z8QCfVSzyMGxnGrKPiaoxOLeOJmsHqSSw6qXTE68XsfafCvr14LaKwxHm4c
+IAJPfYVna07haRtqASxhs+r8fZu0WADDldhSErmgZXNq6p5HWn7+LFJeTJUPvg57VLv/7EBZ3eWG
+X15Yb8vNeHTFgJihPLmcf5y7tPiPg+gtECrY+qj124V4U6ER8DGTQ3GNlZg5b4phHA/n5083TkWE
+leQicacTdbXC5yqN0wHA48bE2QbahB56Y54ngJ96REhDyw+vMOXBGDmy3EMOPfC3Nmk3jZXjCy6H
+5MP5X+fUJPMhbQuEg9CBVByPP8hTzPxwg9got589Dc8QHMvyX68PAhcLyXYYAy/VS+wF3tqUcJ/H
+CKeR7TTEdgvtHK+tC/vg1NdUrknZyHA5P9YNS9+EnC4nFmce53BZQmlvcO/c61Z/lcOCvRDt1Nw5
+ICVcRy0EwHWK0I2NPWZ9ge9Ca/m3SY+fZ8kp6r1+8hwKHgDKubfs9ctNpdBOpoATMW6y+k2BA+tu
+tGR0oRx7YixMG48oTkQ+1HrmEjhkqLODGJwGFd6ng4sHeASW7dVjIQq1Sm4tHlNPsmnPtrQz91qr
+LWsfv2cg0dNoeKWPx+H5KC8rHcCMBPggC2qdzcttGeyzMJCcgEdnCt3izo/eQP2Xe71Kb4pFbsQW
+/b0zWB9KTfi7KlT+LfXuG9stywv3y5JOrE4W9jcKzdTELN1ZJwII6HTgFFMSAbs30HAZwyZ/B/dO
+9G+sbhjkdhzcNLquexh5FxbmiW3AawAsFk4lFmnWcsk+G79WhJboMhcd2wwF4W0obPT/y+iNNANz
+C+Cev5+f8VOrZ0FI8UklyKX1rd1hw5BBQuFMWyh6A94GWNDhjXo+yvJrH8+ozielQsYKWpidqxub
+mnMw1orPaoeogKSOKq6nHFY3UMRLqk4vZ5BQjiRN5P2BssDy82czyFlpQyViBnFSgjMwFWnlgF8P
+9U8udMif4ZAN/oXRLef+enTsvKXSyPFlroEHYVJZI9IC2EPmmYbiTWV9rrph/lF1KvV0PTd+UAYZ
+b7FoKa6y2mi+nZ/cl8tVlxRQUC4CfAasd3URYAktgh7y5UakdeCltvqZ1uobaib2pnLzbNOZl7LK
+l4tmicijlW4aVdZFrvX5HDdDFGNDVxWbHFILgGHkd9kq+YXDYFkUq2k1UQZb+LzGcvesFo0Rt9Iy
+C8xD6lhDZMbJo+hLhSWZ6dWlb76rkn6OgLWH1IxgV0IOPT+tJ9YsGhWks+SAVI/W+MF6LlUCgLyA
+GIUdh4U+dLt1fT18KJpaxheCnTj4aJXwVFYYRS+n32qw0kBSZGgB6E92845zMXlAjSTxerNOdc9s
+Qusj9vY8lZGOaNq94SP0tYHzUn0K8eQsL7y3Tsw8/Vgwmg7p9QIaPf6+Rtq09VwNHPYVsubUz9sf
+A5QKLxeju0knP7lrnM96FYSvvsqYBNroVM7Aa1r2al0J/K+tqmQlWxP2rds28OV8cHs9ai5M96lv
+y8MLDKrkOamv5b6yPI/RL8+LTYDwyydctKTaTTqcizYyO3UhbzwVzKVsRQXSRft/DZZBEwul8xZd
+rJnK+k2JCv89/BjN6+1ieDi/Zk8cfugYEIaGoqLZJ48/nO6b1qQwH9+oWPk/41afPjmt6g9JnqZX
+NDTDx/PxTgyNGj2oY2jw2CCsYSepqUVo0xSc64VyPC2kgVnX+CoX/D+v/2QOLWeuRIZGtXi1NiJY
+L0HTxsXGncw62KAy0i08mVxe60ZOLfD8wE6cqZCDGBinHCrWT+2JZ7dIPOZ2GnQo9elZFm/9YiG1
+otg2kOw7jfGznepeHCrumgsvp1NxKTcSEpEawCSrnde1g54aUhF3QGFnM0J2uDcmGo01roufhsIs
+3jh9qF1I7k58RgAKpACK5It/WH7+bLS96s2s1WDyskyx/srZ5WVSFVulmkt67idWqMM5Zy1K3xIl
+oNUKneXQqR7C5sZvZsju3WwcJhtTLqR1Ym/IA+1CoeXU0HhWL+2TRV7SWQ2twu2vGqFp0eLEz9jQ
+ZsNDQ6X4MDtRemGFLitwdV9h8i3pNSBGyFyu7mHTrow2mHwMzIMovcfvZ4Zqa4X78yvzZBTuXcuw
+6Aa6TxfJs28lsjLJ8K9crDTSagcR2rkNtXB4dS1Mp+lIRcKhiAuFbnkKP4vShLTebCwIsSSzRrWF
+cJBOV2ZMX83D+0ZUF47IU6uCCtXyjiGpMBddj+fhhJjtuos4t7S2/di38/usqIYNmlXYI1RxdeFD
+nYpGjW+BUFEm5l13HA3tqtiWJZu7xu7vJo9quW/g1FyLcSxvsfjqLozuxCfjRKYSjVcCMdfqpoky
+ymGEFLAZMPilLxsKo/eCQvcvZREnFjshlsIYNVpTrDHMY2lithaxj8e+V5mXgR2ANoft/SaK/Prj
++YV4YhaZRFqTdNpdl/b08SwiVDfmbeAsEiChlXv8OtWfeW1a/gaqs463dm+Grz8dubGplpKT0B1e
+X9tz4aBVN8KWi/vI36J04JloLlGptbSd6dcoPI364J0f5qk5JanG58IwlzrTMg3PdkKIvEqZaQhx
+qiZFQROzNVRX4GCZsNf+uUjL3fAskl0CCwMVhJBW10b9NUc14lD5lMBqhc/Opzwf7sRV46qlMbrk
+Jtwpq4HhMYJ1caPnSKTN7QFFWu0dGpyuV1lNtdNGd7rBlsV//BtB7eVYYTvwWloFrTN30CNHohMx
+MIkRUJBPcJLxj88xI7YruR+a0LwQ88TzjIOfrBp8KrAFczWvjTMXTSzxaeGlpG+CML9xyxHrYD+M
+/yxQ0PlmZaL2LE3U1wY2vxcOm5e59NIV4gglo4Z3td78wizUCAU833Rq1N93BoowaVjjy+lX3R0S
+lP6u8avmDmb9hZvv5amzLFd2Cnk0BYX1dZS3Jvot1Cc3vgFwiJZGsItlbLw//0FfngK8OhV1SGBl
+1NHW92uvcpzWDCj6JNTht2AO+9BrC+zY9qY/Ft/azgq+n4/4ckKXdy4lNWVzB1rrcydsMy0UGDei
++RJlA+IdufXO7eYE3j9tlb0lcwjoeSD6jV/68SXUwqnoT1m8bmFxQp59vEl7rRCRbpKGCsx8Uk9p
+bExq90WIqNGQRmgZ5P68yF2i1XtFsVj/dX70L48jRHJYyNyS1BqolB7Ht+lIkCZzSBhjIq/563sC
+OfhghI6zf3UkSqRUhmjlPBXYjyPxdjDcOeWWzH1X5V4+O8jaQE/H2tfuF2nf8+Fe7lLJOgIwu8Dd
+FgnY43BNrOH2h2k9qn9p9ZMLBOW7OEEzxKcC1+YFWoFT9bUcVHmIJ2l+Ph/95WYhOqV0h+Rb6RTE
+jqO3nW0nXUN0kGPxLW6PYmPFufHqLblEwTGOxJfb2V51GNkhDihtVLMobbs38WTe48CmXf+NoTjo
+NgDY5gGxxtWgqmBroNKYyGEu3wFKR2YmEqK/hAU7sfMpbhuUKpGFJbleZVH0T61syLt8E6CB4rkV
+VEdXz4Jr8H7jjeO02qtTUnBwYml2YB/E62gVrwmQfkAuKd9gNS53ae+kmND3ww7DLvPd+Sk8tRZB
+XqKCuBQsn2Tmnt/EWRyhgYBEG6rjQ3Mt4srcUkzIPANptOuyqcVNRb/9vVXH5VdMIsoLW+HEGUMa
+x5RSdQIQv8YGWynql7Ug+fZHzE03FRXFd6aTIsUiRlU/GAYaORucP6sHMwqm+sLgX+YFZFhQWJe2
+sWNiIni8FQptLmkpp/TV5kJ85WNENlKSbEbMlIO0AeqY4AqsjdbfOHAIDL6Aj8yxs679t1HUIGLH
+I2DSKyTM+A2ve2cOv+iqSy7krqvtzs7DHRFUIQ8AznAyu+Mx+n2YZ8itRp4YGsvTnbQ56EUfXzhB
+10W9v8KgEEgVkU2/fqvlXFAikjLyYnoUrZt2UP9nbVeIeFGDaMQ9/cT8JpHaO3/0x31Ft/O937Wv
+XM4vfo3V4WYiedCS3EZeVNcot1mqPpAYDodCZSg4u/OusCV6chkFPwsw4+78ZlrdWE/RAfiBWNGp
+pFLBOZ5rnLWLKFZd5DlB0N1YlT3tRND1+yLqL7UZTn3W56GWff08g56lmqysj7zOdaNdK9EtN8am
+uPBZVwff04DcpTCMnQP10TXxUevDxFrkBfFIr9VwI0DBol6F6GF9jVusKz6qsvVfmc0tQUHSsxvh
+mAvS2VUSKyezqi00Jj2UtYM7C3iTt1SuLiSrJ4amqOehnqnDx1HrVLmDLOJrFJg8F6H07LbTU5lc
+tRLdnCvo+g0cIFVy4p9fIKsD52lotC4XpBaxeYwcf7XCV34YTRhiZogKYpkYl100Y/TdDHqNSrjC
+Hb11wn7ACryi234++IslQz+ftQ9aAbA9Z+3qSq77Vpman5tbq2qDK1H709YG+HohyupEx64Z0LBB
+GkWbFreRNdynSyMILIWBPHM0Bf12wgz1bVyN7k6zx0WHn9s6Q2Nvj9VycOE4f7H9CI3m6YKHM2in
+mKujDp1S4SdxJre6KEL9nWGVffU5altDQ3ApUE17oRt1Kh77gjufXA64+moPhlg8GL5WGtspMZGj
+HBDbRvYh3SJTVHvnv92JUNTuXUr4AJzYh6uhlTC60FZ3ddT1+nDnV/nsjdzLHGlVfeEDrjKC5QOC
+gqDFzl/K4nI6XqNxYlf62OE2MTWiuA39vDwgoZRtDbS5P7Q9PX40uuJtnI3yzSCt4cJHfLEvl/C0
+RkjqQO6wUo/DY7fikgOHxpZF6hy0Gdkl064pTAsNd3JkZi686l7uCqRf6UFzEdPTBCdxHK8MxsSP
+fY41LA3Mq//N2XksyY1D2/aLEEFvpiQzs6zKqFRGE0apVKIFPUEQX/9W3tGVuqMV9806oiUxSYLA
+Mfvs1bSdOoxVufzlof7zrn67ivPHt9fEbiwwJs2xnrZCrNuDPm01yju7jB+Ucv2/7DP/djmqs2dx
+NoMU3N/vN+V31E7ByhcZm5jV1UdoAnhypnhFuu2aRB32691hX9rKO/73Ov23p4mnH2WA/4FFu388
+zZJSIxp+R6Ru1AdvZUMbs5//j3IgXhJuJ4iiqejQAeKL//3u2n5vyyCyvHTndt5iq+/ApnTDXypw
+/7wVBiCsgAocmQyx+B/PsIZWiUNsXGcOxnyJH1X9QVSVffl/fWBc5VwjoiVKYerP0tTcu1uJ5Wyd
+DZ5DZMbI67Gy5r+th39uHwFbIikuI5p0XIPz//9f0QKl+nx3x6jOhMJUDns8jrfNri90TrP+v2/o
+H0fcWdFETOWSvDAs9OcRN/XnKduqarKRUbEPA1TgyfeL8TjWvs7mqBdXxdnp7r8v+m/3hxLCpX+L
+LIDR19/vD76JHxQjT7GuypGWMVL22elwyxP29pcv+d8uxRfF+XJGopMP/n4pvy1VxegXHRzjLndD
+2cu0V5H95iEw/D9/TOfpPTRIVNTPZb0/1rllxmofcLPNhs30p3huf01u8DfpwT/fF+uBdgS6//Ox
++ed+O7s2zkFMtrIAw/3b2huTAUQpb5h7nW+xz21vAaRgO/zfL+yfH9fvV/1jn8iDvWdkK68y11bm
+Qg3VcoKw7Fz891X+GYvQ1KSCxrHJCDr9zT/eld6rZhQkJSJaq3vZwITfQ92l0huca0w4c5lUW+5e
+ACTK3//70v92gxxiZLbAnKmB/HGD2syDEFqTDwWBzgJsnW+axfpbJelfr0JRm+4+1V7GyP64wXpF
+bpsDJwodpY7u0DdoyOy/1XX/ueTJadgI3bNzFr045/er9CF+0vZS4m27mnw99dswO0dTT428GKWz
+LH/ZEs/L+n81F7kNLsdACgZaZFFkk79fThWdN47Gq7PcjN6paEbz0PlVm+EkTq0qXrFl/+939S+f
+AFU/UGjnujnh8R/vqlw8T6gQPFkUEm0s2Joqqp19dEGishwhu0c3KsR09fDfl/2Xx8p+jOiGq8Jg
+sf54eYs4B1+jqrOCw+fod7W5zKuVkm5PMv+3ofl/eagE/zhcnrd/sqo/HmrcWXsYF2OdzZj49Yyf
+EfqlqA+iIK2CeC4vGq+v5F++8n+5Q9I4ylgccNiERX/Ecl64bVjywzHqaIam1Jbyp2Bb3Avj9urj
+vx/mv3wJNK74zCkU0879U0G1rCFdgFLJDB19mCpb+Wlr4p//PxehEk2dg1GwP9Nhyx4K9HwLTtjM
+aRzKzrKybovNX07Qfzw1yiccY/T9qNmcha6/r39N8kZzse4zZsvHh5aye4Yz9XYqdzt4+e8b+scG
+yXoHCknowfftka/9fikAVNNZXD1mNb6wTznKrPyyMjtDrhilTlaME+S4RSUAhGFsvtfbGrt/WSK0
+UP/x6sifkEoSIJ+VIAzT//4jSOcahj6b8bD7uJJOiTBu67T3qjUzTKxAerM0SVBJyIUJ85Nz3SZW
+BMmoSW1ad/l4iCvLlvZXI929fK8atBje5dZGg3iGIUWF4iXfm7qrL0KhZvGzk7XIo1RUVi5guDWq
+a+qDtRUWhrzl3qnRyhZFu7c+Qb6Y3CeYCrHo06Ast/OfL83ovo1hKZdf9mIN24txTOB+mWQ4yZ9g
+DfArd9a9soGcQVI7Mx+WWl6tQ11dWWEd1DTHarW/6rJbaJB3azHV4dHxsC9Od7tRGwab6I+mW0Ca
+uCXUbtlGz5R3HMzQmaW0fsYzs0/fGhJCF+9pxqLsLuXJyDBTrajXjh/f6/xqmGq54P+9dttXexcB
+45L9Uud5JmmSN2m9L/H0TXvuVN9NvS+A+8VxToGQe+n9N9BVq2syd9x06F9M+LMa97CoWgsMq602
+9sKLqZzFdlokUqtkJuaHWQqJM2KYVsYj1IR9H3ILgFnu7o/9auzuZzt0gVOdIDPUwABIZ1XWTv0g
+vqCX7fMvSxUbxM6rjWVt6auZnxqgLHm118JiqNU1XWe+DsGApjUusI44aBxGl3QNcfl9gMo08PEL
+V6zxi5/v4fx9WKe2XFOKTJiPzn1N0TVRXd1OJalsHtsXpess+jHA6rQhiyjMCgGvrS0BOLJ1ptW8
+BDpsi2+VH+HKf8RBYFPtJVC4tXwI8eZXKmFsJvIeti3s2w370GKDjXfuyhJjVzvYrpcpZGKfvKsb
+4uXZ7O6W66RSvhEP0ewW7YfHiY1HrRQiKubMbFPtRHT8LX/92gel5X86xnhFQ1F6HksLKidmsGVa
+RWqy53RfsbFesiLut4LL8yHHT3W+SzTr6xBE5rRjetq9RX5j1Q2IwbLcOVvaNdy+s1cqB2LJ6jXm
+flwjZJAnMcM6cROn7ia/SJticdcpgRHg5J/z1MGBou8ZzIwtiH23rdfI283MzLqnzaTSohbj/jaU
+sbGvNmfwzDcPVl/x1Y3zpXtiulW3mR/nYksZizBQAyz83zPVV1jbSiydGPinGG+eW4F6ZIGsF3Dx
+aRvDm32vA+8ZRgFG8FHeswPBqVhnHL4ZJbILcTHuLZ1X3HS9fX/rPMmHepTWjk1DEjaWQSLS1aKb
+rGt3cuQQp+cWeGxl5SLKGeJuGVEGTIzT0Au4XrEONzHGxXI1P/1S0MXK8nJGBZTY/W713hGJUBcx
+MWcDB8U82zLd9obCUtQFwAvu48ZxCoFKFZ8fZMnJ3kdF8+6Pkx6AVxWWsR6DcsA8gamdHSfhxCxI
+ZLC+3gZ//ZD1XpdlIpwintb0rIeY56vQbkdv+dL0EAmny2lpy2E9TZrR4DlVJAVhkA04Svs3nVsH
+csW7qMLT+XJhtwYO09rxMiQuHjZ+ise3wOu/WrdocC6NK9m+vuWtv6/rYwc1pYkPcxeHm/1tynty
+H6K7yHexPl86Ed7qxWh9HSEamp3DUBhvw5h9X+3DDCoysrJYbPV0D0Z0Hy+wYAePgqJw6ZsaxKSz
+xT8j6dDzOC71HvxahmoLr22rma3vYeXM/ZMMmchH9YdYCeEhg6T9T8dlT04cRbSAA3Cl1LUVDGH+
+tJMgr8/W0k/gO9oicK7nCD+qlO3L+hEuEoOjat2Hyyk37WnzczCnI8gUG+PprbgNcqe8i5k8ODpt
+3NzRVxvo98gwnv2nqPJlc6DcNGkoIeR25V0wqI3h3cEdPfHquNS+P7inyn1dgnqmLLDit3/iZ9Fy
+sMtmxfRe42l/Qm5ttdfz3uV+FmyE6WlTx8746q5gg7A4lnIcboTfxNj+N1U73ticwPn96FV6v2G/
+G16NZ+/lc9HFY/4RmiqSD3UjovBhGS0Tv6IFGvvj3IsqzEp7UPuJWHVfEqU7RKMHIKP5Zx/P9nSP
+bLWSR42jc/yDJduz5nIbucvDFDhd9zPOPZgwk5h4DofeqMn9rDxFdRoY5+Swqlkjln7wXUl7SuDt
+H3ztdgy7r0pRe4z2ezpvm+e8ACvSXXjbHMzh0fKnQtsXmkQhB+e5RTVu+9G+WZ+q8UbwUOVie6tI
+50V4zg9n0np1maDvdGAyJjTA+qU4IRWFTuK4rCAKbn15VqVOpTtqqEd7N3af4SqBTSd9NM5My5aF
+s8Tvo1dbw3NYebIiYuhZ6CUMjtiAdGr63YXFt9qrXDo20kgDLIgUvJGGvsd4Wwl/cxOEMlgGRb1m
+P0d6MK9vEl3olDBDVa1sjWA90gYdCBpLG+YKEKm+QlZkNZUXPcO28eRzvgn5s+iGOqJa2aqGavBg
+P9uCilnqshbdNByLSX7Mq4keEXhxYsfSKvVD0G36ouD7ym+aEq5Vyu4zvkY2jV8O2LPPOaKex3bv
+659B5S/yYui1+zBsW/DA4Gmx/M+x8AbpYNLMOc7BVbeN5fqVSCGiJF1CaDrhjV1vJwxNcugxYe7p
+1O1BFF6Y2ULWgtxXPvd2eEYjGHE5TTtYGmqjpZWUA44HKUI87Ah8sC/1sQ78/IbsZpcgv1rzXgnO
+78thcUbvgP3/hgR7WeRhGu3mGES77R09qytOJB+4hgx7M1iI2nJQUIPsoIooROPZRPdiPW0cb28u
+WswWeBBnTOo3ipcC3BFnIIWqdUn3aVuby7lSIYRNFaEdwy0uLnAQ0hvW4LuY9VWB7cWOoXsXXjRy
+AnHLNEwExERwDCX2+VLp2jsNmg97zb10svtAZK7GOB2RXVE+st05L7Pbdypx9nj+5tVh8c0vdP6r
+pLPzYE/Yn/BEhLCOZdXTR7LCCUols+Ex/DOc+eME45ghuBlyqZuHvjfdfHK8uR4uzwhG+7i6i6O/
+NUyaj5k3ArVIan/G8L7pWZrBHEvvkO8AitOav3N3fg9UwvemVym8W8eBnoX/WAYpCL/yIIaikvAT
+JbjdbnXegS/I68Ltjc5QNlfcg6UX91QJAzjJMVX9vefVgO3cWnF0mfz2+bUdkiLfH+AYSdlAQSsi
+eay9lv+kDEsMXjRRh8V+bRfPE3yG/MIr8g1qJZEKEow6ivs0ttvhrmmDqDyGTo2nDVzdYDm6/WzR
+0o9NEye9mWGDlAplL1bvdunx6UvLP5hVDo9bOEv/q2wK6FtbIOolkToEndWUo9a3flgMjFoXblyk
+XbGFdobrvD98gfvjQGetpX/Zu62Gtq2FR3QZwjiEbxvzDpdwYTObTeW1x04qcecgrep/2D1kGRGx
+ZyZjoFdgasXIP+s2YdwcVKyI+IKw8guU4l14Hbd16J2IcSOxJm3cNZ8wMsE8BxivvMp24Dypy6py
+s26GFQdvoLC4F3vuUqIlD0fuDbnHFawL/9nx9zm66nLmANLSVcWjCQuYxQPK+2utcoJLtW0EecoM
+sZMFvVdoILRejO1iqav7fXSc77MXlzdV20to5FArFzbDuK7SLldsjJuxvW+TY+3fRd9ggy+UV9mP
+zrpgWeAjcZCvzTRC/c2aeQGqzGcJnwI9PCcfeHJL3JfEtU9mFVi7WL1TXfe2D8umx/mbgL/pAVQU
+RRm5F7wqXx3NWm4zS7WLH0FddPUh19WSJ2CjYD+Dl4Mu1CDVaRLFGFN4zJeccrAROVCxstf2q7eJ
+syCKac76SBFyPsSuQg2aQ9k4GUdZ+BD5xZl4QDw9vJS1C7M+CkE/zcXK3kVnI2xksjEiKS8m5l3v
+qb05bUb/SNmXY7jYTIgJcha+r6ASCkKApeuLzoum4ZpYhayt4bXU2PvF/DtWvfpzNmuPcXgGWMoX
+2vry04GY+bMc+u0n9i/l+1Y07Q2wiKU6umTp96Zem6cOhLjOLBbU6+p21nyyGrd7mhphsWdKWLXH
+UActQQE0LGDfBBTuKbC13Vy6rZyf6LP7hUnJ98nezNK5jxMzdsCLx2LIyrwOOAsEp1aKjBd/LHBo
+UUUw2JGgKrgi93TlMacwDDPFRzT61nQU4RTqb3UXR83lAlakTxZlhQfTKs4hQEqduxwG/OrgbQhR
+vtUFk/MJojVLPgEZ2UA4yDF3T2zF/S0iipwRX9cEjN2scZB4psYrACFF/MuaHP3LWkT8a/Z8MltV
+5+Oertbq07SMZs4zBHbAwzxbOofcJz1H93I2jNS2HN+3bWPSpShd2SRzbNwPmiXkQEtsA7dexPQt
+ysP+B4xB4V65TKefbCuIqpRy9gSROqIKfGRypRnS2s/RnpTlaD+rHq4Fh7kpvgfdsH0JjJe/x8su
+HlbXWR9iEW/wJol4kE8uPlPFIUwT61DV9XjcPDlXh9jWEZCRtdpvt7HV1rH1Nv0jxJK0SXyxLx8A
+lXqJ00vnBuDMnfDUWpOyKNwU5n22PMWo/BB1+gJElftj27w1ZKZn798HNg9zAGZb3zq1Y/1yVrl9
+UYI6+NEd5+BdAZZ6Kn1cMhhpBGMEaYoQyaeZosAyOZ66aBHhwovdKvlLj5b40c26dtjf9v0rrA5s
+WebetOVdXY0ebVOpuk+7nScQtjAdm8MuvLZFudmu1wLA1USCsI+/isDLv+/uUDysHOH3gLWXt3Lx
+ozMOcRcf4biA6DijxrK4450neLBoOwXDRxzYtuV5bNebkS1Y3t7CIijL9Us8kYYnANMWsqq9PKcJ
+kV/d247U3XGwKp+KvI2j0RFEr4LSOFZ+eKJzab8FS+MH+JPM4s6bfD53h7HLkEIVOXymGWuHdRXq
+kKwUJQFUl1ns8WGDnxvyJev+ytDz9Y6gHgtzcMaFtucCaOoU1jzrJF7kEqT9Cr8mWeeQRQaA27vL
+x6h8RnnRPm3OSh2IxG+dE3eIRysBZ84eIoNIPzZt4X+qPm5vt7maiytdCtc7xBFBzHHSMlrSZj13
+VKzcLi7tMWyXo9Zx/MSZ3leZ8qvuumbCe7mc+jb4DqFT3OpaGP9oR2X5UhCwrldhMcWPZZzvmtnH
+hhkDaix+DhZ5HA+RrcPmYrS9Dgq4N3g/o9GFsLSA37v2zGSevW0FVDP5M8Cr3NnFluy8mZOkFbkd
+lSoNPBS96xt2C18eY6dxIDNH0LlHJBOEs0NBcpdz8zydPd5fSbrdJ79xi6/NxKBvUi2j70BUJAbI
+QLNZv9qqlteM+523cKpXwXFS1RCmTNEs9+GyK8x78XbgAZgtSA1jWXf4urk6LQcTdImKRDAeCsJ2
+PxWtZ136auM2Y4Yg8IKUWxiC9rO9Dzp8+Tdr8OYXDzn9d9oE+3UBl1OnS9nGL9Gm+p9UAtv7aR3k
+j9o37mXPbU4pXXLSX6iBIW4ZaP7RwW1xful2cxtx3XVnRYl82Q655SonseFe8WTZM6iDOP782GLu
+QbLvoIpg9wzHe0WWuiUY+db29bAL/7vaZ/82DOrpva0a78UFiVkms9cuPxpYdU2iW+qf6Sz7QLLt
+1S10qXWO3ukwEySvZVzcGB9STrLzEG+BeVgVo1XQxYe1IEix7NXOABW2PWNdowDaSt7xJpBmATAM
+PH63MzASgnCjP3kDmPNkVxN03YCxUpJ/U/XjKZdwqfLoDAYJaMUuyVg6YZHOZR+tB6KmvUu92dSv
+yPTze2cNNpVI8iOTSmBmMbmM6i+6AE/CRAHu6dPCZWD/Kpr26d1Ru/cUmBiw1CxM9wDqO3rxCxf0
+Xwxj6mlY6v5jQWJ9i31Evx+roIp10uOC8WppCqmJwwnM8H812o+t6jgCcnBjLVtsED7ozgpfVncg
+lUNF7D2XSnF0bP3O1E8wAba9WuDaXbczSTKxr9uvmdvZ4rWKeqzpyBlyEtLIw8xpJmq5kaZb5mTw
+2lElfOLBD3BdbXEoxw3zo5qMGFRS09x1Zx4UdSB6yqcWXNDNZDBKOOUiti+juQk/C+l1V+jXiWJa
+RYhhL5F+orIcjhky5HwDeiaiMoO1hIC+pSCGXSZz87cVzaYP8JdQv5ald45+oIjou6U2VepM0/xm
+jVt8HyDuQ2sPkomxb1+2Uxrj/3hNK7P3Expv1ddCNsuQDkvntJiyKmKvCOMoN1ncQn5dYZttqdwG
+16SLZ+sbLyr2mKNwqR4jnHhDiMVLFR7daLWPvGMAZxjzNLfSmcUb4iLG3Rl6d+bMb/35pmU6brto
+6BI9hWKbyiucIzkcS8LqMmEvEhdxaWl1soBPhdnkR0yp+wWbDKzH8Cq3W3M3L+0YH4wuGxB9O/hT
+e/J3N4nFPt9BcuJU68KCNma7Tt1FFdIoOhiUh69+Ppj3MdbWmPEOm5tVL46dxdvM4m6bXL4sohl+
+xLL1ijQgQvmgybDf1uG2wBh2Vfdl0bto7y2sGJbiEYTrUmW6dxfIPPlaTW+2u8MNPZOR1y9e7hQB
+nOpo3H80Rlhz0jULX4GIFt6CRahOZji7jXs6CwAYca6m+CPwK7iv4zSb7W3LV/trROPwYldWyYdj
+1Prayy3+AETflkcw1WcYaeG9rD2wxnRzhXyDJxx4iUXG/c2IOsZ4KYj7oz0FrNI4WGHYinmNo4Ne
+86G6mKh1z4nTeba5KdqYmMWQFn8NvJnyoq0dnAFcCthtVg0N2DLsSnt9iCJgmpQ5XPm10RgnYJ9u
+OpHoqdRvi1cThjqh3YUH2fJjsl6NXFpHYzhnltn1LcHzSC67t/uYSip61YHpfCmpqQ3ju9hVEBUf
+rTmXFHZrHB+A1EXRwcGuh2BjGyFpmsrvqEyF62KlAlR4z6EyTLA/6Wn/cvbQwvqX91A5F368Dd/H
+fMXpNA/X0U2pMZPW7KG7UukRQT9czZ4jWmw6XZfqEOZ6VImnoZRpZ4x/v9Zbc6MssYEqXDZSocIg
+20tLPWEkX07LsB0dhxgDBUyBDFgOcmpo0OjusZ5Wx+KPq/6L7dbEbXttLHk0VH29NOiq4EG2qAYS
+va8DFbdGhl+wpQNztgzB+pOBeL0mFEOsIYPK3g2ZnERJwWqIi3u1Y4yTUChprJNCtbtlvsahkzp0
+HE0sHce7bfN8fqSpIsntd8i95+27fa+0t7JN4+HGX6+IphOR2+rJMTDqhjP5+YRcv76fu8J2Mh+P
+iAdov9uKp/eC63sXbA7tKnjZRALW7NjiuAIX18+yrAs0HnWhbCixXWVuoQ2SqvkcgzKJltXXh8EI
+zDtFa7b2upoi+2IahkUlA/3/p5JVtaCsaSMIgkxpg9jrKz6oCq1MkWjkXiSigV+c1sKNTIY5MdBo
+P6+XAg64jPI0WHP9DvlzsU4lWeolNVX3rg+34Ffpxt7KvlUswLxZQGHit62xjo0B+J1NuaOeNl9I
+kdg28F68MTwAxGFZhTIFo4fge8cbSwNnJEXZKPOih22+bHionZHD8TYS7W/RLU2i6VuORM6i4U8p
+BD/bzVD1sxcaAdU2GpHu+Yx+FELzksDBbH+IEsBkuntx85TToR8OMhQx0Ffyg/tY10ROTBed2bsW
+JLok2NvmMncd5noXTVsm8XFm6LKQyHVKV3p8kjdpehIA7flT6teD9zWebPJqm6HLR1o+sOqJs1cC
+oRUY6QLQsuYrWIb7tSLkzfDkbi5lUxJjqEKoMVNbqX44+W61xHvbcFM3srUvnSUXT5Px3Ae0v/Ao
+fTirVFihOE4HSbfv1vQ+BbCy8Jdv/9NkSGIVD5/OOuk70eXLs8j7sT3EoOs/fbfhOB2UNj+2XUx3
+7t6Vn2OPhQfJgZvfDXsXsAXlvfOsWg/PXkX16SJ0eucjX9nyuFXWGH1Rs2ar7qbvYScozBujcNxa
+o7JlJBkrF/zaav/AOefd0UGbH0lVzZC6hb+/IpIW3zs6ExxkcalniOy2qGFFtvSTimVUX4c9Knf0
+/gb0weCE0+dk4dlCtB58CowcrZRkNPriOFtNpXfS8zehJZF1uazWbVufdxpdlvlDx/EJc3Cx1TXN
+EaZvETKHIsmr2Q5utW+8gNaMbB+0vRPvcsnuztEiwNpQcd5FoWKzmsLAehyjrh6v5zx0NA0mqfys
+CFvKlNhoR87FOnpYZfk4rIBZt7v9F0/ovFkRajbpQDn12d5KiqXNSraV+B5ljwJrEv+CQ9Cmri1z
+GuGOkf1Dc3YaOMZQ0W/Y9tyO9IPwPgki0f/KhfS8tNPlSCqs3P6x1vEMHl3iNHKMvQ7TF0dX9sNE
+CGKlASqf+5nwf2I7iEqaT4yPrEzGa2siyC40DvC5HFTSsNcxnqSqcL/0mAj8jHzYmYm0V0+mLJL9
+Va21eCrseqpoBU/Te9fkVGsVMLkmWbUa7gPsST8mTp47Ks32PZ69vXM/ooXPKdnJBvzGuUMMm9ie
+XnIqf9aphgJ5Ly17ltd5sBiTjHxewZFhRPp/UCExPT77DR/kPBPLuxFIetQ8s4C+qtzyR9dQm2WI
+ciKhFVPT0CYamvLeYRp2PUyLmg5FPtPi10j5eL67Q1AxtVbw0Nhn5Cp6dWKFHjXoD6uhMX3oZrbi
+dK81KzbqrfDX4lr7o7evar4eooAjZ2fmxk5D5et36uAhREpEyKcA69vysvKQx5+POTwxh6F3Cf/6
+grodNjROnlLWNa+1Vvbb3rSRnSinEdcMvfefAQxwnWL0jOFqTQv4ZW1DFSatJenh+0U4XspZ8C/L
+SY2EtF7Y+unYRP4v+h4+3Q5UBOdmsWTmqvNm0iyM460PaieUxTs2NZU2tA+dm32S1rdWeKNzAI/r
+V+lWtdG5jpzTjA9L6r8ZXnL9Y7O5+w+NkuuNG4LSQrLRdoeQ6ZAg9UY1L6cN//QrCj7WlvQsoa9E
+S12bFWDCrbSPjHBPu724b5bfVc+oVMvvK7XZN+w8IdjTp5bPY135n5PpS50Q9FjU/OnN/Rj60bvV
+cTRu08FXsf2BcPwMjs9rTACgUXjNpdW020sHvsu/csoun7IFNQgLmcHOX3yPeqR6ONInroCKE+Kh
+vBkPQQOR/TBPlXc94zZBu0l33mfuSioBdh/lWTltwXYMK4OasFp9aLdt0Yu5uC38WnLPdAZEqlmv
++7FfV7dNJe/uqrN7i14yA5mfzbAtD0NnCGpFPud+ulOudg9+5+s6HazWta5N3k459PPRfxOOpiPU
+FZGzHGsS2MewEfaQxr4Q+2U1lc4TclicASy7JDYIezxc+sWmOlOc44CkyPPhru3coWVz37qvYqI9
+xikN8SMx9hA+WHOgiuMmFvk9HIiO0gqWNEIIAWs8sZx2eFpG7f9k5oL6TNesfZhMS8fwxauHk6F9
+6+67Y26ayatE4jY51SZV+OEdWt2hySLOYUOrPRrZlAQg2qRTuEMcIYCv7Slvx7C+dtg+qDyX4wId
+Pp6qp7opAHM7/iaqQ48uyaOc51BWHpbApM6+oh62G9M8M9cVyETiZ1Hw1yeTBZ1jloQjkh7Hyknz
+OWOi62V0fOyrYJN5g4dlHFwFTSQgjdNu+1ryKJ8H0Lhdouu46lPRsPelqnRKLIe7fhyOlISK+7k8
++3O0W2A/C6tcX5j34PPr1hwByi4HPWelF81glMWAFMPLI+dyrvn+3tEJsEF6YUejy3HZbBvCLD7O
+zoG0bVeUGDA3QRyJb+JMElsF4wIbSNruqV3wfeM0CPODp0kioGPv8bFTi6hv/H3LgyTSlq6SQuFM
+lLYdBdWLaA/8z8Efy5eOLQUOchWul71NSJRFaKC8R9O0683uWX11Q3QW3GyDFXYnX3WqSn1fIqoh
+cqBaY9vKnjKpHEEBxhQsntL3+ze1r9zI6FbFgyTpetHkBIz4iB6DAxMN+bcmKoadaUoThimFf9oA
+tHqn62EgTDlKaupNCuV4Whmfdacv9rr1H6IVfnWtncC/YPp6/QhU6x8sp1zHL5Tu6XktDEXubEpj
+8CtWsvq501v9bKm+PnsAnldG33H0Sd2mIHpbRkLzrFKDd7cg90AhRg8WHyW1a1oOymvS3cGGHNPN
+bXoP655NcC2plnOSLOGU1k018yq2kKW/RAOc9q6cvecY6dF72dr62RrDaE2AWOv3DpNoO6tLJR6I
+JwwKlZEfH0bymwex+rnRvQUZe5Mwn3cX3QnKMW8iaNmLocLyKOgMuZuZAVdjAEOpAQd5ylxDOEWJ
+vWrv3bcX75trheuDJ0hQE2Dy84djFR3xCEnQkOW0NS8lN0hIl6/udUVICui5UnOPZgXfasw+XYxp
+1YDIgk8flDpnYfkj9DZ/wV56Ny4+T2MVZJ7wwyrLeYB2iiw35FvNWQdp5bgVsmU8w+ifDwi2kvOe
+zNAKL9hLJrBSN11EuZOOXDM8YzDVgpBXU48K37R3XUvkedhVMdDWor0rM8DZnj7qmrb2qAM5pjug
+c+4sZ0r0YHIOGHrjkf4+NFbzTkLAHHclhXly7N1iakWM25NX7PWjs6v/x9l59caNNGv4FxEg2Yy3
+JCdIVrRlWfINIYdlzpm//jz0d6OhBkPowIu9Wax7utldXV31BoWikTLQheP6KEoXvAad6dRqi/u+
+9au7TFPF9zrnpf9I2UlobgXy6ucEs+41KKbsW2MkpNggwGMwYZEvnkN9KmDgT5G4k2hzh8ciD6q3
+sC8WBCJvkMQZkHFrD52cJ5LTdzb3hTR1Me0kmolPhgGoJQ6RuXSGKm//9hAufho8QQPyDcH5FCQJ
+ZBP0uOxdYQxR61bNHHxXWgUwUUlHZ3HVCGlX6MXAOkcZ8tNO16nK4yiG8THDnKykdKnFbyDqeIRM
+bf9nBFmcOWGz7OKm0aLiOJdJ/lLQEGZD2+kYuRKFAdmhdxDaDkUnSlGzkYS3YVvmpltras09PPA/
+7atQ60LsPUKK46ksTelRy3yAQ00wto9B4wOxiBegvaNpQziBR+ukF97m6b3QKXWz8rF0X9Zt8ACd
+BvFcX8m1K1VpqQHXC0SJA6frCEQmRWd5JkW1Z4qK5ascDKq+M+WUumxfR8odmMnccOGVULjivWbQ
+lY4Vc3KJs4A3SL3yx6nDIsaTKsEHD1tayR5HAJZHAGLvRQpFOXoinOTjINF+J4YH45tV6v6TThbD
+OhlS90sRM11+CPERNjOKPvFQl4bwWfEj3b9GknW4zysUY/YcBQIb0DzuykLHC5kObF8FZO6ipt6U
+lQZXxVTUN5JGbHHMNmgTr021anYkY/Lv4Vv0X3vVan/1WqvVRwXNkC95SiuezK3waUtq+ht1vIHw
+Z9bBsRAw7KnFRsVBHiqQPaMmlV+YagO0wVQxh5/QGvsbsX8YAQ33fSNnxn+lFqbGTqr7/G0JD7zS
+6Hmg5U0mcWXiT4+sIf3S18oaFPgOoQhybijJojxDjeIurSEXAI8x/LvZTHH0mynEgUUI56L3bL8I
+SlIiLbqeMVAXbumDU6eAAfpjX0lTcpfYBZdnVmWDyvapxXWi03NC80YuUt5QRvJVbsf491DM5s8Q
+PDiAzFDIP5q54lGkp6juaGMI2iZQZTiGQSf7pOVGL36wC+MboPi/R79JK1fkJdmeGZGfm7OlogiZ
+p/IxVkvwTONMk5OAHVfhLrZI2Z1e4iXqxLTrABvZg3oFKCe0dijd4c1k5JJ4ywHDEa0E13Cc9/Ix
+bCqOBIV/+6FRS/FQUoHOPX8Qw2ulcmuy+bThl5pjN+TESWx86RuwX05uF9HzMNEuoyY16LdwsAd2
+OODKcNcB7KvRhio1XvNmQhfDqBX5mg9Xg9VIRukpsccAINsCQCx0HIcOfdVHBFw/f60hkb4Moinu
+cjkaxTFOS3mfS2OrHQiuVeKabdGGGqgJSoLYAVFPSPvrJKf/qSydRDB1lmPCKO2Po61n9BuyyGiI
+QCrFXoxSIDqglU97uxcJ54mP4NfgmFrdoPHRW7fJEOFo1gjK47eQyqge5GNimHjL1OBzKUtQreDe
+CNtdX5qp2OMUREk77kT9UsTq8HfIuYNQ5KLj7MXtVH0zbUVKbwD6Rl9iokXmmsPyqqLHzI8ALhMF
+jknu9YIOqfQF1iJtbHMe4jct1Ia/9PgYtU6axPaoW6XWfa1lFIRxOJx5D6B/S9c1t/T6Bzy4Uv8S
+6kX0HdBB25Jw9WUHZCaSwIyMUFkSty5BYB0DSmrNDXTa5rYHaN65FuWu+YhDYhmF9/RaR/UJhMX8
+i8SrBw8/mprfPLdBAhVkVyPBZV5JtPLfUPkeXsZAjN2BnrxVeDavYjAWnYQ6JO9rituBOUuvNpJo
+yHZZhn0XdokdggYLLZLrovjW0MYHWCVH8i8JeETuzVGi+zvAITbQKJ6mmac1YITodC8HQOsmxArV
+3Oor1+JOMciwTZBmdPrsp7aorMe5E4NMs3JmmjCUqwNI2+F27puZ8ttMZPBojHRfA0DTHf0hJamo
+aVrJc4Q8gvC6oqhR/QEFSJKZZBO14kYn5NRKwqPfAhiiABlr2xZcihQmtBgktg39W2Qck3I2/WNF
+bTlCpIgE1y1klZYhLbjc2CM7VqLNhJSatadyn3A3CZXWnAaMHM24eua5nNe9StNKSME3kseh34Uo
+qF4jJqNQYZFzSeJx3LB9h1FGVaGKs8l3konwTh+Rgs8VquA8pgGcmGC75lh50xM1gT+cI6OJ2mqf
+jF4meu1POOfEQCnCjcaRREaN1o7BADsdwfprnVbpd4CJotzxqh+f+yDMwiuJxJveRlSKRzNQUdga
+lZId2Rp5q9A1VJTbgeTmrYp76xtywTbgI9yK/F1qz1A6Z6G2d7UVqT/DQjV1L45H+WrWg6K8r+2i
+fhymXJfBblgg2Isltc98kdSuJnegwsjIJZjXudH8yMOUd26MLChBHhCn71EZ1x4JB/SQ4JgByRV5
+KkmA36TugTA1966IEzCOZYyi0VD9uwe01u6dQi7aW0IjfWJwRP4LTIz0OKGsOnoAHmgPAvOpXif4
+cY1XAXirrvFNkf8LxtwSB1mixudSJlC4SmQDB0mCi2TtlEHw/ET9vP2TBWozkFAnwTMau/3jFNY9
+N0xpBG9VO03/BSYwu31S28kvm0u63hkcLDoRVWxVSNDEJrjQiZTTZcfT7NZCiXMDi4HEj6d38psa
+ff5WlGY0OArS8M90canRDE073RbFYL+h/QKah46xXtEFmGMgy0Ky/qRxNv+KeFsxKyUF09ZlZq+5
+cRTr7dLO03tXjsz0Z4S2K8Y9ygzdXqNSR9czWjgdTW8DFs2LOQN8Ist8/IC23XUzTGrryKY66JwD
+TQpBGcVBvbNKG9g1dwuWSlagzYFLQ7a6w3lMnjxTNuQbPcgxG4iUIS0O5I/Jj6ogKpPEAT3q1JLQ
+D+Ax+w3cNH6A19qCM4zUTNqBCPcfWuJT6JLmKzzToqL7poIV/17Su3nSDfoIGrfjTVak4mucCi1/
+rOKhQ2rHjvrpqFr9+K0JmwYZ1LkWyACVaesfpkLEX7tSNFSehgnSyiTPVBvJXRBNnVUrsXa8kiRj
+F2kFz8WxqYzaU1tOzS5oo5H4aA91fpVro9pBxx00y6a2qhMfdNHyn0PoPL/LaC4lF621AkWDWJni
+X1YBcOKAREbv3/a8cQB0mX7/dQQ391fjacCnVhYxlzyg1u5rIXCyCQQM8IZWTn8N9eg/+WT6fxCF
+Wsqs0zhoBAJywB1UHPEKHwSkRwY96LWKRi7yulXsQ5UOCV1WGELZcQTf+ZW3Somxcaw2wOd1yEGD
+MleK26QwEZ1EVdMUhAlFEs/3ocmQR5rmA7Vpsk0dVsCXuAZ+50VYTFo0DzquJ8A14lmdqujXaIHs
+ddPUJMuF/VdXbiVb/kMea+CMyPxJcmm7hsm+EJnxTcpUgDwdoiEPjaS0s1tZfjc40N9AM5WmXDwl
+ZjT9tDpD+WbQ0JJ3ij/LkhfaNs0JvKGCyE3qjNQ0lUT+qFit9RX3xuJVlhodwFJRBKpLPKR8iDtc
+fgMlTcrhNdfiDT15AJ/AcbOrGuJVv1PQfW9dfo/85MN5vp7noQAjQgH1T5NEwatKNQ1EbTVmEZ1Y
+tpijikyaQAr2C+4SgBvgACDwP/x8CjUPRNJMG960ygMIe/5PAbau4N6j+0ZyDCTf6QQ6abugbs27
+NtalkVCdKjq1vzh+qcskerL9xH6gbUjFZfD9WVoKXGPhWIYEtWWMNNL9icj2RtLAU0MFZem0BWQH
+B2KV/8sIKVXsG7uKNW8CC2GD82qna202MrQu5OWGieUqjXZaH1KWTUF0iJ2SWeb98u7UCSrdfNUU
+TVC7ftdT20O/Sb1p+ln7HiREMQeBywgHIp4le6suSWcQb67/GyD83URV1qpeX8v0yyMLVgErzYZ0
+9bYKUqefJ+kFAiLfeJyQRLeiWXkSo4lUSwXuUqU0RormDEmhQrxJcvuxTfxZd3ishyQNvqJwIGRV
++j5EYv7uR32nAAhf6syIwXVvWtyIyp0H6jDujAOFv+gKTjTcqBk9ZFMZSMBneVY7kzCVW+hi9Z1l
+BwCOTSUjsw80s8Usyi6HkUhPe15tJlq985gM/h6gqBYcU6WxH6U8REXDtunYfxH9QDeDdnjj+YT9
+BooFd/2VGmu25DQtXsptXku8RVva7jseq3kMDTEuikd1UoAFgBlrINH4Mv0uOHLdrhrDqfRqeVQ0
+15qhQLuj3HVvvRikYTd0tRLv7dBOOFOhbZBpAUCdgc8FQewplASjP2NAYWbXzZLSu1kBAZ7EbEqA
+XNiVGl2jP2Znt0MfWQ96lKSVJ/o5haZVgLG7h/JDU7uDp8BiVCL7oyS50uyncPZHbxopWe2DkMTY
+U1jF2psJ4uQWMV0qFjYtJYWqkOp/jSqTXKLC+kIC6NmThEyc1b9pPmKoHsH7+Fq0Ewoviw3ALYYI
+7QuYWY0mZNEYt5VO39kV81QCLbbKGC1GzVdA3hK5HIlGyp3iK0BeRiqpIPEGYNleCn/oT+GX0/ci
+VeJ7DVS6vAAGqR1TjTV5iBblf5bf8/ijrkutkOohGVes07BpzVT+ScY3tC5PlJwUtK+te6UUlXLw
+NWv+GUiDfAvFtJe/QCYTfwZdEUtxJgWeiZdQcEVhOJzpj8r5PeQCoYDhF11Imx2DAxcQECfKHGP5
+McT0IHELTeaD9bKsP3VNTVu56gzau4nc2FeTFLTDYeB7f5u5wcejRjXjKqZ68tiKnhoSGmfdDYAI
+bskC9Mkd2QHXRSo3Re/MDUWMgxVVNQUsFTbBN2qSKSlI0avgpfLEejSyAjAs101wX6UgiZ2eVf4B
+Qr2/Xx56QHHkFD6YJBXNAzxJ/3dSUkF2ezHywtBGKwUmgqXKqx1OHOagDCcTfFZKuSKLEdbdoYan
+/U4ptqEMq5bhU6jlLS9f2a5e0RkyUopsefo7UKoaFISfUFKCzZ2WYNLz8kkpQAAQZMFfaDqax07U
+YErucYqnn/ZkzD15vAALMlCq1UHhkDaCk9bSr1oEl8GlC2X80q3afOQOasS+8AP63Gzdeie3QU2K
+X5eidJfoPO3VmOLOLh5byti6NQOMDK3sfsGgTl44VuMtmUveGMeAjva0CzXFqpCWq6TbpufWPCZF
+Ia4saiKqYyEwzxO+GEvlvoEM+Kf25fnegC3aOgPAiu7YztTfHuCe+WibSmbB2oSaXuxw8WrNm7k1
+0vKZd4H0LNkURmkDlTL4fCMmy22HUnlN81mTyQF5Hv22g7iXHJ5fYBR9BdLUoaxAjf8wcQ21abnY
+uU6QEJTGwNkGFOEBAEXTd9ClPX4bNtSlvSjh8jhFN+FFe5lxvWgJvBc3wDwA6U/kGmREzqhCrsjd
+qTLpdgXwh4awpv6UusJ3uqTqDmYyjA+SlCL2KvkBn67tvDTplMPl4deE72V4vFqh41vI2NIFO+Va
+w2GtW2ArmQP1iudQCpS5O8qgBAXszvKeHoXtzLoWfKnHFFjw5cHXrmIYzDG6Kst0HYWx6Kecjo5P
+mKHTusudxOfK3dWKz0HKsAXcJbwqImBNVNECmNn0zyNeVHBEd0kO2oQkhoJ3ZbQvG79ozT1f/6KV
+xAqAZ7+qMz5HUGjEYVqYXhzYqkuq9FyRChN46IXXsNF2aTvo6HtZ0yHPqQCoQwA0fKLkAJ7E3lip
+tQTAv5+FieGiequID8pi1UiE7jSexHkWUG6FOxcA7EipRiZNYRTe5VVYa0Msoy0KH+aibgomZiWT
+Ug5ajs07SBDgwNYvLTIF8DjoUqSFoz7+wuhX3RDRObcNkdxTDH3Zg4q+kr4AINkUSUMfHjqg+mAA
+MyHNVcDitvJ4BXrOPpQ53O1CGJ+zf1gsDg2QxsayAxlfWe1Aq4CBCP6Fdh9CeFCuKP9G5fdM4y64
+ohJEa/vy0n6c6Ol4q/01GRLElLKEeJjLAy/aYbqdGPcLeAwBVrxqvcqqqq+2ngb7yyN/3NmMjPiM
+jqixiR/V8sveST41k14okcbOxiFJvg7AtnLxlsUntVr+rScmgWwbGBkUcU5HYehI2BUnWgxKe60v
+0DcrU65pyg/fTPDWG/vm47lAfZvwQfeYhiBf83Q4S7N9O5PYqXXLbdZSGnapOP6AXKMcLy/fxzOh
+obNh4kZOuwd932V53y0fVK66HiPuBr9SqysyGLhY0IcjF4AnrOSacu6G7frZEQVCTDDgoSas1QsV
+XthV1nHmy1AafvsThS67jZdKYh0mD6g1Whs6I+d2CNYJFkQIC/mntbr4gCOERueWaFx3vFfsuWxK
+rzSbPv9/bEUsiNCEVzSNr7ZaywgwORkFazlXZgXWubXBHI3Vxijn1g+5cgXwFC4oYOJPv9hggtNN
+QkZpQQgYUAvt+RiHar0bqbHSwacWdnmLnNuMtmyDHiAtI5qtTphR1HowWcsWUXr7ccgRBnHHIDCl
+XZeS1GxEkrVI0XLSbGHKrKKGasTapqSwu5QcGOZxrQTZW0RDD3xoAnRlLm+sJl8siaW2f748xTPh
+i4sBETKFWInTs3q6prNvzUIHJOqgKQCjUzH9QzNRbxVZvK9S36IKIbSDJgA8bkz3zNdEBJZuM5pM
+BBdtlaj0alSEVsVJb/zOelUhXsfcxUp/xKys2wfwo3eXp3rmNCwJGdYsQuFKWoeWZrBbMHYpvSzg
+oZ6OsuW+k8SWK/mZr2iqKLoZCipFSD+vpoVcTRDny5nz1UQZQb0nTXwQTaPIe6Vd3hJKAyUqVLrY
+3pjf2ZG5CKCwYRaIXvrpp/TB/Y8tbmA0S3r5BbZVQn0n8aP7CWeMX4R2sK4DTE5/I5CeOSUMJ5Nc
+oHUNvG35Xe8CaQ3j3YRgyrom5Xjd5HK/QwhWerQpoGwEtDNTRP1P4F/CSVncwk+HqlJZnQc9Y4pQ
+/zypBlk26jW824j+0WMJSvklUewtueIzE7QXaXjsg3QKKPLqk8KXRoK554xEfDtPrkEjwWzxD4EM
+SeHTe9QG8mFjsoHrDRqYpxOM4ZxTTmKCPnpAnt0CYxoqfUvu7eNJWAwXZDxWdQTfjLUioNxbmHhU
+2MBI6AfcJ0MCnC+M+41M7MwoizQefwieKOivomcHXSXLdZtetAlEtFRyHbBOaGzs+jOjYGeItDwS
+iqqM+Nnpio1y2I9k72AswIxk9zXaOoVX1FIbbmzzcwORUCJmL3PHsRNOB6KhpAU55VNnHhAmjTK1
+dsErbggOfwyK/xxFkcvCIZ7sZzUblXxlGHNqnEw3uSZ2RtMuaoB/lCOk/x0E63J6/eyWQ4sXr0YQ
+6vrirLIKGxGobsoHJMxClLzYQqvcl9M4epdHOTMx0yIsajJ3m8Ez73T1BuRbgzqpeInbFR3DNDRv
+8JJp9pbZhW45BlvePOfH4wWAjynp3VoUv1flzjQp64BAkBraf7iJ0lz1A4g2sRwXj91Yi9+Xp3hm
+gzBFXMy4ZJD8//DyRh4f0goLOYV5BHG3oLlQtPPn9zuSPNTFdLFEXXulM2w3BhR3OAdOl8r+gzXC
+d2riZNowr/yYFlCJ0rlJTK5KGPGrs+sbIWpTi3qmwNkOoDaiLJBmhm8g9u2DPVhQcJNgpIPXtNnh
+8jKe+XJkW8gF6lgVKpRSTndKH8lRVeFX4hSGFrzAANJfYOZpzT4tUO1wjARE0f7ykB+vFXwpWMql
+kcPlub6zw0HN7QETbccX+XzQAWX9TCUakjeSyuv8wYfAqzhFFVLOvTzwmS1joeppcQAtzt9aahbb
+S/JX5AadHrGqu1jXMqcpy+HTaSzTs5G9VOFbofi9ur+KcoTKb4H7slMrP0Br9NF4k3KTo5Cmmb6x
+Qc9tHa5mioHLioKZO/1+ncARC5gqz1JrjA5IewGtSyMJUXrfjG+RI5xudWp2B0Fu/fT55TRZRsxG
+LLaPvmytd5mIGVG6Dgwd8D9YpgcFyaddgaTixhP13AY1VZ7EpJA6L9VVyozkUykQnAeYbCSm04BX
++ClGRD2B31ZHaCLN8f8xK17S6Nzy6iFUn85qRk2lgCHI7tSKMvIguZcGKC80sjZ249mJ8chfkg/+
+ba2e+ghTgQpFoAEBFx8KAcbA9Euawh7TY5LpcvN1hvizVQg7M+jikcKzh8XkCl9dDLMKSrmcodlM
+GLbRooLBNQGDL5C1CbLMu7yUHzM5NgcPVJ1nKreCWMWWbEgg2aKqAyOqhVvkRvNYpS9Qv8xqhCA+
+DerWo+6fLcppOXhxTOFhZbGuZA+rrzdmdhgYdCYcm2OX7aK+lW+HEQExO2rzo2/ROVKiqjmEACOx
+AJToTjnBZNIPzJDI29i6Z+KNje4JIV0YxPZ1ehkOADMxhyqA1tTBDh9dEHwBQvGXV/n8nN8Ns3yG
+d+cwNtq0l33Mb/x5Hg2n7hZtLZwiNd3NhN3e61koXckD7TUrRbC2TOlEo1tuYcoTyxs2Vef2F1/8
+f74KRIbVaS3QkvNNjSkHQMddDbDqX1FXCYgwObjuG55olyd/bompfXOXcHMunm6nc9eMGWsKVBkd
+UxcVsmsQiMwpGzZmdW4jm/iIK2jjC77lMut3KwwwWEvHjncCCnrVqx8HtBErNXjDd3srFTg7Id5c
+i0A50F55tYCII4MPUEg4ajzEPb8GEEifJtxIOM6OAqeEwEPpg/h9OiFoTX6p4pqKS3AQWXtUirTO
+46UFAfry9zm3crj3cLVSd6f2sErja5J7C04rA0mtvJcApntm0ZuPJYThb/+fodB9tpfEGgvw0zll
+zdi0tsRHKse2vLf8NqTBaYHiBUw0xN//H4NhdkUFjhRbWb/CUbMJEYcm4e3pv+y7rsX3EoC417dp
+tr881LlvRYrGBYgaMzf8al5AmDSjyajcCKFnjyhZWHeG1VsbsWr5W9aBE41kc6kOcUOspZjztDem
+aGbf5Q2wSacDKnpFcByeQwpU+7KD7HN5Wud2BrU+EIqAlWhhra4/0cIZzww6Z8hp5W48w46rYzzC
+yOvDjY/1cW5USzQ2BRcflYz13AZNsdMGSPVCpq4PoV89FlZ9DVLOOMp11G9M7MxoFrLLuCdg+bKg
+zU734dAJCbNxuuv6IBnXQWZLTzg7wdxRuvkBhT5/I9/8uD8orCv45pBHqBBdV2c5kg3w+lIBp50W
++2upzBMlN3X4evlznR0Fk0OOMaUMWp6ns5Kk3hhnxJkAtCHAqvVBfQeCc8tS6czaLbkQfRYeB9Sc
+l//+LtBSrYccZQGrz/upf1AUf0FMQPq91rLB+KFWfvrfp6fFFqTIpCJWT4NnNS1hpHUUhDwJEBgj
+Wc/UP1FuftKimsIC7wGNsERA5/JYp5SqhNZEPvc87wqBiG6DdAzFZS13QWLAT5P5Zhun+ePXIq7r
+uG/ypiTFXPcDq76EgNPbwPnSqrsx59i/lbtBDJ+O7jAqZBPjcpPorlqr6G5lwH3AfyQIY7TFLkuy
+v/OCNKuNeMsF68OEDKHwAjdlnsgq5uWrQ4XQby11MjxEpZqi16yQyl3Shp8uzzMKT1PSicUrgQmd
+bj9woIC9TdSGa1i4lZPkFko4jVJ10x0g3BmkdWODoYMmz+FH6LLabJOdm+cSNniRE0FoOJ7+gpSX
+zsL3BbxUp0BlolqEN1qkZ5+9/7lOFostLmZuZkLj6TAy6vCdtpTxYIVZni2GvzkY4+Pls7Xk2idX
+ChXPxS1kaYXbyz+ng9RR3tRtY/zsoAiXhfRoRMdMNveFojoY3pDgwPnCrmFjT36oLiyjwjWirKsJ
+9IJW3xAoIWK9o/Fz7K7t0LrJ+p1a+G5qxN48v1ye4HooascyzQc8cqi4QoBeBY8IWYkZZCikYGMM
+7hA78d1uyPovEnLrO9mApkZlL9xdHnS9Q/4NSouflqZKirEu7cWIDulDMYYO8h3JI/SAdDdbk+Vd
+HmV9O/9vFIucV4jFV2913uhBB6gBM7UQltMApkRaSrGIKLnQyrfwEmcGW7xCoKHR8MYhYxX166LA
+pUxfwIihz1hDaX3lQuPGHFv/kxufeZ0Mtdr4uuH75lwxFNTEAQ5D5h/QVvlsyraMQuUHawzqakSS
+VVzsOiUEeI84I0FGPww0jem1zeb+8jf6uBNozkKCIE5RbaI+cnq+IBzMsW7ATfSjsuQV24QILKaf
+jbx0fk5GWZ1iHiRIAow8HtED9R1ks17lRHm9PJOPG4ByBMqseHMs3SZz9VXGVGrVYEZJDc8i448y
+IueQws9dZCXMLaekf1v3fVgiwWAwSgR0S+gvrQ3qBiQStKmni0UTHREZckYJrrbZ3NRSVt2BvS32
+rdF1R7RfVXeMYvUKkdx0IzZ++Ha8kbE8UQBvWQuFczXjrEJgPQvNFzuCAFChsuiORrKVTZ0dBIAH
+a0rHxpDXg6D6gopw8JpMVWbvRCX06xyrOvvwqa+3AGI0HkK0UBgI+5NVrOjSdLRDYxwcvPBCgMul
+9R3ZFBikWhxuvPFWM/rfUGS5OLXSwsbN8HTLC9+Mkpzk1jEyuN8NE/S6VFI+FyT+jULr599kcMBc
+AxHmokBFKg8h2oQqAmwQom+EPG817Nbovf8NQ3dh8d7juaqv1g3ZnJ7+mQSKvtfrYzxW0w0ict2d
+3gX6IeTBDLFr1OFhQt8aEjxU4El3wZWObIvLJ9066KtD+O/nGLQCliNIQvyhHmnlKgp6KEUU05g6
+jZakX0bUDPYR1LYNP+5/sLB3Z/DfWKDkVDYOvXty49PvqGkZys8T3zGM66cObg/KWeIw+8kRxeKj
+XtQ/u2j42Sm452j+t1zvXkY60BNZX9UmV8jSb9Uplli5+kFc5BYXur1Y5a7BQjAsIOVaKOTLSm2L
+vxnyr8l13tDlfEA6M0/2STRn6lck4aLfc4QY9QZY6cziLy62Mkgl8BJo750uiF/Paof6Z++ADEPC
+1ygKD/hw6VVhnHqXj+uZM3Qy1PJT3r2xKmVSw2nZdmFrSFcJG+KGZLT7/EllFJszCpBtuQtPR6lh
+tfp5yhnq5iDcq/Yo7UsVqan/x1x4Vim0AGlCGKt9ZGOykKK8xj4q4vgnpOjmTuol4+vlUc5tDpAe
+HAnqI/RuV1EHwEVQ9hmk6iRS4gOOraEJIUQJdoEWtDdyiaiD2pXltejj/vvnh+aOAlQG1uPjQYFZ
+nStDBrNQUJy7HRV9eMMWQbqC6a0/ZIjKoZxmGA/E/i1o4MdtAm6e9xZoJZJpQsLpB5QGWjtSHSPf
+YWnVbZzkxTG0m61uy8eltegA8ulkS+aBt67Xh3LVG3KZTQ6svK+yob/1mvXkz8Z1j4ALkq3t0dTq
+z8FaCD5UJFXEAiizqiB0V9ci9KOBZ3c+QTxFq+DFLtEFP5aKiAwXhdkyRLKxCWjCoNAZP1/+nMtO
+OQ0zlsK9BZ6B9guQmtXQgGfgkiUMbRngscXox7uiDKsdVkdwHdp6q/Kw/H0fx9NohQBJBru62rmT
+MvtaoCKH0wyoHahjFv9Ig8DfA7OO4Taa5REp4i37v4+xbGkHAlECVcrOWVfLQ6wG4UUjr4iekeQm
+ciF5idbY+xJ5rY1YdnYo3uxwQJEy5MY+3aTotM3YNaIxg3DgoHKByIm88+0oz/ZKPCvG57I2TGYs
+7moAFWzZpVe/urGlEeq0pUPA0EekO6QaeasywTftk5tkAaozBNETkCIvy9NJ2T54sxkJKnTyMqvZ
+TUMY515qhPofqGEWUmhlvGUz/GEdV0Ou1zGF/2dhaODC9Cw9RUv+xqbSelmV9huT+xBW/qHwgTiQ
+XdG3Nlb3QjhPoYwiElKiU9VdIVWSuVCD8o198XEU6hp04Wl0cqUi3X66hIiK9rFZQVK2k0bfVWE/
+I9hkzIfLH2p9ushdOFWcK3a5aiFEejoKxCwFyyeQLp3vy19Hu8czKeiuJmH2Dv5D49e+2GoPfRiS
+FePhsqC2F9D2+s2XKqYYRQOPImpqxRuRL9ddu2ilBwVhpXvbahe5uqndXZ7o8vnfhxGKYipp2gI7
+ZFCwlqcTTceh6+UEH6h2HzmdO+yKg7hVva3SxrqTSdA4HWd155AtdkaVMk7p/XzOPaw3nD/XD2+X
+J/PvPXJpNuJ0NqPRhBD/GEU9AChwsPLYKXeovHjYn7j6jtab86V2rlHPd6Yfl8dePz4/zHDZuO+S
+L57PqVYvjlrSUXMHFwy889u8Na8/e6+uV3I58O/GGdMcOYiccbRH/1DBqn8Gz3ztb+yL9e29HmV1
+vcDGj1Npmc28xxrERTfQzd1y4yx/eCetR1nOxLu5iKhWtHj5XrfV7lfiPv3VD2/P37aMM/95+17a
+FquwC445nZSIYaodsFMX+QHnGa3N+9k1vyPfebWxE5a9fGm4Vci1MawkfDDc4P5C89X5nTvX/7nf
+NhIO5UzAeH9014/zrMkbEyXQZVYIYLkUi1wsg1zLM7y3w2vjfUcqaOuDbYSLNf+ptURph8uYvcfD
+jgMW7X7Mzu/vd6Hz0HhvvAkctDY3Lpat77fG1gs0OtR0+X6T+2veywcMsXbNPryLrnwnPXTOxvdb
+7voL309dRZFEg0IJu3CZZOhm/NEcBD9dtNk2lnN9N6+2/xqyo0k4EYV0Lh0lR9m792FCFHV33Sfm
+1py29soqaFhm3Fj5ctAs/aXzjxFSyaWK11meoESy1XD+V2e7tICr4BFbkqqjN/a/BUzvsWnwzD0W
+cO73yIu8/+DcE4hl57+tWf7LPy8NvIonQ5BhJVAxsPimXjfPxV11LX75D5QbUd0u36an/Dq6Fw/6
+08aO2VreVYAJ2jEyimXHCPYMwgvsz/5Iluf6jumWu3wXeJZruVuQ7Q/FlvUGWkWaSc2TtFkOBg3I
+fXRUvKfMnZ2/vlOyvMVedTbv8XMBgIYgIP6FLAe/5jRiN4mV5fKyZfEg3imcD+HZZA6aa3/JXBz8
+HpsHBK0P9UG7sa82VvlcXH0/9mqVkZOZUhok5CresDOe0324H/aTl+ybK/W4VTM790npJ9C0AFRH
+U3z1IIjRqY6numycGvF3WYF8izqVNv3t8tqL58fLU1sHAtJ+6p4UO4QA5A9o4XRVjTZS/TDVZlcS
+rdgjj4SoslJHWKxN80bM0VbBjaFAdtLoh4JkmchinQ6VWqoxqj3GWT4k9S+FnefggUW6EUPXq7eM
+otHB4jWwkGXXdRUNk2rsIFE7aiHl3qM5aV7Xfdq48qRm93GZZd9hMikPn15FKjg8q0jaaYIay/55
+l00U6CTUTYlVI36T5Q5ZVmKq1maPqNWnW3txCWHvIw0T5A1H4QYgvg77anUOMOOpZ9uUJtfM+9x2
+kb5ovqP9hoRSrRcieUqVvkXvNTPLwaGy3UgO0ojZQxpP/rPe5m2BfkDf91dVZqiPoEkqLIbqqLSc
+UsY26fK6fEi+6bnSGzMUSk3gwuhdnS6MhodG3pomHpZK32M5IqXBRDREsjb0xgabV1Sg9X6M9xic
+9m81ncffQWMHlqfQHZz3cSmMLYL7Or9cfpJgf9DeQukVG6PTnySh0RRhEj+6OCwk6AwL1cGLInul
+8I8WwVD21vVUqly7UT9upLYfD5vgowFPox5MhV6sbieEXKVhgh3i1q31swK88b1Fe+gewc0tlOiZ
+kRYmjUEbnqoCWJ7TSQbN4nhnqzNqerEBlAKuk1dMMWKh9Kn+Xv7IH881JUxqXqgGwNWQ1y35wJTH
+rEDJyjVRwtm19Yi/UxVstE8+PHL4bJAqBZBMGshcAcuM3x2xgOaEiOeud30p9J0RQ1EnzgLhsKGy
+66ibi52Z+ulOlWPtlm5++lfPJmUjgn08evwGcDcLWwmY2brSNs39EBQVp8tCytnYBYUvfdMSGUyg
+3SKFc4V6MUoun17dJY5B8AHqo1CpP513poeZKFIfnv3/sXcmS5IbWZb9FQr3YGEeSipzYQBscvPZ
+PXzYQHwKxTyqYvqd/pT+sT4WZDJJVk8pLdKr2jHoYeFmMED16X333TM0BOAsdrGtKs/a/+u/BXPz
+uVmA54BB2T//FjGN9KaWfCTlBZwnQUiEDMPS/pevn61bfBADZY1e5Y/v+A/fYbFYhScxhoTZ1NaX
+pT0YUaYRPjMRHhpVak62/+qnOns2cFTSAeHOsf9yz5iLPpSgaImHXzNxzBttPSQgWf4Ph4T/vKD4
+psPIJh+Kltt/Mh0y9EtLb/GHEDxsHek68TclGe173Xe02K+ciWDYeRgPiTb8Zsn6t4/538VXc/Pr
+sj/8/T/480dD1tPZNvaXP/79Mvvo+e6/y/84v+z3v/bnF/39evzqpeq/frp8a4eftqr+fJNZU//1
+NX/6J/hNv72T6E2+/ekPcS0zudyqr365+xpUKX/8Ot7z+W/+3/7wp68f/8rD0n797ee3z4qrkw2y
+zz7kz7/96PD5t5/p4J+PJ//2x9/w24+v3ipeeZc1P+1gU3x+/fTZ/HTV9JIF7Nd/+g+v/3ob5N9+
+1izrFw7d54UfzdXBZ8a3OX39+iP/F5yOrF9YVn/8BEWq5l9Lzy/75Two4tOtYXtn+zg/IDxvP37m
+/hIwD4e7ix2ZIUnLtX7+x3v90zf4z2/0p1pVN00GxOxvP5+roD9s7/hW/2hwQmr885P4/8ng9Jfa
+7P/F4ESh8pePyPKNTMt0Gheaq/bXSt4cGYykxceQRNMsGul6RabHXm3kWjwGSXvRTZWzI0+06mJd
+kZoaDsxbZ2E6zA0hU4VIg2uQlUCI4G9l5KqdU9TygZjLVQjC+fJhTp5aHMBGqNVOSlrNaJXIYrMs
+ytCFZgZIkIRPb2dWyu833mKVMnY0vOv0FZfkSXoJjZOiB5WdlxKkpyGm6oVD1qgOfq27zxZ8kTRs
+6r5L974wm+9k9Ikqmvp+AjBOaEgXmi0JUkzNZsOta4m+jmqbDYLmRW082A3lB0kO3awRRijmlfRQ
+IBbRCGgeIJm/1gBQDJVpUV+69kudDAsxO52jxxhHqsgnVNcF+6RXV5pZV3ZIPCS0AiB+1hJBBaa7
+31fG0sY2JHoAvKLrxMUyjp6x0a3czgkWthfnOBWWc6HnMDAI9kVcCYNRmFeZg4dp0+TWFcHDAHGM
+ar2zW/E8CA3YgjfkPagMQqaHyHKLippRI0QbX2Ex+Zuh7xNAPYkEkaxNg1VCW10XQh4kuYQxvlsB
+rcBfzs5vMELDjo5ApoeGGi3njBlT8m7F/LnTR60BJ5qW3uecEUq6q/VFKlY02sLbPiem6sKy1QQZ
+svOaGbqt3zyTWJ5/dYM7z5sEUpMbm2rsCVyuq6Bh1AE4MNH81XgZBOSDArDTgoNsocJFwZyl8MYY
++SyupQ8RNqydQVeAreoKQQk4AoFVHSl3u8pc2y5C/6/zo4bRQMTk62dY9HHjZeR1jlOuQpK80o8J
+fkUS5lJvky0yWuFvUrfKuYRLUOxRWSBOBdxiL90I8DAyMxererDI6o0YLqKsZvJErhoi9B/qsp2C
+XWZN5jFo/ZVrPvr6FKZGln+vFqG3G9+E6HQEhZ6vZw/1rGLlJdbB7nzS5rBJDOmOg4F8SBu7cLZe
+N6qLoKqJ9uCqkR8kKMRP0qUajwj9b8udFKsklesMlu3IDXzDcT6SGVq6K+yI1NMI71vkHfMd4ltD
+n+CD0Gp1khDGCdrnRsuiVTLpHIq09t6Vo2axMV1SU4GH8wEjo5xSQHG9SWYY/OuKvx4Q/B8C1aJs
+ysuKseJAStPZzUOlgzAY+ul2lYW8KwXB+5uilMRdmXPxrRud9ElzJLxbjyNXRJTN/DGC3foY2sq8
+KQtyRjagIZS5GXVi3DceVgx/05eM1uTdj9w/GJYMcUhB1GSfLoFDiGU/oxSlnm0dAGdglM2JjCfx
+Lhjn5wZrHuS6Ipdb4gjNmy4bybrwMzU428QSWRmZrpJfqh/Gm3XCWrCVmgq+vKBRAGQcu7h3VuCT
+m7EpikcisntyHMCiv8w5iQuQqUflxgECp6SBChz1TOodHjOzngDFGLnuhnPJ8xpajEN7cUPCrhOO
+jrV8z0BfPa/s1ZcO4ftMLK0AkDaTcKwbvWzg6uRz9USWNIHUpKZ2c9h59N9Cm3rFinRVnek9zJa+
+u3ZNVc38yXTRJTZDe1njtUk8WHnWAyfJyI8FM83sbqr5NpAj2vdrmHle8euB8b8Kmj8WJBgfOLT/
+rwuayzd5rmiaYWjOFc29Kv9Uz/z68t/qGUf/JWBS/TzrwsHkbJb7vZ5x/F8wr5yju5gSBKF4/qX/
+qGcMj5/h16a/TQiPjmLyz3rGtH/hxMiBA6UN5xJNz3+lnmGg6C+SDOlFLp1M3IJn3QLfzl+OvUD2
+MpEgALCf5c4EkUe3HkFjeYp++oz8TECy+hqnbnnOlQ4A7mwa2wSqMw6tyWG5oTS4J75mjkzRL3ue
+iQttsdsnwyvVh+j94obof3klFUguxurHw0DfHkZnk463qW2B8c1THo01yNIIkCUZoVkyGq+L7Y7Q
+RpmI5yGsn+agTrdAcOejXxRMu8B8AiyDVcvrMlvfwXsoH22zGAixzpeBqOehd7e6J6gyAjV4T2Yt
++zysvVWegG0ULxShAcHMVb7us7RrPrGJ8b671nvJNOlFzKrcNTidUpbien44D/88DjBLr6DZ18fG
+1awQlx8MGHLctQti5Zm7yAaSo6NkEG44gUx+L4TydzhDtAu3WOxreGz5ZVNWFjm6Vq4OYjUYk7Ul
+LOLnoVPAfMfACnUiBMOpPgMYyXWzXmySsq5tAoYfqmE0H5XmBhAjJdn/ejKnVjTloHdDf1rFpyop
+sggxBSljy9RaYx1vJmCd0oQ1F1ggAqCMtxyLq/kBvqf4bIrzB6T6VdWOPKjufpJ+uZvseX6fMhhR
+W8BzZ9BnYK8X00QiKOGyVEQHPt05mxdvNxndjEhGrHiAmckRJ37bLO4rSwZ57GeG+EwsSKrE2i/5
+Eg8tuda4GBO42gBWpyOhkxbGm9R6ERmoD38SSxOeZ/lvGJdhRGEUuUaKYTlEtq6CC6I6gXiYOh7r
+hQnxp8VhqiAnDw7VZE6mGxkIgnHKfMyOi+20IsQfM0QEyza34BPdD/I8PaIQ7Q7EFMx1OVQfmVZe
+kyKxLJHvN8aeAVZchsLWq4NBbXztl1b6TZ2ZNQ1B0I8Leh3TfnA0w2XtDS90tKRV7FIqOSRtYl31
+htOcXKjdt3gc00Ntzl+anVBXllP+NPsqj0kCaUPdqoKXtrPdx2QybLiEldU9DkW6xl2ilU/ZRM7r
+gQKAb4gobjeebaM+uWanvQbzEmh7ncT6PhxkTdC0Xq9V3Ajbv2xqblS9cKhG2SjytylVMB4aZ+Lb
+HJkrj2xLqWerVuN1mpWIfcIG2BgqporSuDAyuGA4VpdQQA6+JkkEUEXptm0Z55Xli6PutEW3kYOd
+51uv8HP61/bo7zA15TNblTHMF5i6wKwKXfreYXKdNWYCqt+CUNQ20xzMO4MNdL4EO1jP91MuyeXm
+lkjDQEunG8LNJG8xd0xs0VWtjjDwzDivaTej1eaUcyVctUC1rv3Wr3PZRD3dxronjtWeb9vKsj+J
+n+w3AGvWIGK4wXhkmNbf5dVU7uDakmta+KHGkYS/ggkszhllu/cIifQISPeyin9P+OaDrsbllmiK
+NmZu4LszeW761GSVSi9aMFVeyN2XiBsyfyojpkK0XhuQ8TwMcwK6g8lTf8e2wXM5FK0j7qba5xn3
+OWeQlmo21ksz+awURe1lcyRMHtMthFnwUcnsn1mKYwbdSx8L8enPTu3vHcaq/O3qjLkZFUWhFduM
+FzUHMnmGcg900T1Uvl6dZOPHzHm/aFDJYsKhk4/REwMqtz4c3Ky51eXqw4VKn7MSMoZgQCU3HFr4
+uf3RSJZ4mKb1Z0oq4EZZSXbpYK28msZq72qwS0e5fJOp/7hoaPXKu1qy4Uhpcun75QkizKcvunvN
+yE+N1d/C7UghG1L4WzOTlrPW3JbSIlfbtG87dOS+XZ8SYX0Uasg5ExEsJ+ZbrrS3NSmpw8xwq4dh
+tJ2nThNzyPcELTFtG+JC1yXKA24ZX1f3vlVtJ46wUEiKD28OLsC4uXCWqljz7Bd3Ce6kKyK2ljt3
+MB693uw2ujnsG12/bp3lIjH061Ird31bP0MLusxSjh5T/i508+QGajv7vGOGNo3Ym/WtTJY7zrkX
+nqNyfiSvGTCIADyfSiZybnoz2CarDwuHDakDQbExC+sdHviuxbF8zNolZzPRudY4zHgCqNeJJj5p
+AddRsz8g/TzXXRENwr83JIkQgflA5VmGlACEvVtZG5GoeQBI+wIeEyzudM4RgpAyb6gtlzcgV9mW
+fSemOA4gDmYmxXRj9B/e4BkHHaJqyFAFcBjTzy6GIGhJlQk+m7XR96QMfyPchg2hZ9DY7k3Oqg3d
+4HggR/mUBuDYnHK9A9M3bYV+3vBI+40Z7eYurtkE/bKCN4Nt3ifePQsgZXT+TgHdvEt8uTxZU67v
+darqXSWHIsEWUEPXGmabA4yf3qQ8w1tHiOA5re3+wLGL1Fjf+C4UZjTGD9cnIX2xHb3s013tdtsP
+lblvJRzu0GgTOFApEXqto5IvELBEW2T4rzJ99K7KdtTQJYRbR8Dz5jiDGLIhvXDcSpGcSt9RB4Ac
+UKj14h1H30Hz529a1mdbLxApQ65Zfzv35W3Nery3u/y7ps48J7u1iFMdoCtkdSg55W6rs8tsFAWR
+8AgNNoAOE+/BErzODUyRoh1nonCb+kBHQYVtJY13kSsvBOh2ssbqQusBTreGc59gED1Uunwd2pTK
+vybZju28NG7k7ErCLJxdMMo7kXZb0+E8Pqb2cCUT+I0l+Zk0DfpD1nJkzXvzDtACNCeW8AK2Bmeq
+TI+AunOopYojsGvet1aSb3nCaUSTUnUc3PYESvJKy+S3osw+dWtk+Xdmb9/64l4v2gdc43E1wvAz
+uzxAp+V7nja6HL5pxWAeWTrcnYkDY2MtxYfw7Pd27IuwCtpnT2k7n4+3SSedRaUzWPbt+Q4OTnIz
+G5PcVZ3jbqw8aVCJ6HkNU/1ZMXaDg5wXKcNWp2Zax7gp5XdhlLtKFeoe+3WAWX/yKMrUq+sK++CW
+zfq1VIYT9b5Kodb2/DYwaTjdVwDK2VQf2KbeaWG9UxKVS1ys8tICaBIboG33qFjdtUhT42rw03k/
+twqHmyLVfVOQF0Sm/Ozu6FN9I6lbR4Fp1CvRZN69pn/KwKtiOCjLQa/bU5Lar3MtafIPaxDmkLIu
+R2qlsG4ye+P4ihTgidVEh6hBWtyLpRVXdi/W26IB2DAE2bGbMhxwtA/iDu0z4iOsoSiHq8b39ywx
+2QYiz72ZzNfJCubOczqS7QVKAjHfMTORsXBTGIlSXwnlHe6bJD1wcnAeS8AJuqX2mCGxqlR+SMkW
+FaI61gu2a4ggKAcXLND4WTzQOJZgpcwNq9E3C+zL7SJBV0ryHC3iODYd2YQRw6M4mZP5WZsHwmRG
+wqcBJKqD61uQAgJ5US2rwTk38Q7FPFxbA6R57nBQtefp3XG3+M1OM9aXwRusTZAW8kt2jhG7OsrV
+WsoX35zKW0/mX1yrq4AbNDftU5t1xdaXHuoLw4LzDFqSdmaeh2XTfgUQgYJebatsuch181tbI5G5
+CwSAQquxWiXsqH76bKb9Z2VOxTaAc4iAtITzYPF+LChsdellx9YMXqHczjtIECd4nAEpoeOX3yqQ
+Gkzj8QzbtCIl09yVUzxk5QAcylLGxlmp8Iw8IUF37dj3c3jR9mdSrc8Mz8cJyLxH0y3j1OvitPfQ
+ACrP3K7VXO60suD2B6awFY7a5XV6sFbHvZ7bObmYV+s8ASSAFOk1WKZOJ128tTC2muqSIkhcuCID
+PnQWcVbIZZGeDfvCRUsh9elbJRwC9Jq0jVTtWBvX1p7KpnN2WZ0imLl6EXLpzZ3T6UFYTtSwkOOC
+q74Meo5o51V9dJvYBpITJeRQhP2i+hj5xj1VHIf2itz+0zKsLm+rJec7LdUealESGhKItF24jPXM
+aC6J2xlHPWV7mzm8HCoTJtCSTAcDA8AFehK3Y7GI50VODRNH4whdwo7RDncmtE+SguFlGCVG7yZL
+rqoMtqg9e35Y+o0Xra6pbsk/54/VCnNONFnISHyx1aiH9t7afOPerbZgEtwrqx7Yb0Yjv2DBK3eZ
+nT9DfyPebernTQUCjjJa89jj6+FcVM+hri9NDJy2vcmy3o06LYv00tbf5jPLXod5BvFI7YTJSs35
+Vu0WCQOLSxa3XfEFsvPKRsfc1kv7xBJsbD3T1ra50zpbIhyTI4yIcrv2fJ++NNq4KdJ+M8DAgudy
+rp2S+Ran0mltLCS2YT3PUUsHVCyJVEh1wBYJOSIIK0tvy1EWJ90cAyp7RnsSQUMco8FRtDANBMG2
+IVRd70Mx3b6BMn3lGCzv7Qxc3MM0t1XcmMBCyKUtYWYCWYNnJLNqb5vt9agt9P2WWvcid+bB7sHF
+RctZpsp7B1mc49rV2vIR3EoHNKsPj3qflnsB6ikcde3DYvM5KkS9eG4mD9pDbeKaX8BvJlq+m8hm
+v5iV6zyT7nrXs9Hv4FEZWwY04e454wVjKCiWff9qZVQsKUBmPHDtc9s0+U6hgz+mXmYSPFalG5B0
++m4dxXRhBcvLavZbm1SrsE/T5Y4KZ/1iXJbbCDr1FhKZuuRBurLEUESw+bxtlq8zMUlzyUY6aEfo
+7AJZc/iYZqM8khXyrV5szGp5pYP+7PxvDqCIsOyAS2a9E2HoT19kITh0gvpDXLVpnfrem7Okr20N
+6SrtgrDD946MMn2l6IcbN++NEF7by0oLgI13BXbqLXZkmgDvgc+rG+ms/W4t13bvEfQf0004Nw+I
+jGwCF5xBDu128ACAIRbwjNTrrVPOr4ViE5Zzp6LcwiLo9ez3dbLEfb4m+3q2+2uvd1A6jYatXzdO
+AMfMePaktwEQlcSKRzEDFLb1ZvRLmSqIwF1W3Y650+2awk0J9O/a7wS/G2GfjMG2k8zxIfV/znOL
+8Kucl2Qy7Vdc5O+dC5qiN92tVaf2h2mP2lNRoeyiesp5gyJ9nDI4Rm3XEvORMCWdSdeIvCxrY75t
+iIp1wv8zOEg2ul1cgwgmMyMZNEr4AuU1CYKTBx/+jRMrIyB+JW6LbkImFa25wQE9Uzw1Q9T2HVUV
+6htiUpCePKGMW0/X3rLAu3C6wrnz/OEw83G3o+VXO7fMX3yoFgDkk+U+sNm13X4aIiJI2eRyxBln
+tt8TubKRl/UYBznz0LhFVKiK+W7tYd1yzEKVGsyrYJLU6UzsbxZvHnmImpPm5RR1rCeGKGvqI/0B
+Ze9Ut33wXInu2pQpcegFJ8YYwrABf6td48rOi/Q3NmMpRmSDqUz1LchXcTc4ub9iDup+ZzP6aZfs
+RZUH7309J5w5+7bP9aj/A6WxbR12eIjnsa0nVugFfB3r1KHh/AptBI3iDlosqsAaPnTLrccLP5ec
++dG0hR0NvjYyCNDqsNh7gcn8f0J0bFxjvjIy0tbijhTINhIa/fVNO3kz1p21y6AMp0MiH5UVDGbk
+5uMuXYauiqzecVmQMTcA0MXuNN2Iqs9g5rCPX/wKb4Q/7Xux7XawbtD47RGTSRVsG3pLfbQIVSD1
+zK3LSpvJPji1EIbSSFVp0Ee1Wc5baJYlmJCA6TaCSwr0FFpR5yBn2Z6a3M04uvLB4vkHpbForFEL
+dZqZtIHyriGzwtKxRPGvgqutggXO8RkzBQsQCF2izELugmXQm9M8pmb+aCWdBudPTtleK9BmvJW5
+VtbvVpWRZL/MD0GZoPZRmecPujs6H500ZhUWNkpYXI8cq+EiZYEds0ICj60NA6PqmBwmQyxPFQ1y
+HsR5QU5j4G0EuUSWt7ebrMqnFYkGQPxekLO0e0raHo9U3V7r9VI+jK4p8p1D+lKzD5BamEXwm9I9
+IIhlsBSnyPYLY5e2ZeIeCxxhOj1Fp3DjsQa4Ct3aYV6/bwHHAJiapwxa2BI33ThU7GXrhQlDyiWc
+UVf+0WuUvu8BxH0YbrOIk9G2yyuzzUG961N9OQ6ZjezBHa12jt99+E5+aNcixA4FU42e5UxDLLHc
+nS6re1Orj9pI5Fbu3ILC+Zam2Wc/pfseThvF1Elf/GOegQTvB7Y6oy53Xj6+Nk2FiW6K1Fy+uc3w
+5NfuE6v5veWwoWlrY4SWs54btQw+A8AMGRAGAUsu8AiWcGxekQvvHFCypG9vffWBMeIVDNEH3sVj
+LwPn4PQ+zFtttppT2Rp9d1iattuMjB3lftulN3LqA/1i6oagfXBIwmtIuQ71ZribPUUVLsfyGasb
+d4VQGlnp3J1Fdw7xo6HlRmwPmTOEk0wd9xYqVsaQvXJFCCLC9Ldto7T2AWake9Np3GBRzTVOD2a/
+8ppqkpMFtXqt80cC/N+rXCz3uZfK76NKAu/otDkF8DRohF73afeEXDJ9tPbwO94RGY806YnPne6n
+sShTbq+m0PfBmeEYTiseiEhKa34C7Fp4MYBvu4ggu68n4FYcpIGgzuZxCRYt33dElE/RbJBpBw5l
+Tcedp9UxNe9xWFmHN9STpN2QIqTO0Eik3+2CHo6NF5btmwmn2+dbsmgP0CWvxKWWGjpoJXfhXNqP
+gfK2dqLrn3mBfZZwFMNIH2VeFgfF2qqdjMrAxdCxpxW7Hw2f/+qD/bEPdk6z/d/1we7/+39rfrp5
+U2Xzp/7Xry/7rf9l2zSyzr0ULF4YO/GV/LP/Zf1CZwuXHo42EwPqeQ749/5X8Au2IssizJNoJvpm
+9KT+4ecxnV/O8/KkizJQSLogA67/gp+HRttf7C5YIvG64DSyzmkkgfcXbw0abuGqLEijGiOuH/Yu
+VLd4mk33q1iU/8jDVLyCOBqm0MkbMm+HtQBJZiF4h56fTx9+Piv7gmZFwSigVojL2hvS16IFEbgZ
+zSC59NGV9V2BRgCr0mapfaW5VqhoGpT7zU7XabzNLaMMjopcivJGgCXVTx1QbhUVVZGwyxDe90qY
+RHGNLQctzGjHov3WmWVaUFu3k6Hep7LUL/RJqgutUm2+ccwUZwyf67ygaRg0NquyFpZp1KnXrDdT
+PZRmML7ouY6gVQIdZcOhLr8ZzcnlpNHL/NOlXSNOYxvgetDNPNDiCQMEaHgkmNe87iaoJ4vo7VMV
+dGTnrmIeJdqetzy74zzJTRmkibdpZDIydABUoKPcgJCE/YCRE4DWlfUl2n45+U1OForh5ehShCJQ
+wo14G2Vcr80ZTD7kmo+rIEVoI1GqaENNJMOKF8hUp6wQZL0CCgG92s2GtknocrL5sdktoQ5y9KMu
+AnUvhzz7LpWajjJz86fCtvBpGK0rNdiPun1F2Gd/iR94uB0cxHEUJNO8kKrLhoil9yyd+LIIQuCE
+0xm4aRgviZm7V6K2+nLjEV72hbgr882UZa6P3I9qHy0t4d7hHFTBw0QrJ9jRXApulqFsBXVi6XN0
+MQM0l6zSMRRlcA7bLaFOxofe5kioy9QoNllPXPVDzWXk9EQvxWeFFxvohkZ5yX2NVbMqcNJAt/PB
+CgqLthh9t7Z6LaBqJRukm3XbM43fQaQP2IpV3yS7oEibD56r6n0MJKjfVjPluOnspfyWdQnaT9CY
+AHAN2pPhiGHkrZBredlioZzDys2Sb0nV5hB561nw9Wh9dbMCGXEjKE0Dhsou5ajl40bYNI2fwcvL
+cj6gXs3U+jjPgu+eP80U4q7FRGSu68/9ipBRKtBRYYajo9rm7HI0Ijq+fSDdHJG0yWirvaOtWDQs
+SH5smtTwOIwTaFM8Unr/MJgKbGIH9j0UXlajDaPdw66TjkV+Vd6WNjQ7vySkdrXZohvEQ7CP2uzf
+LoA5S1qCiXaaXCOFnZcW6DtKyxVDV5pWxdjWBkDwGJx1xLN1voOE6T9oVqq+E6LaYndWhXMqTItD
+YN1nqIeNnLz+fOh2P0Zjpo7vxOS9+n09MGFaWzOkID1o74XX5N8MrS7Ig5l1jg1Br6Mu5Gqtn0DW
+D+m2MkqZ015TUwq7LffQmQNtCOJkXpaTkEE9bexmnR5Hzc4r7qKShkGnr8a4w7c0rXQdAqMIE6iJ
+gsZcjnso8WlhM9ull0HYQjs8cmn1qLEncanTV7hGey3uEmPnO1d2o5w5aobEupOul5Zn1YVb0Ugd
+cAk42/NtPZEWOhaKusXHmryy1iS2HeMoG149CMfe0YOheAu5EBl/oj8dpXm2UFUCreDVQgB6NGth
+fG/BjciIfDothinmDvDJySvYVJ3sbsbMdZqNJB0opY9htwetbyaH4+BcDFsxlvPDMIm8AuKZeM96
+hkB7MbBoTWFvieClXgF7A62F3BkP+sR5BpPA+CBYDiERB3h1NiI597PtFFDPRqd8gEladOXdVAy0
+x7mRnXGr+VZ629GTPU7ExhAyTfRsHbf2OplRWbnVKWngkx+SEl/rht5mSapMK4IrivBuYdrDMB5S
+3GcoPWVdpHFjSOt+IuAfo2G/eHDUgzLfmE2+3InArb5mt2UZM9Je20mZrDHitDwW0xkR3wA+R/cb
+/DKIZ6caYjtr6QbVggPOZtJGNcWYzuz36Ue7sjK1oqevODfFeTNyvI1QOiA+uxjqo6Uho1zrWcl9
+DSou6y+gVyOwWn3fuKEYK+FF3rwGuKahZ+YbbNp2ExqrFAe3OY+kTEQHfCE4CPdCDHmD4lcO0KEl
+TiTz7DNI5AnXPJTCgn7DC+2JdY7HefHQdNretMB000tnmbC1VwRDHXq9Hkz4LT0HULboluk+q9wx
+3dVTrT+gpWU+2V36EuxLWKpNOI2EjMde1oLMnoy0LEk4V/m4qTGUdPgzbFpeDgrPptEC+NWoPioI
+bSsxX3S/0bq9Y/fAUqy6s8VB96rFCic3mR58cYbT2vRPz5His2tvRms0wQb6I9ffy+yBJAOaBO9r
+gd7ECUpxm+iVsh9BH2KlEIiy72Ko3Wo/ZM68ch6SLFa2n3OXNQIl68FOFkKeLVZGtbFGDpK+JZSL
+1tYFr5NXzM1W2UExRb7pJfoOkLVMUKGG4GSR7k/OP5thEdd60g7bmVgnWk3JihUSnCkePfaFJdtD
+wk5ZrvTl3Gm2OH6F/sBb9J1afAoVILlO+EzZn7WFt++vxZLtCnNhzxrU2dHaND2PQzH1vPXGbPnv
+xA+QfM/NUVJTg3QUqLPOvJwKrwDWPSptuCeIhzlDUEUdBkuIptvGtArU9mIEVGBr7fRVOF59FWRV
+t8bWUM93JiulHXYyT8xdkFr+sF/zHxaNpra6/dRNuX8t1hpxdVowgCLQtvQ0iiXlyqdd6Wv7cRp7
+DlaGGIJjRhssPRiT1jABPCU64m3ns4EQGIbC0k29jjEPo/twUL3GhQTSgwI/YSCOE2UY35N2mrvQ
+RTdFR1jHWuzzLKO55AhtGenuCb2JOw5bT0M6G2S8a7V20gdL18LBWikAvB8WlnrOCs7ywJqfGky3
+yUHIgntpYfQOg/TI6BGBmJIhERuE+rsPCbfbiZy09MMEWlhQ0NR2eqVb6NMXAlazfUR55TYmYQXZ
+ZwiGrMT0Z5n9s9O46BEIQQ9Telb1m2FSya5ARzlYxY830fAoHZpSz3hQSJh0uTuylv71MHtWtKzN
+GuzbTjftCyvTjMea5khx5A5ER2mVWoDMtYlvov3b7ivpaflnoWSNl3qqim5HPxPCcE1Hy9oKrbRe
+/Hmmv22VOd7n2arPu5de7Wqp8RFqrS7vmJtLgrhHSJs3OPsR+RIl26fEz2jSrnhFCQUCravFDb/B
+Dm0d+200QDi910zNfBEYUd8RY8+3tL2wfvdMT4lo1R0+mNZxltz0dccTl6eQV7n5DW7keta5wfFx
+8/e12eFO8jACsJmpqbsv8DT3YZ1jdNistWE/cl2nr6kosU/Z0EiOzVR5coOulT+Xw0r9kNE0IQ4D
+tqiELOpbT3mm5+4Gui5LWTJkKDBZ1ghnA+vAPvgMXSH4VutqbiTJRHmYjB4F5YjF9M7jyMQiyqmc
+CtVqPoPOF0usSWnf+XrfefhEOOf/D+rOKzluJN3CW+kNgIGEx8tETKGqSEn0pESJL4iiEbxJeGA3
+s4B+uzvQxu4Hmh4WKTtUTPTwoSNaLAKoRNrzH7OAGTF8LuxktJc++SXS812p1N5oB+mtrs0Z8xw4
+KnUdg4Nel1XXZESsNjJapWS9LdOU4PAVYFUGYXqq689Y7ioFXsRpeuFaQ4x/uetUB9IYYpMwb2s6
+DuLe+jBNJGcvJILMGufWXryXoarJPd44VbAxN5r12OMVtVKUqo2WFezXT74zTr5nSwE3DbZft7Bo
+23YViYbU6sJWqnfM9mXm+WEdnCuRbTUng3RIR9HHNieJEhcUfd00QIGgKHF+pTtKCnLb1ZczLvhp
+qjvF9GLFVSm7uH2EHz+pPC1NqYBx2XkUDktSrOHBy751yEEQJU8yCXYG0nfmjYZpNhM6d8fYUOGl
+psDQ9G+ojLqJ1xOXfEJtUt8P4B9DhUqpiuyyd5I6e6ggiddNCB6911POO6i6sAU4TtTmxtbTwl31
+QWIYBPloqsIGAv2q18W9MJmVg/ZSgbIDkbEfNcAqOWE1ZRQQk5Ji7hPE35j5Sh9axWQXqQ/jGt6i
+NFYtSoB3tnRqfwEPsr+OByEO6lQJlXVjTzonkqqvAuSQrJeLSu0ra5XAMrmcCeG5Z/RGewpCVjj3
+uMeWnump+kWgo9mSv3CogLNqzDI0E5sw95lkCxQuMcMIdeg0SZUxnBcoCPrOSQ70NIkvw3aSF7jS
+pDeUVXUozKh8Mg+QT889GWcKG7EGxI6WZ45YRlVlXD1BIB7kOk8f8CvPR+QhIkBsWJEKOc+4rPpo
+SGS2brDs/TCAdK2jCYAL9gNJ2XN7EoNmIM3L0RD42vwYz27TxlnqK04XIlAYnewdUHVsL3WzQxUO
+aJyoHn6SWT+fubsrSATm+2LQQnBGyo7nhdn0G2y4iKH8/nefb/pUmnT3UIQcwfDFUBUxFL9/It9T
+5sBMwsijpVVdZ34bT1RBynGvMSIiV6fsV1v6zpNIA4SZQ16xHd++G9OMbSgEAHumbII9lWxVFtIf
+GlQ+E+8ZjHkm+VmRxCJCbsCzu7RpZHVZwYACFw+oHjPcjmI5uCuFAEQWZDCILC/zta5NwfH3m/O5
+WcXdvfEXBFNxNTTBxjO3DzcuVD+B/Ign15B/zKSvT4zxASzSmWkmZRAlGswXzvKe3kVzbbUMcrHq
+awu1UO/DzdhFIjIGZ2U/iX1pjtN12STWjaITmO0ZvskBR/STf1FbLfy+7z/9PBC3OgMNxxAl8AU9
+J6DXs86AIVuq+YimPDKTOF33k8OiwDnXbKfq129F2g8gHYAdDgXPrZzLVA2rhFwlJvYuXPkyn5aD
+3sAzcWX1g4E3v+5n34py7Ywmzilb8Oq3O12cwCgY2p5vRa3lXejn5S7ch8zTFDs4bXBpBGRuYy/O
+Bn2/180fxXy9GGECzfYs9SVRjC5pA48+HWE4VqN/yUON/Wrg7CpTozE7Qyv3occBoBTqD9wfXsxm
+s+0DulW8H7DjtO6Mfp6MaBRDxEX5hs9ylBh7yVx5lBG8pO93lZffavsuz7oK1HBXkYnue6Wi2hxn
+rMJL592tCN2TDvXXD6apO1Oe7ZdIeMCsZMb5G5TneX64matZGTkQNJtRjw4pX5sn5Viw47VzRQM/
+S0qhDVfC8hN/L0yE2GW6dbNlIoEMgWen+oL1koMCh5IUe/khh2rS1q1W7I1GYcPFaUqt8eixiA1l
+1YjzYZjqczWy/MsIBemPzOe/9pKAoVVsAGFRkg2z3SnCUgHQ4Zzt6U5hfQqT6CM+Mw/Cm28uvC9v
+YsyWwVilq6pFIswMYj/pCWkxpqGFeac3pnr6yVULANQhL+9dMn+prHFU3uZnTXV72yBFfq4/3lIw
+/29rlpkwvy3x2dYsP1f4UJrgrx8rHO4OGBoOsQ7GgDrxA/zqQbFs2jsYPLizFwHOhzi5MPIeKxya
+vYPuhr/DIgRPRAIt/13hQASNeS7KH9W2ZjNdlEG/UOHgVnSOrQFHXhFemSjjMJ3AFvTZAOeXSYvv
+ilw1OraxMiiP9LafipAqKBzp9Bi2ch0kHHuNmsOEFWVT6i5Gp6pBYVQnQyPpNbAtqjPNzZ1sYXVw
+uxdTYQbVpq0rpTqe/Fql/p61GEGGqynTx3ATJVjNGG/61CnhGYO8gZqYHXXOAxUIxUz3QOfT3liI
+tIJmsrAV9vE3eRYrlPxMjdTcbtHZZu5f9nC/Z9hqaCoqHL4ASSn12lnKHIEccWNBwn/zPLcPTDye
+Dg0cgaulnQfI4Ij47ddDLGEf15XLFSO3qfaduI1QoOjheIwap/88ZSR8eHrjRBdJUdjOYiKNRiyo
+Bbsw1BABvYWs1fjLpLaDo5GdV7xIYte6VvEGlessZktM5krknkV5YX3wOfJ/iPymOBuzoBj5Eqn6
+BjMd/ioYrfgstoQ8sm1pHtDqINmx2ok3ragSf62XVX4ZAxW898G9FZS8UXWlT5iVLFAzh58bDkeJ
+Z08USqlQz46QRBRW6FehhFE9Hobh3UQCwSbSQ9Z8BbLZjQQwOplUHc1t6oxKu2qGgFVSDlF57ASV
+lnhy6Dmqpawy+4nTQ8ABEhk/xOaMWqcuubGIJjjokzSkJeE7JSLFi6+v6YeG73Yfqs4Gk89FrWlL
+n692FsOnc9Ym2PtFKRKXjW8RehCqLTZv5AlRq8eAdxEOQ/tutMbGgLoBauXZVVOdWYT25R5oYHwU
+oVoFWamQoxk+sllVVhej20b7fqKDZIdWemEWRnMQxVj2sgnr/GwRpqbRwNBswdPK1HQyT5C+uZ9Q
+vW4XmZZg09RYWZB6UagrKNMy57QofBhRVRuqx3k0Tie5SwjGCrVq0+2xpVBvCBMT7zO1BWGNowls
+tLbpex4+WJUPFTkzD8Ygtd6aWiF8b+xk/2GWhn5iPTUFmIMpPuLwnc2x68XQU+QYyLPEK7h8g6w6
+Ba0oRuPMggF2ZBvZuF8TP1AtFJFkZ1HjAjkODbxHEH47liCMghJahqmXXADuT7dkIxPDQwFLuWzt
+prsIko4EUrtuk/MZkzkrjKFFDZBY/oFRJoW1UHsU6Z4aokonOrTmSFzlWb0WlS2rRRDlZFGKKktP
+rS7vrrS6QbAe18I+Iptu+uSrAUyArh3y85Ql6qQnok4skz7VDs3YRuw8+TmVD465UJUiTQuunCmu
+r7EiNo5jSx2gcSpKaCwbqRachGSPWEcrLX8PYGd8nzmlf16LLiPLcGizjzJWImWmACYXbICG1IOA
+Mm5qEGWgXurM153TksSWJ/wzdGRpvgVo7guY4zrt7HLDTxlpfR9dB9bBiiOzOGwnsziuJSczL1Ic
+srp0x4+oODpyDDBe77S3ijFU9BE0iLgcUVBCR4VUAaINGify5JWp9yT1hSurD5HF+bUcgE8NDtzL
+rCxLagd2X+7Tjs6lEkRQu4QOwS5QkmZYQU8bPlhQWs9JZvXrpTLE5WGW5nkGbpVHdNuWY82qwjk5
+9dLGZfyWfOQU3nU2LEui544zxP3t0k0rC+eBrJqDOYwxTngOxf48pFUx7GKC4kZQMcq+80KjgVKC
+rGqaS5ZOuWuVndQ8XUxQzqdIsA+Kxzm5qdVj8o2o+NqHTWxSfVWiFA6+UcbxR/Q10bnrJ+5xFmkB
+HD7fnxRYPz352Y5FEWkxRMYEtBla+aZO3BJtY6jThoUJMjNqiX9lzYHa69qVMWNdhpq7CNtmfGtM
+Vsa+Xa3ZQ8eqTCNEJCFUnBSASV+JzLGPgHFbc4GRxPQGy8CgwpisU52lM4Xafg1s8z5Iqll6VVnR
+OxWN6kR5FGuchdDy6nPP9nM/klkD1lnhlL6M4BvAWtOiofPMZiZvddOofDRdrT+EeJ+KpRNNZIIO
+NodYmRSc7TQzyDtI2BRcqBPnLl4WPkoyPUpCfwVhlZCcUZ3dLSJ9eu9HXSs8TbTUqVEItRsDAoD0
+ph7fGG8yVd6XjOaydJ2X5bGeIzSMS8DsRUbpV1/oQtH3crU+hx5cMaJ0qEQ5jDvPFllEQcqwmwmk
+Dnx6hfJ/2sg44Oydd42urdVCM4K9VNTuiZKHnA9cd2i0dzrA3wdA6LZe+g2iMMhzfTW90WLDVRaM
+bveoySslRdSpqDW1Zkpyb3DBKIoTigFm6XVjai3gYNQbU/pAqB1QdIumD4TFYzm3Cl6FgPI1UJ7E
+eaBX0Li1lYjXLPbgn+bAcubpEcVSiN1BQAopRVX4OKUTX041Vfsj1iIRAzoSKeZlRWNgoOSMzEK9
+K7XobQpbIzvou8g5NrFRk/grTGhds2KIqVrB7+u9dlI7Gkfq2Q3MAlGvR7hSw3IcRKitg/DOSYDm
+rZZGOxrh0m5roz+P08lWFllaKggVes0/jaQNjiBjHevyqelskriSKrtNcwrtXhTkLmKLkQOtnMbs
+AMJd89FvcBP2xqK2DqRJWLCnT0j/qUCWGDsQXyFOu7YoWYPjQjsUvoAYNgQjLgqiJ65nmVKMRNtZ
+ju9hU8do0hyKNzXmJnh7ZK29oQ+Unx2/i/BPTIRxOrXgRTygaVNcYz9xWcO0ajyymPN4wQTkHIlS
+l2LXN5zpMlB69YCdZ0c9XEv1m94UOvQP8tlBRtM4eOMjL50WHDTyI/jxuvCwx2vDxRhXUCuHMGPQ
+2UOsnoRjBp27MFReYKeq5jmbvbmA0VpMnsnso6QImN8S8mOEELVtz0gaHjBw1sf+ULR6WsEWR+SN
+vCRKPYF+eL8uo4bquC/SQzvqIS6kal3AkZW44i8pOoQXTiQrYyHr1g5O+q6RN2yo+zMtrzuka0Wn
+sT/NE+fEyoqAxiH98EimsxlER/tfZKrZHfVjGVZQzimrLBAq1McyHf3rpCynyWPnqmC6P8xwcN0E
+nKRC1u9FUMLsW/laGrDAxnadrtjtG9dpoDj5otbK8Dw0cg6fCOPkJwAXC04OKr7rQMhKLHw/cRzy
+O3rmBgLGTd5yIbpzOWRZNpfk3JmNr1ftEiJO/dml5o7cJtHLiAIm1fGFGVAZXpSOkZ4aEXUAJK2J
+dUUZxD5BcpYfR2PuHPtqHSOw8QNxrNHJq5XaEBaCV2CJN8w8y49rLdbNdhUPTbqxU0gAq6nMM2Wt
+kG7kLiHTOO+yzGjKaN2PwXCBINzP1oOmk/IZGsKRuwK+/EGvTUZNqVSFd+TgeKLNNO9WenoxlOKo
+xjrhJqFQk3hGLfg0kGOLQMmq3/ShgP4gi17/OCVJgVbX7n3IFCiUaEM7NnbHyQQ6yTInqGHjDjF6
+Dpn0x+NoGP067qap9ViFlQ+4Z7DJD2CZYpZqxaiHG5Tin+CywCAR7AviazeIO3SESoAloE/UubOL
+nFoNL2wp+a4WtKDe4S00eXzW6wYUli4IBNG3E+Wi9y2Ee2NZucEg2HIHwoCJM0FlSV3zPkP4l87T
+fxf/r4eH/qoB2L1n2YM92J3z1TkWL88sxH7qQ4/n1Pk2Ly/0wC78gaOYzqmX0/DW6fzuWnd+Zt+7
+RoppWtPeYDqmCHeHJHcqFQAydz9gdSn53o+/N/Qdd7bkEHP+z/wDussdn7TSy8d/aaX2n33me19h
+yxhttvp/XTNo2g4HUgdwCnePu58XzQBii3ejdt8Kf8tmmNGW1zWDru6ANVJfpUGf9gJT7FAtIroP
+pundz32/+zv1gq+wcH95MGj6jgmZFpyJnjD/PB8M1g4WMA4A4kMnue93//1muC5afFjwLAwwP3zK
+KtZ/ckJ4doGnE4K6M8POAM9caqsP6Dv3nR9z1LufX+gDP9FCf02bHq4aN3ezanRbP7Fm/OEHHufU
+lxd4mEhmG0UaaOtz8xx7f+X7GWX+/39smTjezXVPfvk4993d5uHPH77fyztv3evxSz3+4150W22q
+azj4d2vIw1Peu0H+87q6ffpi75KR//0UL4wm/xr3371ougmKTf30uoCndOJXXzjbTAUn18crzS2N
+yTZlqddeebEJo83jZe58ME2XJei1l13f3tD26R9fc+p0oQS9/g6ruvzyZxVhgXW2wY368YJ3LYN1
+8m+4w24RffnXdpNrmjMj7t/2I/2pbnKwwYY0RLXweKm7dofc9Bse+udMwV79Bf5yHtv+Csxcj//w
+1c3VTzXP8ab68q/Hy9x3SeH+nutuvvx59ay3a79jfB7fVvkmu2qvt1+piVDo8Yv85+0xF4EwrX27
+yW+javsGtjNvzV7bH7erTIffcsZ9ZafZvss3almvvMc8FWz+8Nj0I/7aftEuFI7XN9X3tUavffrb
+KojKrWWJHaEpXv/Y58U1LQOf9PFS87DSUaz9htnsn9mm3B6v88HpN4zXA15h/ccu60i0/dz357LX
+9vrjaNN++XOrQbjwb1j7TgueONvqfXOLUA197SOfFvnNl//LtxfsmfACCeX1V2fe3eTbb9LVCY+w
+f8O79G6fT+pke+sUqn/02F/b+f11PH65H3w8Gn/tz7b3uvMnrlMe6x//DwAA//8=</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
   <cx:spPr>
     <a:solidFill>
@@ -5090,19 +5160,60 @@
         <a:lumMod val="95000"/>
       </a:schemeClr>
     </a:solidFill>
+    <a:ln cap="rnd">
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
   </cx:spPr>
 </cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+  <a:schemeClr val="accent2"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -5226,46 +5337,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5783,7 +5854,523 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="850"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="3175">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5891,11 +6478,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5906,11 +6488,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5942,9 +6519,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6000,22 +6574,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6120,8 +6695,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6253,319 +6828,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="495">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="850"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="3175">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -6576,92 +6844,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:upBar>
+  <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6671,145 +6855,21 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7320,511 +7380,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10327,7 +9882,7 @@
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10362,8 +9917,8 @@
   </sheetPr>
   <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" zoomScale="237" zoomScaleNormal="336" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:U3"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="174" zoomScaleNormal="336" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10399,460 +9954,460 @@
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>44075</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>259.29000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>0.19230769230769201</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <v>51.857999999999997</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>734</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>248</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>18</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <v>0</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>44105</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>931</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>35</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>1676.45685</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>3.7593984962405999E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>47.898767142857103</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>142</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>237</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>15</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <v>1</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <v>1301</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>44136</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>1207</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>44</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>2278.5075000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>3.6454018227009097E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <v>51.784261363636297</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>110</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>193</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>10</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <v>2</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <v>1238</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>44166</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1008</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>33</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>2602.7686899999999</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>3.2738095238095198E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <v>78.871778484848406</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>98</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>136</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>10</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <v>3</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="8">
         <v>1038</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>44197</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>1058</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>32</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>2297.2240499999998</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>3.0245746691871401E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <v>71.788251562499994</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>66</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>108</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>10</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <v>4</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <v>1076</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>44228</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>1300</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>68</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>3631.0958999999998</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>5.2307692307692298E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>53.398469117646997</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <v>5</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <v>956</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>44256</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>1932</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>119</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>7911.1924799999997</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>6.15942028985507E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <v>66.480609075630198</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <v>6</v>
       </c>
-      <c r="T10" s="9" t="s">
+      <c r="T10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <v>677</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>44287</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>2376</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>142</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>7477.5559199999998</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>5.97643097643097E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="13">
         <v>52.658844507042197</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>44317</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>3819</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>394</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>21508.476480000001</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0.103168368682901</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>54.590041827411099</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>44348</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>4440</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>589</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>33179.246639999998</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>0.132657657657657</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="13">
         <v>56.331488353140898</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>44378</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>6130</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>1073</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>58987.786489999999</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="12">
         <v>0.17504078303425699</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>54.974637921714802</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="8">
+      <c r="B15" s="14">
         <v>44409</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="15">
         <v>6353</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="15">
         <v>1254</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="15">
         <v>68274.090230000002</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="16">
         <v>0.19738706123091401</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="17">
         <v>54.445048030302999</v>
       </c>
     </row>
